--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">LEVANTAMENTO!$2:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ORÇAMENTO!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="304">
   <si>
     <t>Item</t>
   </si>
@@ -860,45 +860,6 @@
     <t>Serviço</t>
   </si>
   <si>
-    <t>mês 1</t>
-  </si>
-  <si>
-    <t>mês 2</t>
-  </si>
-  <si>
-    <t>mês 3</t>
-  </si>
-  <si>
-    <t>mês 4</t>
-  </si>
-  <si>
-    <t>mês 5</t>
-  </si>
-  <si>
-    <t>mês 6</t>
-  </si>
-  <si>
-    <t>mês 7</t>
-  </si>
-  <si>
-    <t>mês 8</t>
-  </si>
-  <si>
-    <t>mês 9</t>
-  </si>
-  <si>
-    <t>mês 10</t>
-  </si>
-  <si>
-    <t>mês 11</t>
-  </si>
-  <si>
-    <t>mês 12</t>
-  </si>
-  <si>
-    <t>mês 13</t>
-  </si>
-  <si>
     <t>ESQUADRIA DE ALUMÍNIO</t>
   </si>
   <si>
@@ -912,18 +873,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                     Curva "S"</t>
-  </si>
-  <si>
-    <t>mês 14</t>
-  </si>
-  <si>
-    <t>mês 15</t>
-  </si>
-  <si>
-    <t>mês 16</t>
-  </si>
-  <si>
-    <t>mês 17</t>
   </si>
   <si>
     <t>eixo X</t>
@@ -995,23 +944,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="18">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0\ &quot;x&quot;"/>
-    <numFmt numFmtId="188" formatCode="0.00\ &quot;x&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00\ &quot;=&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00\ &quot;m²&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00\ &quot;m³&quot;"/>
-    <numFmt numFmtId="192" formatCode="0\ &quot;kg/m³&quot;"/>
-    <numFmt numFmtId="196" formatCode="0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.0\ &quot;m²&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.0\ &quot;m²/m³&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00\ &quot;m&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00\ &quot;unid.&quot;"/>
-    <numFmt numFmtId="205" formatCode="#,##0.0"/>
-    <numFmt numFmtId="206" formatCode="0.0%"/>
-    <numFmt numFmtId="207" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="209" formatCode="&quot;R$ &quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;x&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00\ &quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\ &quot;=&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\ &quot;m²&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;m³&quot;"/>
+    <numFmt numFmtId="170" formatCode="0\ &quot;kg/m³&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.0\ &quot;m²&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.0\ &quot;m²/m³&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00\ &quot;m&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00\ &quot;unid.&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;R$ &quot;#,##0.00"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1216,7 +1165,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,12 +1205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,10 +1629,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1716,13 +1659,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="207" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1772,25 +1715,25 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="201" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="192" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,49 +1742,49 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="191" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="201" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="192" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="202" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="199" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,13 +1793,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="204" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,16 +1808,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="203" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1883,10 +1826,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="191" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1960,7 +1903,7 @@
     <xf numFmtId="4" fontId="21" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="209" fontId="18" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1982,7 +1925,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="205" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,7 +1955,7 @@
     <xf numFmtId="10" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,19 +1967,19 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="206" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,34 +2009,31 @@
     <xf numFmtId="17" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="206" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="206" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="207" fontId="16" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="206" fontId="26" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="207" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="207" fontId="16" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="17" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="207" fontId="32" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="32" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2113,6 +2053,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2121,7 +2071,127 @@
     <cellStyle name="Separador de milhares 2" xfId="3"/>
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2338,11 +2408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41677184"/>
-        <c:axId val="41678720"/>
+        <c:axId val="317206528"/>
+        <c:axId val="317208064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41677184"/>
+        <c:axId val="317206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2448,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41678720"/>
+        <c:crossAx val="317208064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2387,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41678720"/>
+        <c:axId val="317208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2424,7 +2494,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41677184"/>
+        <c:crossAx val="317206528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2600,8 +2670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61506688"/>
-        <c:axId val="61508224"/>
+        <c:axId val="317318656"/>
+        <c:axId val="317320192"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2958,11 +3028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61522304"/>
-        <c:axId val="61523840"/>
+        <c:axId val="317797120"/>
+        <c:axId val="317798656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61506688"/>
+        <c:axId val="317318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +3076,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61508224"/>
+        <c:crossAx val="317320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3015,7 +3085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61508224"/>
+        <c:axId val="317320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3052,13 +3122,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61506688"/>
+        <c:crossAx val="317318656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="61522304"/>
+        <c:axId val="317797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61523840"/>
+        <c:crossAx val="317798656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3075,7 +3145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61523840"/>
+        <c:axId val="317798656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61522304"/>
+        <c:crossAx val="317797120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3519,7 +3589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan1">
     <tabColor indexed="14"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3546,63 +3616,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="152" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
-      <c r="B3" s="154" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="B3" s="153" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="1:12" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
@@ -19508,14 +19578,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan2">
     <tabColor indexed="14"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19531,16 +19601,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="153" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+        <v>299</v>
+      </c>
+      <c r="B1" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
@@ -19563,14 +19633,14 @@
     <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="35" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="157"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="102">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
@@ -19694,7 +19764,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D11" s="92">
         <v>1</v>
@@ -19924,7 +19994,7 @@
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B22" s="90" t="s">
         <v>188</v>
@@ -20666,7 +20736,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="99" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D57" s="100"/>
       <c r="E57" s="80"/>
@@ -20915,10 +20985,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C69" s="99" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D69" s="100"/>
       <c r="E69" s="80"/>
@@ -20931,7 +21001,7 @@
     <row r="70" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="90" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C70" s="91" t="s">
         <v>91</v>
@@ -20996,7 +21066,7 @@
         <v>142</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D73" s="92">
         <v>1</v>
@@ -21125,13 +21195,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
   <dimension ref="A1:W167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21151,59 +21222,59 @@
   <sheetData>
     <row r="1" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="103"/>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="35" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
@@ -21213,138 +21284,157 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="152">
-        <f>IF(COUNTIF(E9:E42,"&gt;0"),1," ")</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="152">
-        <f t="shared" ref="F5:U5" si="0">IF(COUNTIF(F9:F42,"&gt;0"),1," ")</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="152">
-        <v>1</v>
-      </c>
-      <c r="H5" s="152">
-        <v>1</v>
-      </c>
-      <c r="I5" s="152">
-        <v>1</v>
-      </c>
-      <c r="J5" s="152">
+      <c r="E5" s="160">
+        <f>IF(COUNTIF(E9:E42,"&gt;0"),1+0," ")</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="160">
+        <f>IF(COUNTIF(F9:F42,"&gt;0"),1+E5," ")</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="160">
+        <f t="shared" ref="G5:U5" si="0">IF(COUNTIF(G9:G42,"&gt;0"),1+F5," ")</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="152">
+        <v>4</v>
+      </c>
+      <c r="I5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="152">
+        <v>5</v>
+      </c>
+      <c r="J5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="152">
+        <v>6</v>
+      </c>
+      <c r="K5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="152">
+        <v>7</v>
+      </c>
+      <c r="L5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="152">
+        <v>8</v>
+      </c>
+      <c r="M5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="152">
+        <v>9</v>
+      </c>
+      <c r="N5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="152">
+        <v>10</v>
+      </c>
+      <c r="O5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="152">
+        <v>11</v>
+      </c>
+      <c r="P5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="152">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="152">
+        <v>13</v>
+      </c>
+      <c r="R5" s="160">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="152" t="str">
+        <v>14</v>
+      </c>
+      <c r="S5" s="160">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T5" s="160">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="U5" s="160" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>299</v>
+      <c r="E6" s="117" t="str">
+        <f t="shared" ref="E6:U6" si="1">"Mês"&amp;" "&amp;E5</f>
+        <v>Mês 1</v>
+      </c>
+      <c r="F6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 2</v>
+      </c>
+      <c r="G6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 3</v>
+      </c>
+      <c r="H6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 4</v>
+      </c>
+      <c r="I6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 5</v>
+      </c>
+      <c r="J6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 6</v>
+      </c>
+      <c r="K6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 7</v>
+      </c>
+      <c r="L6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 8</v>
+      </c>
+      <c r="M6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 9</v>
+      </c>
+      <c r="N6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 10</v>
+      </c>
+      <c r="O6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 11</v>
+      </c>
+      <c r="P6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 12</v>
+      </c>
+      <c r="Q6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 13</v>
+      </c>
+      <c r="R6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 14</v>
+      </c>
+      <c r="S6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 15</v>
+      </c>
+      <c r="T6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v>Mês 16</v>
+      </c>
+      <c r="U6" s="117" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Mês  </v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21442,46 +21532,76 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="122"/>
-      <c r="E9" s="146">
-        <f>IFERROR(E10/ORÇAMENTO!G7," ")</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="146" t="str">
-        <f>IFERROR(F10/ORÇAMENTO!H7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" s="146" t="str">
-        <f>IFERROR(G10/ORÇAMENTO!I7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H9" s="146" t="str">
-        <f>IFERROR(H10/ORÇAMENTO!J7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I9" s="146" t="str">
-        <f>IFERROR(I10/ORÇAMENTO!K7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J9" s="146" t="str">
-        <f>IFERROR(J10/ORÇAMENTO!L7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K9" s="146" t="str">
-        <f>IFERROR(K10/ORÇAMENTO!M7," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
+      <c r="E9" s="144">
+        <f>IFERROR(E10/ORÇAMENTO!$G$7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="144">
+        <f>IFERROR(F10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="144">
+        <f>IFERROR(G10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="144">
+        <f>IFERROR(H10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="144">
+        <f>IFERROR(I10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="144">
+        <f>IFERROR(J10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="144">
+        <f>IFERROR(K10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="144">
+        <f>IFERROR(L10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="144">
+        <f>IFERROR(M10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="144">
+        <f>IFERROR(N10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="144">
+        <f>IFERROR(O10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="144">
+        <f>IFERROR(P10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="144">
+        <f>IFERROR(Q10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="144">
+        <f>IFERROR(R10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="144">
+        <f>IFERROR(S10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="144">
+        <f>IFERROR(T10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="144">
+        <f>IFERROR(U10/ORÇAMENTO!$G$7,"")</f>
+        <v>0</v>
+      </c>
       <c r="V9" s="124">
-        <f t="shared" ref="V9:V42" si="1">SUM(E9:U9)</f>
+        <f t="shared" ref="V9:V42" si="2">SUM(E9:U9)</f>
         <v>1</v>
       </c>
     </row>
@@ -21491,30 +21611,30 @@
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="81" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D10" s="81"/>
-      <c r="E10" s="148">
+      <c r="E10" s="149">
         <v>116000</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
       <c r="V10" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116000</v>
       </c>
     </row>
@@ -21530,28 +21650,76 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="129"/>
-      <c r="E11" s="146">
-        <f>E12/ORÇAMENTO!G14</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
+      <c r="E11" s="144">
+        <f>IFERROR(E12/ORÇAMENTO!G14," ")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="144" t="str">
+        <f>IFERROR(F12/ORÇAMENTO!H14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" s="144" t="str">
+        <f>IFERROR(G12/ORÇAMENTO!I14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H11" s="144" t="str">
+        <f>IFERROR(H12/ORÇAMENTO!J14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I11" s="144" t="str">
+        <f>IFERROR(I12/ORÇAMENTO!K14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" s="144" t="str">
+        <f>IFERROR(J12/ORÇAMENTO!L14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" s="144" t="str">
+        <f>IFERROR(K12/ORÇAMENTO!M14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" s="144" t="str">
+        <f>IFERROR(L12/ORÇAMENTO!N14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M11" s="144" t="str">
+        <f>IFERROR(M12/ORÇAMENTO!O14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N11" s="144" t="str">
+        <f>IFERROR(N12/ORÇAMENTO!P14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" s="144" t="str">
+        <f>IFERROR(O12/ORÇAMENTO!Q14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P11" s="144" t="str">
+        <f>IFERROR(P12/ORÇAMENTO!R14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q11" s="144" t="str">
+        <f>IFERROR(Q12/ORÇAMENTO!S14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R11" s="144" t="str">
+        <f>IFERROR(R12/ORÇAMENTO!T14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S11" s="144" t="str">
+        <f>IFERROR(S12/ORÇAMENTO!U14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T11" s="144" t="str">
+        <f>IFERROR(T12/ORÇAMENTO!V14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U11" s="144" t="str">
+        <f>IFERROR(U12/ORÇAMENTO!W14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="V11" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -21561,30 +21729,30 @@
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D12" s="81"/>
-      <c r="E12" s="148">
+      <c r="E12" s="149">
         <v>9602.2999999999993</v>
       </c>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
       <c r="V12" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9602.2999999999993</v>
       </c>
     </row>
@@ -21601,30 +21769,75 @@
       </c>
       <c r="D13" s="122"/>
       <c r="E13" s="142">
-        <f>IFERROR(E14/ORÇAMENTO!$G$20," ")</f>
+        <f>IFERROR(IF(E14="","",E14/ORÇAMENTO!$G$20)," ")</f>
         <v>0.5</v>
       </c>
       <c r="F13" s="142">
-        <f>IFERROR(F14/ORÇAMENTO!$G$20," ")</f>
+        <f>IFERROR(IF(F14="","",F14/ORÇAMENTO!$G$20)," ")</f>
         <v>0.5</v>
       </c>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
+      <c r="G13" s="142" t="str">
+        <f>IFERROR(IF(G14="","",G14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="H13" s="142" t="str">
+        <f>IFERROR(IF(H14="","",H14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="I13" s="142" t="str">
+        <f>IFERROR(IF(I14="","",I14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="J13" s="142" t="str">
+        <f>IFERROR(IF(J14="","",J14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="K13" s="142" t="str">
+        <f>IFERROR(IF(K14="","",K14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="L13" s="142" t="str">
+        <f>IFERROR(IF(L14="","",L14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="M13" s="142" t="str">
+        <f>IFERROR(IF(M14="","",M14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="N13" s="142" t="str">
+        <f>IFERROR(IF(N14="","",N14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="O13" s="142" t="str">
+        <f>IFERROR(IF(O14="","",O14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="P13" s="142" t="str">
+        <f>IFERROR(IF(P14="","",P14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="142" t="str">
+        <f>IFERROR(IF(Q14="","",Q14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="R13" s="142" t="str">
+        <f>IFERROR(IF(R14="","",R14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="S13" s="142" t="str">
+        <f>IFERROR(IF(S14="","",S14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="T13" s="142" t="str">
+        <f>IFERROR(IF(T14="","",T14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="U13" s="142" t="str">
+        <f>IFERROR(IF(U14="","",U14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
       <c r="V13" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -21634,40 +21847,37 @@
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="148">
-        <f>ORÇAMENTO!$G$20/D14</f>
+      <c r="E14" s="149">
+        <f>IF($D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
         <v>6468</v>
       </c>
-      <c r="F14" s="148">
-        <f>ORÇAMENTO!$G$20/D14</f>
+      <c r="F14" s="149">
+        <f>IF($D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
         <v>6468</v>
       </c>
-      <c r="G14" s="144">
-        <f>IF($D$14-$G$5&lt;$D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
-        <v>6468</v>
-      </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
       <c r="V14" s="125">
-        <f t="shared" si="1"/>
-        <v>19404</v>
+        <f t="shared" si="2"/>
+        <v>12936</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21682,61 +21892,76 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="129"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
+      <c r="E15" s="142">
+        <f>IFERROR(E16/ORÇAMENTO!$G$25," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="142">
+        <f>IFERROR(F16/ORÇAMENTO!$G$25," ")</f>
+        <v>0</v>
+      </c>
       <c r="G15" s="142">
-        <f>G16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(G16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H15" s="142">
-        <f>H16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(H16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I15" s="142">
-        <f>I16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(I16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J15" s="142">
-        <f>J16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(J16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K15" s="142">
-        <f>K16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(K16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L15" s="142">
-        <f>L16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(L16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M15" s="142">
-        <f>M16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(M16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N15" s="142">
-        <f>N16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(N16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O15" s="142">
-        <f>O16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(O16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P15" s="142">
-        <f>P16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(P16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q15" s="142">
-        <f>Q16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(Q16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R15" s="142">
-        <f>R16/ORÇAMENTO!$G$25</f>
+        <f>IFERROR(R16/ORÇAMENTO!$G$25," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
+      <c r="S15" s="142">
+        <f>IFERROR(S16/ORÇAMENTO!$G$25," ")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="142">
+        <f>IFERROR(T16/ORÇAMENTO!$G$25," ")</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="142">
+        <f>IFERROR(U16/ORÇAMENTO!$G$25," ")</f>
+        <v>0</v>
+      </c>
       <c r="V15" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -21746,64 +21971,64 @@
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="148">
+        <v>289</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="H16" s="148">
+      <c r="H16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="I16" s="148">
+      <c r="I16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="J16" s="148">
+      <c r="J16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="K16" s="148">
+      <c r="K16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="L16" s="148">
+      <c r="L16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="M16" s="148">
+      <c r="M16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="N16" s="148">
+      <c r="N16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="O16" s="148">
+      <c r="O16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="P16" s="148">
+      <c r="P16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="Q16" s="148">
+      <c r="Q16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="R16" s="148">
+      <c r="R16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
       <c r="V16" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189979.99999999997</v>
       </c>
     </row>
@@ -21870,7 +22095,7 @@
       <c r="T17" s="142"/>
       <c r="U17" s="142"/>
       <c r="V17" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -21880,61 +22105,61 @@
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="148">
+        <v>288</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="H18" s="148">
+      <c r="H18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="I18" s="148">
+      <c r="I18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="J18" s="148">
+      <c r="J18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="K18" s="148">
+      <c r="K18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="L18" s="148">
+      <c r="L18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="M18" s="148">
+      <c r="M18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="N18" s="148">
+      <c r="N18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="O18" s="148">
+      <c r="O18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="P18" s="148">
+      <c r="P18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="Q18" s="148">
+      <c r="Q18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
       <c r="V18" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8400.0000000000018</v>
       </c>
     </row>
@@ -21950,58 +22175,58 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="129"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142">
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150">
         <f>G20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H19" s="142">
+      <c r="H19" s="150">
         <f>H20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I19" s="142">
+      <c r="I19" s="150">
         <f>I20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J19" s="142">
+      <c r="J19" s="150">
         <f>J20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="150">
         <f>K20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L19" s="142">
+      <c r="L19" s="150">
         <f>L20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M19" s="142">
+      <c r="M19" s="150">
         <f>M20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="N19" s="142">
+      <c r="N19" s="150">
         <f>N20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="O19" s="142">
+      <c r="O19" s="150">
         <f>O20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="P19" s="142">
+      <c r="P19" s="150">
         <f>P20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Q19" s="142">
+      <c r="Q19" s="150">
         <f>Q20/ORÇAMENTO!$G$37</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
       <c r="V19" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22011,61 +22236,61 @@
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="148">
+        <v>288</v>
+      </c>
+      <c r="D20" s="147"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="H20" s="148">
+      <c r="H20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="I20" s="148">
+      <c r="I20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="J20" s="148">
+      <c r="J20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="K20" s="148">
+      <c r="K20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="L20" s="148">
+      <c r="L20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="M20" s="148">
+      <c r="M20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="N20" s="148">
+      <c r="N20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="O20" s="148">
+      <c r="O20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="P20" s="148">
+      <c r="P20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="Q20" s="148">
+      <c r="Q20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
       <c r="V20" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2559.9999999999995</v>
       </c>
     </row>
@@ -22081,49 +22306,49 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="122"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142">
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150">
         <f>G22/ORÇAMENTO!G39</f>
         <v>0.73813642008160374</v>
       </c>
-      <c r="H21" s="142">
+      <c r="H21" s="150">
         <f>H22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="I21" s="142">
+      <c r="I21" s="150">
         <f>I22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="J21" s="142">
+      <c r="J21" s="150">
         <f>J22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="K21" s="142">
+      <c r="K21" s="150">
         <f>K22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="L21" s="142">
+      <c r="L21" s="150">
         <f>L22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="M21" s="142">
+      <c r="M21" s="150">
         <f>M22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="N21" s="142">
+      <c r="N21" s="150">
         <f>N22/ORÇAMENTO!$G$39</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
       <c r="V21" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -22133,52 +22358,52 @@
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="148">
+        <v>292</v>
+      </c>
+      <c r="D22" s="147"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149">
         <f>ORÇAMENTO!G42+ORÇAMENTO!G41+H22</f>
         <v>2080.4375</v>
       </c>
-      <c r="H22" s="148">
+      <c r="H22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="I22" s="148">
+      <c r="I22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="J22" s="148">
+      <c r="J22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="K22" s="148">
+      <c r="K22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="L22" s="148">
+      <c r="L22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="M22" s="148">
+      <c r="M22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="N22" s="148">
+      <c r="N22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
       <c r="V22" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2818.5</v>
       </c>
     </row>
@@ -22194,31 +22419,31 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="129"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142">
+      <c r="E23" s="150"/>
+      <c r="F23" s="150">
         <f>F24/ORÇAMENTO!G43</f>
         <v>0.5</v>
       </c>
-      <c r="G23" s="142">
+      <c r="G23" s="150">
         <f>G24/ORÇAMENTO!G43</f>
         <v>0.5</v>
       </c>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
       <c r="V23" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22228,34 +22453,34 @@
       </c>
       <c r="B24" s="81"/>
       <c r="C24" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="148">
+        <v>286</v>
+      </c>
+      <c r="D24" s="147"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149">
         <f>ORÇAMENTO!G43/2</f>
         <v>14275</v>
       </c>
-      <c r="G24" s="148">
+      <c r="G24" s="149">
         <f>ORÇAMENTO!G43/2</f>
         <v>14275</v>
       </c>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
       <c r="V24" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28550</v>
       </c>
     </row>
@@ -22271,52 +22496,52 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="122"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142">
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150">
         <f>H26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="I25" s="142">
+      <c r="I25" s="150">
         <f>I26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J25" s="150">
         <f>J26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="K25" s="142">
+      <c r="K25" s="150">
         <f>K26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="L25" s="142">
+      <c r="L25" s="150">
         <f>L26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="M25" s="142">
+      <c r="M25" s="150">
         <f>M26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="N25" s="142">
+      <c r="N25" s="150">
         <f>N26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="O25" s="142">
+      <c r="O25" s="150">
         <f>O26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="P25" s="142">
+      <c r="P25" s="150">
         <f>P26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="142"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
       <c r="V25" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22326,67 +22551,55 @@
       </c>
       <c r="B26" s="81"/>
       <c r="C26" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="148">
+        <v>293</v>
+      </c>
+      <c r="D26" s="147"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="I26" s="148">
+      <c r="I26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="J26" s="148">
+      <c r="J26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="K26" s="148">
+      <c r="K26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="L26" s="148">
+      <c r="L26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="M26" s="148">
+      <c r="M26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="N26" s="148">
+      <c r="N26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="O26" s="148">
+      <c r="O26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="P26" s="148">
+      <c r="P26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144" t="str">
-        <f>IF(R25="","",R25*$V26)</f>
-        <v/>
-      </c>
-      <c r="S26" s="144" t="str">
-        <f>IF(S25="","",S25*$V26)</f>
-        <v/>
-      </c>
-      <c r="T26" s="144" t="str">
-        <f>IF(T25="","",T25*$V26)</f>
-        <v/>
-      </c>
-      <c r="U26" s="144" t="str">
-        <f>IF(U25="","",U25*$V26)</f>
-        <v/>
-      </c>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
       <c r="V26" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>792500</v>
       </c>
     </row>
@@ -22402,49 +22615,49 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="129"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="142">
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="150">
         <f>I28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="J27" s="142">
+      <c r="J27" s="150">
         <f>J28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="K27" s="142">
+      <c r="K27" s="150">
         <f>K28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="L27" s="142">
+      <c r="L27" s="150">
         <f>L28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="M27" s="142">
+      <c r="M27" s="150">
         <f>M28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="N27" s="142">
+      <c r="N27" s="150">
         <f>N28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="O27" s="142">
+      <c r="O27" s="150">
         <f>O28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="P27" s="142">
+      <c r="P27" s="150">
         <f>P28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="142"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
       <c r="V27" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22454,61 +22667,52 @@
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="81" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D28" s="81"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="148">
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="J28" s="148">
+      <c r="J28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="K28" s="148">
+      <c r="K28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="L28" s="148">
+      <c r="L28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="M28" s="148">
+      <c r="M28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="N28" s="148">
+      <c r="N28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="O28" s="148">
+      <c r="O28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="P28" s="148">
+      <c r="P28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144" t="str">
-        <f>IF(S27="","",S27*$V28)</f>
-        <v/>
-      </c>
-      <c r="T28" s="144" t="str">
-        <f>IF(T27="","",T27*$V28)</f>
-        <v/>
-      </c>
-      <c r="U28" s="144" t="str">
-        <f>IF(U27="","",U27*$V28)</f>
-        <v/>
-      </c>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92500</v>
       </c>
     </row>
@@ -22520,31 +22724,31 @@
         <v>13</v>
       </c>
       <c r="C29" s="122" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D29" s="122"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150">
         <f>P30/ORÇAMENTO!G53</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="142"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="150"/>
       <c r="V29" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22554,40 +22758,31 @@
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="81" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D30" s="81"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144" t="str">
-        <f>IF(I29="","",I29*$V30)</f>
-        <v/>
-      </c>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="148">
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149">
         <f>ORÇAMENTO!G53</f>
         <v>62000</v>
       </c>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144" t="str">
-        <f>IF(T29="","",T29*$V30)</f>
-        <v/>
-      </c>
-      <c r="U30" s="144" t="str">
-        <f>IF(U29="","",U29*$V30)</f>
-        <v/>
-      </c>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
       <c r="V30" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62000</v>
       </c>
     </row>
@@ -22603,37 +22798,37 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="122"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142">
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150">
         <f>M32/ORÇAMENTO!$G$55</f>
         <v>0.25</v>
       </c>
-      <c r="N31" s="142">
+      <c r="N31" s="150">
         <f>N32/ORÇAMENTO!$G$55</f>
         <v>0.25</v>
       </c>
-      <c r="O31" s="142">
+      <c r="O31" s="150">
         <f>O32/ORÇAMENTO!$G$55</f>
         <v>0.25</v>
       </c>
-      <c r="P31" s="142">
+      <c r="P31" s="150">
         <f>P32/ORÇAMENTO!$G$55</f>
         <v>0.25</v>
       </c>
-      <c r="Q31" s="142"/>
-      <c r="R31" s="142"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="142"/>
-      <c r="U31" s="142"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
       <c r="V31" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22643,49 +22838,40 @@
       </c>
       <c r="B32" s="81"/>
       <c r="C32" s="81" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D32" s="81"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="148">
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149">
         <f>ORÇAMENTO!$G$55/4</f>
         <v>4298</v>
       </c>
-      <c r="N32" s="148">
+      <c r="N32" s="149">
         <f>ORÇAMENTO!$G$55/4</f>
         <v>4298</v>
       </c>
-      <c r="O32" s="148">
+      <c r="O32" s="149">
         <f>ORÇAMENTO!$G$55/4</f>
         <v>4298</v>
       </c>
-      <c r="P32" s="148">
+      <c r="P32" s="149">
         <f>ORÇAMENTO!$G$55/4</f>
         <v>4298</v>
       </c>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="144" t="str">
-        <f>IF(S31="","",S31*$V32)</f>
-        <v/>
-      </c>
-      <c r="T32" s="144" t="str">
-        <f>IF(T31="","",T31*$V32)</f>
-        <v/>
-      </c>
-      <c r="U32" s="144" t="str">
-        <f>IF(U31="","",U31*$V32)</f>
-        <v/>
-      </c>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
       <c r="V32" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17192</v>
       </c>
     </row>
@@ -22701,34 +22887,34 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="129"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142">
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150">
         <f>J34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K33" s="142">
+      <c r="K33" s="150">
         <f>K34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L33" s="142">
+      <c r="L33" s="150">
         <f>L34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="142"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="142"/>
-      <c r="U33" s="142"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
       <c r="V33" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22738,37 +22924,37 @@
       </c>
       <c r="B34" s="81"/>
       <c r="C34" s="81" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D34" s="81"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="148">
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="K34" s="148">
+      <c r="K34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="L34" s="148">
+      <c r="L34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
       <c r="V34" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18828</v>
       </c>
     </row>
@@ -22784,52 +22970,52 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="122"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142">
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150">
         <f>J36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="K35" s="142">
+      <c r="K35" s="150">
         <f>K36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="L35" s="142">
+      <c r="L35" s="150">
         <f>L36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="M35" s="142">
+      <c r="M35" s="150">
         <f>M36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="N35" s="142">
+      <c r="N35" s="150">
         <f>N36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="O35" s="142">
+      <c r="O35" s="150">
         <f>O36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="P35" s="142">
+      <c r="P35" s="150">
         <f>P36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="Q35" s="142">
+      <c r="Q35" s="150">
         <f>Q36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="R35" s="142">
+      <c r="R35" s="150">
         <f>R36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="S35" s="142"/>
-      <c r="T35" s="142"/>
-      <c r="U35" s="142"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="150"/>
+      <c r="U35" s="150"/>
       <c r="V35" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22839,55 +23025,55 @@
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="81" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D36" s="81"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="148">
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="K36" s="148">
+      <c r="K36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="L36" s="148">
+      <c r="L36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="M36" s="148">
+      <c r="M36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="N36" s="148">
+      <c r="N36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="O36" s="148">
+      <c r="O36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="P36" s="148">
+      <c r="P36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="Q36" s="148">
+      <c r="Q36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="R36" s="148">
+      <c r="R36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
       <c r="V36" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41510</v>
       </c>
     </row>
@@ -22903,37 +23089,37 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="122"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142">
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150">
         <f>I38/ORÇAMENTO!$G$62</f>
         <v>0.25</v>
       </c>
-      <c r="J37" s="142">
+      <c r="J37" s="150">
         <f>J38/ORÇAMENTO!$G$62</f>
         <v>0.25</v>
       </c>
-      <c r="K37" s="142">
+      <c r="K37" s="150">
         <f>K38/ORÇAMENTO!$G$62</f>
         <v>0.25</v>
       </c>
-      <c r="L37" s="142">
+      <c r="L37" s="150">
         <f>L38/ORÇAMENTO!$G$62</f>
         <v>0.25</v>
       </c>
-      <c r="M37" s="142"/>
-      <c r="N37" s="142"/>
-      <c r="O37" s="142"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="142"/>
-      <c r="S37" s="142"/>
-      <c r="T37" s="142"/>
-      <c r="U37" s="142"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="150"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="150"/>
+      <c r="U37" s="150"/>
       <c r="V37" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22943,52 +23129,40 @@
       </c>
       <c r="B38" s="81"/>
       <c r="C38" s="81" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D38" s="81"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="148">
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149">
         <f>ORÇAMENTO!$G$62/4</f>
         <v>220000</v>
       </c>
-      <c r="J38" s="148">
+      <c r="J38" s="149">
         <f>ORÇAMENTO!$G$62/4</f>
         <v>220000</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="149">
         <f>ORÇAMENTO!$G$62/4</f>
         <v>220000</v>
       </c>
-      <c r="L38" s="148">
+      <c r="L38" s="149">
         <f>ORÇAMENTO!$G$62/4</f>
         <v>220000</v>
       </c>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144" t="str">
-        <f>IF(P37="","",P37*$V38)</f>
-        <v/>
-      </c>
-      <c r="Q38" s="144" t="str">
-        <f>IF(Q37="","",Q37*$V38)</f>
-        <v/>
-      </c>
-      <c r="R38" s="144" t="str">
-        <f>IF(R37="","",R37*$V38)</f>
-        <v/>
-      </c>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144" t="str">
-        <f>IF(U37="","",U37*$V38)</f>
-        <v/>
-      </c>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
       <c r="V38" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>880000</v>
       </c>
     </row>
@@ -22997,35 +23171,35 @@
         <v>194</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C39" s="129" t="str">
         <f>VLOOKUP(B39,ORÇAMENTO!B48:G129,2,0)</f>
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="129"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142">
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150">
         <f>K40/ORÇAMENTO!G69</f>
         <v>1</v>
       </c>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="142"/>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="142"/>
-      <c r="R39" s="142"/>
-      <c r="S39" s="142"/>
-      <c r="T39" s="142"/>
-      <c r="U39" s="142"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
       <c r="V39" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -23035,52 +23209,31 @@
       </c>
       <c r="B40" s="81"/>
       <c r="C40" s="81" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D40" s="81"/>
-      <c r="E40" s="144">
-        <f>IF(C40=E6,ORÇAMENTO!G69,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="144">
-        <f>IF(D40=F6,ORÇAMENTO!H69,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="148">
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149">
         <f>ORÇAMENTO!G69</f>
         <v>40000</v>
       </c>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144" t="str">
-        <f>IF(N39="","",N39*$V40)</f>
-        <v/>
-      </c>
-      <c r="O40" s="144" t="str">
-        <f>IF(O39="","",O39*$V40)</f>
-        <v/>
-      </c>
-      <c r="P40" s="144" t="str">
-        <f>IF(P39="","",P39*$V40)</f>
-        <v/>
-      </c>
-      <c r="Q40" s="144" t="str">
-        <f>IF(Q39="","",Q39*$V40)</f>
-        <v/>
-      </c>
-      <c r="R40" s="144"/>
-      <c r="S40" s="144"/>
-      <c r="T40" s="144"/>
-      <c r="U40" s="144" t="str">
-        <f>IF(U39="","",U39*$V40)</f>
-        <v/>
-      </c>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="149"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="149"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
       <c r="V40" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -23096,31 +23249,31 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="122"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142"/>
-      <c r="L41" s="142"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="142"/>
-      <c r="S41" s="142">
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="150"/>
+      <c r="R41" s="150"/>
+      <c r="S41" s="150">
         <f>S42/ORÇAMENTO!$G$71</f>
         <v>0.5</v>
       </c>
-      <c r="T41" s="142">
+      <c r="T41" s="150">
         <f>T42/ORÇAMENTO!$G$71</f>
         <v>0.5</v>
       </c>
-      <c r="U41" s="142"/>
+      <c r="U41" s="150"/>
       <c r="V41" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -23130,49 +23283,34 @@
       </c>
       <c r="B42" s="81"/>
       <c r="C42" s="81" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D42" s="81"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144" t="str">
-        <f>IF(O41="","",O41*$V42)</f>
-        <v/>
-      </c>
-      <c r="P42" s="144" t="str">
-        <f>IF(P41="","",P41*$V42)</f>
-        <v/>
-      </c>
-      <c r="Q42" s="144" t="str">
-        <f>IF(Q41="","",Q41*$V42)</f>
-        <v/>
-      </c>
-      <c r="R42" s="144" t="str">
-        <f>IF(R41="","",R41*$V42)</f>
-        <v/>
-      </c>
-      <c r="S42" s="148">
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="149">
         <f>ORÇAMENTO!$G$71/2</f>
         <v>12950</v>
       </c>
-      <c r="T42" s="148">
+      <c r="T42" s="149">
         <f>ORÇAMENTO!$G$71/2</f>
         <v>12950</v>
       </c>
-      <c r="U42" s="144" t="str">
-        <f>IF(U41="","",U41*$V42)</f>
-        <v/>
-      </c>
+      <c r="U42" s="149"/>
       <c r="V42" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25900</v>
       </c>
     </row>
@@ -23207,71 +23345,71 @@
       </c>
       <c r="D44" s="118"/>
       <c r="E44" s="119">
-        <f t="shared" ref="E44:U44" si="2">E45/$V$46</f>
+        <f t="shared" ref="E44:U44" si="3">E45/$V$46</f>
         <v>5.6409519797061158E-2</v>
       </c>
       <c r="F44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8596957010807099E-3</v>
       </c>
       <c r="G44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4173235647758653E-2</v>
       </c>
       <c r="H44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4842636017486642E-2</v>
       </c>
       <c r="I44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14374700307054078</v>
       </c>
       <c r="J44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14839755196002802</v>
       </c>
       <c r="K44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16548224694355154</v>
       </c>
       <c r="L44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14839755196002802</v>
       </c>
       <c r="M44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3586891383713406E-2</v>
       </c>
       <c r="N44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3586891383713406E-2</v>
       </c>
       <c r="O44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3541857195530278E-2</v>
       </c>
       <c r="P44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0023134419991732E-2</v>
       </c>
       <c r="Q44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1575043690914817E-3</v>
       </c>
       <c r="R44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.731940148592807E-3</v>
       </c>
       <c r="S44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5311700009157399E-3</v>
       </c>
       <c r="T44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5311700009157399E-3</v>
       </c>
       <c r="U44" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44" s="119">
@@ -23356,7 +23494,7 @@
       </c>
       <c r="V45" s="120">
         <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28+V30+V32+V34+V36+V38+V40+V42</f>
-        <v>2347744.7999999998</v>
+        <v>2341276.7999999998</v>
       </c>
       <c r="W45" s="73"/>
     </row>
@@ -23375,11 +23513,11 @@
         <v>6.5269215498141867E-2</v>
       </c>
       <c r="G46" s="121">
-        <f t="shared" ref="G46:Q46" si="3">G44+F46</f>
+        <f t="shared" ref="G46:Q46" si="4">G44+F46</f>
         <v>7.9442451145900525E-2</v>
       </c>
       <c r="H46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12428508716338717</v>
       </c>
       <c r="I46" s="121">
@@ -23387,35 +23525,35 @@
         <v>0.26803209023392793</v>
       </c>
       <c r="J46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41642964219395595</v>
       </c>
       <c r="K46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58191188913750747</v>
       </c>
       <c r="L46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73030944109753548</v>
       </c>
       <c r="M46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7838963324812489</v>
       </c>
       <c r="N46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83748322386496232</v>
       </c>
       <c r="O46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89102508106049261</v>
       </c>
       <c r="P46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97104821548048437</v>
       </c>
       <c r="Q46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98020571984957583</v>
       </c>
       <c r="R46" s="121">
@@ -23442,9 +23580,9 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="C47" s="118" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47" s="73">
+        <v>301</v>
+      </c>
+      <c r="D47" s="158">
         <f>COUNTIF(E45:T45,"&lt;&gt;0")</f>
         <v>16</v>
       </c>
@@ -23470,9 +23608,9 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="C48" s="118" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="1">
+        <v>302</v>
+      </c>
+      <c r="D48" s="159">
         <f>COUNT(E45:T45)</f>
         <v>16</v>
       </c>
@@ -23845,6 +23983,91 @@
     <mergeCell ref="B1:V1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="E10:U10">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:U12">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:U14">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:U16">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:U18">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:U20">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:U22">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:U24">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:U26">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:U28">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:U30">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:U32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:U34">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:U36">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:U38">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:U40">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:U42">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
@@ -23857,7 +24080,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA41"/>
@@ -23884,7 +24107,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -23983,7 +24206,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="138" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="141"/>
@@ -24046,11 +24269,11 @@
         <f>'FÍSICO x FINANCEIRO'!R7</f>
         <v>40756</v>
       </c>
-      <c r="S2" s="149">
+      <c r="S2" s="145">
         <f>'FÍSICO x FINANCEIRO'!S7</f>
         <v>40787</v>
       </c>
-      <c r="T2" s="149">
+      <c r="T2" s="145">
         <f>'FÍSICO x FINANCEIRO'!T7</f>
         <v>40817</v>
       </c>
@@ -24102,7 +24325,7 @@
     <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="134" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134"/>
@@ -24140,7 +24363,7 @@
     <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="134" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D7" s="134"/>
       <c r="E7" s="134"/>
@@ -24682,7 +24905,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan5">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:Y41"/>
@@ -24707,7 +24930,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="150">
+      <c r="C1" s="146">
         <v>0</v>
       </c>
       <c r="D1" s="139">
@@ -24859,11 +25082,11 @@
         <f>'FÍSICO x FINANCEIRO'!R7</f>
         <v>40756</v>
       </c>
-      <c r="R2" s="149">
+      <c r="R2" s="145">
         <f>'FÍSICO x FINANCEIRO'!S7</f>
         <v>40787</v>
       </c>
-      <c r="S2" s="149">
+      <c r="S2" s="145">
         <f>'FÍSICO x FINANCEIRO'!T7</f>
         <v>40817</v>
       </c>
@@ -24893,7 +25116,7 @@
     <row r="5" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="134" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134"/>
@@ -24925,7 +25148,7 @@
     <row r="7" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="134" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D7" s="134"/>
       <c r="E7" s="134"/>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'CURVA "S"'!$B$4:$N$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'FÍSICO x FINANCEIRO'!$B$1:$V$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'FÍSICO x FINANCEIRO'!$B$1:$Y$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">LEVANTAMENTO!$2:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ORÇAMENTO!$1:$5</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="310">
   <si>
     <t>Item</t>
   </si>
@@ -936,6 +936,24 @@
   </si>
   <si>
     <t xml:space="preserve">PRAZO DA OBRA: 16 meses </t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Interrompido</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Término</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1650,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2035,6 +2053,16 @@
     <xf numFmtId="178" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,16 +2081,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2071,11 +2102,25 @@
     <cellStyle name="Separador de milhares 2" xfId="3"/>
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2089,105 +2134,119 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2408,11 +2467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317206528"/>
-        <c:axId val="317208064"/>
+        <c:axId val="335171584"/>
+        <c:axId val="335173120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317206528"/>
+        <c:axId val="335171584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +2507,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317208064"/>
+        <c:crossAx val="335173120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317208064"/>
+        <c:axId val="335173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2494,7 +2553,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317206528"/>
+        <c:crossAx val="335171584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2603,7 +2662,7 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'FÍSICO x FINANCEIRO'!$E$45:$T$45</c:f>
+              <c:f>'FÍSICO x FINANCEIRO'!$H$45:$W$45</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2670,8 +2729,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317318656"/>
-        <c:axId val="317320192"/>
+        <c:axId val="335136256"/>
+        <c:axId val="335137792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3028,11 +3087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317797120"/>
-        <c:axId val="317798656"/>
+        <c:axId val="335192832"/>
+        <c:axId val="335194368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317318656"/>
+        <c:axId val="335136256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3135,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317320192"/>
+        <c:crossAx val="335137792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3085,7 +3144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317320192"/>
+        <c:axId val="335137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3122,13 +3181,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317318656"/>
+        <c:crossAx val="335136256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="317797120"/>
+        <c:axId val="335192832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317798656"/>
+        <c:crossAx val="335194368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3145,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317798656"/>
+        <c:axId val="335194368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317797120"/>
+        <c:crossAx val="335192832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3616,63 +3675,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="156" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
     </row>
     <row r="4" spans="1:12" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
@@ -19584,8 +19643,8 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19603,14 +19662,14 @@
       <c r="A1" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
@@ -19637,10 +19696,10 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="102">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
@@ -21196,13 +21255,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:W167"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21210,73 +21269,86 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="17.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="17.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="160" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-    </row>
-    <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+    </row>
+    <row r="2" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="103"/>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="148"/>
       <c r="I2" s="148"/>
       <c r="J2" s="148"/>
       <c r="K2" s="148"/>
       <c r="L2" s="148"/>
-    </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
+      <c r="E3" s="77" t="str">
+        <f>IF(Y9=100%,"Finalizado",IF(Y9=0%,"Não iniciado","Em andamento"))</f>
+        <v>Finalizado</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
       <c r="J3" s="148"/>
       <c r="K3" s="148"/>
       <c r="L3" s="148"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="35" t="str">
         <f>ORÇAMENTO!B4</f>
@@ -21284,160 +21356,166 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="148"/>
-      <c r="G4" s="148"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
       <c r="J4" s="148"/>
       <c r="K4" s="148"/>
       <c r="L4" s="148"/>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+    </row>
+    <row r="5" spans="1:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="160">
-        <f>IF(COUNTIF(E9:E42,"&gt;0"),1+0," ")</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="160">
-        <f>IF(COUNTIF(F9:F42,"&gt;0"),1+E5," ")</f>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="154">
+        <f>IF(COUNTIF(H9:H42,"&gt;0"),1+0," ")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="154">
+        <f>IF(COUNTIF(I9:I42,"&gt;0"),1+H5," ")</f>
         <v>2</v>
       </c>
-      <c r="G5" s="160">
-        <f t="shared" ref="G5:U5" si="0">IF(COUNTIF(G9:G42,"&gt;0"),1+F5," ")</f>
+      <c r="J5" s="154">
+        <f t="shared" ref="J5:X5" si="0">IF(COUNTIF(J9:J42,"&gt;0"),1+I5," ")</f>
         <v>3</v>
       </c>
-      <c r="H5" s="160">
+      <c r="K5" s="154">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="160">
+      <c r="L5" s="154">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J5" s="160">
+      <c r="M5" s="154">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="160">
+      <c r="N5" s="154">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L5" s="160">
+      <c r="O5" s="154">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M5" s="160">
+      <c r="P5" s="154">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N5" s="160">
+      <c r="Q5" s="154">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O5" s="160">
+      <c r="R5" s="154">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P5" s="160">
+      <c r="S5" s="154">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q5" s="160">
+      <c r="T5" s="154">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R5" s="160">
+      <c r="U5" s="154">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S5" s="160">
+      <c r="V5" s="154">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T5" s="160">
+      <c r="W5" s="154">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U5" s="160" t="str">
+      <c r="X5" s="154" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
-      <c r="E6" s="117" t="str">
-        <f t="shared" ref="E6:U6" si="1">"Mês"&amp;" "&amp;E5</f>
+      <c r="H6" s="117" t="str">
+        <f t="shared" ref="H6:X6" si="1">"Mês"&amp;" "&amp;H5</f>
         <v>Mês 1</v>
       </c>
-      <c r="F6" s="117" t="str">
+      <c r="I6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 2</v>
       </c>
-      <c r="G6" s="117" t="str">
+      <c r="J6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 3</v>
       </c>
-      <c r="H6" s="117" t="str">
+      <c r="K6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 4</v>
       </c>
-      <c r="I6" s="117" t="str">
+      <c r="L6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 5</v>
       </c>
-      <c r="J6" s="117" t="str">
+      <c r="M6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 6</v>
       </c>
-      <c r="K6" s="117" t="str">
+      <c r="N6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 7</v>
       </c>
-      <c r="L6" s="117" t="str">
+      <c r="O6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 8</v>
       </c>
-      <c r="M6" s="117" t="str">
+      <c r="P6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 9</v>
       </c>
-      <c r="N6" s="117" t="str">
+      <c r="Q6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 10</v>
       </c>
-      <c r="O6" s="117" t="str">
+      <c r="R6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 11</v>
       </c>
-      <c r="P6" s="117" t="str">
+      <c r="S6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 12</v>
       </c>
-      <c r="Q6" s="117" t="str">
+      <c r="T6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 13</v>
       </c>
-      <c r="R6" s="117" t="str">
+      <c r="U6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 14</v>
       </c>
-      <c r="S6" s="117" t="str">
+      <c r="V6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 15</v>
       </c>
-      <c r="T6" s="117" t="str">
+      <c r="W6" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Mês 16</v>
       </c>
-      <c r="U6" s="117" t="str">
+      <c r="X6" s="117" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Mês  </v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="105" t="s">
         <v>0</v>
       </c>
@@ -21445,59 +21523,68 @@
         <v>277</v>
       </c>
       <c r="D7" s="106"/>
-      <c r="E7" s="117">
+      <c r="E7" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="117">
         <v>40360</v>
       </c>
-      <c r="F7" s="117">
+      <c r="I7" s="117">
         <v>40391</v>
       </c>
-      <c r="G7" s="117">
+      <c r="J7" s="117">
         <v>40422</v>
       </c>
-      <c r="H7" s="117">
+      <c r="K7" s="117">
         <v>40452</v>
       </c>
-      <c r="I7" s="117">
+      <c r="L7" s="117">
         <v>40483</v>
       </c>
-      <c r="J7" s="117">
+      <c r="M7" s="117">
         <v>40513</v>
       </c>
-      <c r="K7" s="117">
+      <c r="N7" s="117">
         <v>40544</v>
       </c>
-      <c r="L7" s="117">
+      <c r="O7" s="117">
         <v>40575</v>
       </c>
-      <c r="M7" s="117">
+      <c r="P7" s="117">
         <v>40603</v>
       </c>
-      <c r="N7" s="117">
+      <c r="Q7" s="117">
         <v>40634</v>
       </c>
-      <c r="O7" s="117">
+      <c r="R7" s="117">
         <v>40664</v>
       </c>
-      <c r="P7" s="117">
+      <c r="S7" s="117">
         <v>40695</v>
       </c>
-      <c r="Q7" s="117">
+      <c r="T7" s="117">
         <v>40725</v>
       </c>
-      <c r="R7" s="117">
+      <c r="U7" s="117">
         <v>40756</v>
       </c>
-      <c r="S7" s="117">
+      <c r="V7" s="117">
         <v>40787</v>
       </c>
-      <c r="T7" s="117">
+      <c r="W7" s="117">
         <v>40817</v>
       </c>
-      <c r="U7" s="117">
+      <c r="X7" s="117">
         <v>40848</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -21518,9 +21605,12 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="123"/>
-    </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="123"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>194</v>
       </c>
@@ -21532,80 +21622,83 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="122"/>
-      <c r="E9" s="144">
-        <f>IFERROR(E10/ORÇAMENTO!$G$7,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="144">
-        <f>IFERROR(F10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="144">
-        <f>IFERROR(G10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
+      <c r="E9" s="163"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
       <c r="H9" s="144">
-        <f>IFERROR(H10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="144">
-        <f>IFERROR(I10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="144">
-        <f>IFERROR(J10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="144">
-        <f>IFERROR(K10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="144">
-        <f>IFERROR(L10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="144">
-        <f>IFERROR(M10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="144">
-        <f>IFERROR(N10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="144">
-        <f>IFERROR(O10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="144">
-        <f>IFERROR(P10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="144">
-        <f>IFERROR(Q10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="144">
-        <f>IFERROR(R10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="144">
-        <f>IFERROR(S10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="144">
-        <f>IFERROR(T10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="144">
-        <f>IFERROR(U10/ORÇAMENTO!$G$7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="124">
-        <f t="shared" ref="V9:V42" si="2">SUM(E9:U9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF($E$9="Não iniciado","",IF(H10="","",H10/ORÇAMENTO!$G$7)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="144" t="str">
+        <f>IFERROR(IF(I10="","",I10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="144" t="str">
+        <f>IFERROR(IF(J10="","",J10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="144" t="str">
+        <f>IFERROR(IF(K10="","",K10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="144" t="str">
+        <f>IFERROR(IF(L10="","",L10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="144" t="str">
+        <f>IFERROR(IF(M10="","",M10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="144" t="str">
+        <f>IFERROR(IF(N10="","",N10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="144" t="str">
+        <f>IFERROR(IF(O10="","",O10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="144" t="str">
+        <f>IFERROR(IF(P10="","",P10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="144" t="str">
+        <f>IFERROR(IF(Q10="","",Q10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="144" t="str">
+        <f>IFERROR(IF(R10="","",R10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="144" t="str">
+        <f>IFERROR(IF(S10="","",S10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="144" t="str">
+        <f>IFERROR(IF(T10="","",T10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="U9" s="144" t="str">
+        <f>IFERROR(IF(U10="","",U10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="V9" s="144" t="str">
+        <f>IFERROR(IF(V10="","",V10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="W9" s="144" t="str">
+        <f>IFERROR(IF(W10="","",W10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="X9" s="144" t="str">
+        <f>IFERROR(IF(X10="","",X10/ORÇAMENTO!$G$7),"")</f>
+        <v/>
+      </c>
+      <c r="Y9" s="124">
+        <f t="shared" ref="Y9:Y42" si="2">SUM(H9:X9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>195</v>
       </c>
@@ -21614,12 +21707,12 @@
         <v>285</v>
       </c>
       <c r="D10" s="81"/>
-      <c r="E10" s="149">
+      <c r="E10" s="164"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="149">
         <v>116000</v>
       </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
       <c r="I10" s="143"/>
       <c r="J10" s="143"/>
       <c r="K10" s="143"/>
@@ -21633,12 +21726,15 @@
       <c r="S10" s="143"/>
       <c r="T10" s="143"/>
       <c r="U10" s="143"/>
-      <c r="V10" s="125">
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="125">
         <f t="shared" si="2"/>
         <v>116000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>194</v>
       </c>
@@ -21650,80 +21746,85 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="129"/>
-      <c r="E11" s="144">
-        <f>IFERROR(E12/ORÇAMENTO!G14," ")</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="144" t="str">
-        <f>IFERROR(F12/ORÇAMENTO!H14," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="144" t="str">
-        <f>IFERROR(G12/ORÇAMENTO!I14," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H11" s="144" t="str">
-        <f>IFERROR(H12/ORÇAMENTO!J14," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="E11" s="163" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="144">
+        <f>IFERROR(IF(H12="","",H12/ORÇAMENTO!$G$14)," ")</f>
+        <v>1</v>
       </c>
       <c r="I11" s="144" t="str">
-        <f>IFERROR(I12/ORÇAMENTO!K14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(I12="","",I12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="J11" s="144" t="str">
-        <f>IFERROR(J12/ORÇAMENTO!L14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(J12="","",J12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="K11" s="144" t="str">
-        <f>IFERROR(K12/ORÇAMENTO!M14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(K12="","",K12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="L11" s="144" t="str">
-        <f>IFERROR(L12/ORÇAMENTO!N14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(L12="","",L12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="M11" s="144" t="str">
-        <f>IFERROR(M12/ORÇAMENTO!O14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(M12="","",M12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="N11" s="144" t="str">
-        <f>IFERROR(N12/ORÇAMENTO!P14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(N12="","",N12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="O11" s="144" t="str">
-        <f>IFERROR(O12/ORÇAMENTO!Q14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(O12="","",O12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="P11" s="144" t="str">
-        <f>IFERROR(P12/ORÇAMENTO!R14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(P12="","",P12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="Q11" s="144" t="str">
-        <f>IFERROR(Q12/ORÇAMENTO!S14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(Q12="","",Q12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="R11" s="144" t="str">
-        <f>IFERROR(R12/ORÇAMENTO!T14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(R12="","",R12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="S11" s="144" t="str">
-        <f>IFERROR(S12/ORÇAMENTO!U14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(S12="","",S12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="T11" s="144" t="str">
-        <f>IFERROR(T12/ORÇAMENTO!V14," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(IF(T12="","",T12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
       </c>
       <c r="U11" s="144" t="str">
-        <f>IFERROR(U12/ORÇAMENTO!W14," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V11" s="124">
+        <f>IFERROR(IF(U12="","",U12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
+      </c>
+      <c r="V11" s="144" t="str">
+        <f>IFERROR(IF(V12="","",V12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
+      </c>
+      <c r="W11" s="144" t="str">
+        <f>IFERROR(IF(W12="","",W12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
+      </c>
+      <c r="X11" s="144" t="str">
+        <f>IFERROR(IF(X12="","",X12/ORÇAMENTO!$G$14)," ")</f>
+        <v/>
+      </c>
+      <c r="Y11" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>195</v>
       </c>
@@ -21732,12 +21833,12 @@
         <v>285</v>
       </c>
       <c r="D12" s="81"/>
-      <c r="E12" s="149">
+      <c r="E12" s="164"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="149">
         <v>9602.2999999999993</v>
       </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
       <c r="I12" s="143"/>
       <c r="J12" s="143"/>
       <c r="K12" s="143"/>
@@ -21751,12 +21852,15 @@
       <c r="S12" s="143"/>
       <c r="T12" s="143"/>
       <c r="U12" s="143"/>
-      <c r="V12" s="125">
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="125">
         <f t="shared" si="2"/>
         <v>9602.2999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>194</v>
       </c>
@@ -21768,25 +21872,18 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="122"/>
-      <c r="E13" s="142">
-        <f>IFERROR(IF(E14="","",E14/ORÇAMENTO!$G$20)," ")</f>
+      <c r="E13" s="163" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="142">
+        <f>IFERROR(IF(H14="","",H14/ORÇAMENTO!$G$20)," ")</f>
         <v>0.5</v>
       </c>
-      <c r="F13" s="142">
-        <f>IFERROR(IF(F14="","",F14/ORÇAMENTO!$G$20)," ")</f>
+      <c r="I13" s="142">
+        <f>IFERROR(IF(I14="","",I14/ORÇAMENTO!$G$20)," ")</f>
         <v>0.5</v>
-      </c>
-      <c r="G13" s="142" t="str">
-        <f>IFERROR(IF(G14="","",G14/ORÇAMENTO!$G$20)," ")</f>
-        <v/>
-      </c>
-      <c r="H13" s="142" t="str">
-        <f>IFERROR(IF(H14="","",H14/ORÇAMENTO!$G$20)," ")</f>
-        <v/>
-      </c>
-      <c r="I13" s="142" t="str">
-        <f>IFERROR(IF(I14="","",I14/ORÇAMENTO!$G$20)," ")</f>
-        <v/>
       </c>
       <c r="J13" s="142" t="str">
         <f>IFERROR(IF(J14="","",J14/ORÇAMENTO!$G$20)," ")</f>
@@ -21836,12 +21933,24 @@
         <f>IFERROR(IF(U14="","",U14/ORÇAMENTO!$G$20)," ")</f>
         <v/>
       </c>
-      <c r="V13" s="124">
+      <c r="V13" s="142" t="str">
+        <f>IFERROR(IF(V14="","",V14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="W13" s="142" t="str">
+        <f>IFERROR(IF(W14="","",W14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="X13" s="142" t="str">
+        <f>IFERROR(IF(X14="","",X14/ORÇAMENTO!$G$20)," ")</f>
+        <v/>
+      </c>
+      <c r="Y13" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>195</v>
       </c>
@@ -21852,17 +21961,17 @@
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="149">
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="149">
         <f>IF($D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
         <v>6468</v>
       </c>
-      <c r="F14" s="149">
+      <c r="I14" s="149">
         <f>IF($D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
         <v>6468</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
       <c r="J14" s="149"/>
       <c r="K14" s="149"/>
       <c r="L14" s="149"/>
@@ -21875,12 +21984,15 @@
       <c r="S14" s="149"/>
       <c r="T14" s="149"/>
       <c r="U14" s="149"/>
-      <c r="V14" s="125">
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="125">
         <f t="shared" si="2"/>
         <v>12936</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -21892,80 +22004,85 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="129"/>
-      <c r="E15" s="142">
-        <f>IFERROR(E16/ORÇAMENTO!$G$25," ")</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="142">
-        <f>IFERROR(F16/ORÇAMENTO!$G$25," ")</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="142">
-        <f>IFERROR(G16/ORÇAMENTO!$G$25," ")</f>
+      <c r="E15" s="163" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="142" t="str">
+        <f>IFERROR(IF(H16="","",H16/ORÇAMENTO!$G$25)," ")</f>
+        <v/>
+      </c>
+      <c r="I15" s="142" t="str">
+        <f>IFERROR(IF(I16="","",I16/ORÇAMENTO!$G$25)," ")</f>
+        <v/>
+      </c>
+      <c r="J15" s="142">
+        <f>IFERROR(IF(J16="","",J16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H15" s="142">
-        <f>IFERROR(H16/ORÇAMENTO!$G$25," ")</f>
+      <c r="K15" s="142">
+        <f>IFERROR(IF(K16="","",K16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I15" s="142">
-        <f>IFERROR(I16/ORÇAMENTO!$G$25," ")</f>
+      <c r="L15" s="142">
+        <f>IFERROR(IF(L16="","",L16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J15" s="142">
-        <f>IFERROR(J16/ORÇAMENTO!$G$25," ")</f>
+      <c r="M15" s="142">
+        <f>IFERROR(IF(M16="","",M16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K15" s="142">
-        <f>IFERROR(K16/ORÇAMENTO!$G$25," ")</f>
+      <c r="N15" s="142">
+        <f>IFERROR(IF(N16="","",N16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L15" s="142">
-        <f>IFERROR(L16/ORÇAMENTO!$G$25," ")</f>
+      <c r="O15" s="142">
+        <f>IFERROR(IF(O16="","",O16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M15" s="142">
-        <f>IFERROR(M16/ORÇAMENTO!$G$25," ")</f>
+      <c r="P15" s="142">
+        <f>IFERROR(IF(P16="","",P16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="N15" s="142">
-        <f>IFERROR(N16/ORÇAMENTO!$G$25," ")</f>
+      <c r="Q15" s="142">
+        <f>IFERROR(IF(Q16="","",Q16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O15" s="142">
-        <f>IFERROR(O16/ORÇAMENTO!$G$25," ")</f>
+      <c r="R15" s="142">
+        <f>IFERROR(IF(R16="","",R16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P15" s="142">
-        <f>IFERROR(P16/ORÇAMENTO!$G$25," ")</f>
+      <c r="S15" s="142">
+        <f>IFERROR(IF(S16="","",S16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q15" s="142">
-        <f>IFERROR(Q16/ORÇAMENTO!$G$25," ")</f>
+      <c r="T15" s="142">
+        <f>IFERROR(IF(T16="","",T16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R15" s="142">
-        <f>IFERROR(R16/ORÇAMENTO!$G$25," ")</f>
+      <c r="U15" s="142">
+        <f>IFERROR(IF(U16="","",U16/ORÇAMENTO!$G$25)," ")</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S15" s="142">
-        <f>IFERROR(S16/ORÇAMENTO!$G$25," ")</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="142">
-        <f>IFERROR(T16/ORÇAMENTO!$G$25," ")</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="142">
-        <f>IFERROR(U16/ORÇAMENTO!$G$25," ")</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="124">
+      <c r="V15" s="142" t="str">
+        <f>IFERROR(IF(V16="","",V16/ORÇAMENTO!$G$25)," ")</f>
+        <v/>
+      </c>
+      <c r="W15" s="142" t="str">
+        <f>IFERROR(IF(W16="","",W16/ORÇAMENTO!$G$25)," ")</f>
+        <v/>
+      </c>
+      <c r="X15" s="142" t="str">
+        <f>IFERROR(IF(X16="","",X16/ORÇAMENTO!$G$25)," ")</f>
+        <v/>
+      </c>
+      <c r="Y15" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>195</v>
       </c>
@@ -21974,20 +22091,11 @@
         <v>289</v>
       </c>
       <c r="D16" s="147"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149">
-        <f>ORÇAMENTO!$G$25/12</f>
-        <v>15831.666666666666</v>
-      </c>
-      <c r="H16" s="149">
-        <f>ORÇAMENTO!$G$25/12</f>
-        <v>15831.666666666666</v>
-      </c>
-      <c r="I16" s="149">
-        <f>ORÇAMENTO!$G$25/12</f>
-        <v>15831.666666666666</v>
-      </c>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
       <c r="J16" s="149">
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
@@ -22024,15 +22132,27 @@
         <f>ORÇAMENTO!$G$25/12</f>
         <v>15831.666666666666</v>
       </c>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="125">
+      <c r="S16" s="149">
+        <f>ORÇAMENTO!$G$25/12</f>
+        <v>15831.666666666666</v>
+      </c>
+      <c r="T16" s="149">
+        <f>ORÇAMENTO!$G$25/12</f>
+        <v>15831.666666666666</v>
+      </c>
+      <c r="U16" s="149">
+        <f>ORÇAMENTO!$G$25/12</f>
+        <v>15831.666666666666</v>
+      </c>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="125">
         <f t="shared" si="2"/>
         <v>189979.99999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>194</v>
       </c>
@@ -22044,62 +22164,85 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="122"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142">
-        <f>G18/ORÇAMENTO!$G$35</f>
+      <c r="E17" s="163" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="142" t="str">
+        <f>IFERROR(IF(H18="","",H18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="142" t="str">
+        <f>IFERROR(IF(I18="","",I18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="142">
+        <f>IFERROR(IF(J18="","",J18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H17" s="142">
-        <f>H18/ORÇAMENTO!$G$35</f>
+      <c r="K17" s="142">
+        <f>IFERROR(IF(K18="","",K18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I17" s="142">
-        <f>I18/ORÇAMENTO!$G$35</f>
+      <c r="L17" s="142">
+        <f>IFERROR(IF(L18="","",L18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J17" s="142">
-        <f>J18/ORÇAMENTO!$G$35</f>
+      <c r="M17" s="142">
+        <f>IFERROR(IF(M18="","",M18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K17" s="142">
-        <f>K18/ORÇAMENTO!$G$35</f>
+      <c r="N17" s="142">
+        <f>IFERROR(IF(N18="","",N18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L17" s="142">
-        <f>L18/ORÇAMENTO!$G$35</f>
+      <c r="O17" s="142">
+        <f>IFERROR(IF(O18="","",O18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M17" s="142">
-        <f>M18/ORÇAMENTO!$G$35</f>
+      <c r="P17" s="142">
+        <f>IFERROR(IF(P18="","",P18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="N17" s="142">
-        <f>N18/ORÇAMENTO!$G$35</f>
+      <c r="Q17" s="142">
+        <f>IFERROR(IF(Q18="","",Q18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="O17" s="142">
-        <f>O18/ORÇAMENTO!$G$35</f>
+      <c r="R17" s="142">
+        <f>IFERROR(IF(R18="","",R18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="P17" s="142">
-        <f>P18/ORÇAMENTO!$G$35</f>
+      <c r="S17" s="142">
+        <f>IFERROR(IF(S18="","",S18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Q17" s="142">
-        <f>Q18/ORÇAMENTO!$G$35</f>
+      <c r="T17" s="142">
+        <f>IFERROR(IF(T18="","",T18/ORÇAMENTO!$G$35),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="124">
+      <c r="U17" s="142" t="str">
+        <f>IFERROR(IF(U18="","",U18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="142" t="str">
+        <f>IFERROR(IF(V18="","",V18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="W17" s="142" t="str">
+        <f>IFERROR(IF(W18="","",W18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="X17" s="142" t="str">
+        <f>IFERROR(IF(X18="","",X18/ORÇAMENTO!$G$35),"")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="124">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>195</v>
       </c>
@@ -22108,20 +22251,11 @@
         <v>288</v>
       </c>
       <c r="D18" s="147"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149">
-        <f>ORÇAMENTO!$G$35/11</f>
-        <v>763.63636363636363</v>
-      </c>
-      <c r="H18" s="149">
-        <f>ORÇAMENTO!$G$35/11</f>
-        <v>763.63636363636363</v>
-      </c>
-      <c r="I18" s="149">
-        <f>ORÇAMENTO!$G$35/11</f>
-        <v>763.63636363636363</v>
-      </c>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
       <c r="J18" s="149">
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
@@ -22154,16 +22288,28 @@
         <f>ORÇAMENTO!$G$35/11</f>
         <v>763.63636363636363</v>
       </c>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
+      <c r="R18" s="149">
+        <f>ORÇAMENTO!$G$35/11</f>
+        <v>763.63636363636363</v>
+      </c>
+      <c r="S18" s="149">
+        <f>ORÇAMENTO!$G$35/11</f>
+        <v>763.63636363636363</v>
+      </c>
+      <c r="T18" s="149">
+        <f>ORÇAMENTO!$G$35/11</f>
+        <v>763.63636363636363</v>
+      </c>
       <c r="U18" s="149"/>
-      <c r="V18" s="125">
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="125">
         <f t="shared" si="2"/>
         <v>8400.0000000000018</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>194</v>
       </c>
@@ -22175,62 +22321,83 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="129"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150">
-        <f>G20/ORÇAMENTO!$G$37</f>
+      <c r="E19" s="163"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="150" t="str">
+        <f>IFERROR(IF(H20="","",H20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="150" t="str">
+        <f>IFERROR(IF(I20="","",I20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="150">
+        <f>IFERROR(IF(J20="","",J20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H19" s="150">
-        <f>H20/ORÇAMENTO!$G$37</f>
+      <c r="K19" s="150">
+        <f>IFERROR(IF(K20="","",K20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I19" s="150">
-        <f>I20/ORÇAMENTO!$G$37</f>
+      <c r="L19" s="150">
+        <f>IFERROR(IF(L20="","",L20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J19" s="150">
-        <f>J20/ORÇAMENTO!$G$37</f>
+      <c r="M19" s="150">
+        <f>IFERROR(IF(M20="","",M20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K19" s="150">
-        <f>K20/ORÇAMENTO!$G$37</f>
+      <c r="N19" s="150">
+        <f>IFERROR(IF(N20="","",N20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L19" s="150">
-        <f>L20/ORÇAMENTO!$G$37</f>
+      <c r="O19" s="150">
+        <f>IFERROR(IF(O20="","",O20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M19" s="150">
-        <f>M20/ORÇAMENTO!$G$37</f>
+      <c r="P19" s="150">
+        <f>IFERROR(IF(P20="","",P20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="N19" s="150">
-        <f>N20/ORÇAMENTO!$G$37</f>
+      <c r="Q19" s="150">
+        <f>IFERROR(IF(Q20="","",Q20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="O19" s="150">
-        <f>O20/ORÇAMENTO!$G$37</f>
+      <c r="R19" s="150">
+        <f>IFERROR(IF(R20="","",R20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="P19" s="150">
-        <f>P20/ORÇAMENTO!$G$37</f>
+      <c r="S19" s="150">
+        <f>IFERROR(IF(S20="","",S20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Q19" s="150">
-        <f>Q20/ORÇAMENTO!$G$37</f>
+      <c r="T19" s="150">
+        <f>IFERROR(IF(T20="","",T20/ORÇAMENTO!$G$37),"")</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="124">
+      <c r="U19" s="150" t="str">
+        <f>IFERROR(IF(U20="","",U20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="V19" s="150" t="str">
+        <f>IFERROR(IF(V20="","",V20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="W19" s="150" t="str">
+        <f>IFERROR(IF(W20="","",W20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="X19" s="150" t="str">
+        <f>IFERROR(IF(X20="","",X20/ORÇAMENTO!$G$37),"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="124">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>195</v>
       </c>
@@ -22239,20 +22406,11 @@
         <v>288</v>
       </c>
       <c r="D20" s="147"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149">
-        <f>ORÇAMENTO!$G$37/11</f>
-        <v>232.72727272727272</v>
-      </c>
-      <c r="H20" s="149">
-        <f>ORÇAMENTO!$G$37/11</f>
-        <v>232.72727272727272</v>
-      </c>
-      <c r="I20" s="149">
-        <f>ORÇAMENTO!$G$37/11</f>
-        <v>232.72727272727272</v>
-      </c>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
       <c r="J20" s="149">
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
@@ -22285,16 +22443,28 @@
         <f>ORÇAMENTO!$G$37/11</f>
         <v>232.72727272727272</v>
       </c>
-      <c r="R20" s="149"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="149"/>
+      <c r="R20" s="149">
+        <f>ORÇAMENTO!$G$37/11</f>
+        <v>232.72727272727272</v>
+      </c>
+      <c r="S20" s="149">
+        <f>ORÇAMENTO!$G$37/11</f>
+        <v>232.72727272727272</v>
+      </c>
+      <c r="T20" s="149">
+        <f>ORÇAMENTO!$G$37/11</f>
+        <v>232.72727272727272</v>
+      </c>
       <c r="U20" s="149"/>
-      <c r="V20" s="125">
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="125">
         <f t="shared" si="2"/>
         <v>2559.9999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>194</v>
       </c>
@@ -22306,53 +22476,83 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="122"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150">
-        <f>G22/ORÇAMENTO!G39</f>
+      <c r="E21" s="163"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="150" t="str">
+        <f>IFERROR(IF(H22="","",H22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="150" t="str">
+        <f>IFERROR(IF(I22="","",I22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="150">
+        <f>IFERROR(IF(J22="","",J22/ORÇAMENTO!$G$39),"")</f>
         <v>0.73813642008160374</v>
       </c>
-      <c r="H21" s="150">
-        <f>H22/ORÇAMENTO!$G$39</f>
+      <c r="K21" s="150">
+        <f>IFERROR(IF(K22="","",K22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="I21" s="150">
-        <f>I22/ORÇAMENTO!$G$39</f>
+      <c r="L21" s="150">
+        <f>IFERROR(IF(L22="","",L22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="J21" s="150">
-        <f>J22/ORÇAMENTO!$G$39</f>
+      <c r="M21" s="150">
+        <f>IFERROR(IF(M22="","",M22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="K21" s="150">
-        <f>K22/ORÇAMENTO!$G$39</f>
+      <c r="N21" s="150">
+        <f>IFERROR(IF(N22="","",N22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="L21" s="150">
-        <f>L22/ORÇAMENTO!$G$39</f>
+      <c r="O21" s="150">
+        <f>IFERROR(IF(O22="","",O22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="M21" s="150">
-        <f>M22/ORÇAMENTO!$G$39</f>
+      <c r="P21" s="150">
+        <f>IFERROR(IF(P22="","",P22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="N21" s="150">
-        <f>N22/ORÇAMENTO!$G$39</f>
+      <c r="Q21" s="150">
+        <f>IFERROR(IF(Q22="","",Q22/ORÇAMENTO!$G$39),"")</f>
         <v>3.7409082845485185E-2</v>
       </c>
-      <c r="O21" s="150"/>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="124">
+      <c r="R21" s="150" t="str">
+        <f>IFERROR(IF(R22="","",R22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="150" t="str">
+        <f>IFERROR(IF(S22="","",S22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="150" t="str">
+        <f>IFERROR(IF(T22="","",T22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="U21" s="150" t="str">
+        <f>IFERROR(IF(U22="","",U22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="V21" s="150" t="str">
+        <f>IFERROR(IF(V22="","",V22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="W21" s="150" t="str">
+        <f>IFERROR(IF(W22="","",W22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="X21" s="150" t="str">
+        <f>IFERROR(IF(X22="","",X22/ORÇAMENTO!$G$39),"")</f>
+        <v/>
+      </c>
+      <c r="Y21" s="124">
         <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>195</v>
       </c>
@@ -22361,23 +22561,14 @@
         <v>292</v>
       </c>
       <c r="D22" s="147"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149">
-        <f>ORÇAMENTO!G42+ORÇAMENTO!G41+H22</f>
+      <c r="E22" s="164"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149">
+        <f>ORÇAMENTO!G42+ORÇAMENTO!G41+K22</f>
         <v>2080.4375</v>
-      </c>
-      <c r="H22" s="149">
-        <f>ORÇAMENTO!$G$40/8</f>
-        <v>105.4375</v>
-      </c>
-      <c r="I22" s="149">
-        <f>ORÇAMENTO!$G$40/8</f>
-        <v>105.4375</v>
-      </c>
-      <c r="J22" s="149">
-        <f>ORÇAMENTO!$G$40/8</f>
-        <v>105.4375</v>
       </c>
       <c r="K22" s="149">
         <f>ORÇAMENTO!$G$40/8</f>
@@ -22395,19 +22586,31 @@
         <f>ORÇAMENTO!$G$40/8</f>
         <v>105.4375</v>
       </c>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
+      <c r="O22" s="149">
+        <f>ORÇAMENTO!$G$40/8</f>
+        <v>105.4375</v>
+      </c>
+      <c r="P22" s="149">
+        <f>ORÇAMENTO!$G$40/8</f>
+        <v>105.4375</v>
+      </c>
+      <c r="Q22" s="149">
+        <f>ORÇAMENTO!$G$40/8</f>
+        <v>105.4375</v>
+      </c>
       <c r="R22" s="149"/>
       <c r="S22" s="149"/>
       <c r="T22" s="149"/>
       <c r="U22" s="149"/>
-      <c r="V22" s="125">
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="125">
         <f t="shared" si="2"/>
         <v>2818.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>194</v>
       </c>
@@ -22419,18 +22622,18 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="129"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150">
-        <f>F24/ORÇAMENTO!G43</f>
+      <c r="E23" s="163"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150">
+        <f>I24/ORÇAMENTO!G43</f>
         <v>0.5</v>
       </c>
-      <c r="G23" s="150">
-        <f>G24/ORÇAMENTO!G43</f>
+      <c r="J23" s="150">
+        <f>J24/ORÇAMENTO!G43</f>
         <v>0.5</v>
       </c>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
       <c r="K23" s="150"/>
       <c r="L23" s="150"/>
       <c r="M23" s="150"/>
@@ -22442,12 +22645,15 @@
       <c r="S23" s="150"/>
       <c r="T23" s="150"/>
       <c r="U23" s="150"/>
-      <c r="V23" s="124">
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>195</v>
       </c>
@@ -22456,18 +22662,18 @@
         <v>286</v>
       </c>
       <c r="D24" s="147"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149">
+      <c r="E24" s="164"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149">
         <f>ORÇAMENTO!G43/2</f>
         <v>14275</v>
       </c>
-      <c r="G24" s="149">
+      <c r="J24" s="149">
         <f>ORÇAMENTO!G43/2</f>
         <v>14275</v>
       </c>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
       <c r="K24" s="149"/>
       <c r="L24" s="149"/>
       <c r="M24" s="149"/>
@@ -22479,12 +22685,15 @@
       <c r="S24" s="149"/>
       <c r="T24" s="149"/>
       <c r="U24" s="149"/>
-      <c r="V24" s="125">
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="125">
         <f t="shared" si="2"/>
         <v>28550</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>194</v>
       </c>
@@ -22496,21 +22705,12 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="122"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150">
-        <f>H26/ORÇAMENTO!$G$47</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="I25" s="150">
-        <f>I26/ORÇAMENTO!$G$47</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="J25" s="150">
-        <f>J26/ORÇAMENTO!$G$47</f>
-        <v>0.11111111111111112</v>
-      </c>
+      <c r="E25" s="163"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
       <c r="K25" s="150">
         <f>K26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
@@ -22535,17 +22735,29 @@
         <f>P26/ORÇAMENTO!$G$47</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
+      <c r="Q25" s="150">
+        <f>Q26/ORÇAMENTO!$G$47</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="R25" s="150">
+        <f>R26/ORÇAMENTO!$G$47</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="S25" s="150">
+        <f>S26/ORÇAMENTO!$G$47</f>
+        <v>0.11111111111111112</v>
+      </c>
       <c r="T25" s="150"/>
       <c r="U25" s="150"/>
-      <c r="V25" s="124">
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="124">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>195</v>
       </c>
@@ -22554,21 +22766,12 @@
         <v>293</v>
       </c>
       <c r="D26" s="147"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149">
-        <f>ORÇAMENTO!$G$47/9</f>
-        <v>88055.555555555562</v>
-      </c>
-      <c r="I26" s="149">
-        <f>ORÇAMENTO!$G$47/9</f>
-        <v>88055.555555555562</v>
-      </c>
-      <c r="J26" s="149">
-        <f>ORÇAMENTO!$G$47/9</f>
-        <v>88055.555555555562</v>
-      </c>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
       <c r="K26" s="149">
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
@@ -22593,17 +22796,29 @@
         <f>ORÇAMENTO!$G$47/9</f>
         <v>88055.555555555562</v>
       </c>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="149"/>
+      <c r="Q26" s="149">
+        <f>ORÇAMENTO!$G$47/9</f>
+        <v>88055.555555555562</v>
+      </c>
+      <c r="R26" s="149">
+        <f>ORÇAMENTO!$G$47/9</f>
+        <v>88055.555555555562</v>
+      </c>
+      <c r="S26" s="149">
+        <f>ORÇAMENTO!$G$47/9</f>
+        <v>88055.555555555562</v>
+      </c>
       <c r="T26" s="149"/>
       <c r="U26" s="149"/>
-      <c r="V26" s="125">
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="125">
         <f t="shared" si="2"/>
         <v>792500</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>194</v>
       </c>
@@ -22615,22 +22830,13 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="129"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="150">
-        <f>I28/ORÇAMENTO!$G$51</f>
-        <v>0.125</v>
-      </c>
-      <c r="J27" s="150">
-        <f>J28/ORÇAMENTO!$G$51</f>
-        <v>0.125</v>
-      </c>
-      <c r="K27" s="150">
-        <f>K28/ORÇAMENTO!$G$51</f>
-        <v>0.125</v>
-      </c>
+      <c r="E27" s="163"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="150">
         <f>L28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
@@ -22651,17 +22857,29 @@
         <f>P28/ORÇAMENTO!$G$51</f>
         <v>0.125</v>
       </c>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
+      <c r="Q27" s="150">
+        <f>Q28/ORÇAMENTO!$G$51</f>
+        <v>0.125</v>
+      </c>
+      <c r="R27" s="150">
+        <f>R28/ORÇAMENTO!$G$51</f>
+        <v>0.125</v>
+      </c>
+      <c r="S27" s="150">
+        <f>S28/ORÇAMENTO!$G$51</f>
+        <v>0.125</v>
+      </c>
       <c r="T27" s="150"/>
       <c r="U27" s="150"/>
-      <c r="V27" s="124">
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>195</v>
       </c>
@@ -22670,22 +22888,13 @@
         <v>292</v>
       </c>
       <c r="D28" s="81"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
       <c r="H28" s="149"/>
-      <c r="I28" s="149">
-        <f>ORÇAMENTO!$G$51/8</f>
-        <v>11562.5</v>
-      </c>
-      <c r="J28" s="149">
-        <f>ORÇAMENTO!$G$51/8</f>
-        <v>11562.5</v>
-      </c>
-      <c r="K28" s="149">
-        <f>ORÇAMENTO!$G$51/8</f>
-        <v>11562.5</v>
-      </c>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="149">
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
@@ -22706,17 +22915,29 @@
         <f>ORÇAMENTO!$G$51/8</f>
         <v>11562.5</v>
       </c>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="149"/>
+      <c r="Q28" s="149">
+        <f>ORÇAMENTO!$G$51/8</f>
+        <v>11562.5</v>
+      </c>
+      <c r="R28" s="149">
+        <f>ORÇAMENTO!$G$51/8</f>
+        <v>11562.5</v>
+      </c>
+      <c r="S28" s="149">
+        <f>ORÇAMENTO!$G$51/8</f>
+        <v>11562.5</v>
+      </c>
       <c r="T28" s="149"/>
       <c r="U28" s="149"/>
-      <c r="V28" s="125">
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="125">
         <f t="shared" si="2"/>
         <v>92500</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>194</v>
       </c>
@@ -22727,32 +22948,35 @@
         <v>278</v>
       </c>
       <c r="D29" s="122"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
       <c r="H29" s="150"/>
       <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
+      <c r="J29" s="150"/>
       <c r="K29" s="150"/>
       <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="M29" s="151"/>
       <c r="N29" s="150"/>
       <c r="O29" s="150"/>
-      <c r="P29" s="150">
-        <f>P30/ORÇAMENTO!G53</f>
-        <v>1</v>
-      </c>
+      <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
       <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
+      <c r="S29" s="150">
+        <f>S30/ORÇAMENTO!G53</f>
+        <v>1</v>
+      </c>
       <c r="T29" s="150"/>
       <c r="U29" s="150"/>
-      <c r="V29" s="124">
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>195</v>
       </c>
@@ -22761,9 +22985,9 @@
         <v>294</v>
       </c>
       <c r="D30" s="81"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
       <c r="H30" s="149"/>
       <c r="I30" s="149"/>
       <c r="J30" s="149"/>
@@ -22772,21 +22996,24 @@
       <c r="M30" s="149"/>
       <c r="N30" s="149"/>
       <c r="O30" s="149"/>
-      <c r="P30" s="149">
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149">
         <f>ORÇAMENTO!G53</f>
         <v>62000</v>
       </c>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
       <c r="T30" s="149"/>
       <c r="U30" s="149"/>
-      <c r="V30" s="125">
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="125">
         <f t="shared" si="2"/>
         <v>62000</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>194</v>
       </c>
@@ -22798,41 +23025,44 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="122"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="150"/>
-      <c r="I31" s="151"/>
+      <c r="I31" s="150"/>
       <c r="J31" s="150"/>
       <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150">
-        <f>M32/ORÇAMENTO!$G$55</f>
-        <v>0.25</v>
-      </c>
-      <c r="N31" s="150">
-        <f>N32/ORÇAMENTO!$G$55</f>
-        <v>0.25</v>
-      </c>
-      <c r="O31" s="150">
-        <f>O32/ORÇAMENTO!$G$55</f>
-        <v>0.25</v>
-      </c>
+      <c r="L31" s="151"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
       <c r="P31" s="150">
         <f>P32/ORÇAMENTO!$G$55</f>
         <v>0.25</v>
       </c>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
+      <c r="Q31" s="150">
+        <f>Q32/ORÇAMENTO!$G$55</f>
+        <v>0.25</v>
+      </c>
+      <c r="R31" s="150">
+        <f>R32/ORÇAMENTO!$G$55</f>
+        <v>0.25</v>
+      </c>
+      <c r="S31" s="150">
+        <f>S32/ORÇAMENTO!$G$55</f>
+        <v>0.25</v>
+      </c>
       <c r="T31" s="150"/>
       <c r="U31" s="150"/>
-      <c r="V31" s="124">
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>195</v>
       </c>
@@ -22841,41 +23071,44 @@
         <v>295</v>
       </c>
       <c r="D32" s="81"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="149"/>
       <c r="I32" s="149"/>
       <c r="J32" s="149"/>
       <c r="K32" s="149"/>
       <c r="L32" s="149"/>
-      <c r="M32" s="149">
-        <f>ORÇAMENTO!$G$55/4</f>
-        <v>4298</v>
-      </c>
-      <c r="N32" s="149">
-        <f>ORÇAMENTO!$G$55/4</f>
-        <v>4298</v>
-      </c>
-      <c r="O32" s="149">
-        <f>ORÇAMENTO!$G$55/4</f>
-        <v>4298</v>
-      </c>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
       <c r="P32" s="149">
         <f>ORÇAMENTO!$G$55/4</f>
         <v>4298</v>
       </c>
-      <c r="Q32" s="149"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="149"/>
+      <c r="Q32" s="149">
+        <f>ORÇAMENTO!$G$55/4</f>
+        <v>4298</v>
+      </c>
+      <c r="R32" s="149">
+        <f>ORÇAMENTO!$G$55/4</f>
+        <v>4298</v>
+      </c>
+      <c r="S32" s="149">
+        <f>ORÇAMENTO!$G$55/4</f>
+        <v>4298</v>
+      </c>
       <c r="T32" s="149"/>
       <c r="U32" s="149"/>
-      <c r="V32" s="125">
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="125">
         <f t="shared" si="2"/>
         <v>17192</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>194</v>
       </c>
@@ -22887,38 +23120,41 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="129"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
-      <c r="J33" s="150">
-        <f>J34/ORÇAMENTO!$G$57</f>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150">
+        <f>M34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K33" s="150">
-        <f>K34/ORÇAMENTO!$G$57</f>
+      <c r="N33" s="150">
+        <f>N34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L33" s="150">
-        <f>L34/ORÇAMENTO!$G$57</f>
+      <c r="O33" s="150">
+        <f>O34/ORÇAMENTO!$G$57</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
       <c r="S33" s="150"/>
       <c r="T33" s="150"/>
       <c r="U33" s="150"/>
-      <c r="V33" s="124">
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>195</v>
       </c>
@@ -22927,38 +23163,41 @@
         <v>287</v>
       </c>
       <c r="D34" s="81"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="149"/>
       <c r="I34" s="149"/>
-      <c r="J34" s="149">
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="K34" s="149">
+      <c r="N34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="L34" s="149">
+      <c r="O34" s="149">
         <f>ORÇAMENTO!$G$57/3</f>
         <v>6276</v>
       </c>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
       <c r="P34" s="149"/>
       <c r="Q34" s="149"/>
       <c r="R34" s="149"/>
       <c r="S34" s="149"/>
       <c r="T34" s="149"/>
       <c r="U34" s="149"/>
-      <c r="V34" s="125">
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="125">
         <f t="shared" si="2"/>
         <v>18828</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>194</v>
       </c>
@@ -22970,23 +23209,14 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="122"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
       <c r="H35" s="150"/>
       <c r="I35" s="150"/>
-      <c r="J35" s="150">
-        <f>J36/ORÇAMENTO!$G$59</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="K35" s="150">
-        <f>K36/ORÇAMENTO!$G$59</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="L35" s="150">
-        <f>L36/ORÇAMENTO!$G$59</f>
-        <v>0.11111111111111112</v>
-      </c>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
       <c r="M35" s="150">
         <f>M36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
@@ -23011,15 +23241,27 @@
         <f>R36/ORÇAMENTO!$G$59</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="S35" s="150"/>
-      <c r="T35" s="150"/>
-      <c r="U35" s="150"/>
-      <c r="V35" s="124">
+      <c r="S35" s="150">
+        <f>S36/ORÇAMENTO!$G$59</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="T35" s="150">
+        <f>T36/ORÇAMENTO!$G$59</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="U35" s="150">
+        <f>U36/ORÇAMENTO!$G$59</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="V35" s="150"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
+      <c r="Y35" s="124">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>195</v>
       </c>
@@ -23028,23 +23270,14 @@
         <v>293</v>
       </c>
       <c r="D36" s="81"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
       <c r="H36" s="149"/>
       <c r="I36" s="149"/>
-      <c r="J36" s="149">
-        <f>ORÇAMENTO!$G$59/9</f>
-        <v>4612.2222222222226</v>
-      </c>
-      <c r="K36" s="149">
-        <f>ORÇAMENTO!$G$59/9</f>
-        <v>4612.2222222222226</v>
-      </c>
-      <c r="L36" s="149">
-        <f>ORÇAMENTO!$G$59/9</f>
-        <v>4612.2222222222226</v>
-      </c>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
       <c r="M36" s="149">
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
@@ -23069,15 +23302,27 @@
         <f>ORÇAMENTO!$G$59/9</f>
         <v>4612.2222222222226</v>
       </c>
-      <c r="S36" s="149"/>
-      <c r="T36" s="149"/>
-      <c r="U36" s="149"/>
-      <c r="V36" s="125">
+      <c r="S36" s="149">
+        <f>ORÇAMENTO!$G$59/9</f>
+        <v>4612.2222222222226</v>
+      </c>
+      <c r="T36" s="149">
+        <f>ORÇAMENTO!$G$59/9</f>
+        <v>4612.2222222222226</v>
+      </c>
+      <c r="U36" s="149">
+        <f>ORÇAMENTO!$G$59/9</f>
+        <v>4612.2222222222226</v>
+      </c>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="125">
         <f t="shared" si="2"/>
         <v>41510</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>194</v>
       </c>
@@ -23089,41 +23334,44 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="122"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
       <c r="H37" s="150"/>
-      <c r="I37" s="150">
-        <f>I38/ORÇAMENTO!$G$62</f>
-        <v>0.25</v>
-      </c>
-      <c r="J37" s="150">
-        <f>J38/ORÇAMENTO!$G$62</f>
-        <v>0.25</v>
-      </c>
-      <c r="K37" s="150">
-        <f>K38/ORÇAMENTO!$G$62</f>
-        <v>0.25</v>
-      </c>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
       <c r="L37" s="150">
         <f>L38/ORÇAMENTO!$G$62</f>
         <v>0.25</v>
       </c>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
+      <c r="M37" s="150">
+        <f>M38/ORÇAMENTO!$G$62</f>
+        <v>0.25</v>
+      </c>
+      <c r="N37" s="150">
+        <f>N38/ORÇAMENTO!$G$62</f>
+        <v>0.25</v>
+      </c>
+      <c r="O37" s="150">
+        <f>O38/ORÇAMENTO!$G$62</f>
+        <v>0.25</v>
+      </c>
       <c r="P37" s="150"/>
       <c r="Q37" s="150"/>
       <c r="R37" s="150"/>
       <c r="S37" s="150"/>
       <c r="T37" s="150"/>
       <c r="U37" s="150"/>
-      <c r="V37" s="124">
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
+      <c r="X37" s="150"/>
+      <c r="Y37" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>195</v>
       </c>
@@ -23132,41 +23380,44 @@
         <v>295</v>
       </c>
       <c r="D38" s="81"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
       <c r="H38" s="149"/>
-      <c r="I38" s="149">
-        <f>ORÇAMENTO!$G$62/4</f>
-        <v>220000</v>
-      </c>
-      <c r="J38" s="149">
-        <f>ORÇAMENTO!$G$62/4</f>
-        <v>220000</v>
-      </c>
-      <c r="K38" s="149">
-        <f>ORÇAMENTO!$G$62/4</f>
-        <v>220000</v>
-      </c>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="149">
         <f>ORÇAMENTO!$G$62/4</f>
         <v>220000</v>
       </c>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
+      <c r="M38" s="149">
+        <f>ORÇAMENTO!$G$62/4</f>
+        <v>220000</v>
+      </c>
+      <c r="N38" s="149">
+        <f>ORÇAMENTO!$G$62/4</f>
+        <v>220000</v>
+      </c>
+      <c r="O38" s="149">
+        <f>ORÇAMENTO!$G$62/4</f>
+        <v>220000</v>
+      </c>
       <c r="P38" s="149"/>
       <c r="Q38" s="149"/>
       <c r="R38" s="149"/>
       <c r="S38" s="149"/>
       <c r="T38" s="149"/>
       <c r="U38" s="149"/>
-      <c r="V38" s="125">
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="125">
         <f t="shared" si="2"/>
         <v>880000</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>194</v>
       </c>
@@ -23178,19 +23429,19 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="129"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
       <c r="H39" s="150"/>
       <c r="I39" s="150"/>
       <c r="J39" s="150"/>
-      <c r="K39" s="150">
-        <f>K40/ORÇAMENTO!G69</f>
-        <v>1</v>
-      </c>
+      <c r="K39" s="150"/>
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
+      <c r="N39" s="150">
+        <f>N40/ORÇAMENTO!G69</f>
+        <v>1</v>
+      </c>
       <c r="O39" s="150"/>
       <c r="P39" s="150"/>
       <c r="Q39" s="150"/>
@@ -23198,12 +23449,15 @@
       <c r="S39" s="150"/>
       <c r="T39" s="150"/>
       <c r="U39" s="150"/>
-      <c r="V39" s="124">
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>195</v>
       </c>
@@ -23212,19 +23466,19 @@
         <v>300</v>
       </c>
       <c r="D40" s="81"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
       <c r="H40" s="149"/>
       <c r="I40" s="149"/>
       <c r="J40" s="149"/>
-      <c r="K40" s="149">
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149">
         <f>ORÇAMENTO!G69</f>
         <v>40000</v>
       </c>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
       <c r="O40" s="149"/>
       <c r="P40" s="149"/>
       <c r="Q40" s="149"/>
@@ -23232,12 +23486,15 @@
       <c r="S40" s="149"/>
       <c r="T40" s="149"/>
       <c r="U40" s="149"/>
-      <c r="V40" s="125">
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="125">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>194</v>
       </c>
@@ -23249,9 +23506,9 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="122"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
       <c r="H41" s="150"/>
       <c r="I41" s="150"/>
       <c r="J41" s="150"/>
@@ -23263,21 +23520,24 @@
       <c r="P41" s="150"/>
       <c r="Q41" s="150"/>
       <c r="R41" s="150"/>
-      <c r="S41" s="150">
-        <f>S42/ORÇAMENTO!$G$71</f>
+      <c r="S41" s="150"/>
+      <c r="T41" s="150"/>
+      <c r="U41" s="150"/>
+      <c r="V41" s="150">
+        <f>V42/ORÇAMENTO!$G$71</f>
         <v>0.5</v>
       </c>
-      <c r="T41" s="150">
-        <f>T42/ORÇAMENTO!$G$71</f>
+      <c r="W41" s="150">
+        <f>W42/ORÇAMENTO!$G$71</f>
         <v>0.5</v>
       </c>
-      <c r="U41" s="150"/>
-      <c r="V41" s="124">
+      <c r="X41" s="150"/>
+      <c r="Y41" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>195</v>
       </c>
@@ -23286,9 +23546,9 @@
         <v>286</v>
       </c>
       <c r="D42" s="81"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
       <c r="H42" s="149"/>
       <c r="I42" s="149"/>
       <c r="J42" s="149"/>
@@ -23300,28 +23560,31 @@
       <c r="P42" s="149"/>
       <c r="Q42" s="149"/>
       <c r="R42" s="149"/>
-      <c r="S42" s="149">
+      <c r="S42" s="149"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="149">
         <f>ORÇAMENTO!$G$71/2</f>
         <v>12950</v>
       </c>
-      <c r="T42" s="149">
+      <c r="W42" s="149">
         <f>ORÇAMENTO!$G$71/2</f>
         <v>12950</v>
       </c>
-      <c r="U42" s="149"/>
-      <c r="V42" s="125">
+      <c r="X42" s="149"/>
+      <c r="Y42" s="125">
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -23336,266 +23599,278 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="126"/>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="126"/>
+    </row>
+    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="C44" s="118" t="s">
         <v>196</v>
       </c>
       <c r="D44" s="118"/>
-      <c r="E44" s="119">
-        <f t="shared" ref="E44:U44" si="3">E45/$V$46</f>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119">
+        <f t="shared" ref="H44:X44" si="3">H45/$Y$46</f>
         <v>5.6409519797061158E-2</v>
       </c>
-      <c r="F44" s="119">
+      <c r="I44" s="119">
         <f t="shared" si="3"/>
         <v>8.8596957010807099E-3</v>
       </c>
-      <c r="G44" s="119">
+      <c r="J44" s="119">
         <f t="shared" si="3"/>
         <v>1.4173235647758653E-2</v>
       </c>
-      <c r="H44" s="119">
+      <c r="K44" s="119">
         <f t="shared" si="3"/>
         <v>4.4842636017486642E-2</v>
       </c>
-      <c r="I44" s="119">
+      <c r="L44" s="119">
         <f t="shared" si="3"/>
         <v>0.14374700307054078</v>
       </c>
-      <c r="J44" s="119">
+      <c r="M44" s="119">
         <f t="shared" si="3"/>
         <v>0.14839755196002802</v>
       </c>
-      <c r="K44" s="119">
+      <c r="N44" s="119">
         <f t="shared" si="3"/>
         <v>0.16548224694355154</v>
       </c>
-      <c r="L44" s="119">
+      <c r="O44" s="119">
         <f t="shared" si="3"/>
         <v>0.14839755196002802</v>
       </c>
-      <c r="M44" s="119">
+      <c r="P44" s="119">
         <f t="shared" si="3"/>
         <v>5.3586891383713406E-2</v>
       </c>
-      <c r="N44" s="119">
+      <c r="Q44" s="119">
         <f t="shared" si="3"/>
         <v>5.3586891383713406E-2</v>
       </c>
-      <c r="O44" s="119">
+      <c r="R44" s="119">
         <f t="shared" si="3"/>
         <v>5.3541857195530278E-2</v>
       </c>
-      <c r="P44" s="119">
+      <c r="S44" s="119">
         <f t="shared" si="3"/>
         <v>8.0023134419991732E-2</v>
       </c>
-      <c r="Q44" s="119">
+      <c r="T44" s="119">
         <f t="shared" si="3"/>
         <v>9.1575043690914817E-3</v>
       </c>
-      <c r="R44" s="119">
+      <c r="U44" s="119">
         <f t="shared" si="3"/>
         <v>8.731940148592807E-3</v>
       </c>
-      <c r="S44" s="119">
+      <c r="V44" s="119">
         <f t="shared" si="3"/>
         <v>5.5311700009157399E-3</v>
       </c>
-      <c r="T44" s="119">
+      <c r="W44" s="119">
         <f t="shared" si="3"/>
         <v>5.5311700009157399E-3</v>
       </c>
-      <c r="U44" s="119">
+      <c r="X44" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V44" s="119">
-        <f>SUM(E44:T44)</f>
-        <v>1</v>
-      </c>
-      <c r="W44" s="73"/>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="119">
+        <f>SUM(H44:W44)</f>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="73"/>
+    </row>
+    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="C45" s="118" t="s">
         <v>197</v>
       </c>
       <c r="D45" s="118"/>
-      <c r="E45" s="120">
-        <f>E10+E12+E14+E16+E18+E20+E22+E24+E26+E28</f>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="120">
+        <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28</f>
         <v>132070.29999999999</v>
       </c>
-      <c r="F45" s="120">
-        <f>F14+F16+F18+F20+F22+F24</f>
+      <c r="I45" s="120">
+        <f>I14+I16+I18+I20+I22+I24</f>
         <v>20743</v>
       </c>
-      <c r="G45" s="120">
-        <f>G16+G18+G20+G22+G24+G26</f>
+      <c r="J45" s="120">
+        <f>J16+J18+J20+J22+J24+J26</f>
         <v>33183.467803030304</v>
       </c>
-      <c r="H45" s="120">
-        <f>H16+H18+H20+H22+H26</f>
+      <c r="K45" s="120">
+        <f>K16+K18+K20+K22+K26</f>
         <v>104989.02335858587</v>
       </c>
-      <c r="I45" s="120">
-        <f>I16+I18+I20+I22+I26+I28+I38</f>
+      <c r="L45" s="120">
+        <f>L16+L18+L20+L22+L26+L28+L38</f>
         <v>336551.5233585859</v>
       </c>
-      <c r="J45" s="120">
-        <f>J16+J18+J20+J22+J26+J28+J34+J36+J38</f>
+      <c r="M45" s="120">
+        <f>M16+M18+M20+M22+M26+M28+M34+M36+M38</f>
         <v>347439.74558080808</v>
       </c>
-      <c r="K45" s="120">
-        <f>K16+K18+K20+K22+K26+K28+K34+K36+K38+K40</f>
+      <c r="N45" s="120">
+        <f>N16+N18+N20+N22+N26+N28+N34+N36+N38+N40</f>
         <v>387439.74558080808</v>
       </c>
-      <c r="L45" s="120">
-        <f>L16+L18+L20+L22+L26+L28+L32+L34+L36+L38</f>
+      <c r="O45" s="120">
+        <f>O16+O18+O20+O22+O26+O28+O32+O34+O36+O38</f>
         <v>347439.74558080808</v>
       </c>
-      <c r="M45" s="120">
-        <f>M16+M18+M20+M22+M26+M28+M32+M36</f>
+      <c r="P45" s="120">
+        <f>P16+P18+P20+P22+P26+P28+P32+P36</f>
         <v>125461.74558080808</v>
       </c>
-      <c r="N45" s="120">
-        <f>N16+N18+N20+N22+N26+N28+N32+N36</f>
+      <c r="Q45" s="120">
+        <f>Q16+Q18+Q20+Q22+Q26+Q28+Q32+Q36</f>
         <v>125461.74558080808</v>
       </c>
-      <c r="O45" s="120">
-        <f>O16+O18+O20+O26+O28+O32+O34+O36+O38</f>
+      <c r="R45" s="120">
+        <f>R16+R18+R20+R26+R28+R32+R34+R36+R38</f>
         <v>125356.30808080808</v>
       </c>
-      <c r="P45" s="120">
-        <f>P16+P18+P20+P26+P28+P30+P32+P36</f>
+      <c r="S45" s="120">
+        <f>S16+S18+S20+S26+S28+S30+S32+S36</f>
         <v>187356.30808080808</v>
       </c>
-      <c r="Q45" s="120">
-        <f>Q16+Q18+Q20+Q26+Q28+Q32+Q34+Q36</f>
+      <c r="T45" s="120">
+        <f>T16+T18+T20+T26+T28+T32+T34+T36</f>
         <v>21440.252525252523</v>
       </c>
-      <c r="R45" s="120">
-        <f>R16+R28+R32+R34+R36+R40</f>
+      <c r="U45" s="120">
+        <f>U16+U28+U32+U34+U36+U40</f>
         <v>20443.888888888891</v>
       </c>
-      <c r="S45" s="120">
-        <f>S30+S34+S36+S38+S40+S42</f>
+      <c r="V45" s="120">
+        <f>V30+V34+V36+V38+V40+V42</f>
         <v>12950</v>
       </c>
-      <c r="T45" s="120">
-        <f>T34+T36+T38+T40+T42</f>
+      <c r="W45" s="120">
+        <f>W34+W36+W38+W40+W42</f>
         <v>12950</v>
       </c>
-      <c r="U45" s="120">
-        <f>U34+U36</f>
+      <c r="X45" s="120">
+        <f>X34+X36</f>
         <v>0</v>
       </c>
-      <c r="V45" s="120">
-        <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28+V30+V32+V34+V36+V38+V40+V42</f>
+      <c r="Y45" s="120">
+        <f>Y10+Y12+Y14+Y16+Y18+Y20+Y22+Y24+Y26+Y28+Y30+Y32+Y34+Y36+Y38+Y40+Y42</f>
         <v>2341276.7999999998</v>
       </c>
-      <c r="W45" s="73"/>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z45" s="73"/>
+    </row>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="C46" s="118" t="s">
         <v>231</v>
       </c>
       <c r="D46" s="118"/>
-      <c r="E46" s="121">
-        <f>E44</f>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="121">
+        <f>H44</f>
         <v>5.6409519797061158E-2</v>
       </c>
-      <c r="F46" s="121">
-        <f>F44+E46</f>
+      <c r="I46" s="121">
+        <f>I44+H46</f>
         <v>6.5269215498141867E-2</v>
       </c>
-      <c r="G46" s="121">
-        <f t="shared" ref="G46:Q46" si="4">G44+F46</f>
+      <c r="J46" s="121">
+        <f t="shared" ref="J46:T46" si="4">J44+I46</f>
         <v>7.9442451145900525E-2</v>
       </c>
-      <c r="H46" s="121">
+      <c r="K46" s="121">
         <f t="shared" si="4"/>
         <v>0.12428508716338717</v>
       </c>
-      <c r="I46" s="121">
-        <f>I44+H46</f>
+      <c r="L46" s="121">
+        <f>L44+K46</f>
         <v>0.26803209023392793</v>
       </c>
-      <c r="J46" s="121">
+      <c r="M46" s="121">
         <f t="shared" si="4"/>
         <v>0.41642964219395595</v>
       </c>
-      <c r="K46" s="121">
+      <c r="N46" s="121">
         <f t="shared" si="4"/>
         <v>0.58191188913750747</v>
       </c>
-      <c r="L46" s="121">
+      <c r="O46" s="121">
         <f t="shared" si="4"/>
         <v>0.73030944109753548</v>
       </c>
-      <c r="M46" s="121">
+      <c r="P46" s="121">
         <f t="shared" si="4"/>
         <v>0.7838963324812489</v>
       </c>
-      <c r="N46" s="121">
+      <c r="Q46" s="121">
         <f t="shared" si="4"/>
         <v>0.83748322386496232</v>
       </c>
-      <c r="O46" s="121">
+      <c r="R46" s="121">
         <f t="shared" si="4"/>
         <v>0.89102508106049261</v>
       </c>
-      <c r="P46" s="121">
+      <c r="S46" s="121">
         <f t="shared" si="4"/>
         <v>0.97104821548048437</v>
       </c>
-      <c r="Q46" s="121">
+      <c r="T46" s="121">
         <f t="shared" si="4"/>
         <v>0.98020571984957583</v>
       </c>
-      <c r="R46" s="121">
-        <f>R44+Q46</f>
-        <v>0.98893765999816863</v>
-      </c>
-      <c r="S46" s="121">
-        <f>S44+R46</f>
-        <v>0.99446882999908437</v>
-      </c>
-      <c r="T46" s="121">
-        <f>T44+S46</f>
-        <v>1</v>
-      </c>
       <c r="U46" s="121">
         <f>U44+T46</f>
-        <v>1</v>
-      </c>
-      <c r="V46" s="120">
+        <v>0.98893765999816863</v>
+      </c>
+      <c r="V46" s="121">
+        <f>V44+U46</f>
+        <v>0.99446882999908437</v>
+      </c>
+      <c r="W46" s="121">
+        <f>W44+V46</f>
+        <v>1</v>
+      </c>
+      <c r="X46" s="121">
+        <f>X44+W46</f>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="120">
         <v>2341276.7999999998</v>
       </c>
-      <c r="W46" s="73"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z46" s="73"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="C47" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="158">
-        <f>COUNTIF(E45:T45,"&lt;&gt;0")</f>
+      <c r="D47" s="152">
+        <f>COUNTIF(H45:W45,"&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
       <c r="J47" s="73"/>
       <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
       <c r="M47" s="73"/>
       <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="73"/>
       <c r="R47" s="73"/>
@@ -23604,69 +23879,75 @@
       <c r="U47" s="73"/>
       <c r="V47" s="73"/>
       <c r="W47" s="73"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="C48" s="118" t="s">
         <v>302</v>
       </c>
-      <c r="D48" s="159">
-        <f>COUNT(E45:T45)</f>
+      <c r="D48" s="153">
+        <f>COUNT(H45:W45)</f>
         <v>16</v>
       </c>
-      <c r="V48" s="128"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="Y48" s="128"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="G49" s="130"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J49" s="130"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="4"/>
-      <c r="V50" s="4"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I50" s="130"/>
+      <c r="J50" s="4"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="H52" s="130"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K52" s="130"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -23979,95 +24260,131 @@
       <c r="A167" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:V1"/>
+  <mergeCells count="18">
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E10:U10">
+  <conditionalFormatting sqref="H10:X10">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:X12">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:X14">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:X16">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:X18">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:U12">
+  <conditionalFormatting sqref="H20:X20">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:U14">
+  <conditionalFormatting sqref="H22:X22">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:U16">
+  <conditionalFormatting sqref="H24:X24">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:U18">
+  <conditionalFormatting sqref="H26:X26">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:U20">
+  <conditionalFormatting sqref="H28:X28">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:U22">
+  <conditionalFormatting sqref="H30:X30">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:U24">
+  <conditionalFormatting sqref="H32:X32">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:U26">
+  <conditionalFormatting sqref="H34:X34">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:U28">
+  <conditionalFormatting sqref="H36:X36">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:U30">
+  <conditionalFormatting sqref="H38:X38">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:U32">
+  <conditionalFormatting sqref="H40:X40">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:U34">
+  <conditionalFormatting sqref="H42:X42">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36:U36">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="E9:E42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Interrompido"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Em execução"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Finalizado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:U38">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:U40">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:U42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E13 E15 E17 E19 E21 E23 E25 E27 E29 E31 E33 E35 E37 E39 E41">
+      <formula1>"Não iniciado,Finalizado,Em execução,Interrompido,Cancelado"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
@@ -24115,71 +24432,71 @@
         <v>0</v>
       </c>
       <c r="E1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!E46</f>
+        <f>'FÍSICO x FINANCEIRO'!H46</f>
         <v>5.6409519797061158E-2</v>
       </c>
       <c r="F1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!F46</f>
+        <f>'FÍSICO x FINANCEIRO'!I46</f>
         <v>6.5269215498141867E-2</v>
       </c>
       <c r="G1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!G46</f>
+        <f>'FÍSICO x FINANCEIRO'!J46</f>
         <v>7.9442451145900525E-2</v>
       </c>
       <c r="H1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!H46</f>
+        <f>'FÍSICO x FINANCEIRO'!K46</f>
         <v>0.12428508716338717</v>
       </c>
       <c r="I1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!I46</f>
+        <f>'FÍSICO x FINANCEIRO'!L46</f>
         <v>0.26803209023392793</v>
       </c>
       <c r="J1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!J46</f>
+        <f>'FÍSICO x FINANCEIRO'!M46</f>
         <v>0.41642964219395595</v>
       </c>
       <c r="K1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!K46</f>
+        <f>'FÍSICO x FINANCEIRO'!N46</f>
         <v>0.58191188913750747</v>
       </c>
       <c r="L1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!L46</f>
+        <f>'FÍSICO x FINANCEIRO'!O46</f>
         <v>0.73030944109753548</v>
       </c>
       <c r="M1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!M46</f>
+        <f>'FÍSICO x FINANCEIRO'!P46</f>
         <v>0.7838963324812489</v>
       </c>
       <c r="N1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!N46</f>
+        <f>'FÍSICO x FINANCEIRO'!Q46</f>
         <v>0.83748322386496232</v>
       </c>
       <c r="O1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!O46</f>
+        <f>'FÍSICO x FINANCEIRO'!R46</f>
         <v>0.89102508106049261</v>
       </c>
       <c r="P1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!P46</f>
+        <f>'FÍSICO x FINANCEIRO'!S46</f>
         <v>0.97104821548048437</v>
       </c>
       <c r="Q1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!Q46</f>
+        <f>'FÍSICO x FINANCEIRO'!T46</f>
         <v>0.98020571984957583</v>
       </c>
       <c r="R1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!R46</f>
+        <f>'FÍSICO x FINANCEIRO'!U46</f>
         <v>0.98893765999816863</v>
       </c>
       <c r="S1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!S46</f>
+        <f>'FÍSICO x FINANCEIRO'!V46</f>
         <v>0.99446882999908437</v>
       </c>
       <c r="T1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!T46</f>
+        <f>'FÍSICO x FINANCEIRO'!W46</f>
         <v>1</v>
       </c>
       <c r="U1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!U46</f>
+        <f>'FÍSICO x FINANCEIRO'!X46</f>
         <v>1</v>
       </c>
       <c r="V1" s="139" t="e">
@@ -24214,67 +24531,67 @@
         <v>211</v>
       </c>
       <c r="E2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!E7</f>
+        <f>'FÍSICO x FINANCEIRO'!H7</f>
         <v>40360</v>
       </c>
       <c r="F2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!F7</f>
+        <f>'FÍSICO x FINANCEIRO'!I7</f>
         <v>40391</v>
       </c>
       <c r="G2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!G7</f>
+        <f>'FÍSICO x FINANCEIRO'!J7</f>
         <v>40422</v>
       </c>
       <c r="H2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!H7</f>
+        <f>'FÍSICO x FINANCEIRO'!K7</f>
         <v>40452</v>
       </c>
       <c r="I2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!I7</f>
+        <f>'FÍSICO x FINANCEIRO'!L7</f>
         <v>40483</v>
       </c>
       <c r="J2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!J7</f>
+        <f>'FÍSICO x FINANCEIRO'!M7</f>
         <v>40513</v>
       </c>
       <c r="K2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!K7</f>
+        <f>'FÍSICO x FINANCEIRO'!N7</f>
         <v>40544</v>
       </c>
       <c r="L2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!L7</f>
+        <f>'FÍSICO x FINANCEIRO'!O7</f>
         <v>40575</v>
       </c>
       <c r="M2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!M7</f>
+        <f>'FÍSICO x FINANCEIRO'!P7</f>
         <v>40603</v>
       </c>
       <c r="N2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!N7</f>
+        <f>'FÍSICO x FINANCEIRO'!Q7</f>
         <v>40634</v>
       </c>
       <c r="O2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!O7</f>
+        <f>'FÍSICO x FINANCEIRO'!R7</f>
         <v>40664</v>
       </c>
       <c r="P2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!P7</f>
+        <f>'FÍSICO x FINANCEIRO'!S7</f>
         <v>40695</v>
       </c>
       <c r="Q2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!Q7</f>
+        <f>'FÍSICO x FINANCEIRO'!T7</f>
         <v>40725</v>
       </c>
       <c r="R2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!R7</f>
+        <f>'FÍSICO x FINANCEIRO'!U7</f>
         <v>40756</v>
       </c>
       <c r="S2" s="145">
-        <f>'FÍSICO x FINANCEIRO'!S7</f>
+        <f>'FÍSICO x FINANCEIRO'!V7</f>
         <v>40787</v>
       </c>
       <c r="T2" s="145">
-        <f>'FÍSICO x FINANCEIRO'!T7</f>
+        <f>'FÍSICO x FINANCEIRO'!W7</f>
         <v>40817</v>
       </c>
       <c r="U2" s="138"/>
@@ -24934,71 +25251,71 @@
         <v>0</v>
       </c>
       <c r="D1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!E45</f>
+        <f>'FÍSICO x FINANCEIRO'!H45</f>
         <v>132070.29999999999</v>
       </c>
       <c r="E1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!F45</f>
+        <f>'FÍSICO x FINANCEIRO'!I45</f>
         <v>20743</v>
       </c>
       <c r="F1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!G45</f>
+        <f>'FÍSICO x FINANCEIRO'!J45</f>
         <v>33183.467803030304</v>
       </c>
       <c r="G1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!H45</f>
+        <f>'FÍSICO x FINANCEIRO'!K45</f>
         <v>104989.02335858587</v>
       </c>
       <c r="H1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!I45</f>
+        <f>'FÍSICO x FINANCEIRO'!L45</f>
         <v>336551.5233585859</v>
       </c>
       <c r="I1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!J45</f>
+        <f>'FÍSICO x FINANCEIRO'!M45</f>
         <v>347439.74558080808</v>
       </c>
       <c r="J1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!K45</f>
+        <f>'FÍSICO x FINANCEIRO'!N45</f>
         <v>387439.74558080808</v>
       </c>
       <c r="K1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!L45</f>
+        <f>'FÍSICO x FINANCEIRO'!O45</f>
         <v>347439.74558080808</v>
       </c>
       <c r="L1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!M45</f>
+        <f>'FÍSICO x FINANCEIRO'!P45</f>
         <v>125461.74558080808</v>
       </c>
       <c r="M1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!N45</f>
+        <f>'FÍSICO x FINANCEIRO'!Q45</f>
         <v>125461.74558080808</v>
       </c>
       <c r="N1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!O45</f>
+        <f>'FÍSICO x FINANCEIRO'!R45</f>
         <v>125356.30808080808</v>
       </c>
       <c r="O1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!P45</f>
+        <f>'FÍSICO x FINANCEIRO'!S45</f>
         <v>187356.30808080808</v>
       </c>
       <c r="P1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!Q45</f>
+        <f>'FÍSICO x FINANCEIRO'!T45</f>
         <v>21440.252525252523</v>
       </c>
       <c r="Q1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!R45</f>
+        <f>'FÍSICO x FINANCEIRO'!U45</f>
         <v>20443.888888888891</v>
       </c>
       <c r="R1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!S45</f>
+        <f>'FÍSICO x FINANCEIRO'!V45</f>
         <v>12950</v>
       </c>
       <c r="S1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!U45</f>
+        <f>'FÍSICO x FINANCEIRO'!X45</f>
         <v>0</v>
       </c>
       <c r="T1" s="139">
-        <f>'FÍSICO x FINANCEIRO'!U45</f>
+        <f>'FÍSICO x FINANCEIRO'!X45</f>
         <v>0</v>
       </c>
       <c r="U1" s="139" t="e">
@@ -25027,67 +25344,67 @@
         <v>211</v>
       </c>
       <c r="D2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!E7</f>
+        <f>'FÍSICO x FINANCEIRO'!H7</f>
         <v>40360</v>
       </c>
       <c r="E2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!F7</f>
+        <f>'FÍSICO x FINANCEIRO'!I7</f>
         <v>40391</v>
       </c>
       <c r="F2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!G7</f>
+        <f>'FÍSICO x FINANCEIRO'!J7</f>
         <v>40422</v>
       </c>
       <c r="G2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!H7</f>
+        <f>'FÍSICO x FINANCEIRO'!K7</f>
         <v>40452</v>
       </c>
       <c r="H2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!I7</f>
+        <f>'FÍSICO x FINANCEIRO'!L7</f>
         <v>40483</v>
       </c>
       <c r="I2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!J7</f>
+        <f>'FÍSICO x FINANCEIRO'!M7</f>
         <v>40513</v>
       </c>
       <c r="J2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!K7</f>
+        <f>'FÍSICO x FINANCEIRO'!N7</f>
         <v>40544</v>
       </c>
       <c r="K2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!L7</f>
+        <f>'FÍSICO x FINANCEIRO'!O7</f>
         <v>40575</v>
       </c>
       <c r="L2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!M7</f>
+        <f>'FÍSICO x FINANCEIRO'!P7</f>
         <v>40603</v>
       </c>
       <c r="M2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!N7</f>
+        <f>'FÍSICO x FINANCEIRO'!Q7</f>
         <v>40634</v>
       </c>
       <c r="N2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!O7</f>
+        <f>'FÍSICO x FINANCEIRO'!R7</f>
         <v>40664</v>
       </c>
       <c r="O2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!P7</f>
+        <f>'FÍSICO x FINANCEIRO'!S7</f>
         <v>40695</v>
       </c>
       <c r="P2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!Q7</f>
+        <f>'FÍSICO x FINANCEIRO'!T7</f>
         <v>40725</v>
       </c>
       <c r="Q2" s="141">
-        <f>'FÍSICO x FINANCEIRO'!R7</f>
+        <f>'FÍSICO x FINANCEIRO'!U7</f>
         <v>40756</v>
       </c>
       <c r="R2" s="145">
-        <f>'FÍSICO x FINANCEIRO'!S7</f>
+        <f>'FÍSICO x FINANCEIRO'!V7</f>
         <v>40787</v>
       </c>
       <c r="S2" s="145">
-        <f>'FÍSICO x FINANCEIRO'!T7</f>
+        <f>'FÍSICO x FINANCEIRO'!W7</f>
         <v>40817</v>
       </c>
       <c r="T2" s="138"/>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LEVANTAMENTO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="FÍSICO x FINANCEIRO" sheetId="3" r:id="rId3"/>
     <sheet name="CURVA &quot;S&quot;" sheetId="4" r:id="rId4"/>
     <sheet name="CURVA &quot;V&quot;" sheetId="5" r:id="rId5"/>
+    <sheet name="FÍSICO SEMANAL" sheetId="6" r:id="rId6"/>
+    <sheet name="Dados de Físico Semanal" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'CURVA "S"'!$B$4:$N$41</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="316">
   <si>
     <t>Item</t>
   </si>
@@ -944,9 +946,6 @@
     <t>Finalizado</t>
   </si>
   <si>
-    <t>Cancelado</t>
-  </si>
-  <si>
     <t>Interrompido</t>
   </si>
   <si>
@@ -955,12 +954,33 @@
   <si>
     <t>Término</t>
   </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Início real</t>
+  </si>
+  <si>
+    <t>Término real</t>
+  </si>
+  <si>
+    <t>Data de Início</t>
+  </si>
+  <si>
+    <t>Dias de atraso</t>
+  </si>
+  <si>
+    <t>Dias adiantado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="18">
+  <numFmts count="20">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0\ &quot;x&quot;"/>
@@ -979,6 +999,8 @@
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="180" formatCode="&quot;R$ &quot;#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="d"/>
+    <numFmt numFmtId="183" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1183,7 +1205,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,8 +1248,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1642,6 +1688,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1650,7 +1783,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,6 +2196,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,22 +2218,83 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2102,7 +2303,319 @@
     <cellStyle name="Separador de milhares 2" xfId="3"/>
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9917600024414813E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2250,6 +2763,338 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2319,6 +3164,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00424242"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2467,11 +3315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335171584"/>
-        <c:axId val="335173120"/>
+        <c:axId val="315187200"/>
+        <c:axId val="315188736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335171584"/>
+        <c:axId val="315187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +3355,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335173120"/>
+        <c:crossAx val="315188736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2516,7 +3364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335173120"/>
+        <c:axId val="315188736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2553,7 +3401,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335171584"/>
+        <c:crossAx val="315187200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2729,8 +3577,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335136256"/>
-        <c:axId val="335137792"/>
+        <c:axId val="328144384"/>
+        <c:axId val="328145920"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3087,11 +3935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335192832"/>
-        <c:axId val="335194368"/>
+        <c:axId val="328160000"/>
+        <c:axId val="328161536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335136256"/>
+        <c:axId val="328144384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +3983,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335137792"/>
+        <c:crossAx val="328145920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335137792"/>
+        <c:axId val="328145920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3181,13 +4029,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335136256"/>
+        <c:crossAx val="328144384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="335192832"/>
+        <c:axId val="328160000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +4044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335194368"/>
+        <c:crossAx val="328161536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3204,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335194368"/>
+        <c:axId val="328161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +4062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335192832"/>
+        <c:crossAx val="328160000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3285,6 +4133,10 @@
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$J$6" horiz="1" max="365" page="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3358,6 +4210,52 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9524</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>44</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3675,63 +4573,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="158" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
@@ -19662,14 +20560,14 @@
       <c r="A1" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="158" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
@@ -19696,10 +20594,10 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="159"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="102">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
@@ -21257,11 +22155,11 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21282,32 +22180,32 @@
   <sheetData>
     <row r="1" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
     </row>
     <row r="2" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
@@ -21527,10 +22425,10 @@
         <v>304</v>
       </c>
       <c r="F7" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="106" t="s">
         <v>308</v>
-      </c>
-      <c r="G7" s="106" t="s">
-        <v>309</v>
       </c>
       <c r="H7" s="117">
         <v>40360</v>
@@ -21623,8 +22521,8 @@
       </c>
       <c r="D9" s="122"/>
       <c r="E9" s="163"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
       <c r="H9" s="144">
         <f>IFERROR(IF($E$9="Não iniciado","",IF(H10="","",H10/ORÇAMENTO!$G$7)),"")</f>
         <v>1</v>
@@ -21708,8 +22606,8 @@
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="164"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="149">
         <v>116000</v>
       </c>
@@ -21749,8 +22647,8 @@
       <c r="E11" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
       <c r="H11" s="144">
         <f>IFERROR(IF(H12="","",H12/ORÇAMENTO!$G$14)," ")</f>
         <v>1</v>
@@ -21834,8 +22732,8 @@
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="164"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="149">
         <v>9602.2999999999993</v>
       </c>
@@ -21875,8 +22773,8 @@
       <c r="E13" s="163" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
       <c r="H13" s="142">
         <f>IFERROR(IF(H14="","",H14/ORÇAMENTO!$G$20)," ")</f>
         <v>0.5</v>
@@ -21962,8 +22860,8 @@
         <v>2</v>
       </c>
       <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
       <c r="H14" s="149">
         <f>IF($D$14&gt;0,ORÇAMENTO!$G$20/$D$14," ")</f>
         <v>6468</v>
@@ -22005,10 +22903,10 @@
       </c>
       <c r="D15" s="129"/>
       <c r="E15" s="163" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
+        <v>306</v>
+      </c>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="142" t="str">
         <f>IFERROR(IF(H16="","",H16/ORÇAMENTO!$G$25)," ")</f>
         <v/>
@@ -22092,8 +22990,8 @@
       </c>
       <c r="D16" s="147"/>
       <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="149"/>
       <c r="I16" s="149"/>
       <c r="J16" s="149">
@@ -22167,8 +23065,8 @@
       <c r="E17" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
       <c r="H17" s="142" t="str">
         <f>IFERROR(IF(H18="","",H18/ORÇAMENTO!$G$35),"")</f>
         <v/>
@@ -22252,8 +23150,8 @@
       </c>
       <c r="D18" s="147"/>
       <c r="E18" s="164"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
       <c r="H18" s="149"/>
       <c r="I18" s="149"/>
       <c r="J18" s="149">
@@ -22322,8 +23220,8 @@
       </c>
       <c r="D19" s="129"/>
       <c r="E19" s="163"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="150" t="str">
         <f>IFERROR(IF(H20="","",H20/ORÇAMENTO!$G$37),"")</f>
         <v/>
@@ -22407,8 +23305,8 @@
       </c>
       <c r="D20" s="147"/>
       <c r="E20" s="164"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="149"/>
       <c r="I20" s="149"/>
       <c r="J20" s="149">
@@ -22477,8 +23375,8 @@
       </c>
       <c r="D21" s="122"/>
       <c r="E21" s="163"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="150" t="str">
         <f>IFERROR(IF(H22="","",H22/ORÇAMENTO!$G$39),"")</f>
         <v/>
@@ -22562,8 +23460,8 @@
       </c>
       <c r="D22" s="147"/>
       <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="149"/>
       <c r="I22" s="149"/>
       <c r="J22" s="149">
@@ -22623,8 +23521,8 @@
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="163"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="150"/>
       <c r="I23" s="150">
         <f>I24/ORÇAMENTO!G43</f>
@@ -22663,8 +23561,8 @@
       </c>
       <c r="D24" s="147"/>
       <c r="E24" s="164"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="149"/>
       <c r="I24" s="149">
         <f>ORÇAMENTO!G43/2</f>
@@ -22706,8 +23604,8 @@
       </c>
       <c r="D25" s="122"/>
       <c r="E25" s="163"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="150"/>
       <c r="I25" s="150"/>
       <c r="J25" s="150"/>
@@ -22767,8 +23665,8 @@
       </c>
       <c r="D26" s="147"/>
       <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="149"/>
       <c r="I26" s="149"/>
       <c r="J26" s="149"/>
@@ -22831,8 +23729,8 @@
       </c>
       <c r="D27" s="129"/>
       <c r="E27" s="163"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="150"/>
       <c r="I27" s="150"/>
       <c r="J27" s="150"/>
@@ -22889,8 +23787,8 @@
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="164"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
       <c r="H28" s="149"/>
       <c r="I28" s="149"/>
       <c r="J28" s="149"/>
@@ -22949,8 +23847,8 @@
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="163"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
       <c r="H29" s="150"/>
       <c r="I29" s="150"/>
       <c r="J29" s="150"/>
@@ -22986,8 +23884,8 @@
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="164"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="149"/>
       <c r="I30" s="149"/>
       <c r="J30" s="149"/>
@@ -23026,8 +23924,8 @@
       </c>
       <c r="D31" s="122"/>
       <c r="E31" s="163"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="150"/>
       <c r="I31" s="150"/>
       <c r="J31" s="150"/>
@@ -23072,8 +23970,8 @@
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="164"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="149"/>
       <c r="I32" s="149"/>
       <c r="J32" s="149"/>
@@ -23121,8 +24019,8 @@
       </c>
       <c r="D33" s="129"/>
       <c r="E33" s="163"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
       <c r="J33" s="150"/>
@@ -23164,8 +24062,8 @@
       </c>
       <c r="D34" s="81"/>
       <c r="E34" s="164"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="149"/>
       <c r="I34" s="149"/>
       <c r="J34" s="149"/>
@@ -23210,8 +24108,8 @@
       </c>
       <c r="D35" s="122"/>
       <c r="E35" s="163"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="150"/>
       <c r="I35" s="150"/>
       <c r="J35" s="150"/>
@@ -23271,8 +24169,8 @@
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="164"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
       <c r="H36" s="149"/>
       <c r="I36" s="149"/>
       <c r="J36" s="149"/>
@@ -23335,8 +24233,8 @@
       </c>
       <c r="D37" s="122"/>
       <c r="E37" s="163"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
       <c r="H37" s="150"/>
       <c r="I37" s="150"/>
       <c r="J37" s="150"/>
@@ -23381,8 +24279,8 @@
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="164"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
       <c r="H38" s="149"/>
       <c r="I38" s="149"/>
       <c r="J38" s="149"/>
@@ -23430,8 +24328,8 @@
       </c>
       <c r="D39" s="129"/>
       <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
       <c r="H39" s="150"/>
       <c r="I39" s="150"/>
       <c r="J39" s="150"/>
@@ -23467,8 +24365,8 @@
       </c>
       <c r="D40" s="81"/>
       <c r="E40" s="164"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="149"/>
       <c r="I40" s="149"/>
       <c r="J40" s="149"/>
@@ -23507,8 +24405,8 @@
       </c>
       <c r="D41" s="122"/>
       <c r="E41" s="163"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
       <c r="H41" s="150"/>
       <c r="I41" s="150"/>
       <c r="J41" s="150"/>
@@ -23547,8 +24445,8 @@
       </c>
       <c r="D42" s="81"/>
       <c r="E42" s="164"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="165"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
       <c r="H42" s="149"/>
       <c r="I42" s="149"/>
       <c r="J42" s="149"/>
@@ -23861,9 +24759,9 @@
         <f>COUNTIF(H45:W45,"&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
       <c r="J47" s="73"/>
@@ -23892,9 +24790,9 @@
         <f>COUNT(H45:W45)</f>
         <v>16</v>
       </c>
-      <c r="E48" s="162"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
       <c r="Y48" s="128"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -24261,6 +25159,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -24269,114 +25177,104 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H10:X10">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:X12">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:X14">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:X16">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:X18">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:X20">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:X22">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:X24">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:X26">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:X28">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:X30">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:X32">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:X34">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:X36">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:X38">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:X40">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:X42">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Interrompido"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Em execução"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25993,4 +26891,7240 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:AR24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="43" width="3.140625" customWidth="1"/>
+    <col min="44" max="44" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="197" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="184">
+        <v>0</v>
+      </c>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="184"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="184"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AK6" s="184"/>
+      <c r="AL6" s="184"/>
+      <c r="AM6" s="184"/>
+      <c r="AN6" s="184"/>
+      <c r="AO6" s="184"/>
+      <c r="AP6" s="184"/>
+      <c r="AQ6" s="184"/>
+      <c r="AR6" s="185"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B7" s="198">
+        <v>44661</v>
+      </c>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="178">
+        <f>J8</f>
+        <v>44661</v>
+      </c>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="177">
+        <f>Q8</f>
+        <v>44668</v>
+      </c>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="177">
+        <f t="shared" ref="X7" si="0">X8</f>
+        <v>44675</v>
+      </c>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="178"/>
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="177">
+        <f t="shared" ref="AE7" si="1">AE8</f>
+        <v>44682</v>
+      </c>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
+      <c r="AH7" s="178"/>
+      <c r="AI7" s="178"/>
+      <c r="AJ7" s="178"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="177">
+        <f t="shared" ref="AL7" si="2">AL8</f>
+        <v>44689</v>
+      </c>
+      <c r="AM7" s="178"/>
+      <c r="AN7" s="178"/>
+      <c r="AO7" s="178"/>
+      <c r="AP7" s="178"/>
+      <c r="AQ7" s="178"/>
+      <c r="AR7" s="179"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B8" s="199" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="195" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="195" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="196" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="196" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="200" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="174">
+        <f>B7+J6</f>
+        <v>44661</v>
+      </c>
+      <c r="K8" s="169">
+        <f>J8+1</f>
+        <v>44662</v>
+      </c>
+      <c r="L8" s="168">
+        <f t="shared" ref="L8:W8" si="3">K8+1</f>
+        <v>44663</v>
+      </c>
+      <c r="M8" s="169">
+        <f t="shared" si="3"/>
+        <v>44664</v>
+      </c>
+      <c r="N8" s="168">
+        <f t="shared" si="3"/>
+        <v>44665</v>
+      </c>
+      <c r="O8" s="169">
+        <f t="shared" si="3"/>
+        <v>44666</v>
+      </c>
+      <c r="P8" s="181">
+        <f t="shared" si="3"/>
+        <v>44667</v>
+      </c>
+      <c r="Q8" s="182">
+        <f t="shared" si="3"/>
+        <v>44668</v>
+      </c>
+      <c r="R8" s="168">
+        <f t="shared" si="3"/>
+        <v>44669</v>
+      </c>
+      <c r="S8" s="169">
+        <f t="shared" si="3"/>
+        <v>44670</v>
+      </c>
+      <c r="T8" s="168">
+        <f t="shared" si="3"/>
+        <v>44671</v>
+      </c>
+      <c r="U8" s="169">
+        <f t="shared" si="3"/>
+        <v>44672</v>
+      </c>
+      <c r="V8" s="168">
+        <f t="shared" si="3"/>
+        <v>44673</v>
+      </c>
+      <c r="W8" s="183">
+        <f t="shared" si="3"/>
+        <v>44674</v>
+      </c>
+      <c r="X8" s="180">
+        <f t="shared" ref="X8:AR8" si="4">W8+1</f>
+        <v>44675</v>
+      </c>
+      <c r="Y8" s="169">
+        <f t="shared" si="4"/>
+        <v>44676</v>
+      </c>
+      <c r="Z8" s="168">
+        <f t="shared" si="4"/>
+        <v>44677</v>
+      </c>
+      <c r="AA8" s="169">
+        <f t="shared" si="4"/>
+        <v>44678</v>
+      </c>
+      <c r="AB8" s="168">
+        <f t="shared" si="4"/>
+        <v>44679</v>
+      </c>
+      <c r="AC8" s="169">
+        <f t="shared" si="4"/>
+        <v>44680</v>
+      </c>
+      <c r="AD8" s="181">
+        <f t="shared" si="4"/>
+        <v>44681</v>
+      </c>
+      <c r="AE8" s="182">
+        <f t="shared" si="4"/>
+        <v>44682</v>
+      </c>
+      <c r="AF8" s="168">
+        <f t="shared" si="4"/>
+        <v>44683</v>
+      </c>
+      <c r="AG8" s="169">
+        <f t="shared" si="4"/>
+        <v>44684</v>
+      </c>
+      <c r="AH8" s="168">
+        <f t="shared" si="4"/>
+        <v>44685</v>
+      </c>
+      <c r="AI8" s="169">
+        <f t="shared" si="4"/>
+        <v>44686</v>
+      </c>
+      <c r="AJ8" s="168">
+        <f t="shared" si="4"/>
+        <v>44687</v>
+      </c>
+      <c r="AK8" s="183">
+        <f t="shared" si="4"/>
+        <v>44688</v>
+      </c>
+      <c r="AL8" s="180">
+        <f t="shared" si="4"/>
+        <v>44689</v>
+      </c>
+      <c r="AM8" s="169">
+        <f t="shared" si="4"/>
+        <v>44690</v>
+      </c>
+      <c r="AN8" s="168">
+        <f t="shared" si="4"/>
+        <v>44691</v>
+      </c>
+      <c r="AO8" s="169">
+        <f t="shared" si="4"/>
+        <v>44692</v>
+      </c>
+      <c r="AP8" s="168">
+        <f t="shared" si="4"/>
+        <v>44693</v>
+      </c>
+      <c r="AQ8" s="169">
+        <f t="shared" si="4"/>
+        <v>44694</v>
+      </c>
+      <c r="AR8" s="181">
+        <f t="shared" si="4"/>
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="199"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="194" t="str">
+        <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
+        <v>D</v>
+      </c>
+      <c r="K9" s="171" t="str">
+        <f t="shared" ref="K9:AR9" si="5">UPPER(LEFT(TEXT(K8,"DDD"),1))</f>
+        <v>S</v>
+      </c>
+      <c r="L9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="M9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="N9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="O9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="P9" s="173" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="Q9" s="175" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="R9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="S9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="T9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="U9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="V9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="W9" s="176" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="X9" s="170" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="Y9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="Z9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AA9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AB9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AC9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AD9" s="173" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AE9" s="175" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AF9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AG9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AH9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AI9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AJ9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AK9" s="176" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AL9" s="170" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AM9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AN9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AO9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AP9" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AQ9" s="171" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AR9" s="173" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B10" s="188"/>
+      <c r="C10" s="202">
+        <v>44661</v>
+      </c>
+      <c r="D10" s="202">
+        <f>IF(C10="","",C10+E10)</f>
+        <v>44664</v>
+      </c>
+      <c r="E10" s="187">
+        <v>3</v>
+      </c>
+      <c r="F10" s="204">
+        <v>44662</v>
+      </c>
+      <c r="G10" s="204">
+        <v>44663</v>
+      </c>
+      <c r="H10" s="187" t="str">
+        <f>IF(G10&gt;D10,G10-D10,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="201">
+        <f>IF(AND(G10&lt;D10,G10&lt;&gt;""),D10-G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="187"/>
+      <c r="AJ10" s="187"/>
+      <c r="AK10" s="187"/>
+      <c r="AL10" s="187"/>
+      <c r="AM10" s="187"/>
+      <c r="AN10" s="187"/>
+      <c r="AO10" s="187"/>
+      <c r="AP10" s="187"/>
+      <c r="AQ10" s="187"/>
+      <c r="AR10" s="189"/>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B11" s="188"/>
+      <c r="C11" s="202">
+        <v>44662</v>
+      </c>
+      <c r="D11" s="202">
+        <f t="shared" ref="D11:D24" si="6">IF(C11="","",C11+E11)</f>
+        <v>44663</v>
+      </c>
+      <c r="E11" s="187">
+        <v>1</v>
+      </c>
+      <c r="F11" s="204">
+        <v>44663</v>
+      </c>
+      <c r="G11" s="204">
+        <v>44665</v>
+      </c>
+      <c r="H11" s="187">
+        <f>IF(G11&gt;D11,G11-D11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="201" t="str">
+        <f t="shared" ref="I11:I21" si="7">IF(AND(G11&lt;D11,G11&lt;&gt;""),D11-G11,"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="187"/>
+      <c r="AJ11" s="187"/>
+      <c r="AK11" s="187"/>
+      <c r="AL11" s="187"/>
+      <c r="AM11" s="187"/>
+      <c r="AN11" s="187"/>
+      <c r="AO11" s="187"/>
+      <c r="AP11" s="187"/>
+      <c r="AQ11" s="187"/>
+      <c r="AR11" s="189"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B12" s="188"/>
+      <c r="C12" s="202">
+        <v>44663</v>
+      </c>
+      <c r="D12" s="202">
+        <f t="shared" si="6"/>
+        <v>44683</v>
+      </c>
+      <c r="E12" s="187">
+        <v>20</v>
+      </c>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="187" t="str">
+        <f>IF(G12&gt;D12,G12-D12,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J12" s="187"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="187"/>
+      <c r="AF12" s="187"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="187"/>
+      <c r="AJ12" s="187"/>
+      <c r="AK12" s="187"/>
+      <c r="AL12" s="187"/>
+      <c r="AM12" s="187"/>
+      <c r="AN12" s="187"/>
+      <c r="AO12" s="187"/>
+      <c r="AP12" s="187"/>
+      <c r="AQ12" s="187"/>
+      <c r="AR12" s="189"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B13" s="188"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E13" s="187"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="187" t="str">
+        <f>IF(G13&gt;D13,G13-D13,"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="187"/>
+      <c r="AF13" s="187"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="187"/>
+      <c r="AJ13" s="187"/>
+      <c r="AK13" s="187"/>
+      <c r="AL13" s="187"/>
+      <c r="AM13" s="187"/>
+      <c r="AN13" s="187"/>
+      <c r="AO13" s="187"/>
+      <c r="AP13" s="187"/>
+      <c r="AQ13" s="187"/>
+      <c r="AR13" s="189"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B14" s="188"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E14" s="187"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="187" t="str">
+        <f>IF(G14&gt;D14,G14-D14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="187"/>
+      <c r="AF14" s="187"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="187"/>
+      <c r="AJ14" s="187"/>
+      <c r="AK14" s="187"/>
+      <c r="AL14" s="187"/>
+      <c r="AM14" s="187"/>
+      <c r="AN14" s="187"/>
+      <c r="AO14" s="187"/>
+      <c r="AP14" s="187"/>
+      <c r="AQ14" s="187"/>
+      <c r="AR14" s="189"/>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B15" s="188"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E15" s="187"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="187" t="str">
+        <f>IF(G15&gt;D15,G15-D15,"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="187"/>
+      <c r="AJ15" s="187"/>
+      <c r="AK15" s="187"/>
+      <c r="AL15" s="187"/>
+      <c r="AM15" s="187"/>
+      <c r="AN15" s="187"/>
+      <c r="AO15" s="187"/>
+      <c r="AP15" s="187"/>
+      <c r="AQ15" s="187"/>
+      <c r="AR15" s="189"/>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B16" s="188"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E16" s="187"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="187" t="str">
+        <f>IF(G16&gt;D16,G16-D16,"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="187"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="187"/>
+      <c r="AC16" s="187"/>
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="187"/>
+      <c r="AG16" s="187"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="187"/>
+      <c r="AJ16" s="187"/>
+      <c r="AK16" s="187"/>
+      <c r="AL16" s="187"/>
+      <c r="AM16" s="187"/>
+      <c r="AN16" s="187"/>
+      <c r="AO16" s="187"/>
+      <c r="AP16" s="187"/>
+      <c r="AQ16" s="187"/>
+      <c r="AR16" s="189"/>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B17" s="188"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E17" s="187"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="187" t="str">
+        <f>IF(G17&gt;D17,G17-D17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="187"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="187"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="187"/>
+      <c r="AE17" s="187"/>
+      <c r="AF17" s="187"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="187"/>
+      <c r="AJ17" s="187"/>
+      <c r="AK17" s="187"/>
+      <c r="AL17" s="187"/>
+      <c r="AM17" s="187"/>
+      <c r="AN17" s="187"/>
+      <c r="AO17" s="187"/>
+      <c r="AP17" s="187"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="189"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B18" s="188"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E18" s="187"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="187" t="str">
+        <f>IF(G18&gt;D18,G18-D18,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="187"/>
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="187"/>
+      <c r="AJ18" s="187"/>
+      <c r="AK18" s="187"/>
+      <c r="AL18" s="187"/>
+      <c r="AM18" s="187"/>
+      <c r="AN18" s="187"/>
+      <c r="AO18" s="187"/>
+      <c r="AP18" s="187"/>
+      <c r="AQ18" s="187"/>
+      <c r="AR18" s="189"/>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B19" s="188"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E19" s="187"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="187" t="str">
+        <f>IF(G19&gt;D19,G19-D19,"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="187"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="187"/>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="187"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="187"/>
+      <c r="AF19" s="187"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="187"/>
+      <c r="AJ19" s="187"/>
+      <c r="AK19" s="187"/>
+      <c r="AL19" s="187"/>
+      <c r="AM19" s="187"/>
+      <c r="AN19" s="187"/>
+      <c r="AO19" s="187"/>
+      <c r="AP19" s="187"/>
+      <c r="AQ19" s="187"/>
+      <c r="AR19" s="189"/>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B20" s="188"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E20" s="187"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="187" t="str">
+        <f>IF(G20&gt;D20,G20-D20,"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="187"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="187"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="187"/>
+      <c r="AJ20" s="187"/>
+      <c r="AK20" s="187"/>
+      <c r="AL20" s="187"/>
+      <c r="AM20" s="187"/>
+      <c r="AN20" s="187"/>
+      <c r="AO20" s="187"/>
+      <c r="AP20" s="187"/>
+      <c r="AQ20" s="187"/>
+      <c r="AR20" s="189"/>
+    </row>
+    <row r="21" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="190"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="191" t="str">
+        <f>IF(G21&gt;D21,G21-D21,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="193" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="191"/>
+      <c r="R21" s="191"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="191"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="191"/>
+      <c r="AA21" s="191"/>
+      <c r="AB21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="191"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="191"/>
+      <c r="AJ21" s="191"/>
+      <c r="AK21" s="191"/>
+      <c r="AL21" s="191"/>
+      <c r="AM21" s="191"/>
+      <c r="AN21" s="191"/>
+      <c r="AO21" s="191"/>
+      <c r="AP21" s="191"/>
+      <c r="AQ21" s="191"/>
+      <c r="AR21" s="192"/>
+    </row>
+    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="D22" s="166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="D23" s="166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="D24" s="166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J10:AR21">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>IF($I10="","",AND(J$8&gt;=$G10,J$8&lt;=$G10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>IF($H10="","",AND(J$8&gt;=$G10-($H10-1),J$8&lt;=$G10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="37">
+      <formula>IF($F10="","",AND(J$8&gt;=$F10,J$8&lt;=$G10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="38">
+      <formula>J$8=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="39">
+      <formula>IF($C10="","",AND(J$8&gt;=$C10,J$8&lt;=$D10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I21">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H21">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C21">
+      <formula1>$J$8:$AR$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId4" name="Scroll Bar 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>44</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Dados de Físico Semanal'!$A$2:$A$998</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7 F10:G21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A998"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="167" t="str">
+        <f>'FÍSICO SEMANAL'!B6</f>
+        <v>Data de Início</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="166">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="166">
+        <f>A2+1</f>
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="166">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="166">
+        <f t="shared" si="0"/>
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="166">
+        <f t="shared" si="0"/>
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="166">
+        <f t="shared" si="0"/>
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="166">
+        <f t="shared" si="0"/>
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="166">
+        <f t="shared" si="0"/>
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="166">
+        <f t="shared" si="0"/>
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="166">
+        <f t="shared" si="0"/>
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="166">
+        <f t="shared" si="0"/>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="166">
+        <f t="shared" si="0"/>
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="166">
+        <f t="shared" si="0"/>
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="166">
+        <f t="shared" si="0"/>
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="166">
+        <f t="shared" si="0"/>
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="166">
+        <f t="shared" si="0"/>
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="166">
+        <f t="shared" si="0"/>
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="166">
+        <f t="shared" si="0"/>
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="166">
+        <f t="shared" si="0"/>
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="166">
+        <f t="shared" si="0"/>
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="166">
+        <f t="shared" si="0"/>
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="166">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="166">
+        <f t="shared" si="0"/>
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="166">
+        <f t="shared" si="0"/>
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="166">
+        <f t="shared" si="0"/>
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="166">
+        <f t="shared" si="0"/>
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="166">
+        <f t="shared" si="0"/>
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="166">
+        <f t="shared" si="0"/>
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="166">
+        <f t="shared" si="0"/>
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="166">
+        <f t="shared" si="0"/>
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="166">
+        <f t="shared" si="0"/>
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="166">
+        <f t="shared" si="0"/>
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="166">
+        <f t="shared" si="0"/>
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="166">
+        <f t="shared" si="0"/>
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="166">
+        <f t="shared" si="0"/>
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="166">
+        <f t="shared" si="0"/>
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="166">
+        <f t="shared" si="0"/>
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="166">
+        <f t="shared" si="0"/>
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="166">
+        <f t="shared" si="0"/>
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="166">
+        <f t="shared" si="0"/>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="166">
+        <f t="shared" si="0"/>
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="166">
+        <f t="shared" si="0"/>
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="166">
+        <f t="shared" si="0"/>
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="166">
+        <f t="shared" si="0"/>
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="166">
+        <f t="shared" si="0"/>
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="166">
+        <f t="shared" si="0"/>
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="166">
+        <f t="shared" si="0"/>
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="166">
+        <f t="shared" si="0"/>
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="166">
+        <f t="shared" si="0"/>
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="166">
+        <f t="shared" si="0"/>
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="166">
+        <f t="shared" si="0"/>
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="166">
+        <f t="shared" si="0"/>
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="166">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="166">
+        <f t="shared" si="0"/>
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="166">
+        <f t="shared" si="0"/>
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="166">
+        <f t="shared" si="0"/>
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="166">
+        <f t="shared" si="0"/>
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="166">
+        <f t="shared" si="0"/>
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="166">
+        <f t="shared" si="0"/>
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="166">
+        <f t="shared" si="0"/>
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="166">
+        <f t="shared" si="0"/>
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="166">
+        <f t="shared" si="0"/>
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="166">
+        <f t="shared" si="0"/>
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="166">
+        <f t="shared" si="0"/>
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="166">
+        <f t="shared" si="0"/>
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="166">
+        <f t="shared" si="0"/>
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="166">
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="166">
+        <f t="shared" si="1"/>
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="166">
+        <f t="shared" si="1"/>
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="166">
+        <f t="shared" si="1"/>
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="166">
+        <f t="shared" si="1"/>
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="166">
+        <f t="shared" si="1"/>
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="166">
+        <f t="shared" si="1"/>
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="166">
+        <f t="shared" si="1"/>
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="166">
+        <f t="shared" si="1"/>
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="166">
+        <f t="shared" si="1"/>
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="166">
+        <f t="shared" si="1"/>
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="166">
+        <f t="shared" si="1"/>
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="166">
+        <f t="shared" si="1"/>
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="166">
+        <f t="shared" si="1"/>
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="166">
+        <f t="shared" si="1"/>
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="166">
+        <f t="shared" si="1"/>
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="166">
+        <f t="shared" si="1"/>
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="166">
+        <f t="shared" si="1"/>
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="166">
+        <f t="shared" si="1"/>
+        <v>44745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="166">
+        <f t="shared" si="1"/>
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="166">
+        <f t="shared" si="1"/>
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="166">
+        <f t="shared" si="1"/>
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="166">
+        <f t="shared" si="1"/>
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="166">
+        <f t="shared" si="1"/>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="166">
+        <f t="shared" si="1"/>
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="166">
+        <f t="shared" si="1"/>
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="166">
+        <f t="shared" si="1"/>
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="166">
+        <f t="shared" si="1"/>
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="166">
+        <f t="shared" si="1"/>
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="166">
+        <f t="shared" si="1"/>
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="166">
+        <f t="shared" si="1"/>
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="166">
+        <f t="shared" si="1"/>
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="166">
+        <f t="shared" si="1"/>
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="166">
+        <f t="shared" si="1"/>
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="166">
+        <f t="shared" si="1"/>
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="166">
+        <f t="shared" si="1"/>
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="166">
+        <f t="shared" si="1"/>
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="166">
+        <f t="shared" si="1"/>
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="166">
+        <f t="shared" si="1"/>
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="166">
+        <f t="shared" si="1"/>
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="166">
+        <f t="shared" si="1"/>
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="166">
+        <f t="shared" si="1"/>
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="166">
+        <f t="shared" si="1"/>
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="166">
+        <f t="shared" si="1"/>
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="166">
+        <f t="shared" si="1"/>
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="166">
+        <f t="shared" si="1"/>
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="166">
+        <f t="shared" si="1"/>
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="166">
+        <f t="shared" si="1"/>
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="166">
+        <f t="shared" si="1"/>
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="166">
+        <f t="shared" si="1"/>
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="166">
+        <f t="shared" si="1"/>
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="166">
+        <f t="shared" si="1"/>
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="166">
+        <f t="shared" si="1"/>
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="166">
+        <f t="shared" si="1"/>
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="166">
+        <f t="shared" si="1"/>
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="166">
+        <f t="shared" si="1"/>
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="166">
+        <f t="shared" si="1"/>
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="166">
+        <f t="shared" si="1"/>
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="166">
+        <f t="shared" si="1"/>
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="166">
+        <f t="shared" si="1"/>
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="166">
+        <f t="shared" si="1"/>
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="166">
+        <f t="shared" si="1"/>
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="166">
+        <f t="shared" si="1"/>
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="166">
+        <f t="shared" si="1"/>
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="166">
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="166">
+        <f t="shared" si="2"/>
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="166">
+        <f t="shared" si="2"/>
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="166">
+        <f t="shared" si="2"/>
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="166">
+        <f t="shared" si="2"/>
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="166">
+        <f t="shared" si="2"/>
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="166">
+        <f t="shared" si="2"/>
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="166">
+        <f t="shared" si="2"/>
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="166">
+        <f t="shared" si="2"/>
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="166">
+        <f t="shared" si="2"/>
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="166">
+        <f t="shared" si="2"/>
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="166">
+        <f t="shared" si="2"/>
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="166">
+        <f t="shared" si="2"/>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="166">
+        <f t="shared" si="2"/>
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="166">
+        <f t="shared" si="2"/>
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="166">
+        <f t="shared" si="2"/>
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="166">
+        <f t="shared" si="2"/>
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="166">
+        <f t="shared" si="2"/>
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="166">
+        <f t="shared" si="2"/>
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="166">
+        <f t="shared" si="2"/>
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="166">
+        <f t="shared" si="2"/>
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="166">
+        <f t="shared" si="2"/>
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="166">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="166">
+        <f t="shared" si="2"/>
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="166">
+        <f t="shared" si="2"/>
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="166">
+        <f t="shared" si="2"/>
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="166">
+        <f t="shared" si="2"/>
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="166">
+        <f t="shared" si="2"/>
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="166">
+        <f t="shared" si="2"/>
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="166">
+        <f t="shared" si="2"/>
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="166">
+        <f t="shared" si="2"/>
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="166">
+        <f t="shared" si="2"/>
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="166">
+        <f t="shared" si="2"/>
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="166">
+        <f t="shared" si="2"/>
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="166">
+        <f t="shared" si="2"/>
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="166">
+        <f t="shared" si="2"/>
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="166">
+        <f t="shared" si="2"/>
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="166">
+        <f t="shared" si="2"/>
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="166">
+        <f t="shared" si="2"/>
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="166">
+        <f t="shared" si="2"/>
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="166">
+        <f t="shared" si="2"/>
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="166">
+        <f t="shared" si="2"/>
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="166">
+        <f t="shared" si="2"/>
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="166">
+        <f t="shared" si="2"/>
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="166">
+        <f t="shared" si="2"/>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="166">
+        <f t="shared" si="2"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="166">
+        <f t="shared" si="2"/>
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="166">
+        <f t="shared" si="2"/>
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="166">
+        <f t="shared" si="2"/>
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="166">
+        <f t="shared" si="2"/>
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="166">
+        <f t="shared" si="2"/>
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="166">
+        <f t="shared" si="2"/>
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="166">
+        <f t="shared" si="2"/>
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="166">
+        <f t="shared" si="2"/>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="166">
+        <f t="shared" si="2"/>
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="166">
+        <f t="shared" si="2"/>
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="166">
+        <f t="shared" si="2"/>
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="166">
+        <f t="shared" si="2"/>
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="166">
+        <f t="shared" si="2"/>
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="166">
+        <f t="shared" si="2"/>
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="166">
+        <f t="shared" si="2"/>
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="166">
+        <f t="shared" si="2"/>
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="166">
+        <f t="shared" si="2"/>
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="166">
+        <f t="shared" si="2"/>
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="166">
+        <f t="shared" ref="A196:A259" si="3">A195+1</f>
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="166">
+        <f t="shared" si="3"/>
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="166">
+        <f t="shared" si="3"/>
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="166">
+        <f t="shared" si="3"/>
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="166">
+        <f t="shared" si="3"/>
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="166">
+        <f t="shared" si="3"/>
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="166">
+        <f t="shared" si="3"/>
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="166">
+        <f t="shared" si="3"/>
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="166">
+        <f t="shared" si="3"/>
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="166">
+        <f t="shared" si="3"/>
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="166">
+        <f t="shared" si="3"/>
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="166">
+        <f t="shared" si="3"/>
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="166">
+        <f t="shared" si="3"/>
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="166">
+        <f t="shared" si="3"/>
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="166">
+        <f t="shared" si="3"/>
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="166">
+        <f t="shared" si="3"/>
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="166">
+        <f t="shared" si="3"/>
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="166">
+        <f t="shared" si="3"/>
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="166">
+        <f t="shared" si="3"/>
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="166">
+        <f t="shared" si="3"/>
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="166">
+        <f t="shared" si="3"/>
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="166">
+        <f t="shared" si="3"/>
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="166">
+        <f t="shared" si="3"/>
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="166">
+        <f t="shared" si="3"/>
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="166">
+        <f t="shared" si="3"/>
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="166">
+        <f t="shared" si="3"/>
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="166">
+        <f t="shared" si="3"/>
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="166">
+        <f t="shared" si="3"/>
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="166">
+        <f t="shared" si="3"/>
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="166">
+        <f t="shared" si="3"/>
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="166">
+        <f t="shared" si="3"/>
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="166">
+        <f t="shared" si="3"/>
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="166">
+        <f t="shared" si="3"/>
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="166">
+        <f t="shared" si="3"/>
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="166">
+        <f t="shared" si="3"/>
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="166">
+        <f t="shared" si="3"/>
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="166">
+        <f t="shared" si="3"/>
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="166">
+        <f t="shared" si="3"/>
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="166">
+        <f t="shared" si="3"/>
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="166">
+        <f t="shared" si="3"/>
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="166">
+        <f t="shared" si="3"/>
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="166">
+        <f t="shared" si="3"/>
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="166">
+        <f t="shared" si="3"/>
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="166">
+        <f t="shared" si="3"/>
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="166">
+        <f t="shared" si="3"/>
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="166">
+        <f t="shared" si="3"/>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="166">
+        <f t="shared" si="3"/>
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="166">
+        <f t="shared" si="3"/>
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="166">
+        <f t="shared" si="3"/>
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="166">
+        <f t="shared" si="3"/>
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="166">
+        <f t="shared" si="3"/>
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="166">
+        <f t="shared" si="3"/>
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="166">
+        <f t="shared" si="3"/>
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="166">
+        <f t="shared" si="3"/>
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="166">
+        <f t="shared" si="3"/>
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="166">
+        <f t="shared" si="3"/>
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="166">
+        <f t="shared" si="3"/>
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="166">
+        <f t="shared" si="3"/>
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="166">
+        <f t="shared" si="3"/>
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="166">
+        <f t="shared" si="3"/>
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="166">
+        <f t="shared" si="3"/>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="166">
+        <f t="shared" si="3"/>
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="166">
+        <f t="shared" si="3"/>
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="166">
+        <f t="shared" si="3"/>
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="166">
+        <f t="shared" ref="A260:A323" si="4">A259+1</f>
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="166">
+        <f t="shared" si="4"/>
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="166">
+        <f t="shared" si="4"/>
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="166">
+        <f t="shared" si="4"/>
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="166">
+        <f t="shared" si="4"/>
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="166">
+        <f t="shared" si="4"/>
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="166">
+        <f t="shared" si="4"/>
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="166">
+        <f t="shared" si="4"/>
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="166">
+        <f t="shared" si="4"/>
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="166">
+        <f t="shared" si="4"/>
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="166">
+        <f t="shared" si="4"/>
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="166">
+        <f t="shared" si="4"/>
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="166">
+        <f t="shared" si="4"/>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="166">
+        <f t="shared" si="4"/>
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="166">
+        <f t="shared" si="4"/>
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="166">
+        <f t="shared" si="4"/>
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="166">
+        <f t="shared" si="4"/>
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="166">
+        <f t="shared" si="4"/>
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="166">
+        <f t="shared" si="4"/>
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="166">
+        <f t="shared" si="4"/>
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="166">
+        <f t="shared" si="4"/>
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="166">
+        <f t="shared" si="4"/>
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="166">
+        <f t="shared" si="4"/>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="166">
+        <f t="shared" si="4"/>
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="166">
+        <f t="shared" si="4"/>
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="166">
+        <f t="shared" si="4"/>
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="166">
+        <f t="shared" si="4"/>
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="166">
+        <f t="shared" si="4"/>
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="166">
+        <f t="shared" si="4"/>
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="166">
+        <f t="shared" si="4"/>
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="166">
+        <f t="shared" si="4"/>
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="166">
+        <f t="shared" si="4"/>
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="166">
+        <f t="shared" si="4"/>
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="166">
+        <f t="shared" si="4"/>
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="166">
+        <f t="shared" si="4"/>
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="166">
+        <f t="shared" si="4"/>
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="166">
+        <f t="shared" si="4"/>
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="166">
+        <f t="shared" si="4"/>
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="166">
+        <f t="shared" si="4"/>
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="166">
+        <f t="shared" si="4"/>
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="166">
+        <f t="shared" si="4"/>
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="166">
+        <f t="shared" si="4"/>
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="166">
+        <f t="shared" si="4"/>
+        <v>44961</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="166">
+        <f t="shared" si="4"/>
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="166">
+        <f t="shared" si="4"/>
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="166">
+        <f t="shared" si="4"/>
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="166">
+        <f t="shared" si="4"/>
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="166">
+        <f t="shared" si="4"/>
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="166">
+        <f t="shared" si="4"/>
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="166">
+        <f t="shared" si="4"/>
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="166">
+        <f t="shared" si="4"/>
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="166">
+        <f t="shared" si="4"/>
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="166">
+        <f t="shared" si="4"/>
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="166">
+        <f t="shared" si="4"/>
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="166">
+        <f t="shared" si="4"/>
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="166">
+        <f t="shared" si="4"/>
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="166">
+        <f t="shared" si="4"/>
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="166">
+        <f t="shared" si="4"/>
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="166">
+        <f t="shared" si="4"/>
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="166">
+        <f t="shared" si="4"/>
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="166">
+        <f t="shared" si="4"/>
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="166">
+        <f t="shared" si="4"/>
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="166">
+        <f t="shared" si="4"/>
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="166">
+        <f t="shared" si="4"/>
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="166">
+        <f t="shared" ref="A324:A387" si="5">A323+1</f>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="166">
+        <f t="shared" si="5"/>
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="166">
+        <f t="shared" si="5"/>
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="166">
+        <f t="shared" si="5"/>
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="166">
+        <f t="shared" si="5"/>
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="166">
+        <f t="shared" si="5"/>
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="166">
+        <f t="shared" si="5"/>
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="166">
+        <f t="shared" si="5"/>
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="166">
+        <f t="shared" si="5"/>
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="166">
+        <f t="shared" si="5"/>
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="166">
+        <f t="shared" si="5"/>
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="166">
+        <f t="shared" si="5"/>
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="166">
+        <f t="shared" si="5"/>
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="166">
+        <f t="shared" si="5"/>
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="166">
+        <f t="shared" si="5"/>
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="166">
+        <f t="shared" si="5"/>
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="166">
+        <f t="shared" si="5"/>
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="166">
+        <f t="shared" si="5"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="166">
+        <f t="shared" si="5"/>
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="166">
+        <f t="shared" si="5"/>
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="166">
+        <f t="shared" si="5"/>
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="166">
+        <f t="shared" si="5"/>
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="166">
+        <f t="shared" si="5"/>
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="166">
+        <f t="shared" si="5"/>
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="166">
+        <f t="shared" si="5"/>
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="166">
+        <f t="shared" si="5"/>
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="166">
+        <f t="shared" si="5"/>
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="166">
+        <f t="shared" si="5"/>
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="166">
+        <f t="shared" si="5"/>
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="166">
+        <f t="shared" si="5"/>
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="166">
+        <f t="shared" si="5"/>
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="166">
+        <f t="shared" si="5"/>
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="166">
+        <f t="shared" si="5"/>
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="166">
+        <f t="shared" si="5"/>
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="166">
+        <f t="shared" si="5"/>
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="166">
+        <f t="shared" si="5"/>
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="166">
+        <f t="shared" si="5"/>
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="166">
+        <f t="shared" si="5"/>
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="166">
+        <f t="shared" si="5"/>
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="166">
+        <f t="shared" si="5"/>
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="166">
+        <f t="shared" si="5"/>
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="166">
+        <f t="shared" si="5"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="166">
+        <f t="shared" si="5"/>
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="166">
+        <f t="shared" si="5"/>
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="166">
+        <f t="shared" si="5"/>
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="166">
+        <f t="shared" si="5"/>
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="166">
+        <f t="shared" si="5"/>
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="166">
+        <f t="shared" si="5"/>
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="166">
+        <f t="shared" si="5"/>
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="166">
+        <f t="shared" si="5"/>
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="166">
+        <f t="shared" si="5"/>
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="166">
+        <f t="shared" si="5"/>
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="166">
+        <f t="shared" si="5"/>
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="166">
+        <f t="shared" si="5"/>
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="166">
+        <f t="shared" si="5"/>
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="166">
+        <f t="shared" si="5"/>
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="166">
+        <f t="shared" si="5"/>
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="166">
+        <f t="shared" si="5"/>
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="166">
+        <f t="shared" si="5"/>
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="166">
+        <f t="shared" si="5"/>
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="166">
+        <f t="shared" si="5"/>
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="166">
+        <f t="shared" si="5"/>
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="166">
+        <f t="shared" si="5"/>
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="166">
+        <f t="shared" si="5"/>
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="166">
+        <f t="shared" ref="A388:A451" si="6">A387+1</f>
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="166">
+        <f t="shared" si="6"/>
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="166">
+        <f t="shared" si="6"/>
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="166">
+        <f t="shared" si="6"/>
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="166">
+        <f t="shared" si="6"/>
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="166">
+        <f t="shared" si="6"/>
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="166">
+        <f t="shared" si="6"/>
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="166">
+        <f t="shared" si="6"/>
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="166">
+        <f t="shared" si="6"/>
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="166">
+        <f t="shared" si="6"/>
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="166">
+        <f t="shared" si="6"/>
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="166">
+        <f t="shared" si="6"/>
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="166">
+        <f t="shared" si="6"/>
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="166">
+        <f t="shared" si="6"/>
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="166">
+        <f t="shared" si="6"/>
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="166">
+        <f t="shared" si="6"/>
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="166">
+        <f t="shared" si="6"/>
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="166">
+        <f t="shared" si="6"/>
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="166">
+        <f t="shared" si="6"/>
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="166">
+        <f t="shared" si="6"/>
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="166">
+        <f t="shared" si="6"/>
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="166">
+        <f t="shared" si="6"/>
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="166">
+        <f t="shared" si="6"/>
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="166">
+        <f t="shared" si="6"/>
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="166">
+        <f t="shared" si="6"/>
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="166">
+        <f t="shared" si="6"/>
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="166">
+        <f t="shared" si="6"/>
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="166">
+        <f t="shared" si="6"/>
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="166">
+        <f t="shared" si="6"/>
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="166">
+        <f t="shared" si="6"/>
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="166">
+        <f t="shared" si="6"/>
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="166">
+        <f t="shared" si="6"/>
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="166">
+        <f t="shared" si="6"/>
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="166">
+        <f t="shared" si="6"/>
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="166">
+        <f t="shared" si="6"/>
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="166">
+        <f t="shared" si="6"/>
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="166">
+        <f t="shared" si="6"/>
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="166">
+        <f t="shared" si="6"/>
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="166">
+        <f t="shared" si="6"/>
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="166">
+        <f t="shared" si="6"/>
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="166">
+        <f t="shared" si="6"/>
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="166">
+        <f t="shared" si="6"/>
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="166">
+        <f t="shared" si="6"/>
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="166">
+        <f t="shared" si="6"/>
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="166">
+        <f t="shared" si="6"/>
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="166">
+        <f t="shared" si="6"/>
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="166">
+        <f t="shared" si="6"/>
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="166">
+        <f t="shared" si="6"/>
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="166">
+        <f t="shared" si="6"/>
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="166">
+        <f t="shared" si="6"/>
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="166">
+        <f t="shared" si="6"/>
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="166">
+        <f t="shared" si="6"/>
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="166">
+        <f t="shared" si="6"/>
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="166">
+        <f t="shared" si="6"/>
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="166">
+        <f t="shared" si="6"/>
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="166">
+        <f t="shared" si="6"/>
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="166">
+        <f t="shared" si="6"/>
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="166">
+        <f t="shared" si="6"/>
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="166">
+        <f t="shared" si="6"/>
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="166">
+        <f t="shared" si="6"/>
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="166">
+        <f t="shared" si="6"/>
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="166">
+        <f t="shared" si="6"/>
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="166">
+        <f t="shared" si="6"/>
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="166">
+        <f t="shared" si="6"/>
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="166">
+        <f t="shared" ref="A452:A515" si="7">A451+1</f>
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="166">
+        <f t="shared" si="7"/>
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="166">
+        <f t="shared" si="7"/>
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="166">
+        <f t="shared" si="7"/>
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="166">
+        <f t="shared" si="7"/>
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="166">
+        <f t="shared" si="7"/>
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="166">
+        <f t="shared" si="7"/>
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="166">
+        <f t="shared" si="7"/>
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="166">
+        <f t="shared" si="7"/>
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="166">
+        <f t="shared" si="7"/>
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="166">
+        <f t="shared" si="7"/>
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="166">
+        <f t="shared" si="7"/>
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="166">
+        <f t="shared" si="7"/>
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="166">
+        <f t="shared" si="7"/>
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="166">
+        <f t="shared" si="7"/>
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="166">
+        <f t="shared" si="7"/>
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="166">
+        <f t="shared" si="7"/>
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="166">
+        <f t="shared" si="7"/>
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="166">
+        <f t="shared" si="7"/>
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="166">
+        <f t="shared" si="7"/>
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="166">
+        <f t="shared" si="7"/>
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="166">
+        <f t="shared" si="7"/>
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="166">
+        <f t="shared" si="7"/>
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="166">
+        <f t="shared" si="7"/>
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="166">
+        <f t="shared" si="7"/>
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="166">
+        <f t="shared" si="7"/>
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="166">
+        <f t="shared" si="7"/>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="166">
+        <f t="shared" si="7"/>
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="166">
+        <f t="shared" si="7"/>
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="166">
+        <f t="shared" si="7"/>
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="166">
+        <f t="shared" si="7"/>
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="166">
+        <f t="shared" si="7"/>
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="166">
+        <f t="shared" si="7"/>
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="166">
+        <f t="shared" si="7"/>
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="166">
+        <f t="shared" si="7"/>
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="166">
+        <f t="shared" si="7"/>
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="166">
+        <f t="shared" si="7"/>
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="166">
+        <f t="shared" si="7"/>
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="166">
+        <f t="shared" si="7"/>
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="166">
+        <f t="shared" si="7"/>
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="166">
+        <f t="shared" si="7"/>
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="166">
+        <f t="shared" si="7"/>
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="166">
+        <f t="shared" si="7"/>
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="166">
+        <f t="shared" si="7"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="166">
+        <f t="shared" si="7"/>
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="166">
+        <f t="shared" si="7"/>
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="166">
+        <f t="shared" si="7"/>
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="166">
+        <f t="shared" si="7"/>
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="166">
+        <f t="shared" si="7"/>
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="166">
+        <f t="shared" si="7"/>
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="166">
+        <f t="shared" si="7"/>
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="166">
+        <f t="shared" si="7"/>
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="166">
+        <f t="shared" si="7"/>
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="166">
+        <f t="shared" si="7"/>
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="166">
+        <f t="shared" si="7"/>
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="166">
+        <f t="shared" si="7"/>
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="166">
+        <f t="shared" si="7"/>
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="166">
+        <f t="shared" si="7"/>
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="166">
+        <f t="shared" si="7"/>
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="166">
+        <f t="shared" si="7"/>
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="166">
+        <f t="shared" si="7"/>
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="166">
+        <f t="shared" si="7"/>
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="166">
+        <f t="shared" si="7"/>
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="166">
+        <f t="shared" si="7"/>
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="166">
+        <f t="shared" ref="A516:A579" si="8">A515+1</f>
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="166">
+        <f t="shared" si="8"/>
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="166">
+        <f t="shared" si="8"/>
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="166">
+        <f t="shared" si="8"/>
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="166">
+        <f t="shared" si="8"/>
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="166">
+        <f t="shared" si="8"/>
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="166">
+        <f t="shared" si="8"/>
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="166">
+        <f t="shared" si="8"/>
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="166">
+        <f t="shared" si="8"/>
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="166">
+        <f t="shared" si="8"/>
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="166">
+        <f t="shared" si="8"/>
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="166">
+        <f t="shared" si="8"/>
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="166">
+        <f t="shared" si="8"/>
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="166">
+        <f t="shared" si="8"/>
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="166">
+        <f t="shared" si="8"/>
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="166">
+        <f t="shared" si="8"/>
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="166">
+        <f t="shared" si="8"/>
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="166">
+        <f t="shared" si="8"/>
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="166">
+        <f t="shared" si="8"/>
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="166">
+        <f t="shared" si="8"/>
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="166">
+        <f t="shared" si="8"/>
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="166">
+        <f t="shared" si="8"/>
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="166">
+        <f t="shared" si="8"/>
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="166">
+        <f t="shared" si="8"/>
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="166">
+        <f t="shared" si="8"/>
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="166">
+        <f t="shared" si="8"/>
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="166">
+        <f t="shared" si="8"/>
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="166">
+        <f t="shared" si="8"/>
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="166">
+        <f t="shared" si="8"/>
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="166">
+        <f t="shared" si="8"/>
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="166">
+        <f t="shared" si="8"/>
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="166">
+        <f t="shared" si="8"/>
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="166">
+        <f t="shared" si="8"/>
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="166">
+        <f t="shared" si="8"/>
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="166">
+        <f t="shared" si="8"/>
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="166">
+        <f t="shared" si="8"/>
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="166">
+        <f t="shared" si="8"/>
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="166">
+        <f t="shared" si="8"/>
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="166">
+        <f t="shared" si="8"/>
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="166">
+        <f t="shared" si="8"/>
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="166">
+        <f t="shared" si="8"/>
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="166">
+        <f t="shared" si="8"/>
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="166">
+        <f t="shared" si="8"/>
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="166">
+        <f t="shared" si="8"/>
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="166">
+        <f t="shared" si="8"/>
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="166">
+        <f t="shared" si="8"/>
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="166">
+        <f t="shared" si="8"/>
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="166">
+        <f t="shared" si="8"/>
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="166">
+        <f t="shared" si="8"/>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="166">
+        <f t="shared" si="8"/>
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="166">
+        <f t="shared" si="8"/>
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="166">
+        <f t="shared" si="8"/>
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="166">
+        <f t="shared" si="8"/>
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="166">
+        <f t="shared" si="8"/>
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="166">
+        <f t="shared" si="8"/>
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="166">
+        <f t="shared" si="8"/>
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="166">
+        <f t="shared" si="8"/>
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="166">
+        <f t="shared" si="8"/>
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="166">
+        <f t="shared" si="8"/>
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="166">
+        <f t="shared" si="8"/>
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="166">
+        <f t="shared" si="8"/>
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="166">
+        <f t="shared" si="8"/>
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="166">
+        <f t="shared" si="8"/>
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="166">
+        <f t="shared" si="8"/>
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="166">
+        <f t="shared" ref="A580:A643" si="9">A579+1</f>
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="166">
+        <f t="shared" si="9"/>
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="166">
+        <f t="shared" si="9"/>
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="166">
+        <f t="shared" si="9"/>
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="166">
+        <f t="shared" si="9"/>
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="166">
+        <f t="shared" si="9"/>
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="166">
+        <f t="shared" si="9"/>
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="166">
+        <f t="shared" si="9"/>
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="166">
+        <f t="shared" si="9"/>
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="166">
+        <f t="shared" si="9"/>
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="166">
+        <f t="shared" si="9"/>
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="166">
+        <f t="shared" si="9"/>
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="166">
+        <f t="shared" si="9"/>
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="166">
+        <f t="shared" si="9"/>
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="166">
+        <f t="shared" si="9"/>
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="166">
+        <f t="shared" si="9"/>
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="166">
+        <f t="shared" si="9"/>
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="166">
+        <f t="shared" si="9"/>
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="166">
+        <f t="shared" si="9"/>
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="166">
+        <f t="shared" si="9"/>
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="166">
+        <f t="shared" si="9"/>
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="166">
+        <f t="shared" si="9"/>
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="166">
+        <f t="shared" si="9"/>
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="166">
+        <f t="shared" si="9"/>
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="166">
+        <f t="shared" si="9"/>
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="166">
+        <f t="shared" si="9"/>
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="166">
+        <f t="shared" si="9"/>
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="166">
+        <f t="shared" si="9"/>
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="166">
+        <f t="shared" si="9"/>
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="166">
+        <f t="shared" si="9"/>
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="166">
+        <f t="shared" si="9"/>
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="166">
+        <f t="shared" si="9"/>
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="166">
+        <f t="shared" si="9"/>
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="166">
+        <f t="shared" si="9"/>
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="166">
+        <f t="shared" si="9"/>
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="166">
+        <f t="shared" si="9"/>
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="166">
+        <f t="shared" si="9"/>
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="166">
+        <f t="shared" si="9"/>
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="166">
+        <f t="shared" si="9"/>
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="166">
+        <f t="shared" si="9"/>
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="166">
+        <f t="shared" si="9"/>
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="166">
+        <f t="shared" si="9"/>
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="166">
+        <f t="shared" si="9"/>
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="166">
+        <f t="shared" si="9"/>
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="166">
+        <f t="shared" si="9"/>
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="166">
+        <f t="shared" si="9"/>
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="166">
+        <f t="shared" si="9"/>
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="166">
+        <f t="shared" si="9"/>
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="166">
+        <f t="shared" si="9"/>
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="166">
+        <f t="shared" si="9"/>
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="166">
+        <f t="shared" si="9"/>
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" s="166">
+        <f t="shared" si="9"/>
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="166">
+        <f t="shared" si="9"/>
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="166">
+        <f t="shared" si="9"/>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="166">
+        <f t="shared" si="9"/>
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="166">
+        <f t="shared" si="9"/>
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" s="166">
+        <f t="shared" si="9"/>
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="166">
+        <f t="shared" si="9"/>
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="166">
+        <f t="shared" si="9"/>
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="166">
+        <f t="shared" si="9"/>
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="166">
+        <f t="shared" si="9"/>
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="166">
+        <f t="shared" si="9"/>
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="166">
+        <f t="shared" si="9"/>
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="166">
+        <f t="shared" si="9"/>
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="166">
+        <f t="shared" ref="A644:A707" si="10">A643+1</f>
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="166">
+        <f t="shared" si="10"/>
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="166">
+        <f t="shared" si="10"/>
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="166">
+        <f t="shared" si="10"/>
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="166">
+        <f t="shared" si="10"/>
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="166">
+        <f t="shared" si="10"/>
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="166">
+        <f t="shared" si="10"/>
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="166">
+        <f t="shared" si="10"/>
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="166">
+        <f t="shared" si="10"/>
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="166">
+        <f t="shared" si="10"/>
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="166">
+        <f t="shared" si="10"/>
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="166">
+        <f t="shared" si="10"/>
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="166">
+        <f t="shared" si="10"/>
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="166">
+        <f t="shared" si="10"/>
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="166">
+        <f t="shared" si="10"/>
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="166">
+        <f t="shared" si="10"/>
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="166">
+        <f t="shared" si="10"/>
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="166">
+        <f t="shared" si="10"/>
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="166">
+        <f t="shared" si="10"/>
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="166">
+        <f t="shared" si="10"/>
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="166">
+        <f t="shared" si="10"/>
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="166">
+        <f t="shared" si="10"/>
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="166">
+        <f t="shared" si="10"/>
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="166">
+        <f t="shared" si="10"/>
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="166">
+        <f t="shared" si="10"/>
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="166">
+        <f t="shared" si="10"/>
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="166">
+        <f t="shared" si="10"/>
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="166">
+        <f t="shared" si="10"/>
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="166">
+        <f t="shared" si="10"/>
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="166">
+        <f t="shared" si="10"/>
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="166">
+        <f t="shared" si="10"/>
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="166">
+        <f t="shared" si="10"/>
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="166">
+        <f t="shared" si="10"/>
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="166">
+        <f t="shared" si="10"/>
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="166">
+        <f t="shared" si="10"/>
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="166">
+        <f t="shared" si="10"/>
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="166">
+        <f t="shared" si="10"/>
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="166">
+        <f t="shared" si="10"/>
+        <v>45340</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="166">
+        <f t="shared" si="10"/>
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="166">
+        <f t="shared" si="10"/>
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="166">
+        <f t="shared" si="10"/>
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="166">
+        <f t="shared" si="10"/>
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="166">
+        <f t="shared" si="10"/>
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="166">
+        <f t="shared" si="10"/>
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" s="166">
+        <f t="shared" si="10"/>
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="166">
+        <f t="shared" si="10"/>
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="166">
+        <f t="shared" si="10"/>
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="166">
+        <f t="shared" si="10"/>
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="166">
+        <f t="shared" si="10"/>
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" s="166">
+        <f t="shared" si="10"/>
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="166">
+        <f t="shared" si="10"/>
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="166">
+        <f t="shared" si="10"/>
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="166">
+        <f t="shared" si="10"/>
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="166">
+        <f t="shared" si="10"/>
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="166">
+        <f t="shared" si="10"/>
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="166">
+        <f t="shared" si="10"/>
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="166">
+        <f t="shared" si="10"/>
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="166">
+        <f t="shared" si="10"/>
+        <v>45360</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="166">
+        <f t="shared" si="10"/>
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="166">
+        <f t="shared" si="10"/>
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="166">
+        <f t="shared" si="10"/>
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="166">
+        <f t="shared" si="10"/>
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="166">
+        <f t="shared" si="10"/>
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="166">
+        <f t="shared" si="10"/>
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="166">
+        <f t="shared" ref="A708:A771" si="11">A707+1</f>
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="166">
+        <f t="shared" si="11"/>
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="166">
+        <f t="shared" si="11"/>
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="166">
+        <f t="shared" si="11"/>
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="166">
+        <f t="shared" si="11"/>
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="166">
+        <f t="shared" si="11"/>
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="166">
+        <f t="shared" si="11"/>
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="166">
+        <f t="shared" si="11"/>
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="166">
+        <f t="shared" si="11"/>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="166">
+        <f t="shared" si="11"/>
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="166">
+        <f t="shared" si="11"/>
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="166">
+        <f t="shared" si="11"/>
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="166">
+        <f t="shared" si="11"/>
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="166">
+        <f t="shared" si="11"/>
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="166">
+        <f t="shared" si="11"/>
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="166">
+        <f t="shared" si="11"/>
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="166">
+        <f t="shared" si="11"/>
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="166">
+        <f t="shared" si="11"/>
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="166">
+        <f t="shared" si="11"/>
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="166">
+        <f t="shared" si="11"/>
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="166">
+        <f t="shared" si="11"/>
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="166">
+        <f t="shared" si="11"/>
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="166">
+        <f t="shared" si="11"/>
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="166">
+        <f t="shared" si="11"/>
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="166">
+        <f t="shared" si="11"/>
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="166">
+        <f t="shared" si="11"/>
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="166">
+        <f t="shared" si="11"/>
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="166">
+        <f t="shared" si="11"/>
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="166">
+        <f t="shared" si="11"/>
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="166">
+        <f t="shared" si="11"/>
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="166">
+        <f t="shared" si="11"/>
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="166">
+        <f t="shared" si="11"/>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="166">
+        <f t="shared" si="11"/>
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="166">
+        <f t="shared" si="11"/>
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="166">
+        <f t="shared" si="11"/>
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="166">
+        <f t="shared" si="11"/>
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="166">
+        <f t="shared" si="11"/>
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" s="166">
+        <f t="shared" si="11"/>
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="166">
+        <f t="shared" si="11"/>
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="166">
+        <f t="shared" si="11"/>
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="166">
+        <f t="shared" si="11"/>
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="166">
+        <f t="shared" si="11"/>
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" s="166">
+        <f t="shared" si="11"/>
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="166">
+        <f t="shared" si="11"/>
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="166">
+        <f t="shared" si="11"/>
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="166">
+        <f t="shared" si="11"/>
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="166">
+        <f t="shared" si="11"/>
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="166">
+        <f t="shared" si="11"/>
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="166">
+        <f t="shared" si="11"/>
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="166">
+        <f t="shared" si="11"/>
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="166">
+        <f t="shared" si="11"/>
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="166">
+        <f t="shared" si="11"/>
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="166">
+        <f t="shared" si="11"/>
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="166">
+        <f t="shared" si="11"/>
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="166">
+        <f t="shared" si="11"/>
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="166">
+        <f t="shared" si="11"/>
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="166">
+        <f t="shared" si="11"/>
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="166">
+        <f t="shared" si="11"/>
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="166">
+        <f t="shared" si="11"/>
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="166">
+        <f t="shared" si="11"/>
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="166">
+        <f t="shared" si="11"/>
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="166">
+        <f t="shared" si="11"/>
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="166">
+        <f t="shared" si="11"/>
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="166">
+        <f t="shared" si="11"/>
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="166">
+        <f t="shared" ref="A772:A835" si="12">A771+1</f>
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="166">
+        <f t="shared" si="12"/>
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="166">
+        <f t="shared" si="12"/>
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="166">
+        <f t="shared" si="12"/>
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="166">
+        <f t="shared" si="12"/>
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="166">
+        <f t="shared" si="12"/>
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="166">
+        <f t="shared" si="12"/>
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="166">
+        <f t="shared" si="12"/>
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="166">
+        <f t="shared" si="12"/>
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="166">
+        <f t="shared" si="12"/>
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="166">
+        <f t="shared" si="12"/>
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="166">
+        <f t="shared" si="12"/>
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="166">
+        <f t="shared" si="12"/>
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="166">
+        <f t="shared" si="12"/>
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="166">
+        <f t="shared" si="12"/>
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="166">
+        <f t="shared" si="12"/>
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="166">
+        <f t="shared" si="12"/>
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="166">
+        <f t="shared" si="12"/>
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="166">
+        <f t="shared" si="12"/>
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="166">
+        <f t="shared" si="12"/>
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="166">
+        <f t="shared" si="12"/>
+        <v>45451</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="166">
+        <f t="shared" si="12"/>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="166">
+        <f t="shared" si="12"/>
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="166">
+        <f t="shared" si="12"/>
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="166">
+        <f t="shared" si="12"/>
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="166">
+        <f t="shared" si="12"/>
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="166">
+        <f t="shared" si="12"/>
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="166">
+        <f t="shared" si="12"/>
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="166">
+        <f t="shared" si="12"/>
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="166">
+        <f t="shared" si="12"/>
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" s="166">
+        <f t="shared" si="12"/>
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="166">
+        <f t="shared" si="12"/>
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="166">
+        <f t="shared" si="12"/>
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="166">
+        <f t="shared" si="12"/>
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="166">
+        <f t="shared" si="12"/>
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" s="166">
+        <f t="shared" si="12"/>
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="166">
+        <f t="shared" si="12"/>
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="166">
+        <f t="shared" si="12"/>
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="166">
+        <f t="shared" si="12"/>
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="166">
+        <f t="shared" si="12"/>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="166">
+        <f t="shared" si="12"/>
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="166">
+        <f t="shared" si="12"/>
+        <v>45472</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="166">
+        <f t="shared" si="12"/>
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="166">
+        <f t="shared" si="12"/>
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="166">
+        <f t="shared" si="12"/>
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="166">
+        <f t="shared" si="12"/>
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="166">
+        <f t="shared" si="12"/>
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="166">
+        <f t="shared" si="12"/>
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="166">
+        <f t="shared" si="12"/>
+        <v>45479</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="166">
+        <f t="shared" si="12"/>
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="166">
+        <f t="shared" si="12"/>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="166">
+        <f t="shared" si="12"/>
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="166">
+        <f t="shared" si="12"/>
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="166">
+        <f t="shared" si="12"/>
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="166">
+        <f t="shared" si="12"/>
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="166">
+        <f t="shared" si="12"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="166">
+        <f t="shared" si="12"/>
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="166">
+        <f t="shared" si="12"/>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="166">
+        <f t="shared" si="12"/>
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="166">
+        <f t="shared" si="12"/>
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="166">
+        <f t="shared" si="12"/>
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="166">
+        <f t="shared" si="12"/>
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="166">
+        <f t="shared" si="12"/>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="166">
+        <f t="shared" si="12"/>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="166">
+        <f t="shared" ref="A836:A899" si="13">A835+1</f>
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="166">
+        <f t="shared" si="13"/>
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="166">
+        <f t="shared" si="13"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="166">
+        <f t="shared" si="13"/>
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="166">
+        <f t="shared" si="13"/>
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="166">
+        <f t="shared" si="13"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="166">
+        <f t="shared" si="13"/>
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="166">
+        <f t="shared" si="13"/>
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="166">
+        <f t="shared" si="13"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="166">
+        <f t="shared" si="13"/>
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="166">
+        <f t="shared" si="13"/>
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="166">
+        <f t="shared" si="13"/>
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="166">
+        <f t="shared" si="13"/>
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="166">
+        <f t="shared" si="13"/>
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="166">
+        <f t="shared" si="13"/>
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="166">
+        <f t="shared" si="13"/>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="166">
+        <f t="shared" si="13"/>
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="166">
+        <f t="shared" si="13"/>
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" s="166">
+        <f t="shared" si="13"/>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" s="166">
+        <f t="shared" si="13"/>
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" s="166">
+        <f t="shared" si="13"/>
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" s="166">
+        <f t="shared" si="13"/>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" s="166">
+        <f t="shared" si="13"/>
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859" s="166">
+        <f t="shared" si="13"/>
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" s="166">
+        <f t="shared" si="13"/>
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" s="166">
+        <f t="shared" si="13"/>
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" s="166">
+        <f t="shared" si="13"/>
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" s="166">
+        <f t="shared" si="13"/>
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864" s="166">
+        <f t="shared" si="13"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" s="166">
+        <f t="shared" si="13"/>
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" s="166">
+        <f t="shared" si="13"/>
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" s="166">
+        <f t="shared" si="13"/>
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" s="166">
+        <f t="shared" si="13"/>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" s="166">
+        <f t="shared" si="13"/>
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" s="166">
+        <f t="shared" si="13"/>
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" s="166">
+        <f t="shared" si="13"/>
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" s="166">
+        <f t="shared" si="13"/>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" s="166">
+        <f t="shared" si="13"/>
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" s="166">
+        <f t="shared" si="13"/>
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" s="166">
+        <f t="shared" si="13"/>
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" s="166">
+        <f t="shared" si="13"/>
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" s="166">
+        <f t="shared" si="13"/>
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" s="166">
+        <f t="shared" si="13"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" s="166">
+        <f t="shared" si="13"/>
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" s="166">
+        <f t="shared" si="13"/>
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" s="166">
+        <f t="shared" si="13"/>
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" s="166">
+        <f t="shared" si="13"/>
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" s="166">
+        <f t="shared" si="13"/>
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" s="166">
+        <f t="shared" si="13"/>
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" s="166">
+        <f t="shared" si="13"/>
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" s="166">
+        <f t="shared" si="13"/>
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" s="166">
+        <f t="shared" si="13"/>
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" s="166">
+        <f t="shared" si="13"/>
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" s="166">
+        <f t="shared" si="13"/>
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" s="166">
+        <f t="shared" si="13"/>
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" s="166">
+        <f t="shared" si="13"/>
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" s="166">
+        <f t="shared" si="13"/>
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="166">
+        <f t="shared" si="13"/>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" s="166">
+        <f t="shared" si="13"/>
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" s="166">
+        <f t="shared" si="13"/>
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" s="166">
+        <f t="shared" si="13"/>
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" s="166">
+        <f t="shared" si="13"/>
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" s="166">
+        <f t="shared" si="13"/>
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" s="166">
+        <f t="shared" si="13"/>
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" s="166">
+        <f t="shared" ref="A900:A963" si="14">A899+1</f>
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" s="166">
+        <f t="shared" si="14"/>
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" s="166">
+        <f t="shared" si="14"/>
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" s="166">
+        <f t="shared" si="14"/>
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" s="166">
+        <f t="shared" si="14"/>
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" s="166">
+        <f t="shared" si="14"/>
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" s="166">
+        <f t="shared" si="14"/>
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" s="166">
+        <f t="shared" si="14"/>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" s="166">
+        <f t="shared" si="14"/>
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" s="166">
+        <f t="shared" si="14"/>
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" s="166">
+        <f t="shared" si="14"/>
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" s="166">
+        <f t="shared" si="14"/>
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" s="166">
+        <f t="shared" si="14"/>
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" s="166">
+        <f t="shared" si="14"/>
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" s="166">
+        <f t="shared" si="14"/>
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" s="166">
+        <f t="shared" si="14"/>
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" s="166">
+        <f t="shared" si="14"/>
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" s="166">
+        <f t="shared" si="14"/>
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" s="166">
+        <f t="shared" si="14"/>
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" s="166">
+        <f t="shared" si="14"/>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" s="166">
+        <f t="shared" si="14"/>
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" s="166">
+        <f t="shared" si="14"/>
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" s="166">
+        <f t="shared" si="14"/>
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" s="166">
+        <f t="shared" si="14"/>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="166">
+        <f t="shared" si="14"/>
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" s="166">
+        <f t="shared" si="14"/>
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" s="166">
+        <f t="shared" si="14"/>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" s="166">
+        <f t="shared" si="14"/>
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" s="166">
+        <f t="shared" si="14"/>
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" s="166">
+        <f t="shared" si="14"/>
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" s="166">
+        <f t="shared" si="14"/>
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" s="166">
+        <f t="shared" si="14"/>
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" s="166">
+        <f t="shared" si="14"/>
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" s="166">
+        <f t="shared" si="14"/>
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" s="166">
+        <f t="shared" si="14"/>
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" s="166">
+        <f t="shared" si="14"/>
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" s="166">
+        <f t="shared" si="14"/>
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" s="166">
+        <f t="shared" si="14"/>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" s="166">
+        <f t="shared" si="14"/>
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" s="166">
+        <f t="shared" si="14"/>
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" s="166">
+        <f t="shared" si="14"/>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" s="166">
+        <f t="shared" si="14"/>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" s="166">
+        <f t="shared" si="14"/>
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" s="166">
+        <f t="shared" si="14"/>
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" s="166">
+        <f t="shared" si="14"/>
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" s="166">
+        <f t="shared" si="14"/>
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" s="166">
+        <f t="shared" si="14"/>
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" s="166">
+        <f t="shared" si="14"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" s="166">
+        <f t="shared" si="14"/>
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" s="166">
+        <f t="shared" si="14"/>
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" s="166">
+        <f t="shared" si="14"/>
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" s="166">
+        <f t="shared" si="14"/>
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" s="166">
+        <f t="shared" si="14"/>
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" s="166">
+        <f t="shared" si="14"/>
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" s="166">
+        <f t="shared" si="14"/>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" s="166">
+        <f t="shared" si="14"/>
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" s="166">
+        <f t="shared" si="14"/>
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" s="166">
+        <f t="shared" si="14"/>
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" s="166">
+        <f t="shared" si="14"/>
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" s="166">
+        <f t="shared" si="14"/>
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" s="166">
+        <f t="shared" si="14"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" s="166">
+        <f t="shared" si="14"/>
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" s="166">
+        <f t="shared" si="14"/>
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" s="166">
+        <f t="shared" si="14"/>
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" s="166">
+        <f t="shared" ref="A964:A998" si="15">A963+1</f>
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" s="166">
+        <f t="shared" si="15"/>
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" s="166">
+        <f t="shared" si="15"/>
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" s="166">
+        <f t="shared" si="15"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" s="166">
+        <f t="shared" si="15"/>
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" s="166">
+        <f t="shared" si="15"/>
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" s="166">
+        <f t="shared" si="15"/>
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" s="166">
+        <f t="shared" si="15"/>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" s="166">
+        <f t="shared" si="15"/>
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" s="166">
+        <f t="shared" si="15"/>
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" s="166">
+        <f t="shared" si="15"/>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" s="166">
+        <f t="shared" si="15"/>
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" s="166">
+        <f t="shared" si="15"/>
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" s="166">
+        <f t="shared" si="15"/>
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" s="166">
+        <f t="shared" si="15"/>
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" s="166">
+        <f t="shared" si="15"/>
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" s="166">
+        <f t="shared" si="15"/>
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" s="166">
+        <f t="shared" si="15"/>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" s="166">
+        <f t="shared" si="15"/>
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" s="166">
+        <f t="shared" si="15"/>
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" s="166">
+        <f t="shared" si="15"/>
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" s="166">
+        <f t="shared" si="15"/>
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" s="166">
+        <f t="shared" si="15"/>
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" s="166">
+        <f t="shared" si="15"/>
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" s="166">
+        <f t="shared" si="15"/>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" s="166">
+        <f t="shared" si="15"/>
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" s="166">
+        <f t="shared" si="15"/>
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="166">
+        <f t="shared" si="15"/>
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" s="166">
+        <f t="shared" si="15"/>
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" s="166">
+        <f t="shared" si="15"/>
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" s="166">
+        <f t="shared" si="15"/>
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" s="166">
+        <f t="shared" si="15"/>
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" s="166">
+        <f t="shared" si="15"/>
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" s="166">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" s="166">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" tabRatio="721" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LEVANTAMENTO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="343">
   <si>
     <t>Item</t>
   </si>
@@ -1056,6 +1056,9 @@
   <si>
     <t>Pedreiro</t>
   </si>
+  <si>
+    <t>Levadas para obra</t>
+  </si>
 </sst>
 </file>
 
@@ -1076,10 +1079,10 @@
     <numFmt numFmtId="174" formatCode="0.00\ &quot;kg&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00\ &quot;m&quot;"/>
     <numFmt numFmtId="176" formatCode="0.00\ &quot;unid.&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="181" formatCode="d"/>
-    <numFmt numFmtId="182" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="179" formatCode="d"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2070,7 +2073,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,7 +2100,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2356,7 +2359,7 @@
     <xf numFmtId="10" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,19 +2371,19 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2410,30 +2413,30 @@
     <xf numFmtId="17" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="17" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="32" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="32" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2455,154 +2458,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2632,41 +2513,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2675,8 +2553,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2686,8 +2650,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3159,11 +3216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="318887040"/>
-        <c:axId val="318888576"/>
+        <c:axId val="312707328"/>
+        <c:axId val="312733696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="318887040"/>
+        <c:axId val="312707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3256,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318888576"/>
+        <c:crossAx val="312733696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3208,7 +3265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318888576"/>
+        <c:axId val="312733696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3245,7 +3302,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318887040"/>
+        <c:crossAx val="312707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3421,8 +3478,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320883328"/>
-        <c:axId val="320897408"/>
+        <c:axId val="312786944"/>
+        <c:axId val="312788480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3779,11 +3836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320898944"/>
-        <c:axId val="320900480"/>
+        <c:axId val="312790016"/>
+        <c:axId val="312816384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320883328"/>
+        <c:axId val="312786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320897408"/>
+        <c:crossAx val="312788480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3836,7 +3893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320897408"/>
+        <c:axId val="312788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3873,13 +3930,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320883328"/>
+        <c:crossAx val="312786944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="320898944"/>
+        <c:axId val="312790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320900480"/>
+        <c:crossAx val="312816384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +3953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320900480"/>
+        <c:axId val="312816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320898944"/>
+        <c:crossAx val="312790016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4417,63 +4474,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="196" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
     </row>
     <row r="2" spans="1:12" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
@@ -20382,7 +20439,7 @@
   <dimension ref="B4:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20397,333 +20454,333 @@
   <sheetData>
     <row r="4" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="247"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="226"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="194" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="190" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="190" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="191">
+      <c r="C8" s="252">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
-      </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
+        <v>44663</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="240"/>
-      <c r="C9" s="237" t="s">
+      <c r="B9" s="191"/>
+      <c r="C9" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="237" t="s">
+      <c r="D9" s="189" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="237" t="s">
+      <c r="E9" s="189" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="189" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="237" t="s">
+      <c r="G9" s="189" t="s">
         <v>333</v>
       </c>
-      <c r="H9" s="237" t="s">
+      <c r="H9" s="189" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="237" t="s">
+      <c r="I9" s="189" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="240">
-        <v>1</v>
-      </c>
-      <c r="C10" s="190" t="s">
+      <c r="B10" s="191">
+        <v>1</v>
+      </c>
+      <c r="C10" s="160" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="160" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="202">
+      <c r="E10" s="160"/>
+      <c r="F10" s="164">
         <v>2</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="254">
         <v>165</v>
       </c>
-      <c r="H10" s="194">
+      <c r="H10" s="254">
         <f>G10/9</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="I10" s="194">
+      <c r="I10" s="254">
         <f>G10*F10</f>
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="240">
+      <c r="B11" s="191">
         <v>2</v>
       </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="240">
+      <c r="B12" s="191">
         <v>3</v>
       </c>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="240">
+      <c r="B13" s="191">
         <v>4</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="240">
+      <c r="B14" s="191">
         <v>5</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="240">
+      <c r="B15" s="191">
         <v>6</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="240">
+      <c r="B16" s="191">
         <v>7</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="240">
+      <c r="B17" s="191">
         <v>8</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="240">
+      <c r="B18" s="191">
         <v>9</v>
       </c>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="240">
+      <c r="B19" s="191">
         <v>10</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="240">
+      <c r="B20" s="191">
         <v>11</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="240">
+      <c r="B21" s="191">
         <v>12</v>
       </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="240">
+      <c r="B22" s="191">
         <v>13</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="240">
+      <c r="B23" s="191">
         <v>14</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="240">
+      <c r="B24" s="191">
         <v>15</v>
       </c>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="240">
+      <c r="B25" s="191">
         <v>16</v>
       </c>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="240">
+      <c r="B26" s="191">
         <v>17</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="240">
+      <c r="B27" s="191">
         <v>18</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="240">
+      <c r="B28" s="191">
         <v>19</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
     </row>
     <row r="29" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="241">
+      <c r="B29" s="192">
         <v>20</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="243"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20744,18 +20801,18 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="225" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="177" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="235" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="235" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="187" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="187" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -20763,32 +20820,32 @@
       <c r="A1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="196" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="31"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="215"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="76"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="33"/>
       <c r="C3" s="75"/>
-      <c r="D3" s="216"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
@@ -20796,12 +20853,12 @@
         <v>303</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="180" t="s">
+      <c r="D4" s="168"/>
+      <c r="E4" s="199" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="227">
+      <c r="F4" s="200"/>
+      <c r="G4" s="179">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
       </c>
@@ -20809,10 +20866,10 @@
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
-      <c r="D5" s="217"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
     </row>
     <row r="6" spans="1:7" s="96" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="97" t="s">
@@ -20821,16 +20878,16 @@
       <c r="C6" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="170" t="s">
         <v>272</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="228" t="s">
+      <c r="F6" s="180" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="229" t="s">
+      <c r="G6" s="181" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20844,10 +20901,10 @@
       <c r="C7" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="219"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="231">
+      <c r="F7" s="182"/>
+      <c r="G7" s="183">
         <f>SUM(G8:G13)</f>
         <v>116000</v>
       </c>
@@ -20860,16 +20917,16 @@
       <c r="C8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="220">
+      <c r="D8" s="172">
         <v>1</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="184">
         <v>10000</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="184">
         <f t="shared" ref="G8:G13" si="0">D8*F8</f>
         <v>10000</v>
       </c>
@@ -20882,16 +20939,16 @@
       <c r="C9" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="221">
+      <c r="D9" s="173">
         <v>1</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="232">
+      <c r="F9" s="184">
         <v>4000</v>
       </c>
-      <c r="G9" s="232">
+      <c r="G9" s="184">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -20904,16 +20961,16 @@
       <c r="C10" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="221">
+      <c r="D10" s="173">
         <v>1</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="184">
         <v>30000</v>
       </c>
-      <c r="G10" s="232">
+      <c r="G10" s="184">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -20926,16 +20983,16 @@
       <c r="C11" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="173">
         <v>1</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="232">
+      <c r="F11" s="184">
         <v>30000</v>
       </c>
-      <c r="G11" s="232">
+      <c r="G11" s="184">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -20948,16 +21005,16 @@
       <c r="C12" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="221">
+      <c r="D12" s="173">
         <v>1</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="184">
         <v>40000</v>
       </c>
-      <c r="G12" s="232">
+      <c r="G12" s="184">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -20970,16 +21027,16 @@
       <c r="C13" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="222">
+      <c r="D13" s="174">
         <v>50</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="184">
         <v>40</v>
       </c>
-      <c r="G13" s="232">
+      <c r="G13" s="184">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -20994,10 +21051,10 @@
       <c r="C14" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="223"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="78"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="234">
+      <c r="F14" s="185"/>
+      <c r="G14" s="186">
         <f>SUM(G15:G19)</f>
         <v>9602.2999999999993</v>
       </c>
@@ -21010,16 +21067,16 @@
       <c r="C15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="221">
+      <c r="D15" s="173">
         <v>125</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="184">
         <v>15.59</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="184">
         <f>D15*F15</f>
         <v>1948.75</v>
       </c>
@@ -21032,16 +21089,16 @@
       <c r="C16" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="221">
+      <c r="D16" s="173">
         <v>45</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="232">
+      <c r="F16" s="184">
         <v>79.989999999999995</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="184">
         <f>D16*F16</f>
         <v>3599.5499999999997</v>
       </c>
@@ -21054,16 +21111,16 @@
       <c r="C17" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="221">
+      <c r="D17" s="173">
         <v>4.5</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="232">
+      <c r="F17" s="184">
         <v>318</v>
       </c>
-      <c r="G17" s="232">
+      <c r="G17" s="184">
         <f>D17*F17</f>
         <v>1431</v>
       </c>
@@ -21076,16 +21133,16 @@
       <c r="C18" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="221">
+      <c r="D18" s="173">
         <v>1</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="232">
+      <c r="F18" s="184">
         <v>1900</v>
       </c>
-      <c r="G18" s="232">
+      <c r="G18" s="184">
         <f>D18*F18</f>
         <v>1900</v>
       </c>
@@ -21098,16 +21155,16 @@
       <c r="C19" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="221">
+      <c r="D19" s="173">
         <v>300</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="232">
+      <c r="F19" s="184">
         <v>2.41</v>
       </c>
-      <c r="G19" s="232">
+      <c r="G19" s="184">
         <f>D19*F19</f>
         <v>723</v>
       </c>
@@ -21122,10 +21179,10 @@
       <c r="C20" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="223"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="234">
+      <c r="F20" s="185"/>
+      <c r="G20" s="186">
         <f>SUM(G21:G24)</f>
         <v>12936</v>
       </c>
@@ -21138,16 +21195,16 @@
       <c r="C21" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="221">
+      <c r="D21" s="173">
         <v>44</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="232">
+      <c r="F21" s="184">
         <v>40</v>
       </c>
-      <c r="G21" s="232">
+      <c r="G21" s="184">
         <f>D21*F21</f>
         <v>1760</v>
       </c>
@@ -21162,16 +21219,16 @@
       <c r="C22" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="221">
+      <c r="D22" s="173">
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="232">
+      <c r="F22" s="184">
         <v>40</v>
       </c>
-      <c r="G22" s="232">
+      <c r="G22" s="184">
         <f>D22*F22</f>
         <v>176</v>
       </c>
@@ -21184,16 +21241,16 @@
       <c r="C23" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="221">
+      <c r="D23" s="173">
         <v>1</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="232">
+      <c r="F23" s="184">
         <v>1000</v>
       </c>
-      <c r="G23" s="232">
+      <c r="G23" s="184">
         <f>D23*F23</f>
         <v>1000</v>
       </c>
@@ -21206,16 +21263,16 @@
       <c r="C24" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="221">
+      <c r="D24" s="173">
         <v>1</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="232">
+      <c r="F24" s="184">
         <v>10000</v>
       </c>
-      <c r="G24" s="232">
+      <c r="G24" s="184">
         <f>D24*F24</f>
         <v>10000</v>
       </c>
@@ -21230,10 +21287,10 @@
       <c r="C25" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="223"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="234">
+      <c r="F25" s="185"/>
+      <c r="G25" s="186">
         <f>SUM(G26:G34)</f>
         <v>189980</v>
       </c>
@@ -21246,16 +21303,16 @@
       <c r="C26" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="221">
+      <c r="D26" s="173">
         <v>12</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="232">
+      <c r="F26" s="184">
         <v>7000</v>
       </c>
-      <c r="G26" s="232">
+      <c r="G26" s="184">
         <f>D26*F26</f>
         <v>84000</v>
       </c>
@@ -21268,16 +21325,16 @@
       <c r="C27" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="221">
+      <c r="D27" s="173">
         <v>12</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="232">
+      <c r="F27" s="184">
         <v>5000</v>
       </c>
-      <c r="G27" s="232">
+      <c r="G27" s="184">
         <f t="shared" ref="G27:G46" si="1">D27*F27</f>
         <v>60000</v>
       </c>
@@ -21290,16 +21347,16 @@
       <c r="C28" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="221">
+      <c r="D28" s="173">
         <v>12</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="232">
+      <c r="F28" s="184">
         <v>800</v>
       </c>
-      <c r="G28" s="232">
+      <c r="G28" s="184">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
@@ -21312,16 +21369,16 @@
       <c r="C29" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="221">
+      <c r="D29" s="173">
         <v>12</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="232">
+      <c r="F29" s="184">
         <v>2200</v>
       </c>
-      <c r="G29" s="232">
+      <c r="G29" s="184">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -21334,16 +21391,16 @@
       <c r="C30" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="221">
+      <c r="D30" s="173">
         <v>12</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="232">
+      <c r="F30" s="184">
         <v>400</v>
       </c>
-      <c r="G30" s="232">
+      <c r="G30" s="184">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
@@ -21356,16 +21413,16 @@
       <c r="C31" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="221">
+      <c r="D31" s="173">
         <v>12</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="232">
+      <c r="F31" s="184">
         <v>200</v>
       </c>
-      <c r="G31" s="232">
+      <c r="G31" s="184">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
@@ -21378,16 +21435,16 @@
       <c r="C32" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="221">
+      <c r="D32" s="173">
         <v>12</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="232">
+      <c r="F32" s="184">
         <v>40</v>
       </c>
-      <c r="G32" s="232">
+      <c r="G32" s="184">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
@@ -21400,16 +21457,16 @@
       <c r="C33" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="221">
+      <c r="D33" s="173">
         <v>1</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="232">
+      <c r="F33" s="184">
         <v>1900</v>
       </c>
-      <c r="G33" s="232">
+      <c r="G33" s="184">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
@@ -21422,16 +21479,16 @@
       <c r="C34" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="221">
+      <c r="D34" s="173">
         <v>1</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="232">
+      <c r="F34" s="184">
         <v>400</v>
       </c>
-      <c r="G34" s="232">
+      <c r="G34" s="184">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -21446,10 +21503,10 @@
       <c r="C35" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="223"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="78"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="234">
+      <c r="F35" s="185"/>
+      <c r="G35" s="186">
         <f>SUM(G36)</f>
         <v>8400</v>
       </c>
@@ -21462,16 +21519,16 @@
       <c r="C36" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="221">
+      <c r="D36" s="173">
         <v>210</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="232">
+      <c r="F36" s="184">
         <v>40</v>
       </c>
-      <c r="G36" s="232">
+      <c r="G36" s="184">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
@@ -21486,10 +21543,10 @@
       <c r="C37" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="223"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="233"/>
-      <c r="G37" s="234">
+      <c r="F37" s="185"/>
+      <c r="G37" s="186">
         <f>SUM(G38)</f>
         <v>2560</v>
       </c>
@@ -21502,16 +21559,16 @@
       <c r="C38" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="221">
+      <c r="D38" s="173">
         <v>16</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="232">
+      <c r="F38" s="184">
         <v>160</v>
       </c>
-      <c r="G38" s="232">
+      <c r="G38" s="184">
         <f t="shared" si="1"/>
         <v>2560</v>
       </c>
@@ -21526,10 +21583,10 @@
       <c r="C39" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="223"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="78"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="234">
+      <c r="F39" s="185"/>
+      <c r="G39" s="186">
         <f>SUM(G40:G42)</f>
         <v>2818.5</v>
       </c>
@@ -21542,16 +21599,16 @@
       <c r="C40" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="221">
+      <c r="D40" s="173">
         <v>350</v>
       </c>
       <c r="E40" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="232">
+      <c r="F40" s="184">
         <v>2.41</v>
       </c>
-      <c r="G40" s="232">
+      <c r="G40" s="184">
         <f t="shared" si="1"/>
         <v>843.5</v>
       </c>
@@ -21564,16 +21621,16 @@
       <c r="C41" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="221">
+      <c r="D41" s="173">
         <v>25</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="232">
+      <c r="F41" s="184">
         <v>25</v>
       </c>
-      <c r="G41" s="232">
+      <c r="G41" s="184">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -21586,16 +21643,16 @@
       <c r="C42" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="221">
+      <c r="D42" s="173">
         <v>90</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="232">
+      <c r="F42" s="184">
         <v>15</v>
       </c>
-      <c r="G42" s="232">
+      <c r="G42" s="184">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
@@ -21610,10 +21667,10 @@
       <c r="C43" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="223"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="233"/>
-      <c r="G43" s="234">
+      <c r="F43" s="185"/>
+      <c r="G43" s="186">
         <f>SUM(G44:G46)</f>
         <v>28550</v>
       </c>
@@ -21626,16 +21683,16 @@
       <c r="C44" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="221">
+      <c r="D44" s="173">
         <v>25</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="232">
+      <c r="F44" s="184">
         <v>350</v>
       </c>
-      <c r="G44" s="232">
+      <c r="G44" s="184">
         <f t="shared" si="1"/>
         <v>8750</v>
       </c>
@@ -21648,16 +21705,16 @@
       <c r="C45" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="221">
+      <c r="D45" s="173">
         <v>45</v>
       </c>
       <c r="E45" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="232">
+      <c r="F45" s="184">
         <v>40</v>
       </c>
-      <c r="G45" s="232">
+      <c r="G45" s="184">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -21670,16 +21727,16 @@
       <c r="C46" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="221">
+      <c r="D46" s="173">
         <v>3000</v>
       </c>
       <c r="E46" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="232">
+      <c r="F46" s="184">
         <v>6</v>
       </c>
-      <c r="G46" s="232">
+      <c r="G46" s="184">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
@@ -21694,10 +21751,10 @@
       <c r="C47" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="223"/>
+      <c r="D47" s="175"/>
       <c r="E47" s="78"/>
-      <c r="F47" s="233"/>
-      <c r="G47" s="234">
+      <c r="F47" s="185"/>
+      <c r="G47" s="186">
         <f>SUM(G48:G50)</f>
         <v>792500</v>
       </c>
@@ -21710,16 +21767,16 @@
       <c r="C48" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="221">
+      <c r="D48" s="173">
         <v>750</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="232">
+      <c r="F48" s="184">
         <v>350</v>
       </c>
-      <c r="G48" s="232">
+      <c r="G48" s="184">
         <f>D48*F48</f>
         <v>262500</v>
       </c>
@@ -21732,16 +21789,16 @@
       <c r="C49" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="221">
+      <c r="D49" s="173">
         <v>2000</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="232">
+      <c r="F49" s="184">
         <v>40</v>
       </c>
-      <c r="G49" s="232">
+      <c r="G49" s="184">
         <f>D49*F49</f>
         <v>80000</v>
       </c>
@@ -21754,16 +21811,16 @@
       <c r="C50" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="221">
+      <c r="D50" s="173">
         <v>75000</v>
       </c>
       <c r="E50" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="232">
+      <c r="F50" s="184">
         <v>6</v>
       </c>
-      <c r="G50" s="232">
+      <c r="G50" s="184">
         <f>D50*F50</f>
         <v>450000</v>
       </c>
@@ -21778,10 +21835,10 @@
       <c r="C51" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="223"/>
+      <c r="D51" s="175"/>
       <c r="E51" s="78"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="234">
+      <c r="F51" s="185"/>
+      <c r="G51" s="186">
         <f>SUM(G52)</f>
         <v>92500</v>
       </c>
@@ -21794,16 +21851,16 @@
       <c r="C52" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="221">
+      <c r="D52" s="173">
         <v>2500</v>
       </c>
       <c r="E52" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="232">
+      <c r="F52" s="184">
         <v>37</v>
       </c>
-      <c r="G52" s="232">
+      <c r="G52" s="184">
         <f>D52*F52</f>
         <v>92500</v>
       </c>
@@ -21818,10 +21875,10 @@
       <c r="C53" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="223"/>
+      <c r="D53" s="175"/>
       <c r="E53" s="78"/>
-      <c r="F53" s="233"/>
-      <c r="G53" s="234">
+      <c r="F53" s="185"/>
+      <c r="G53" s="186">
         <f>SUM(G54:G54)</f>
         <v>62000</v>
       </c>
@@ -21834,16 +21891,16 @@
       <c r="C54" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="221">
+      <c r="D54" s="173">
         <v>200</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="232">
+      <c r="F54" s="184">
         <v>310</v>
       </c>
-      <c r="G54" s="232">
+      <c r="G54" s="184">
         <f>D54*F54</f>
         <v>62000</v>
       </c>
@@ -21858,10 +21915,10 @@
       <c r="C55" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="223"/>
+      <c r="D55" s="175"/>
       <c r="E55" s="78"/>
-      <c r="F55" s="233"/>
-      <c r="G55" s="234">
+      <c r="F55" s="185"/>
+      <c r="G55" s="186">
         <f>SUM(G56:G56)</f>
         <v>17192</v>
       </c>
@@ -21874,16 +21931,16 @@
       <c r="C56" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="221">
+      <c r="D56" s="173">
         <v>800</v>
       </c>
       <c r="E56" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="232">
+      <c r="F56" s="184">
         <v>21.49</v>
       </c>
-      <c r="G56" s="232">
+      <c r="G56" s="184">
         <f>D56*F56</f>
         <v>17192</v>
       </c>
@@ -21898,10 +21955,10 @@
       <c r="C57" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="223"/>
+      <c r="D57" s="175"/>
       <c r="E57" s="78"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="234">
+      <c r="F57" s="185"/>
+      <c r="G57" s="186">
         <f>SUM(G58)</f>
         <v>18828</v>
       </c>
@@ -21914,16 +21971,16 @@
       <c r="C58" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="221">
+      <c r="D58" s="173">
         <v>1200</v>
       </c>
       <c r="E58" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="232">
+      <c r="F58" s="184">
         <v>15.69</v>
       </c>
-      <c r="G58" s="232">
+      <c r="G58" s="184">
         <f>D58*F58</f>
         <v>18828</v>
       </c>
@@ -21938,10 +21995,10 @@
       <c r="C59" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="D59" s="223"/>
+      <c r="D59" s="175"/>
       <c r="E59" s="78"/>
-      <c r="F59" s="233"/>
-      <c r="G59" s="234">
+      <c r="F59" s="185"/>
+      <c r="G59" s="186">
         <f>SUM(G60:G61)</f>
         <v>41510</v>
       </c>
@@ -21954,16 +22011,16 @@
       <c r="C60" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="221">
+      <c r="D60" s="173">
         <v>3100</v>
       </c>
       <c r="E60" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="232">
+      <c r="F60" s="184">
         <v>12</v>
       </c>
-      <c r="G60" s="232">
+      <c r="G60" s="184">
         <f>D60*F60</f>
         <v>37200</v>
       </c>
@@ -21976,16 +22033,16 @@
       <c r="C61" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="221">
+      <c r="D61" s="173">
         <v>1000</v>
       </c>
       <c r="E61" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="232">
+      <c r="F61" s="184">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G61" s="232">
+      <c r="G61" s="184">
         <f>D61*F61</f>
         <v>4310</v>
       </c>
@@ -22000,10 +22057,10 @@
       <c r="C62" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="223"/>
+      <c r="D62" s="175"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="234">
+      <c r="F62" s="185"/>
+      <c r="G62" s="186">
         <f>SUM(G63:G68)</f>
         <v>880000</v>
       </c>
@@ -22016,16 +22073,16 @@
       <c r="C63" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="221">
+      <c r="D63" s="173">
         <v>1</v>
       </c>
       <c r="E63" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="232">
+      <c r="F63" s="184">
         <v>280000</v>
       </c>
-      <c r="G63" s="232">
+      <c r="G63" s="184">
         <f t="shared" ref="G63:G74" si="2">D63*F63</f>
         <v>280000</v>
       </c>
@@ -22038,16 +22095,16 @@
       <c r="C64" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="221">
+      <c r="D64" s="173">
         <v>1</v>
       </c>
       <c r="E64" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="232">
+      <c r="F64" s="184">
         <v>35000</v>
       </c>
-      <c r="G64" s="232">
+      <c r="G64" s="184">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
@@ -22060,16 +22117,16 @@
       <c r="C65" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="221">
+      <c r="D65" s="173">
         <v>1</v>
       </c>
       <c r="E65" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="232">
+      <c r="F65" s="184">
         <v>15000</v>
       </c>
-      <c r="G65" s="232">
+      <c r="G65" s="184">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
@@ -22082,16 +22139,16 @@
       <c r="C66" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="221">
+      <c r="D66" s="173">
         <v>1</v>
       </c>
       <c r="E66" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="232">
+      <c r="F66" s="184">
         <v>350000</v>
       </c>
-      <c r="G66" s="232">
+      <c r="G66" s="184">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -22104,16 +22161,16 @@
       <c r="C67" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="221">
+      <c r="D67" s="173">
         <v>1</v>
       </c>
       <c r="E67" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="232">
+      <c r="F67" s="184">
         <v>50000</v>
       </c>
-      <c r="G67" s="232">
+      <c r="G67" s="184">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -22126,16 +22183,16 @@
       <c r="C68" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="221">
+      <c r="D68" s="173">
         <v>1</v>
       </c>
       <c r="E68" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="232">
+      <c r="F68" s="184">
         <v>150000</v>
       </c>
-      <c r="G68" s="232">
+      <c r="G68" s="184">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
@@ -22150,10 +22207,10 @@
       <c r="C69" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="223"/>
+      <c r="D69" s="175"/>
       <c r="E69" s="78"/>
-      <c r="F69" s="233"/>
-      <c r="G69" s="234">
+      <c r="F69" s="185"/>
+      <c r="G69" s="186">
         <f>SUM(G70)</f>
         <v>40000</v>
       </c>
@@ -22166,16 +22223,16 @@
       <c r="C70" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="221">
+      <c r="D70" s="173">
         <v>2</v>
       </c>
       <c r="E70" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="232">
+      <c r="F70" s="184">
         <v>20000</v>
       </c>
-      <c r="G70" s="232">
+      <c r="G70" s="184">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
@@ -22190,10 +22247,10 @@
       <c r="C71" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="223"/>
+      <c r="D71" s="175"/>
       <c r="E71" s="78"/>
-      <c r="F71" s="233"/>
-      <c r="G71" s="234">
+      <c r="F71" s="185"/>
+      <c r="G71" s="186">
         <f>SUM(G72:G74)</f>
         <v>25900</v>
       </c>
@@ -22206,16 +22263,16 @@
       <c r="C72" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="221">
+      <c r="D72" s="173">
         <v>1</v>
       </c>
       <c r="E72" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="232">
+      <c r="F72" s="184">
         <v>1000</v>
       </c>
-      <c r="G72" s="232">
+      <c r="G72" s="184">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -22228,16 +22285,16 @@
       <c r="C73" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="221">
+      <c r="D73" s="173">
         <v>1</v>
       </c>
       <c r="E73" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="232">
+      <c r="F73" s="184">
         <v>20000</v>
       </c>
-      <c r="G73" s="232">
+      <c r="G73" s="184">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -22250,95 +22307,95 @@
       <c r="C74" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="221">
+      <c r="D74" s="173">
         <v>1</v>
       </c>
       <c r="E74" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="232">
+      <c r="F74" s="184">
         <v>4900</v>
       </c>
-      <c r="G74" s="232">
+      <c r="G74" s="184">
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D75" s="224"/>
+      <c r="D75" s="176"/>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D76" s="224"/>
+      <c r="D76" s="176"/>
       <c r="E76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="236"/>
-      <c r="G76" s="236"/>
+      <c r="F76" s="188"/>
+      <c r="G76" s="188"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D77" s="224"/>
+      <c r="D77" s="176"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="224"/>
+      <c r="D78" s="176"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="224"/>
+      <c r="D79" s="176"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="224"/>
+      <c r="D80" s="176"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="224"/>
+      <c r="D81" s="176"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="224"/>
+      <c r="D82" s="176"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="224"/>
+      <c r="D83" s="176"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="224"/>
+      <c r="D84" s="176"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="224"/>
+      <c r="D85" s="176"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="224"/>
+      <c r="D86" s="176"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="224"/>
+      <c r="D87" s="176"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="224"/>
+      <c r="D88" s="176"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="224"/>
+      <c r="D89" s="176"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="224"/>
+      <c r="D90" s="176"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="224"/>
+      <c r="D91" s="176"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="224"/>
+      <c r="D92" s="176"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="224"/>
+      <c r="D93" s="176"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="224"/>
+      <c r="D94" s="176"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="224"/>
+      <c r="D95" s="176"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="224"/>
+      <c r="D96" s="176"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="224"/>
+      <c r="D97" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22358,7 +22415,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -22383,32 +22440,32 @@
   <sheetData>
     <row r="1" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="203" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
     </row>
     <row r="2" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -22723,7 +22780,7 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="109"/>
-      <c r="E9" s="183"/>
+      <c r="E9" s="201"/>
       <c r="F9" s="144"/>
       <c r="G9" s="144"/>
       <c r="H9" s="131">
@@ -22808,7 +22865,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="144"/>
       <c r="G10" s="144"/>
       <c r="H10" s="136">
@@ -22847,7 +22904,7 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="116"/>
-      <c r="E11" s="183" t="s">
+      <c r="E11" s="201" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="144"/>
@@ -22934,7 +22991,7 @@
         <v>285</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="184"/>
+      <c r="E12" s="202"/>
       <c r="F12" s="144"/>
       <c r="G12" s="144"/>
       <c r="H12" s="136">
@@ -22973,7 +23030,7 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="109"/>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="201" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="144"/>
@@ -23062,7 +23119,7 @@
       <c r="D14" s="79">
         <v>2</v>
       </c>
-      <c r="E14" s="184"/>
+      <c r="E14" s="202"/>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
       <c r="H14" s="136">
@@ -23105,7 +23162,7 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="116"/>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="201" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="144"/>
@@ -23192,7 +23249,7 @@
         <v>289</v>
       </c>
       <c r="D16" s="134"/>
-      <c r="E16" s="184"/>
+      <c r="E16" s="202"/>
       <c r="F16" s="144"/>
       <c r="G16" s="144"/>
       <c r="H16" s="136"/>
@@ -23265,7 +23322,7 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="109"/>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="201" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="144"/>
@@ -23352,7 +23409,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="134"/>
-      <c r="E18" s="184"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
       <c r="H18" s="136"/>
@@ -23422,7 +23479,7 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="116"/>
-      <c r="E19" s="183"/>
+      <c r="E19" s="201"/>
       <c r="F19" s="144"/>
       <c r="G19" s="144"/>
       <c r="H19" s="137" t="str">
@@ -23507,7 +23564,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="134"/>
-      <c r="E20" s="184"/>
+      <c r="E20" s="202"/>
       <c r="F20" s="144"/>
       <c r="G20" s="144"/>
       <c r="H20" s="136"/>
@@ -23577,7 +23634,7 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="109"/>
-      <c r="E21" s="183"/>
+      <c r="E21" s="201"/>
       <c r="F21" s="144"/>
       <c r="G21" s="144"/>
       <c r="H21" s="137" t="str">
@@ -23662,7 +23719,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="134"/>
-      <c r="E22" s="184"/>
+      <c r="E22" s="202"/>
       <c r="F22" s="144"/>
       <c r="G22" s="144"/>
       <c r="H22" s="136"/>
@@ -23723,7 +23780,7 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="116"/>
-      <c r="E23" s="183"/>
+      <c r="E23" s="201"/>
       <c r="F23" s="144"/>
       <c r="G23" s="144"/>
       <c r="H23" s="137"/>
@@ -23763,7 +23820,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="134"/>
-      <c r="E24" s="184"/>
+      <c r="E24" s="202"/>
       <c r="F24" s="144"/>
       <c r="G24" s="144"/>
       <c r="H24" s="136"/>
@@ -23806,7 +23863,7 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="109"/>
-      <c r="E25" s="183"/>
+      <c r="E25" s="201"/>
       <c r="F25" s="144"/>
       <c r="G25" s="144"/>
       <c r="H25" s="137"/>
@@ -23867,7 +23924,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="134"/>
-      <c r="E26" s="184"/>
+      <c r="E26" s="202"/>
       <c r="F26" s="144"/>
       <c r="G26" s="144"/>
       <c r="H26" s="136"/>
@@ -23931,7 +23988,7 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="116"/>
-      <c r="E27" s="183"/>
+      <c r="E27" s="201"/>
       <c r="F27" s="144"/>
       <c r="G27" s="144"/>
       <c r="H27" s="137"/>
@@ -23989,7 +24046,7 @@
         <v>292</v>
       </c>
       <c r="D28" s="79"/>
-      <c r="E28" s="184"/>
+      <c r="E28" s="202"/>
       <c r="F28" s="144"/>
       <c r="G28" s="144"/>
       <c r="H28" s="136"/>
@@ -24049,7 +24106,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="109"/>
-      <c r="E29" s="183"/>
+      <c r="E29" s="201"/>
       <c r="F29" s="144"/>
       <c r="G29" s="144"/>
       <c r="H29" s="137"/>
@@ -24086,7 +24143,7 @@
         <v>294</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="184"/>
+      <c r="E30" s="202"/>
       <c r="F30" s="144"/>
       <c r="G30" s="144"/>
       <c r="H30" s="136"/>
@@ -24126,7 +24183,7 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="109"/>
-      <c r="E31" s="183"/>
+      <c r="E31" s="201"/>
       <c r="F31" s="144"/>
       <c r="G31" s="144"/>
       <c r="H31" s="137"/>
@@ -24172,7 +24229,7 @@
         <v>295</v>
       </c>
       <c r="D32" s="79"/>
-      <c r="E32" s="184"/>
+      <c r="E32" s="202"/>
       <c r="F32" s="144"/>
       <c r="G32" s="144"/>
       <c r="H32" s="136"/>
@@ -24221,7 +24278,7 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="116"/>
-      <c r="E33" s="183"/>
+      <c r="E33" s="201"/>
       <c r="F33" s="144"/>
       <c r="G33" s="144"/>
       <c r="H33" s="137"/>
@@ -24264,7 +24321,7 @@
         <v>287</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="184"/>
+      <c r="E34" s="202"/>
       <c r="F34" s="144"/>
       <c r="G34" s="144"/>
       <c r="H34" s="136"/>
@@ -24310,7 +24367,7 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="109"/>
-      <c r="E35" s="183"/>
+      <c r="E35" s="201"/>
       <c r="F35" s="144"/>
       <c r="G35" s="144"/>
       <c r="H35" s="137"/>
@@ -24371,7 +24428,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="184"/>
+      <c r="E36" s="202"/>
       <c r="F36" s="144"/>
       <c r="G36" s="144"/>
       <c r="H36" s="136"/>
@@ -24435,7 +24492,7 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="109"/>
-      <c r="E37" s="183"/>
+      <c r="E37" s="201"/>
       <c r="F37" s="144"/>
       <c r="G37" s="144"/>
       <c r="H37" s="137"/>
@@ -24481,7 +24538,7 @@
         <v>295</v>
       </c>
       <c r="D38" s="79"/>
-      <c r="E38" s="184"/>
+      <c r="E38" s="202"/>
       <c r="F38" s="144"/>
       <c r="G38" s="144"/>
       <c r="H38" s="136"/>
@@ -24530,7 +24587,7 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="116"/>
-      <c r="E39" s="183"/>
+      <c r="E39" s="201"/>
       <c r="F39" s="144"/>
       <c r="G39" s="144"/>
       <c r="H39" s="137"/>
@@ -24567,7 +24624,7 @@
         <v>300</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="184"/>
+      <c r="E40" s="202"/>
       <c r="F40" s="144"/>
       <c r="G40" s="144"/>
       <c r="H40" s="136"/>
@@ -24607,7 +24664,7 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="109"/>
-      <c r="E41" s="183"/>
+      <c r="E41" s="201"/>
       <c r="F41" s="144"/>
       <c r="G41" s="144"/>
       <c r="H41" s="137"/>
@@ -24647,7 +24704,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="184"/>
+      <c r="E42" s="202"/>
       <c r="F42" s="144"/>
       <c r="G42" s="144"/>
       <c r="H42" s="136"/>
@@ -25362,6 +25419,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -25370,16 +25437,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H10:X10">
@@ -27101,7 +27158,7 @@
   <dimension ref="B5:AR24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27120,1103 +27177,1103 @@
   <sheetData>
     <row r="5" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="153" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="166" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="160">
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="233">
         <v>0</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="160"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="160"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="160"/>
-      <c r="AM6" s="160"/>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="161"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+      <c r="S6" s="233"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="233"/>
+      <c r="Y6" s="233"/>
+      <c r="Z6" s="233"/>
+      <c r="AA6" s="233"/>
+      <c r="AB6" s="233"/>
+      <c r="AC6" s="233"/>
+      <c r="AD6" s="233"/>
+      <c r="AE6" s="233"/>
+      <c r="AF6" s="233"/>
+      <c r="AG6" s="233"/>
+      <c r="AH6" s="233"/>
+      <c r="AI6" s="233"/>
+      <c r="AJ6" s="233"/>
+      <c r="AK6" s="233"/>
+      <c r="AL6" s="233"/>
+      <c r="AM6" s="233"/>
+      <c r="AN6" s="233"/>
+      <c r="AO6" s="233"/>
+      <c r="AP6" s="233"/>
+      <c r="AQ6" s="233"/>
+      <c r="AR6" s="234"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B7" s="171">
+      <c r="B7" s="154">
         <v>44661</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="185">
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="235">
         <f>J8</f>
         <v>44661</v>
       </c>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="187">
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="237">
         <f>Q8</f>
         <v>44668</v>
       </c>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="187">
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="237">
         <f t="shared" ref="X7" si="0">X8</f>
         <v>44675</v>
       </c>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="187">
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="236"/>
+      <c r="AE7" s="237">
         <f t="shared" ref="AE7" si="1">AE8</f>
         <v>44682</v>
       </c>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="186"/>
-      <c r="AL7" s="187">
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="236"/>
+      <c r="AL7" s="237">
         <f t="shared" ref="AL7" si="2">AL8</f>
         <v>44689</v>
       </c>
-      <c r="AM7" s="185"/>
-      <c r="AN7" s="185"/>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="186"/>
+      <c r="AM7" s="235"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235"/>
+      <c r="AP7" s="235"/>
+      <c r="AQ7" s="235"/>
+      <c r="AR7" s="236"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="210" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="211" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="212" t="s">
+      <c r="D8" s="211" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="212" t="s">
+      <c r="E8" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="213" t="s">
+      <c r="F8" s="209" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="213" t="s">
+      <c r="G8" s="209" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="213" t="s">
+      <c r="H8" s="209" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="214" t="s">
+      <c r="I8" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="153">
+      <c r="J8" s="238">
         <f>B7+J6</f>
         <v>44661</v>
       </c>
-      <c r="K8" s="148">
+      <c r="K8" s="239">
         <f>J8+1</f>
         <v>44662</v>
       </c>
-      <c r="L8" s="147">
+      <c r="L8" s="240">
         <f t="shared" ref="L8:W8" si="3">K8+1</f>
         <v>44663</v>
       </c>
-      <c r="M8" s="148">
+      <c r="M8" s="239">
         <f t="shared" si="3"/>
         <v>44664</v>
       </c>
-      <c r="N8" s="147">
+      <c r="N8" s="240">
         <f t="shared" si="3"/>
         <v>44665</v>
       </c>
-      <c r="O8" s="148">
+      <c r="O8" s="239">
         <f t="shared" si="3"/>
         <v>44666</v>
       </c>
-      <c r="P8" s="157">
+      <c r="P8" s="241">
         <f t="shared" si="3"/>
         <v>44667</v>
       </c>
-      <c r="Q8" s="158">
+      <c r="Q8" s="242">
         <f t="shared" si="3"/>
         <v>44668</v>
       </c>
-      <c r="R8" s="147">
+      <c r="R8" s="240">
         <f t="shared" si="3"/>
         <v>44669</v>
       </c>
-      <c r="S8" s="148">
+      <c r="S8" s="239">
         <f t="shared" si="3"/>
         <v>44670</v>
       </c>
-      <c r="T8" s="147">
+      <c r="T8" s="240">
         <f t="shared" si="3"/>
         <v>44671</v>
       </c>
-      <c r="U8" s="148">
+      <c r="U8" s="239">
         <f t="shared" si="3"/>
         <v>44672</v>
       </c>
-      <c r="V8" s="147">
+      <c r="V8" s="240">
         <f t="shared" si="3"/>
         <v>44673</v>
       </c>
-      <c r="W8" s="159">
+      <c r="W8" s="243">
         <f t="shared" si="3"/>
         <v>44674</v>
       </c>
-      <c r="X8" s="156">
+      <c r="X8" s="244">
         <f t="shared" ref="X8:AR8" si="4">W8+1</f>
         <v>44675</v>
       </c>
-      <c r="Y8" s="148">
+      <c r="Y8" s="239">
         <f t="shared" si="4"/>
         <v>44676</v>
       </c>
-      <c r="Z8" s="147">
+      <c r="Z8" s="240">
         <f t="shared" si="4"/>
         <v>44677</v>
       </c>
-      <c r="AA8" s="148">
+      <c r="AA8" s="239">
         <f t="shared" si="4"/>
         <v>44678</v>
       </c>
-      <c r="AB8" s="147">
+      <c r="AB8" s="240">
         <f t="shared" si="4"/>
         <v>44679</v>
       </c>
-      <c r="AC8" s="148">
+      <c r="AC8" s="239">
         <f t="shared" si="4"/>
         <v>44680</v>
       </c>
-      <c r="AD8" s="157">
+      <c r="AD8" s="241">
         <f t="shared" si="4"/>
         <v>44681</v>
       </c>
-      <c r="AE8" s="158">
+      <c r="AE8" s="242">
         <f t="shared" si="4"/>
         <v>44682</v>
       </c>
-      <c r="AF8" s="147">
+      <c r="AF8" s="240">
         <f t="shared" si="4"/>
         <v>44683</v>
       </c>
-      <c r="AG8" s="148">
+      <c r="AG8" s="239">
         <f t="shared" si="4"/>
         <v>44684</v>
       </c>
-      <c r="AH8" s="147">
+      <c r="AH8" s="240">
         <f t="shared" si="4"/>
         <v>44685</v>
       </c>
-      <c r="AI8" s="148">
+      <c r="AI8" s="239">
         <f t="shared" si="4"/>
         <v>44686</v>
       </c>
-      <c r="AJ8" s="147">
+      <c r="AJ8" s="240">
         <f t="shared" si="4"/>
         <v>44687</v>
       </c>
-      <c r="AK8" s="159">
+      <c r="AK8" s="243">
         <f t="shared" si="4"/>
         <v>44688</v>
       </c>
-      <c r="AL8" s="156">
+      <c r="AL8" s="244">
         <f t="shared" si="4"/>
         <v>44689</v>
       </c>
-      <c r="AM8" s="148">
+      <c r="AM8" s="239">
         <f t="shared" si="4"/>
         <v>44690</v>
       </c>
-      <c r="AN8" s="147">
+      <c r="AN8" s="240">
         <f t="shared" si="4"/>
         <v>44691</v>
       </c>
-      <c r="AO8" s="148">
+      <c r="AO8" s="239">
         <f t="shared" si="4"/>
         <v>44692</v>
       </c>
-      <c r="AP8" s="147">
+      <c r="AP8" s="240">
         <f t="shared" si="4"/>
         <v>44693</v>
       </c>
-      <c r="AQ8" s="148">
+      <c r="AQ8" s="239">
         <f t="shared" si="4"/>
         <v>44694</v>
       </c>
-      <c r="AR8" s="157">
+      <c r="AR8" s="241">
         <f t="shared" si="4"/>
         <v>44695</v>
       </c>
     </row>
     <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="211"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="169" t="str">
+      <c r="B9" s="210"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="245" t="str">
         <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
         <v>D</v>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="246" t="str">
         <f t="shared" ref="K9:AR9" si="5">UPPER(LEFT(TEXT(K8,"DDD"),1))</f>
         <v>S</v>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="N9" s="151" t="str">
+      <c r="N9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="O9" s="150" t="str">
+      <c r="O9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="P9" s="152" t="str">
+      <c r="P9" s="248" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Q9" s="154" t="str">
+      <c r="Q9" s="249" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="R9" s="151" t="str">
+      <c r="R9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="S9" s="150" t="str">
+      <c r="S9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="T9" s="151" t="str">
+      <c r="T9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="U9" s="150" t="str">
+      <c r="U9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="V9" s="151" t="str">
+      <c r="V9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="W9" s="155" t="str">
+      <c r="W9" s="250" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="X9" s="149" t="str">
+      <c r="X9" s="251" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="Y9" s="150" t="str">
+      <c r="Y9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Z9" s="151" t="str">
+      <c r="Z9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AA9" s="150" t="str">
+      <c r="AA9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AB9" s="151" t="str">
+      <c r="AB9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AC9" s="150" t="str">
+      <c r="AC9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AD9" s="152" t="str">
+      <c r="AD9" s="248" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AE9" s="154" t="str">
+      <c r="AE9" s="249" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AF9" s="151" t="str">
+      <c r="AF9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AG9" s="150" t="str">
+      <c r="AG9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AH9" s="151" t="str">
+      <c r="AH9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AI9" s="150" t="str">
+      <c r="AI9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AJ9" s="151" t="str">
+      <c r="AJ9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AK9" s="155" t="str">
+      <c r="AK9" s="250" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AL9" s="149" t="str">
+      <c r="AL9" s="251" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AM9" s="150" t="str">
+      <c r="AM9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AN9" s="151" t="str">
+      <c r="AN9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AO9" s="150" t="str">
+      <c r="AO9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AP9" s="151" t="str">
+      <c r="AP9" s="247" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AQ9" s="150" t="str">
+      <c r="AQ9" s="246" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AR9" s="152" t="str">
+      <c r="AR9" s="248" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B10" s="163"/>
-      <c r="C10" s="173">
+      <c r="B10" s="148"/>
+      <c r="C10" s="155">
         <v>44661</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="227">
         <f>IF(C10="","",C10+E10)</f>
         <v>44664</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="147">
         <v>3</v>
       </c>
-      <c r="F10" s="175">
+      <c r="F10" s="157">
         <v>44662</v>
       </c>
-      <c r="G10" s="175">
+      <c r="G10" s="157">
         <v>44663</v>
       </c>
-      <c r="H10" s="162" t="str">
+      <c r="H10" s="229" t="str">
         <f t="shared" ref="H10:H21" si="6">IF(G10&gt;D10,G10-D10,"")</f>
         <v/>
       </c>
-      <c r="I10" s="172">
+      <c r="I10" s="230">
         <f>IF(AND(G10&lt;D10,G10&lt;&gt;""),D10-G10,"")</f>
         <v>1</v>
       </c>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="162"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="162"/>
-      <c r="AL10" s="162"/>
-      <c r="AM10" s="162"/>
-      <c r="AN10" s="162"/>
-      <c r="AO10" s="162"/>
-      <c r="AP10" s="162"/>
-      <c r="AQ10" s="162"/>
-      <c r="AR10" s="164"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="147"/>
+      <c r="AH10" s="147"/>
+      <c r="AI10" s="147"/>
+      <c r="AJ10" s="147"/>
+      <c r="AK10" s="147"/>
+      <c r="AL10" s="147"/>
+      <c r="AM10" s="147"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="149"/>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B11" s="163"/>
-      <c r="C11" s="173">
+      <c r="B11" s="148"/>
+      <c r="C11" s="155">
         <v>44662</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="227">
         <f t="shared" ref="D11:D24" si="7">IF(C11="","",C11+E11)</f>
         <v>44663</v>
       </c>
-      <c r="E11" s="162">
-        <v>1</v>
-      </c>
-      <c r="F11" s="175">
+      <c r="E11" s="147">
+        <v>1</v>
+      </c>
+      <c r="F11" s="157">
         <v>44663</v>
       </c>
-      <c r="G11" s="175">
+      <c r="G11" s="157">
         <v>44665</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="229">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I11" s="172" t="str">
+      <c r="I11" s="230" t="str">
         <f t="shared" ref="I11:I21" si="8">IF(AND(G11&lt;D11,G11&lt;&gt;""),D11-G11,"")</f>
         <v/>
       </c>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="162"/>
-      <c r="AL11" s="162"/>
-      <c r="AM11" s="162"/>
-      <c r="AN11" s="162"/>
-      <c r="AO11" s="162"/>
-      <c r="AP11" s="162"/>
-      <c r="AQ11" s="162"/>
-      <c r="AR11" s="164"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="147"/>
+      <c r="AG11" s="147"/>
+      <c r="AH11" s="147"/>
+      <c r="AI11" s="147"/>
+      <c r="AJ11" s="147"/>
+      <c r="AK11" s="147"/>
+      <c r="AL11" s="147"/>
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="149"/>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B12" s="163"/>
-      <c r="C12" s="173">
+      <c r="B12" s="148"/>
+      <c r="C12" s="155">
         <v>44663</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="227">
         <f t="shared" si="7"/>
         <v>44683</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="147">
         <v>20</v>
       </c>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="162" t="str">
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I12" s="172" t="str">
+      <c r="I12" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="162"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="162"/>
-      <c r="AP12" s="162"/>
-      <c r="AQ12" s="162"/>
-      <c r="AR12" s="164"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="147"/>
+      <c r="AF12" s="147"/>
+      <c r="AG12" s="147"/>
+      <c r="AH12" s="147"/>
+      <c r="AI12" s="147"/>
+      <c r="AJ12" s="147"/>
+      <c r="AK12" s="147"/>
+      <c r="AL12" s="147"/>
+      <c r="AM12" s="147"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="147"/>
+      <c r="AP12" s="147"/>
+      <c r="AQ12" s="147"/>
+      <c r="AR12" s="149"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B13" s="163"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173" t="str">
+      <c r="B13" s="148"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="162" t="str">
+      <c r="E13" s="147"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I13" s="172" t="str">
+      <c r="I13" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="162"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="162"/>
-      <c r="AP13" s="162"/>
-      <c r="AQ13" s="162"/>
-      <c r="AR13" s="164"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="149"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B14" s="163"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173" t="str">
+      <c r="B14" s="148"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="162" t="str">
+      <c r="E14" s="147"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="172" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="162"/>
-      <c r="AL14" s="162"/>
-      <c r="AM14" s="162"/>
-      <c r="AN14" s="162"/>
-      <c r="AO14" s="162"/>
-      <c r="AP14" s="162"/>
-      <c r="AQ14" s="162"/>
-      <c r="AR14" s="164"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="147"/>
+      <c r="AH14" s="147"/>
+      <c r="AI14" s="147"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="147"/>
+      <c r="AL14" s="147"/>
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="149"/>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B15" s="163"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173" t="str">
+      <c r="B15" s="148"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="162" t="str">
+      <c r="E15" s="147"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I15" s="172" t="str">
+      <c r="I15" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="162"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="162"/>
-      <c r="AP15" s="162"/>
-      <c r="AQ15" s="162"/>
-      <c r="AR15" s="164"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="147"/>
+      <c r="AF15" s="147"/>
+      <c r="AG15" s="147"/>
+      <c r="AH15" s="147"/>
+      <c r="AI15" s="147"/>
+      <c r="AJ15" s="147"/>
+      <c r="AK15" s="147"/>
+      <c r="AL15" s="147"/>
+      <c r="AM15" s="147"/>
+      <c r="AN15" s="147"/>
+      <c r="AO15" s="147"/>
+      <c r="AP15" s="147"/>
+      <c r="AQ15" s="147"/>
+      <c r="AR15" s="149"/>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B16" s="163"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173" t="str">
+      <c r="B16" s="148"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="162" t="str">
+      <c r="E16" s="147"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I16" s="172" t="str">
+      <c r="I16" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="162"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="162"/>
-      <c r="AP16" s="162"/>
-      <c r="AQ16" s="162"/>
-      <c r="AR16" s="164"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="147"/>
+      <c r="AG16" s="147"/>
+      <c r="AH16" s="147"/>
+      <c r="AI16" s="147"/>
+      <c r="AJ16" s="147"/>
+      <c r="AK16" s="147"/>
+      <c r="AL16" s="147"/>
+      <c r="AM16" s="147"/>
+      <c r="AN16" s="147"/>
+      <c r="AO16" s="147"/>
+      <c r="AP16" s="147"/>
+      <c r="AQ16" s="147"/>
+      <c r="AR16" s="149"/>
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B17" s="163"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173" t="str">
+      <c r="B17" s="148"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E17" s="162"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="162" t="str">
+      <c r="E17" s="147"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I17" s="172" t="str">
+      <c r="I17" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="162"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="162"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="162"/>
-      <c r="AP17" s="162"/>
-      <c r="AQ17" s="162"/>
-      <c r="AR17" s="164"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="147"/>
+      <c r="AG17" s="147"/>
+      <c r="AH17" s="147"/>
+      <c r="AI17" s="147"/>
+      <c r="AJ17" s="147"/>
+      <c r="AK17" s="147"/>
+      <c r="AL17" s="147"/>
+      <c r="AM17" s="147"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="147"/>
+      <c r="AP17" s="147"/>
+      <c r="AQ17" s="147"/>
+      <c r="AR17" s="149"/>
     </row>
     <row r="18" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B18" s="163"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173" t="str">
+      <c r="B18" s="148"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="162" t="str">
+      <c r="E18" s="147"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="172" t="str">
+      <c r="I18" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="162"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="162"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="162"/>
-      <c r="AP18" s="162"/>
-      <c r="AQ18" s="162"/>
-      <c r="AR18" s="164"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="147"/>
+      <c r="AG18" s="147"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="147"/>
+      <c r="AJ18" s="147"/>
+      <c r="AK18" s="147"/>
+      <c r="AL18" s="147"/>
+      <c r="AM18" s="147"/>
+      <c r="AN18" s="147"/>
+      <c r="AO18" s="147"/>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="149"/>
     </row>
     <row r="19" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B19" s="163"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173" t="str">
+      <c r="B19" s="148"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="162" t="str">
+      <c r="E19" s="147"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I19" s="172" t="str">
+      <c r="I19" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="162"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="162"/>
-      <c r="AN19" s="162"/>
-      <c r="AO19" s="162"/>
-      <c r="AP19" s="162"/>
-      <c r="AQ19" s="162"/>
-      <c r="AR19" s="164"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="147"/>
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="147"/>
+      <c r="AH19" s="147"/>
+      <c r="AI19" s="147"/>
+      <c r="AJ19" s="147"/>
+      <c r="AK19" s="147"/>
+      <c r="AL19" s="147"/>
+      <c r="AM19" s="147"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="149"/>
     </row>
     <row r="20" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B20" s="163"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173" t="str">
+      <c r="B20" s="148"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E20" s="162"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="162" t="str">
+      <c r="E20" s="147"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I20" s="172" t="str">
+      <c r="I20" s="230" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="162"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="162"/>
-      <c r="AP20" s="162"/>
-      <c r="AQ20" s="162"/>
-      <c r="AR20" s="164"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="147"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="147"/>
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="147"/>
+      <c r="AM20" s="147"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
+      <c r="AQ20" s="147"/>
+      <c r="AR20" s="149"/>
     </row>
     <row r="21" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="165"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174" t="str">
+      <c r="B21" s="150"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="228" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="166" t="str">
+      <c r="E21" s="151"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="231" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I21" s="168" t="str">
+      <c r="I21" s="232" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="166"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="166"/>
-      <c r="AJ21" s="166"/>
-      <c r="AK21" s="166"/>
-      <c r="AL21" s="166"/>
-      <c r="AM21" s="166"/>
-      <c r="AN21" s="166"/>
-      <c r="AO21" s="166"/>
-      <c r="AP21" s="166"/>
-      <c r="AQ21" s="166"/>
-      <c r="AR21" s="167"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="151"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="151"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="152"/>
     </row>
     <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="D22" s="145" t="str">
@@ -28238,21 +28295,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="AE7:AK7"/>
     <mergeCell ref="AL7:AR7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:AR21">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -34357,411 +34414,418 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="216" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="198"/>
-      <c r="K4" s="197" t="s">
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
+      <c r="K4" s="216" t="s">
         <v>322</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="198"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="218"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="K5" s="199" t="s">
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="K5" s="220" t="s">
         <v>329</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="201"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="222"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="203"/>
-      <c r="C7" s="190" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="190" t="s">
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="204"/>
-      <c r="C8" s="190" t="s">
+      <c r="B8" s="213"/>
+      <c r="C8" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="190" t="s">
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="204"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="161">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
-      </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190" t="s">
+        <v>44663</v>
+      </c>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="K9" s="204"/>
-      <c r="L9" s="190" t="s">
+      <c r="K9" s="213"/>
+      <c r="L9" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="M9" s="191">
+      <c r="M9" s="161">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
-      </c>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="190" t="s">
+        <v>44663</v>
+      </c>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="205"/>
-      <c r="C10" s="189" t="s">
+      <c r="B10" s="214"/>
+      <c r="C10" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="189" t="s">
+      <c r="D10" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="189" t="s">
+      <c r="F10" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="159" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190" t="s">
+      <c r="H10" s="159"/>
+      <c r="I10" s="160" t="s">
         <v>270</v>
       </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="189" t="s">
+      <c r="K10" s="214"/>
+      <c r="L10" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="M10" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="189" t="s">
+      <c r="M10" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="O10" s="189" t="s">
+      <c r="O10" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="189" t="s">
+      <c r="P10" s="159" t="s">
         <v>318</v>
       </c>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="190" t="s">
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="K11" s="192" t="s">
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="K11" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="L11" s="193" t="s">
+      <c r="L11" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="189"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="192"/>
-      <c r="C12" s="193" t="s">
+      <c r="B12" s="215"/>
+      <c r="C12" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="193" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="192"/>
-      <c r="C13" s="193" t="s">
+      <c r="B13" s="215"/>
+      <c r="C13" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="193" t="s">
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="192"/>
-      <c r="C14" s="193" t="s">
+      <c r="B14" s="215"/>
+      <c r="C14" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="193" t="s">
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="194"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="192"/>
-      <c r="C15" s="193" t="s">
+      <c r="B15" s="215"/>
+      <c r="C15" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="193" t="s">
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="192"/>
-      <c r="C16" s="193" t="s">
+      <c r="B16" s="215"/>
+      <c r="C16" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="193" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="192"/>
-      <c r="C17" s="193" t="s">
+      <c r="B17" s="215"/>
+      <c r="C17" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="193" t="s">
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="189"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="159"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="192"/>
-      <c r="C18" s="193" t="s">
+      <c r="B18" s="215"/>
+      <c r="C18" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="193" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="192"/>
-      <c r="C19" s="193" t="s">
+      <c r="B19" s="215"/>
+      <c r="C19" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="193" t="s">
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="M19" s="189"/>
-      <c r="N19" s="189"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="189"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="192"/>
-      <c r="C20" s="193" t="s">
+      <c r="B20" s="215"/>
+      <c r="C20" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="193" t="s">
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="M20" s="189"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="189"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="M8:R8"/>
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -34769,13 +34833,6 @@
     <mergeCell ref="K6:R6"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="M8:R8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34787,7 +34844,7 @@
   <dimension ref="B4:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I9"/>
+      <selection activeCell="G11" sqref="G11:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34795,236 +34852,269 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="216" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="198"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="196" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
+      <c r="B5" s="219" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="203"/>
-      <c r="C7" s="190" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="204"/>
-      <c r="C8" s="190" t="s">
+      <c r="B8" s="213"/>
+      <c r="C8" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="204"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="252">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
-      </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190" t="s">
+        <v>44663</v>
+      </c>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160" t="s">
         <v>331</v>
       </c>
+      <c r="I9" s="160"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="205"/>
-      <c r="C10" s="189" t="s">
+      <c r="B10" s="214"/>
+      <c r="C10" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="189" t="s">
+      <c r="D10" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="189" t="s">
+      <c r="F10" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="253" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="159" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="254" t="str">
+        <f>IF(F11="","",E11*F11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="192"/>
-      <c r="C12" s="193" t="s">
+      <c r="B12" s="215"/>
+      <c r="C12" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="254" t="str">
+        <f t="shared" ref="G12:G20" si="0">IF(F12="","",E12*F12)</f>
+        <v/>
+      </c>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="192"/>
-      <c r="C13" s="193" t="s">
+      <c r="B13" s="215"/>
+      <c r="C13" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="192"/>
-      <c r="C14" s="193" t="s">
+      <c r="B14" s="215"/>
+      <c r="C14" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="192"/>
-      <c r="C15" s="193" t="s">
+      <c r="B15" s="215"/>
+      <c r="C15" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="192"/>
-      <c r="C16" s="193" t="s">
+      <c r="B16" s="215"/>
+      <c r="C16" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="192"/>
-      <c r="C17" s="193" t="s">
+      <c r="B17" s="215"/>
+      <c r="C17" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="192"/>
-      <c r="C18" s="193" t="s">
+      <c r="B18" s="215"/>
+      <c r="C18" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="192"/>
-      <c r="C19" s="193" t="s">
+      <c r="B19" s="215"/>
+      <c r="C19" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="192"/>
-      <c r="C20" s="193" t="s">
+      <c r="B20" s="215"/>
+      <c r="C20" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="254" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7470" tabRatio="721" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7410" tabRatio="721" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LEVANTAMENTO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="List_Materiais" sheetId="8" r:id="rId8"/>
     <sheet name="List_Ferramentas" sheetId="10" r:id="rId9"/>
     <sheet name="CUST_M_OBRA" sheetId="11" r:id="rId10"/>
+    <sheet name="RDO" sheetId="12" r:id="rId11"/>
+    <sheet name="Ordem de Serviço" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'CURVA "S"'!$B$4:$N$41</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="409">
   <si>
     <t>Item</t>
   </si>
@@ -1058,13 +1060,211 @@
   </si>
   <si>
     <t>Levadas para obra</t>
+  </si>
+  <si>
+    <t>DIÁRIO DE OBRAS</t>
+  </si>
+  <si>
+    <t>NUMERO DO DIÁRIO</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA AUGUSTO LIMA</t>
+  </si>
+  <si>
+    <t>PRAZO CONTRATUAL (DIAS)</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO, REFORMAS DECORAÇÃO DE INTERIORES</t>
+  </si>
+  <si>
+    <t>DIAS TRABALHADOS</t>
+  </si>
+  <si>
+    <t>www.augustolimaconstrucaoedecoracao.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO DO PRAZO </t>
+  </si>
+  <si>
+    <t>IDENTIFICAÇÃO DO EMPREENDIMENTO</t>
+  </si>
+  <si>
+    <t>Nome da Obra:</t>
+  </si>
+  <si>
+    <t>Início da Obra/Serviço:</t>
+  </si>
+  <si>
+    <t>Contrato:</t>
+  </si>
+  <si>
+    <t>Prevista da Conclusão:</t>
+  </si>
+  <si>
+    <t>Tipo de Obra/Serviço:</t>
+  </si>
+  <si>
+    <t>Endereço da Obra/Serviço:</t>
+  </si>
+  <si>
+    <t>Telefone:</t>
+  </si>
+  <si>
+    <t>IDENTIFICAÇÃO DO PROPRIENTÁRIO</t>
+  </si>
+  <si>
+    <t>Nome ou Razão Social</t>
+  </si>
+  <si>
+    <t>E-mail:</t>
+  </si>
+  <si>
+    <t>MÃO DE OBRA</t>
+  </si>
+  <si>
+    <t>DIRETA</t>
+  </si>
+  <si>
+    <t>Função</t>
+  </si>
+  <si>
+    <t>Descrição da Função</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Engenheiro Planejamento</t>
+  </si>
+  <si>
+    <t>Técnico de segurança</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>INDIRETA</t>
+  </si>
+  <si>
+    <t>Empresa/ Autônomo</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>INDIRETO</t>
+  </si>
+  <si>
+    <t>DIRETO</t>
+  </si>
+  <si>
+    <t>QUANT</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>CONDIÇÕES METEOROLOGICAS</t>
+  </si>
+  <si>
+    <t>PERÍODO</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>NUBLADO</t>
+  </si>
+  <si>
+    <t>CHUVA</t>
+  </si>
+  <si>
+    <t>IMPRATICÁVEL</t>
+  </si>
+  <si>
+    <t>Pluviometria (mm)</t>
+  </si>
+  <si>
+    <t>Manhã</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>Observação:</t>
+  </si>
+  <si>
+    <t>Pluviometria Total (mm)</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>SERVIÇOS EXECUTADOS</t>
+  </si>
+  <si>
+    <t>COMENTÁRIOS</t>
+  </si>
+  <si>
+    <t>Assinatura Contratada</t>
+  </si>
+  <si>
+    <t>Assinatura Fiscalização/Supervisão</t>
+  </si>
+  <si>
+    <t>LISTA DE PENDÊNCIAS</t>
+  </si>
+  <si>
+    <t>OCORRÊNCIAS</t>
+  </si>
+  <si>
+    <t>INTERRUPÇÕES</t>
+  </si>
+  <si>
+    <t>MOTIVO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>PARCIAL/ Hrs</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fundação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="18">
+  <numFmts count="19">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0\ &quot;x&quot;"/>
@@ -1083,8 +1283,9 @@
     <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="179" formatCode="d"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1287,8 +1488,54 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,8 +1608,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2066,15 +2337,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2470,9 +2877,6 @@
     <xf numFmtId="14" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2628,16 +3032,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2654,14 +3060,47 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2674,30 +3113,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2735,32 +3150,522 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -3229,11 +4134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328545024"/>
-        <c:axId val="328546560"/>
+        <c:axId val="343986560"/>
+        <c:axId val="343988096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328545024"/>
+        <c:axId val="343986560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +4174,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328546560"/>
+        <c:crossAx val="343988096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3278,7 +4183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328546560"/>
+        <c:axId val="343988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3315,7 +4220,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328545024"/>
+        <c:crossAx val="343986560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3491,8 +4396,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97067392"/>
-        <c:axId val="97068928"/>
+        <c:axId val="343454464"/>
+        <c:axId val="343456000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3849,11 +4754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97070464"/>
-        <c:axId val="97072256"/>
+        <c:axId val="343465984"/>
+        <c:axId val="343467520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97067392"/>
+        <c:axId val="343454464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +4802,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97068928"/>
+        <c:crossAx val="343456000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3906,7 +4811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97068928"/>
+        <c:axId val="343456000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3943,13 +4848,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97067392"/>
+        <c:crossAx val="343454464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97070464"/>
+        <c:axId val="343465984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,7 +4863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97072256"/>
+        <c:crossAx val="343467520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3966,7 +4871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97072256"/>
+        <c:axId val="343467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,7 +4881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97070464"/>
+        <c:crossAx val="343465984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4064,15 +4969,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1174749</xdr:colOff>
+          <xdr:colOff>1171575</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161924</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
-          <xdr:colOff>206375</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4220,6 +5125,327 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249363</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>32167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19044" t="18243" r="18424" b="16892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1981200" y="10334625"/>
+          <a:ext cx="354138" cy="327442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13418" t="6940" r="6279" b="29958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686174" y="10315575"/>
+          <a:ext cx="466725" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604189</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>14430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16749" t="25018" r="16328" b="6171"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4714875" y="10220325"/>
+          <a:ext cx="366064" cy="366855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1372986</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17400" t="25555" r="17191" b="12469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6210300" y="10210800"/>
+          <a:ext cx="372861" cy="366855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20499,10 +21725,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I29"/>
+  <dimension ref="B5:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20515,84 +21741,83 @@
     <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="252" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="264" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="254"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="192" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="217">
+      <c r="C8" s="434">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
+        <v>44668</v>
+      </c>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="190"/>
-      <c r="C9" s="188" t="s">
+      <c r="B9" s="189"/>
+      <c r="C9" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="188" t="s">
+      <c r="D9" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="188" t="s">
+      <c r="E9" s="187" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="188" t="s">
+      <c r="F9" s="187" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="H9" s="188" t="s">
+      <c r="H9" s="187" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="188" t="s">
+      <c r="I9" s="187" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="190">
+      <c r="B10" s="189">
         <v>1</v>
       </c>
       <c r="C10" s="159" t="s">
@@ -20602,248 +21827,248 @@
         <v>341</v>
       </c>
       <c r="E10" s="159"/>
-      <c r="F10" s="163">
+      <c r="F10" s="162">
         <v>2</v>
       </c>
-      <c r="G10" s="219">
+      <c r="G10" s="217">
         <v>165</v>
       </c>
-      <c r="H10" s="219">
+      <c r="H10" s="432">
         <f>G10/9</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="I10" s="219">
+      <c r="I10" s="432">
         <f>G10*F10</f>
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="190">
+      <c r="B11" s="189">
         <v>2</v>
       </c>
       <c r="C11" s="158"/>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="432"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="190">
+      <c r="B12" s="189">
         <v>3</v>
       </c>
       <c r="C12" s="158"/>
       <c r="D12" s="158"/>
       <c r="E12" s="158"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="432"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="190">
+      <c r="B13" s="189">
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="432"/>
+      <c r="I13" s="432"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="190">
+      <c r="B14" s="189">
         <v>5</v>
       </c>
       <c r="C14" s="158"/>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="190">
+      <c r="B15" s="189">
         <v>6</v>
       </c>
       <c r="C15" s="158"/>
       <c r="D15" s="158"/>
       <c r="E15" s="158"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="432"/>
+      <c r="I15" s="432"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="190">
+      <c r="B16" s="189">
         <v>7</v>
       </c>
       <c r="C16" s="158"/>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="432"/>
+      <c r="I16" s="432"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="190">
+      <c r="B17" s="189">
         <v>8</v>
       </c>
       <c r="C17" s="158"/>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="432"/>
+      <c r="I17" s="432"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="190">
+      <c r="B18" s="189">
         <v>9</v>
       </c>
       <c r="C18" s="158"/>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="432"/>
+      <c r="I18" s="432"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="190">
+      <c r="B19" s="189">
         <v>10</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="432"/>
+      <c r="I19" s="432"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="190">
+      <c r="B20" s="189">
         <v>11</v>
       </c>
       <c r="C20" s="158"/>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="432"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="190">
+      <c r="B21" s="189">
         <v>12</v>
       </c>
       <c r="C21" s="158"/>
       <c r="D21" s="158"/>
       <c r="E21" s="158"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="432"/>
+      <c r="I21" s="432"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="190">
+      <c r="B22" s="189">
         <v>13</v>
       </c>
       <c r="C22" s="158"/>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="432"/>
+      <c r="I22" s="432"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="190">
+      <c r="B23" s="189">
         <v>14</v>
       </c>
       <c r="C23" s="158"/>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="432"/>
+      <c r="I23" s="432"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="190">
+      <c r="B24" s="189">
         <v>15</v>
       </c>
       <c r="C24" s="158"/>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="432"/>
+      <c r="I24" s="432"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="190">
+      <c r="B25" s="189">
         <v>16</v>
       </c>
       <c r="C25" s="158"/>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="432"/>
+      <c r="I25" s="432"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="190">
+      <c r="B26" s="189">
         <v>17</v>
       </c>
       <c r="C26" s="158"/>
       <c r="D26" s="158"/>
       <c r="E26" s="158"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="432"/>
+      <c r="I26" s="432"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="190">
+      <c r="B27" s="189">
         <v>18</v>
       </c>
       <c r="C27" s="158"/>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="432"/>
+      <c r="I27" s="432"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="190">
+      <c r="B28" s="189">
         <v>19</v>
       </c>
       <c r="C28" s="158"/>
       <c r="D28" s="158"/>
       <c r="E28" s="158"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="432"/>
     </row>
     <row r="29" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="191">
+      <c r="B29" s="190">
         <v>20</v>
       </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20852,6 +22077,1913 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="B5:I5"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L118"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59:L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="255" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="257"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259" t="str">
+        <f>("DATA ATUAL:"&amp;"    "&amp;UPPER(LEFT(TEXT(L3,"DDDD"),7)))</f>
+        <v>DATA ATUAL:    DOMINGO</v>
+      </c>
+      <c r="L3" s="381">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="259" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" s="382">
+        <f ca="1">IFERROR(TODAY()-L9,"")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="261" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="261"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="259" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="383">
+        <f>IFERROR(L10-L9,"")</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="262" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="259" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" s="383">
+        <f>IFERROR(IF(OR(AND(K63&lt;&gt;"",K64&lt;&gt;"",K65&lt;&gt;""),AND(D59&lt;&gt;"",F59&lt;&gt;"")),(L3-L9)-1,L3-L9),"")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="263" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="259" t="s">
+        <v>350</v>
+      </c>
+      <c r="L7" s="383">
+        <f>IFERROR(L5-L6,"")</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="264" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="266"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="267" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="270" t="s">
+        <v>353</v>
+      </c>
+      <c r="L9" s="271">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="272" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="374"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="270" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="271">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="267" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="274"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="274"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="275"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="267" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="268"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="277"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="272" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="374"/>
+      <c r="D13" s="274"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="274"/>
+      <c r="G13" s="274"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="274"/>
+      <c r="J13" s="274"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="275"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="264" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="265"/>
+      <c r="D14" s="265"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="265"/>
+      <c r="K14" s="265"/>
+      <c r="L14" s="266"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="267" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="374"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="277"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="278" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="269"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="274"/>
+      <c r="F16" s="274"/>
+      <c r="G16" s="274"/>
+      <c r="H16" s="274"/>
+      <c r="I16" s="274"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="274"/>
+      <c r="L16" s="275"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="278" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="269"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="274"/>
+      <c r="L17" s="275"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="278" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="269"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="274"/>
+      <c r="L18" s="275"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="264" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
+      <c r="L19" s="266"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="423" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="424"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="424"/>
+      <c r="F20" s="424"/>
+      <c r="G20" s="424"/>
+      <c r="H20" s="424"/>
+      <c r="I20" s="424"/>
+      <c r="J20" s="424"/>
+      <c r="K20" s="424"/>
+      <c r="L20" s="425"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="279" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="304"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="375"/>
+      <c r="F21" s="281" t="s">
+        <v>365</v>
+      </c>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="282"/>
+      <c r="L21" s="283" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="279"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
+      <c r="H22" s="284"/>
+      <c r="I22" s="284"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="286"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="287"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="291"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="287"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="289"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="289"/>
+      <c r="J24" s="289"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="291"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="287"/>
+      <c r="C25" s="403"/>
+      <c r="D25" s="288" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="331"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="291"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="287"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="288" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="331"/>
+      <c r="F26" s="289"/>
+      <c r="G26" s="289"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="289"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="291"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="287"/>
+      <c r="C27" s="403"/>
+      <c r="D27" s="288" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" s="331"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="292"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="287"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="288" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="331"/>
+      <c r="F28" s="289"/>
+      <c r="G28" s="289"/>
+      <c r="H28" s="289"/>
+      <c r="I28" s="289"/>
+      <c r="J28" s="289"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="292"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="293"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="289"/>
+      <c r="G29" s="289"/>
+      <c r="H29" s="289"/>
+      <c r="I29" s="289"/>
+      <c r="J29" s="289"/>
+      <c r="K29" s="290"/>
+      <c r="L29" s="292"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="293"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="289"/>
+      <c r="I30" s="289"/>
+      <c r="J30" s="289"/>
+      <c r="K30" s="290"/>
+      <c r="L30" s="292"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="293"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="289"/>
+      <c r="G31" s="289"/>
+      <c r="H31" s="289"/>
+      <c r="I31" s="289"/>
+      <c r="J31" s="289"/>
+      <c r="K31" s="290"/>
+      <c r="L31" s="292"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="293"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="289"/>
+      <c r="G32" s="289"/>
+      <c r="H32" s="289"/>
+      <c r="I32" s="289"/>
+      <c r="J32" s="289"/>
+      <c r="K32" s="290"/>
+      <c r="L32" s="292"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="293" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="404"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="289"/>
+      <c r="H33" s="289"/>
+      <c r="I33" s="289"/>
+      <c r="J33" s="289"/>
+      <c r="K33" s="290"/>
+      <c r="L33" s="295">
+        <f>SUM(L23:L32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="423" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="424"/>
+      <c r="D34" s="424"/>
+      <c r="E34" s="424"/>
+      <c r="F34" s="424"/>
+      <c r="G34" s="424"/>
+      <c r="H34" s="424"/>
+      <c r="I34" s="424"/>
+      <c r="J34" s="424"/>
+      <c r="K34" s="424"/>
+      <c r="L34" s="425"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="296" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="297" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="282"/>
+      <c r="E35" s="297" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" s="281"/>
+      <c r="G35" s="281"/>
+      <c r="H35" s="281"/>
+      <c r="I35" s="281"/>
+      <c r="J35" s="281"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="298" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="299"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="284"/>
+      <c r="G36" s="284"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="284"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="285"/>
+      <c r="L36" s="301"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="302"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="406"/>
+      <c r="E37" s="303"/>
+      <c r="F37" s="304"/>
+      <c r="G37" s="304"/>
+      <c r="H37" s="304"/>
+      <c r="I37" s="304"/>
+      <c r="J37" s="304"/>
+      <c r="K37" s="280"/>
+      <c r="L37" s="305"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="302"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="406"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="304"/>
+      <c r="H38" s="304"/>
+      <c r="I38" s="304"/>
+      <c r="J38" s="304"/>
+      <c r="K38" s="280"/>
+      <c r="L38" s="305"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="302"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="406"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="304"/>
+      <c r="G39" s="304"/>
+      <c r="H39" s="304"/>
+      <c r="I39" s="304"/>
+      <c r="J39" s="304"/>
+      <c r="K39" s="280"/>
+      <c r="L39" s="305"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="302"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="406"/>
+      <c r="E40" s="303"/>
+      <c r="F40" s="304"/>
+      <c r="G40" s="304"/>
+      <c r="H40" s="304"/>
+      <c r="I40" s="304"/>
+      <c r="J40" s="304"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="305"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="302"/>
+      <c r="C41" s="405"/>
+      <c r="D41" s="406"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="304"/>
+      <c r="H41" s="304"/>
+      <c r="I41" s="304"/>
+      <c r="J41" s="304"/>
+      <c r="K41" s="280"/>
+      <c r="L41" s="305"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="302"/>
+      <c r="C42" s="405"/>
+      <c r="D42" s="406"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="304"/>
+      <c r="G42" s="304"/>
+      <c r="H42" s="304"/>
+      <c r="I42" s="304"/>
+      <c r="J42" s="304"/>
+      <c r="K42" s="280"/>
+      <c r="L42" s="305"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="302"/>
+      <c r="C43" s="405"/>
+      <c r="D43" s="406"/>
+      <c r="E43" s="303"/>
+      <c r="F43" s="304"/>
+      <c r="G43" s="304"/>
+      <c r="H43" s="304"/>
+      <c r="I43" s="304"/>
+      <c r="J43" s="304"/>
+      <c r="K43" s="280"/>
+      <c r="L43" s="305"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="302"/>
+      <c r="C44" s="405"/>
+      <c r="D44" s="406"/>
+      <c r="E44" s="303"/>
+      <c r="F44" s="304"/>
+      <c r="G44" s="304"/>
+      <c r="H44" s="304"/>
+      <c r="I44" s="304"/>
+      <c r="J44" s="304"/>
+      <c r="K44" s="280"/>
+      <c r="L44" s="305"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="306" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="307"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="307"/>
+      <c r="F45" s="307"/>
+      <c r="G45" s="307"/>
+      <c r="H45" s="307"/>
+      <c r="I45" s="307"/>
+      <c r="J45" s="307"/>
+      <c r="K45" s="308"/>
+      <c r="L45" s="309">
+        <f>SUM(L37:L44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="310" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="311"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="311"/>
+      <c r="G46" s="311"/>
+      <c r="H46" s="311"/>
+      <c r="I46" s="311"/>
+      <c r="J46" s="311"/>
+      <c r="K46" s="312"/>
+      <c r="L46" s="313">
+        <f>L45+L33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="264" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="265"/>
+      <c r="D47" s="265"/>
+      <c r="E47" s="265"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="265"/>
+      <c r="H47" s="265"/>
+      <c r="I47" s="265"/>
+      <c r="J47" s="265"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="266"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="423" t="s">
+        <v>375</v>
+      </c>
+      <c r="C48" s="424"/>
+      <c r="D48" s="424"/>
+      <c r="E48" s="424"/>
+      <c r="F48" s="424"/>
+      <c r="G48" s="424"/>
+      <c r="H48" s="424"/>
+      <c r="I48" s="424"/>
+      <c r="J48" s="423" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" s="424"/>
+      <c r="L48" s="425"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="296" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="407" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="408"/>
+      <c r="E49" s="297" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="281"/>
+      <c r="G49" s="281"/>
+      <c r="H49" s="282"/>
+      <c r="I49" s="314" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="316" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="314" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="299"/>
+      <c r="C50" s="409"/>
+      <c r="D50" s="410"/>
+      <c r="E50" s="300"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="285"/>
+      <c r="I50" s="317"/>
+      <c r="J50" s="318"/>
+      <c r="K50" s="319"/>
+      <c r="L50" s="317"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="320"/>
+      <c r="C51" s="400"/>
+      <c r="D51" s="290"/>
+      <c r="E51" s="400"/>
+      <c r="F51" s="289"/>
+      <c r="G51" s="289"/>
+      <c r="H51" s="290"/>
+      <c r="I51" s="323"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="325"/>
+      <c r="L51" s="292"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="320"/>
+      <c r="C52" s="400"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="400"/>
+      <c r="F52" s="289"/>
+      <c r="G52" s="289"/>
+      <c r="H52" s="290"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="327"/>
+      <c r="K52" s="328"/>
+      <c r="L52" s="329"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="320"/>
+      <c r="C53" s="400"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="400"/>
+      <c r="F53" s="289"/>
+      <c r="G53" s="289"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="332"/>
+      <c r="J53" s="322"/>
+      <c r="K53" s="330"/>
+      <c r="L53" s="291"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="333" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" s="334"/>
+      <c r="D54" s="334"/>
+      <c r="E54" s="334"/>
+      <c r="F54" s="334"/>
+      <c r="G54" s="334"/>
+      <c r="H54" s="335"/>
+      <c r="I54" s="380">
+        <f>SUM(I51:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="336" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" s="337"/>
+      <c r="L54" s="338">
+        <f>SUM(L51:L53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="333" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="334"/>
+      <c r="D55" s="334"/>
+      <c r="E55" s="334"/>
+      <c r="F55" s="334"/>
+      <c r="G55" s="334"/>
+      <c r="H55" s="334"/>
+      <c r="I55" s="334"/>
+      <c r="J55" s="334"/>
+      <c r="K55" s="335"/>
+      <c r="L55" s="338">
+        <f>L54+I54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="264" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="265"/>
+      <c r="D56" s="265"/>
+      <c r="E56" s="265"/>
+      <c r="F56" s="265"/>
+      <c r="G56" s="265"/>
+      <c r="H56" s="265"/>
+      <c r="I56" s="265"/>
+      <c r="J56" s="265"/>
+      <c r="K56" s="265"/>
+      <c r="L56" s="266"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="423" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="424"/>
+      <c r="D57" s="425"/>
+      <c r="E57" s="424" t="s">
+        <v>406</v>
+      </c>
+      <c r="F57" s="424"/>
+      <c r="G57" s="395" t="s">
+        <v>401</v>
+      </c>
+      <c r="H57" s="394"/>
+      <c r="I57" s="394"/>
+      <c r="J57" s="394"/>
+      <c r="K57" s="394"/>
+      <c r="L57" s="399"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="393" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="396"/>
+      <c r="D58" s="426" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" s="391" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" s="422" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" s="397"/>
+      <c r="H58" s="391"/>
+      <c r="I58" s="391"/>
+      <c r="J58" s="391"/>
+      <c r="K58" s="391"/>
+      <c r="L58" s="392"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="420"/>
+      <c r="C59" s="398"/>
+      <c r="D59" s="428" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="436" t="s">
+        <v>408</v>
+      </c>
+      <c r="F59" s="430"/>
+      <c r="G59" s="395"/>
+      <c r="H59" s="394"/>
+      <c r="I59" s="394"/>
+      <c r="J59" s="394"/>
+      <c r="K59" s="394"/>
+      <c r="L59" s="399"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="421"/>
+      <c r="C60" s="398"/>
+      <c r="D60" s="429"/>
+      <c r="E60" s="436"/>
+      <c r="F60" s="431"/>
+      <c r="G60" s="395"/>
+      <c r="H60" s="394"/>
+      <c r="I60" s="394"/>
+      <c r="J60" s="394"/>
+      <c r="K60" s="394"/>
+      <c r="L60" s="399"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="388" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" s="389"/>
+      <c r="D61" s="389"/>
+      <c r="E61" s="389"/>
+      <c r="F61" s="389"/>
+      <c r="G61" s="389"/>
+      <c r="H61" s="389"/>
+      <c r="I61" s="389"/>
+      <c r="J61" s="389"/>
+      <c r="K61" s="389"/>
+      <c r="L61" s="390"/>
+    </row>
+    <row r="62" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="418" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="339" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="401"/>
+      <c r="E62" s="340"/>
+      <c r="F62" s="339" t="s">
+        <v>382</v>
+      </c>
+      <c r="G62" s="401"/>
+      <c r="H62" s="340"/>
+      <c r="I62" s="339" t="s">
+        <v>383</v>
+      </c>
+      <c r="J62" s="340"/>
+      <c r="K62" s="341" t="s">
+        <v>384</v>
+      </c>
+      <c r="L62" s="342" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="343" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="412"/>
+      <c r="D63" s="419"/>
+      <c r="E63" s="411"/>
+      <c r="F63" s="344"/>
+      <c r="G63" s="402"/>
+      <c r="H63" s="345"/>
+      <c r="I63" s="344"/>
+      <c r="J63" s="345"/>
+      <c r="K63" s="427" t="s">
+        <v>407</v>
+      </c>
+      <c r="L63" s="346"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="343" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="412"/>
+      <c r="D64" s="419"/>
+      <c r="E64" s="411"/>
+      <c r="F64" s="344"/>
+      <c r="G64" s="402"/>
+      <c r="H64" s="345"/>
+      <c r="I64" s="344"/>
+      <c r="J64" s="345"/>
+      <c r="K64" s="427" t="s">
+        <v>407</v>
+      </c>
+      <c r="L64" s="346"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="343" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="412"/>
+      <c r="D65" s="419"/>
+      <c r="E65" s="411"/>
+      <c r="F65" s="344"/>
+      <c r="G65" s="402"/>
+      <c r="H65" s="345"/>
+      <c r="I65" s="344"/>
+      <c r="J65" s="345"/>
+      <c r="K65" s="427"/>
+      <c r="L65" s="346"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="347" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="348"/>
+      <c r="D66" s="348"/>
+      <c r="E66" s="348"/>
+      <c r="F66" s="348"/>
+      <c r="G66" s="348"/>
+      <c r="H66" s="348"/>
+      <c r="I66" s="348"/>
+      <c r="J66" s="349"/>
+      <c r="K66" s="350" t="s">
+        <v>390</v>
+      </c>
+      <c r="L66" s="277"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="351"/>
+      <c r="C67" s="352"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="352"/>
+      <c r="F67" s="352"/>
+      <c r="G67" s="352"/>
+      <c r="H67" s="352"/>
+      <c r="I67" s="352"/>
+      <c r="J67" s="353"/>
+      <c r="K67" s="354" t="s">
+        <v>391</v>
+      </c>
+      <c r="L67" s="346"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="351"/>
+      <c r="C68" s="352"/>
+      <c r="D68" s="352"/>
+      <c r="E68" s="352"/>
+      <c r="F68" s="352"/>
+      <c r="G68" s="352"/>
+      <c r="H68" s="352"/>
+      <c r="I68" s="352"/>
+      <c r="J68" s="353"/>
+      <c r="K68" s="354" t="s">
+        <v>392</v>
+      </c>
+      <c r="L68" s="346"/>
+    </row>
+    <row r="69" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="355"/>
+      <c r="C69" s="356"/>
+      <c r="D69" s="356"/>
+      <c r="E69" s="356"/>
+      <c r="F69" s="356"/>
+      <c r="G69" s="356"/>
+      <c r="H69" s="356"/>
+      <c r="I69" s="356"/>
+      <c r="J69" s="357"/>
+      <c r="K69" s="358" t="s">
+        <v>393</v>
+      </c>
+      <c r="L69" s="359"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="360"/>
+      <c r="C70" s="360"/>
+      <c r="D70" s="360"/>
+      <c r="E70" s="360"/>
+      <c r="F70" s="360"/>
+      <c r="G70" s="360"/>
+      <c r="H70" s="360"/>
+      <c r="I70" s="360"/>
+      <c r="J70" s="360"/>
+      <c r="K70" s="361"/>
+      <c r="L70" s="362"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="264" t="s">
+        <v>394</v>
+      </c>
+      <c r="C72" s="265"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="265"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="265"/>
+      <c r="H72" s="265"/>
+      <c r="I72" s="265"/>
+      <c r="J72" s="265"/>
+      <c r="K72" s="265"/>
+      <c r="L72" s="266"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="320"/>
+      <c r="C73" s="400"/>
+      <c r="D73" s="289"/>
+      <c r="E73" s="289"/>
+      <c r="F73" s="289"/>
+      <c r="G73" s="289"/>
+      <c r="H73" s="289"/>
+      <c r="I73" s="289"/>
+      <c r="J73" s="289"/>
+      <c r="K73" s="289"/>
+      <c r="L73" s="367"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="320"/>
+      <c r="C74" s="400"/>
+      <c r="D74" s="289"/>
+      <c r="E74" s="289"/>
+      <c r="F74" s="289"/>
+      <c r="G74" s="289"/>
+      <c r="H74" s="289"/>
+      <c r="I74" s="289"/>
+      <c r="J74" s="289"/>
+      <c r="K74" s="289"/>
+      <c r="L74" s="367"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="320"/>
+      <c r="C75" s="400"/>
+      <c r="D75" s="289"/>
+      <c r="E75" s="289"/>
+      <c r="F75" s="289"/>
+      <c r="G75" s="289"/>
+      <c r="H75" s="289"/>
+      <c r="I75" s="289"/>
+      <c r="J75" s="289"/>
+      <c r="K75" s="289"/>
+      <c r="L75" s="367"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="320"/>
+      <c r="C76" s="400"/>
+      <c r="D76" s="289"/>
+      <c r="E76" s="289"/>
+      <c r="F76" s="289"/>
+      <c r="G76" s="289"/>
+      <c r="H76" s="289"/>
+      <c r="I76" s="289"/>
+      <c r="J76" s="289"/>
+      <c r="K76" s="289"/>
+      <c r="L76" s="367"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="320"/>
+      <c r="C77" s="400"/>
+      <c r="D77" s="289"/>
+      <c r="E77" s="289"/>
+      <c r="F77" s="289"/>
+      <c r="G77" s="289"/>
+      <c r="H77" s="289"/>
+      <c r="I77" s="289"/>
+      <c r="J77" s="289"/>
+      <c r="K77" s="289"/>
+      <c r="L77" s="367"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="320"/>
+      <c r="C78" s="400"/>
+      <c r="D78" s="289"/>
+      <c r="E78" s="289"/>
+      <c r="F78" s="289"/>
+      <c r="G78" s="289"/>
+      <c r="H78" s="289"/>
+      <c r="I78" s="289"/>
+      <c r="J78" s="289"/>
+      <c r="K78" s="289"/>
+      <c r="L78" s="367"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="320"/>
+      <c r="C79" s="400"/>
+      <c r="D79" s="289"/>
+      <c r="E79" s="289"/>
+      <c r="F79" s="289"/>
+      <c r="G79" s="289"/>
+      <c r="H79" s="289"/>
+      <c r="I79" s="289"/>
+      <c r="J79" s="289"/>
+      <c r="K79" s="289"/>
+      <c r="L79" s="367"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="320"/>
+      <c r="C80" s="400"/>
+      <c r="D80" s="289"/>
+      <c r="E80" s="289"/>
+      <c r="F80" s="289"/>
+      <c r="G80" s="289"/>
+      <c r="H80" s="289"/>
+      <c r="I80" s="289"/>
+      <c r="J80" s="289"/>
+      <c r="K80" s="289"/>
+      <c r="L80" s="367"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="320"/>
+      <c r="C81" s="400"/>
+      <c r="D81" s="289"/>
+      <c r="E81" s="289"/>
+      <c r="F81" s="289"/>
+      <c r="G81" s="289"/>
+      <c r="H81" s="289"/>
+      <c r="I81" s="289"/>
+      <c r="J81" s="289"/>
+      <c r="K81" s="289"/>
+      <c r="L81" s="367"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="320"/>
+      <c r="C82" s="400"/>
+      <c r="D82" s="289"/>
+      <c r="E82" s="289"/>
+      <c r="F82" s="289"/>
+      <c r="G82" s="289"/>
+      <c r="H82" s="289"/>
+      <c r="I82" s="289"/>
+      <c r="J82" s="289"/>
+      <c r="K82" s="289"/>
+      <c r="L82" s="367"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="320"/>
+      <c r="C83" s="400"/>
+      <c r="D83" s="289"/>
+      <c r="E83" s="289"/>
+      <c r="F83" s="289"/>
+      <c r="G83" s="289"/>
+      <c r="H83" s="289"/>
+      <c r="I83" s="289"/>
+      <c r="J83" s="289"/>
+      <c r="K83" s="289"/>
+      <c r="L83" s="367"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="320"/>
+      <c r="C84" s="400"/>
+      <c r="D84" s="289"/>
+      <c r="E84" s="289"/>
+      <c r="F84" s="289"/>
+      <c r="G84" s="289"/>
+      <c r="H84" s="289"/>
+      <c r="I84" s="289"/>
+      <c r="J84" s="289"/>
+      <c r="K84" s="289"/>
+      <c r="L84" s="367"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="320"/>
+      <c r="C85" s="400"/>
+      <c r="D85" s="289"/>
+      <c r="E85" s="289"/>
+      <c r="F85" s="289"/>
+      <c r="G85" s="289"/>
+      <c r="H85" s="289"/>
+      <c r="I85" s="289"/>
+      <c r="J85" s="289"/>
+      <c r="K85" s="289"/>
+      <c r="L85" s="367"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="320"/>
+      <c r="C86" s="400"/>
+      <c r="D86" s="289"/>
+      <c r="E86" s="289"/>
+      <c r="F86" s="289"/>
+      <c r="G86" s="289"/>
+      <c r="H86" s="289"/>
+      <c r="I86" s="289"/>
+      <c r="J86" s="289"/>
+      <c r="K86" s="289"/>
+      <c r="L86" s="367"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="320"/>
+      <c r="C87" s="400"/>
+      <c r="D87" s="289"/>
+      <c r="E87" s="289"/>
+      <c r="F87" s="289"/>
+      <c r="G87" s="289"/>
+      <c r="H87" s="289"/>
+      <c r="I87" s="289"/>
+      <c r="J87" s="289"/>
+      <c r="K87" s="289"/>
+      <c r="L87" s="367"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="320"/>
+      <c r="C88" s="400"/>
+      <c r="D88" s="289"/>
+      <c r="E88" s="289"/>
+      <c r="F88" s="289"/>
+      <c r="G88" s="289"/>
+      <c r="H88" s="289"/>
+      <c r="I88" s="289"/>
+      <c r="J88" s="289"/>
+      <c r="K88" s="289"/>
+      <c r="L88" s="367"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="320"/>
+      <c r="C89" s="400"/>
+      <c r="D89" s="289"/>
+      <c r="E89" s="289"/>
+      <c r="F89" s="289"/>
+      <c r="G89" s="289"/>
+      <c r="H89" s="289"/>
+      <c r="I89" s="289"/>
+      <c r="J89" s="289"/>
+      <c r="K89" s="289"/>
+      <c r="L89" s="367"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="320"/>
+      <c r="C90" s="400"/>
+      <c r="D90" s="289"/>
+      <c r="E90" s="289"/>
+      <c r="F90" s="289"/>
+      <c r="G90" s="289"/>
+      <c r="H90" s="289"/>
+      <c r="I90" s="289"/>
+      <c r="J90" s="289"/>
+      <c r="K90" s="289"/>
+      <c r="L90" s="367"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="320"/>
+      <c r="C91" s="400"/>
+      <c r="D91" s="289"/>
+      <c r="E91" s="289"/>
+      <c r="F91" s="289"/>
+      <c r="G91" s="289"/>
+      <c r="H91" s="289"/>
+      <c r="I91" s="289"/>
+      <c r="J91" s="289"/>
+      <c r="K91" s="289"/>
+      <c r="L91" s="367"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="320"/>
+      <c r="C92" s="400"/>
+      <c r="D92" s="289"/>
+      <c r="E92" s="289"/>
+      <c r="F92" s="289"/>
+      <c r="G92" s="289"/>
+      <c r="H92" s="289"/>
+      <c r="I92" s="289"/>
+      <c r="J92" s="289"/>
+      <c r="K92" s="289"/>
+      <c r="L92" s="367"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="320"/>
+      <c r="C93" s="400"/>
+      <c r="D93" s="289"/>
+      <c r="E93" s="289"/>
+      <c r="F93" s="289"/>
+      <c r="G93" s="289"/>
+      <c r="H93" s="289"/>
+      <c r="I93" s="289"/>
+      <c r="J93" s="289"/>
+      <c r="K93" s="289"/>
+      <c r="L93" s="367"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="320"/>
+      <c r="C94" s="400"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="289"/>
+      <c r="F94" s="289"/>
+      <c r="G94" s="289"/>
+      <c r="H94" s="289"/>
+      <c r="I94" s="289"/>
+      <c r="J94" s="289"/>
+      <c r="K94" s="289"/>
+      <c r="L94" s="367"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="320"/>
+      <c r="C95" s="400"/>
+      <c r="D95" s="289"/>
+      <c r="E95" s="289"/>
+      <c r="F95" s="289"/>
+      <c r="G95" s="289"/>
+      <c r="H95" s="289"/>
+      <c r="I95" s="289"/>
+      <c r="J95" s="289"/>
+      <c r="K95" s="289"/>
+      <c r="L95" s="367"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="320"/>
+      <c r="C96" s="400"/>
+      <c r="D96" s="289"/>
+      <c r="E96" s="289"/>
+      <c r="F96" s="289"/>
+      <c r="G96" s="289"/>
+      <c r="H96" s="289"/>
+      <c r="I96" s="289"/>
+      <c r="J96" s="289"/>
+      <c r="K96" s="289"/>
+      <c r="L96" s="367"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="320"/>
+      <c r="C97" s="400"/>
+      <c r="D97" s="289"/>
+      <c r="E97" s="289"/>
+      <c r="F97" s="289"/>
+      <c r="G97" s="289"/>
+      <c r="H97" s="289"/>
+      <c r="I97" s="289"/>
+      <c r="J97" s="289"/>
+      <c r="K97" s="289"/>
+      <c r="L97" s="367"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" s="320"/>
+      <c r="C98" s="400"/>
+      <c r="D98" s="289"/>
+      <c r="E98" s="289"/>
+      <c r="F98" s="289"/>
+      <c r="G98" s="289"/>
+      <c r="H98" s="289"/>
+      <c r="I98" s="289"/>
+      <c r="J98" s="289"/>
+      <c r="K98" s="289"/>
+      <c r="L98" s="367"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="320"/>
+      <c r="C99" s="400"/>
+      <c r="D99" s="289"/>
+      <c r="E99" s="289"/>
+      <c r="F99" s="289"/>
+      <c r="G99" s="289"/>
+      <c r="H99" s="289"/>
+      <c r="I99" s="289"/>
+      <c r="J99" s="289"/>
+      <c r="K99" s="289"/>
+      <c r="L99" s="367"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B100" s="320"/>
+      <c r="C100" s="400"/>
+      <c r="D100" s="289"/>
+      <c r="E100" s="289"/>
+      <c r="F100" s="289"/>
+      <c r="G100" s="289"/>
+      <c r="H100" s="289"/>
+      <c r="I100" s="289"/>
+      <c r="J100" s="289"/>
+      <c r="K100" s="289"/>
+      <c r="L100" s="367"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B101" s="264" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="265"/>
+      <c r="D101" s="265"/>
+      <c r="E101" s="265"/>
+      <c r="F101" s="265"/>
+      <c r="G101" s="265"/>
+      <c r="H101" s="265"/>
+      <c r="I101" s="265"/>
+      <c r="J101" s="265"/>
+      <c r="K101" s="265"/>
+      <c r="L101" s="266"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B102" s="384"/>
+      <c r="C102" s="400"/>
+      <c r="D102" s="289"/>
+      <c r="E102" s="289"/>
+      <c r="F102" s="289"/>
+      <c r="G102" s="289"/>
+      <c r="H102" s="289"/>
+      <c r="I102" s="289"/>
+      <c r="J102" s="289"/>
+      <c r="K102" s="289"/>
+      <c r="L102" s="367"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B103" s="384"/>
+      <c r="C103" s="400"/>
+      <c r="D103" s="289"/>
+      <c r="E103" s="289"/>
+      <c r="F103" s="289"/>
+      <c r="G103" s="289"/>
+      <c r="H103" s="289"/>
+      <c r="I103" s="289"/>
+      <c r="J103" s="289"/>
+      <c r="K103" s="289"/>
+      <c r="L103" s="367"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" s="377"/>
+      <c r="C104" s="400"/>
+      <c r="D104" s="289"/>
+      <c r="E104" s="289"/>
+      <c r="F104" s="289"/>
+      <c r="G104" s="289"/>
+      <c r="H104" s="289"/>
+      <c r="I104" s="289"/>
+      <c r="J104" s="289"/>
+      <c r="K104" s="289"/>
+      <c r="L104" s="367"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="264" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" s="265"/>
+      <c r="D105" s="265"/>
+      <c r="E105" s="265"/>
+      <c r="F105" s="265"/>
+      <c r="G105" s="265"/>
+      <c r="H105" s="265"/>
+      <c r="I105" s="265"/>
+      <c r="J105" s="265"/>
+      <c r="K105" s="265"/>
+      <c r="L105" s="266"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" s="384"/>
+      <c r="C106" s="400"/>
+      <c r="D106" s="289"/>
+      <c r="E106" s="289"/>
+      <c r="F106" s="289"/>
+      <c r="G106" s="289"/>
+      <c r="H106" s="289"/>
+      <c r="I106" s="289"/>
+      <c r="J106" s="289"/>
+      <c r="K106" s="289"/>
+      <c r="L106" s="367"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B107" s="384"/>
+      <c r="C107" s="400"/>
+      <c r="D107" s="289"/>
+      <c r="E107" s="289"/>
+      <c r="F107" s="289"/>
+      <c r="G107" s="289"/>
+      <c r="H107" s="289"/>
+      <c r="I107" s="289"/>
+      <c r="J107" s="289"/>
+      <c r="K107" s="289"/>
+      <c r="L107" s="367"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" s="384"/>
+      <c r="C108" s="400"/>
+      <c r="D108" s="289"/>
+      <c r="E108" s="289"/>
+      <c r="F108" s="289"/>
+      <c r="G108" s="289"/>
+      <c r="H108" s="289"/>
+      <c r="I108" s="289"/>
+      <c r="J108" s="289"/>
+      <c r="K108" s="289"/>
+      <c r="L108" s="367"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" s="363" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="364"/>
+      <c r="D109" s="364"/>
+      <c r="E109" s="364"/>
+      <c r="F109" s="364"/>
+      <c r="G109" s="364"/>
+      <c r="H109" s="364"/>
+      <c r="I109" s="364"/>
+      <c r="J109" s="364"/>
+      <c r="K109" s="364"/>
+      <c r="L109" s="365"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B110" s="366"/>
+      <c r="C110" s="289"/>
+      <c r="D110" s="289"/>
+      <c r="E110" s="289"/>
+      <c r="F110" s="289"/>
+      <c r="G110" s="289"/>
+      <c r="H110" s="289"/>
+      <c r="I110" s="289"/>
+      <c r="J110" s="289"/>
+      <c r="K110" s="289"/>
+      <c r="L110" s="367"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B111" s="366"/>
+      <c r="C111" s="289"/>
+      <c r="D111" s="289"/>
+      <c r="E111" s="289"/>
+      <c r="F111" s="289"/>
+      <c r="G111" s="289"/>
+      <c r="H111" s="289"/>
+      <c r="I111" s="289"/>
+      <c r="J111" s="289"/>
+      <c r="K111" s="289"/>
+      <c r="L111" s="367"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B112" s="366"/>
+      <c r="C112" s="289"/>
+      <c r="D112" s="289"/>
+      <c r="E112" s="289"/>
+      <c r="F112" s="289"/>
+      <c r="G112" s="289"/>
+      <c r="H112" s="289"/>
+      <c r="I112" s="289"/>
+      <c r="J112" s="289"/>
+      <c r="K112" s="289"/>
+      <c r="L112" s="367"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" s="366"/>
+      <c r="C113" s="289"/>
+      <c r="D113" s="289"/>
+      <c r="E113" s="289"/>
+      <c r="F113" s="289"/>
+      <c r="G113" s="289"/>
+      <c r="H113" s="289"/>
+      <c r="I113" s="289"/>
+      <c r="J113" s="289"/>
+      <c r="K113" s="289"/>
+      <c r="L113" s="367"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114" s="368"/>
+      <c r="C114" s="369"/>
+      <c r="D114" s="369"/>
+      <c r="E114" s="369"/>
+      <c r="F114" s="369"/>
+      <c r="G114" s="378"/>
+      <c r="H114" s="369"/>
+      <c r="I114" s="369"/>
+      <c r="J114" s="369"/>
+      <c r="K114" s="369"/>
+      <c r="L114" s="370"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" s="371"/>
+      <c r="C115" s="372"/>
+      <c r="D115" s="372"/>
+      <c r="E115" s="372"/>
+      <c r="F115" s="372"/>
+      <c r="G115" s="379"/>
+      <c r="H115" s="372"/>
+      <c r="I115" s="372"/>
+      <c r="J115" s="372"/>
+      <c r="K115" s="372"/>
+      <c r="L115" s="373"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="371"/>
+      <c r="C116" s="372"/>
+      <c r="D116" s="372"/>
+      <c r="E116" s="372"/>
+      <c r="F116" s="372"/>
+      <c r="G116" s="379"/>
+      <c r="H116" s="372"/>
+      <c r="I116" s="372"/>
+      <c r="J116" s="372"/>
+      <c r="K116" s="372"/>
+      <c r="L116" s="373"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" s="385"/>
+      <c r="C117" s="386"/>
+      <c r="D117" s="386"/>
+      <c r="E117" s="386"/>
+      <c r="F117" s="386"/>
+      <c r="G117" s="416"/>
+      <c r="H117" s="386"/>
+      <c r="I117" s="386"/>
+      <c r="J117" s="386"/>
+      <c r="K117" s="386"/>
+      <c r="L117" s="387"/>
+    </row>
+    <row r="118" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="413" t="s">
+        <v>396</v>
+      </c>
+      <c r="C118" s="414"/>
+      <c r="D118" s="414"/>
+      <c r="E118" s="414"/>
+      <c r="F118" s="414"/>
+      <c r="G118" s="417"/>
+      <c r="H118" s="414" t="s">
+        <v>397</v>
+      </c>
+      <c r="I118" s="414"/>
+      <c r="J118" s="414"/>
+      <c r="K118" s="414"/>
+      <c r="L118" s="415"/>
+    </row>
+  </sheetData>
+  <mergeCells count="142">
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C106:L106"/>
+    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="C108:L108"/>
+    <mergeCell ref="B114:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H114:L117"/>
+    <mergeCell ref="C98:L98"/>
+    <mergeCell ref="C99:L99"/>
+    <mergeCell ref="C100:L100"/>
+    <mergeCell ref="C102:L102"/>
+    <mergeCell ref="C103:L103"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="C86:L86"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C76:L76"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B112:L112"/>
+    <mergeCell ref="B113:L113"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="B109:L109"/>
+    <mergeCell ref="B110:L110"/>
+    <mergeCell ref="C94:L94"/>
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="C96:L96"/>
+    <mergeCell ref="C97:L97"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="C93:L93"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="C78:L78"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="B66:J69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E35:K36"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="F21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:L12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -20872,10 +24004,10 @@
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="176" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="175" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="186" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="186" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="185" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="185" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -20896,19 +24028,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="31"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="166"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="76"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="33"/>
       <c r="C3" s="75"/>
-      <c r="D3" s="167"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
@@ -20916,12 +24048,12 @@
         <v>303</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="167"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="224" t="s">
         <v>276</v>
       </c>
       <c r="F4" s="225"/>
-      <c r="G4" s="178">
+      <c r="G4" s="177">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
       </c>
@@ -20929,10 +24061,10 @@
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
-      <c r="D5" s="168"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7" s="96" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="97" t="s">
@@ -20941,16 +24073,16 @@
       <c r="C6" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="168" t="s">
         <v>272</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="179" t="s">
+      <c r="F6" s="178" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="179" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20964,10 +24096,10 @@
       <c r="C7" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="170"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182">
+      <c r="F7" s="180"/>
+      <c r="G7" s="181">
         <f>SUM(G8:G13)</f>
         <v>116000</v>
       </c>
@@ -20980,16 +24112,16 @@
       <c r="C8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="170">
         <v>1</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="183">
+      <c r="F8" s="182">
         <v>10000</v>
       </c>
-      <c r="G8" s="183">
+      <c r="G8" s="182">
         <f t="shared" ref="G8:G13" si="0">D8*F8</f>
         <v>10000</v>
       </c>
@@ -21002,16 +24134,16 @@
       <c r="C9" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="171">
         <v>1</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="183">
+      <c r="F9" s="182">
         <v>4000</v>
       </c>
-      <c r="G9" s="183">
+      <c r="G9" s="182">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -21024,16 +24156,16 @@
       <c r="C10" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="171">
         <v>1</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="183">
+      <c r="F10" s="182">
         <v>30000</v>
       </c>
-      <c r="G10" s="183">
+      <c r="G10" s="182">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -21046,16 +24178,16 @@
       <c r="C11" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="171">
         <v>1</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="183">
+      <c r="F11" s="182">
         <v>30000</v>
       </c>
-      <c r="G11" s="183">
+      <c r="G11" s="182">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -21068,16 +24200,16 @@
       <c r="C12" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>1</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="183">
+      <c r="F12" s="182">
         <v>40000</v>
       </c>
-      <c r="G12" s="183">
+      <c r="G12" s="182">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -21090,16 +24222,16 @@
       <c r="C13" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="172">
         <v>50</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="183">
+      <c r="F13" s="182">
         <v>40</v>
       </c>
-      <c r="G13" s="183">
+      <c r="G13" s="182">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -21114,10 +24246,10 @@
       <c r="C14" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="78"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="185">
+      <c r="F14" s="183"/>
+      <c r="G14" s="184">
         <f>SUM(G15:G19)</f>
         <v>9602.2999999999993</v>
       </c>
@@ -21130,16 +24262,16 @@
       <c r="C15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="172">
+      <c r="D15" s="171">
         <v>125</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="183">
+      <c r="F15" s="182">
         <v>15.59</v>
       </c>
-      <c r="G15" s="183">
+      <c r="G15" s="182">
         <f>D15*F15</f>
         <v>1948.75</v>
       </c>
@@ -21152,16 +24284,16 @@
       <c r="C16" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="172">
+      <c r="D16" s="171">
         <v>45</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="182">
         <v>79.989999999999995</v>
       </c>
-      <c r="G16" s="183">
+      <c r="G16" s="182">
         <f>D16*F16</f>
         <v>3599.5499999999997</v>
       </c>
@@ -21174,16 +24306,16 @@
       <c r="C17" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="172">
+      <c r="D17" s="171">
         <v>4.5</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="183">
+      <c r="F17" s="182">
         <v>318</v>
       </c>
-      <c r="G17" s="183">
+      <c r="G17" s="182">
         <f>D17*F17</f>
         <v>1431</v>
       </c>
@@ -21196,16 +24328,16 @@
       <c r="C18" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="171">
         <v>1</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="183">
+      <c r="F18" s="182">
         <v>1900</v>
       </c>
-      <c r="G18" s="183">
+      <c r="G18" s="182">
         <f>D18*F18</f>
         <v>1900</v>
       </c>
@@ -21218,16 +24350,16 @@
       <c r="C19" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="172">
+      <c r="D19" s="171">
         <v>300</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="183">
+      <c r="F19" s="182">
         <v>2.41</v>
       </c>
-      <c r="G19" s="183">
+      <c r="G19" s="182">
         <f>D19*F19</f>
         <v>723</v>
       </c>
@@ -21242,10 +24374,10 @@
       <c r="C20" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="174"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="185">
+      <c r="F20" s="183"/>
+      <c r="G20" s="184">
         <f>SUM(G21:G24)</f>
         <v>12936</v>
       </c>
@@ -21258,16 +24390,16 @@
       <c r="C21" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="172">
+      <c r="D21" s="171">
         <v>44</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="183">
+      <c r="F21" s="182">
         <v>40</v>
       </c>
-      <c r="G21" s="183">
+      <c r="G21" s="182">
         <f>D21*F21</f>
         <v>1760</v>
       </c>
@@ -21282,16 +24414,16 @@
       <c r="C22" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="172">
+      <c r="D22" s="171">
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="183">
+      <c r="F22" s="182">
         <v>40</v>
       </c>
-      <c r="G22" s="183">
+      <c r="G22" s="182">
         <f>D22*F22</f>
         <v>176</v>
       </c>
@@ -21304,16 +24436,16 @@
       <c r="C23" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D23" s="171">
         <v>1</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="183">
+      <c r="F23" s="182">
         <v>1000</v>
       </c>
-      <c r="G23" s="183">
+      <c r="G23" s="182">
         <f>D23*F23</f>
         <v>1000</v>
       </c>
@@ -21326,16 +24458,16 @@
       <c r="C24" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="172">
+      <c r="D24" s="171">
         <v>1</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="183">
+      <c r="F24" s="182">
         <v>10000</v>
       </c>
-      <c r="G24" s="183">
+      <c r="G24" s="182">
         <f>D24*F24</f>
         <v>10000</v>
       </c>
@@ -21350,10 +24482,10 @@
       <c r="C25" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="174"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="185">
+      <c r="F25" s="183"/>
+      <c r="G25" s="184">
         <f>SUM(G26:G34)</f>
         <v>189980</v>
       </c>
@@ -21366,16 +24498,16 @@
       <c r="C26" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="172">
+      <c r="D26" s="171">
         <v>12</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="183">
+      <c r="F26" s="182">
         <v>7000</v>
       </c>
-      <c r="G26" s="183">
+      <c r="G26" s="182">
         <f>D26*F26</f>
         <v>84000</v>
       </c>
@@ -21388,16 +24520,16 @@
       <c r="C27" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="172">
+      <c r="D27" s="171">
         <v>12</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="183">
+      <c r="F27" s="182">
         <v>5000</v>
       </c>
-      <c r="G27" s="183">
+      <c r="G27" s="182">
         <f t="shared" ref="G27:G46" si="1">D27*F27</f>
         <v>60000</v>
       </c>
@@ -21410,16 +24542,16 @@
       <c r="C28" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="172">
+      <c r="D28" s="171">
         <v>12</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="183">
+      <c r="F28" s="182">
         <v>800</v>
       </c>
-      <c r="G28" s="183">
+      <c r="G28" s="182">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
@@ -21432,16 +24564,16 @@
       <c r="C29" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="172">
+      <c r="D29" s="171">
         <v>12</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="183">
+      <c r="F29" s="182">
         <v>2200</v>
       </c>
-      <c r="G29" s="183">
+      <c r="G29" s="182">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -21454,16 +24586,16 @@
       <c r="C30" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="172">
+      <c r="D30" s="171">
         <v>12</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="183">
+      <c r="F30" s="182">
         <v>400</v>
       </c>
-      <c r="G30" s="183">
+      <c r="G30" s="182">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
@@ -21476,16 +24608,16 @@
       <c r="C31" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="172">
+      <c r="D31" s="171">
         <v>12</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="183">
+      <c r="F31" s="182">
         <v>200</v>
       </c>
-      <c r="G31" s="183">
+      <c r="G31" s="182">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
@@ -21498,16 +24630,16 @@
       <c r="C32" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="172">
+      <c r="D32" s="171">
         <v>12</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="183">
+      <c r="F32" s="182">
         <v>40</v>
       </c>
-      <c r="G32" s="183">
+      <c r="G32" s="182">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
@@ -21520,16 +24652,16 @@
       <c r="C33" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="172">
+      <c r="D33" s="171">
         <v>1</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="183">
+      <c r="F33" s="182">
         <v>1900</v>
       </c>
-      <c r="G33" s="183">
+      <c r="G33" s="182">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
@@ -21542,16 +24674,16 @@
       <c r="C34" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="172">
+      <c r="D34" s="171">
         <v>1</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="183">
+      <c r="F34" s="182">
         <v>400</v>
       </c>
-      <c r="G34" s="183">
+      <c r="G34" s="182">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -21566,10 +24698,10 @@
       <c r="C35" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="174"/>
+      <c r="D35" s="173"/>
       <c r="E35" s="78"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="185">
+      <c r="F35" s="183"/>
+      <c r="G35" s="184">
         <f>SUM(G36)</f>
         <v>8400</v>
       </c>
@@ -21582,16 +24714,16 @@
       <c r="C36" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="172">
+      <c r="D36" s="171">
         <v>210</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="183">
+      <c r="F36" s="182">
         <v>40</v>
       </c>
-      <c r="G36" s="183">
+      <c r="G36" s="182">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
@@ -21606,10 +24738,10 @@
       <c r="C37" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="174"/>
+      <c r="D37" s="173"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="185">
+      <c r="F37" s="183"/>
+      <c r="G37" s="184">
         <f>SUM(G38)</f>
         <v>2560</v>
       </c>
@@ -21622,16 +24754,16 @@
       <c r="C38" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="172">
+      <c r="D38" s="171">
         <v>16</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="183">
+      <c r="F38" s="182">
         <v>160</v>
       </c>
-      <c r="G38" s="183">
+      <c r="G38" s="182">
         <f t="shared" si="1"/>
         <v>2560</v>
       </c>
@@ -21646,10 +24778,10 @@
       <c r="C39" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="174"/>
+      <c r="D39" s="173"/>
       <c r="E39" s="78"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="185">
+      <c r="F39" s="183"/>
+      <c r="G39" s="184">
         <f>SUM(G40:G42)</f>
         <v>2818.5</v>
       </c>
@@ -21662,16 +24794,16 @@
       <c r="C40" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="172">
+      <c r="D40" s="171">
         <v>350</v>
       </c>
       <c r="E40" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="183">
+      <c r="F40" s="182">
         <v>2.41</v>
       </c>
-      <c r="G40" s="183">
+      <c r="G40" s="182">
         <f t="shared" si="1"/>
         <v>843.5</v>
       </c>
@@ -21684,16 +24816,16 @@
       <c r="C41" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="172">
+      <c r="D41" s="171">
         <v>25</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="183">
+      <c r="F41" s="182">
         <v>25</v>
       </c>
-      <c r="G41" s="183">
+      <c r="G41" s="182">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -21706,16 +24838,16 @@
       <c r="C42" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="172">
+      <c r="D42" s="171">
         <v>90</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="183">
+      <c r="F42" s="182">
         <v>15</v>
       </c>
-      <c r="G42" s="183">
+      <c r="G42" s="182">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
@@ -21730,10 +24862,10 @@
       <c r="C43" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="174"/>
+      <c r="D43" s="173"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185">
+      <c r="F43" s="183"/>
+      <c r="G43" s="184">
         <f>SUM(G44:G46)</f>
         <v>28550</v>
       </c>
@@ -21746,16 +24878,16 @@
       <c r="C44" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="172">
+      <c r="D44" s="171">
         <v>25</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="183">
+      <c r="F44" s="182">
         <v>350</v>
       </c>
-      <c r="G44" s="183">
+      <c r="G44" s="182">
         <f t="shared" si="1"/>
         <v>8750</v>
       </c>
@@ -21768,16 +24900,16 @@
       <c r="C45" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="172">
+      <c r="D45" s="171">
         <v>45</v>
       </c>
       <c r="E45" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="183">
+      <c r="F45" s="182">
         <v>40</v>
       </c>
-      <c r="G45" s="183">
+      <c r="G45" s="182">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -21790,16 +24922,16 @@
       <c r="C46" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="172">
+      <c r="D46" s="171">
         <v>3000</v>
       </c>
       <c r="E46" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="183">
+      <c r="F46" s="182">
         <v>6</v>
       </c>
-      <c r="G46" s="183">
+      <c r="G46" s="182">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
@@ -21814,10 +24946,10 @@
       <c r="C47" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="174"/>
+      <c r="D47" s="173"/>
       <c r="E47" s="78"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="185">
+      <c r="F47" s="183"/>
+      <c r="G47" s="184">
         <f>SUM(G48:G50)</f>
         <v>792500</v>
       </c>
@@ -21830,16 +24962,16 @@
       <c r="C48" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="172">
+      <c r="D48" s="171">
         <v>750</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="183">
+      <c r="F48" s="182">
         <v>350</v>
       </c>
-      <c r="G48" s="183">
+      <c r="G48" s="182">
         <f>D48*F48</f>
         <v>262500</v>
       </c>
@@ -21852,16 +24984,16 @@
       <c r="C49" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="172">
+      <c r="D49" s="171">
         <v>2000</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="183">
+      <c r="F49" s="182">
         <v>40</v>
       </c>
-      <c r="G49" s="183">
+      <c r="G49" s="182">
         <f>D49*F49</f>
         <v>80000</v>
       </c>
@@ -21874,16 +25006,16 @@
       <c r="C50" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="172">
+      <c r="D50" s="171">
         <v>75000</v>
       </c>
       <c r="E50" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="183">
+      <c r="F50" s="182">
         <v>6</v>
       </c>
-      <c r="G50" s="183">
+      <c r="G50" s="182">
         <f>D50*F50</f>
         <v>450000</v>
       </c>
@@ -21898,10 +25030,10 @@
       <c r="C51" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="174"/>
+      <c r="D51" s="173"/>
       <c r="E51" s="78"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185">
+      <c r="F51" s="183"/>
+      <c r="G51" s="184">
         <f>SUM(G52)</f>
         <v>92500</v>
       </c>
@@ -21914,16 +25046,16 @@
       <c r="C52" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="172">
+      <c r="D52" s="171">
         <v>2500</v>
       </c>
       <c r="E52" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="183">
+      <c r="F52" s="182">
         <v>37</v>
       </c>
-      <c r="G52" s="183">
+      <c r="G52" s="182">
         <f>D52*F52</f>
         <v>92500</v>
       </c>
@@ -21938,10 +25070,10 @@
       <c r="C53" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="174"/>
+      <c r="D53" s="173"/>
       <c r="E53" s="78"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185">
+      <c r="F53" s="183"/>
+      <c r="G53" s="184">
         <f>SUM(G54:G54)</f>
         <v>62000</v>
       </c>
@@ -21954,16 +25086,16 @@
       <c r="C54" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="172">
+      <c r="D54" s="171">
         <v>200</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="183">
+      <c r="F54" s="182">
         <v>310</v>
       </c>
-      <c r="G54" s="183">
+      <c r="G54" s="182">
         <f>D54*F54</f>
         <v>62000</v>
       </c>
@@ -21978,10 +25110,10 @@
       <c r="C55" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="174"/>
+      <c r="D55" s="173"/>
       <c r="E55" s="78"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="185">
+      <c r="F55" s="183"/>
+      <c r="G55" s="184">
         <f>SUM(G56:G56)</f>
         <v>17192</v>
       </c>
@@ -21994,16 +25126,16 @@
       <c r="C56" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="172">
+      <c r="D56" s="171">
         <v>800</v>
       </c>
       <c r="E56" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="183">
+      <c r="F56" s="182">
         <v>21.49</v>
       </c>
-      <c r="G56" s="183">
+      <c r="G56" s="182">
         <f>D56*F56</f>
         <v>17192</v>
       </c>
@@ -22018,10 +25150,10 @@
       <c r="C57" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="174"/>
+      <c r="D57" s="173"/>
       <c r="E57" s="78"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="185">
+      <c r="F57" s="183"/>
+      <c r="G57" s="184">
         <f>SUM(G58)</f>
         <v>18828</v>
       </c>
@@ -22034,16 +25166,16 @@
       <c r="C58" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="172">
+      <c r="D58" s="171">
         <v>1200</v>
       </c>
       <c r="E58" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="183">
+      <c r="F58" s="182">
         <v>15.69</v>
       </c>
-      <c r="G58" s="183">
+      <c r="G58" s="182">
         <f>D58*F58</f>
         <v>18828</v>
       </c>
@@ -22058,10 +25190,10 @@
       <c r="C59" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="D59" s="174"/>
+      <c r="D59" s="173"/>
       <c r="E59" s="78"/>
-      <c r="F59" s="184"/>
-      <c r="G59" s="185">
+      <c r="F59" s="183"/>
+      <c r="G59" s="184">
         <f>SUM(G60:G61)</f>
         <v>41510</v>
       </c>
@@ -22074,16 +25206,16 @@
       <c r="C60" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="172">
+      <c r="D60" s="171">
         <v>3100</v>
       </c>
       <c r="E60" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="183">
+      <c r="F60" s="182">
         <v>12</v>
       </c>
-      <c r="G60" s="183">
+      <c r="G60" s="182">
         <f>D60*F60</f>
         <v>37200</v>
       </c>
@@ -22096,16 +25228,16 @@
       <c r="C61" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="172">
+      <c r="D61" s="171">
         <v>1000</v>
       </c>
       <c r="E61" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="183">
+      <c r="F61" s="182">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G61" s="183">
+      <c r="G61" s="182">
         <f>D61*F61</f>
         <v>4310</v>
       </c>
@@ -22120,10 +25252,10 @@
       <c r="C62" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="174"/>
+      <c r="D62" s="173"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="184"/>
-      <c r="G62" s="185">
+      <c r="F62" s="183"/>
+      <c r="G62" s="184">
         <f>SUM(G63:G68)</f>
         <v>880000</v>
       </c>
@@ -22136,16 +25268,16 @@
       <c r="C63" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="172">
+      <c r="D63" s="171">
         <v>1</v>
       </c>
       <c r="E63" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="183">
+      <c r="F63" s="182">
         <v>280000</v>
       </c>
-      <c r="G63" s="183">
+      <c r="G63" s="182">
         <f t="shared" ref="G63:G74" si="2">D63*F63</f>
         <v>280000</v>
       </c>
@@ -22158,16 +25290,16 @@
       <c r="C64" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="172">
+      <c r="D64" s="171">
         <v>1</v>
       </c>
       <c r="E64" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="183">
+      <c r="F64" s="182">
         <v>35000</v>
       </c>
-      <c r="G64" s="183">
+      <c r="G64" s="182">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
@@ -22180,16 +25312,16 @@
       <c r="C65" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="172">
+      <c r="D65" s="171">
         <v>1</v>
       </c>
       <c r="E65" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="183">
+      <c r="F65" s="182">
         <v>15000</v>
       </c>
-      <c r="G65" s="183">
+      <c r="G65" s="182">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
@@ -22202,16 +25334,16 @@
       <c r="C66" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="172">
+      <c r="D66" s="171">
         <v>1</v>
       </c>
       <c r="E66" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="183">
+      <c r="F66" s="182">
         <v>350000</v>
       </c>
-      <c r="G66" s="183">
+      <c r="G66" s="182">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -22224,16 +25356,16 @@
       <c r="C67" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="172">
+      <c r="D67" s="171">
         <v>1</v>
       </c>
       <c r="E67" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="183">
+      <c r="F67" s="182">
         <v>50000</v>
       </c>
-      <c r="G67" s="183">
+      <c r="G67" s="182">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -22246,16 +25378,16 @@
       <c r="C68" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="172">
+      <c r="D68" s="171">
         <v>1</v>
       </c>
       <c r="E68" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="183">
+      <c r="F68" s="182">
         <v>150000</v>
       </c>
-      <c r="G68" s="183">
+      <c r="G68" s="182">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
@@ -22270,10 +25402,10 @@
       <c r="C69" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="174"/>
+      <c r="D69" s="173"/>
       <c r="E69" s="78"/>
-      <c r="F69" s="184"/>
-      <c r="G69" s="185">
+      <c r="F69" s="183"/>
+      <c r="G69" s="184">
         <f>SUM(G70)</f>
         <v>40000</v>
       </c>
@@ -22286,16 +25418,16 @@
       <c r="C70" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="172">
+      <c r="D70" s="171">
         <v>2</v>
       </c>
       <c r="E70" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="183">
+      <c r="F70" s="182">
         <v>20000</v>
       </c>
-      <c r="G70" s="183">
+      <c r="G70" s="182">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
@@ -22310,10 +25442,10 @@
       <c r="C71" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="174"/>
+      <c r="D71" s="173"/>
       <c r="E71" s="78"/>
-      <c r="F71" s="184"/>
-      <c r="G71" s="185">
+      <c r="F71" s="183"/>
+      <c r="G71" s="184">
         <f>SUM(G72:G74)</f>
         <v>25900</v>
       </c>
@@ -22326,16 +25458,16 @@
       <c r="C72" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="172">
+      <c r="D72" s="171">
         <v>1</v>
       </c>
       <c r="E72" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="183">
+      <c r="F72" s="182">
         <v>1000</v>
       </c>
-      <c r="G72" s="183">
+      <c r="G72" s="182">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -22348,16 +25480,16 @@
       <c r="C73" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="172">
+      <c r="D73" s="171">
         <v>1</v>
       </c>
       <c r="E73" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="183">
+      <c r="F73" s="182">
         <v>20000</v>
       </c>
-      <c r="G73" s="183">
+      <c r="G73" s="182">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -22370,95 +25502,95 @@
       <c r="C74" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="172">
+      <c r="D74" s="171">
         <v>1</v>
       </c>
       <c r="E74" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="183">
+      <c r="F74" s="182">
         <v>4900</v>
       </c>
-      <c r="G74" s="183">
+      <c r="G74" s="182">
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D75" s="175"/>
+      <c r="D75" s="174"/>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D76" s="175"/>
+      <c r="D76" s="174"/>
       <c r="E76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="187"/>
-      <c r="G76" s="187"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="186"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D77" s="175"/>
+      <c r="D77" s="174"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="175"/>
+      <c r="D78" s="174"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="175"/>
+      <c r="D79" s="174"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="175"/>
+      <c r="D80" s="174"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="175"/>
+      <c r="D81" s="174"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="175"/>
+      <c r="D82" s="174"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="175"/>
+      <c r="D83" s="174"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="175"/>
+      <c r="D84" s="174"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="175"/>
+      <c r="D85" s="174"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="175"/>
+      <c r="D86" s="174"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="175"/>
+      <c r="D87" s="174"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="175"/>
+      <c r="D88" s="174"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="175"/>
+      <c r="D89" s="174"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="175"/>
+      <c r="D90" s="174"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="175"/>
+      <c r="D91" s="174"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="175"/>
+      <c r="D92" s="174"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="175"/>
+      <c r="D93" s="174"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="175"/>
+      <c r="D94" s="174"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="175"/>
+      <c r="D95" s="174"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="175"/>
+      <c r="D96" s="174"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="175"/>
+      <c r="D97" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22478,7 +25610,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AR167"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -22508,33 +25640,33 @@
   <sheetData>
     <row r="1" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="229" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
     </row>
     <row r="2" spans="1:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -22753,60 +25885,60 @@
       <c r="B6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="259">
+      <c r="C6" s="220">
         <f>'FÍSICO SEMANAL'!B7</f>
         <v>44661</v>
       </c>
-      <c r="I6" s="256">
+      <c r="I6" s="226">
         <f>I7</f>
         <v>44661</v>
       </c>
-      <c r="J6" s="257"/>
-      <c r="K6" s="257"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="256">
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="226">
         <f ca="1">P7</f>
-        <v>44664</v>
-      </c>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="257"/>
-      <c r="S6" s="257"/>
-      <c r="T6" s="257"/>
-      <c r="U6" s="257"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="256">
+        <v>44668</v>
+      </c>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="228"/>
+      <c r="W6" s="226">
         <f ca="1">W7</f>
-        <v>44664</v>
-      </c>
-      <c r="X6" s="257"/>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="257"/>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="257"/>
-      <c r="AC6" s="258"/>
-      <c r="AD6" s="256">
+        <v>44668</v>
+      </c>
+      <c r="X6" s="227"/>
+      <c r="Y6" s="227"/>
+      <c r="Z6" s="227"/>
+      <c r="AA6" s="227"/>
+      <c r="AB6" s="227"/>
+      <c r="AC6" s="228"/>
+      <c r="AD6" s="226">
         <f ca="1">AD7</f>
-        <v>44664</v>
-      </c>
-      <c r="AE6" s="257"/>
-      <c r="AF6" s="257"/>
-      <c r="AG6" s="257"/>
-      <c r="AH6" s="257"/>
-      <c r="AI6" s="257"/>
-      <c r="AJ6" s="258"/>
-      <c r="AK6" s="256">
+        <v>44668</v>
+      </c>
+      <c r="AE6" s="227"/>
+      <c r="AF6" s="227"/>
+      <c r="AG6" s="227"/>
+      <c r="AH6" s="227"/>
+      <c r="AI6" s="227"/>
+      <c r="AJ6" s="228"/>
+      <c r="AK6" s="226">
         <f ca="1">AK7</f>
-        <v>44664</v>
-      </c>
-      <c r="AL6" s="257"/>
-      <c r="AM6" s="257"/>
-      <c r="AN6" s="257"/>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="257"/>
-      <c r="AQ6" s="258"/>
+        <v>44668</v>
+      </c>
+      <c r="AL6" s="227"/>
+      <c r="AM6" s="227"/>
+      <c r="AN6" s="227"/>
+      <c r="AO6" s="227"/>
+      <c r="AP6" s="227"/>
+      <c r="AQ6" s="228"/>
     </row>
     <row r="7" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
@@ -22828,145 +25960,145 @@
       <c r="H7" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="I7" s="255">
+      <c r="I7" s="219">
         <f>C6+I4</f>
         <v>44661</v>
       </c>
-      <c r="J7" s="255">
+      <c r="J7" s="219">
         <f>I7+1</f>
         <v>44662</v>
       </c>
-      <c r="K7" s="255">
-        <f t="shared" ref="K7:Y7" si="0">J7+1</f>
+      <c r="K7" s="219">
+        <f t="shared" ref="K7:O7" si="0">J7+1</f>
         <v>44663</v>
       </c>
-      <c r="L7" s="255">
+      <c r="L7" s="219">
         <f t="shared" si="0"/>
         <v>44664</v>
       </c>
-      <c r="M7" s="255">
+      <c r="M7" s="219">
         <f t="shared" si="0"/>
         <v>44665</v>
       </c>
-      <c r="N7" s="255">
+      <c r="N7" s="219">
         <f t="shared" si="0"/>
         <v>44666</v>
       </c>
-      <c r="O7" s="255">
+      <c r="O7" s="219">
         <f t="shared" si="0"/>
         <v>44667</v>
       </c>
-      <c r="P7" s="255">
+      <c r="P7" s="219">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="Q7" s="255">
+        <v>44668</v>
+      </c>
+      <c r="Q7" s="219">
         <f ca="1">P7+1</f>
-        <v>44665</v>
-      </c>
-      <c r="R7" s="255">
+        <v>44669</v>
+      </c>
+      <c r="R7" s="219">
         <f t="shared" ref="R7:V7" ca="1" si="1">Q7+1</f>
-        <v>44666</v>
-      </c>
-      <c r="S7" s="255">
+        <v>44670</v>
+      </c>
+      <c r="S7" s="219">
         <f t="shared" ca="1" si="1"/>
-        <v>44667</v>
-      </c>
-      <c r="T7" s="255">
+        <v>44671</v>
+      </c>
+      <c r="T7" s="219">
         <f t="shared" ca="1" si="1"/>
+        <v>44672</v>
+      </c>
+      <c r="U7" s="219">
+        <f t="shared" ca="1" si="1"/>
+        <v>44673</v>
+      </c>
+      <c r="V7" s="219">
+        <f t="shared" ca="1" si="1"/>
+        <v>44674</v>
+      </c>
+      <c r="W7" s="219">
+        <f ca="1">TODAY()</f>
         <v>44668</v>
       </c>
-      <c r="U7" s="255">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X7" s="219">
+        <f ca="1">W7+1</f>
         <v>44669</v>
       </c>
-      <c r="V7" s="255">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y7" s="219">
+        <f t="shared" ref="Y7:AC7" ca="1" si="2">X7+1</f>
         <v>44670</v>
       </c>
-      <c r="W7" s="255">
+      <c r="Z7" s="219">
+        <f t="shared" ca="1" si="2"/>
+        <v>44671</v>
+      </c>
+      <c r="AA7" s="219">
+        <f t="shared" ca="1" si="2"/>
+        <v>44672</v>
+      </c>
+      <c r="AB7" s="219">
+        <f t="shared" ca="1" si="2"/>
+        <v>44673</v>
+      </c>
+      <c r="AC7" s="219">
+        <f t="shared" ca="1" si="2"/>
+        <v>44674</v>
+      </c>
+      <c r="AD7" s="219">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="X7" s="255">
-        <f ca="1">W7+1</f>
-        <v>44665</v>
-      </c>
-      <c r="Y7" s="255">
-        <f t="shared" ref="Y7:AC7" ca="1" si="2">X7+1</f>
-        <v>44666</v>
-      </c>
-      <c r="Z7" s="255">
-        <f t="shared" ca="1" si="2"/>
-        <v>44667</v>
-      </c>
-      <c r="AA7" s="255">
-        <f t="shared" ca="1" si="2"/>
         <v>44668</v>
       </c>
-      <c r="AB7" s="255">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AE7" s="219">
+        <f ca="1">AD7+1</f>
         <v>44669</v>
       </c>
-      <c r="AC7" s="255">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AF7" s="219">
+        <f t="shared" ref="AF7:AJ7" ca="1" si="3">AE7+1</f>
         <v>44670</v>
       </c>
-      <c r="AD7" s="255">
+      <c r="AG7" s="219">
+        <f t="shared" ca="1" si="3"/>
+        <v>44671</v>
+      </c>
+      <c r="AH7" s="219">
+        <f t="shared" ca="1" si="3"/>
+        <v>44672</v>
+      </c>
+      <c r="AI7" s="219">
+        <f t="shared" ca="1" si="3"/>
+        <v>44673</v>
+      </c>
+      <c r="AJ7" s="219">
+        <f t="shared" ca="1" si="3"/>
+        <v>44674</v>
+      </c>
+      <c r="AK7" s="219">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="AE7" s="255">
-        <f ca="1">AD7+1</f>
-        <v>44665</v>
-      </c>
-      <c r="AF7" s="255">
-        <f t="shared" ref="AF7:AJ7" ca="1" si="3">AE7+1</f>
-        <v>44666</v>
-      </c>
-      <c r="AG7" s="255">
-        <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
-      </c>
-      <c r="AH7" s="255">
-        <f t="shared" ca="1" si="3"/>
         <v>44668</v>
       </c>
-      <c r="AI7" s="255">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AL7" s="219">
+        <f ca="1">AK7+1</f>
         <v>44669</v>
       </c>
-      <c r="AJ7" s="255">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AM7" s="219">
+        <f t="shared" ref="AM7:AQ7" ca="1" si="4">AL7+1</f>
         <v>44670</v>
       </c>
-      <c r="AK7" s="255">
-        <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="AL7" s="255">
-        <f ca="1">AK7+1</f>
-        <v>44665</v>
-      </c>
-      <c r="AM7" s="255">
-        <f t="shared" ref="AM7:AQ7" ca="1" si="4">AL7+1</f>
-        <v>44666</v>
-      </c>
-      <c r="AN7" s="255">
+      <c r="AN7" s="219">
         <f t="shared" ca="1" si="4"/>
-        <v>44667</v>
-      </c>
-      <c r="AO7" s="255">
+        <v>44671</v>
+      </c>
+      <c r="AO7" s="219">
         <f t="shared" ca="1" si="4"/>
-        <v>44668</v>
-      </c>
-      <c r="AP7" s="255">
+        <v>44672</v>
+      </c>
+      <c r="AP7" s="219">
         <f t="shared" ca="1" si="4"/>
-        <v>44669</v>
-      </c>
-      <c r="AQ7" s="255">
+        <v>44673</v>
+      </c>
+      <c r="AQ7" s="219">
         <f t="shared" ca="1" si="4"/>
-        <v>44670</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23008,7 +26140,7 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="108"/>
-      <c r="E9" s="226"/>
+      <c r="E9" s="230"/>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
@@ -23153,7 +26285,7 @@
         <v/>
       </c>
       <c r="AR9" s="110">
-        <f>SUM(I9:Y9)</f>
+        <f t="shared" ref="AR9:AR42" si="5">SUM(I9:Y9)</f>
         <v>1</v>
       </c>
     </row>
@@ -23166,7 +26298,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="227"/>
+      <c r="E10" s="231"/>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="143"/>
@@ -23208,7 +26340,7 @@
       <c r="AP10" s="129"/>
       <c r="AQ10" s="129"/>
       <c r="AR10" s="111">
-        <f>SUM(I10:Y10)</f>
+        <f t="shared" si="5"/>
         <v>116000</v>
       </c>
     </row>
@@ -23224,7 +26356,7 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="226" t="s">
+      <c r="E11" s="230" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="143"/>
@@ -23371,7 +26503,7 @@
         <v/>
       </c>
       <c r="AR11" s="110">
-        <f>SUM(I11:Y11)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -23384,7 +26516,7 @@
         <v>285</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="227"/>
+      <c r="E12" s="231"/>
       <c r="F12" s="143"/>
       <c r="G12" s="143"/>
       <c r="H12" s="143"/>
@@ -23426,7 +26558,7 @@
       <c r="AP12" s="129"/>
       <c r="AQ12" s="129"/>
       <c r="AR12" s="111">
-        <f>SUM(I12:Y12)</f>
+        <f t="shared" si="5"/>
         <v>9602.2999999999993</v>
       </c>
     </row>
@@ -23442,7 +26574,7 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="226" t="s">
+      <c r="E13" s="230" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="143"/>
@@ -23589,7 +26721,7 @@
         <v/>
       </c>
       <c r="AR13" s="110">
-        <f>SUM(I13:Y13)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -23604,7 +26736,7 @@
       <c r="D14" s="79">
         <v>2</v>
       </c>
-      <c r="E14" s="227"/>
+      <c r="E14" s="231"/>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
       <c r="H14" s="143"/>
@@ -23650,7 +26782,7 @@
       <c r="AP14" s="135"/>
       <c r="AQ14" s="135"/>
       <c r="AR14" s="111">
-        <f>SUM(I14:Y14)</f>
+        <f t="shared" si="5"/>
         <v>12936</v>
       </c>
     </row>
@@ -23666,7 +26798,7 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="226" t="s">
+      <c r="E15" s="230" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="143"/>
@@ -23813,7 +26945,7 @@
         <v/>
       </c>
       <c r="AR15" s="110">
-        <f>SUM(I15:Y15)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -23826,7 +26958,7 @@
         <v>289</v>
       </c>
       <c r="D16" s="133"/>
-      <c r="E16" s="227"/>
+      <c r="E16" s="231"/>
       <c r="F16" s="143"/>
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
@@ -23902,7 +27034,7 @@
       <c r="AP16" s="135"/>
       <c r="AQ16" s="135"/>
       <c r="AR16" s="111">
-        <f>SUM(I16:Y16)</f>
+        <f t="shared" si="5"/>
         <v>189979.99999999997</v>
       </c>
     </row>
@@ -23918,7 +27050,7 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="226" t="s">
+      <c r="E17" s="230" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="143"/>
@@ -24065,7 +27197,7 @@
         <v/>
       </c>
       <c r="AR17" s="110">
-        <f>SUM(I17:Y17)</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -24078,7 +27210,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="133"/>
-      <c r="E18" s="227"/>
+      <c r="E18" s="231"/>
       <c r="F18" s="143"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
@@ -24151,7 +27283,7 @@
       <c r="AP18" s="135"/>
       <c r="AQ18" s="135"/>
       <c r="AR18" s="111">
-        <f>SUM(I18:Y18)</f>
+        <f t="shared" si="5"/>
         <v>8400.0000000000018</v>
       </c>
     </row>
@@ -24167,7 +27299,7 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="226"/>
+      <c r="E19" s="230"/>
       <c r="F19" s="143"/>
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
@@ -24312,7 +27444,7 @@
         <v/>
       </c>
       <c r="AR19" s="110">
-        <f>SUM(I19:Y19)</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -24325,7 +27457,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="133"/>
-      <c r="E20" s="227"/>
+      <c r="E20" s="231"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
@@ -24398,7 +27530,7 @@
       <c r="AP20" s="135"/>
       <c r="AQ20" s="135"/>
       <c r="AR20" s="111">
-        <f>SUM(I20:Y20)</f>
+        <f t="shared" si="5"/>
         <v>2559.9999999999995</v>
       </c>
     </row>
@@ -24414,7 +27546,7 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="108"/>
-      <c r="E21" s="226"/>
+      <c r="E21" s="230"/>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
       <c r="H21" s="143"/>
@@ -24559,7 +27691,7 @@
         <v/>
       </c>
       <c r="AR21" s="110">
-        <f>SUM(I21:Y21)</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -24572,7 +27704,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="133"/>
-      <c r="E22" s="227"/>
+      <c r="E22" s="231"/>
       <c r="F22" s="143"/>
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
@@ -24638,7 +27770,7 @@
       <c r="AP22" s="135"/>
       <c r="AQ22" s="135"/>
       <c r="AR22" s="111">
-        <f>SUM(I22:Y22)</f>
+        <f t="shared" si="5"/>
         <v>2818.5</v>
       </c>
     </row>
@@ -24654,7 +27786,7 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="E23" s="226"/>
+      <c r="E23" s="230"/>
       <c r="F23" s="143"/>
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
@@ -24700,7 +27832,7 @@
       <c r="AP23" s="136"/>
       <c r="AQ23" s="136"/>
       <c r="AR23" s="110">
-        <f>SUM(I23:Y23)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -24713,7 +27845,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="133"/>
-      <c r="E24" s="227"/>
+      <c r="E24" s="231"/>
       <c r="F24" s="143"/>
       <c r="G24" s="143"/>
       <c r="H24" s="143"/>
@@ -24759,7 +27891,7 @@
       <c r="AP24" s="135"/>
       <c r="AQ24" s="135"/>
       <c r="AR24" s="111">
-        <f>SUM(I24:Y24)</f>
+        <f t="shared" si="5"/>
         <v>28550</v>
       </c>
     </row>
@@ -24775,7 +27907,7 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="108"/>
-      <c r="E25" s="226"/>
+      <c r="E25" s="230"/>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143"/>
@@ -24842,7 +27974,7 @@
       <c r="AP25" s="136"/>
       <c r="AQ25" s="136"/>
       <c r="AR25" s="110">
-        <f>SUM(I25:Y25)</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -24855,7 +27987,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="133"/>
-      <c r="E26" s="227"/>
+      <c r="E26" s="231"/>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
       <c r="H26" s="143"/>
@@ -24922,7 +28054,7 @@
       <c r="AP26" s="135"/>
       <c r="AQ26" s="135"/>
       <c r="AR26" s="111">
-        <f>SUM(I26:Y26)</f>
+        <f t="shared" si="5"/>
         <v>792500</v>
       </c>
     </row>
@@ -24938,7 +28070,7 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="226"/>
+      <c r="E27" s="230"/>
       <c r="F27" s="143"/>
       <c r="G27" s="143"/>
       <c r="H27" s="143"/>
@@ -25002,7 +28134,7 @@
       <c r="AP27" s="136"/>
       <c r="AQ27" s="136"/>
       <c r="AR27" s="110">
-        <f>SUM(I27:Y27)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25015,7 +28147,7 @@
         <v>292</v>
       </c>
       <c r="D28" s="79"/>
-      <c r="E28" s="227"/>
+      <c r="E28" s="231"/>
       <c r="F28" s="143"/>
       <c r="G28" s="143"/>
       <c r="H28" s="143"/>
@@ -25079,7 +28211,7 @@
       <c r="AP28" s="135"/>
       <c r="AQ28" s="135"/>
       <c r="AR28" s="111">
-        <f>SUM(I28:Y28)</f>
+        <f t="shared" si="5"/>
         <v>92500</v>
       </c>
     </row>
@@ -25094,7 +28226,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="108"/>
-      <c r="E29" s="226"/>
+      <c r="E29" s="230"/>
       <c r="F29" s="143"/>
       <c r="G29" s="143"/>
       <c r="H29" s="143"/>
@@ -25137,7 +28269,7 @@
       <c r="AP29" s="136"/>
       <c r="AQ29" s="136"/>
       <c r="AR29" s="110">
-        <f>SUM(I29:Y29)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25150,7 +28282,7 @@
         <v>294</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="227"/>
+      <c r="E30" s="231"/>
       <c r="F30" s="143"/>
       <c r="G30" s="143"/>
       <c r="H30" s="143"/>
@@ -25193,7 +28325,7 @@
       <c r="AP30" s="135"/>
       <c r="AQ30" s="135"/>
       <c r="AR30" s="111">
-        <f>SUM(I30:Y30)</f>
+        <f t="shared" si="5"/>
         <v>62000</v>
       </c>
     </row>
@@ -25209,7 +28341,7 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="108"/>
-      <c r="E31" s="226"/>
+      <c r="E31" s="230"/>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
       <c r="H31" s="143"/>
@@ -25261,7 +28393,7 @@
       <c r="AP31" s="136"/>
       <c r="AQ31" s="136"/>
       <c r="AR31" s="110">
-        <f>SUM(I31:Y31)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25274,7 +28406,7 @@
         <v>295</v>
       </c>
       <c r="D32" s="79"/>
-      <c r="E32" s="227"/>
+      <c r="E32" s="231"/>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
       <c r="H32" s="143"/>
@@ -25326,7 +28458,7 @@
       <c r="AP32" s="135"/>
       <c r="AQ32" s="135"/>
       <c r="AR32" s="111">
-        <f>SUM(I32:Y32)</f>
+        <f t="shared" si="5"/>
         <v>17192</v>
       </c>
     </row>
@@ -25342,7 +28474,7 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="115"/>
-      <c r="E33" s="226"/>
+      <c r="E33" s="230"/>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
       <c r="H33" s="143"/>
@@ -25391,7 +28523,7 @@
       <c r="AP33" s="136"/>
       <c r="AQ33" s="136"/>
       <c r="AR33" s="110">
-        <f>SUM(I33:Y33)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25404,7 +28536,7 @@
         <v>287</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="227"/>
+      <c r="E34" s="231"/>
       <c r="F34" s="143"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
@@ -25453,7 +28585,7 @@
       <c r="AP34" s="135"/>
       <c r="AQ34" s="135"/>
       <c r="AR34" s="111">
-        <f>SUM(I34:Y34)</f>
+        <f t="shared" si="5"/>
         <v>18828</v>
       </c>
     </row>
@@ -25469,7 +28601,7 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="108"/>
-      <c r="E35" s="226"/>
+      <c r="E35" s="230"/>
       <c r="F35" s="143"/>
       <c r="G35" s="143"/>
       <c r="H35" s="143"/>
@@ -25536,7 +28668,7 @@
       <c r="AP35" s="136"/>
       <c r="AQ35" s="136"/>
       <c r="AR35" s="110">
-        <f>SUM(I35:Y35)</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -25549,7 +28681,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="227"/>
+      <c r="E36" s="231"/>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
       <c r="H36" s="143"/>
@@ -25616,7 +28748,7 @@
       <c r="AP36" s="135"/>
       <c r="AQ36" s="135"/>
       <c r="AR36" s="111">
-        <f>SUM(I36:Y36)</f>
+        <f t="shared" si="5"/>
         <v>41510</v>
       </c>
     </row>
@@ -25632,7 +28764,7 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="108"/>
-      <c r="E37" s="226"/>
+      <c r="E37" s="230"/>
       <c r="F37" s="143"/>
       <c r="G37" s="143"/>
       <c r="H37" s="143"/>
@@ -25684,7 +28816,7 @@
       <c r="AP37" s="136"/>
       <c r="AQ37" s="136"/>
       <c r="AR37" s="110">
-        <f>SUM(I37:Y37)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25697,7 +28829,7 @@
         <v>295</v>
       </c>
       <c r="D38" s="79"/>
-      <c r="E38" s="227"/>
+      <c r="E38" s="231"/>
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="143"/>
@@ -25749,7 +28881,7 @@
       <c r="AP38" s="135"/>
       <c r="AQ38" s="135"/>
       <c r="AR38" s="111">
-        <f>SUM(I38:Y38)</f>
+        <f t="shared" si="5"/>
         <v>880000</v>
       </c>
     </row>
@@ -25765,7 +28897,7 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="115"/>
-      <c r="E39" s="226"/>
+      <c r="E39" s="230"/>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
       <c r="H39" s="143"/>
@@ -25808,7 +28940,7 @@
       <c r="AP39" s="136"/>
       <c r="AQ39" s="136"/>
       <c r="AR39" s="110">
-        <f>SUM(I39:Y39)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25821,7 +28953,7 @@
         <v>300</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="227"/>
+      <c r="E40" s="231"/>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
       <c r="H40" s="143"/>
@@ -25864,7 +28996,7 @@
       <c r="AP40" s="135"/>
       <c r="AQ40" s="135"/>
       <c r="AR40" s="111">
-        <f>SUM(I40:Y40)</f>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
@@ -25880,7 +29012,7 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="108"/>
-      <c r="E41" s="226"/>
+      <c r="E41" s="230"/>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
@@ -25926,7 +29058,7 @@
       <c r="AP41" s="136"/>
       <c r="AQ41" s="136"/>
       <c r="AR41" s="110">
-        <f>SUM(I41:Y41)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25939,7 +29071,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="227"/>
+      <c r="E42" s="231"/>
       <c r="F42" s="143"/>
       <c r="G42" s="143"/>
       <c r="H42" s="143"/>
@@ -25985,7 +29117,7 @@
       <c r="AP42" s="135"/>
       <c r="AQ42" s="135"/>
       <c r="AR42" s="111">
-        <f>SUM(I42:Y42)</f>
+        <f t="shared" si="5"/>
         <v>25900</v>
       </c>
     </row>
@@ -26046,143 +29178,143 @@
       <c r="G44" s="104"/>
       <c r="H44" s="104"/>
       <c r="I44" s="105">
-        <f>I45/$AR$46</f>
+        <f t="shared" ref="I44:Y44" si="6">I45/$AR$46</f>
         <v>5.6409519797061158E-2</v>
       </c>
       <c r="J44" s="105">
-        <f>J45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>8.8596957010807099E-3</v>
       </c>
       <c r="K44" s="105">
-        <f>K45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>1.4173235647758653E-2</v>
       </c>
       <c r="L44" s="105">
-        <f>L45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>4.4842636017486642E-2</v>
       </c>
       <c r="M44" s="105">
-        <f>M45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>0.14374700307054078</v>
       </c>
       <c r="N44" s="105">
-        <f>N45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>0.14839755196002802</v>
       </c>
       <c r="O44" s="105">
-        <f>O45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>0.16548224694355154</v>
       </c>
       <c r="P44" s="105">
-        <f>P45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>0.14839755196002802</v>
       </c>
       <c r="Q44" s="105">
-        <f>Q45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>5.3586891383713406E-2</v>
       </c>
       <c r="R44" s="105">
-        <f>R45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>5.3586891383713406E-2</v>
       </c>
       <c r="S44" s="105">
-        <f>S45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>5.3541857195530278E-2</v>
       </c>
       <c r="T44" s="105">
-        <f>T45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>8.0023134419991732E-2</v>
       </c>
       <c r="U44" s="105">
-        <f>U45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>9.1575043690914817E-3</v>
       </c>
       <c r="V44" s="105">
-        <f>V45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>8.731940148592807E-3</v>
       </c>
       <c r="W44" s="105">
-        <f>W45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>5.5311700009157399E-3</v>
       </c>
       <c r="X44" s="105">
-        <f>X45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>5.5311700009157399E-3</v>
       </c>
       <c r="Y44" s="105">
-        <f>Y45/$AR$46</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z44" s="105">
-        <f t="shared" ref="Z44:AQ44" si="5">Z45/$AR$46</f>
+        <f t="shared" ref="Z44:AQ44" si="7">Z45/$AR$46</f>
         <v>0</v>
       </c>
       <c r="AA44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR44" s="105">
@@ -26269,75 +29401,75 @@
         <v>0</v>
       </c>
       <c r="Z45" s="106">
-        <f t="shared" ref="Z45:AQ45" si="6">Z34+Z36</f>
+        <f t="shared" ref="Z45:AQ45" si="8">Z34+Z36</f>
         <v>0</v>
       </c>
       <c r="AA45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ45" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR45" s="106">
@@ -26364,11 +29496,11 @@
         <v>6.5269215498141867E-2</v>
       </c>
       <c r="K46" s="107">
-        <f t="shared" ref="K46:U46" si="7">K44+J46</f>
+        <f t="shared" ref="K46:U46" si="9">K44+J46</f>
         <v>7.9442451145900525E-2</v>
       </c>
       <c r="L46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12428508716338717</v>
       </c>
       <c r="M46" s="107">
@@ -26376,35 +29508,35 @@
         <v>0.26803209023392793</v>
       </c>
       <c r="N46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.41642964219395595</v>
       </c>
       <c r="O46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.58191188913750747</v>
       </c>
       <c r="P46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.73030944109753548</v>
       </c>
       <c r="Q46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7838963324812489</v>
       </c>
       <c r="R46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.83748322386496232</v>
       </c>
       <c r="S46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89102508106049261</v>
       </c>
       <c r="T46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97104821548048437</v>
       </c>
       <c r="U46" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98020571984957583</v>
       </c>
       <c r="V46" s="107">
@@ -26424,75 +29556,75 @@
         <v>1</v>
       </c>
       <c r="Z46" s="107">
-        <f t="shared" ref="Z46:AQ46" si="8">Z44+Y46</f>
+        <f t="shared" ref="Z46:AQ46" si="10">Z44+Y46</f>
         <v>1</v>
       </c>
       <c r="AA46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AC46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AE46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AF46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AG46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AH46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AI46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AK46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AL46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AN46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AP46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ46" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AR46" s="106">
@@ -26910,21 +30042,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -26933,6 +30050,21 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I10:AQ10">
@@ -27244,39 +30376,39 @@
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="R2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="T2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="U2" s="124"/>
       <c r="V2" s="124"/>
@@ -28057,39 +31189,39 @@
       </c>
       <c r="K2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="R2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="T2" s="124"/>
       <c r="U2" s="124"/>
@@ -28684,7 +31816,7 @@
   <dimension ref="B5:AR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28706,429 +31838,429 @@
       <c r="B6" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="201">
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="200">
         <v>0</v>
       </c>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
-      <c r="AF6" s="201"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="201"/>
-      <c r="AI6" s="201"/>
-      <c r="AJ6" s="201"/>
-      <c r="AK6" s="201"/>
-      <c r="AL6" s="201"/>
-      <c r="AM6" s="201"/>
-      <c r="AN6" s="201"/>
-      <c r="AO6" s="201"/>
-      <c r="AP6" s="201"/>
-      <c r="AQ6" s="201"/>
-      <c r="AR6" s="202"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="200"/>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="200"/>
+      <c r="AL6" s="200"/>
+      <c r="AM6" s="200"/>
+      <c r="AN6" s="200"/>
+      <c r="AO6" s="200"/>
+      <c r="AP6" s="200"/>
+      <c r="AQ6" s="200"/>
+      <c r="AR6" s="201"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B7" s="153">
         <v>44661</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="163" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233">
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="235">
         <f>J8</f>
         <v>44661</v>
       </c>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="233"/>
-      <c r="P7" s="234"/>
-      <c r="Q7" s="235">
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="234">
         <f>Q8</f>
         <v>44668</v>
       </c>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="233"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235">
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="234">
         <f t="shared" ref="X7" si="0">X8</f>
         <v>44675</v>
       </c>
-      <c r="Y7" s="233"/>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="233"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="233"/>
-      <c r="AD7" s="234"/>
-      <c r="AE7" s="235">
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="236"/>
+      <c r="AE7" s="234">
         <f t="shared" ref="AE7" si="1">AE8</f>
         <v>44682</v>
       </c>
-      <c r="AF7" s="233"/>
-      <c r="AG7" s="233"/>
-      <c r="AH7" s="233"/>
-      <c r="AI7" s="233"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="234"/>
-      <c r="AL7" s="235">
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="236"/>
+      <c r="AL7" s="234">
         <f t="shared" ref="AL7" si="2">AL8</f>
         <v>44689</v>
       </c>
-      <c r="AM7" s="233"/>
-      <c r="AN7" s="233"/>
-      <c r="AO7" s="233"/>
-      <c r="AP7" s="233"/>
-      <c r="AQ7" s="233"/>
-      <c r="AR7" s="234"/>
+      <c r="AM7" s="235"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235"/>
+      <c r="AP7" s="235"/>
+      <c r="AQ7" s="235"/>
+      <c r="AR7" s="236"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="232" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="239" t="s">
+      <c r="C8" s="233" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="239" t="s">
+      <c r="D8" s="233" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="239" t="s">
+      <c r="E8" s="233" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="236" t="s">
+      <c r="G8" s="237" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="237" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="237" t="s">
+      <c r="I8" s="238" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="203">
+      <c r="J8" s="202">
         <f>B7+J6</f>
         <v>44661</v>
       </c>
-      <c r="K8" s="204">
+      <c r="K8" s="203">
         <f>J8+1</f>
         <v>44662</v>
       </c>
-      <c r="L8" s="205">
+      <c r="L8" s="204">
         <f t="shared" ref="L8:W8" si="3">K8+1</f>
         <v>44663</v>
       </c>
-      <c r="M8" s="204">
+      <c r="M8" s="203">
         <f t="shared" si="3"/>
         <v>44664</v>
       </c>
-      <c r="N8" s="205">
+      <c r="N8" s="204">
         <f t="shared" si="3"/>
         <v>44665</v>
       </c>
-      <c r="O8" s="204">
+      <c r="O8" s="203">
         <f t="shared" si="3"/>
         <v>44666</v>
       </c>
-      <c r="P8" s="206">
+      <c r="P8" s="205">
         <f t="shared" si="3"/>
         <v>44667</v>
       </c>
-      <c r="Q8" s="207">
+      <c r="Q8" s="206">
         <f t="shared" si="3"/>
         <v>44668</v>
       </c>
-      <c r="R8" s="205">
+      <c r="R8" s="204">
         <f t="shared" si="3"/>
         <v>44669</v>
       </c>
-      <c r="S8" s="204">
+      <c r="S8" s="203">
         <f t="shared" si="3"/>
         <v>44670</v>
       </c>
-      <c r="T8" s="205">
+      <c r="T8" s="204">
         <f t="shared" si="3"/>
         <v>44671</v>
       </c>
-      <c r="U8" s="204">
+      <c r="U8" s="203">
         <f t="shared" si="3"/>
         <v>44672</v>
       </c>
-      <c r="V8" s="205">
+      <c r="V8" s="204">
         <f t="shared" si="3"/>
         <v>44673</v>
       </c>
-      <c r="W8" s="208">
+      <c r="W8" s="207">
         <f t="shared" si="3"/>
         <v>44674</v>
       </c>
-      <c r="X8" s="209">
+      <c r="X8" s="208">
         <f t="shared" ref="X8:AR8" si="4">W8+1</f>
         <v>44675</v>
       </c>
-      <c r="Y8" s="204">
+      <c r="Y8" s="203">
         <f t="shared" si="4"/>
         <v>44676</v>
       </c>
-      <c r="Z8" s="205">
+      <c r="Z8" s="204">
         <f t="shared" si="4"/>
         <v>44677</v>
       </c>
-      <c r="AA8" s="204">
+      <c r="AA8" s="203">
         <f t="shared" si="4"/>
         <v>44678</v>
       </c>
-      <c r="AB8" s="205">
+      <c r="AB8" s="204">
         <f t="shared" si="4"/>
         <v>44679</v>
       </c>
-      <c r="AC8" s="204">
+      <c r="AC8" s="203">
         <f t="shared" si="4"/>
         <v>44680</v>
       </c>
-      <c r="AD8" s="206">
+      <c r="AD8" s="205">
         <f t="shared" si="4"/>
         <v>44681</v>
       </c>
-      <c r="AE8" s="207">
+      <c r="AE8" s="206">
         <f t="shared" si="4"/>
         <v>44682</v>
       </c>
-      <c r="AF8" s="205">
+      <c r="AF8" s="204">
         <f t="shared" si="4"/>
         <v>44683</v>
       </c>
-      <c r="AG8" s="204">
+      <c r="AG8" s="203">
         <f t="shared" si="4"/>
         <v>44684</v>
       </c>
-      <c r="AH8" s="205">
+      <c r="AH8" s="204">
         <f t="shared" si="4"/>
         <v>44685</v>
       </c>
-      <c r="AI8" s="204">
+      <c r="AI8" s="203">
         <f t="shared" si="4"/>
         <v>44686</v>
       </c>
-      <c r="AJ8" s="205">
+      <c r="AJ8" s="204">
         <f t="shared" si="4"/>
         <v>44687</v>
       </c>
-      <c r="AK8" s="208">
+      <c r="AK8" s="207">
         <f t="shared" si="4"/>
         <v>44688</v>
       </c>
-      <c r="AL8" s="209">
+      <c r="AL8" s="208">
         <f t="shared" si="4"/>
         <v>44689</v>
       </c>
-      <c r="AM8" s="204">
+      <c r="AM8" s="203">
         <f t="shared" si="4"/>
         <v>44690</v>
       </c>
-      <c r="AN8" s="205">
+      <c r="AN8" s="204">
         <f t="shared" si="4"/>
         <v>44691</v>
       </c>
-      <c r="AO8" s="204">
+      <c r="AO8" s="203">
         <f t="shared" si="4"/>
         <v>44692</v>
       </c>
-      <c r="AP8" s="205">
+      <c r="AP8" s="204">
         <f t="shared" si="4"/>
         <v>44693</v>
       </c>
-      <c r="AQ8" s="204">
+      <c r="AQ8" s="203">
         <f t="shared" si="4"/>
         <v>44694</v>
       </c>
-      <c r="AR8" s="206">
+      <c r="AR8" s="205">
         <f t="shared" si="4"/>
         <v>44695</v>
       </c>
     </row>
     <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="238"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="210" t="str">
+      <c r="B9" s="232"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="209" t="str">
         <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
         <v>D</v>
       </c>
-      <c r="K9" s="211" t="str">
+      <c r="K9" s="210" t="str">
         <f t="shared" ref="K9:AR9" si="5">UPPER(LEFT(TEXT(K8,"DDD"),1))</f>
         <v>S</v>
       </c>
-      <c r="L9" s="212" t="str">
+      <c r="L9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="M9" s="211" t="str">
+      <c r="M9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="N9" s="212" t="str">
+      <c r="N9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="O9" s="211" t="str">
+      <c r="O9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="P9" s="213" t="str">
+      <c r="P9" s="212" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Q9" s="214" t="str">
+      <c r="Q9" s="213" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="R9" s="212" t="str">
+      <c r="R9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="S9" s="211" t="str">
+      <c r="S9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="T9" s="212" t="str">
+      <c r="T9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="U9" s="211" t="str">
+      <c r="U9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="V9" s="212" t="str">
+      <c r="V9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="W9" s="215" t="str">
+      <c r="W9" s="214" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="X9" s="216" t="str">
+      <c r="X9" s="215" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="Y9" s="211" t="str">
+      <c r="Y9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Z9" s="212" t="str">
+      <c r="Z9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AA9" s="211" t="str">
+      <c r="AA9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AB9" s="212" t="str">
+      <c r="AB9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AC9" s="211" t="str">
+      <c r="AC9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AD9" s="213" t="str">
+      <c r="AD9" s="212" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AE9" s="214" t="str">
+      <c r="AE9" s="213" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AF9" s="212" t="str">
+      <c r="AF9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AG9" s="211" t="str">
+      <c r="AG9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AH9" s="212" t="str">
+      <c r="AH9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AI9" s="211" t="str">
+      <c r="AI9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AJ9" s="212" t="str">
+      <c r="AJ9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AK9" s="215" t="str">
+      <c r="AK9" s="214" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AL9" s="216" t="str">
+      <c r="AL9" s="215" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AM9" s="211" t="str">
+      <c r="AM9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AN9" s="212" t="str">
+      <c r="AN9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AO9" s="211" t="str">
+      <c r="AO9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AP9" s="212" t="str">
+      <c r="AP9" s="211" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AQ9" s="211" t="str">
+      <c r="AQ9" s="210" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AR9" s="213" t="str">
+      <c r="AR9" s="212" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
@@ -29138,7 +32270,7 @@
       <c r="C10" s="154">
         <v>44661</v>
       </c>
-      <c r="D10" s="195">
+      <c r="D10" s="194">
         <f>IF(C10="","",C10+E10)</f>
         <v>44664</v>
       </c>
@@ -29151,11 +32283,11 @@
       <c r="G10" s="156">
         <v>44663</v>
       </c>
-      <c r="H10" s="197" t="str">
+      <c r="H10" s="196" t="str">
         <f t="shared" ref="H10:H21" si="6">IF(G10&gt;D10,G10-D10,"")</f>
         <v/>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="197">
         <f>IF(AND(G10&lt;D10,G10&lt;&gt;""),D10-G10,"")</f>
         <v>1</v>
       </c>
@@ -29200,7 +32332,7 @@
       <c r="C11" s="154">
         <v>44662</v>
       </c>
-      <c r="D11" s="195">
+      <c r="D11" s="194">
         <f t="shared" ref="D11:D24" si="7">IF(C11="","",C11+E11)</f>
         <v>44663</v>
       </c>
@@ -29213,11 +32345,11 @@
       <c r="G11" s="156">
         <v>44665</v>
       </c>
-      <c r="H11" s="197">
+      <c r="H11" s="196">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="197" t="str">
         <f t="shared" ref="I11:I21" si="8">IF(AND(G11&lt;D11,G11&lt;&gt;""),D11-G11,"")</f>
         <v/>
       </c>
@@ -29262,7 +32394,7 @@
       <c r="C12" s="154">
         <v>44663</v>
       </c>
-      <c r="D12" s="195">
+      <c r="D12" s="194">
         <f t="shared" si="7"/>
         <v>44683</v>
       </c>
@@ -29271,11 +32403,11 @@
       </c>
       <c r="F12" s="156"/>
       <c r="G12" s="156"/>
-      <c r="H12" s="197" t="str">
+      <c r="H12" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29318,18 +32450,18 @@
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="147"/>
       <c r="C13" s="154"/>
-      <c r="D13" s="195" t="str">
+      <c r="D13" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E13" s="146"/>
       <c r="F13" s="156"/>
       <c r="G13" s="156"/>
-      <c r="H13" s="197" t="str">
+      <c r="H13" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I13" s="198" t="str">
+      <c r="I13" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29372,18 +32504,18 @@
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="147"/>
       <c r="C14" s="154"/>
-      <c r="D14" s="195" t="str">
+      <c r="D14" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E14" s="146"/>
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
-      <c r="H14" s="197" t="str">
+      <c r="H14" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="198" t="str">
+      <c r="I14" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29426,18 +32558,18 @@
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="147"/>
       <c r="C15" s="154"/>
-      <c r="D15" s="195" t="str">
+      <c r="D15" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E15" s="146"/>
       <c r="F15" s="156"/>
       <c r="G15" s="156"/>
-      <c r="H15" s="197" t="str">
+      <c r="H15" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I15" s="198" t="str">
+      <c r="I15" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29480,18 +32612,18 @@
     <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="147"/>
       <c r="C16" s="154"/>
-      <c r="D16" s="195" t="str">
+      <c r="D16" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E16" s="146"/>
       <c r="F16" s="156"/>
       <c r="G16" s="156"/>
-      <c r="H16" s="197" t="str">
+      <c r="H16" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29534,18 +32666,18 @@
     <row r="17" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B17" s="147"/>
       <c r="C17" s="154"/>
-      <c r="D17" s="195" t="str">
+      <c r="D17" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E17" s="146"/>
       <c r="F17" s="156"/>
       <c r="G17" s="156"/>
-      <c r="H17" s="197" t="str">
+      <c r="H17" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29588,18 +32720,18 @@
     <row r="18" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B18" s="147"/>
       <c r="C18" s="154"/>
-      <c r="D18" s="195" t="str">
+      <c r="D18" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E18" s="146"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
-      <c r="H18" s="197" t="str">
+      <c r="H18" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="198" t="str">
+      <c r="I18" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29642,18 +32774,18 @@
     <row r="19" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B19" s="147"/>
       <c r="C19" s="154"/>
-      <c r="D19" s="195" t="str">
+      <c r="D19" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E19" s="146"/>
       <c r="F19" s="156"/>
       <c r="G19" s="156"/>
-      <c r="H19" s="197" t="str">
+      <c r="H19" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29696,18 +32828,18 @@
     <row r="20" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B20" s="147"/>
       <c r="C20" s="154"/>
-      <c r="D20" s="195" t="str">
+      <c r="D20" s="194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E20" s="146"/>
       <c r="F20" s="156"/>
       <c r="G20" s="156"/>
-      <c r="H20" s="197" t="str">
+      <c r="H20" s="196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I20" s="198" t="str">
+      <c r="I20" s="197" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29750,18 +32882,18 @@
     <row r="21" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="149"/>
       <c r="C21" s="155"/>
-      <c r="D21" s="196" t="str">
+      <c r="D21" s="195" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E21" s="150"/>
       <c r="F21" s="157"/>
       <c r="G21" s="157"/>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -29821,21 +32953,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="AE7:AK7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:AR21">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -35923,10 +39055,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R20"/>
+  <dimension ref="B4:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35934,151 +39066,139 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="241" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="244" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
-      <c r="K4" s="241" t="s">
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="246"/>
+      <c r="J4" s="244" t="s">
         <v>322</v>
       </c>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="243"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="244" t="s">
+      <c r="K4" s="245"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="246"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="247" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="K5" s="245" t="s">
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="J5" s="248" t="s">
         <v>329</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="247"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="248"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="250"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="251"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="K7" s="248"/>
-      <c r="L7" s="159" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="249"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="252"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="159" t="s">
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="231"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="249"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="252"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="160">
+      <c r="D9" s="435">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="158"/>
       <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159" t="s">
+      <c r="H9" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="K9" s="249"/>
-      <c r="L9" s="159" t="s">
+      <c r="J9" s="252"/>
+      <c r="K9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="M9" s="160">
+      <c r="L9" s="435">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
+        <v>44668</v>
+      </c>
+      <c r="M9" s="158"/>
       <c r="N9" s="158"/>
       <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="159" t="s">
+      <c r="P9" s="159" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="250"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="253"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -36094,270 +39214,248 @@
       <c r="G10" s="158" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159" t="s">
+      <c r="H10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="K10" s="250"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="158" t="s">
+        <v>316</v>
+      </c>
       <c r="L10" s="158" t="s">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="M10" s="158" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="N10" s="158" t="s">
+        <v>317</v>
+      </c>
+      <c r="O10" s="158" t="s">
+        <v>318</v>
+      </c>
+      <c r="P10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="O10" s="158" t="s">
-        <v>317</v>
-      </c>
-      <c r="P10" s="158" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="159" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="240" t="s">
+    </row>
+    <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="243" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="160" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
-      <c r="F11" s="162"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="158"/>
       <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="K11" s="240" t="s">
+      <c r="J11" s="243" t="s">
         <v>328</v>
       </c>
-      <c r="L11" s="161" t="s">
+      <c r="K11" s="160" t="s">
         <v>2</v>
       </c>
+      <c r="L11" s="158"/>
       <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="162"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="158"/>
       <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="161" t="s">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="243"/>
+      <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="158"/>
-      <c r="F12" s="162"/>
+      <c r="F12" s="161"/>
       <c r="G12" s="158"/>
       <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="161" t="s">
+      <c r="J12" s="243"/>
+      <c r="K12" s="160" t="s">
         <v>3</v>
       </c>
+      <c r="L12" s="158"/>
       <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="162"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="158"/>
       <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="240"/>
-      <c r="C13" s="161" t="s">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="243"/>
+      <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
-      <c r="F13" s="162"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="158"/>
       <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="161" t="s">
+      <c r="J13" s="243"/>
+      <c r="K13" s="160" t="s">
         <v>4</v>
       </c>
+      <c r="L13" s="158"/>
       <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="162"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="158"/>
       <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="240"/>
-      <c r="C14" s="161" t="s">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="243"/>
+      <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
-      <c r="F14" s="162"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="158"/>
       <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="161" t="s">
+      <c r="J14" s="243"/>
+      <c r="K14" s="160" t="s">
         <v>5</v>
       </c>
+      <c r="L14" s="158"/>
       <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="162"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="158"/>
       <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="158"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="240"/>
-      <c r="C15" s="161" t="s">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="243"/>
+      <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="158"/>
       <c r="E15" s="158"/>
-      <c r="F15" s="162"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="158"/>
       <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="161" t="s">
+      <c r="J15" s="243"/>
+      <c r="K15" s="160" t="s">
         <v>6</v>
       </c>
+      <c r="L15" s="158"/>
       <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="162"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="158"/>
       <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="158"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="240"/>
-      <c r="C16" s="161" t="s">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="243"/>
+      <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
-      <c r="F16" s="162"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="158"/>
       <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="161" t="s">
+      <c r="J16" s="243"/>
+      <c r="K16" s="160" t="s">
         <v>7</v>
       </c>
+      <c r="L16" s="158"/>
       <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="162"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="158"/>
       <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="240"/>
-      <c r="C17" s="161" t="s">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="243"/>
+      <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
-      <c r="F17" s="162"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="161" t="s">
+      <c r="J17" s="243"/>
+      <c r="K17" s="160" t="s">
         <v>8</v>
       </c>
+      <c r="L17" s="158"/>
       <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="162"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="158"/>
       <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="240"/>
-      <c r="C18" s="161" t="s">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="243"/>
+      <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
-      <c r="F18" s="162"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="158"/>
       <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="161" t="s">
+      <c r="J18" s="243"/>
+      <c r="K18" s="160" t="s">
         <v>323</v>
       </c>
+      <c r="L18" s="158"/>
       <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="162"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="158"/>
       <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="240"/>
-      <c r="C19" s="161" t="s">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="243"/>
+      <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
-      <c r="F19" s="162"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="161" t="s">
+      <c r="J19" s="243"/>
+      <c r="K19" s="160" t="s">
         <v>324</v>
       </c>
+      <c r="L19" s="158"/>
       <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="162"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="158"/>
       <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="240"/>
-      <c r="C20" s="161" t="s">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="243"/>
+      <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
-      <c r="F20" s="162"/>
+      <c r="F20" s="161"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="161" t="s">
+      <c r="J20" s="243"/>
+      <c r="K20" s="160" t="s">
         <v>325</v>
       </c>
+      <c r="L20" s="158"/>
       <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="162"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="158"/>
       <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J11:J20"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -36370,7 +39468,7 @@
   <dimension ref="B4:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36382,71 +39480,71 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="244" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="246"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="244" t="s">
+      <c r="B5" s="247" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="248"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="249"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="249"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="217">
+      <c r="D9" s="434">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="158"/>
@@ -36457,7 +39555,7 @@
       <c r="I9" s="159"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="250"/>
+      <c r="B10" s="253"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -36470,7 +39568,7 @@
       <c r="F10" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="218" t="s">
+      <c r="G10" s="216" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="159" t="s">
@@ -36481,16 +39579,16 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="243" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="160" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="219" t="str">
+      <c r="F11" s="161"/>
+      <c r="G11" s="432" t="str">
         <f>IF(F11="","",E11*F11)</f>
         <v/>
       </c>
@@ -36498,14 +39596,14 @@
       <c r="I11" s="158"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="161" t="s">
+      <c r="B12" s="243"/>
+      <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="158"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="219" t="str">
+      <c r="F12" s="161"/>
+      <c r="G12" s="432" t="str">
         <f t="shared" ref="G12:G20" si="0">IF(F12="","",E12*F12)</f>
         <v/>
       </c>
@@ -36513,14 +39611,14 @@
       <c r="I12" s="158"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="240"/>
-      <c r="C13" s="161" t="s">
+      <c r="B13" s="243"/>
+      <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="219" t="str">
+      <c r="F13" s="161"/>
+      <c r="G13" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36528,14 +39626,14 @@
       <c r="I13" s="158"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="240"/>
-      <c r="C14" s="161" t="s">
+      <c r="B14" s="243"/>
+      <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="219" t="str">
+      <c r="F14" s="161"/>
+      <c r="G14" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36543,14 +39641,14 @@
       <c r="I14" s="158"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="240"/>
-      <c r="C15" s="161" t="s">
+      <c r="B15" s="243"/>
+      <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="158"/>
       <c r="E15" s="158"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="219" t="str">
+      <c r="F15" s="161"/>
+      <c r="G15" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36558,14 +39656,14 @@
       <c r="I15" s="158"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="240"/>
-      <c r="C16" s="161" t="s">
+      <c r="B16" s="243"/>
+      <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="219" t="str">
+      <c r="F16" s="161"/>
+      <c r="G16" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36573,14 +39671,14 @@
       <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="240"/>
-      <c r="C17" s="161" t="s">
+      <c r="B17" s="243"/>
+      <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="219" t="str">
+      <c r="F17" s="161"/>
+      <c r="G17" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36588,14 +39686,14 @@
       <c r="I17" s="158"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="240"/>
-      <c r="C18" s="161" t="s">
+      <c r="B18" s="243"/>
+      <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="219" t="str">
+      <c r="F18" s="161"/>
+      <c r="G18" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36603,14 +39701,14 @@
       <c r="I18" s="158"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="240"/>
-      <c r="C19" s="161" t="s">
+      <c r="B19" s="243"/>
+      <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="219" t="str">
+      <c r="F19" s="161"/>
+      <c r="G19" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -36618,14 +39716,14 @@
       <c r="I19" s="158"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="240"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="243"/>
+      <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="219" t="str">
+      <c r="F20" s="161"/>
+      <c r="G20" s="432" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7410" tabRatio="721" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7410" tabRatio="721" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LEVANTAMENTO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="413">
   <si>
     <t>Item</t>
   </si>
@@ -1258,6 +1258,18 @@
   </si>
   <si>
     <t>fundação</t>
+  </si>
+  <si>
+    <t>Adiantamento</t>
+  </si>
+  <si>
+    <t>V. à receber</t>
+  </si>
+  <si>
+    <t>Atual</t>
+  </si>
+  <si>
+    <t>Dias Trabalhados</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2472,6 +2484,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2481,7 +2627,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2881,9 +3027,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2948,17 +3091,7 @@
     <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -3033,17 +3166,206 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="179" fontId="14" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3060,6 +3382,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3072,36 +3400,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3113,6 +3411,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3147,72 +3469,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3221,145 +3607,72 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3375,206 +3688,23 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3588,80 +3718,155 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4134,11 +4339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343986560"/>
-        <c:axId val="343988096"/>
+        <c:axId val="322847872"/>
+        <c:axId val="324073344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343986560"/>
+        <c:axId val="322847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4379,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343988096"/>
+        <c:crossAx val="324073344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4183,7 +4388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343988096"/>
+        <c:axId val="324073344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4220,7 +4425,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343986560"/>
+        <c:crossAx val="322847872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4396,8 +4601,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343454464"/>
-        <c:axId val="343456000"/>
+        <c:axId val="315802752"/>
+        <c:axId val="315804288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4754,11 +4959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343465984"/>
-        <c:axId val="343467520"/>
+        <c:axId val="315814272"/>
+        <c:axId val="315815808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343454464"/>
+        <c:axId val="315802752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4802,7 +5007,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343456000"/>
+        <c:crossAx val="315804288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4811,7 +5016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343456000"/>
+        <c:axId val="315804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -4848,13 +5053,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343454464"/>
+        <c:crossAx val="315802752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="343465984"/>
+        <c:axId val="315814272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,7 +5068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343467520"/>
+        <c:crossAx val="315815808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4871,7 +5076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343467520"/>
+        <c:axId val="315815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +5086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343465984"/>
+        <c:crossAx val="315814272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5148,7 +5353,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5432,7 @@
         <xdr:cNvPr id="7" name="Imagem 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5511,7 @@
         <xdr:cNvPr id="8" name="Imagem 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5385,7 +5590,7 @@
         <xdr:cNvPr id="9" name="Imagem 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,63 +5968,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="288" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
     </row>
     <row r="2" spans="1:12" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="289" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
     </row>
     <row r="4" spans="1:12" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
@@ -21725,10 +21930,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I29"/>
+  <dimension ref="B4:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21736,348 +21941,459 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="264" t="s">
+    <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="426" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="192" t="s">
+      <c r="C5" s="427"/>
+      <c r="D5" s="427"/>
+      <c r="E5" s="427"/>
+      <c r="F5" s="427"/>
+      <c r="G5" s="427"/>
+      <c r="H5" s="427"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="427"/>
+      <c r="K5" s="427"/>
+      <c r="L5" s="428"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="429" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+      <c r="C6" s="444"/>
+      <c r="D6" s="446"/>
+      <c r="E6" s="446"/>
+      <c r="F6" s="446"/>
+      <c r="G6" s="446"/>
+      <c r="H6" s="446"/>
+      <c r="I6" s="446"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="446"/>
+      <c r="L6" s="448"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="429" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="188" t="s">
+      <c r="C7" s="444"/>
+      <c r="D7" s="446"/>
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="446"/>
+      <c r="K7" s="446"/>
+      <c r="L7" s="448"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="429" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="434">
+      <c r="C8" s="454" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="455" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="455" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="447"/>
+      <c r="G8" s="447"/>
+      <c r="H8" s="447"/>
+      <c r="I8" s="447"/>
+      <c r="J8" s="447"/>
+      <c r="K8" s="447"/>
+      <c r="L8" s="453"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="429"/>
+      <c r="C9" s="144">
+        <v>44593</v>
+      </c>
+      <c r="D9" s="430">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="189"/>
-      <c r="C9" s="187" t="s">
+        <v>44669</v>
+      </c>
+      <c r="E9" s="457">
+        <f ca="1">NETWORKDAYS.INTL(C9,D9,1)</f>
+        <v>55</v>
+      </c>
+      <c r="F9" s="449"/>
+      <c r="G9" s="449"/>
+      <c r="H9" s="449"/>
+      <c r="I9" s="449"/>
+      <c r="J9" s="449"/>
+      <c r="K9" s="449"/>
+      <c r="L9" s="456"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="431"/>
+      <c r="C10" s="432" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D10" s="432" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="187" t="s">
+      <c r="E10" s="432"/>
+      <c r="F10" s="432" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="187" t="s">
+      <c r="G10" s="432" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="187" t="s">
+      <c r="H10" s="432" t="s">
         <v>333</v>
       </c>
-      <c r="H9" s="187" t="s">
+      <c r="I10" s="432" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="187" t="s">
+      <c r="J10" s="432" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="189">
-        <v>1</v>
-      </c>
-      <c r="C10" s="159" t="s">
+      <c r="K10" s="443" t="s">
+        <v>409</v>
+      </c>
+      <c r="L10" s="450" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="431">
+        <v>1</v>
+      </c>
+      <c r="C11" s="433" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="159" t="s">
+      <c r="D11" s="433" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="159"/>
-      <c r="F10" s="162">
+      <c r="E11" s="433"/>
+      <c r="F11" s="433"/>
+      <c r="G11" s="434">
         <v>2</v>
       </c>
-      <c r="G10" s="217">
+      <c r="H11" s="435">
         <v>165</v>
       </c>
-      <c r="H10" s="432">
-        <f>G10/9</f>
+      <c r="I11" s="436">
+        <f>H11/9</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="I10" s="432">
-        <f>G10*F10</f>
+      <c r="J11" s="436">
+        <f>H11*G11</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="189">
+      <c r="K11" s="451">
+        <v>100</v>
+      </c>
+      <c r="L11" s="437">
+        <f>J11-K11</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="431">
         <v>2</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="432"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="189">
+      <c r="C12" s="438"/>
+      <c r="D12" s="438"/>
+      <c r="E12" s="438"/>
+      <c r="F12" s="438"/>
+      <c r="G12" s="434"/>
+      <c r="H12" s="435"/>
+      <c r="I12" s="436"/>
+      <c r="J12" s="436"/>
+      <c r="K12" s="451"/>
+      <c r="L12" s="437"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="431">
         <v>3</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="432"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="189">
+      <c r="C13" s="438"/>
+      <c r="D13" s="438"/>
+      <c r="E13" s="438"/>
+      <c r="F13" s="438"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="435"/>
+      <c r="I13" s="436"/>
+      <c r="J13" s="436"/>
+      <c r="K13" s="451"/>
+      <c r="L13" s="437"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="431">
         <v>4</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="189">
+      <c r="C14" s="438"/>
+      <c r="D14" s="438"/>
+      <c r="E14" s="438"/>
+      <c r="F14" s="438"/>
+      <c r="G14" s="434"/>
+      <c r="H14" s="435"/>
+      <c r="I14" s="436"/>
+      <c r="J14" s="436"/>
+      <c r="K14" s="451"/>
+      <c r="L14" s="437"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="431">
         <v>5</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="432"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="189">
+      <c r="C15" s="438"/>
+      <c r="D15" s="438"/>
+      <c r="E15" s="438"/>
+      <c r="F15" s="438"/>
+      <c r="G15" s="434"/>
+      <c r="H15" s="435"/>
+      <c r="I15" s="436"/>
+      <c r="J15" s="436"/>
+      <c r="K15" s="451"/>
+      <c r="L15" s="437"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="431">
         <v>6</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="432"/>
-      <c r="I15" s="432"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="189">
+      <c r="C16" s="438"/>
+      <c r="D16" s="438"/>
+      <c r="E16" s="438"/>
+      <c r="F16" s="438"/>
+      <c r="G16" s="434"/>
+      <c r="H16" s="435"/>
+      <c r="I16" s="436"/>
+      <c r="J16" s="436"/>
+      <c r="K16" s="451"/>
+      <c r="L16" s="437"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="431">
         <v>7</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="432"/>
-      <c r="I16" s="432"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="189">
+      <c r="C17" s="438"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="438"/>
+      <c r="F17" s="438"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="435"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="436"/>
+      <c r="K17" s="451"/>
+      <c r="L17" s="437"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="431">
         <v>8</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="189">
+      <c r="C18" s="438"/>
+      <c r="D18" s="438"/>
+      <c r="E18" s="438"/>
+      <c r="F18" s="438"/>
+      <c r="G18" s="434"/>
+      <c r="H18" s="435"/>
+      <c r="I18" s="436"/>
+      <c r="J18" s="436"/>
+      <c r="K18" s="451"/>
+      <c r="L18" s="437"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="431">
         <v>9</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="432"/>
-      <c r="I18" s="432"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="189">
+      <c r="C19" s="438"/>
+      <c r="D19" s="438"/>
+      <c r="E19" s="438"/>
+      <c r="F19" s="438"/>
+      <c r="G19" s="434"/>
+      <c r="H19" s="435"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="436"/>
+      <c r="K19" s="451"/>
+      <c r="L19" s="437"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="431">
         <v>10</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="432"/>
-      <c r="I19" s="432"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="189">
+      <c r="C20" s="438"/>
+      <c r="D20" s="438"/>
+      <c r="E20" s="438"/>
+      <c r="F20" s="438"/>
+      <c r="G20" s="434"/>
+      <c r="H20" s="435"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="451"/>
+      <c r="L20" s="437"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="431">
         <v>11</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="432"/>
-      <c r="I20" s="432"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="189">
+      <c r="C21" s="438"/>
+      <c r="D21" s="438"/>
+      <c r="E21" s="438"/>
+      <c r="F21" s="438"/>
+      <c r="G21" s="434"/>
+      <c r="H21" s="435"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="436"/>
+      <c r="K21" s="451"/>
+      <c r="L21" s="437"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="431">
         <v>12</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="432"/>
-      <c r="I21" s="432"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="189">
+      <c r="C22" s="438"/>
+      <c r="D22" s="438"/>
+      <c r="E22" s="438"/>
+      <c r="F22" s="438"/>
+      <c r="G22" s="434"/>
+      <c r="H22" s="435"/>
+      <c r="I22" s="436"/>
+      <c r="J22" s="436"/>
+      <c r="K22" s="451"/>
+      <c r="L22" s="437"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="431">
         <v>13</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="432"/>
-      <c r="I22" s="432"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="189">
+      <c r="C23" s="438"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="438"/>
+      <c r="F23" s="438"/>
+      <c r="G23" s="434"/>
+      <c r="H23" s="435"/>
+      <c r="I23" s="436"/>
+      <c r="J23" s="436"/>
+      <c r="K23" s="451"/>
+      <c r="L23" s="437"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="431">
         <v>14</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="432"/>
-      <c r="I23" s="432"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="189">
+      <c r="C24" s="438"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="438"/>
+      <c r="F24" s="438"/>
+      <c r="G24" s="434"/>
+      <c r="H24" s="435"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="436"/>
+      <c r="K24" s="451"/>
+      <c r="L24" s="437"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="431">
         <v>15</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="432"/>
-      <c r="I24" s="432"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="189">
+      <c r="C25" s="438"/>
+      <c r="D25" s="438"/>
+      <c r="E25" s="438"/>
+      <c r="F25" s="438"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="435"/>
+      <c r="I25" s="436"/>
+      <c r="J25" s="436"/>
+      <c r="K25" s="451"/>
+      <c r="L25" s="437"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="431">
         <v>16</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="432"/>
-      <c r="I25" s="432"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="189">
+      <c r="C26" s="438"/>
+      <c r="D26" s="438"/>
+      <c r="E26" s="438"/>
+      <c r="F26" s="438"/>
+      <c r="G26" s="434"/>
+      <c r="H26" s="435"/>
+      <c r="I26" s="436"/>
+      <c r="J26" s="436"/>
+      <c r="K26" s="451"/>
+      <c r="L26" s="437"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="431">
         <v>17</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="432"/>
-      <c r="I26" s="432"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="189">
+      <c r="C27" s="438"/>
+      <c r="D27" s="438"/>
+      <c r="E27" s="438"/>
+      <c r="F27" s="438"/>
+      <c r="G27" s="434"/>
+      <c r="H27" s="435"/>
+      <c r="I27" s="436"/>
+      <c r="J27" s="436"/>
+      <c r="K27" s="451"/>
+      <c r="L27" s="437"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="431">
         <v>18</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="432"/>
-      <c r="I27" s="432"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="189">
+      <c r="C28" s="438"/>
+      <c r="D28" s="438"/>
+      <c r="E28" s="438"/>
+      <c r="F28" s="438"/>
+      <c r="G28" s="434"/>
+      <c r="H28" s="435"/>
+      <c r="I28" s="436"/>
+      <c r="J28" s="436"/>
+      <c r="K28" s="451"/>
+      <c r="L28" s="437"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="431">
         <v>19</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="432"/>
-      <c r="I28" s="432"/>
-    </row>
-    <row r="29" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="190">
+      <c r="C29" s="438"/>
+      <c r="D29" s="438"/>
+      <c r="E29" s="438"/>
+      <c r="F29" s="438"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="435"/>
+      <c r="I29" s="436"/>
+      <c r="J29" s="436"/>
+      <c r="K29" s="451"/>
+      <c r="L29" s="437"/>
+    </row>
+    <row r="30" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="186">
         <v>20</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="433"/>
+      <c r="C30" s="439"/>
+      <c r="D30" s="439"/>
+      <c r="E30" s="439"/>
+      <c r="F30" s="439"/>
+      <c r="G30" s="440"/>
+      <c r="H30" s="441"/>
+      <c r="I30" s="442"/>
+      <c r="J30" s="442"/>
+      <c r="K30" s="452"/>
+      <c r="L30" s="445"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B5:I5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22085,8 +22401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L118"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59:L59"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22106,1755 +22422,1797 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="423" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="257"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
+      <c r="K2" s="424"/>
+      <c r="L2" s="425"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259" t="str">
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213" t="str">
         <f>("DATA ATUAL:"&amp;"    "&amp;UPPER(LEFT(TEXT(L3,"DDDD"),7)))</f>
         <v>DATA ATUAL:    DOMINGO</v>
       </c>
-      <c r="L3" s="381">
+      <c r="L3" s="266">
         <v>44668</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="259" t="s">
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="213" t="s">
         <v>344</v>
       </c>
-      <c r="L4" s="382">
-        <f ca="1">IFERROR(TODAY()-L9,"")</f>
-        <v>38</v>
+      <c r="L4" s="267">
+        <f ca="1">IFERROR(IF(L9&gt;0,TODAY()-L9,0),"")</f>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="215" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="261"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="259" t="s">
+      <c r="E5" s="215"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="213" t="s">
         <v>346</v>
       </c>
-      <c r="L5" s="383">
-        <f>IFERROR(L10-L9,"")</f>
+      <c r="L5" s="268">
+        <f>IFERROR(IF(AND(L10&gt;0,L9&gt;0),L10-L9,0),"")</f>
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="216" t="s">
         <v>347</v>
       </c>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="259" t="s">
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="213" t="s">
         <v>348</v>
       </c>
-      <c r="L6" s="383">
-        <f>IFERROR(IF(OR(AND(K63&lt;&gt;"",K64&lt;&gt;"",K65&lt;&gt;""),AND(D59&lt;&gt;"",F59&lt;&gt;"")),(L3-L9)-1,L3-L9),"")</f>
+      <c r="L6" s="268">
+        <f>IF(OR(AND(K63&lt;&gt;"",K64&lt;&gt;"",K65&lt;&gt;""),AND(D59&lt;&gt;"",F59&lt;&gt;"")),IF(L9&gt;0,(L3-L9)-1,0),IF(L9&gt;0,L3-L9,0))</f>
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="263" t="s">
+      <c r="D7" s="217" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="259" t="s">
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="213" t="s">
         <v>350</v>
       </c>
-      <c r="L7" s="383">
+      <c r="L7" s="268">
         <f>IFERROR(L5-L6,"")</f>
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="321" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="266"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="368"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="267" t="s">
+      <c r="B9" s="420" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="270" t="s">
+      <c r="C9" s="421"/>
+      <c r="D9" s="421"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219" t="s">
         <v>353</v>
       </c>
-      <c r="L9" s="271">
+      <c r="L9" s="220">
         <v>44630</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="221" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="374"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="270" t="s">
+      <c r="C10" s="259"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="219" t="s">
         <v>355</v>
       </c>
-      <c r="L10" s="271">
+      <c r="L10" s="220">
         <v>44732</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="420" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="274"/>
-      <c r="J11" s="274"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="275"/>
+      <c r="C11" s="421"/>
+      <c r="D11" s="421"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="415"/>
+      <c r="L11" s="416"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="420" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="268"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="277"/>
+      <c r="C12" s="421"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="422"/>
+      <c r="G12" s="422"/>
+      <c r="H12" s="422"/>
+      <c r="I12" s="422"/>
+      <c r="J12" s="422"/>
+      <c r="K12" s="422"/>
+      <c r="L12" s="386"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="221" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="374"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="274"/>
-      <c r="F13" s="274"/>
-      <c r="G13" s="274"/>
-      <c r="H13" s="274"/>
-      <c r="I13" s="274"/>
-      <c r="J13" s="274"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="275"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="415"/>
+      <c r="L13" s="416"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="321" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="265"/>
-      <c r="D14" s="265"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="265"/>
-      <c r="I14" s="265"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="266"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="322"/>
+      <c r="E14" s="322"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="322"/>
+      <c r="H14" s="322"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="322"/>
+      <c r="L14" s="368"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="420" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="276"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="276"/>
-      <c r="K15" s="276"/>
-      <c r="L15" s="277"/>
+      <c r="C15" s="421"/>
+      <c r="D15" s="421"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="422"/>
+      <c r="H15" s="422"/>
+      <c r="I15" s="422"/>
+      <c r="J15" s="422"/>
+      <c r="K15" s="422"/>
+      <c r="L15" s="386"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="223" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="269"/>
-      <c r="D16" s="274"/>
-      <c r="E16" s="274"/>
-      <c r="F16" s="274"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="274"/>
-      <c r="I16" s="274"/>
-      <c r="J16" s="274"/>
-      <c r="K16" s="274"/>
-      <c r="L16" s="275"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="415"/>
+      <c r="E16" s="415"/>
+      <c r="F16" s="415"/>
+      <c r="G16" s="415"/>
+      <c r="H16" s="415"/>
+      <c r="I16" s="415"/>
+      <c r="J16" s="415"/>
+      <c r="K16" s="415"/>
+      <c r="L16" s="416"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="278" t="s">
+      <c r="B17" s="223" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="274"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="274"/>
-      <c r="L17" s="275"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="415"/>
+      <c r="E17" s="415"/>
+      <c r="F17" s="415"/>
+      <c r="G17" s="415"/>
+      <c r="H17" s="415"/>
+      <c r="I17" s="415"/>
+      <c r="J17" s="415"/>
+      <c r="K17" s="415"/>
+      <c r="L17" s="416"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="278" t="s">
+      <c r="B18" s="223" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="274"/>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="274"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="274"/>
-      <c r="L18" s="275"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="415"/>
+      <c r="F18" s="415"/>
+      <c r="G18" s="415"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="415"/>
+      <c r="J18" s="415"/>
+      <c r="K18" s="415"/>
+      <c r="L18" s="416"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="321" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="266"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="368"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="423" t="s">
+      <c r="B20" s="332" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="424"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="424"/>
-      <c r="F20" s="424"/>
-      <c r="G20" s="424"/>
-      <c r="H20" s="424"/>
-      <c r="I20" s="424"/>
-      <c r="J20" s="424"/>
-      <c r="K20" s="424"/>
-      <c r="L20" s="425"/>
+      <c r="C20" s="333"/>
+      <c r="D20" s="333"/>
+      <c r="E20" s="333"/>
+      <c r="F20" s="333"/>
+      <c r="G20" s="333"/>
+      <c r="H20" s="333"/>
+      <c r="I20" s="333"/>
+      <c r="J20" s="333"/>
+      <c r="K20" s="333"/>
+      <c r="L20" s="334"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="279" t="s">
+      <c r="B21" s="417" t="s">
         <v>364</v>
       </c>
-      <c r="C21" s="304"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="375"/>
-      <c r="F21" s="281" t="s">
+      <c r="C21" s="364"/>
+      <c r="D21" s="365"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="366" t="s">
         <v>365</v>
       </c>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="283" t="s">
+      <c r="G21" s="366"/>
+      <c r="H21" s="366"/>
+      <c r="I21" s="366"/>
+      <c r="J21" s="366"/>
+      <c r="K21" s="358"/>
+      <c r="L21" s="418" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="279"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="284"/>
-      <c r="H22" s="284"/>
-      <c r="I22" s="284"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="286"/>
+      <c r="B22" s="417"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="367"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
+      <c r="K22" s="360"/>
+      <c r="L22" s="419"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="287"/>
-      <c r="C23" s="403"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="331"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="289"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="291"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="413"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="336"/>
+      <c r="G23" s="336"/>
+      <c r="H23" s="336"/>
+      <c r="I23" s="336"/>
+      <c r="J23" s="336"/>
+      <c r="K23" s="353"/>
+      <c r="L23" s="224"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="287"/>
-      <c r="C24" s="403"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="331"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="289"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
-      <c r="J24" s="289"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="291"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="413"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="353"/>
+      <c r="L24" s="224"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="287"/>
-      <c r="C25" s="403"/>
-      <c r="D25" s="288" t="s">
+      <c r="B25" s="412"/>
+      <c r="C25" s="413"/>
+      <c r="D25" s="414" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="331"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="289"/>
-      <c r="H25" s="289"/>
-      <c r="I25" s="289"/>
-      <c r="J25" s="289"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="291"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="336"/>
+      <c r="G25" s="336"/>
+      <c r="H25" s="336"/>
+      <c r="I25" s="336"/>
+      <c r="J25" s="336"/>
+      <c r="K25" s="353"/>
+      <c r="L25" s="224"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="287"/>
-      <c r="C26" s="403"/>
-      <c r="D26" s="288" t="s">
+      <c r="B26" s="412"/>
+      <c r="C26" s="413"/>
+      <c r="D26" s="414" t="s">
         <v>368</v>
       </c>
-      <c r="E26" s="331"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="289"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="289"/>
-      <c r="J26" s="289"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="291"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="336"/>
+      <c r="G26" s="336"/>
+      <c r="H26" s="336"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="336"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="224"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="287"/>
-      <c r="C27" s="403"/>
-      <c r="D27" s="288" t="s">
+      <c r="B27" s="412"/>
+      <c r="C27" s="413"/>
+      <c r="D27" s="414" t="s">
         <v>369</v>
       </c>
-      <c r="E27" s="331"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="292"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="336"/>
+      <c r="G27" s="336"/>
+      <c r="H27" s="336"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="336"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="225"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="287"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="288" t="s">
+      <c r="B28" s="412"/>
+      <c r="C28" s="413"/>
+      <c r="D28" s="414" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="331"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="289"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="289"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="292"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="336"/>
+      <c r="G28" s="336"/>
+      <c r="H28" s="336"/>
+      <c r="I28" s="336"/>
+      <c r="J28" s="336"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="225"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="293"/>
-      <c r="C29" s="404"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="289"/>
-      <c r="I29" s="289"/>
-      <c r="J29" s="289"/>
-      <c r="K29" s="290"/>
-      <c r="L29" s="292"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="275"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="336"/>
+      <c r="G29" s="336"/>
+      <c r="H29" s="336"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="336"/>
+      <c r="K29" s="353"/>
+      <c r="L29" s="225"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="293"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="289"/>
-      <c r="I30" s="289"/>
-      <c r="J30" s="289"/>
-      <c r="K30" s="290"/>
-      <c r="L30" s="292"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="336"/>
+      <c r="H30" s="336"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="336"/>
+      <c r="K30" s="353"/>
+      <c r="L30" s="225"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="293"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="289"/>
-      <c r="H31" s="289"/>
-      <c r="I31" s="289"/>
-      <c r="J31" s="289"/>
-      <c r="K31" s="290"/>
-      <c r="L31" s="292"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="336"/>
+      <c r="H31" s="336"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="336"/>
+      <c r="K31" s="353"/>
+      <c r="L31" s="225"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="293"/>
-      <c r="C32" s="404"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="289"/>
-      <c r="G32" s="289"/>
-      <c r="H32" s="289"/>
-      <c r="I32" s="289"/>
-      <c r="J32" s="289"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="292"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="336"/>
+      <c r="H32" s="336"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="336"/>
+      <c r="K32" s="353"/>
+      <c r="L32" s="225"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="226" t="s">
         <v>371</v>
       </c>
-      <c r="C33" s="404"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="289"/>
-      <c r="G33" s="289"/>
-      <c r="H33" s="289"/>
-      <c r="I33" s="289"/>
-      <c r="J33" s="289"/>
-      <c r="K33" s="290"/>
-      <c r="L33" s="295">
+      <c r="C33" s="275"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="336"/>
+      <c r="H33" s="336"/>
+      <c r="I33" s="336"/>
+      <c r="J33" s="336"/>
+      <c r="K33" s="353"/>
+      <c r="L33" s="228">
         <f>SUM(L23:L32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="423" t="s">
+      <c r="B34" s="332" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="424"/>
-      <c r="D34" s="424"/>
-      <c r="E34" s="424"/>
-      <c r="F34" s="424"/>
-      <c r="G34" s="424"/>
-      <c r="H34" s="424"/>
-      <c r="I34" s="424"/>
-      <c r="J34" s="424"/>
-      <c r="K34" s="424"/>
-      <c r="L34" s="425"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
+      <c r="G34" s="333"/>
+      <c r="H34" s="333"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="333"/>
+      <c r="K34" s="333"/>
+      <c r="L34" s="334"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="296" t="s">
+      <c r="B35" s="394" t="s">
         <v>373</v>
       </c>
-      <c r="C35" s="297" t="s">
+      <c r="C35" s="357" t="s">
         <v>364</v>
       </c>
-      <c r="D35" s="282"/>
-      <c r="E35" s="297" t="s">
+      <c r="D35" s="358"/>
+      <c r="E35" s="357" t="s">
         <v>365</v>
       </c>
-      <c r="F35" s="281"/>
-      <c r="G35" s="281"/>
-      <c r="H35" s="281"/>
-      <c r="I35" s="281"/>
-      <c r="J35" s="281"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="298" t="s">
+      <c r="F35" s="366"/>
+      <c r="G35" s="366"/>
+      <c r="H35" s="366"/>
+      <c r="I35" s="366"/>
+      <c r="J35" s="366"/>
+      <c r="K35" s="358"/>
+      <c r="L35" s="410" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="299"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="285"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="284"/>
-      <c r="G36" s="284"/>
-      <c r="H36" s="284"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="284"/>
-      <c r="K36" s="285"/>
-      <c r="L36" s="301"/>
+      <c r="B36" s="395"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="360"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="367"/>
+      <c r="I36" s="367"/>
+      <c r="J36" s="367"/>
+      <c r="K36" s="360"/>
+      <c r="L36" s="411"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="302"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="406"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="304"/>
-      <c r="G37" s="304"/>
-      <c r="H37" s="304"/>
-      <c r="I37" s="304"/>
-      <c r="J37" s="304"/>
-      <c r="K37" s="280"/>
-      <c r="L37" s="305"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="362"/>
+      <c r="E37" s="363"/>
+      <c r="F37" s="364"/>
+      <c r="G37" s="364"/>
+      <c r="H37" s="364"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="230"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="302"/>
-      <c r="C38" s="405"/>
-      <c r="D38" s="406"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="304"/>
-      <c r="G38" s="304"/>
-      <c r="H38" s="304"/>
-      <c r="I38" s="304"/>
-      <c r="J38" s="304"/>
-      <c r="K38" s="280"/>
-      <c r="L38" s="305"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="361"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="364"/>
+      <c r="G38" s="364"/>
+      <c r="H38" s="364"/>
+      <c r="I38" s="364"/>
+      <c r="J38" s="364"/>
+      <c r="K38" s="365"/>
+      <c r="L38" s="230"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="302"/>
-      <c r="C39" s="405"/>
-      <c r="D39" s="406"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="304"/>
-      <c r="G39" s="304"/>
-      <c r="H39" s="304"/>
-      <c r="I39" s="304"/>
-      <c r="J39" s="304"/>
-      <c r="K39" s="280"/>
-      <c r="L39" s="305"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="361"/>
+      <c r="D39" s="362"/>
+      <c r="E39" s="363"/>
+      <c r="F39" s="364"/>
+      <c r="G39" s="364"/>
+      <c r="H39" s="364"/>
+      <c r="I39" s="364"/>
+      <c r="J39" s="364"/>
+      <c r="K39" s="365"/>
+      <c r="L39" s="230"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="302"/>
-      <c r="C40" s="405"/>
-      <c r="D40" s="406"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="304"/>
-      <c r="G40" s="304"/>
-      <c r="H40" s="304"/>
-      <c r="I40" s="304"/>
-      <c r="J40" s="304"/>
-      <c r="K40" s="280"/>
-      <c r="L40" s="305"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="362"/>
+      <c r="E40" s="363"/>
+      <c r="F40" s="364"/>
+      <c r="G40" s="364"/>
+      <c r="H40" s="364"/>
+      <c r="I40" s="364"/>
+      <c r="J40" s="364"/>
+      <c r="K40" s="365"/>
+      <c r="L40" s="230"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="302"/>
-      <c r="C41" s="405"/>
-      <c r="D41" s="406"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="304"/>
-      <c r="H41" s="304"/>
-      <c r="I41" s="304"/>
-      <c r="J41" s="304"/>
-      <c r="K41" s="280"/>
-      <c r="L41" s="305"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="363"/>
+      <c r="F41" s="364"/>
+      <c r="G41" s="364"/>
+      <c r="H41" s="364"/>
+      <c r="I41" s="364"/>
+      <c r="J41" s="364"/>
+      <c r="K41" s="365"/>
+      <c r="L41" s="230"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="302"/>
-      <c r="C42" s="405"/>
-      <c r="D42" s="406"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="304"/>
-      <c r="G42" s="304"/>
-      <c r="H42" s="304"/>
-      <c r="I42" s="304"/>
-      <c r="J42" s="304"/>
-      <c r="K42" s="280"/>
-      <c r="L42" s="305"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="361"/>
+      <c r="D42" s="362"/>
+      <c r="E42" s="363"/>
+      <c r="F42" s="364"/>
+      <c r="G42" s="364"/>
+      <c r="H42" s="364"/>
+      <c r="I42" s="364"/>
+      <c r="J42" s="364"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="230"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="302"/>
-      <c r="C43" s="405"/>
-      <c r="D43" s="406"/>
-      <c r="E43" s="303"/>
-      <c r="F43" s="304"/>
-      <c r="G43" s="304"/>
-      <c r="H43" s="304"/>
-      <c r="I43" s="304"/>
-      <c r="J43" s="304"/>
-      <c r="K43" s="280"/>
-      <c r="L43" s="305"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="361"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="363"/>
+      <c r="F43" s="364"/>
+      <c r="G43" s="364"/>
+      <c r="H43" s="364"/>
+      <c r="I43" s="364"/>
+      <c r="J43" s="364"/>
+      <c r="K43" s="365"/>
+      <c r="L43" s="230"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="302"/>
-      <c r="C44" s="405"/>
-      <c r="D44" s="406"/>
-      <c r="E44" s="303"/>
-      <c r="F44" s="304"/>
-      <c r="G44" s="304"/>
-      <c r="H44" s="304"/>
-      <c r="I44" s="304"/>
-      <c r="J44" s="304"/>
-      <c r="K44" s="280"/>
-      <c r="L44" s="305"/>
+      <c r="B44" s="229"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="362"/>
+      <c r="E44" s="363"/>
+      <c r="F44" s="364"/>
+      <c r="G44" s="364"/>
+      <c r="H44" s="364"/>
+      <c r="I44" s="364"/>
+      <c r="J44" s="364"/>
+      <c r="K44" s="365"/>
+      <c r="L44" s="230"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="306" t="s">
+      <c r="B45" s="404" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="307"/>
-      <c r="D45" s="307"/>
-      <c r="E45" s="307"/>
-      <c r="F45" s="307"/>
-      <c r="G45" s="307"/>
-      <c r="H45" s="307"/>
-      <c r="I45" s="307"/>
-      <c r="J45" s="307"/>
-      <c r="K45" s="308"/>
-      <c r="L45" s="309">
+      <c r="C45" s="405"/>
+      <c r="D45" s="405"/>
+      <c r="E45" s="405"/>
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="405"/>
+      <c r="J45" s="405"/>
+      <c r="K45" s="406"/>
+      <c r="L45" s="231">
         <f>SUM(L37:L44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="407" t="s">
         <v>374</v>
       </c>
-      <c r="C46" s="311"/>
-      <c r="D46" s="311"/>
-      <c r="E46" s="311"/>
-      <c r="F46" s="311"/>
-      <c r="G46" s="311"/>
-      <c r="H46" s="311"/>
-      <c r="I46" s="311"/>
-      <c r="J46" s="311"/>
-      <c r="K46" s="312"/>
-      <c r="L46" s="313">
+      <c r="C46" s="408"/>
+      <c r="D46" s="408"/>
+      <c r="E46" s="408"/>
+      <c r="F46" s="408"/>
+      <c r="G46" s="408"/>
+      <c r="H46" s="408"/>
+      <c r="I46" s="408"/>
+      <c r="J46" s="408"/>
+      <c r="K46" s="409"/>
+      <c r="L46" s="232">
         <f>L45+L33</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="321" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="265"/>
-      <c r="D47" s="265"/>
-      <c r="E47" s="265"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="265"/>
-      <c r="H47" s="265"/>
-      <c r="I47" s="265"/>
-      <c r="J47" s="265"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="266"/>
+      <c r="C47" s="322"/>
+      <c r="D47" s="322"/>
+      <c r="E47" s="322"/>
+      <c r="F47" s="322"/>
+      <c r="G47" s="322"/>
+      <c r="H47" s="322"/>
+      <c r="I47" s="322"/>
+      <c r="J47" s="322"/>
+      <c r="K47" s="322"/>
+      <c r="L47" s="368"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="423" t="s">
+      <c r="B48" s="332" t="s">
         <v>375</v>
       </c>
-      <c r="C48" s="424"/>
-      <c r="D48" s="424"/>
-      <c r="E48" s="424"/>
-      <c r="F48" s="424"/>
-      <c r="G48" s="424"/>
-      <c r="H48" s="424"/>
-      <c r="I48" s="424"/>
-      <c r="J48" s="423" t="s">
+      <c r="C48" s="333"/>
+      <c r="D48" s="333"/>
+      <c r="E48" s="333"/>
+      <c r="F48" s="333"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="333"/>
+      <c r="I48" s="333"/>
+      <c r="J48" s="332" t="s">
         <v>376</v>
       </c>
-      <c r="K48" s="424"/>
-      <c r="L48" s="425"/>
+      <c r="K48" s="333"/>
+      <c r="L48" s="334"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="296" t="s">
+      <c r="B49" s="394" t="s">
         <v>373</v>
       </c>
-      <c r="C49" s="407" t="s">
+      <c r="C49" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="408"/>
-      <c r="E49" s="297" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="281"/>
-      <c r="G49" s="281"/>
-      <c r="H49" s="282"/>
-      <c r="I49" s="314" t="s">
+      <c r="D49" s="401"/>
+      <c r="E49" s="357" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="366"/>
+      <c r="G49" s="366"/>
+      <c r="H49" s="358"/>
+      <c r="I49" s="387" t="s">
         <v>366</v>
       </c>
-      <c r="J49" s="315" t="s">
+      <c r="J49" s="396" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="316" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="314" t="s">
+      <c r="K49" s="398" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="387" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="299"/>
-      <c r="C50" s="409"/>
-      <c r="D50" s="410"/>
-      <c r="E50" s="300"/>
-      <c r="F50" s="284"/>
-      <c r="G50" s="284"/>
-      <c r="H50" s="285"/>
-      <c r="I50" s="317"/>
-      <c r="J50" s="318"/>
-      <c r="K50" s="319"/>
-      <c r="L50" s="317"/>
+      <c r="B50" s="395"/>
+      <c r="C50" s="402"/>
+      <c r="D50" s="403"/>
+      <c r="E50" s="359"/>
+      <c r="F50" s="367"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="360"/>
+      <c r="I50" s="388"/>
+      <c r="J50" s="397"/>
+      <c r="K50" s="399"/>
+      <c r="L50" s="388"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="320"/>
-      <c r="C51" s="400"/>
-      <c r="D51" s="290"/>
-      <c r="E51" s="400"/>
-      <c r="F51" s="289"/>
-      <c r="G51" s="289"/>
-      <c r="H51" s="290"/>
-      <c r="I51" s="323"/>
-      <c r="J51" s="324"/>
-      <c r="K51" s="325"/>
-      <c r="L51" s="292"/>
+      <c r="B51" s="233"/>
+      <c r="C51" s="335"/>
+      <c r="D51" s="353"/>
+      <c r="E51" s="335"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="353"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="237"/>
+      <c r="K51" s="238"/>
+      <c r="L51" s="225"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="320"/>
-      <c r="C52" s="400"/>
-      <c r="D52" s="290"/>
-      <c r="E52" s="400"/>
-      <c r="F52" s="289"/>
-      <c r="G52" s="289"/>
-      <c r="H52" s="290"/>
-      <c r="I52" s="326"/>
-      <c r="J52" s="327"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="329"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="335"/>
+      <c r="D52" s="353"/>
+      <c r="E52" s="335"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="353"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="240"/>
+      <c r="K52" s="241"/>
+      <c r="L52" s="242"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="320"/>
-      <c r="C53" s="400"/>
-      <c r="D53" s="290"/>
-      <c r="E53" s="400"/>
-      <c r="F53" s="289"/>
-      <c r="G53" s="289"/>
-      <c r="H53" s="290"/>
-      <c r="I53" s="332"/>
-      <c r="J53" s="322"/>
-      <c r="K53" s="330"/>
-      <c r="L53" s="291"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="335"/>
+      <c r="D53" s="353"/>
+      <c r="E53" s="335"/>
+      <c r="F53" s="336"/>
+      <c r="G53" s="336"/>
+      <c r="H53" s="353"/>
+      <c r="I53" s="245"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="243"/>
+      <c r="L53" s="224"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="333" t="s">
+      <c r="B54" s="389" t="s">
         <v>378</v>
       </c>
-      <c r="C54" s="334"/>
-      <c r="D54" s="334"/>
-      <c r="E54" s="334"/>
-      <c r="F54" s="334"/>
-      <c r="G54" s="334"/>
-      <c r="H54" s="335"/>
-      <c r="I54" s="380">
+      <c r="C54" s="390"/>
+      <c r="D54" s="390"/>
+      <c r="E54" s="390"/>
+      <c r="F54" s="390"/>
+      <c r="G54" s="390"/>
+      <c r="H54" s="391"/>
+      <c r="I54" s="265">
         <f>SUM(I51:I53)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="336" t="s">
+      <c r="J54" s="392" t="s">
         <v>378</v>
       </c>
-      <c r="K54" s="337"/>
-      <c r="L54" s="338">
+      <c r="K54" s="393"/>
+      <c r="L54" s="246">
         <f>SUM(L51:L53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="333" t="s">
+      <c r="B55" s="389" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="334"/>
-      <c r="D55" s="334"/>
-      <c r="E55" s="334"/>
-      <c r="F55" s="334"/>
-      <c r="G55" s="334"/>
-      <c r="H55" s="334"/>
-      <c r="I55" s="334"/>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="338">
+      <c r="C55" s="390"/>
+      <c r="D55" s="390"/>
+      <c r="E55" s="390"/>
+      <c r="F55" s="390"/>
+      <c r="G55" s="390"/>
+      <c r="H55" s="390"/>
+      <c r="I55" s="390"/>
+      <c r="J55" s="390"/>
+      <c r="K55" s="391"/>
+      <c r="L55" s="246">
         <f>L54+I54</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="264" t="s">
+      <c r="B56" s="321" t="s">
         <v>400</v>
       </c>
-      <c r="C56" s="265"/>
-      <c r="D56" s="265"/>
-      <c r="E56" s="265"/>
-      <c r="F56" s="265"/>
-      <c r="G56" s="265"/>
-      <c r="H56" s="265"/>
-      <c r="I56" s="265"/>
-      <c r="J56" s="265"/>
-      <c r="K56" s="265"/>
-      <c r="L56" s="266"/>
+      <c r="C56" s="322"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="322"/>
+      <c r="F56" s="322"/>
+      <c r="G56" s="322"/>
+      <c r="H56" s="322"/>
+      <c r="I56" s="322"/>
+      <c r="J56" s="322"/>
+      <c r="K56" s="322"/>
+      <c r="L56" s="368"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="423" t="s">
+      <c r="B57" s="332" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="424"/>
-      <c r="D57" s="425"/>
-      <c r="E57" s="424" t="s">
+      <c r="C57" s="333"/>
+      <c r="D57" s="334"/>
+      <c r="E57" s="333" t="s">
         <v>406</v>
       </c>
-      <c r="F57" s="424"/>
-      <c r="G57" s="395" t="s">
+      <c r="F57" s="333"/>
+      <c r="G57" s="323" t="s">
         <v>401</v>
       </c>
-      <c r="H57" s="394"/>
-      <c r="I57" s="394"/>
-      <c r="J57" s="394"/>
-      <c r="K57" s="394"/>
-      <c r="L57" s="399"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="324"/>
+      <c r="J57" s="324"/>
+      <c r="K57" s="324"/>
+      <c r="L57" s="325"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="393" t="s">
+      <c r="B58" s="330" t="s">
         <v>405</v>
       </c>
-      <c r="C58" s="396"/>
-      <c r="D58" s="426" t="s">
+      <c r="C58" s="331"/>
+      <c r="D58" s="282" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="391" t="s">
+      <c r="E58" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="F58" s="422" t="s">
+      <c r="F58" s="281" t="s">
         <v>404</v>
       </c>
-      <c r="G58" s="397"/>
-      <c r="H58" s="391"/>
-      <c r="I58" s="391"/>
-      <c r="J58" s="391"/>
-      <c r="K58" s="391"/>
-      <c r="L58" s="392"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="270"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="270"/>
+      <c r="K58" s="270"/>
+      <c r="L58" s="271"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="420"/>
-      <c r="C59" s="398"/>
-      <c r="D59" s="428" t="s">
+      <c r="B59" s="279"/>
+      <c r="C59" s="273"/>
+      <c r="D59" s="326" t="s">
         <v>407</v>
       </c>
-      <c r="E59" s="436" t="s">
+      <c r="E59" s="287" t="s">
         <v>408</v>
       </c>
-      <c r="F59" s="430"/>
-      <c r="G59" s="395"/>
-      <c r="H59" s="394"/>
-      <c r="I59" s="394"/>
-      <c r="J59" s="394"/>
-      <c r="K59" s="394"/>
-      <c r="L59" s="399"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="323"/>
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="324"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="325"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="421"/>
-      <c r="C60" s="398"/>
-      <c r="D60" s="429"/>
-      <c r="E60" s="436"/>
-      <c r="F60" s="431"/>
-      <c r="G60" s="395"/>
-      <c r="H60" s="394"/>
-      <c r="I60" s="394"/>
-      <c r="J60" s="394"/>
-      <c r="K60" s="394"/>
-      <c r="L60" s="399"/>
+      <c r="B60" s="280"/>
+      <c r="C60" s="273"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="287"/>
+      <c r="F60" s="329"/>
+      <c r="G60" s="323"/>
+      <c r="H60" s="324"/>
+      <c r="I60" s="324"/>
+      <c r="J60" s="324"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="325"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="388" t="s">
+      <c r="B61" s="369" t="s">
         <v>379</v>
       </c>
-      <c r="C61" s="389"/>
-      <c r="D61" s="389"/>
-      <c r="E61" s="389"/>
-      <c r="F61" s="389"/>
-      <c r="G61" s="389"/>
-      <c r="H61" s="389"/>
-      <c r="I61" s="389"/>
-      <c r="J61" s="389"/>
-      <c r="K61" s="389"/>
-      <c r="L61" s="390"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="370"/>
+      <c r="I61" s="370"/>
+      <c r="J61" s="370"/>
+      <c r="K61" s="370"/>
+      <c r="L61" s="371"/>
     </row>
     <row r="62" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="418" t="s">
+      <c r="B62" s="278" t="s">
         <v>380</v>
       </c>
-      <c r="C62" s="339" t="s">
+      <c r="C62" s="354" t="s">
         <v>381</v>
       </c>
-      <c r="D62" s="401"/>
-      <c r="E62" s="340"/>
-      <c r="F62" s="339" t="s">
+      <c r="D62" s="355"/>
+      <c r="E62" s="356"/>
+      <c r="F62" s="354" t="s">
         <v>382</v>
       </c>
-      <c r="G62" s="401"/>
-      <c r="H62" s="340"/>
-      <c r="I62" s="339" t="s">
+      <c r="G62" s="355"/>
+      <c r="H62" s="356"/>
+      <c r="I62" s="354" t="s">
         <v>383</v>
       </c>
-      <c r="J62" s="340"/>
-      <c r="K62" s="341" t="s">
+      <c r="J62" s="356"/>
+      <c r="K62" s="247" t="s">
         <v>384</v>
       </c>
-      <c r="L62" s="342" t="s">
+      <c r="L62" s="248" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="343" t="s">
+      <c r="B63" s="249" t="s">
         <v>386</v>
       </c>
-      <c r="C63" s="412"/>
-      <c r="D63" s="419"/>
-      <c r="E63" s="411"/>
-      <c r="F63" s="344"/>
-      <c r="G63" s="402"/>
-      <c r="H63" s="345"/>
-      <c r="I63" s="344"/>
-      <c r="J63" s="345"/>
-      <c r="K63" s="427" t="s">
+      <c r="C63" s="350"/>
+      <c r="D63" s="351"/>
+      <c r="E63" s="352"/>
+      <c r="F63" s="250"/>
+      <c r="G63" s="274"/>
+      <c r="H63" s="251"/>
+      <c r="I63" s="250"/>
+      <c r="J63" s="251"/>
+      <c r="K63" s="283" t="s">
         <v>407</v>
       </c>
-      <c r="L63" s="346"/>
+      <c r="L63" s="252"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="343" t="s">
+      <c r="B64" s="249" t="s">
         <v>387</v>
       </c>
-      <c r="C64" s="412"/>
-      <c r="D64" s="419"/>
-      <c r="E64" s="411"/>
-      <c r="F64" s="344"/>
-      <c r="G64" s="402"/>
-      <c r="H64" s="345"/>
-      <c r="I64" s="344"/>
-      <c r="J64" s="345"/>
-      <c r="K64" s="427" t="s">
+      <c r="C64" s="350"/>
+      <c r="D64" s="351"/>
+      <c r="E64" s="352"/>
+      <c r="F64" s="250"/>
+      <c r="G64" s="274"/>
+      <c r="H64" s="251"/>
+      <c r="I64" s="250"/>
+      <c r="J64" s="251"/>
+      <c r="K64" s="283" t="s">
         <v>407</v>
       </c>
-      <c r="L64" s="346"/>
+      <c r="L64" s="252"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="343" t="s">
+      <c r="B65" s="249" t="s">
         <v>388</v>
       </c>
-      <c r="C65" s="412"/>
-      <c r="D65" s="419"/>
-      <c r="E65" s="411"/>
-      <c r="F65" s="344"/>
-      <c r="G65" s="402"/>
-      <c r="H65" s="345"/>
-      <c r="I65" s="344"/>
-      <c r="J65" s="345"/>
-      <c r="K65" s="427"/>
-      <c r="L65" s="346"/>
+      <c r="C65" s="350"/>
+      <c r="D65" s="351"/>
+      <c r="E65" s="352"/>
+      <c r="F65" s="250"/>
+      <c r="G65" s="274"/>
+      <c r="H65" s="251"/>
+      <c r="I65" s="250"/>
+      <c r="J65" s="251"/>
+      <c r="K65" s="283"/>
+      <c r="L65" s="252"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="347" t="s">
+      <c r="B66" s="376" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="348"/>
-      <c r="D66" s="348"/>
-      <c r="E66" s="348"/>
-      <c r="F66" s="348"/>
-      <c r="G66" s="348"/>
-      <c r="H66" s="348"/>
-      <c r="I66" s="348"/>
-      <c r="J66" s="349"/>
-      <c r="K66" s="350" t="s">
+      <c r="C66" s="377"/>
+      <c r="D66" s="377"/>
+      <c r="E66" s="377"/>
+      <c r="F66" s="377"/>
+      <c r="G66" s="377"/>
+      <c r="H66" s="377"/>
+      <c r="I66" s="377"/>
+      <c r="J66" s="378"/>
+      <c r="K66" s="385" t="s">
         <v>390</v>
       </c>
-      <c r="L66" s="277"/>
+      <c r="L66" s="386"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="351"/>
-      <c r="C67" s="352"/>
-      <c r="D67" s="352"/>
-      <c r="E67" s="352"/>
-      <c r="F67" s="352"/>
-      <c r="G67" s="352"/>
-      <c r="H67" s="352"/>
-      <c r="I67" s="352"/>
-      <c r="J67" s="353"/>
-      <c r="K67" s="354" t="s">
+      <c r="B67" s="379"/>
+      <c r="C67" s="380"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="380"/>
+      <c r="F67" s="380"/>
+      <c r="G67" s="380"/>
+      <c r="H67" s="380"/>
+      <c r="I67" s="380"/>
+      <c r="J67" s="381"/>
+      <c r="K67" s="253" t="s">
         <v>391</v>
       </c>
-      <c r="L67" s="346"/>
+      <c r="L67" s="252"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="351"/>
-      <c r="C68" s="352"/>
-      <c r="D68" s="352"/>
-      <c r="E68" s="352"/>
-      <c r="F68" s="352"/>
-      <c r="G68" s="352"/>
-      <c r="H68" s="352"/>
-      <c r="I68" s="352"/>
-      <c r="J68" s="353"/>
-      <c r="K68" s="354" t="s">
+      <c r="B68" s="379"/>
+      <c r="C68" s="380"/>
+      <c r="D68" s="380"/>
+      <c r="E68" s="380"/>
+      <c r="F68" s="380"/>
+      <c r="G68" s="380"/>
+      <c r="H68" s="380"/>
+      <c r="I68" s="380"/>
+      <c r="J68" s="381"/>
+      <c r="K68" s="253" t="s">
         <v>392</v>
       </c>
-      <c r="L68" s="346"/>
+      <c r="L68" s="252"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="355"/>
-      <c r="C69" s="356"/>
-      <c r="D69" s="356"/>
-      <c r="E69" s="356"/>
-      <c r="F69" s="356"/>
-      <c r="G69" s="356"/>
-      <c r="H69" s="356"/>
-      <c r="I69" s="356"/>
-      <c r="J69" s="357"/>
-      <c r="K69" s="358" t="s">
+      <c r="B69" s="382"/>
+      <c r="C69" s="383"/>
+      <c r="D69" s="383"/>
+      <c r="E69" s="383"/>
+      <c r="F69" s="383"/>
+      <c r="G69" s="383"/>
+      <c r="H69" s="383"/>
+      <c r="I69" s="383"/>
+      <c r="J69" s="384"/>
+      <c r="K69" s="254" t="s">
         <v>393</v>
       </c>
-      <c r="L69" s="359"/>
+      <c r="L69" s="255"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="360"/>
-      <c r="C70" s="360"/>
-      <c r="D70" s="360"/>
-      <c r="E70" s="360"/>
-      <c r="F70" s="360"/>
-      <c r="G70" s="360"/>
-      <c r="H70" s="360"/>
-      <c r="I70" s="360"/>
-      <c r="J70" s="360"/>
-      <c r="K70" s="361"/>
-      <c r="L70" s="362"/>
+      <c r="B70" s="256"/>
+      <c r="C70" s="256"/>
+      <c r="D70" s="256"/>
+      <c r="E70" s="256"/>
+      <c r="F70" s="256"/>
+      <c r="G70" s="256"/>
+      <c r="H70" s="256"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="256"/>
+      <c r="K70" s="257"/>
+      <c r="L70" s="258"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="264" t="s">
+      <c r="B72" s="321" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="265"/>
-      <c r="D72" s="265"/>
-      <c r="E72" s="265"/>
-      <c r="F72" s="265"/>
-      <c r="G72" s="265"/>
-      <c r="H72" s="265"/>
-      <c r="I72" s="265"/>
-      <c r="J72" s="265"/>
-      <c r="K72" s="265"/>
-      <c r="L72" s="266"/>
+      <c r="C72" s="322"/>
+      <c r="D72" s="322"/>
+      <c r="E72" s="322"/>
+      <c r="F72" s="322"/>
+      <c r="G72" s="322"/>
+      <c r="H72" s="322"/>
+      <c r="I72" s="322"/>
+      <c r="J72" s="322"/>
+      <c r="K72" s="322"/>
+      <c r="L72" s="368"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="320"/>
-      <c r="C73" s="400"/>
-      <c r="D73" s="289"/>
-      <c r="E73" s="289"/>
-      <c r="F73" s="289"/>
-      <c r="G73" s="289"/>
-      <c r="H73" s="289"/>
-      <c r="I73" s="289"/>
-      <c r="J73" s="289"/>
-      <c r="K73" s="289"/>
-      <c r="L73" s="367"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="335"/>
+      <c r="D73" s="336"/>
+      <c r="E73" s="336"/>
+      <c r="F73" s="336"/>
+      <c r="G73" s="336"/>
+      <c r="H73" s="336"/>
+      <c r="I73" s="336"/>
+      <c r="J73" s="336"/>
+      <c r="K73" s="336"/>
+      <c r="L73" s="337"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="320"/>
-      <c r="C74" s="400"/>
-      <c r="D74" s="289"/>
-      <c r="E74" s="289"/>
-      <c r="F74" s="289"/>
-      <c r="G74" s="289"/>
-      <c r="H74" s="289"/>
-      <c r="I74" s="289"/>
-      <c r="J74" s="289"/>
-      <c r="K74" s="289"/>
-      <c r="L74" s="367"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="335"/>
+      <c r="D74" s="336"/>
+      <c r="E74" s="336"/>
+      <c r="F74" s="336"/>
+      <c r="G74" s="336"/>
+      <c r="H74" s="336"/>
+      <c r="I74" s="336"/>
+      <c r="J74" s="336"/>
+      <c r="K74" s="336"/>
+      <c r="L74" s="337"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="320"/>
-      <c r="C75" s="400"/>
-      <c r="D75" s="289"/>
-      <c r="E75" s="289"/>
-      <c r="F75" s="289"/>
-      <c r="G75" s="289"/>
-      <c r="H75" s="289"/>
-      <c r="I75" s="289"/>
-      <c r="J75" s="289"/>
-      <c r="K75" s="289"/>
-      <c r="L75" s="367"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="335"/>
+      <c r="D75" s="336"/>
+      <c r="E75" s="336"/>
+      <c r="F75" s="336"/>
+      <c r="G75" s="336"/>
+      <c r="H75" s="336"/>
+      <c r="I75" s="336"/>
+      <c r="J75" s="336"/>
+      <c r="K75" s="336"/>
+      <c r="L75" s="337"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="320"/>
-      <c r="C76" s="400"/>
-      <c r="D76" s="289"/>
-      <c r="E76" s="289"/>
-      <c r="F76" s="289"/>
-      <c r="G76" s="289"/>
-      <c r="H76" s="289"/>
-      <c r="I76" s="289"/>
-      <c r="J76" s="289"/>
-      <c r="K76" s="289"/>
-      <c r="L76" s="367"/>
+      <c r="B76" s="233"/>
+      <c r="C76" s="335"/>
+      <c r="D76" s="336"/>
+      <c r="E76" s="336"/>
+      <c r="F76" s="336"/>
+      <c r="G76" s="336"/>
+      <c r="H76" s="336"/>
+      <c r="I76" s="336"/>
+      <c r="J76" s="336"/>
+      <c r="K76" s="336"/>
+      <c r="L76" s="337"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="320"/>
-      <c r="C77" s="400"/>
-      <c r="D77" s="289"/>
-      <c r="E77" s="289"/>
-      <c r="F77" s="289"/>
-      <c r="G77" s="289"/>
-      <c r="H77" s="289"/>
-      <c r="I77" s="289"/>
-      <c r="J77" s="289"/>
-      <c r="K77" s="289"/>
-      <c r="L77" s="367"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="335"/>
+      <c r="D77" s="336"/>
+      <c r="E77" s="336"/>
+      <c r="F77" s="336"/>
+      <c r="G77" s="336"/>
+      <c r="H77" s="336"/>
+      <c r="I77" s="336"/>
+      <c r="J77" s="336"/>
+      <c r="K77" s="336"/>
+      <c r="L77" s="337"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="320"/>
-      <c r="C78" s="400"/>
-      <c r="D78" s="289"/>
-      <c r="E78" s="289"/>
-      <c r="F78" s="289"/>
-      <c r="G78" s="289"/>
-      <c r="H78" s="289"/>
-      <c r="I78" s="289"/>
-      <c r="J78" s="289"/>
-      <c r="K78" s="289"/>
-      <c r="L78" s="367"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="335"/>
+      <c r="D78" s="336"/>
+      <c r="E78" s="336"/>
+      <c r="F78" s="336"/>
+      <c r="G78" s="336"/>
+      <c r="H78" s="336"/>
+      <c r="I78" s="336"/>
+      <c r="J78" s="336"/>
+      <c r="K78" s="336"/>
+      <c r="L78" s="337"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="320"/>
-      <c r="C79" s="400"/>
-      <c r="D79" s="289"/>
-      <c r="E79" s="289"/>
-      <c r="F79" s="289"/>
-      <c r="G79" s="289"/>
-      <c r="H79" s="289"/>
-      <c r="I79" s="289"/>
-      <c r="J79" s="289"/>
-      <c r="K79" s="289"/>
-      <c r="L79" s="367"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="335"/>
+      <c r="D79" s="336"/>
+      <c r="E79" s="336"/>
+      <c r="F79" s="336"/>
+      <c r="G79" s="336"/>
+      <c r="H79" s="336"/>
+      <c r="I79" s="336"/>
+      <c r="J79" s="336"/>
+      <c r="K79" s="336"/>
+      <c r="L79" s="337"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="320"/>
-      <c r="C80" s="400"/>
-      <c r="D80" s="289"/>
-      <c r="E80" s="289"/>
-      <c r="F80" s="289"/>
-      <c r="G80" s="289"/>
-      <c r="H80" s="289"/>
-      <c r="I80" s="289"/>
-      <c r="J80" s="289"/>
-      <c r="K80" s="289"/>
-      <c r="L80" s="367"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="335"/>
+      <c r="D80" s="336"/>
+      <c r="E80" s="336"/>
+      <c r="F80" s="336"/>
+      <c r="G80" s="336"/>
+      <c r="H80" s="336"/>
+      <c r="I80" s="336"/>
+      <c r="J80" s="336"/>
+      <c r="K80" s="336"/>
+      <c r="L80" s="337"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="320"/>
-      <c r="C81" s="400"/>
-      <c r="D81" s="289"/>
-      <c r="E81" s="289"/>
-      <c r="F81" s="289"/>
-      <c r="G81" s="289"/>
-      <c r="H81" s="289"/>
-      <c r="I81" s="289"/>
-      <c r="J81" s="289"/>
-      <c r="K81" s="289"/>
-      <c r="L81" s="367"/>
+      <c r="B81" s="233"/>
+      <c r="C81" s="335"/>
+      <c r="D81" s="336"/>
+      <c r="E81" s="336"/>
+      <c r="F81" s="336"/>
+      <c r="G81" s="336"/>
+      <c r="H81" s="336"/>
+      <c r="I81" s="336"/>
+      <c r="J81" s="336"/>
+      <c r="K81" s="336"/>
+      <c r="L81" s="337"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="320"/>
-      <c r="C82" s="400"/>
-      <c r="D82" s="289"/>
-      <c r="E82" s="289"/>
-      <c r="F82" s="289"/>
-      <c r="G82" s="289"/>
-      <c r="H82" s="289"/>
-      <c r="I82" s="289"/>
-      <c r="J82" s="289"/>
-      <c r="K82" s="289"/>
-      <c r="L82" s="367"/>
+      <c r="B82" s="233"/>
+      <c r="C82" s="335"/>
+      <c r="D82" s="336"/>
+      <c r="E82" s="336"/>
+      <c r="F82" s="336"/>
+      <c r="G82" s="336"/>
+      <c r="H82" s="336"/>
+      <c r="I82" s="336"/>
+      <c r="J82" s="336"/>
+      <c r="K82" s="336"/>
+      <c r="L82" s="337"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="320"/>
-      <c r="C83" s="400"/>
-      <c r="D83" s="289"/>
-      <c r="E83" s="289"/>
-      <c r="F83" s="289"/>
-      <c r="G83" s="289"/>
-      <c r="H83" s="289"/>
-      <c r="I83" s="289"/>
-      <c r="J83" s="289"/>
-      <c r="K83" s="289"/>
-      <c r="L83" s="367"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="335"/>
+      <c r="D83" s="336"/>
+      <c r="E83" s="336"/>
+      <c r="F83" s="336"/>
+      <c r="G83" s="336"/>
+      <c r="H83" s="336"/>
+      <c r="I83" s="336"/>
+      <c r="J83" s="336"/>
+      <c r="K83" s="336"/>
+      <c r="L83" s="337"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="320"/>
-      <c r="C84" s="400"/>
-      <c r="D84" s="289"/>
-      <c r="E84" s="289"/>
-      <c r="F84" s="289"/>
-      <c r="G84" s="289"/>
-      <c r="H84" s="289"/>
-      <c r="I84" s="289"/>
-      <c r="J84" s="289"/>
-      <c r="K84" s="289"/>
-      <c r="L84" s="367"/>
+      <c r="B84" s="233"/>
+      <c r="C84" s="335"/>
+      <c r="D84" s="336"/>
+      <c r="E84" s="336"/>
+      <c r="F84" s="336"/>
+      <c r="G84" s="336"/>
+      <c r="H84" s="336"/>
+      <c r="I84" s="336"/>
+      <c r="J84" s="336"/>
+      <c r="K84" s="336"/>
+      <c r="L84" s="337"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="320"/>
-      <c r="C85" s="400"/>
-      <c r="D85" s="289"/>
-      <c r="E85" s="289"/>
-      <c r="F85" s="289"/>
-      <c r="G85" s="289"/>
-      <c r="H85" s="289"/>
-      <c r="I85" s="289"/>
-      <c r="J85" s="289"/>
-      <c r="K85" s="289"/>
-      <c r="L85" s="367"/>
+      <c r="B85" s="233"/>
+      <c r="C85" s="335"/>
+      <c r="D85" s="336"/>
+      <c r="E85" s="336"/>
+      <c r="F85" s="336"/>
+      <c r="G85" s="336"/>
+      <c r="H85" s="336"/>
+      <c r="I85" s="336"/>
+      <c r="J85" s="336"/>
+      <c r="K85" s="336"/>
+      <c r="L85" s="337"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="320"/>
-      <c r="C86" s="400"/>
-      <c r="D86" s="289"/>
-      <c r="E86" s="289"/>
-      <c r="F86" s="289"/>
-      <c r="G86" s="289"/>
-      <c r="H86" s="289"/>
-      <c r="I86" s="289"/>
-      <c r="J86" s="289"/>
-      <c r="K86" s="289"/>
-      <c r="L86" s="367"/>
+      <c r="B86" s="233"/>
+      <c r="C86" s="335"/>
+      <c r="D86" s="336"/>
+      <c r="E86" s="336"/>
+      <c r="F86" s="336"/>
+      <c r="G86" s="336"/>
+      <c r="H86" s="336"/>
+      <c r="I86" s="336"/>
+      <c r="J86" s="336"/>
+      <c r="K86" s="336"/>
+      <c r="L86" s="337"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="320"/>
-      <c r="C87" s="400"/>
-      <c r="D87" s="289"/>
-      <c r="E87" s="289"/>
-      <c r="F87" s="289"/>
-      <c r="G87" s="289"/>
-      <c r="H87" s="289"/>
-      <c r="I87" s="289"/>
-      <c r="J87" s="289"/>
-      <c r="K87" s="289"/>
-      <c r="L87" s="367"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="335"/>
+      <c r="D87" s="336"/>
+      <c r="E87" s="336"/>
+      <c r="F87" s="336"/>
+      <c r="G87" s="336"/>
+      <c r="H87" s="336"/>
+      <c r="I87" s="336"/>
+      <c r="J87" s="336"/>
+      <c r="K87" s="336"/>
+      <c r="L87" s="337"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B88" s="320"/>
-      <c r="C88" s="400"/>
-      <c r="D88" s="289"/>
-      <c r="E88" s="289"/>
-      <c r="F88" s="289"/>
-      <c r="G88" s="289"/>
-      <c r="H88" s="289"/>
-      <c r="I88" s="289"/>
-      <c r="J88" s="289"/>
-      <c r="K88" s="289"/>
-      <c r="L88" s="367"/>
+      <c r="B88" s="233"/>
+      <c r="C88" s="335"/>
+      <c r="D88" s="336"/>
+      <c r="E88" s="336"/>
+      <c r="F88" s="336"/>
+      <c r="G88" s="336"/>
+      <c r="H88" s="336"/>
+      <c r="I88" s="336"/>
+      <c r="J88" s="336"/>
+      <c r="K88" s="336"/>
+      <c r="L88" s="337"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="320"/>
-      <c r="C89" s="400"/>
-      <c r="D89" s="289"/>
-      <c r="E89" s="289"/>
-      <c r="F89" s="289"/>
-      <c r="G89" s="289"/>
-      <c r="H89" s="289"/>
-      <c r="I89" s="289"/>
-      <c r="J89" s="289"/>
-      <c r="K89" s="289"/>
-      <c r="L89" s="367"/>
+      <c r="B89" s="233"/>
+      <c r="C89" s="335"/>
+      <c r="D89" s="336"/>
+      <c r="E89" s="336"/>
+      <c r="F89" s="336"/>
+      <c r="G89" s="336"/>
+      <c r="H89" s="336"/>
+      <c r="I89" s="336"/>
+      <c r="J89" s="336"/>
+      <c r="K89" s="336"/>
+      <c r="L89" s="337"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" s="320"/>
-      <c r="C90" s="400"/>
-      <c r="D90" s="289"/>
-      <c r="E90" s="289"/>
-      <c r="F90" s="289"/>
-      <c r="G90" s="289"/>
-      <c r="H90" s="289"/>
-      <c r="I90" s="289"/>
-      <c r="J90" s="289"/>
-      <c r="K90" s="289"/>
-      <c r="L90" s="367"/>
+      <c r="B90" s="233"/>
+      <c r="C90" s="335"/>
+      <c r="D90" s="336"/>
+      <c r="E90" s="336"/>
+      <c r="F90" s="336"/>
+      <c r="G90" s="336"/>
+      <c r="H90" s="336"/>
+      <c r="I90" s="336"/>
+      <c r="J90" s="336"/>
+      <c r="K90" s="336"/>
+      <c r="L90" s="337"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B91" s="320"/>
-      <c r="C91" s="400"/>
-      <c r="D91" s="289"/>
-      <c r="E91" s="289"/>
-      <c r="F91" s="289"/>
-      <c r="G91" s="289"/>
-      <c r="H91" s="289"/>
-      <c r="I91" s="289"/>
-      <c r="J91" s="289"/>
-      <c r="K91" s="289"/>
-      <c r="L91" s="367"/>
+      <c r="B91" s="233"/>
+      <c r="C91" s="335"/>
+      <c r="D91" s="336"/>
+      <c r="E91" s="336"/>
+      <c r="F91" s="336"/>
+      <c r="G91" s="336"/>
+      <c r="H91" s="336"/>
+      <c r="I91" s="336"/>
+      <c r="J91" s="336"/>
+      <c r="K91" s="336"/>
+      <c r="L91" s="337"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="320"/>
-      <c r="C92" s="400"/>
-      <c r="D92" s="289"/>
-      <c r="E92" s="289"/>
-      <c r="F92" s="289"/>
-      <c r="G92" s="289"/>
-      <c r="H92" s="289"/>
-      <c r="I92" s="289"/>
-      <c r="J92" s="289"/>
-      <c r="K92" s="289"/>
-      <c r="L92" s="367"/>
+      <c r="B92" s="233"/>
+      <c r="C92" s="335"/>
+      <c r="D92" s="336"/>
+      <c r="E92" s="336"/>
+      <c r="F92" s="336"/>
+      <c r="G92" s="336"/>
+      <c r="H92" s="336"/>
+      <c r="I92" s="336"/>
+      <c r="J92" s="336"/>
+      <c r="K92" s="336"/>
+      <c r="L92" s="337"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="320"/>
-      <c r="C93" s="400"/>
-      <c r="D93" s="289"/>
-      <c r="E93" s="289"/>
-      <c r="F93" s="289"/>
-      <c r="G93" s="289"/>
-      <c r="H93" s="289"/>
-      <c r="I93" s="289"/>
-      <c r="J93" s="289"/>
-      <c r="K93" s="289"/>
-      <c r="L93" s="367"/>
+      <c r="B93" s="233"/>
+      <c r="C93" s="335"/>
+      <c r="D93" s="336"/>
+      <c r="E93" s="336"/>
+      <c r="F93" s="336"/>
+      <c r="G93" s="336"/>
+      <c r="H93" s="336"/>
+      <c r="I93" s="336"/>
+      <c r="J93" s="336"/>
+      <c r="K93" s="336"/>
+      <c r="L93" s="337"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="320"/>
-      <c r="C94" s="400"/>
-      <c r="D94" s="289"/>
-      <c r="E94" s="289"/>
-      <c r="F94" s="289"/>
-      <c r="G94" s="289"/>
-      <c r="H94" s="289"/>
-      <c r="I94" s="289"/>
-      <c r="J94" s="289"/>
-      <c r="K94" s="289"/>
-      <c r="L94" s="367"/>
+      <c r="B94" s="233"/>
+      <c r="C94" s="335"/>
+      <c r="D94" s="336"/>
+      <c r="E94" s="336"/>
+      <c r="F94" s="336"/>
+      <c r="G94" s="336"/>
+      <c r="H94" s="336"/>
+      <c r="I94" s="336"/>
+      <c r="J94" s="336"/>
+      <c r="K94" s="336"/>
+      <c r="L94" s="337"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="320"/>
-      <c r="C95" s="400"/>
-      <c r="D95" s="289"/>
-      <c r="E95" s="289"/>
-      <c r="F95" s="289"/>
-      <c r="G95" s="289"/>
-      <c r="H95" s="289"/>
-      <c r="I95" s="289"/>
-      <c r="J95" s="289"/>
-      <c r="K95" s="289"/>
-      <c r="L95" s="367"/>
+      <c r="B95" s="233"/>
+      <c r="C95" s="335"/>
+      <c r="D95" s="336"/>
+      <c r="E95" s="336"/>
+      <c r="F95" s="336"/>
+      <c r="G95" s="336"/>
+      <c r="H95" s="336"/>
+      <c r="I95" s="336"/>
+      <c r="J95" s="336"/>
+      <c r="K95" s="336"/>
+      <c r="L95" s="337"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="320"/>
-      <c r="C96" s="400"/>
-      <c r="D96" s="289"/>
-      <c r="E96" s="289"/>
-      <c r="F96" s="289"/>
-      <c r="G96" s="289"/>
-      <c r="H96" s="289"/>
-      <c r="I96" s="289"/>
-      <c r="J96" s="289"/>
-      <c r="K96" s="289"/>
-      <c r="L96" s="367"/>
+      <c r="B96" s="233"/>
+      <c r="C96" s="335"/>
+      <c r="D96" s="336"/>
+      <c r="E96" s="336"/>
+      <c r="F96" s="336"/>
+      <c r="G96" s="336"/>
+      <c r="H96" s="336"/>
+      <c r="I96" s="336"/>
+      <c r="J96" s="336"/>
+      <c r="K96" s="336"/>
+      <c r="L96" s="337"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="320"/>
-      <c r="C97" s="400"/>
-      <c r="D97" s="289"/>
-      <c r="E97" s="289"/>
-      <c r="F97" s="289"/>
-      <c r="G97" s="289"/>
-      <c r="H97" s="289"/>
-      <c r="I97" s="289"/>
-      <c r="J97" s="289"/>
-      <c r="K97" s="289"/>
-      <c r="L97" s="367"/>
+      <c r="B97" s="233"/>
+      <c r="C97" s="335"/>
+      <c r="D97" s="336"/>
+      <c r="E97" s="336"/>
+      <c r="F97" s="336"/>
+      <c r="G97" s="336"/>
+      <c r="H97" s="336"/>
+      <c r="I97" s="336"/>
+      <c r="J97" s="336"/>
+      <c r="K97" s="336"/>
+      <c r="L97" s="337"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="320"/>
-      <c r="C98" s="400"/>
-      <c r="D98" s="289"/>
-      <c r="E98" s="289"/>
-      <c r="F98" s="289"/>
-      <c r="G98" s="289"/>
-      <c r="H98" s="289"/>
-      <c r="I98" s="289"/>
-      <c r="J98" s="289"/>
-      <c r="K98" s="289"/>
-      <c r="L98" s="367"/>
+      <c r="B98" s="233"/>
+      <c r="C98" s="335"/>
+      <c r="D98" s="336"/>
+      <c r="E98" s="336"/>
+      <c r="F98" s="336"/>
+      <c r="G98" s="336"/>
+      <c r="H98" s="336"/>
+      <c r="I98" s="336"/>
+      <c r="J98" s="336"/>
+      <c r="K98" s="336"/>
+      <c r="L98" s="337"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="320"/>
-      <c r="C99" s="400"/>
-      <c r="D99" s="289"/>
-      <c r="E99" s="289"/>
-      <c r="F99" s="289"/>
-      <c r="G99" s="289"/>
-      <c r="H99" s="289"/>
-      <c r="I99" s="289"/>
-      <c r="J99" s="289"/>
-      <c r="K99" s="289"/>
-      <c r="L99" s="367"/>
+      <c r="B99" s="233"/>
+      <c r="C99" s="335"/>
+      <c r="D99" s="336"/>
+      <c r="E99" s="336"/>
+      <c r="F99" s="336"/>
+      <c r="G99" s="336"/>
+      <c r="H99" s="336"/>
+      <c r="I99" s="336"/>
+      <c r="J99" s="336"/>
+      <c r="K99" s="336"/>
+      <c r="L99" s="337"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B100" s="320"/>
-      <c r="C100" s="400"/>
-      <c r="D100" s="289"/>
-      <c r="E100" s="289"/>
-      <c r="F100" s="289"/>
-      <c r="G100" s="289"/>
-      <c r="H100" s="289"/>
-      <c r="I100" s="289"/>
-      <c r="J100" s="289"/>
-      <c r="K100" s="289"/>
-      <c r="L100" s="367"/>
+      <c r="B100" s="233"/>
+      <c r="C100" s="335"/>
+      <c r="D100" s="336"/>
+      <c r="E100" s="336"/>
+      <c r="F100" s="336"/>
+      <c r="G100" s="336"/>
+      <c r="H100" s="336"/>
+      <c r="I100" s="336"/>
+      <c r="J100" s="336"/>
+      <c r="K100" s="336"/>
+      <c r="L100" s="337"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B101" s="264" t="s">
+      <c r="B101" s="321" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="265"/>
-      <c r="D101" s="265"/>
-      <c r="E101" s="265"/>
-      <c r="F101" s="265"/>
-      <c r="G101" s="265"/>
-      <c r="H101" s="265"/>
-      <c r="I101" s="265"/>
-      <c r="J101" s="265"/>
-      <c r="K101" s="265"/>
-      <c r="L101" s="266"/>
+      <c r="C101" s="322"/>
+      <c r="D101" s="322"/>
+      <c r="E101" s="322"/>
+      <c r="F101" s="322"/>
+      <c r="G101" s="322"/>
+      <c r="H101" s="322"/>
+      <c r="I101" s="322"/>
+      <c r="J101" s="322"/>
+      <c r="K101" s="322"/>
+      <c r="L101" s="368"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B102" s="384"/>
-      <c r="C102" s="400"/>
-      <c r="D102" s="289"/>
-      <c r="E102" s="289"/>
-      <c r="F102" s="289"/>
-      <c r="G102" s="289"/>
-      <c r="H102" s="289"/>
-      <c r="I102" s="289"/>
-      <c r="J102" s="289"/>
-      <c r="K102" s="289"/>
-      <c r="L102" s="367"/>
+      <c r="B102" s="269"/>
+      <c r="C102" s="335"/>
+      <c r="D102" s="336"/>
+      <c r="E102" s="336"/>
+      <c r="F102" s="336"/>
+      <c r="G102" s="336"/>
+      <c r="H102" s="336"/>
+      <c r="I102" s="336"/>
+      <c r="J102" s="336"/>
+      <c r="K102" s="336"/>
+      <c r="L102" s="337"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="384"/>
-      <c r="C103" s="400"/>
-      <c r="D103" s="289"/>
-      <c r="E103" s="289"/>
-      <c r="F103" s="289"/>
-      <c r="G103" s="289"/>
-      <c r="H103" s="289"/>
-      <c r="I103" s="289"/>
-      <c r="J103" s="289"/>
-      <c r="K103" s="289"/>
-      <c r="L103" s="367"/>
+      <c r="B103" s="269"/>
+      <c r="C103" s="335"/>
+      <c r="D103" s="336"/>
+      <c r="E103" s="336"/>
+      <c r="F103" s="336"/>
+      <c r="G103" s="336"/>
+      <c r="H103" s="336"/>
+      <c r="I103" s="336"/>
+      <c r="J103" s="336"/>
+      <c r="K103" s="336"/>
+      <c r="L103" s="337"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="377"/>
-      <c r="C104" s="400"/>
-      <c r="D104" s="289"/>
-      <c r="E104" s="289"/>
-      <c r="F104" s="289"/>
-      <c r="G104" s="289"/>
-      <c r="H104" s="289"/>
-      <c r="I104" s="289"/>
-      <c r="J104" s="289"/>
-      <c r="K104" s="289"/>
-      <c r="L104" s="367"/>
+      <c r="B104" s="262"/>
+      <c r="C104" s="335"/>
+      <c r="D104" s="336"/>
+      <c r="E104" s="336"/>
+      <c r="F104" s="336"/>
+      <c r="G104" s="336"/>
+      <c r="H104" s="336"/>
+      <c r="I104" s="336"/>
+      <c r="J104" s="336"/>
+      <c r="K104" s="336"/>
+      <c r="L104" s="337"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="264" t="s">
+      <c r="B105" s="321" t="s">
         <v>399</v>
       </c>
-      <c r="C105" s="265"/>
-      <c r="D105" s="265"/>
-      <c r="E105" s="265"/>
-      <c r="F105" s="265"/>
-      <c r="G105" s="265"/>
-      <c r="H105" s="265"/>
-      <c r="I105" s="265"/>
-      <c r="J105" s="265"/>
-      <c r="K105" s="265"/>
-      <c r="L105" s="266"/>
+      <c r="C105" s="322"/>
+      <c r="D105" s="322"/>
+      <c r="E105" s="322"/>
+      <c r="F105" s="322"/>
+      <c r="G105" s="322"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="368"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="384"/>
-      <c r="C106" s="400"/>
-      <c r="D106" s="289"/>
-      <c r="E106" s="289"/>
-      <c r="F106" s="289"/>
-      <c r="G106" s="289"/>
-      <c r="H106" s="289"/>
-      <c r="I106" s="289"/>
-      <c r="J106" s="289"/>
-      <c r="K106" s="289"/>
-      <c r="L106" s="367"/>
+      <c r="B106" s="269"/>
+      <c r="C106" s="335"/>
+      <c r="D106" s="336"/>
+      <c r="E106" s="336"/>
+      <c r="F106" s="336"/>
+      <c r="G106" s="336"/>
+      <c r="H106" s="336"/>
+      <c r="I106" s="336"/>
+      <c r="J106" s="336"/>
+      <c r="K106" s="336"/>
+      <c r="L106" s="337"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="384"/>
-      <c r="C107" s="400"/>
-      <c r="D107" s="289"/>
-      <c r="E107" s="289"/>
-      <c r="F107" s="289"/>
-      <c r="G107" s="289"/>
-      <c r="H107" s="289"/>
-      <c r="I107" s="289"/>
-      <c r="J107" s="289"/>
-      <c r="K107" s="289"/>
-      <c r="L107" s="367"/>
+      <c r="B107" s="269"/>
+      <c r="C107" s="335"/>
+      <c r="D107" s="336"/>
+      <c r="E107" s="336"/>
+      <c r="F107" s="336"/>
+      <c r="G107" s="336"/>
+      <c r="H107" s="336"/>
+      <c r="I107" s="336"/>
+      <c r="J107" s="336"/>
+      <c r="K107" s="336"/>
+      <c r="L107" s="337"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="384"/>
-      <c r="C108" s="400"/>
-      <c r="D108" s="289"/>
-      <c r="E108" s="289"/>
-      <c r="F108" s="289"/>
-      <c r="G108" s="289"/>
-      <c r="H108" s="289"/>
-      <c r="I108" s="289"/>
-      <c r="J108" s="289"/>
-      <c r="K108" s="289"/>
-      <c r="L108" s="367"/>
+      <c r="B108" s="269"/>
+      <c r="C108" s="335"/>
+      <c r="D108" s="336"/>
+      <c r="E108" s="336"/>
+      <c r="F108" s="336"/>
+      <c r="G108" s="336"/>
+      <c r="H108" s="336"/>
+      <c r="I108" s="336"/>
+      <c r="J108" s="336"/>
+      <c r="K108" s="336"/>
+      <c r="L108" s="337"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="363" t="s">
+      <c r="B109" s="373" t="s">
         <v>395</v>
       </c>
-      <c r="C109" s="364"/>
-      <c r="D109" s="364"/>
-      <c r="E109" s="364"/>
-      <c r="F109" s="364"/>
-      <c r="G109" s="364"/>
-      <c r="H109" s="364"/>
-      <c r="I109" s="364"/>
-      <c r="J109" s="364"/>
-      <c r="K109" s="364"/>
-      <c r="L109" s="365"/>
+      <c r="C109" s="374"/>
+      <c r="D109" s="374"/>
+      <c r="E109" s="374"/>
+      <c r="F109" s="374"/>
+      <c r="G109" s="374"/>
+      <c r="H109" s="374"/>
+      <c r="I109" s="374"/>
+      <c r="J109" s="374"/>
+      <c r="K109" s="374"/>
+      <c r="L109" s="375"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="366"/>
-      <c r="C110" s="289"/>
-      <c r="D110" s="289"/>
-      <c r="E110" s="289"/>
-      <c r="F110" s="289"/>
-      <c r="G110" s="289"/>
-      <c r="H110" s="289"/>
-      <c r="I110" s="289"/>
-      <c r="J110" s="289"/>
-      <c r="K110" s="289"/>
-      <c r="L110" s="367"/>
+      <c r="B110" s="372"/>
+      <c r="C110" s="336"/>
+      <c r="D110" s="336"/>
+      <c r="E110" s="336"/>
+      <c r="F110" s="336"/>
+      <c r="G110" s="336"/>
+      <c r="H110" s="336"/>
+      <c r="I110" s="336"/>
+      <c r="J110" s="336"/>
+      <c r="K110" s="336"/>
+      <c r="L110" s="337"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="366"/>
-      <c r="C111" s="289"/>
-      <c r="D111" s="289"/>
-      <c r="E111" s="289"/>
-      <c r="F111" s="289"/>
-      <c r="G111" s="289"/>
-      <c r="H111" s="289"/>
-      <c r="I111" s="289"/>
-      <c r="J111" s="289"/>
-      <c r="K111" s="289"/>
-      <c r="L111" s="367"/>
+      <c r="B111" s="372"/>
+      <c r="C111" s="336"/>
+      <c r="D111" s="336"/>
+      <c r="E111" s="336"/>
+      <c r="F111" s="336"/>
+      <c r="G111" s="336"/>
+      <c r="H111" s="336"/>
+      <c r="I111" s="336"/>
+      <c r="J111" s="336"/>
+      <c r="K111" s="336"/>
+      <c r="L111" s="337"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="366"/>
-      <c r="C112" s="289"/>
-      <c r="D112" s="289"/>
-      <c r="E112" s="289"/>
-      <c r="F112" s="289"/>
-      <c r="G112" s="289"/>
-      <c r="H112" s="289"/>
-      <c r="I112" s="289"/>
-      <c r="J112" s="289"/>
-      <c r="K112" s="289"/>
-      <c r="L112" s="367"/>
+      <c r="B112" s="372"/>
+      <c r="C112" s="336"/>
+      <c r="D112" s="336"/>
+      <c r="E112" s="336"/>
+      <c r="F112" s="336"/>
+      <c r="G112" s="336"/>
+      <c r="H112" s="336"/>
+      <c r="I112" s="336"/>
+      <c r="J112" s="336"/>
+      <c r="K112" s="336"/>
+      <c r="L112" s="337"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" s="366"/>
-      <c r="C113" s="289"/>
-      <c r="D113" s="289"/>
-      <c r="E113" s="289"/>
-      <c r="F113" s="289"/>
-      <c r="G113" s="289"/>
-      <c r="H113" s="289"/>
-      <c r="I113" s="289"/>
-      <c r="J113" s="289"/>
-      <c r="K113" s="289"/>
-      <c r="L113" s="367"/>
+      <c r="B113" s="372"/>
+      <c r="C113" s="336"/>
+      <c r="D113" s="336"/>
+      <c r="E113" s="336"/>
+      <c r="F113" s="336"/>
+      <c r="G113" s="336"/>
+      <c r="H113" s="336"/>
+      <c r="I113" s="336"/>
+      <c r="J113" s="336"/>
+      <c r="K113" s="336"/>
+      <c r="L113" s="337"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" s="368"/>
-      <c r="C114" s="369"/>
-      <c r="D114" s="369"/>
-      <c r="E114" s="369"/>
-      <c r="F114" s="369"/>
-      <c r="G114" s="378"/>
-      <c r="H114" s="369"/>
-      <c r="I114" s="369"/>
-      <c r="J114" s="369"/>
-      <c r="K114" s="369"/>
-      <c r="L114" s="370"/>
+      <c r="B114" s="338"/>
+      <c r="C114" s="339"/>
+      <c r="D114" s="339"/>
+      <c r="E114" s="339"/>
+      <c r="F114" s="339"/>
+      <c r="G114" s="263"/>
+      <c r="H114" s="339"/>
+      <c r="I114" s="339"/>
+      <c r="J114" s="339"/>
+      <c r="K114" s="339"/>
+      <c r="L114" s="347"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" s="371"/>
-      <c r="C115" s="372"/>
-      <c r="D115" s="372"/>
-      <c r="E115" s="372"/>
-      <c r="F115" s="372"/>
-      <c r="G115" s="379"/>
-      <c r="H115" s="372"/>
-      <c r="I115" s="372"/>
-      <c r="J115" s="372"/>
-      <c r="K115" s="372"/>
-      <c r="L115" s="373"/>
+      <c r="B115" s="340"/>
+      <c r="C115" s="341"/>
+      <c r="D115" s="341"/>
+      <c r="E115" s="341"/>
+      <c r="F115" s="341"/>
+      <c r="G115" s="264"/>
+      <c r="H115" s="341"/>
+      <c r="I115" s="341"/>
+      <c r="J115" s="341"/>
+      <c r="K115" s="341"/>
+      <c r="L115" s="348"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" s="371"/>
-      <c r="C116" s="372"/>
-      <c r="D116" s="372"/>
-      <c r="E116" s="372"/>
-      <c r="F116" s="372"/>
-      <c r="G116" s="379"/>
-      <c r="H116" s="372"/>
-      <c r="I116" s="372"/>
-      <c r="J116" s="372"/>
-      <c r="K116" s="372"/>
-      <c r="L116" s="373"/>
+      <c r="B116" s="340"/>
+      <c r="C116" s="341"/>
+      <c r="D116" s="341"/>
+      <c r="E116" s="341"/>
+      <c r="F116" s="341"/>
+      <c r="G116" s="264"/>
+      <c r="H116" s="341"/>
+      <c r="I116" s="341"/>
+      <c r="J116" s="341"/>
+      <c r="K116" s="341"/>
+      <c r="L116" s="348"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" s="385"/>
-      <c r="C117" s="386"/>
-      <c r="D117" s="386"/>
-      <c r="E117" s="386"/>
-      <c r="F117" s="386"/>
-      <c r="G117" s="416"/>
-      <c r="H117" s="386"/>
-      <c r="I117" s="386"/>
-      <c r="J117" s="386"/>
-      <c r="K117" s="386"/>
-      <c r="L117" s="387"/>
+      <c r="B117" s="342"/>
+      <c r="C117" s="343"/>
+      <c r="D117" s="343"/>
+      <c r="E117" s="343"/>
+      <c r="F117" s="343"/>
+      <c r="G117" s="276"/>
+      <c r="H117" s="343"/>
+      <c r="I117" s="343"/>
+      <c r="J117" s="343"/>
+      <c r="K117" s="343"/>
+      <c r="L117" s="349"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="413" t="s">
+      <c r="B118" s="344" t="s">
         <v>396</v>
       </c>
-      <c r="C118" s="414"/>
-      <c r="D118" s="414"/>
-      <c r="E118" s="414"/>
-      <c r="F118" s="414"/>
-      <c r="G118" s="417"/>
-      <c r="H118" s="414" t="s">
+      <c r="C118" s="345"/>
+      <c r="D118" s="345"/>
+      <c r="E118" s="345"/>
+      <c r="F118" s="345"/>
+      <c r="G118" s="277"/>
+      <c r="H118" s="345" t="s">
         <v>397</v>
       </c>
-      <c r="I118" s="414"/>
-      <c r="J118" s="414"/>
-      <c r="K118" s="414"/>
-      <c r="L118" s="415"/>
+      <c r="I118" s="345"/>
+      <c r="J118" s="345"/>
+      <c r="K118" s="345"/>
+      <c r="L118" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C106:L106"/>
-    <mergeCell ref="C107:L107"/>
-    <mergeCell ref="C108:L108"/>
-    <mergeCell ref="B114:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H114:L117"/>
-    <mergeCell ref="C98:L98"/>
-    <mergeCell ref="C99:L99"/>
-    <mergeCell ref="C100:L100"/>
-    <mergeCell ref="C102:L102"/>
-    <mergeCell ref="C103:L103"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="C86:L86"/>
-    <mergeCell ref="C87:L87"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C89:L89"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C76:L76"/>
-    <mergeCell ref="C77:L77"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="F21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E35:K36"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="B66:J69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="C97:L97"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="C93:L93"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="C78:L78"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="C81:L81"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
@@ -23876,94 +24234,52 @@
     <mergeCell ref="E49:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="C108:L108"/>
+    <mergeCell ref="B114:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H114:L117"/>
+    <mergeCell ref="C98:L98"/>
+    <mergeCell ref="C99:L99"/>
+    <mergeCell ref="C100:L100"/>
+    <mergeCell ref="C102:L102"/>
+    <mergeCell ref="C103:L103"/>
+    <mergeCell ref="C104:L104"/>
     <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B61:L61"/>
     <mergeCell ref="B111:L111"/>
     <mergeCell ref="B112:L112"/>
     <mergeCell ref="B113:L113"/>
     <mergeCell ref="B101:L101"/>
     <mergeCell ref="B109:L109"/>
     <mergeCell ref="B110:L110"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C106:L106"/>
+    <mergeCell ref="C86:L86"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C76:L76"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C94:L94"/>
     <mergeCell ref="C95:L95"/>
     <mergeCell ref="C96:L96"/>
-    <mergeCell ref="C97:L97"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="C93:L93"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="C84:L84"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="C78:L78"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="B66:J69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E35:K36"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="F21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:L12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
@@ -24004,10 +24320,10 @@
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="175" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="174" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="185" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="185" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="184" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="184" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -24015,32 +24331,32 @@
       <c r="A1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="288" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="31"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="165"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="76"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="33"/>
       <c r="C3" s="75"/>
-      <c r="D3" s="166"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
@@ -24048,12 +24364,12 @@
         <v>303</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="224" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="291" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="177">
+      <c r="F4" s="292"/>
+      <c r="G4" s="176">
         <f>G7+G14+G20+G25+G35+G37+G39+G43+G47+G51+G53+G55+G57+G59+G62+G69+G71</f>
         <v>2341276.7999999998</v>
       </c>
@@ -24061,10 +24377,10 @@
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
-      <c r="D5" s="167"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
     </row>
     <row r="6" spans="1:7" s="96" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="97" t="s">
@@ -24073,16 +24389,16 @@
       <c r="C6" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="167" t="s">
         <v>272</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="177" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="179" t="s">
+      <c r="G6" s="178" t="s">
         <v>229</v>
       </c>
     </row>
@@ -24096,10 +24412,10 @@
       <c r="C7" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="169"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="181">
+      <c r="F7" s="179"/>
+      <c r="G7" s="180">
         <f>SUM(G8:G13)</f>
         <v>116000</v>
       </c>
@@ -24112,16 +24428,16 @@
       <c r="C8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="170">
+      <c r="D8" s="169">
         <v>1</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="182">
+      <c r="F8" s="181">
         <v>10000</v>
       </c>
-      <c r="G8" s="182">
+      <c r="G8" s="181">
         <f t="shared" ref="G8:G13" si="0">D8*F8</f>
         <v>10000</v>
       </c>
@@ -24134,16 +24450,16 @@
       <c r="C9" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="170">
         <v>1</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="182">
+      <c r="F9" s="181">
         <v>4000</v>
       </c>
-      <c r="G9" s="182">
+      <c r="G9" s="181">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -24156,16 +24472,16 @@
       <c r="C10" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="171">
+      <c r="D10" s="170">
         <v>1</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="182">
+      <c r="F10" s="181">
         <v>30000</v>
       </c>
-      <c r="G10" s="182">
+      <c r="G10" s="181">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -24178,16 +24494,16 @@
       <c r="C11" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="171">
+      <c r="D11" s="170">
         <v>1</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="182">
+      <c r="F11" s="181">
         <v>30000</v>
       </c>
-      <c r="G11" s="182">
+      <c r="G11" s="181">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -24200,16 +24516,16 @@
       <c r="C12" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="170">
         <v>1</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="182">
+      <c r="F12" s="181">
         <v>40000</v>
       </c>
-      <c r="G12" s="182">
+      <c r="G12" s="181">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -24222,16 +24538,16 @@
       <c r="C13" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="171">
         <v>50</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="182">
+      <c r="F13" s="181">
         <v>40</v>
       </c>
-      <c r="G13" s="182">
+      <c r="G13" s="181">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -24246,10 +24562,10 @@
       <c r="C14" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="78"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184">
+      <c r="F14" s="182"/>
+      <c r="G14" s="183">
         <f>SUM(G15:G19)</f>
         <v>9602.2999999999993</v>
       </c>
@@ -24262,16 +24578,16 @@
       <c r="C15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="170">
         <v>125</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="182">
+      <c r="F15" s="181">
         <v>15.59</v>
       </c>
-      <c r="G15" s="182">
+      <c r="G15" s="181">
         <f>D15*F15</f>
         <v>1948.75</v>
       </c>
@@ -24284,16 +24600,16 @@
       <c r="C16" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="171">
+      <c r="D16" s="170">
         <v>45</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="182">
+      <c r="F16" s="181">
         <v>79.989999999999995</v>
       </c>
-      <c r="G16" s="182">
+      <c r="G16" s="181">
         <f>D16*F16</f>
         <v>3599.5499999999997</v>
       </c>
@@ -24306,16 +24622,16 @@
       <c r="C17" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="171">
+      <c r="D17" s="170">
         <v>4.5</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="182">
+      <c r="F17" s="181">
         <v>318</v>
       </c>
-      <c r="G17" s="182">
+      <c r="G17" s="181">
         <f>D17*F17</f>
         <v>1431</v>
       </c>
@@ -24328,16 +24644,16 @@
       <c r="C18" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="171">
+      <c r="D18" s="170">
         <v>1</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="182">
+      <c r="F18" s="181">
         <v>1900</v>
       </c>
-      <c r="G18" s="182">
+      <c r="G18" s="181">
         <f>D18*F18</f>
         <v>1900</v>
       </c>
@@ -24350,16 +24666,16 @@
       <c r="C19" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="171">
+      <c r="D19" s="170">
         <v>300</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="182">
+      <c r="F19" s="181">
         <v>2.41</v>
       </c>
-      <c r="G19" s="182">
+      <c r="G19" s="181">
         <f>D19*F19</f>
         <v>723</v>
       </c>
@@ -24374,10 +24690,10 @@
       <c r="C20" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="172"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184">
+      <c r="F20" s="182"/>
+      <c r="G20" s="183">
         <f>SUM(G21:G24)</f>
         <v>12936</v>
       </c>
@@ -24390,16 +24706,16 @@
       <c r="C21" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="171">
+      <c r="D21" s="170">
         <v>44</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="182">
+      <c r="F21" s="181">
         <v>40</v>
       </c>
-      <c r="G21" s="182">
+      <c r="G21" s="181">
         <f>D21*F21</f>
         <v>1760</v>
       </c>
@@ -24414,16 +24730,16 @@
       <c r="C22" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="171">
+      <c r="D22" s="170">
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="182">
+      <c r="F22" s="181">
         <v>40</v>
       </c>
-      <c r="G22" s="182">
+      <c r="G22" s="181">
         <f>D22*F22</f>
         <v>176</v>
       </c>
@@ -24436,16 +24752,16 @@
       <c r="C23" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="171">
+      <c r="D23" s="170">
         <v>1</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="182">
+      <c r="F23" s="181">
         <v>1000</v>
       </c>
-      <c r="G23" s="182">
+      <c r="G23" s="181">
         <f>D23*F23</f>
         <v>1000</v>
       </c>
@@ -24458,16 +24774,16 @@
       <c r="C24" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="171">
+      <c r="D24" s="170">
         <v>1</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="182">
+      <c r="F24" s="181">
         <v>10000</v>
       </c>
-      <c r="G24" s="182">
+      <c r="G24" s="181">
         <f>D24*F24</f>
         <v>10000</v>
       </c>
@@ -24482,10 +24798,10 @@
       <c r="C25" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="173"/>
+      <c r="D25" s="172"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="184">
+      <c r="F25" s="182"/>
+      <c r="G25" s="183">
         <f>SUM(G26:G34)</f>
         <v>189980</v>
       </c>
@@ -24498,16 +24814,16 @@
       <c r="C26" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="171">
+      <c r="D26" s="170">
         <v>12</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="182">
+      <c r="F26" s="181">
         <v>7000</v>
       </c>
-      <c r="G26" s="182">
+      <c r="G26" s="181">
         <f>D26*F26</f>
         <v>84000</v>
       </c>
@@ -24520,16 +24836,16 @@
       <c r="C27" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="171">
+      <c r="D27" s="170">
         <v>12</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="182">
+      <c r="F27" s="181">
         <v>5000</v>
       </c>
-      <c r="G27" s="182">
+      <c r="G27" s="181">
         <f t="shared" ref="G27:G46" si="1">D27*F27</f>
         <v>60000</v>
       </c>
@@ -24542,16 +24858,16 @@
       <c r="C28" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="171">
+      <c r="D28" s="170">
         <v>12</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="182">
+      <c r="F28" s="181">
         <v>800</v>
       </c>
-      <c r="G28" s="182">
+      <c r="G28" s="181">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
@@ -24564,16 +24880,16 @@
       <c r="C29" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="171">
+      <c r="D29" s="170">
         <v>12</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="182">
+      <c r="F29" s="181">
         <v>2200</v>
       </c>
-      <c r="G29" s="182">
+      <c r="G29" s="181">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -24586,16 +24902,16 @@
       <c r="C30" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="171">
+      <c r="D30" s="170">
         <v>12</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="182">
+      <c r="F30" s="181">
         <v>400</v>
       </c>
-      <c r="G30" s="182">
+      <c r="G30" s="181">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
@@ -24608,16 +24924,16 @@
       <c r="C31" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="171">
+      <c r="D31" s="170">
         <v>12</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="182">
+      <c r="F31" s="181">
         <v>200</v>
       </c>
-      <c r="G31" s="182">
+      <c r="G31" s="181">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
@@ -24630,16 +24946,16 @@
       <c r="C32" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="171">
+      <c r="D32" s="170">
         <v>12</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="182">
+      <c r="F32" s="181">
         <v>40</v>
       </c>
-      <c r="G32" s="182">
+      <c r="G32" s="181">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
@@ -24652,16 +24968,16 @@
       <c r="C33" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="171">
+      <c r="D33" s="170">
         <v>1</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="182">
+      <c r="F33" s="181">
         <v>1900</v>
       </c>
-      <c r="G33" s="182">
+      <c r="G33" s="181">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
@@ -24674,16 +24990,16 @@
       <c r="C34" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="171">
+      <c r="D34" s="170">
         <v>1</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="182">
+      <c r="F34" s="181">
         <v>400</v>
       </c>
-      <c r="G34" s="182">
+      <c r="G34" s="181">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -24698,10 +25014,10 @@
       <c r="C35" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="173"/>
+      <c r="D35" s="172"/>
       <c r="E35" s="78"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184">
+      <c r="F35" s="182"/>
+      <c r="G35" s="183">
         <f>SUM(G36)</f>
         <v>8400</v>
       </c>
@@ -24714,16 +25030,16 @@
       <c r="C36" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="171">
+      <c r="D36" s="170">
         <v>210</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="182">
+      <c r="F36" s="181">
         <v>40</v>
       </c>
-      <c r="G36" s="182">
+      <c r="G36" s="181">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
@@ -24738,10 +25054,10 @@
       <c r="C37" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="173"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="184">
+      <c r="F37" s="182"/>
+      <c r="G37" s="183">
         <f>SUM(G38)</f>
         <v>2560</v>
       </c>
@@ -24754,16 +25070,16 @@
       <c r="C38" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="171">
+      <c r="D38" s="170">
         <v>16</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="182">
+      <c r="F38" s="181">
         <v>160</v>
       </c>
-      <c r="G38" s="182">
+      <c r="G38" s="181">
         <f t="shared" si="1"/>
         <v>2560</v>
       </c>
@@ -24778,10 +25094,10 @@
       <c r="C39" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="173"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="78"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="184">
+      <c r="F39" s="182"/>
+      <c r="G39" s="183">
         <f>SUM(G40:G42)</f>
         <v>2818.5</v>
       </c>
@@ -24794,16 +25110,16 @@
       <c r="C40" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="171">
+      <c r="D40" s="170">
         <v>350</v>
       </c>
       <c r="E40" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="182">
+      <c r="F40" s="181">
         <v>2.41</v>
       </c>
-      <c r="G40" s="182">
+      <c r="G40" s="181">
         <f t="shared" si="1"/>
         <v>843.5</v>
       </c>
@@ -24816,16 +25132,16 @@
       <c r="C41" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="171">
+      <c r="D41" s="170">
         <v>25</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="182">
+      <c r="F41" s="181">
         <v>25</v>
       </c>
-      <c r="G41" s="182">
+      <c r="G41" s="181">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -24838,16 +25154,16 @@
       <c r="C42" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="171">
+      <c r="D42" s="170">
         <v>90</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="182">
+      <c r="F42" s="181">
         <v>15</v>
       </c>
-      <c r="G42" s="182">
+      <c r="G42" s="181">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
@@ -24862,10 +25178,10 @@
       <c r="C43" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="173"/>
+      <c r="D43" s="172"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="184">
+      <c r="F43" s="182"/>
+      <c r="G43" s="183">
         <f>SUM(G44:G46)</f>
         <v>28550</v>
       </c>
@@ -24878,16 +25194,16 @@
       <c r="C44" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="171">
+      <c r="D44" s="170">
         <v>25</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="182">
+      <c r="F44" s="181">
         <v>350</v>
       </c>
-      <c r="G44" s="182">
+      <c r="G44" s="181">
         <f t="shared" si="1"/>
         <v>8750</v>
       </c>
@@ -24900,16 +25216,16 @@
       <c r="C45" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="171">
+      <c r="D45" s="170">
         <v>45</v>
       </c>
       <c r="E45" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="182">
+      <c r="F45" s="181">
         <v>40</v>
       </c>
-      <c r="G45" s="182">
+      <c r="G45" s="181">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -24922,16 +25238,16 @@
       <c r="C46" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="171">
+      <c r="D46" s="170">
         <v>3000</v>
       </c>
       <c r="E46" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="182">
+      <c r="F46" s="181">
         <v>6</v>
       </c>
-      <c r="G46" s="182">
+      <c r="G46" s="181">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
@@ -24946,10 +25262,10 @@
       <c r="C47" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="173"/>
+      <c r="D47" s="172"/>
       <c r="E47" s="78"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="184">
+      <c r="F47" s="182"/>
+      <c r="G47" s="183">
         <f>SUM(G48:G50)</f>
         <v>792500</v>
       </c>
@@ -24962,16 +25278,16 @@
       <c r="C48" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="171">
+      <c r="D48" s="170">
         <v>750</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="182">
+      <c r="F48" s="181">
         <v>350</v>
       </c>
-      <c r="G48" s="182">
+      <c r="G48" s="181">
         <f>D48*F48</f>
         <v>262500</v>
       </c>
@@ -24984,16 +25300,16 @@
       <c r="C49" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="171">
+      <c r="D49" s="170">
         <v>2000</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="182">
+      <c r="F49" s="181">
         <v>40</v>
       </c>
-      <c r="G49" s="182">
+      <c r="G49" s="181">
         <f>D49*F49</f>
         <v>80000</v>
       </c>
@@ -25006,16 +25322,16 @@
       <c r="C50" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="171">
+      <c r="D50" s="170">
         <v>75000</v>
       </c>
       <c r="E50" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="182">
+      <c r="F50" s="181">
         <v>6</v>
       </c>
-      <c r="G50" s="182">
+      <c r="G50" s="181">
         <f>D50*F50</f>
         <v>450000</v>
       </c>
@@ -25030,10 +25346,10 @@
       <c r="C51" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="173"/>
+      <c r="D51" s="172"/>
       <c r="E51" s="78"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="184">
+      <c r="F51" s="182"/>
+      <c r="G51" s="183">
         <f>SUM(G52)</f>
         <v>92500</v>
       </c>
@@ -25046,16 +25362,16 @@
       <c r="C52" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="171">
+      <c r="D52" s="170">
         <v>2500</v>
       </c>
       <c r="E52" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="182">
+      <c r="F52" s="181">
         <v>37</v>
       </c>
-      <c r="G52" s="182">
+      <c r="G52" s="181">
         <f>D52*F52</f>
         <v>92500</v>
       </c>
@@ -25070,10 +25386,10 @@
       <c r="C53" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="173"/>
+      <c r="D53" s="172"/>
       <c r="E53" s="78"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="184">
+      <c r="F53" s="182"/>
+      <c r="G53" s="183">
         <f>SUM(G54:G54)</f>
         <v>62000</v>
       </c>
@@ -25086,16 +25402,16 @@
       <c r="C54" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="171">
+      <c r="D54" s="170">
         <v>200</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="182">
+      <c r="F54" s="181">
         <v>310</v>
       </c>
-      <c r="G54" s="182">
+      <c r="G54" s="181">
         <f>D54*F54</f>
         <v>62000</v>
       </c>
@@ -25110,10 +25426,10 @@
       <c r="C55" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="173"/>
+      <c r="D55" s="172"/>
       <c r="E55" s="78"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="184">
+      <c r="F55" s="182"/>
+      <c r="G55" s="183">
         <f>SUM(G56:G56)</f>
         <v>17192</v>
       </c>
@@ -25126,16 +25442,16 @@
       <c r="C56" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="171">
+      <c r="D56" s="170">
         <v>800</v>
       </c>
       <c r="E56" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="182">
+      <c r="F56" s="181">
         <v>21.49</v>
       </c>
-      <c r="G56" s="182">
+      <c r="G56" s="181">
         <f>D56*F56</f>
         <v>17192</v>
       </c>
@@ -25150,10 +25466,10 @@
       <c r="C57" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="173"/>
+      <c r="D57" s="172"/>
       <c r="E57" s="78"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="184">
+      <c r="F57" s="182"/>
+      <c r="G57" s="183">
         <f>SUM(G58)</f>
         <v>18828</v>
       </c>
@@ -25166,16 +25482,16 @@
       <c r="C58" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="171">
+      <c r="D58" s="170">
         <v>1200</v>
       </c>
       <c r="E58" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="182">
+      <c r="F58" s="181">
         <v>15.69</v>
       </c>
-      <c r="G58" s="182">
+      <c r="G58" s="181">
         <f>D58*F58</f>
         <v>18828</v>
       </c>
@@ -25190,10 +25506,10 @@
       <c r="C59" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="D59" s="173"/>
+      <c r="D59" s="172"/>
       <c r="E59" s="78"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="184">
+      <c r="F59" s="182"/>
+      <c r="G59" s="183">
         <f>SUM(G60:G61)</f>
         <v>41510</v>
       </c>
@@ -25206,16 +25522,16 @@
       <c r="C60" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="171">
+      <c r="D60" s="170">
         <v>3100</v>
       </c>
       <c r="E60" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="182">
+      <c r="F60" s="181">
         <v>12</v>
       </c>
-      <c r="G60" s="182">
+      <c r="G60" s="181">
         <f>D60*F60</f>
         <v>37200</v>
       </c>
@@ -25228,16 +25544,16 @@
       <c r="C61" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="171">
+      <c r="D61" s="170">
         <v>1000</v>
       </c>
       <c r="E61" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="182">
+      <c r="F61" s="181">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G61" s="182">
+      <c r="G61" s="181">
         <f>D61*F61</f>
         <v>4310</v>
       </c>
@@ -25252,10 +25568,10 @@
       <c r="C62" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="173"/>
+      <c r="D62" s="172"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="184">
+      <c r="F62" s="182"/>
+      <c r="G62" s="183">
         <f>SUM(G63:G68)</f>
         <v>880000</v>
       </c>
@@ -25268,16 +25584,16 @@
       <c r="C63" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="171">
+      <c r="D63" s="170">
         <v>1</v>
       </c>
       <c r="E63" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="182">
+      <c r="F63" s="181">
         <v>280000</v>
       </c>
-      <c r="G63" s="182">
+      <c r="G63" s="181">
         <f t="shared" ref="G63:G74" si="2">D63*F63</f>
         <v>280000</v>
       </c>
@@ -25290,16 +25606,16 @@
       <c r="C64" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="171">
+      <c r="D64" s="170">
         <v>1</v>
       </c>
       <c r="E64" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="182">
+      <c r="F64" s="181">
         <v>35000</v>
       </c>
-      <c r="G64" s="182">
+      <c r="G64" s="181">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
@@ -25312,16 +25628,16 @@
       <c r="C65" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="171">
+      <c r="D65" s="170">
         <v>1</v>
       </c>
       <c r="E65" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="182">
+      <c r="F65" s="181">
         <v>15000</v>
       </c>
-      <c r="G65" s="182">
+      <c r="G65" s="181">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
@@ -25334,16 +25650,16 @@
       <c r="C66" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="171">
+      <c r="D66" s="170">
         <v>1</v>
       </c>
       <c r="E66" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="182">
+      <c r="F66" s="181">
         <v>350000</v>
       </c>
-      <c r="G66" s="182">
+      <c r="G66" s="181">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -25356,16 +25672,16 @@
       <c r="C67" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="171">
+      <c r="D67" s="170">
         <v>1</v>
       </c>
       <c r="E67" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="182">
+      <c r="F67" s="181">
         <v>50000</v>
       </c>
-      <c r="G67" s="182">
+      <c r="G67" s="181">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -25378,16 +25694,16 @@
       <c r="C68" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="171">
+      <c r="D68" s="170">
         <v>1</v>
       </c>
       <c r="E68" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="182">
+      <c r="F68" s="181">
         <v>150000</v>
       </c>
-      <c r="G68" s="182">
+      <c r="G68" s="181">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
@@ -25402,10 +25718,10 @@
       <c r="C69" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="173"/>
+      <c r="D69" s="172"/>
       <c r="E69" s="78"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="184">
+      <c r="F69" s="182"/>
+      <c r="G69" s="183">
         <f>SUM(G70)</f>
         <v>40000</v>
       </c>
@@ -25418,16 +25734,16 @@
       <c r="C70" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="171">
+      <c r="D70" s="170">
         <v>2</v>
       </c>
       <c r="E70" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="182">
+      <c r="F70" s="181">
         <v>20000</v>
       </c>
-      <c r="G70" s="182">
+      <c r="G70" s="181">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
@@ -25442,10 +25758,10 @@
       <c r="C71" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="173"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="78"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="184">
+      <c r="F71" s="182"/>
+      <c r="G71" s="183">
         <f>SUM(G72:G74)</f>
         <v>25900</v>
       </c>
@@ -25458,16 +25774,16 @@
       <c r="C72" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="171">
+      <c r="D72" s="170">
         <v>1</v>
       </c>
       <c r="E72" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="182">
+      <c r="F72" s="181">
         <v>1000</v>
       </c>
-      <c r="G72" s="182">
+      <c r="G72" s="181">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -25480,16 +25796,16 @@
       <c r="C73" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="171">
+      <c r="D73" s="170">
         <v>1</v>
       </c>
       <c r="E73" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="182">
+      <c r="F73" s="181">
         <v>20000</v>
       </c>
-      <c r="G73" s="182">
+      <c r="G73" s="181">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -25502,95 +25818,95 @@
       <c r="C74" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="171">
+      <c r="D74" s="170">
         <v>1</v>
       </c>
       <c r="E74" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="182">
+      <c r="F74" s="181">
         <v>4900</v>
       </c>
-      <c r="G74" s="182">
+      <c r="G74" s="181">
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D75" s="174"/>
+      <c r="D75" s="173"/>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D76" s="174"/>
+      <c r="D76" s="173"/>
       <c r="E76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="186"/>
-      <c r="G76" s="186"/>
+      <c r="F76" s="185"/>
+      <c r="G76" s="185"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D77" s="174"/>
+      <c r="D77" s="173"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="174"/>
+      <c r="D78" s="173"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="174"/>
+      <c r="D79" s="173"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="174"/>
+      <c r="D80" s="173"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="174"/>
+      <c r="D81" s="173"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="174"/>
+      <c r="D82" s="173"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="174"/>
+      <c r="D83" s="173"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="174"/>
+      <c r="D84" s="173"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="174"/>
+      <c r="D85" s="173"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="174"/>
+      <c r="D86" s="173"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="174"/>
+      <c r="D87" s="173"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="174"/>
+      <c r="D88" s="173"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="174"/>
+      <c r="D89" s="173"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="174"/>
+      <c r="D90" s="173"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="174"/>
+      <c r="D91" s="173"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="174"/>
+      <c r="D92" s="173"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="174"/>
+      <c r="D93" s="173"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="174"/>
+      <c r="D94" s="173"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="174"/>
+      <c r="D95" s="173"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="174"/>
+      <c r="D96" s="173"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="174"/>
+      <c r="D97" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25610,7 +25926,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AR167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -25640,33 +25956,33 @@
   <sheetData>
     <row r="1" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="229" t="s">
+      <c r="B1" s="298" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
     </row>
     <row r="2" spans="1:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -25885,60 +26201,60 @@
       <c r="B6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="220">
+      <c r="C6" s="211">
         <f>'FÍSICO SEMANAL'!B7</f>
         <v>44661</v>
       </c>
-      <c r="I6" s="226">
+      <c r="I6" s="295">
         <f>I7</f>
         <v>44661</v>
       </c>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="226">
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="297"/>
+      <c r="P6" s="295">
         <f ca="1">P7</f>
-        <v>44668</v>
-      </c>
-      <c r="Q6" s="227"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="228"/>
-      <c r="W6" s="226">
+        <v>44669</v>
+      </c>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="297"/>
+      <c r="W6" s="295">
         <f ca="1">W7</f>
-        <v>44668</v>
-      </c>
-      <c r="X6" s="227"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="227"/>
-      <c r="AA6" s="227"/>
-      <c r="AB6" s="227"/>
-      <c r="AC6" s="228"/>
-      <c r="AD6" s="226">
+        <v>44669</v>
+      </c>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="297"/>
+      <c r="AD6" s="295">
         <f ca="1">AD7</f>
-        <v>44668</v>
-      </c>
-      <c r="AE6" s="227"/>
-      <c r="AF6" s="227"/>
-      <c r="AG6" s="227"/>
-      <c r="AH6" s="227"/>
-      <c r="AI6" s="227"/>
-      <c r="AJ6" s="228"/>
-      <c r="AK6" s="226">
+        <v>44669</v>
+      </c>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="296"/>
+      <c r="AH6" s="296"/>
+      <c r="AI6" s="296"/>
+      <c r="AJ6" s="297"/>
+      <c r="AK6" s="295">
         <f ca="1">AK7</f>
-        <v>44668</v>
-      </c>
-      <c r="AL6" s="227"/>
-      <c r="AM6" s="227"/>
-      <c r="AN6" s="227"/>
-      <c r="AO6" s="227"/>
-      <c r="AP6" s="227"/>
-      <c r="AQ6" s="228"/>
+        <v>44669</v>
+      </c>
+      <c r="AL6" s="296"/>
+      <c r="AM6" s="296"/>
+      <c r="AN6" s="296"/>
+      <c r="AO6" s="296"/>
+      <c r="AP6" s="296"/>
+      <c r="AQ6" s="297"/>
     </row>
     <row r="7" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
@@ -25960,145 +26276,145 @@
       <c r="H7" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="I7" s="219">
+      <c r="I7" s="210">
         <f>C6+I4</f>
         <v>44661</v>
       </c>
-      <c r="J7" s="219">
+      <c r="J7" s="210">
         <f>I7+1</f>
         <v>44662</v>
       </c>
-      <c r="K7" s="219">
+      <c r="K7" s="210">
         <f t="shared" ref="K7:O7" si="0">J7+1</f>
         <v>44663</v>
       </c>
-      <c r="L7" s="219">
+      <c r="L7" s="210">
         <f t="shared" si="0"/>
         <v>44664</v>
       </c>
-      <c r="M7" s="219">
+      <c r="M7" s="210">
         <f t="shared" si="0"/>
         <v>44665</v>
       </c>
-      <c r="N7" s="219">
+      <c r="N7" s="210">
         <f t="shared" si="0"/>
         <v>44666</v>
       </c>
-      <c r="O7" s="219">
+      <c r="O7" s="210">
         <f t="shared" si="0"/>
         <v>44667</v>
       </c>
-      <c r="P7" s="219">
+      <c r="P7" s="210">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="Q7" s="219">
+        <v>44669</v>
+      </c>
+      <c r="Q7" s="210">
         <f ca="1">P7+1</f>
-        <v>44669</v>
-      </c>
-      <c r="R7" s="219">
+        <v>44670</v>
+      </c>
+      <c r="R7" s="210">
         <f t="shared" ref="R7:V7" ca="1" si="1">Q7+1</f>
-        <v>44670</v>
-      </c>
-      <c r="S7" s="219">
-        <f t="shared" ca="1" si="1"/>
         <v>44671</v>
       </c>
-      <c r="T7" s="219">
+      <c r="S7" s="210">
         <f t="shared" ca="1" si="1"/>
         <v>44672</v>
       </c>
-      <c r="U7" s="219">
+      <c r="T7" s="210">
         <f t="shared" ca="1" si="1"/>
         <v>44673</v>
       </c>
-      <c r="V7" s="219">
+      <c r="U7" s="210">
         <f t="shared" ca="1" si="1"/>
         <v>44674</v>
       </c>
-      <c r="W7" s="219">
+      <c r="V7" s="210">
+        <f t="shared" ca="1" si="1"/>
+        <v>44675</v>
+      </c>
+      <c r="W7" s="210">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="X7" s="219">
+        <v>44669</v>
+      </c>
+      <c r="X7" s="210">
         <f ca="1">W7+1</f>
-        <v>44669</v>
-      </c>
-      <c r="Y7" s="219">
+        <v>44670</v>
+      </c>
+      <c r="Y7" s="210">
         <f t="shared" ref="Y7:AC7" ca="1" si="2">X7+1</f>
-        <v>44670</v>
-      </c>
-      <c r="Z7" s="219">
-        <f t="shared" ca="1" si="2"/>
         <v>44671</v>
       </c>
-      <c r="AA7" s="219">
+      <c r="Z7" s="210">
         <f t="shared" ca="1" si="2"/>
         <v>44672</v>
       </c>
-      <c r="AB7" s="219">
+      <c r="AA7" s="210">
         <f t="shared" ca="1" si="2"/>
         <v>44673</v>
       </c>
-      <c r="AC7" s="219">
+      <c r="AB7" s="210">
         <f t="shared" ca="1" si="2"/>
         <v>44674</v>
       </c>
-      <c r="AD7" s="219">
+      <c r="AC7" s="210">
+        <f t="shared" ca="1" si="2"/>
+        <v>44675</v>
+      </c>
+      <c r="AD7" s="210">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="AE7" s="219">
+        <v>44669</v>
+      </c>
+      <c r="AE7" s="210">
         <f ca="1">AD7+1</f>
-        <v>44669</v>
-      </c>
-      <c r="AF7" s="219">
+        <v>44670</v>
+      </c>
+      <c r="AF7" s="210">
         <f t="shared" ref="AF7:AJ7" ca="1" si="3">AE7+1</f>
-        <v>44670</v>
-      </c>
-      <c r="AG7" s="219">
-        <f t="shared" ca="1" si="3"/>
         <v>44671</v>
       </c>
-      <c r="AH7" s="219">
+      <c r="AG7" s="210">
         <f t="shared" ca="1" si="3"/>
         <v>44672</v>
       </c>
-      <c r="AI7" s="219">
+      <c r="AH7" s="210">
         <f t="shared" ca="1" si="3"/>
         <v>44673</v>
       </c>
-      <c r="AJ7" s="219">
+      <c r="AI7" s="210">
         <f t="shared" ca="1" si="3"/>
         <v>44674</v>
       </c>
-      <c r="AK7" s="219">
+      <c r="AJ7" s="210">
+        <f t="shared" ca="1" si="3"/>
+        <v>44675</v>
+      </c>
+      <c r="AK7" s="210">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="AL7" s="219">
+        <v>44669</v>
+      </c>
+      <c r="AL7" s="210">
         <f ca="1">AK7+1</f>
-        <v>44669</v>
-      </c>
-      <c r="AM7" s="219">
+        <v>44670</v>
+      </c>
+      <c r="AM7" s="210">
         <f t="shared" ref="AM7:AQ7" ca="1" si="4">AL7+1</f>
-        <v>44670</v>
-      </c>
-      <c r="AN7" s="219">
-        <f t="shared" ca="1" si="4"/>
         <v>44671</v>
       </c>
-      <c r="AO7" s="219">
+      <c r="AN7" s="210">
         <f t="shared" ca="1" si="4"/>
         <v>44672</v>
       </c>
-      <c r="AP7" s="219">
+      <c r="AO7" s="210">
         <f t="shared" ca="1" si="4"/>
         <v>44673</v>
       </c>
-      <c r="AQ7" s="219">
+      <c r="AP7" s="210">
         <f t="shared" ca="1" si="4"/>
         <v>44674</v>
+      </c>
+      <c r="AQ7" s="210">
+        <f t="shared" ca="1" si="4"/>
+        <v>44675</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26140,7 +26456,7 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="108"/>
-      <c r="E9" s="230"/>
+      <c r="E9" s="293"/>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
@@ -26298,7 +26614,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="231"/>
+      <c r="E10" s="294"/>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="143"/>
@@ -26356,7 +26672,7 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="230" t="s">
+      <c r="E11" s="293" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="143"/>
@@ -26516,7 +26832,7 @@
         <v>285</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="231"/>
+      <c r="E12" s="294"/>
       <c r="F12" s="143"/>
       <c r="G12" s="143"/>
       <c r="H12" s="143"/>
@@ -26574,7 +26890,7 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="230" t="s">
+      <c r="E13" s="293" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="143"/>
@@ -26736,7 +27052,7 @@
       <c r="D14" s="79">
         <v>2</v>
       </c>
-      <c r="E14" s="231"/>
+      <c r="E14" s="294"/>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
       <c r="H14" s="143"/>
@@ -26798,7 +27114,7 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="230" t="s">
+      <c r="E15" s="293" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="143"/>
@@ -26958,7 +27274,7 @@
         <v>289</v>
       </c>
       <c r="D16" s="133"/>
-      <c r="E16" s="231"/>
+      <c r="E16" s="294"/>
       <c r="F16" s="143"/>
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
@@ -27050,7 +27366,7 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="230" t="s">
+      <c r="E17" s="293" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="143"/>
@@ -27210,7 +27526,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="133"/>
-      <c r="E18" s="231"/>
+      <c r="E18" s="294"/>
       <c r="F18" s="143"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
@@ -27299,7 +27615,7 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="230"/>
+      <c r="E19" s="293"/>
       <c r="F19" s="143"/>
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
@@ -27457,7 +27773,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="133"/>
-      <c r="E20" s="231"/>
+      <c r="E20" s="294"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
@@ -27546,7 +27862,7 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="108"/>
-      <c r="E21" s="230"/>
+      <c r="E21" s="293"/>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
       <c r="H21" s="143"/>
@@ -27704,7 +28020,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="133"/>
-      <c r="E22" s="231"/>
+      <c r="E22" s="294"/>
       <c r="F22" s="143"/>
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
@@ -27786,7 +28102,7 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="E23" s="230"/>
+      <c r="E23" s="293"/>
       <c r="F23" s="143"/>
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
@@ -27845,7 +28161,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="133"/>
-      <c r="E24" s="231"/>
+      <c r="E24" s="294"/>
       <c r="F24" s="143"/>
       <c r="G24" s="143"/>
       <c r="H24" s="143"/>
@@ -27907,7 +28223,7 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="108"/>
-      <c r="E25" s="230"/>
+      <c r="E25" s="293"/>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143"/>
@@ -27987,7 +28303,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="133"/>
-      <c r="E26" s="231"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
       <c r="H26" s="143"/>
@@ -28070,7 +28386,7 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="230"/>
+      <c r="E27" s="293"/>
       <c r="F27" s="143"/>
       <c r="G27" s="143"/>
       <c r="H27" s="143"/>
@@ -28147,7 +28463,7 @@
         <v>292</v>
       </c>
       <c r="D28" s="79"/>
-      <c r="E28" s="231"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="143"/>
       <c r="G28" s="143"/>
       <c r="H28" s="143"/>
@@ -28226,7 +28542,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="108"/>
-      <c r="E29" s="230"/>
+      <c r="E29" s="293"/>
       <c r="F29" s="143"/>
       <c r="G29" s="143"/>
       <c r="H29" s="143"/>
@@ -28282,7 +28598,7 @@
         <v>294</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="231"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="143"/>
       <c r="G30" s="143"/>
       <c r="H30" s="143"/>
@@ -28341,7 +28657,7 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="108"/>
-      <c r="E31" s="230"/>
+      <c r="E31" s="293"/>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
       <c r="H31" s="143"/>
@@ -28406,7 +28722,7 @@
         <v>295</v>
       </c>
       <c r="D32" s="79"/>
-      <c r="E32" s="231"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
       <c r="H32" s="143"/>
@@ -28474,7 +28790,7 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="115"/>
-      <c r="E33" s="230"/>
+      <c r="E33" s="293"/>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
       <c r="H33" s="143"/>
@@ -28536,7 +28852,7 @@
         <v>287</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="231"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="143"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
@@ -28601,7 +28917,7 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="108"/>
-      <c r="E35" s="230"/>
+      <c r="E35" s="293"/>
       <c r="F35" s="143"/>
       <c r="G35" s="143"/>
       <c r="H35" s="143"/>
@@ -28681,7 +28997,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="231"/>
+      <c r="E36" s="294"/>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
       <c r="H36" s="143"/>
@@ -28764,7 +29080,7 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="108"/>
-      <c r="E37" s="230"/>
+      <c r="E37" s="293"/>
       <c r="F37" s="143"/>
       <c r="G37" s="143"/>
       <c r="H37" s="143"/>
@@ -28829,7 +29145,7 @@
         <v>295</v>
       </c>
       <c r="D38" s="79"/>
-      <c r="E38" s="231"/>
+      <c r="E38" s="294"/>
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="143"/>
@@ -28897,7 +29213,7 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="115"/>
-      <c r="E39" s="230"/>
+      <c r="E39" s="293"/>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
       <c r="H39" s="143"/>
@@ -28953,7 +29269,7 @@
         <v>300</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="231"/>
+      <c r="E40" s="294"/>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
       <c r="H40" s="143"/>
@@ -29012,7 +29328,7 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="108"/>
-      <c r="E41" s="230"/>
+      <c r="E41" s="293"/>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
@@ -29071,7 +29387,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="231"/>
+      <c r="E42" s="294"/>
       <c r="F42" s="143"/>
       <c r="G42" s="143"/>
       <c r="H42" s="143"/>
@@ -30042,6 +30358,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -30050,21 +30381,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I10:AQ10">
@@ -30376,39 +30692,39 @@
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="R2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="T2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="U2" s="124"/>
       <c r="V2" s="124"/>
@@ -31189,39 +31505,39 @@
       </c>
       <c r="K2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="R2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="T2" s="124"/>
       <c r="U2" s="124"/>
@@ -31816,7 +32132,7 @@
   <dimension ref="B5:AR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31838,429 +32154,429 @@
       <c r="B6" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="163" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="200">
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="193">
         <v>0</v>
       </c>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="200"/>
-      <c r="V6" s="200"/>
-      <c r="W6" s="200"/>
-      <c r="X6" s="200"/>
-      <c r="Y6" s="200"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="200"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="200"/>
-      <c r="AE6" s="200"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="200"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="200"/>
-      <c r="AK6" s="200"/>
-      <c r="AL6" s="200"/>
-      <c r="AM6" s="200"/>
-      <c r="AN6" s="200"/>
-      <c r="AO6" s="200"/>
-      <c r="AP6" s="200"/>
-      <c r="AQ6" s="200"/>
-      <c r="AR6" s="201"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="193"/>
+      <c r="AN6" s="193"/>
+      <c r="AO6" s="193"/>
+      <c r="AP6" s="193"/>
+      <c r="AQ6" s="193"/>
+      <c r="AR6" s="194"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B7" s="153">
         <v>44661</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="162" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="235">
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="303">
         <f>J8</f>
         <v>44661</v>
       </c>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="235"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="234">
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
+      <c r="O7" s="303"/>
+      <c r="P7" s="304"/>
+      <c r="Q7" s="305">
         <f>Q8</f>
         <v>44668</v>
       </c>
-      <c r="R7" s="235"/>
-      <c r="S7" s="235"/>
-      <c r="T7" s="235"/>
-      <c r="U7" s="235"/>
-      <c r="V7" s="235"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="234">
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="303"/>
+      <c r="V7" s="303"/>
+      <c r="W7" s="304"/>
+      <c r="X7" s="305">
         <f t="shared" ref="X7" si="0">X8</f>
         <v>44675</v>
       </c>
-      <c r="Y7" s="235"/>
-      <c r="Z7" s="235"/>
-      <c r="AA7" s="235"/>
-      <c r="AB7" s="235"/>
-      <c r="AC7" s="235"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="234">
+      <c r="Y7" s="303"/>
+      <c r="Z7" s="303"/>
+      <c r="AA7" s="303"/>
+      <c r="AB7" s="303"/>
+      <c r="AC7" s="303"/>
+      <c r="AD7" s="304"/>
+      <c r="AE7" s="305">
         <f t="shared" ref="AE7" si="1">AE8</f>
         <v>44682</v>
       </c>
-      <c r="AF7" s="235"/>
-      <c r="AG7" s="235"/>
-      <c r="AH7" s="235"/>
-      <c r="AI7" s="235"/>
-      <c r="AJ7" s="235"/>
-      <c r="AK7" s="236"/>
-      <c r="AL7" s="234">
+      <c r="AF7" s="303"/>
+      <c r="AG7" s="303"/>
+      <c r="AH7" s="303"/>
+      <c r="AI7" s="303"/>
+      <c r="AJ7" s="303"/>
+      <c r="AK7" s="304"/>
+      <c r="AL7" s="305">
         <f t="shared" ref="AL7" si="2">AL8</f>
         <v>44689</v>
       </c>
-      <c r="AM7" s="235"/>
-      <c r="AN7" s="235"/>
-      <c r="AO7" s="235"/>
-      <c r="AP7" s="235"/>
-      <c r="AQ7" s="235"/>
-      <c r="AR7" s="236"/>
+      <c r="AM7" s="303"/>
+      <c r="AN7" s="303"/>
+      <c r="AO7" s="303"/>
+      <c r="AP7" s="303"/>
+      <c r="AQ7" s="303"/>
+      <c r="AR7" s="304"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="308" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="309" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="233" t="s">
+      <c r="D8" s="309" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="309" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="237" t="s">
+      <c r="F8" s="306" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="237" t="s">
+      <c r="G8" s="306" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="H8" s="306" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="238" t="s">
+      <c r="I8" s="307" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="202">
+      <c r="J8" s="195">
         <f>B7+J6</f>
         <v>44661</v>
       </c>
-      <c r="K8" s="203">
+      <c r="K8" s="196">
         <f>J8+1</f>
         <v>44662</v>
       </c>
-      <c r="L8" s="204">
+      <c r="L8" s="197">
         <f t="shared" ref="L8:W8" si="3">K8+1</f>
         <v>44663</v>
       </c>
-      <c r="M8" s="203">
+      <c r="M8" s="196">
         <f t="shared" si="3"/>
         <v>44664</v>
       </c>
-      <c r="N8" s="204">
+      <c r="N8" s="197">
         <f t="shared" si="3"/>
         <v>44665</v>
       </c>
-      <c r="O8" s="203">
+      <c r="O8" s="196">
         <f t="shared" si="3"/>
         <v>44666</v>
       </c>
-      <c r="P8" s="205">
+      <c r="P8" s="198">
         <f t="shared" si="3"/>
         <v>44667</v>
       </c>
-      <c r="Q8" s="206">
+      <c r="Q8" s="199">
         <f t="shared" si="3"/>
         <v>44668</v>
       </c>
-      <c r="R8" s="204">
+      <c r="R8" s="197">
         <f t="shared" si="3"/>
         <v>44669</v>
       </c>
-      <c r="S8" s="203">
+      <c r="S8" s="196">
         <f t="shared" si="3"/>
         <v>44670</v>
       </c>
-      <c r="T8" s="204">
+      <c r="T8" s="197">
         <f t="shared" si="3"/>
         <v>44671</v>
       </c>
-      <c r="U8" s="203">
+      <c r="U8" s="196">
         <f t="shared" si="3"/>
         <v>44672</v>
       </c>
-      <c r="V8" s="204">
+      <c r="V8" s="197">
         <f t="shared" si="3"/>
         <v>44673</v>
       </c>
-      <c r="W8" s="207">
+      <c r="W8" s="200">
         <f t="shared" si="3"/>
         <v>44674</v>
       </c>
-      <c r="X8" s="208">
+      <c r="X8" s="201">
         <f t="shared" ref="X8:AR8" si="4">W8+1</f>
         <v>44675</v>
       </c>
-      <c r="Y8" s="203">
+      <c r="Y8" s="196">
         <f t="shared" si="4"/>
         <v>44676</v>
       </c>
-      <c r="Z8" s="204">
+      <c r="Z8" s="197">
         <f t="shared" si="4"/>
         <v>44677</v>
       </c>
-      <c r="AA8" s="203">
+      <c r="AA8" s="196">
         <f t="shared" si="4"/>
         <v>44678</v>
       </c>
-      <c r="AB8" s="204">
+      <c r="AB8" s="197">
         <f t="shared" si="4"/>
         <v>44679</v>
       </c>
-      <c r="AC8" s="203">
+      <c r="AC8" s="196">
         <f t="shared" si="4"/>
         <v>44680</v>
       </c>
-      <c r="AD8" s="205">
+      <c r="AD8" s="198">
         <f t="shared" si="4"/>
         <v>44681</v>
       </c>
-      <c r="AE8" s="206">
+      <c r="AE8" s="199">
         <f t="shared" si="4"/>
         <v>44682</v>
       </c>
-      <c r="AF8" s="204">
+      <c r="AF8" s="197">
         <f t="shared" si="4"/>
         <v>44683</v>
       </c>
-      <c r="AG8" s="203">
+      <c r="AG8" s="196">
         <f t="shared" si="4"/>
         <v>44684</v>
       </c>
-      <c r="AH8" s="204">
+      <c r="AH8" s="197">
         <f t="shared" si="4"/>
         <v>44685</v>
       </c>
-      <c r="AI8" s="203">
+      <c r="AI8" s="196">
         <f t="shared" si="4"/>
         <v>44686</v>
       </c>
-      <c r="AJ8" s="204">
+      <c r="AJ8" s="197">
         <f t="shared" si="4"/>
         <v>44687</v>
       </c>
-      <c r="AK8" s="207">
+      <c r="AK8" s="200">
         <f t="shared" si="4"/>
         <v>44688</v>
       </c>
-      <c r="AL8" s="208">
+      <c r="AL8" s="201">
         <f t="shared" si="4"/>
         <v>44689</v>
       </c>
-      <c r="AM8" s="203">
+      <c r="AM8" s="196">
         <f t="shared" si="4"/>
         <v>44690</v>
       </c>
-      <c r="AN8" s="204">
+      <c r="AN8" s="197">
         <f t="shared" si="4"/>
         <v>44691</v>
       </c>
-      <c r="AO8" s="203">
+      <c r="AO8" s="196">
         <f t="shared" si="4"/>
         <v>44692</v>
       </c>
-      <c r="AP8" s="204">
+      <c r="AP8" s="197">
         <f t="shared" si="4"/>
         <v>44693</v>
       </c>
-      <c r="AQ8" s="203">
+      <c r="AQ8" s="196">
         <f t="shared" si="4"/>
         <v>44694</v>
       </c>
-      <c r="AR8" s="205">
+      <c r="AR8" s="198">
         <f t="shared" si="4"/>
         <v>44695</v>
       </c>
     </row>
     <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="232"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="209" t="str">
+      <c r="B9" s="308"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="202" t="str">
         <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
         <v>D</v>
       </c>
-      <c r="K9" s="210" t="str">
+      <c r="K9" s="203" t="str">
         <f t="shared" ref="K9:AR9" si="5">UPPER(LEFT(TEXT(K8,"DDD"),1))</f>
         <v>S</v>
       </c>
-      <c r="L9" s="211" t="str">
+      <c r="L9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="M9" s="210" t="str">
+      <c r="M9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="N9" s="211" t="str">
+      <c r="N9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="O9" s="210" t="str">
+      <c r="O9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="P9" s="212" t="str">
+      <c r="P9" s="205" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Q9" s="213" t="str">
+      <c r="Q9" s="206" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="R9" s="211" t="str">
+      <c r="R9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="S9" s="210" t="str">
+      <c r="S9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="T9" s="211" t="str">
+      <c r="T9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="U9" s="210" t="str">
+      <c r="U9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="V9" s="211" t="str">
+      <c r="V9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="W9" s="214" t="str">
+      <c r="W9" s="207" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="X9" s="215" t="str">
+      <c r="X9" s="208" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="Y9" s="210" t="str">
+      <c r="Y9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Z9" s="211" t="str">
+      <c r="Z9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AA9" s="210" t="str">
+      <c r="AA9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AB9" s="211" t="str">
+      <c r="AB9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AC9" s="210" t="str">
+      <c r="AC9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AD9" s="212" t="str">
+      <c r="AD9" s="205" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AE9" s="213" t="str">
+      <c r="AE9" s="206" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AF9" s="211" t="str">
+      <c r="AF9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AG9" s="210" t="str">
+      <c r="AG9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AH9" s="211" t="str">
+      <c r="AH9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AI9" s="210" t="str">
+      <c r="AI9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AJ9" s="211" t="str">
+      <c r="AJ9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AK9" s="214" t="str">
+      <c r="AK9" s="207" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AL9" s="215" t="str">
+      <c r="AL9" s="208" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AM9" s="210" t="str">
+      <c r="AM9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AN9" s="211" t="str">
+      <c r="AN9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AO9" s="210" t="str">
+      <c r="AO9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AP9" s="211" t="str">
+      <c r="AP9" s="204" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AQ9" s="210" t="str">
+      <c r="AQ9" s="203" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AR9" s="212" t="str">
+      <c r="AR9" s="205" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
@@ -32270,7 +32586,7 @@
       <c r="C10" s="154">
         <v>44661</v>
       </c>
-      <c r="D10" s="194">
+      <c r="D10" s="187">
         <f>IF(C10="","",C10+E10)</f>
         <v>44664</v>
       </c>
@@ -32283,11 +32599,11 @@
       <c r="G10" s="156">
         <v>44663</v>
       </c>
-      <c r="H10" s="196" t="str">
+      <c r="H10" s="189" t="str">
         <f t="shared" ref="H10:H21" si="6">IF(G10&gt;D10,G10-D10,"")</f>
         <v/>
       </c>
-      <c r="I10" s="197">
+      <c r="I10" s="190">
         <f>IF(AND(G10&lt;D10,G10&lt;&gt;""),D10-G10,"")</f>
         <v>1</v>
       </c>
@@ -32332,7 +32648,7 @@
       <c r="C11" s="154">
         <v>44662</v>
       </c>
-      <c r="D11" s="194">
+      <c r="D11" s="187">
         <f t="shared" ref="D11:D24" si="7">IF(C11="","",C11+E11)</f>
         <v>44663</v>
       </c>
@@ -32345,11 +32661,11 @@
       <c r="G11" s="156">
         <v>44665</v>
       </c>
-      <c r="H11" s="196">
+      <c r="H11" s="189">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I11" s="197" t="str">
+      <c r="I11" s="190" t="str">
         <f t="shared" ref="I11:I21" si="8">IF(AND(G11&lt;D11,G11&lt;&gt;""),D11-G11,"")</f>
         <v/>
       </c>
@@ -32394,7 +32710,7 @@
       <c r="C12" s="154">
         <v>44663</v>
       </c>
-      <c r="D12" s="194">
+      <c r="D12" s="187">
         <f t="shared" si="7"/>
         <v>44683</v>
       </c>
@@ -32403,11 +32719,11 @@
       </c>
       <c r="F12" s="156"/>
       <c r="G12" s="156"/>
-      <c r="H12" s="196" t="str">
+      <c r="H12" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I12" s="197" t="str">
+      <c r="I12" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32450,18 +32766,18 @@
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="147"/>
       <c r="C13" s="154"/>
-      <c r="D13" s="194" t="str">
+      <c r="D13" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E13" s="146"/>
       <c r="F13" s="156"/>
       <c r="G13" s="156"/>
-      <c r="H13" s="196" t="str">
+      <c r="H13" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I13" s="197" t="str">
+      <c r="I13" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32504,18 +32820,18 @@
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="147"/>
       <c r="C14" s="154"/>
-      <c r="D14" s="194" t="str">
+      <c r="D14" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E14" s="146"/>
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
-      <c r="H14" s="196" t="str">
+      <c r="H14" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="197" t="str">
+      <c r="I14" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32558,18 +32874,18 @@
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="147"/>
       <c r="C15" s="154"/>
-      <c r="D15" s="194" t="str">
+      <c r="D15" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E15" s="146"/>
       <c r="F15" s="156"/>
       <c r="G15" s="156"/>
-      <c r="H15" s="196" t="str">
+      <c r="H15" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I15" s="197" t="str">
+      <c r="I15" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32612,18 +32928,18 @@
     <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="147"/>
       <c r="C16" s="154"/>
-      <c r="D16" s="194" t="str">
+      <c r="D16" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E16" s="146"/>
       <c r="F16" s="156"/>
       <c r="G16" s="156"/>
-      <c r="H16" s="196" t="str">
+      <c r="H16" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I16" s="197" t="str">
+      <c r="I16" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32666,18 +32982,18 @@
     <row r="17" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B17" s="147"/>
       <c r="C17" s="154"/>
-      <c r="D17" s="194" t="str">
+      <c r="D17" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E17" s="146"/>
       <c r="F17" s="156"/>
       <c r="G17" s="156"/>
-      <c r="H17" s="196" t="str">
+      <c r="H17" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I17" s="197" t="str">
+      <c r="I17" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32720,18 +33036,18 @@
     <row r="18" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B18" s="147"/>
       <c r="C18" s="154"/>
-      <c r="D18" s="194" t="str">
+      <c r="D18" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E18" s="146"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
-      <c r="H18" s="196" t="str">
+      <c r="H18" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="197" t="str">
+      <c r="I18" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32774,18 +33090,18 @@
     <row r="19" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B19" s="147"/>
       <c r="C19" s="154"/>
-      <c r="D19" s="194" t="str">
+      <c r="D19" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E19" s="146"/>
       <c r="F19" s="156"/>
       <c r="G19" s="156"/>
-      <c r="H19" s="196" t="str">
+      <c r="H19" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I19" s="197" t="str">
+      <c r="I19" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32828,18 +33144,18 @@
     <row r="20" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B20" s="147"/>
       <c r="C20" s="154"/>
-      <c r="D20" s="194" t="str">
+      <c r="D20" s="187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E20" s="146"/>
       <c r="F20" s="156"/>
       <c r="G20" s="156"/>
-      <c r="H20" s="196" t="str">
+      <c r="H20" s="189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I20" s="197" t="str">
+      <c r="I20" s="190" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32882,18 +33198,18 @@
     <row r="21" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="149"/>
       <c r="C21" s="155"/>
-      <c r="D21" s="195" t="str">
+      <c r="D21" s="188" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E21" s="150"/>
       <c r="F21" s="157"/>
       <c r="G21" s="157"/>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="191" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="192" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -32953,21 +33269,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:W7"/>
     <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="X7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:AR21">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -32996,7 +33312,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C21">
       <formula1>$J$8:$AR$8</formula1>
     </dataValidation>
@@ -33035,7 +33351,7 @@
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dados de Físico Semanal'!$A$2:$A$998</xm:f>
@@ -39072,109 +39388,109 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="311" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="246"/>
-      <c r="J4" s="244" t="s">
+      <c r="C4" s="312"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="313"/>
+      <c r="J4" s="311" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="246"/>
+      <c r="K4" s="312"/>
+      <c r="L4" s="312"/>
+      <c r="M4" s="312"/>
+      <c r="N4" s="312"/>
+      <c r="O4" s="312"/>
+      <c r="P4" s="313"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="314" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="J5" s="248" t="s">
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="J5" s="315" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="250"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="316"/>
+      <c r="P5" s="317"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="301"/>
+      <c r="N6" s="301"/>
+      <c r="O6" s="301"/>
+      <c r="P6" s="301"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="251"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="J7" s="251"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="J7" s="318"/>
       <c r="K7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
+      <c r="P7" s="301"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="252"/>
+      <c r="B8" s="319"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="J8" s="252"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
+      <c r="J8" s="319"/>
       <c r="K8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
+      <c r="L8" s="301"/>
+      <c r="M8" s="301"/>
+      <c r="N8" s="301"/>
+      <c r="O8" s="301"/>
+      <c r="P8" s="301"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="252"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="435">
+      <c r="D9" s="286">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="158"/>
@@ -39182,13 +39498,13 @@
       <c r="H9" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="J9" s="252"/>
+      <c r="J9" s="319"/>
       <c r="K9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="435">
+      <c r="L9" s="286">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="M9" s="158"/>
       <c r="N9" s="158"/>
@@ -39198,7 +39514,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="253"/>
+      <c r="B10" s="320"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -39217,7 +39533,7 @@
       <c r="H10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="J10" s="253"/>
+      <c r="J10" s="320"/>
       <c r="K10" s="158" t="s">
         <v>316</v>
       </c>
@@ -39238,7 +39554,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="310" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -39249,7 +39565,7 @@
       <c r="F11" s="161"/>
       <c r="G11" s="158"/>
       <c r="H11" s="158"/>
-      <c r="J11" s="243" t="s">
+      <c r="J11" s="310" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="160" t="s">
@@ -39262,7 +39578,7 @@
       <c r="P11" s="158"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="243"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
@@ -39271,7 +39587,7 @@
       <c r="F12" s="161"/>
       <c r="G12" s="158"/>
       <c r="H12" s="158"/>
-      <c r="J12" s="243"/>
+      <c r="J12" s="310"/>
       <c r="K12" s="160" t="s">
         <v>3</v>
       </c>
@@ -39282,7 +39598,7 @@
       <c r="P12" s="158"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="243"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
@@ -39291,7 +39607,7 @@
       <c r="F13" s="161"/>
       <c r="G13" s="158"/>
       <c r="H13" s="158"/>
-      <c r="J13" s="243"/>
+      <c r="J13" s="310"/>
       <c r="K13" s="160" t="s">
         <v>4</v>
       </c>
@@ -39302,7 +39618,7 @@
       <c r="P13" s="158"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="243"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
@@ -39311,7 +39627,7 @@
       <c r="F14" s="161"/>
       <c r="G14" s="158"/>
       <c r="H14" s="158"/>
-      <c r="J14" s="243"/>
+      <c r="J14" s="310"/>
       <c r="K14" s="160" t="s">
         <v>5</v>
       </c>
@@ -39322,7 +39638,7 @@
       <c r="P14" s="158"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="243"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
@@ -39331,7 +39647,7 @@
       <c r="F15" s="161"/>
       <c r="G15" s="158"/>
       <c r="H15" s="158"/>
-      <c r="J15" s="243"/>
+      <c r="J15" s="310"/>
       <c r="K15" s="160" t="s">
         <v>6</v>
       </c>
@@ -39342,7 +39658,7 @@
       <c r="P15" s="158"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="243"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
@@ -39351,7 +39667,7 @@
       <c r="F16" s="161"/>
       <c r="G16" s="158"/>
       <c r="H16" s="158"/>
-      <c r="J16" s="243"/>
+      <c r="J16" s="310"/>
       <c r="K16" s="160" t="s">
         <v>7</v>
       </c>
@@ -39362,7 +39678,7 @@
       <c r="P16" s="158"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="243"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
@@ -39371,7 +39687,7 @@
       <c r="F17" s="161"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
-      <c r="J17" s="243"/>
+      <c r="J17" s="310"/>
       <c r="K17" s="160" t="s">
         <v>8</v>
       </c>
@@ -39382,7 +39698,7 @@
       <c r="P17" s="158"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="243"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
@@ -39391,7 +39707,7 @@
       <c r="F18" s="161"/>
       <c r="G18" s="158"/>
       <c r="H18" s="158"/>
-      <c r="J18" s="243"/>
+      <c r="J18" s="310"/>
       <c r="K18" s="160" t="s">
         <v>323</v>
       </c>
@@ -39402,7 +39718,7 @@
       <c r="P18" s="158"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="243"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
@@ -39411,7 +39727,7 @@
       <c r="F19" s="161"/>
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
-      <c r="J19" s="243"/>
+      <c r="J19" s="310"/>
       <c r="K19" s="160" t="s">
         <v>324</v>
       </c>
@@ -39422,7 +39738,7 @@
       <c r="P19" s="158"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="243"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
@@ -39431,7 +39747,7 @@
       <c r="F20" s="161"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
-      <c r="J20" s="243"/>
+      <c r="J20" s="310"/>
       <c r="K20" s="160" t="s">
         <v>325</v>
       </c>
@@ -39480,71 +39796,71 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="311" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="246"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="313"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="314" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="251"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="252"/>
+      <c r="B8" s="319"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
+      <c r="I8" s="301"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="252"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="434">
+      <c r="D9" s="285">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="158"/>
@@ -39555,7 +39871,7 @@
       <c r="I9" s="159"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="253"/>
+      <c r="B10" s="320"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -39568,7 +39884,7 @@
       <c r="F10" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="216" t="s">
+      <c r="G10" s="209" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="159" t="s">
@@ -39579,7 +39895,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="310" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -39588,7 +39904,7 @@
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
       <c r="F11" s="161"/>
-      <c r="G11" s="432" t="str">
+      <c r="G11" s="284" t="str">
         <f>IF(F11="","",E11*F11)</f>
         <v/>
       </c>
@@ -39596,14 +39912,14 @@
       <c r="I11" s="158"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="243"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="158"/>
       <c r="F12" s="161"/>
-      <c r="G12" s="432" t="str">
+      <c r="G12" s="284" t="str">
         <f t="shared" ref="G12:G20" si="0">IF(F12="","",E12*F12)</f>
         <v/>
       </c>
@@ -39611,14 +39927,14 @@
       <c r="I12" s="158"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="243"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
       <c r="F13" s="161"/>
-      <c r="G13" s="432" t="str">
+      <c r="G13" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39626,14 +39942,14 @@
       <c r="I13" s="158"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="243"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
       <c r="F14" s="161"/>
-      <c r="G14" s="432" t="str">
+      <c r="G14" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39641,14 +39957,14 @@
       <c r="I14" s="158"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="243"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="158"/>
       <c r="E15" s="158"/>
       <c r="F15" s="161"/>
-      <c r="G15" s="432" t="str">
+      <c r="G15" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39656,14 +39972,14 @@
       <c r="I15" s="158"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="243"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
       <c r="F16" s="161"/>
-      <c r="G16" s="432" t="str">
+      <c r="G16" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39671,14 +39987,14 @@
       <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="243"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
       <c r="F17" s="161"/>
-      <c r="G17" s="432" t="str">
+      <c r="G17" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39686,14 +40002,14 @@
       <c r="I17" s="158"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="243"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
       <c r="F18" s="161"/>
-      <c r="G18" s="432" t="str">
+      <c r="G18" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39701,14 +40017,14 @@
       <c r="I18" s="158"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="243"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
       <c r="F19" s="161"/>
-      <c r="G19" s="432" t="str">
+      <c r="G19" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -39716,14 +40032,14 @@
       <c r="I19" s="158"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="243"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
       <c r="F20" s="161"/>
-      <c r="G20" s="432" t="str">
+      <c r="G20" s="284" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="426">
   <si>
     <t>Item</t>
   </si>
@@ -1128,18 +1128,6 @@
     <t>Quant</t>
   </si>
   <si>
-    <t>Engenheiro Planejamento</t>
-  </si>
-  <si>
-    <t>Técnico de segurança</t>
-  </si>
-  <si>
-    <t>Auxiliar Administrativo</t>
-  </si>
-  <si>
-    <t>Comprador</t>
-  </si>
-  <si>
     <t>Subtotal:</t>
   </si>
   <si>
@@ -1245,12 +1233,6 @@
     <t>ÁREA</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>fundação</t>
-  </si>
-  <si>
     <t>Adiantamento</t>
   </si>
   <si>
@@ -1306,6 +1288,27 @@
   </si>
   <si>
     <t>DESPESAS DIRETAS</t>
+  </si>
+  <si>
+    <t>Técnico em Edificações</t>
+  </si>
+  <si>
+    <t>Ajudante de pedreiro</t>
+  </si>
+  <si>
+    <t>Responsável por coordedar a equipe</t>
+  </si>
+  <si>
+    <t>raspagem de teto e paredes</t>
+  </si>
+  <si>
+    <t>raspagem de teto e parede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve a interrupção no horario acima registrado, por autoridade policial, que veio averiguar denûncia relacionada a </t>
+  </si>
+  <si>
+    <t>questões judiciais entre o denunciante e o proprietário do imóvel não relacionada diretamente a execução direta da obra.</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1334,7 @@
     <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="179" formatCode="d"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2661,7 +2664,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3285,9 +3288,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3340,9 +3340,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3355,12 +3352,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3445,6 +3436,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="14" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3460,6 +3525,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3472,21 +3543,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3496,14 +3569,21 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3529,6 +3609,15 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3537,6 +3626,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3547,55 +3639,34 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3607,146 +3678,17 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3755,6 +3697,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3773,6 +3724,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3817,6 +3771,18 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3826,56 +3792,146 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3883,8 +3939,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3892,76 +3987,23 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="14" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="184" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4434,11 +4476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="313454976"/>
-        <c:axId val="313456512"/>
+        <c:axId val="319549440"/>
+        <c:axId val="319550976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313454976"/>
+        <c:axId val="319549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4516,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313456512"/>
+        <c:crossAx val="319550976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +4525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313456512"/>
+        <c:axId val="319550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4520,7 +4562,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313454976"/>
+        <c:crossAx val="319549440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4696,8 +4738,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315320192"/>
-        <c:axId val="315321728"/>
+        <c:axId val="314144256"/>
+        <c:axId val="314145792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5054,11 +5096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315352192"/>
-        <c:axId val="315353728"/>
+        <c:axId val="314172160"/>
+        <c:axId val="314173696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315320192"/>
+        <c:axId val="314144256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5144,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315321728"/>
+        <c:crossAx val="314145792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5111,7 +5153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315321728"/>
+        <c:axId val="314145792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -5148,13 +5190,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315320192"/>
+        <c:crossAx val="314144256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="315352192"/>
+        <c:axId val="314172160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,7 +5205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="315353728"/>
+        <c:crossAx val="314173696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315353728"/>
+        <c:axId val="314173696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5181,7 +5223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="315352192"/>
+        <c:crossAx val="314172160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5434,13 +5476,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>249363</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>32167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5448,7 +5490,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5513,13 +5555,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5527,7 +5569,7 @@
         <xdr:cNvPr id="7" name="Imagem 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5592,13 +5634,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>604189</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>14430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5606,7 +5648,7 @@
         <xdr:cNvPr id="8" name="Imagem 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5671,13 +5713,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1372986</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>4905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5685,7 +5727,7 @@
         <xdr:cNvPr id="9" name="Imagem 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5746,6 +5788,302 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="354138" cy="327442"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19044" t="18243" r="18424" b="16892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1981200" y="10334625"/>
+          <a:ext cx="354138" cy="327442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="285750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13418" t="6940" r="6279" b="29958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686174" y="10315575"/>
+          <a:ext cx="466725" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366064" cy="319230"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16749" t="25018" r="16328" b="6171"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="10325100"/>
+          <a:ext cx="366064" cy="319230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="372861" cy="319230"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17400" t="25555" r="17191" b="12469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6372225" y="10315575"/>
+          <a:ext cx="372861" cy="319230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6063,63 +6401,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="328" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="328"/>
+      <c r="L1" s="328"/>
     </row>
     <row r="2" spans="1:12" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="305"/>
-      <c r="K2" s="305"/>
-      <c r="L2" s="305"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="329" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
-      <c r="J3" s="306"/>
-      <c r="K3" s="306"/>
-      <c r="L3" s="306"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
     </row>
     <row r="4" spans="1:12" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
@@ -22045,603 +22383,603 @@
   <sheetData>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="367" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="336"/>
-      <c r="G5" s="336"/>
-      <c r="H5" s="336"/>
-      <c r="I5" s="336"/>
-      <c r="J5" s="336"/>
-      <c r="K5" s="336"/>
-      <c r="L5" s="337"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="368"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="369"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="280" t="s">
+      <c r="B6" s="276" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="442" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="443"/>
-      <c r="E6" s="443"/>
-      <c r="F6" s="443"/>
-      <c r="G6" s="443"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="443"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="443"/>
-      <c r="L6" s="444"/>
+      <c r="C6" s="370" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="343"/>
+      <c r="E6" s="343"/>
+      <c r="F6" s="343"/>
+      <c r="G6" s="343"/>
+      <c r="H6" s="343"/>
+      <c r="I6" s="343"/>
+      <c r="J6" s="343"/>
+      <c r="K6" s="343"/>
+      <c r="L6" s="344"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="276" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="442" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="443"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="444"/>
+      <c r="C7" s="370" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="343"/>
+      <c r="I7" s="343"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="343"/>
+      <c r="L7" s="344"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="280" t="s">
+      <c r="B8" s="276" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="302" t="s">
+      <c r="C8" s="298" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="303" t="s">
+      <c r="D8" s="299" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="299" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="297"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="276"/>
+      <c r="C9" s="316">
+        <v>44670</v>
+      </c>
+      <c r="D9" s="277">
+        <f ca="1">TODAY()</f>
+        <v>44671</v>
+      </c>
+      <c r="E9" s="315">
+        <f ca="1">NETWORKDAYS.INTL(C9,D9,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="300"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="278"/>
+      <c r="C10" s="279" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="279" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="279" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="279" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="279" t="s">
+        <v>334</v>
+      </c>
+      <c r="J10" s="279" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="290" t="s">
+        <v>400</v>
+      </c>
+      <c r="L10" s="294" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="278">
+        <v>1</v>
+      </c>
+      <c r="C11" s="314" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="314" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="280"/>
+      <c r="F11" s="314" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="303" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="296"/>
-      <c r="L8" s="301"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="280"/>
-      <c r="C9" s="445">
-        <v>44670</v>
-      </c>
-      <c r="D9" s="281">
-        <f ca="1">TODAY()</f>
-        <v>44670</v>
-      </c>
-      <c r="E9" s="441">
-        <f ca="1">NETWORKDAYS.INTL(C9,D9,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="304"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="282"/>
-      <c r="C10" s="283" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="283" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283" t="s">
-        <v>309</v>
-      </c>
-      <c r="G10" s="283" t="s">
-        <v>339</v>
-      </c>
-      <c r="H10" s="283" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="283" t="s">
-        <v>334</v>
-      </c>
-      <c r="J10" s="283" t="s">
-        <v>335</v>
-      </c>
-      <c r="K10" s="294" t="s">
-        <v>406</v>
-      </c>
-      <c r="L10" s="298" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="282">
-        <v>1</v>
-      </c>
-      <c r="C11" s="440" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="440" t="s">
-        <v>411</v>
-      </c>
-      <c r="E11" s="284"/>
-      <c r="F11" s="440" t="s">
-        <v>414</v>
-      </c>
-      <c r="G11" s="285">
-        <v>1</v>
-      </c>
-      <c r="H11" s="286">
+      <c r="G11" s="281">
+        <v>1</v>
+      </c>
+      <c r="H11" s="282">
         <v>90</v>
       </c>
-      <c r="I11" s="287">
+      <c r="I11" s="283">
         <f>IF(H11="","",H11/9)</f>
         <v>10</v>
       </c>
-      <c r="J11" s="287">
+      <c r="J11" s="283">
         <f>IF(I11="","",H11*G11)</f>
         <v>90</v>
       </c>
-      <c r="K11" s="299">
+      <c r="K11" s="295">
         <v>90</v>
       </c>
-      <c r="L11" s="288">
+      <c r="L11" s="284">
         <f>IF(K11="","",J11-K11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="282">
+      <c r="B12" s="278">
         <v>2</v>
       </c>
-      <c r="C12" s="289" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="289" t="s">
-        <v>411</v>
-      </c>
-      <c r="E12" s="289"/>
-      <c r="F12" s="289" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" s="285">
-        <v>1</v>
-      </c>
-      <c r="H12" s="286">
+      <c r="C12" s="285" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="285" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="281">
+        <v>1</v>
+      </c>
+      <c r="H12" s="282">
         <v>90</v>
       </c>
-      <c r="I12" s="287">
+      <c r="I12" s="283">
         <f t="shared" ref="I12:I30" si="0">IF(H12="","",H12/9)</f>
         <v>10</v>
       </c>
-      <c r="J12" s="287">
+      <c r="J12" s="283">
         <f t="shared" ref="J12:J30" si="1">IF(I12="","",H12*G12)</f>
         <v>90</v>
       </c>
-      <c r="K12" s="299">
+      <c r="K12" s="295">
         <v>90</v>
       </c>
-      <c r="L12" s="288">
+      <c r="L12" s="284">
         <f t="shared" ref="L12:L30" si="2">IF(K12="","",J12-K12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="282">
+      <c r="B13" s="278">
         <v>3</v>
       </c>
-      <c r="C13" s="289"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="287" t="str">
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="287" t="str">
+      <c r="J13" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="299"/>
-      <c r="L13" s="288" t="str">
+      <c r="K13" s="295"/>
+      <c r="L13" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="282">
+      <c r="B14" s="278">
         <v>4</v>
       </c>
-      <c r="C14" s="289"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="285"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="287" t="str">
+      <c r="C14" s="285"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="287" t="str">
+      <c r="J14" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="288" t="str">
+      <c r="K14" s="295"/>
+      <c r="L14" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="282">
+      <c r="B15" s="278">
         <v>5</v>
       </c>
-      <c r="C15" s="289"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="285"/>
-      <c r="H15" s="286"/>
-      <c r="I15" s="287" t="str">
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="281"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="287" t="str">
+      <c r="J15" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K15" s="299"/>
-      <c r="L15" s="288" t="str">
+      <c r="K15" s="295"/>
+      <c r="L15" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="282">
+      <c r="B16" s="278">
         <v>6</v>
       </c>
-      <c r="C16" s="289"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="285"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="287" t="str">
+      <c r="C16" s="285"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="287" t="str">
+      <c r="J16" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="288" t="str">
+      <c r="K16" s="295"/>
+      <c r="L16" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="282">
+      <c r="B17" s="278">
         <v>7</v>
       </c>
-      <c r="C17" s="289"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="287" t="str">
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="281"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="287" t="str">
+      <c r="J17" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="288" t="str">
+      <c r="K17" s="295"/>
+      <c r="L17" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="282">
+      <c r="B18" s="278">
         <v>8</v>
       </c>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="285"/>
-      <c r="H18" s="286"/>
-      <c r="I18" s="287" t="str">
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="281"/>
+      <c r="H18" s="282"/>
+      <c r="I18" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="287" t="str">
+      <c r="J18" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K18" s="299"/>
-      <c r="L18" s="288" t="str">
+      <c r="K18" s="295"/>
+      <c r="L18" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="282">
+      <c r="B19" s="278">
         <v>9</v>
       </c>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="285"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="287" t="str">
+      <c r="C19" s="285"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="281"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="287" t="str">
+      <c r="J19" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K19" s="299"/>
-      <c r="L19" s="288" t="str">
+      <c r="K19" s="295"/>
+      <c r="L19" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="282">
+      <c r="B20" s="278">
         <v>10</v>
       </c>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="286"/>
-      <c r="I20" s="287" t="str">
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="281"/>
+      <c r="H20" s="282"/>
+      <c r="I20" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="287" t="str">
+      <c r="J20" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K20" s="299"/>
-      <c r="L20" s="288" t="str">
+      <c r="K20" s="295"/>
+      <c r="L20" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="282">
+      <c r="B21" s="278">
         <v>11</v>
       </c>
-      <c r="C21" s="289"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="289"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="287" t="str">
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="287" t="str">
+      <c r="J21" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K21" s="299"/>
-      <c r="L21" s="288" t="str">
+      <c r="K21" s="295"/>
+      <c r="L21" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="282">
+      <c r="B22" s="278">
         <v>12</v>
       </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="285"/>
-      <c r="H22" s="286"/>
-      <c r="I22" s="287" t="str">
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="287" t="str">
+      <c r="J22" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K22" s="299"/>
-      <c r="L22" s="288" t="str">
+      <c r="K22" s="295"/>
+      <c r="L22" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="282">
+      <c r="B23" s="278">
         <v>13</v>
       </c>
-      <c r="C23" s="289"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="286"/>
-      <c r="I23" s="287" t="str">
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="282"/>
+      <c r="I23" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="287" t="str">
+      <c r="J23" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K23" s="299"/>
-      <c r="L23" s="288" t="str">
+      <c r="K23" s="295"/>
+      <c r="L23" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="282">
+      <c r="B24" s="278">
         <v>14</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="285"/>
-      <c r="H24" s="286"/>
-      <c r="I24" s="287" t="str">
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="282"/>
+      <c r="I24" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="287" t="str">
+      <c r="J24" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K24" s="299"/>
-      <c r="L24" s="288" t="str">
+      <c r="K24" s="295"/>
+      <c r="L24" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="282">
+      <c r="B25" s="278">
         <v>15</v>
       </c>
-      <c r="C25" s="289"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="285"/>
-      <c r="H25" s="286"/>
-      <c r="I25" s="287" t="str">
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="287" t="str">
+      <c r="J25" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K25" s="299"/>
-      <c r="L25" s="288" t="str">
+      <c r="K25" s="295"/>
+      <c r="L25" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="282">
+      <c r="B26" s="278">
         <v>16</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="285"/>
-      <c r="H26" s="286"/>
-      <c r="I26" s="287" t="str">
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="281"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="287" t="str">
+      <c r="J26" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K26" s="299"/>
-      <c r="L26" s="288" t="str">
+      <c r="K26" s="295"/>
+      <c r="L26" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="282">
+      <c r="B27" s="278">
         <v>17</v>
       </c>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="285"/>
-      <c r="H27" s="286"/>
-      <c r="I27" s="287" t="str">
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="287" t="str">
+      <c r="J27" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K27" s="299"/>
-      <c r="L27" s="288" t="str">
+      <c r="K27" s="295"/>
+      <c r="L27" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="282">
+      <c r="B28" s="278">
         <v>18</v>
       </c>
-      <c r="C28" s="289"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="287" t="str">
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="281"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="287" t="str">
+      <c r="J28" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K28" s="299"/>
-      <c r="L28" s="288" t="str">
+      <c r="K28" s="295"/>
+      <c r="L28" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="282">
+      <c r="B29" s="278">
         <v>19</v>
       </c>
-      <c r="C29" s="289"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="286"/>
-      <c r="I29" s="287" t="str">
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="281"/>
+      <c r="H29" s="282"/>
+      <c r="I29" s="283" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="287" t="str">
+      <c r="J29" s="283" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K29" s="299"/>
-      <c r="L29" s="288" t="str">
+      <c r="K29" s="295"/>
+      <c r="L29" s="284" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -22650,22 +22988,22 @@
       <c r="B30" s="185">
         <v>20</v>
       </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="292"/>
-      <c r="I30" s="293" t="str">
+      <c r="C30" s="286"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="286"/>
+      <c r="F30" s="286"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="288"/>
+      <c r="I30" s="289" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="293" t="str">
+      <c r="J30" s="289" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K30" s="300"/>
-      <c r="L30" s="295" t="str">
+      <c r="K30" s="296"/>
+      <c r="L30" s="291" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -22683,10 +23021,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L118"/>
+  <dimension ref="B1:L169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158:L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22706,19 +23044,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="481" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="349"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
+      <c r="K2" s="482"/>
+      <c r="L2" s="483"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
@@ -22734,7 +23072,7 @@
         <f>("DATA ATUAL:"&amp;"    "&amp;UPPER(LEFT(TEXT(L3,"DDDD"),7)))</f>
         <v>DATA ATUAL:    TERÇA-F</v>
       </c>
-      <c r="L3" s="258">
+      <c r="L3" s="257">
         <v>44670</v>
       </c>
     </row>
@@ -22751,100 +23089,99 @@
       <c r="K4" s="212" t="s">
         <v>342</v>
       </c>
-      <c r="L4" s="259">
-        <f ca="1">IFERROR(IF(L9&gt;0,(TODAY()+1)-L9,0),"")</f>
+      <c r="L4" s="258">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="462" t="s">
+      <c r="D5" s="487" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="487"/>
+      <c r="H5" s="487"/>
+      <c r="I5" s="487"/>
       <c r="J5" s="213"/>
       <c r="K5" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="L5" s="260">
+      <c r="L5" s="259">
         <f>IFERROR(IF(AND(L10&gt;0,L9&gt;0),L10-L9,0),"")</f>
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="461" t="s">
+      <c r="D6" s="486" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="461"/>
-      <c r="F6" s="461"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="461"/>
+      <c r="E6" s="486"/>
+      <c r="F6" s="486"/>
+      <c r="G6" s="486"/>
+      <c r="H6" s="486"/>
+      <c r="I6" s="486"/>
       <c r="J6" s="214"/>
       <c r="K6" s="212" t="s">
         <v>346</v>
       </c>
-      <c r="L6" s="260">
-        <f>IF(OR(AND(K63&lt;&gt;"",K64&lt;&gt;"",K65&lt;&gt;""),AND(D59&lt;&gt;"",F59&lt;&gt;"")),IF(L9&gt;0,(L3-L9)-1,0),IF(L9&gt;0,L3-L9+1,0))</f>
+      <c r="L6" s="259">
+        <f>IF(OR(AND(K54&lt;&gt;"",K55&lt;&gt;"",K56&lt;&gt;""),AND(D50&lt;&gt;"",F50&lt;&gt;"")),IF(L9&gt;0,(L3-L9)-1,0),IF(L9&gt;0,L3-L9+1,0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="460" t="s">
+      <c r="D7" s="488" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
+      <c r="E7" s="488"/>
+      <c r="F7" s="488"/>
+      <c r="G7" s="488"/>
+      <c r="H7" s="488"/>
+      <c r="I7" s="488"/>
       <c r="J7" s="215"/>
       <c r="K7" s="212" t="s">
         <v>348</v>
       </c>
-      <c r="L7" s="260">
+      <c r="L7" s="259">
         <f>IFERROR(L5-L6,"")</f>
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="340" t="s">
+      <c r="B8" s="414" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="D8" s="341"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="341"/>
-      <c r="G8" s="341"/>
-      <c r="H8" s="341"/>
-      <c r="I8" s="341"/>
-      <c r="J8" s="341"/>
-      <c r="K8" s="341"/>
-      <c r="L8" s="342"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
+      <c r="G8" s="415"/>
+      <c r="H8" s="415"/>
+      <c r="I8" s="415"/>
+      <c r="J8" s="415"/>
+      <c r="K8" s="415"/>
+      <c r="L8" s="416"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="343" t="s">
+      <c r="B9" s="478" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="452"/>
-      <c r="D9" s="452" t="s">
-        <v>416</v>
-      </c>
-      <c r="E9" s="452"/>
-      <c r="F9" s="452"/>
-      <c r="G9" s="452"/>
-      <c r="H9" s="452"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="452"/>
+      <c r="C9" s="484"/>
+      <c r="D9" s="484" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="484"/>
+      <c r="F9" s="484"/>
+      <c r="G9" s="484"/>
+      <c r="H9" s="484"/>
+      <c r="I9" s="484"/>
+      <c r="J9" s="484"/>
       <c r="K9" s="217" t="s">
         <v>351</v>
       </c>
@@ -22856,1727 +23193,2571 @@
       <c r="B10" s="219" t="s">
         <v>352</v>
       </c>
-      <c r="C10" s="452"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="452"/>
-      <c r="G10" s="452"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="452"/>
+      <c r="C10" s="484"/>
+      <c r="D10" s="484"/>
+      <c r="E10" s="484"/>
+      <c r="F10" s="484"/>
+      <c r="G10" s="484"/>
+      <c r="H10" s="484"/>
+      <c r="I10" s="484"/>
+      <c r="J10" s="484"/>
       <c r="K10" s="217" t="s">
         <v>353</v>
       </c>
       <c r="L10" s="218">
-        <v>44732</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="343" t="s">
+      <c r="B11" s="478" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="452"/>
-      <c r="D11" s="452" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" s="452"/>
-      <c r="F11" s="452"/>
-      <c r="G11" s="452"/>
-      <c r="H11" s="452"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="452"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="453"/>
+      <c r="C11" s="484"/>
+      <c r="D11" s="484" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" s="484"/>
+      <c r="F11" s="484"/>
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="484"/>
+      <c r="K11" s="484"/>
+      <c r="L11" s="485"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="343" t="s">
+      <c r="B12" s="478" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="344"/>
-      <c r="D12" s="344"/>
-      <c r="E12" s="452" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="452"/>
-      <c r="G12" s="452"/>
-      <c r="H12" s="452"/>
-      <c r="I12" s="452"/>
-      <c r="J12" s="452"/>
-      <c r="K12" s="452"/>
-      <c r="L12" s="453"/>
+      <c r="C12" s="479"/>
+      <c r="D12" s="479"/>
+      <c r="E12" s="484" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="484"/>
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="484"/>
+      <c r="K12" s="484"/>
+      <c r="L12" s="485"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="219" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
-      <c r="G13" s="338"/>
-      <c r="H13" s="338"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="338"/>
-      <c r="K13" s="338"/>
-      <c r="L13" s="339"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="472"/>
+      <c r="E13" s="472"/>
+      <c r="F13" s="472"/>
+      <c r="G13" s="472"/>
+      <c r="H13" s="472"/>
+      <c r="I13" s="472"/>
+      <c r="J13" s="472"/>
+      <c r="K13" s="472"/>
+      <c r="L13" s="473"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="340" t="s">
+      <c r="B14" s="414" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="341"/>
-      <c r="H14" s="341"/>
-      <c r="I14" s="341"/>
-      <c r="J14" s="341"/>
-      <c r="K14" s="341"/>
-      <c r="L14" s="342"/>
+      <c r="C14" s="415"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="415"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="415"/>
+      <c r="H14" s="415"/>
+      <c r="I14" s="415"/>
+      <c r="J14" s="415"/>
+      <c r="K14" s="415"/>
+      <c r="L14" s="416"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="343" t="s">
+      <c r="B15" s="478" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="345"/>
-      <c r="G15" s="345"/>
-      <c r="H15" s="345"/>
-      <c r="I15" s="345"/>
-      <c r="J15" s="345"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="346"/>
+      <c r="C15" s="479"/>
+      <c r="D15" s="479"/>
+      <c r="E15" s="484"/>
+      <c r="F15" s="484"/>
+      <c r="G15" s="484"/>
+      <c r="H15" s="484"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="484"/>
+      <c r="K15" s="484"/>
+      <c r="L15" s="485"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="220" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="338"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="338"/>
-      <c r="G16" s="338"/>
-      <c r="H16" s="338"/>
-      <c r="I16" s="338"/>
-      <c r="J16" s="338"/>
-      <c r="K16" s="338"/>
-      <c r="L16" s="339"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="484"/>
+      <c r="E16" s="484"/>
+      <c r="F16" s="484"/>
+      <c r="G16" s="484"/>
+      <c r="H16" s="484"/>
+      <c r="I16" s="484"/>
+      <c r="J16" s="484"/>
+      <c r="K16" s="484"/>
+      <c r="L16" s="485"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="220" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="338"/>
-      <c r="E17" s="338"/>
-      <c r="F17" s="338"/>
-      <c r="G17" s="338"/>
-      <c r="H17" s="338"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="338"/>
-      <c r="K17" s="338"/>
-      <c r="L17" s="339"/>
+      <c r="C17" s="484"/>
+      <c r="D17" s="484"/>
+      <c r="E17" s="484"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="484"/>
+      <c r="H17" s="484"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="484"/>
+      <c r="K17" s="484"/>
+      <c r="L17" s="485"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="220" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="338"/>
-      <c r="E18" s="338"/>
-      <c r="F18" s="338"/>
-      <c r="G18" s="338"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="338"/>
-      <c r="J18" s="338"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="339"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="484"/>
+      <c r="E18" s="484"/>
+      <c r="F18" s="484"/>
+      <c r="G18" s="484"/>
+      <c r="H18" s="484"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="484"/>
+      <c r="K18" s="484"/>
+      <c r="L18" s="485"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="340" t="s">
+      <c r="B19" s="414" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="341"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="341"/>
-      <c r="G19" s="341"/>
-      <c r="H19" s="341"/>
-      <c r="I19" s="341"/>
-      <c r="J19" s="341"/>
-      <c r="K19" s="341"/>
-      <c r="L19" s="342"/>
+      <c r="C19" s="415"/>
+      <c r="D19" s="415"/>
+      <c r="E19" s="415"/>
+      <c r="F19" s="415"/>
+      <c r="G19" s="415"/>
+      <c r="H19" s="415"/>
+      <c r="I19" s="415"/>
+      <c r="J19" s="415"/>
+      <c r="K19" s="415"/>
+      <c r="L19" s="416"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="355" t="s">
+      <c r="B20" s="380" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="356"/>
-      <c r="D20" s="356"/>
-      <c r="E20" s="356"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="356"/>
-      <c r="H20" s="356"/>
-      <c r="I20" s="356"/>
-      <c r="J20" s="356"/>
-      <c r="K20" s="356"/>
-      <c r="L20" s="357"/>
+      <c r="C20" s="381"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="381"/>
+      <c r="G20" s="381"/>
+      <c r="H20" s="381"/>
+      <c r="I20" s="381"/>
+      <c r="J20" s="381"/>
+      <c r="K20" s="381"/>
+      <c r="L20" s="382"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="358" t="s">
+      <c r="B21" s="474" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="359"/>
-      <c r="D21" s="360"/>
-      <c r="E21" s="374" t="s">
+      <c r="C21" s="463"/>
+      <c r="D21" s="464"/>
+      <c r="E21" s="452" t="s">
         <v>363</v>
       </c>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="362"/>
-      <c r="L21" s="365" t="s">
+      <c r="F21" s="453"/>
+      <c r="G21" s="453"/>
+      <c r="H21" s="453"/>
+      <c r="I21" s="453"/>
+      <c r="J21" s="453"/>
+      <c r="K21" s="454"/>
+      <c r="L21" s="475" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="358"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="375"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="363"/>
-      <c r="H22" s="363"/>
-      <c r="I22" s="363"/>
-      <c r="J22" s="363"/>
-      <c r="K22" s="364"/>
-      <c r="L22" s="366"/>
+      <c r="B22" s="474"/>
+      <c r="C22" s="463"/>
+      <c r="D22" s="464"/>
+      <c r="E22" s="455"/>
+      <c r="F22" s="456"/>
+      <c r="G22" s="456"/>
+      <c r="H22" s="456"/>
+      <c r="I22" s="456"/>
+      <c r="J22" s="456"/>
+      <c r="K22" s="457"/>
+      <c r="L22" s="476"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="446" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" s="351"/>
-      <c r="D23" s="352"/>
-      <c r="E23" s="451" t="s">
-        <v>415</v>
-      </c>
-      <c r="F23" s="450"/>
-      <c r="G23" s="450"/>
-      <c r="H23" s="450"/>
-      <c r="I23" s="450"/>
-      <c r="J23" s="450"/>
-      <c r="K23" s="352"/>
+      <c r="B23" s="471" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="384"/>
+      <c r="D23" s="467"/>
+      <c r="E23" s="477" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="469"/>
+      <c r="G23" s="469"/>
+      <c r="H23" s="469"/>
+      <c r="I23" s="469"/>
+      <c r="J23" s="469"/>
+      <c r="K23" s="467"/>
       <c r="L23" s="221">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="350"/>
-      <c r="C24" s="351"/>
-      <c r="D24" s="352"/>
-      <c r="E24" s="449"/>
-      <c r="F24" s="450"/>
-      <c r="G24" s="450"/>
-      <c r="H24" s="450"/>
-      <c r="I24" s="450"/>
-      <c r="J24" s="450"/>
-      <c r="K24" s="352"/>
-      <c r="L24" s="221"/>
+      <c r="B24" s="417" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="384"/>
+      <c r="D24" s="467"/>
+      <c r="E24" s="468" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="469"/>
+      <c r="G24" s="469"/>
+      <c r="H24" s="469"/>
+      <c r="I24" s="469"/>
+      <c r="J24" s="469"/>
+      <c r="K24" s="467"/>
+      <c r="L24" s="221">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="350"/>
-      <c r="C25" s="351"/>
-      <c r="D25" s="352" t="s">
+      <c r="B25" s="223"/>
+      <c r="C25" s="264"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="468"/>
+      <c r="F25" s="469"/>
+      <c r="G25" s="469"/>
+      <c r="H25" s="469"/>
+      <c r="I25" s="469"/>
+      <c r="J25" s="469"/>
+      <c r="K25" s="467"/>
+      <c r="L25" s="222"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="223"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="468"/>
+      <c r="F26" s="469"/>
+      <c r="G26" s="469"/>
+      <c r="H26" s="469"/>
+      <c r="I26" s="469"/>
+      <c r="J26" s="469"/>
+      <c r="K26" s="467"/>
+      <c r="L26" s="222"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="434" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="449"/>
-      <c r="F25" s="450"/>
-      <c r="G25" s="450"/>
-      <c r="H25" s="450"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="450"/>
-      <c r="K25" s="352"/>
-      <c r="L25" s="221"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="350"/>
-      <c r="C26" s="351"/>
-      <c r="D26" s="352" t="s">
+      <c r="C27" s="470"/>
+      <c r="D27" s="470"/>
+      <c r="E27" s="470"/>
+      <c r="F27" s="470"/>
+      <c r="G27" s="470"/>
+      <c r="H27" s="470"/>
+      <c r="I27" s="470"/>
+      <c r="J27" s="470"/>
+      <c r="K27" s="436"/>
+      <c r="L27" s="225">
+        <f>SUM(L23:L26)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="380" t="s">
         <v>366</v>
       </c>
-      <c r="E26" s="449"/>
-      <c r="F26" s="450"/>
-      <c r="G26" s="450"/>
-      <c r="H26" s="450"/>
-      <c r="I26" s="450"/>
-      <c r="J26" s="450"/>
-      <c r="K26" s="352"/>
-      <c r="L26" s="221"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="350"/>
-      <c r="C27" s="351"/>
-      <c r="D27" s="352" t="s">
+      <c r="C28" s="381"/>
+      <c r="D28" s="381"/>
+      <c r="E28" s="381"/>
+      <c r="F28" s="381"/>
+      <c r="G28" s="381"/>
+      <c r="H28" s="381"/>
+      <c r="I28" s="381"/>
+      <c r="J28" s="381"/>
+      <c r="K28" s="381"/>
+      <c r="L28" s="382"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="442" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="449"/>
-      <c r="F27" s="450"/>
-      <c r="G27" s="450"/>
-      <c r="H27" s="450"/>
-      <c r="I27" s="450"/>
-      <c r="J27" s="450"/>
-      <c r="K27" s="352"/>
-      <c r="L27" s="222"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="350"/>
-      <c r="C28" s="351"/>
-      <c r="D28" s="352" t="s">
+      <c r="C29" s="452" t="s">
+        <v>362</v>
+      </c>
+      <c r="D29" s="454"/>
+      <c r="E29" s="452" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="453"/>
+      <c r="G29" s="453"/>
+      <c r="H29" s="453"/>
+      <c r="I29" s="453"/>
+      <c r="J29" s="453"/>
+      <c r="K29" s="454"/>
+      <c r="L29" s="465" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="443"/>
+      <c r="C30" s="455"/>
+      <c r="D30" s="457"/>
+      <c r="E30" s="455"/>
+      <c r="F30" s="456"/>
+      <c r="G30" s="456"/>
+      <c r="H30" s="456"/>
+      <c r="I30" s="456"/>
+      <c r="J30" s="456"/>
+      <c r="K30" s="457"/>
+      <c r="L30" s="466"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="226"/>
+      <c r="C31" s="458"/>
+      <c r="D31" s="459"/>
+      <c r="E31" s="460"/>
+      <c r="F31" s="461"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="461"/>
+      <c r="J31" s="461"/>
+      <c r="K31" s="392"/>
+      <c r="L31" s="227"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="226"/>
+      <c r="C32" s="458"/>
+      <c r="D32" s="459"/>
+      <c r="E32" s="460"/>
+      <c r="F32" s="461"/>
+      <c r="G32" s="461"/>
+      <c r="H32" s="461"/>
+      <c r="I32" s="461"/>
+      <c r="J32" s="461"/>
+      <c r="K32" s="392"/>
+      <c r="L32" s="227"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="226"/>
+      <c r="C33" s="458"/>
+      <c r="D33" s="459"/>
+      <c r="E33" s="462"/>
+      <c r="F33" s="463"/>
+      <c r="G33" s="463"/>
+      <c r="H33" s="463"/>
+      <c r="I33" s="463"/>
+      <c r="J33" s="463"/>
+      <c r="K33" s="464"/>
+      <c r="L33" s="227"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="226"/>
+      <c r="C34" s="458"/>
+      <c r="D34" s="459"/>
+      <c r="E34" s="462"/>
+      <c r="F34" s="463"/>
+      <c r="G34" s="463"/>
+      <c r="H34" s="463"/>
+      <c r="I34" s="463"/>
+      <c r="J34" s="463"/>
+      <c r="K34" s="464"/>
+      <c r="L34" s="227"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="226"/>
+      <c r="C35" s="458"/>
+      <c r="D35" s="459"/>
+      <c r="E35" s="462"/>
+      <c r="F35" s="463"/>
+      <c r="G35" s="463"/>
+      <c r="H35" s="463"/>
+      <c r="I35" s="463"/>
+      <c r="J35" s="463"/>
+      <c r="K35" s="464"/>
+      <c r="L35" s="227"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="396" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="397"/>
+      <c r="D36" s="397"/>
+      <c r="E36" s="397"/>
+      <c r="F36" s="397"/>
+      <c r="G36" s="397"/>
+      <c r="H36" s="397"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="228">
+        <f>SUM(L31:L35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="399" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="400"/>
+      <c r="D37" s="400"/>
+      <c r="E37" s="400"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="400"/>
+      <c r="H37" s="400"/>
+      <c r="I37" s="400"/>
+      <c r="J37" s="400"/>
+      <c r="K37" s="401"/>
+      <c r="L37" s="229">
+        <f>L36+L27</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="414" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="415"/>
+      <c r="D38" s="415"/>
+      <c r="E38" s="415"/>
+      <c r="F38" s="415"/>
+      <c r="G38" s="415"/>
+      <c r="H38" s="415"/>
+      <c r="I38" s="415"/>
+      <c r="J38" s="415"/>
+      <c r="K38" s="415"/>
+      <c r="L38" s="416"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="380" t="s">
         <v>368</v>
       </c>
-      <c r="E28" s="449"/>
-      <c r="F28" s="450"/>
-      <c r="G28" s="450"/>
-      <c r="H28" s="450"/>
-      <c r="I28" s="450"/>
-      <c r="J28" s="450"/>
-      <c r="K28" s="352"/>
-      <c r="L28" s="222"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="223"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="449"/>
-      <c r="F29" s="450"/>
-      <c r="G29" s="450"/>
-      <c r="H29" s="450"/>
-      <c r="I29" s="450"/>
-      <c r="J29" s="450"/>
-      <c r="K29" s="352"/>
-      <c r="L29" s="222"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="223"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="449"/>
-      <c r="F30" s="450"/>
-      <c r="G30" s="450"/>
-      <c r="H30" s="450"/>
-      <c r="I30" s="450"/>
-      <c r="J30" s="450"/>
-      <c r="K30" s="352"/>
-      <c r="L30" s="222"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="223"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="449"/>
-      <c r="F31" s="450"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="450"/>
-      <c r="I31" s="450"/>
-      <c r="J31" s="450"/>
-      <c r="K31" s="352"/>
-      <c r="L31" s="222"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="223"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="449"/>
-      <c r="F32" s="450"/>
-      <c r="G32" s="450"/>
-      <c r="H32" s="450"/>
-      <c r="I32" s="450"/>
-      <c r="J32" s="450"/>
-      <c r="K32" s="352"/>
-      <c r="L32" s="222"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="388" t="s">
+      <c r="C39" s="381"/>
+      <c r="D39" s="381"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="381"/>
+      <c r="G39" s="381"/>
+      <c r="H39" s="381"/>
+      <c r="I39" s="381"/>
+      <c r="J39" s="380" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="454"/>
-      <c r="D33" s="454"/>
-      <c r="E33" s="454"/>
-      <c r="F33" s="454"/>
-      <c r="G33" s="454"/>
-      <c r="H33" s="454"/>
-      <c r="I33" s="454"/>
-      <c r="J33" s="454"/>
-      <c r="K33" s="390"/>
-      <c r="L33" s="225">
-        <f>SUM(L23:L32)</f>
+      <c r="K39" s="381"/>
+      <c r="L39" s="382"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="442" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="448" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="449"/>
+      <c r="E40" s="452" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="453"/>
+      <c r="G40" s="453"/>
+      <c r="H40" s="454"/>
+      <c r="I40" s="432" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" s="444" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="446" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="432" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="443"/>
+      <c r="C41" s="450"/>
+      <c r="D41" s="451"/>
+      <c r="E41" s="455"/>
+      <c r="F41" s="456"/>
+      <c r="G41" s="456"/>
+      <c r="H41" s="457"/>
+      <c r="I41" s="433"/>
+      <c r="J41" s="445"/>
+      <c r="K41" s="447"/>
+      <c r="L41" s="433"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="230"/>
+      <c r="C42" s="390"/>
+      <c r="D42" s="392"/>
+      <c r="E42" s="390"/>
+      <c r="F42" s="391"/>
+      <c r="G42" s="391"/>
+      <c r="H42" s="392"/>
+      <c r="I42" s="232"/>
+      <c r="J42" s="233"/>
+      <c r="K42" s="234"/>
+      <c r="L42" s="222"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="230"/>
+      <c r="C43" s="390"/>
+      <c r="D43" s="392"/>
+      <c r="E43" s="390"/>
+      <c r="F43" s="391"/>
+      <c r="G43" s="391"/>
+      <c r="H43" s="392"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="237"/>
+      <c r="L43" s="238"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="230"/>
+      <c r="C44" s="390"/>
+      <c r="D44" s="392"/>
+      <c r="E44" s="390"/>
+      <c r="F44" s="391"/>
+      <c r="G44" s="391"/>
+      <c r="H44" s="392"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="221"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="434" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="435"/>
+      <c r="D45" s="435"/>
+      <c r="E45" s="435"/>
+      <c r="F45" s="435"/>
+      <c r="G45" s="435"/>
+      <c r="H45" s="436"/>
+      <c r="I45" s="256">
+        <f>SUM(I42:I44)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="437" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" s="438"/>
+      <c r="L45" s="241">
+        <f>SUM(L42:L44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="434" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="435"/>
+      <c r="D46" s="435"/>
+      <c r="E46" s="435"/>
+      <c r="F46" s="435"/>
+      <c r="G46" s="435"/>
+      <c r="H46" s="435"/>
+      <c r="I46" s="435"/>
+      <c r="J46" s="435"/>
+      <c r="K46" s="436"/>
+      <c r="L46" s="241">
+        <f>L45+I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="414" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" s="415"/>
+      <c r="D47" s="415"/>
+      <c r="E47" s="415"/>
+      <c r="F47" s="415"/>
+      <c r="G47" s="415"/>
+      <c r="H47" s="415"/>
+      <c r="I47" s="415"/>
+      <c r="J47" s="415"/>
+      <c r="K47" s="415"/>
+      <c r="L47" s="416"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="380" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="381"/>
+      <c r="D48" s="382"/>
+      <c r="E48" s="381" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" s="381"/>
+      <c r="G48" s="371" t="s">
+        <v>394</v>
+      </c>
+      <c r="H48" s="372"/>
+      <c r="I48" s="372"/>
+      <c r="J48" s="372"/>
+      <c r="K48" s="372"/>
+      <c r="L48" s="373"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="378" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="379"/>
+      <c r="D49" s="269" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="260" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" s="268" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="262"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="261"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="491"/>
+      <c r="C50" s="491"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="274"/>
+      <c r="F50" s="376"/>
+      <c r="G50" s="371"/>
+      <c r="H50" s="372"/>
+      <c r="I50" s="372"/>
+      <c r="J50" s="372"/>
+      <c r="K50" s="372"/>
+      <c r="L50" s="373"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="491"/>
+      <c r="C51" s="491"/>
+      <c r="D51" s="375"/>
+      <c r="E51" s="274"/>
+      <c r="F51" s="377"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="372"/>
+      <c r="I51" s="372"/>
+      <c r="J51" s="372"/>
+      <c r="K51" s="372"/>
+      <c r="L51" s="373"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="393" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" s="394"/>
+      <c r="D52" s="394"/>
+      <c r="E52" s="394"/>
+      <c r="F52" s="394"/>
+      <c r="G52" s="394"/>
+      <c r="H52" s="394"/>
+      <c r="I52" s="394"/>
+      <c r="J52" s="394"/>
+      <c r="K52" s="394"/>
+      <c r="L52" s="395"/>
+    </row>
+    <row r="53" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="267" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" s="439" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="440"/>
+      <c r="E53" s="441"/>
+      <c r="F53" s="439" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" s="440"/>
+      <c r="H53" s="441"/>
+      <c r="I53" s="439" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" s="441"/>
+      <c r="K53" s="242" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" s="243" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="244" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="387" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" s="388"/>
+      <c r="E54" s="389"/>
+      <c r="F54" s="489"/>
+      <c r="G54" s="490"/>
+      <c r="H54" s="245"/>
+      <c r="I54" s="489"/>
+      <c r="J54" s="490"/>
+      <c r="K54" s="270"/>
+      <c r="L54" s="246"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="244" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="387" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="388"/>
+      <c r="E55" s="389"/>
+      <c r="F55" s="489"/>
+      <c r="G55" s="490"/>
+      <c r="H55" s="245"/>
+      <c r="I55" s="489"/>
+      <c r="J55" s="490"/>
+      <c r="K55" s="270"/>
+      <c r="L55" s="246"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" s="387" t="s">
+        <v>413</v>
+      </c>
+      <c r="D56" s="388"/>
+      <c r="E56" s="389"/>
+      <c r="F56" s="489"/>
+      <c r="G56" s="490"/>
+      <c r="H56" s="245"/>
+      <c r="I56" s="489"/>
+      <c r="J56" s="490"/>
+      <c r="K56" s="270"/>
+      <c r="L56" s="246"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="421" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="422"/>
+      <c r="D57" s="422"/>
+      <c r="E57" s="422"/>
+      <c r="F57" s="422"/>
+      <c r="G57" s="422"/>
+      <c r="H57" s="422"/>
+      <c r="I57" s="422"/>
+      <c r="J57" s="423"/>
+      <c r="K57" s="430" t="s">
+        <v>383</v>
+      </c>
+      <c r="L57" s="431"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="424"/>
+      <c r="C58" s="425"/>
+      <c r="D58" s="425"/>
+      <c r="E58" s="425"/>
+      <c r="F58" s="425"/>
+      <c r="G58" s="425"/>
+      <c r="H58" s="425"/>
+      <c r="I58" s="425"/>
+      <c r="J58" s="426"/>
+      <c r="K58" s="247" t="s">
+        <v>384</v>
+      </c>
+      <c r="L58" s="246"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="424"/>
+      <c r="C59" s="425"/>
+      <c r="D59" s="425"/>
+      <c r="E59" s="425"/>
+      <c r="F59" s="425"/>
+      <c r="G59" s="425"/>
+      <c r="H59" s="425"/>
+      <c r="I59" s="425"/>
+      <c r="J59" s="426"/>
+      <c r="K59" s="247" t="s">
+        <v>385</v>
+      </c>
+      <c r="L59" s="246"/>
+    </row>
+    <row r="60" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="427"/>
+      <c r="C60" s="428"/>
+      <c r="D60" s="428"/>
+      <c r="E60" s="428"/>
+      <c r="F60" s="428"/>
+      <c r="G60" s="428"/>
+      <c r="H60" s="428"/>
+      <c r="I60" s="428"/>
+      <c r="J60" s="429"/>
+      <c r="K60" s="248" t="s">
+        <v>386</v>
+      </c>
+      <c r="L60" s="249"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="250"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="250"/>
+      <c r="E61" s="250"/>
+      <c r="F61" s="250"/>
+      <c r="G61" s="250"/>
+      <c r="H61" s="250"/>
+      <c r="I61" s="250"/>
+      <c r="J61" s="250"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="252"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="414" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="415"/>
+      <c r="D63" s="415"/>
+      <c r="E63" s="415"/>
+      <c r="F63" s="415"/>
+      <c r="G63" s="415"/>
+      <c r="H63" s="415"/>
+      <c r="I63" s="415"/>
+      <c r="J63" s="415"/>
+      <c r="K63" s="415"/>
+      <c r="L63" s="416"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="318">
+        <v>1</v>
+      </c>
+      <c r="C64" s="386" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="384"/>
+      <c r="E64" s="384"/>
+      <c r="F64" s="384"/>
+      <c r="G64" s="384"/>
+      <c r="H64" s="384"/>
+      <c r="I64" s="384"/>
+      <c r="J64" s="384"/>
+      <c r="K64" s="384"/>
+      <c r="L64" s="385"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="318">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="355" t="s">
+      <c r="C65" s="386" t="s">
+        <v>423</v>
+      </c>
+      <c r="D65" s="384"/>
+      <c r="E65" s="384"/>
+      <c r="F65" s="384"/>
+      <c r="G65" s="384"/>
+      <c r="H65" s="384"/>
+      <c r="I65" s="384"/>
+      <c r="J65" s="384"/>
+      <c r="K65" s="384"/>
+      <c r="L65" s="385"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="414" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="415"/>
+      <c r="D66" s="415"/>
+      <c r="E66" s="415"/>
+      <c r="F66" s="415"/>
+      <c r="G66" s="415"/>
+      <c r="H66" s="415"/>
+      <c r="I66" s="415"/>
+      <c r="J66" s="415"/>
+      <c r="K66" s="415"/>
+      <c r="L66" s="416"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="275"/>
+      <c r="C67" s="383"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
+      <c r="F67" s="384"/>
+      <c r="G67" s="384"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="384"/>
+      <c r="J67" s="384"/>
+      <c r="K67" s="384"/>
+      <c r="L67" s="385"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="275"/>
+      <c r="C68" s="383"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="384"/>
+      <c r="F68" s="384"/>
+      <c r="G68" s="384"/>
+      <c r="H68" s="384"/>
+      <c r="I68" s="384"/>
+      <c r="J68" s="384"/>
+      <c r="K68" s="384"/>
+      <c r="L68" s="385"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="275"/>
+      <c r="C69" s="383"/>
+      <c r="D69" s="384"/>
+      <c r="E69" s="384"/>
+      <c r="F69" s="384"/>
+      <c r="G69" s="384"/>
+      <c r="H69" s="384"/>
+      <c r="I69" s="384"/>
+      <c r="J69" s="384"/>
+      <c r="K69" s="384"/>
+      <c r="L69" s="385"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="414" t="s">
+        <v>392</v>
+      </c>
+      <c r="C70" s="415"/>
+      <c r="D70" s="415"/>
+      <c r="E70" s="415"/>
+      <c r="F70" s="415"/>
+      <c r="G70" s="415"/>
+      <c r="H70" s="415"/>
+      <c r="I70" s="415"/>
+      <c r="J70" s="415"/>
+      <c r="K70" s="415"/>
+      <c r="L70" s="416"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="275"/>
+      <c r="C71" s="383"/>
+      <c r="D71" s="384"/>
+      <c r="E71" s="384"/>
+      <c r="F71" s="384"/>
+      <c r="G71" s="384"/>
+      <c r="H71" s="384"/>
+      <c r="I71" s="384"/>
+      <c r="J71" s="384"/>
+      <c r="K71" s="384"/>
+      <c r="L71" s="385"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="275"/>
+      <c r="C72" s="383"/>
+      <c r="D72" s="384"/>
+      <c r="E72" s="384"/>
+      <c r="F72" s="384"/>
+      <c r="G72" s="384"/>
+      <c r="H72" s="384"/>
+      <c r="I72" s="384"/>
+      <c r="J72" s="384"/>
+      <c r="K72" s="384"/>
+      <c r="L72" s="385"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="275"/>
+      <c r="C73" s="383"/>
+      <c r="D73" s="384"/>
+      <c r="E73" s="384"/>
+      <c r="F73" s="384"/>
+      <c r="G73" s="384"/>
+      <c r="H73" s="384"/>
+      <c r="I73" s="384"/>
+      <c r="J73" s="384"/>
+      <c r="K73" s="384"/>
+      <c r="L73" s="385"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="418" t="s">
+        <v>388</v>
+      </c>
+      <c r="C74" s="419"/>
+      <c r="D74" s="419"/>
+      <c r="E74" s="419"/>
+      <c r="F74" s="419"/>
+      <c r="G74" s="419"/>
+      <c r="H74" s="419"/>
+      <c r="I74" s="419"/>
+      <c r="J74" s="419"/>
+      <c r="K74" s="419"/>
+      <c r="L74" s="420"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="417"/>
+      <c r="C75" s="384"/>
+      <c r="D75" s="384"/>
+      <c r="E75" s="384"/>
+      <c r="F75" s="384"/>
+      <c r="G75" s="384"/>
+      <c r="H75" s="384"/>
+      <c r="I75" s="384"/>
+      <c r="J75" s="384"/>
+      <c r="K75" s="384"/>
+      <c r="L75" s="385"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="417"/>
+      <c r="C76" s="384"/>
+      <c r="D76" s="384"/>
+      <c r="E76" s="384"/>
+      <c r="F76" s="384"/>
+      <c r="G76" s="384"/>
+      <c r="H76" s="384"/>
+      <c r="I76" s="384"/>
+      <c r="J76" s="384"/>
+      <c r="K76" s="384"/>
+      <c r="L76" s="385"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="417"/>
+      <c r="C77" s="384"/>
+      <c r="D77" s="384"/>
+      <c r="E77" s="384"/>
+      <c r="F77" s="384"/>
+      <c r="G77" s="384"/>
+      <c r="H77" s="384"/>
+      <c r="I77" s="384"/>
+      <c r="J77" s="384"/>
+      <c r="K77" s="384"/>
+      <c r="L77" s="385"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="417"/>
+      <c r="C78" s="384"/>
+      <c r="D78" s="384"/>
+      <c r="E78" s="384"/>
+      <c r="F78" s="384"/>
+      <c r="G78" s="384"/>
+      <c r="H78" s="384"/>
+      <c r="I78" s="384"/>
+      <c r="J78" s="384"/>
+      <c r="K78" s="384"/>
+      <c r="L78" s="385"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="402"/>
+      <c r="C79" s="403"/>
+      <c r="D79" s="403"/>
+      <c r="E79" s="403"/>
+      <c r="F79" s="403"/>
+      <c r="G79" s="254"/>
+      <c r="H79" s="403"/>
+      <c r="I79" s="403"/>
+      <c r="J79" s="403"/>
+      <c r="K79" s="403"/>
+      <c r="L79" s="411"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="404"/>
+      <c r="C80" s="405"/>
+      <c r="D80" s="405"/>
+      <c r="E80" s="405"/>
+      <c r="F80" s="405"/>
+      <c r="G80" s="255"/>
+      <c r="H80" s="405"/>
+      <c r="I80" s="405"/>
+      <c r="J80" s="405"/>
+      <c r="K80" s="405"/>
+      <c r="L80" s="412"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="404"/>
+      <c r="C81" s="405"/>
+      <c r="D81" s="405"/>
+      <c r="E81" s="405"/>
+      <c r="F81" s="405"/>
+      <c r="G81" s="255"/>
+      <c r="H81" s="405"/>
+      <c r="I81" s="405"/>
+      <c r="J81" s="405"/>
+      <c r="K81" s="405"/>
+      <c r="L81" s="412"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="406"/>
+      <c r="C82" s="407"/>
+      <c r="D82" s="407"/>
+      <c r="E82" s="407"/>
+      <c r="F82" s="407"/>
+      <c r="G82" s="265"/>
+      <c r="H82" s="407"/>
+      <c r="I82" s="407"/>
+      <c r="J82" s="407"/>
+      <c r="K82" s="407"/>
+      <c r="L82" s="413"/>
+    </row>
+    <row r="83" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="408" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" s="409"/>
+      <c r="D83" s="409"/>
+      <c r="E83" s="409"/>
+      <c r="F83" s="409"/>
+      <c r="G83" s="266"/>
+      <c r="H83" s="409" t="s">
+        <v>390</v>
+      </c>
+      <c r="I83" s="409"/>
+      <c r="J83" s="409"/>
+      <c r="K83" s="409"/>
+      <c r="L83" s="410"/>
+    </row>
+    <row r="85" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="481" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="482"/>
+      <c r="D86" s="482"/>
+      <c r="E86" s="482"/>
+      <c r="F86" s="482"/>
+      <c r="G86" s="482"/>
+      <c r="H86" s="482"/>
+      <c r="I86" s="482"/>
+      <c r="J86" s="482"/>
+      <c r="K86" s="482"/>
+      <c r="L86" s="483"/>
+    </row>
+    <row r="87" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="211"/>
+      <c r="E87" s="211"/>
+      <c r="F87" s="211"/>
+      <c r="G87" s="211"/>
+      <c r="H87" s="211"/>
+      <c r="I87" s="211"/>
+      <c r="J87" s="211"/>
+      <c r="K87" s="212" t="str">
+        <f>("DATA ATUAL:"&amp;"    "&amp;UPPER(LEFT(TEXT(L87,"DDDD"),7)))</f>
+        <v>DATA ATUAL:    QUARTA-</v>
+      </c>
+      <c r="L87" s="257">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="213"/>
+      <c r="E88" s="213"/>
+      <c r="F88" s="213"/>
+      <c r="G88" s="213"/>
+      <c r="H88" s="213"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="213"/>
+      <c r="K88" s="212" t="s">
+        <v>342</v>
+      </c>
+      <c r="L88" s="258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="487" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="487"/>
+      <c r="F89" s="487"/>
+      <c r="G89" s="487"/>
+      <c r="H89" s="487"/>
+      <c r="I89" s="487"/>
+      <c r="J89" s="213"/>
+      <c r="K89" s="212" t="s">
+        <v>344</v>
+      </c>
+      <c r="L89" s="259">
+        <f>IFERROR(IF(AND(L94&gt;0,L93&gt;0),L94-L93,0),"")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="486" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" s="486"/>
+      <c r="F90" s="486"/>
+      <c r="G90" s="486"/>
+      <c r="H90" s="486"/>
+      <c r="I90" s="486"/>
+      <c r="J90" s="214"/>
+      <c r="K90" s="212" t="s">
+        <v>346</v>
+      </c>
+      <c r="L90" s="259">
+        <f>IF(OR(AND(K140&lt;&gt;"",K141&lt;&gt;"",K142&lt;&gt;""),AND(D136&lt;&gt;"",F136&lt;&gt;"")),IF(L93&gt;0,(L87-L93)-1,0),IF(L93&gt;0,L87-L93+1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="488" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" s="488"/>
+      <c r="F91" s="488"/>
+      <c r="G91" s="488"/>
+      <c r="H91" s="488"/>
+      <c r="I91" s="488"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="212" t="s">
+        <v>348</v>
+      </c>
+      <c r="L91" s="259">
+        <f>IFERROR(L89-L90,"")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="414" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" s="415"/>
+      <c r="D92" s="415"/>
+      <c r="E92" s="415"/>
+      <c r="F92" s="415"/>
+      <c r="G92" s="415"/>
+      <c r="H92" s="415"/>
+      <c r="I92" s="415"/>
+      <c r="J92" s="415"/>
+      <c r="K92" s="415"/>
+      <c r="L92" s="416"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="478" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" s="484"/>
+      <c r="D93" s="484" t="s">
+        <v>410</v>
+      </c>
+      <c r="E93" s="484"/>
+      <c r="F93" s="484"/>
+      <c r="G93" s="484"/>
+      <c r="H93" s="484"/>
+      <c r="I93" s="484"/>
+      <c r="J93" s="484"/>
+      <c r="K93" s="217" t="s">
+        <v>351</v>
+      </c>
+      <c r="L93" s="218">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="301" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="484"/>
+      <c r="D94" s="484"/>
+      <c r="E94" s="484"/>
+      <c r="F94" s="484"/>
+      <c r="G94" s="484"/>
+      <c r="H94" s="484"/>
+      <c r="I94" s="484"/>
+      <c r="J94" s="484"/>
+      <c r="K94" s="217" t="s">
+        <v>353</v>
+      </c>
+      <c r="L94" s="218">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="478" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" s="484"/>
+      <c r="D95" s="484" t="s">
+        <v>411</v>
+      </c>
+      <c r="E95" s="484"/>
+      <c r="F95" s="484"/>
+      <c r="G95" s="484"/>
+      <c r="H95" s="484"/>
+      <c r="I95" s="484"/>
+      <c r="J95" s="484"/>
+      <c r="K95" s="484"/>
+      <c r="L95" s="485"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="478" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="479"/>
+      <c r="D96" s="479"/>
+      <c r="E96" s="484" t="s">
+        <v>407</v>
+      </c>
+      <c r="F96" s="484"/>
+      <c r="G96" s="484"/>
+      <c r="H96" s="484"/>
+      <c r="I96" s="484"/>
+      <c r="J96" s="484"/>
+      <c r="K96" s="484"/>
+      <c r="L96" s="485"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="301" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="302"/>
+      <c r="D97" s="472"/>
+      <c r="E97" s="472"/>
+      <c r="F97" s="472"/>
+      <c r="G97" s="472"/>
+      <c r="H97" s="472"/>
+      <c r="I97" s="472"/>
+      <c r="J97" s="472"/>
+      <c r="K97" s="472"/>
+      <c r="L97" s="473"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" s="414" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="415"/>
+      <c r="D98" s="415"/>
+      <c r="E98" s="415"/>
+      <c r="F98" s="415"/>
+      <c r="G98" s="415"/>
+      <c r="H98" s="415"/>
+      <c r="I98" s="415"/>
+      <c r="J98" s="415"/>
+      <c r="K98" s="415"/>
+      <c r="L98" s="416"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="478" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="479"/>
+      <c r="D99" s="479"/>
+      <c r="E99" s="302"/>
+      <c r="F99" s="480"/>
+      <c r="G99" s="480"/>
+      <c r="H99" s="480"/>
+      <c r="I99" s="480"/>
+      <c r="J99" s="480"/>
+      <c r="K99" s="480"/>
+      <c r="L99" s="431"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B100" s="220" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="216"/>
+      <c r="D100" s="472"/>
+      <c r="E100" s="472"/>
+      <c r="F100" s="472"/>
+      <c r="G100" s="472"/>
+      <c r="H100" s="472"/>
+      <c r="I100" s="472"/>
+      <c r="J100" s="472"/>
+      <c r="K100" s="472"/>
+      <c r="L100" s="473"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B101" s="220" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="216"/>
+      <c r="D101" s="472"/>
+      <c r="E101" s="472"/>
+      <c r="F101" s="472"/>
+      <c r="G101" s="472"/>
+      <c r="H101" s="472"/>
+      <c r="I101" s="472"/>
+      <c r="J101" s="472"/>
+      <c r="K101" s="472"/>
+      <c r="L101" s="473"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B102" s="220" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" s="216"/>
+      <c r="D102" s="472"/>
+      <c r="E102" s="472"/>
+      <c r="F102" s="472"/>
+      <c r="G102" s="472"/>
+      <c r="H102" s="472"/>
+      <c r="I102" s="472"/>
+      <c r="J102" s="472"/>
+      <c r="K102" s="472"/>
+      <c r="L102" s="473"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B103" s="414" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" s="415"/>
+      <c r="D103" s="415"/>
+      <c r="E103" s="415"/>
+      <c r="F103" s="415"/>
+      <c r="G103" s="415"/>
+      <c r="H103" s="415"/>
+      <c r="I103" s="415"/>
+      <c r="J103" s="415"/>
+      <c r="K103" s="415"/>
+      <c r="L103" s="416"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" s="380" t="s">
+        <v>361</v>
+      </c>
+      <c r="C104" s="381"/>
+      <c r="D104" s="381"/>
+      <c r="E104" s="381"/>
+      <c r="F104" s="381"/>
+      <c r="G104" s="381"/>
+      <c r="H104" s="381"/>
+      <c r="I104" s="381"/>
+      <c r="J104" s="381"/>
+      <c r="K104" s="381"/>
+      <c r="L104" s="382"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="474" t="s">
+        <v>362</v>
+      </c>
+      <c r="C105" s="463"/>
+      <c r="D105" s="464"/>
+      <c r="E105" s="452" t="s">
+        <v>363</v>
+      </c>
+      <c r="F105" s="453"/>
+      <c r="G105" s="453"/>
+      <c r="H105" s="453"/>
+      <c r="I105" s="453"/>
+      <c r="J105" s="453"/>
+      <c r="K105" s="454"/>
+      <c r="L105" s="475" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" s="474"/>
+      <c r="C106" s="463"/>
+      <c r="D106" s="464"/>
+      <c r="E106" s="455"/>
+      <c r="F106" s="456"/>
+      <c r="G106" s="456"/>
+      <c r="H106" s="456"/>
+      <c r="I106" s="456"/>
+      <c r="J106" s="456"/>
+      <c r="K106" s="457"/>
+      <c r="L106" s="476"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B107" s="471" t="s">
+        <v>405</v>
+      </c>
+      <c r="C107" s="384"/>
+      <c r="D107" s="467"/>
+      <c r="E107" s="477" t="s">
+        <v>409</v>
+      </c>
+      <c r="F107" s="469"/>
+      <c r="G107" s="469"/>
+      <c r="H107" s="469"/>
+      <c r="I107" s="469"/>
+      <c r="J107" s="469"/>
+      <c r="K107" s="467"/>
+      <c r="L107" s="221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" s="471" t="s">
+        <v>419</v>
+      </c>
+      <c r="C108" s="384"/>
+      <c r="D108" s="467"/>
+      <c r="E108" s="468" t="s">
+        <v>421</v>
+      </c>
+      <c r="F108" s="469"/>
+      <c r="G108" s="469"/>
+      <c r="H108" s="469"/>
+      <c r="I108" s="469"/>
+      <c r="J108" s="469"/>
+      <c r="K108" s="467"/>
+      <c r="L108" s="222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" s="471"/>
+      <c r="C109" s="384"/>
+      <c r="D109" s="467"/>
+      <c r="E109" s="468"/>
+      <c r="F109" s="469"/>
+      <c r="G109" s="469"/>
+      <c r="H109" s="469"/>
+      <c r="I109" s="469"/>
+      <c r="J109" s="469"/>
+      <c r="K109" s="467"/>
+      <c r="L109" s="222"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B110" s="434" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" s="470"/>
+      <c r="D110" s="470"/>
+      <c r="E110" s="470"/>
+      <c r="F110" s="470"/>
+      <c r="G110" s="470"/>
+      <c r="H110" s="470"/>
+      <c r="I110" s="470"/>
+      <c r="J110" s="470"/>
+      <c r="K110" s="436"/>
+      <c r="L110" s="225">
+        <f>SUM(L107:L109)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B111" s="380" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="381"/>
+      <c r="D111" s="381"/>
+      <c r="E111" s="381"/>
+      <c r="F111" s="381"/>
+      <c r="G111" s="381"/>
+      <c r="H111" s="381"/>
+      <c r="I111" s="381"/>
+      <c r="J111" s="381"/>
+      <c r="K111" s="381"/>
+      <c r="L111" s="382"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B112" s="442" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="452" t="s">
+        <v>362</v>
+      </c>
+      <c r="D112" s="454"/>
+      <c r="E112" s="452" t="s">
+        <v>363</v>
+      </c>
+      <c r="F112" s="453"/>
+      <c r="G112" s="453"/>
+      <c r="H112" s="453"/>
+      <c r="I112" s="453"/>
+      <c r="J112" s="453"/>
+      <c r="K112" s="454"/>
+      <c r="L112" s="465" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" s="443"/>
+      <c r="C113" s="455"/>
+      <c r="D113" s="457"/>
+      <c r="E113" s="455"/>
+      <c r="F113" s="456"/>
+      <c r="G113" s="456"/>
+      <c r="H113" s="456"/>
+      <c r="I113" s="456"/>
+      <c r="J113" s="456"/>
+      <c r="K113" s="457"/>
+      <c r="L113" s="466"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114" s="304"/>
+      <c r="C114" s="458"/>
+      <c r="D114" s="459"/>
+      <c r="E114" s="460"/>
+      <c r="F114" s="461"/>
+      <c r="G114" s="461"/>
+      <c r="H114" s="461"/>
+      <c r="I114" s="461"/>
+      <c r="J114" s="461"/>
+      <c r="K114" s="392"/>
+      <c r="L114" s="305"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" s="304"/>
+      <c r="C115" s="458"/>
+      <c r="D115" s="459"/>
+      <c r="E115" s="460"/>
+      <c r="F115" s="461"/>
+      <c r="G115" s="461"/>
+      <c r="H115" s="461"/>
+      <c r="I115" s="461"/>
+      <c r="J115" s="461"/>
+      <c r="K115" s="392"/>
+      <c r="L115" s="305"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="304"/>
+      <c r="C116" s="458"/>
+      <c r="D116" s="459"/>
+      <c r="E116" s="462"/>
+      <c r="F116" s="463"/>
+      <c r="G116" s="463"/>
+      <c r="H116" s="463"/>
+      <c r="I116" s="463"/>
+      <c r="J116" s="463"/>
+      <c r="K116" s="464"/>
+      <c r="L116" s="305"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" s="304"/>
+      <c r="C117" s="458"/>
+      <c r="D117" s="459"/>
+      <c r="E117" s="462"/>
+      <c r="F117" s="463"/>
+      <c r="G117" s="463"/>
+      <c r="H117" s="463"/>
+      <c r="I117" s="463"/>
+      <c r="J117" s="463"/>
+      <c r="K117" s="464"/>
+      <c r="L117" s="305"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118" s="304"/>
+      <c r="C118" s="458"/>
+      <c r="D118" s="459"/>
+      <c r="E118" s="462"/>
+      <c r="F118" s="463"/>
+      <c r="G118" s="463"/>
+      <c r="H118" s="463"/>
+      <c r="I118" s="463"/>
+      <c r="J118" s="463"/>
+      <c r="K118" s="464"/>
+      <c r="L118" s="305"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" s="304"/>
+      <c r="C119" s="458"/>
+      <c r="D119" s="459"/>
+      <c r="E119" s="462"/>
+      <c r="F119" s="463"/>
+      <c r="G119" s="463"/>
+      <c r="H119" s="463"/>
+      <c r="I119" s="463"/>
+      <c r="J119" s="463"/>
+      <c r="K119" s="464"/>
+      <c r="L119" s="305"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120" s="304"/>
+      <c r="C120" s="458"/>
+      <c r="D120" s="459"/>
+      <c r="E120" s="462"/>
+      <c r="F120" s="463"/>
+      <c r="G120" s="463"/>
+      <c r="H120" s="463"/>
+      <c r="I120" s="463"/>
+      <c r="J120" s="463"/>
+      <c r="K120" s="464"/>
+      <c r="L120" s="305"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121" s="304"/>
+      <c r="C121" s="458"/>
+      <c r="D121" s="459"/>
+      <c r="E121" s="462"/>
+      <c r="F121" s="463"/>
+      <c r="G121" s="463"/>
+      <c r="H121" s="463"/>
+      <c r="I121" s="463"/>
+      <c r="J121" s="463"/>
+      <c r="K121" s="464"/>
+      <c r="L121" s="305"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B122" s="396" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="397"/>
+      <c r="D122" s="397"/>
+      <c r="E122" s="397"/>
+      <c r="F122" s="397"/>
+      <c r="G122" s="397"/>
+      <c r="H122" s="397"/>
+      <c r="I122" s="397"/>
+      <c r="J122" s="397"/>
+      <c r="K122" s="398"/>
+      <c r="L122" s="228">
+        <f>SUM(L114:L121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123" s="399" t="s">
+        <v>412</v>
+      </c>
+      <c r="C123" s="400"/>
+      <c r="D123" s="400"/>
+      <c r="E123" s="400"/>
+      <c r="F123" s="400"/>
+      <c r="G123" s="400"/>
+      <c r="H123" s="400"/>
+      <c r="I123" s="400"/>
+      <c r="J123" s="400"/>
+      <c r="K123" s="401"/>
+      <c r="L123" s="229">
+        <f>L122+L110</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124" s="414" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="415"/>
+      <c r="D124" s="415"/>
+      <c r="E124" s="415"/>
+      <c r="F124" s="415"/>
+      <c r="G124" s="415"/>
+      <c r="H124" s="415"/>
+      <c r="I124" s="415"/>
+      <c r="J124" s="415"/>
+      <c r="K124" s="415"/>
+      <c r="L124" s="416"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125" s="380" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" s="381"/>
+      <c r="D125" s="381"/>
+      <c r="E125" s="381"/>
+      <c r="F125" s="381"/>
+      <c r="G125" s="381"/>
+      <c r="H125" s="381"/>
+      <c r="I125" s="381"/>
+      <c r="J125" s="380" t="s">
+        <v>369</v>
+      </c>
+      <c r="K125" s="381"/>
+      <c r="L125" s="382"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126" s="442" t="s">
+        <v>367</v>
+      </c>
+      <c r="C126" s="448" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="449"/>
+      <c r="E126" s="452" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="453"/>
+      <c r="G126" s="453"/>
+      <c r="H126" s="454"/>
+      <c r="I126" s="432" t="s">
+        <v>364</v>
+      </c>
+      <c r="J126" s="444" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="446" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" s="432" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="356"/>
-      <c r="D34" s="356"/>
-      <c r="E34" s="356"/>
-      <c r="F34" s="356"/>
-      <c r="G34" s="356"/>
-      <c r="H34" s="356"/>
-      <c r="I34" s="356"/>
-      <c r="J34" s="356"/>
-      <c r="K34" s="356"/>
-      <c r="L34" s="357"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="370" t="s">
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127" s="443"/>
+      <c r="C127" s="450"/>
+      <c r="D127" s="451"/>
+      <c r="E127" s="455"/>
+      <c r="F127" s="456"/>
+      <c r="G127" s="456"/>
+      <c r="H127" s="457"/>
+      <c r="I127" s="433"/>
+      <c r="J127" s="445"/>
+      <c r="K127" s="447"/>
+      <c r="L127" s="433"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128" s="230"/>
+      <c r="C128" s="390"/>
+      <c r="D128" s="392"/>
+      <c r="E128" s="390"/>
+      <c r="F128" s="391"/>
+      <c r="G128" s="391"/>
+      <c r="H128" s="392"/>
+      <c r="I128" s="232"/>
+      <c r="J128" s="303"/>
+      <c r="K128" s="317"/>
+      <c r="L128" s="222"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B129" s="230"/>
+      <c r="C129" s="390"/>
+      <c r="D129" s="392"/>
+      <c r="E129" s="390"/>
+      <c r="F129" s="391"/>
+      <c r="G129" s="391"/>
+      <c r="H129" s="392"/>
+      <c r="I129" s="235"/>
+      <c r="J129" s="236"/>
+      <c r="K129" s="237"/>
+      <c r="L129" s="238"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B130" s="230"/>
+      <c r="C130" s="390"/>
+      <c r="D130" s="392"/>
+      <c r="E130" s="390"/>
+      <c r="F130" s="391"/>
+      <c r="G130" s="391"/>
+      <c r="H130" s="392"/>
+      <c r="I130" s="240"/>
+      <c r="J130" s="231"/>
+      <c r="K130" s="239"/>
+      <c r="L130" s="221"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B131" s="434" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="374" t="s">
-        <v>362</v>
-      </c>
-      <c r="D35" s="362"/>
-      <c r="E35" s="374" t="s">
-        <v>363</v>
-      </c>
-      <c r="F35" s="361"/>
-      <c r="G35" s="361"/>
-      <c r="H35" s="361"/>
-      <c r="I35" s="361"/>
-      <c r="J35" s="361"/>
-      <c r="K35" s="362"/>
-      <c r="L35" s="372" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="371"/>
-      <c r="C36" s="375"/>
-      <c r="D36" s="364"/>
-      <c r="E36" s="375"/>
-      <c r="F36" s="363"/>
-      <c r="G36" s="363"/>
-      <c r="H36" s="363"/>
-      <c r="I36" s="363"/>
-      <c r="J36" s="363"/>
-      <c r="K36" s="364"/>
-      <c r="L36" s="373"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="226"/>
-      <c r="C37" s="367"/>
-      <c r="D37" s="368"/>
-      <c r="E37" s="448"/>
-      <c r="F37" s="447"/>
-      <c r="G37" s="447"/>
-      <c r="H37" s="447"/>
-      <c r="I37" s="447"/>
-      <c r="J37" s="447"/>
-      <c r="K37" s="354"/>
-      <c r="L37" s="227"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="226"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="368"/>
-      <c r="E38" s="448"/>
-      <c r="F38" s="447"/>
-      <c r="G38" s="447"/>
-      <c r="H38" s="447"/>
-      <c r="I38" s="447"/>
-      <c r="J38" s="447"/>
-      <c r="K38" s="354"/>
-      <c r="L38" s="227"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="226"/>
-      <c r="C39" s="367"/>
-      <c r="D39" s="368"/>
-      <c r="E39" s="369"/>
-      <c r="F39" s="359"/>
-      <c r="G39" s="359"/>
-      <c r="H39" s="359"/>
-      <c r="I39" s="359"/>
-      <c r="J39" s="359"/>
-      <c r="K39" s="360"/>
-      <c r="L39" s="227"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="226"/>
-      <c r="C40" s="367"/>
-      <c r="D40" s="368"/>
-      <c r="E40" s="369"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359"/>
-      <c r="J40" s="359"/>
-      <c r="K40" s="360"/>
-      <c r="L40" s="227"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="226"/>
-      <c r="C41" s="367"/>
-      <c r="D41" s="368"/>
-      <c r="E41" s="369"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="359"/>
-      <c r="H41" s="359"/>
-      <c r="I41" s="359"/>
-      <c r="J41" s="359"/>
-      <c r="K41" s="360"/>
-      <c r="L41" s="227"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="226"/>
-      <c r="C42" s="367"/>
-      <c r="D42" s="368"/>
-      <c r="E42" s="369"/>
-      <c r="F42" s="359"/>
-      <c r="G42" s="359"/>
-      <c r="H42" s="359"/>
-      <c r="I42" s="359"/>
-      <c r="J42" s="359"/>
-      <c r="K42" s="360"/>
-      <c r="L42" s="227"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="226"/>
-      <c r="C43" s="367"/>
-      <c r="D43" s="368"/>
-      <c r="E43" s="369"/>
-      <c r="F43" s="359"/>
-      <c r="G43" s="359"/>
-      <c r="H43" s="359"/>
-      <c r="I43" s="359"/>
-      <c r="J43" s="359"/>
-      <c r="K43" s="360"/>
-      <c r="L43" s="227"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="226"/>
-      <c r="C44" s="367"/>
-      <c r="D44" s="368"/>
-      <c r="E44" s="369"/>
-      <c r="F44" s="359"/>
-      <c r="G44" s="359"/>
-      <c r="H44" s="359"/>
-      <c r="I44" s="359"/>
-      <c r="J44" s="359"/>
-      <c r="K44" s="360"/>
-      <c r="L44" s="227"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="411" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="412"/>
-      <c r="D45" s="412"/>
-      <c r="E45" s="412"/>
-      <c r="F45" s="412"/>
-      <c r="G45" s="412"/>
-      <c r="H45" s="412"/>
-      <c r="I45" s="412"/>
-      <c r="J45" s="412"/>
-      <c r="K45" s="413"/>
-      <c r="L45" s="228">
-        <f>SUM(L37:L44)</f>
+      <c r="C131" s="435"/>
+      <c r="D131" s="435"/>
+      <c r="E131" s="435"/>
+      <c r="F131" s="435"/>
+      <c r="G131" s="435"/>
+      <c r="H131" s="436"/>
+      <c r="I131" s="256">
+        <f>SUM(I128:I130)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="455" t="s">
-        <v>418</v>
-      </c>
-      <c r="C46" s="414"/>
-      <c r="D46" s="414"/>
-      <c r="E46" s="414"/>
-      <c r="F46" s="414"/>
-      <c r="G46" s="414"/>
-      <c r="H46" s="414"/>
-      <c r="I46" s="414"/>
-      <c r="J46" s="414"/>
-      <c r="K46" s="415"/>
-      <c r="L46" s="229">
-        <f>L45+L33</f>
+      <c r="J131" s="437" t="s">
+        <v>371</v>
+      </c>
+      <c r="K131" s="438"/>
+      <c r="L131" s="241">
+        <f>SUM(L128:L130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B132" s="434" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="435"/>
+      <c r="D132" s="435"/>
+      <c r="E132" s="435"/>
+      <c r="F132" s="435"/>
+      <c r="G132" s="435"/>
+      <c r="H132" s="435"/>
+      <c r="I132" s="435"/>
+      <c r="J132" s="435"/>
+      <c r="K132" s="436"/>
+      <c r="L132" s="241">
+        <f>L131+I131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B133" s="414" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="415"/>
+      <c r="D133" s="415"/>
+      <c r="E133" s="415"/>
+      <c r="F133" s="415"/>
+      <c r="G133" s="415"/>
+      <c r="H133" s="415"/>
+      <c r="I133" s="415"/>
+      <c r="J133" s="415"/>
+      <c r="K133" s="415"/>
+      <c r="L133" s="416"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B134" s="380" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" s="381"/>
+      <c r="D134" s="382"/>
+      <c r="E134" s="381" t="s">
+        <v>399</v>
+      </c>
+      <c r="F134" s="381"/>
+      <c r="G134" s="371" t="s">
+        <v>394</v>
+      </c>
+      <c r="H134" s="372"/>
+      <c r="I134" s="372"/>
+      <c r="J134" s="372"/>
+      <c r="K134" s="372"/>
+      <c r="L134" s="373"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B135" s="378" t="s">
+        <v>398</v>
+      </c>
+      <c r="C135" s="379"/>
+      <c r="D135" s="269" t="s">
+        <v>395</v>
+      </c>
+      <c r="E135" s="312" t="s">
+        <v>396</v>
+      </c>
+      <c r="F135" s="268" t="s">
+        <v>397</v>
+      </c>
+      <c r="G135" s="311"/>
+      <c r="H135" s="312"/>
+      <c r="I135" s="312"/>
+      <c r="J135" s="312"/>
+      <c r="K135" s="312"/>
+      <c r="L135" s="313"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" s="491">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C136" s="491">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D136" s="374"/>
+      <c r="E136" s="274"/>
+      <c r="F136" s="376"/>
+      <c r="G136" s="371"/>
+      <c r="H136" s="372"/>
+      <c r="I136" s="372"/>
+      <c r="J136" s="372"/>
+      <c r="K136" s="372"/>
+      <c r="L136" s="373"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B137" s="491"/>
+      <c r="C137" s="491"/>
+      <c r="D137" s="375"/>
+      <c r="E137" s="274"/>
+      <c r="F137" s="377"/>
+      <c r="G137" s="371"/>
+      <c r="H137" s="372"/>
+      <c r="I137" s="372"/>
+      <c r="J137" s="372"/>
+      <c r="K137" s="372"/>
+      <c r="L137" s="373"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B138" s="393" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="394"/>
+      <c r="D138" s="394"/>
+      <c r="E138" s="394"/>
+      <c r="F138" s="394"/>
+      <c r="G138" s="394"/>
+      <c r="H138" s="394"/>
+      <c r="I138" s="394"/>
+      <c r="J138" s="394"/>
+      <c r="K138" s="394"/>
+      <c r="L138" s="395"/>
+    </row>
+    <row r="139" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B139" s="267" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="439" t="s">
+        <v>374</v>
+      </c>
+      <c r="D139" s="440"/>
+      <c r="E139" s="441"/>
+      <c r="F139" s="439" t="s">
+        <v>375</v>
+      </c>
+      <c r="G139" s="440"/>
+      <c r="H139" s="441"/>
+      <c r="I139" s="439" t="s">
+        <v>376</v>
+      </c>
+      <c r="J139" s="441"/>
+      <c r="K139" s="242" t="s">
+        <v>377</v>
+      </c>
+      <c r="L139" s="243" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B140" s="244" t="s">
+        <v>379</v>
+      </c>
+      <c r="C140" s="387"/>
+      <c r="D140" s="388"/>
+      <c r="E140" s="389"/>
+      <c r="F140" s="489"/>
+      <c r="G140" s="490"/>
+      <c r="H140" s="306"/>
+      <c r="I140" s="489"/>
+      <c r="J140" s="490"/>
+      <c r="K140" s="270"/>
+      <c r="L140" s="246"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B141" s="244" t="s">
+        <v>380</v>
+      </c>
+      <c r="C141" s="387"/>
+      <c r="D141" s="388"/>
+      <c r="E141" s="389"/>
+      <c r="F141" s="489" t="s">
+        <v>413</v>
+      </c>
+      <c r="G141" s="490"/>
+      <c r="H141" s="263"/>
+      <c r="I141" s="489"/>
+      <c r="J141" s="490"/>
+      <c r="K141" s="270"/>
+      <c r="L141" s="246"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B142" s="244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C142" s="387"/>
+      <c r="D142" s="388"/>
+      <c r="E142" s="389"/>
+      <c r="F142" s="489" t="s">
+        <v>413</v>
+      </c>
+      <c r="G142" s="490"/>
+      <c r="H142" s="306"/>
+      <c r="I142" s="489"/>
+      <c r="J142" s="490"/>
+      <c r="K142" s="270"/>
+      <c r="L142" s="246"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B143" s="421" t="s">
+        <v>382</v>
+      </c>
+      <c r="C143" s="422"/>
+      <c r="D143" s="422"/>
+      <c r="E143" s="422"/>
+      <c r="F143" s="422"/>
+      <c r="G143" s="422"/>
+      <c r="H143" s="422"/>
+      <c r="I143" s="422"/>
+      <c r="J143" s="423"/>
+      <c r="K143" s="430" t="s">
+        <v>383</v>
+      </c>
+      <c r="L143" s="431"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B144" s="424"/>
+      <c r="C144" s="425"/>
+      <c r="D144" s="425"/>
+      <c r="E144" s="425"/>
+      <c r="F144" s="425"/>
+      <c r="G144" s="425"/>
+      <c r="H144" s="425"/>
+      <c r="I144" s="425"/>
+      <c r="J144" s="426"/>
+      <c r="K144" s="247" t="s">
+        <v>384</v>
+      </c>
+      <c r="L144" s="246"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B145" s="424"/>
+      <c r="C145" s="425"/>
+      <c r="D145" s="425"/>
+      <c r="E145" s="425"/>
+      <c r="F145" s="425"/>
+      <c r="G145" s="425"/>
+      <c r="H145" s="425"/>
+      <c r="I145" s="425"/>
+      <c r="J145" s="426"/>
+      <c r="K145" s="247" t="s">
+        <v>385</v>
+      </c>
+      <c r="L145" s="246"/>
+    </row>
+    <row r="146" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="427"/>
+      <c r="C146" s="428"/>
+      <c r="D146" s="428"/>
+      <c r="E146" s="428"/>
+      <c r="F146" s="428"/>
+      <c r="G146" s="428"/>
+      <c r="H146" s="428"/>
+      <c r="I146" s="428"/>
+      <c r="J146" s="429"/>
+      <c r="K146" s="248" t="s">
+        <v>386</v>
+      </c>
+      <c r="L146" s="249"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B147" s="250"/>
+      <c r="C147" s="250"/>
+      <c r="D147" s="250"/>
+      <c r="E147" s="250"/>
+      <c r="F147" s="250"/>
+      <c r="G147" s="250"/>
+      <c r="H147" s="250"/>
+      <c r="I147" s="250"/>
+      <c r="J147" s="250"/>
+      <c r="K147" s="251"/>
+      <c r="L147" s="252"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B149" s="414" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" s="415"/>
+      <c r="D149" s="415"/>
+      <c r="E149" s="415"/>
+      <c r="F149" s="415"/>
+      <c r="G149" s="415"/>
+      <c r="H149" s="415"/>
+      <c r="I149" s="415"/>
+      <c r="J149" s="415"/>
+      <c r="K149" s="415"/>
+      <c r="L149" s="416"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B150" s="318">
+        <v>1</v>
+      </c>
+      <c r="C150" s="386" t="s">
+        <v>408</v>
+      </c>
+      <c r="D150" s="384"/>
+      <c r="E150" s="384"/>
+      <c r="F150" s="384"/>
+      <c r="G150" s="384"/>
+      <c r="H150" s="384"/>
+      <c r="I150" s="384"/>
+      <c r="J150" s="384"/>
+      <c r="K150" s="384"/>
+      <c r="L150" s="385"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B151" s="318">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="340" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="341"/>
-      <c r="D47" s="341"/>
-      <c r="E47" s="341"/>
-      <c r="F47" s="341"/>
-      <c r="G47" s="341"/>
-      <c r="H47" s="341"/>
-      <c r="I47" s="341"/>
-      <c r="J47" s="341"/>
-      <c r="K47" s="341"/>
-      <c r="L47" s="342"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="355" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="356"/>
-      <c r="D48" s="356"/>
-      <c r="E48" s="356"/>
-      <c r="F48" s="356"/>
-      <c r="G48" s="356"/>
-      <c r="H48" s="356"/>
-      <c r="I48" s="356"/>
-      <c r="J48" s="355" t="s">
-        <v>373</v>
-      </c>
-      <c r="K48" s="356"/>
-      <c r="L48" s="357"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="370" t="s">
-        <v>371</v>
-      </c>
-      <c r="C49" s="400" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="401"/>
-      <c r="E49" s="374" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="361"/>
-      <c r="G49" s="361"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="386" t="s">
-        <v>364</v>
-      </c>
-      <c r="J49" s="396" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="398" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="386" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="371"/>
-      <c r="C50" s="402"/>
-      <c r="D50" s="403"/>
-      <c r="E50" s="375"/>
-      <c r="F50" s="363"/>
-      <c r="G50" s="363"/>
-      <c r="H50" s="364"/>
-      <c r="I50" s="387"/>
-      <c r="J50" s="397"/>
-      <c r="K50" s="399"/>
-      <c r="L50" s="387"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="230"/>
-      <c r="C51" s="404"/>
-      <c r="D51" s="354"/>
-      <c r="E51" s="404"/>
-      <c r="F51" s="353"/>
-      <c r="G51" s="353"/>
-      <c r="H51" s="354"/>
-      <c r="I51" s="232"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="234"/>
-      <c r="L51" s="222"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="230"/>
-      <c r="C52" s="404"/>
-      <c r="D52" s="354"/>
-      <c r="E52" s="404"/>
-      <c r="F52" s="353"/>
-      <c r="G52" s="353"/>
-      <c r="H52" s="354"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="238"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="230"/>
-      <c r="C53" s="404"/>
-      <c r="D53" s="354"/>
-      <c r="E53" s="404"/>
-      <c r="F53" s="353"/>
-      <c r="G53" s="353"/>
-      <c r="H53" s="354"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="231"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="221"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="388" t="s">
-        <v>375</v>
-      </c>
-      <c r="C54" s="389"/>
-      <c r="D54" s="389"/>
-      <c r="E54" s="389"/>
-      <c r="F54" s="389"/>
-      <c r="G54" s="389"/>
-      <c r="H54" s="390"/>
-      <c r="I54" s="257">
-        <f>SUM(I51:I53)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="391" t="s">
-        <v>375</v>
-      </c>
-      <c r="K54" s="392"/>
-      <c r="L54" s="241">
-        <f>SUM(L51:L53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="388" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="389"/>
-      <c r="D55" s="389"/>
-      <c r="E55" s="389"/>
-      <c r="F55" s="389"/>
-      <c r="G55" s="389"/>
-      <c r="H55" s="389"/>
-      <c r="I55" s="389"/>
-      <c r="J55" s="389"/>
-      <c r="K55" s="390"/>
-      <c r="L55" s="241">
-        <f>L54+I54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="340" t="s">
-        <v>397</v>
-      </c>
-      <c r="C56" s="341"/>
-      <c r="D56" s="341"/>
-      <c r="E56" s="341"/>
-      <c r="F56" s="341"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="341"/>
-      <c r="I56" s="341"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="342"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="355" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="356"/>
-      <c r="D57" s="357"/>
-      <c r="E57" s="356" t="s">
-        <v>403</v>
-      </c>
-      <c r="F57" s="356"/>
-      <c r="G57" s="431" t="s">
-        <v>398</v>
-      </c>
-      <c r="H57" s="432"/>
-      <c r="I57" s="432"/>
-      <c r="J57" s="432"/>
-      <c r="K57" s="432"/>
-      <c r="L57" s="433"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="438" t="s">
-        <v>402</v>
-      </c>
-      <c r="C58" s="439"/>
-      <c r="D58" s="273" t="s">
-        <v>399</v>
-      </c>
-      <c r="E58" s="261" t="s">
-        <v>400</v>
-      </c>
-      <c r="F58" s="272" t="s">
-        <v>401</v>
-      </c>
-      <c r="G58" s="263"/>
-      <c r="H58" s="261"/>
-      <c r="I58" s="261"/>
-      <c r="J58" s="261"/>
-      <c r="K58" s="261"/>
-      <c r="L58" s="262"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="270"/>
-      <c r="C59" s="264"/>
-      <c r="D59" s="434"/>
-      <c r="E59" s="278" t="s">
-        <v>405</v>
-      </c>
-      <c r="F59" s="436"/>
-      <c r="G59" s="431"/>
-      <c r="H59" s="432"/>
-      <c r="I59" s="432"/>
-      <c r="J59" s="432"/>
-      <c r="K59" s="432"/>
-      <c r="L59" s="433"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="271"/>
-      <c r="C60" s="264"/>
-      <c r="D60" s="435"/>
-      <c r="E60" s="278"/>
-      <c r="F60" s="437"/>
-      <c r="G60" s="431"/>
-      <c r="H60" s="432"/>
-      <c r="I60" s="432"/>
-      <c r="J60" s="432"/>
-      <c r="K60" s="432"/>
-      <c r="L60" s="433"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="408" t="s">
-        <v>376</v>
-      </c>
-      <c r="C61" s="409"/>
-      <c r="D61" s="409"/>
-      <c r="E61" s="409"/>
-      <c r="F61" s="409"/>
-      <c r="G61" s="409"/>
-      <c r="H61" s="409"/>
-      <c r="I61" s="409"/>
-      <c r="J61" s="409"/>
-      <c r="K61" s="409"/>
-      <c r="L61" s="410"/>
-    </row>
-    <row r="62" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="269" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" s="393" t="s">
-        <v>378</v>
-      </c>
-      <c r="D62" s="394"/>
-      <c r="E62" s="395"/>
-      <c r="F62" s="393" t="s">
-        <v>379</v>
-      </c>
-      <c r="G62" s="394"/>
-      <c r="H62" s="395"/>
-      <c r="I62" s="393" t="s">
-        <v>380</v>
-      </c>
-      <c r="J62" s="395"/>
-      <c r="K62" s="242" t="s">
-        <v>381</v>
-      </c>
-      <c r="L62" s="243" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="244" t="s">
-        <v>383</v>
-      </c>
-      <c r="C63" s="405" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="406"/>
-      <c r="E63" s="407"/>
-      <c r="F63" s="245"/>
-      <c r="G63" s="265"/>
-      <c r="H63" s="246"/>
-      <c r="I63" s="245"/>
-      <c r="J63" s="246"/>
-      <c r="K63" s="274" t="s">
-        <v>404</v>
-      </c>
-      <c r="L63" s="247"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="244" t="s">
-        <v>384</v>
-      </c>
-      <c r="C64" s="405" t="s">
-        <v>419</v>
-      </c>
-      <c r="D64" s="406"/>
-      <c r="E64" s="407"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="265"/>
-      <c r="H64" s="246"/>
-      <c r="I64" s="245"/>
-      <c r="J64" s="246"/>
-      <c r="K64" s="274" t="s">
-        <v>404</v>
-      </c>
-      <c r="L64" s="247"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="244" t="s">
-        <v>385</v>
-      </c>
-      <c r="C65" s="405" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="406"/>
-      <c r="E65" s="407"/>
-      <c r="F65" s="245"/>
-      <c r="G65" s="265"/>
-      <c r="H65" s="246"/>
-      <c r="I65" s="245"/>
-      <c r="J65" s="246"/>
-      <c r="K65" s="274"/>
-      <c r="L65" s="247"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="376" t="s">
-        <v>386</v>
-      </c>
-      <c r="C66" s="377"/>
-      <c r="D66" s="377"/>
-      <c r="E66" s="377"/>
-      <c r="F66" s="377"/>
-      <c r="G66" s="377"/>
-      <c r="H66" s="377"/>
-      <c r="I66" s="377"/>
-      <c r="J66" s="378"/>
-      <c r="K66" s="385" t="s">
-        <v>387</v>
-      </c>
-      <c r="L66" s="346"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="379"/>
-      <c r="C67" s="380"/>
-      <c r="D67" s="380"/>
-      <c r="E67" s="380"/>
-      <c r="F67" s="380"/>
-      <c r="G67" s="380"/>
-      <c r="H67" s="380"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="381"/>
-      <c r="K67" s="248" t="s">
+      <c r="C151" s="386" t="s">
+        <v>422</v>
+      </c>
+      <c r="D151" s="384"/>
+      <c r="E151" s="384"/>
+      <c r="F151" s="384"/>
+      <c r="G151" s="384"/>
+      <c r="H151" s="384"/>
+      <c r="I151" s="384"/>
+      <c r="J151" s="384"/>
+      <c r="K151" s="384"/>
+      <c r="L151" s="385"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B152" s="414" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="415"/>
+      <c r="D152" s="415"/>
+      <c r="E152" s="415"/>
+      <c r="F152" s="415"/>
+      <c r="G152" s="415"/>
+      <c r="H152" s="415"/>
+      <c r="I152" s="415"/>
+      <c r="J152" s="415"/>
+      <c r="K152" s="415"/>
+      <c r="L152" s="416"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B153" s="275"/>
+      <c r="C153" s="383"/>
+      <c r="D153" s="384"/>
+      <c r="E153" s="384"/>
+      <c r="F153" s="384"/>
+      <c r="G153" s="384"/>
+      <c r="H153" s="384"/>
+      <c r="I153" s="384"/>
+      <c r="J153" s="384"/>
+      <c r="K153" s="384"/>
+      <c r="L153" s="385"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B154" s="275"/>
+      <c r="C154" s="383"/>
+      <c r="D154" s="384"/>
+      <c r="E154" s="384"/>
+      <c r="F154" s="384"/>
+      <c r="G154" s="384"/>
+      <c r="H154" s="384"/>
+      <c r="I154" s="384"/>
+      <c r="J154" s="384"/>
+      <c r="K154" s="384"/>
+      <c r="L154" s="385"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B155" s="275"/>
+      <c r="C155" s="383"/>
+      <c r="D155" s="384"/>
+      <c r="E155" s="384"/>
+      <c r="F155" s="384"/>
+      <c r="G155" s="384"/>
+      <c r="H155" s="384"/>
+      <c r="I155" s="384"/>
+      <c r="J155" s="384"/>
+      <c r="K155" s="384"/>
+      <c r="L155" s="385"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B156" s="414" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" s="415"/>
+      <c r="D156" s="415"/>
+      <c r="E156" s="415"/>
+      <c r="F156" s="415"/>
+      <c r="G156" s="415"/>
+      <c r="H156" s="415"/>
+      <c r="I156" s="415"/>
+      <c r="J156" s="415"/>
+      <c r="K156" s="415"/>
+      <c r="L156" s="416"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B157" s="275"/>
+      <c r="C157" s="386" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" s="384"/>
+      <c r="E157" s="384"/>
+      <c r="F157" s="384"/>
+      <c r="G157" s="384"/>
+      <c r="H157" s="384"/>
+      <c r="I157" s="384"/>
+      <c r="J157" s="384"/>
+      <c r="K157" s="384"/>
+      <c r="L157" s="385"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B158" s="275"/>
+      <c r="C158" s="386" t="s">
+        <v>425</v>
+      </c>
+      <c r="D158" s="384"/>
+      <c r="E158" s="384"/>
+      <c r="F158" s="384"/>
+      <c r="G158" s="384"/>
+      <c r="H158" s="384"/>
+      <c r="I158" s="384"/>
+      <c r="J158" s="384"/>
+      <c r="K158" s="384"/>
+      <c r="L158" s="385"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B159" s="275"/>
+      <c r="C159" s="383"/>
+      <c r="D159" s="384"/>
+      <c r="E159" s="384"/>
+      <c r="F159" s="384"/>
+      <c r="G159" s="384"/>
+      <c r="H159" s="384"/>
+      <c r="I159" s="384"/>
+      <c r="J159" s="384"/>
+      <c r="K159" s="384"/>
+      <c r="L159" s="385"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B160" s="418" t="s">
         <v>388</v>
       </c>
-      <c r="L67" s="247"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="379"/>
-      <c r="C68" s="380"/>
-      <c r="D68" s="380"/>
-      <c r="E68" s="380"/>
-      <c r="F68" s="380"/>
-      <c r="G68" s="380"/>
-      <c r="H68" s="380"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="381"/>
-      <c r="K68" s="248" t="s">
+      <c r="C160" s="419"/>
+      <c r="D160" s="419"/>
+      <c r="E160" s="419"/>
+      <c r="F160" s="419"/>
+      <c r="G160" s="419"/>
+      <c r="H160" s="419"/>
+      <c r="I160" s="419"/>
+      <c r="J160" s="419"/>
+      <c r="K160" s="419"/>
+      <c r="L160" s="420"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B161" s="417"/>
+      <c r="C161" s="384"/>
+      <c r="D161" s="384"/>
+      <c r="E161" s="384"/>
+      <c r="F161" s="384"/>
+      <c r="G161" s="384"/>
+      <c r="H161" s="384"/>
+      <c r="I161" s="384"/>
+      <c r="J161" s="384"/>
+      <c r="K161" s="384"/>
+      <c r="L161" s="385"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B162" s="417"/>
+      <c r="C162" s="384"/>
+      <c r="D162" s="384"/>
+      <c r="E162" s="384"/>
+      <c r="F162" s="384"/>
+      <c r="G162" s="384"/>
+      <c r="H162" s="384"/>
+      <c r="I162" s="384"/>
+      <c r="J162" s="384"/>
+      <c r="K162" s="384"/>
+      <c r="L162" s="385"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B163" s="417"/>
+      <c r="C163" s="384"/>
+      <c r="D163" s="384"/>
+      <c r="E163" s="384"/>
+      <c r="F163" s="384"/>
+      <c r="G163" s="384"/>
+      <c r="H163" s="384"/>
+      <c r="I163" s="384"/>
+      <c r="J163" s="384"/>
+      <c r="K163" s="384"/>
+      <c r="L163" s="385"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B164" s="417"/>
+      <c r="C164" s="384"/>
+      <c r="D164" s="384"/>
+      <c r="E164" s="384"/>
+      <c r="F164" s="384"/>
+      <c r="G164" s="384"/>
+      <c r="H164" s="384"/>
+      <c r="I164" s="384"/>
+      <c r="J164" s="384"/>
+      <c r="K164" s="384"/>
+      <c r="L164" s="385"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B165" s="402"/>
+      <c r="C165" s="403"/>
+      <c r="D165" s="403"/>
+      <c r="E165" s="403"/>
+      <c r="F165" s="403"/>
+      <c r="G165" s="307"/>
+      <c r="H165" s="403"/>
+      <c r="I165" s="403"/>
+      <c r="J165" s="403"/>
+      <c r="K165" s="403"/>
+      <c r="L165" s="411"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B166" s="404"/>
+      <c r="C166" s="405"/>
+      <c r="D166" s="405"/>
+      <c r="E166" s="405"/>
+      <c r="F166" s="405"/>
+      <c r="G166" s="308"/>
+      <c r="H166" s="405"/>
+      <c r="I166" s="405"/>
+      <c r="J166" s="405"/>
+      <c r="K166" s="405"/>
+      <c r="L166" s="412"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B167" s="404"/>
+      <c r="C167" s="405"/>
+      <c r="D167" s="405"/>
+      <c r="E167" s="405"/>
+      <c r="F167" s="405"/>
+      <c r="G167" s="308"/>
+      <c r="H167" s="405"/>
+      <c r="I167" s="405"/>
+      <c r="J167" s="405"/>
+      <c r="K167" s="405"/>
+      <c r="L167" s="412"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B168" s="406"/>
+      <c r="C168" s="407"/>
+      <c r="D168" s="407"/>
+      <c r="E168" s="407"/>
+      <c r="F168" s="407"/>
+      <c r="G168" s="309"/>
+      <c r="H168" s="407"/>
+      <c r="I168" s="407"/>
+      <c r="J168" s="407"/>
+      <c r="K168" s="407"/>
+      <c r="L168" s="413"/>
+    </row>
+    <row r="169" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="408" t="s">
         <v>389</v>
       </c>
-      <c r="L68" s="247"/>
-    </row>
-    <row r="69" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="382"/>
-      <c r="C69" s="383"/>
-      <c r="D69" s="383"/>
-      <c r="E69" s="383"/>
-      <c r="F69" s="383"/>
-      <c r="G69" s="383"/>
-      <c r="H69" s="383"/>
-      <c r="I69" s="383"/>
-      <c r="J69" s="384"/>
-      <c r="K69" s="249" t="s">
+      <c r="C169" s="409"/>
+      <c r="D169" s="409"/>
+      <c r="E169" s="409"/>
+      <c r="F169" s="409"/>
+      <c r="G169" s="310"/>
+      <c r="H169" s="409" t="s">
         <v>390</v>
       </c>
-      <c r="L69" s="250"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="251"/>
-      <c r="C70" s="251"/>
-      <c r="D70" s="251"/>
-      <c r="E70" s="251"/>
-      <c r="F70" s="251"/>
-      <c r="G70" s="251"/>
-      <c r="H70" s="251"/>
-      <c r="I70" s="251"/>
-      <c r="J70" s="251"/>
-      <c r="K70" s="252"/>
-      <c r="L70" s="253"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="340" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="341"/>
-      <c r="D72" s="341"/>
-      <c r="E72" s="341"/>
-      <c r="F72" s="341"/>
-      <c r="G72" s="341"/>
-      <c r="H72" s="341"/>
-      <c r="I72" s="341"/>
-      <c r="J72" s="341"/>
-      <c r="K72" s="341"/>
-      <c r="L72" s="342"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="459">
-        <v>1</v>
-      </c>
-      <c r="C73" s="456" t="s">
-        <v>414</v>
-      </c>
-      <c r="D73" s="351"/>
-      <c r="E73" s="351"/>
-      <c r="F73" s="351"/>
-      <c r="G73" s="351"/>
-      <c r="H73" s="351"/>
-      <c r="I73" s="351"/>
-      <c r="J73" s="351"/>
-      <c r="K73" s="351"/>
-      <c r="L73" s="457"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="459"/>
-      <c r="C74" s="458"/>
-      <c r="D74" s="351"/>
-      <c r="E74" s="351"/>
-      <c r="F74" s="351"/>
-      <c r="G74" s="351"/>
-      <c r="H74" s="351"/>
-      <c r="I74" s="351"/>
-      <c r="J74" s="351"/>
-      <c r="K74" s="351"/>
-      <c r="L74" s="457"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="459"/>
-      <c r="C75" s="458"/>
-      <c r="D75" s="351"/>
-      <c r="E75" s="351"/>
-      <c r="F75" s="351"/>
-      <c r="G75" s="351"/>
-      <c r="H75" s="351"/>
-      <c r="I75" s="351"/>
-      <c r="J75" s="351"/>
-      <c r="K75" s="351"/>
-      <c r="L75" s="457"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="459"/>
-      <c r="C76" s="458"/>
-      <c r="D76" s="351"/>
-      <c r="E76" s="351"/>
-      <c r="F76" s="351"/>
-      <c r="G76" s="351"/>
-      <c r="H76" s="351"/>
-      <c r="I76" s="351"/>
-      <c r="J76" s="351"/>
-      <c r="K76" s="351"/>
-      <c r="L76" s="457"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="459"/>
-      <c r="C77" s="458"/>
-      <c r="D77" s="351"/>
-      <c r="E77" s="351"/>
-      <c r="F77" s="351"/>
-      <c r="G77" s="351"/>
-      <c r="H77" s="351"/>
-      <c r="I77" s="351"/>
-      <c r="J77" s="351"/>
-      <c r="K77" s="351"/>
-      <c r="L77" s="457"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="459"/>
-      <c r="C78" s="458"/>
-      <c r="D78" s="351"/>
-      <c r="E78" s="351"/>
-      <c r="F78" s="351"/>
-      <c r="G78" s="351"/>
-      <c r="H78" s="351"/>
-      <c r="I78" s="351"/>
-      <c r="J78" s="351"/>
-      <c r="K78" s="351"/>
-      <c r="L78" s="457"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="459"/>
-      <c r="C79" s="458"/>
-      <c r="D79" s="351"/>
-      <c r="E79" s="351"/>
-      <c r="F79" s="351"/>
-      <c r="G79" s="351"/>
-      <c r="H79" s="351"/>
-      <c r="I79" s="351"/>
-      <c r="J79" s="351"/>
-      <c r="K79" s="351"/>
-      <c r="L79" s="457"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="459"/>
-      <c r="C80" s="458"/>
-      <c r="D80" s="351"/>
-      <c r="E80" s="351"/>
-      <c r="F80" s="351"/>
-      <c r="G80" s="351"/>
-      <c r="H80" s="351"/>
-      <c r="I80" s="351"/>
-      <c r="J80" s="351"/>
-      <c r="K80" s="351"/>
-      <c r="L80" s="457"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="459"/>
-      <c r="C81" s="458"/>
-      <c r="D81" s="351"/>
-      <c r="E81" s="351"/>
-      <c r="F81" s="351"/>
-      <c r="G81" s="351"/>
-      <c r="H81" s="351"/>
-      <c r="I81" s="351"/>
-      <c r="J81" s="351"/>
-      <c r="K81" s="351"/>
-      <c r="L81" s="457"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="459"/>
-      <c r="C82" s="458"/>
-      <c r="D82" s="351"/>
-      <c r="E82" s="351"/>
-      <c r="F82" s="351"/>
-      <c r="G82" s="351"/>
-      <c r="H82" s="351"/>
-      <c r="I82" s="351"/>
-      <c r="J82" s="351"/>
-      <c r="K82" s="351"/>
-      <c r="L82" s="457"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="459"/>
-      <c r="C83" s="458"/>
-      <c r="D83" s="351"/>
-      <c r="E83" s="351"/>
-      <c r="F83" s="351"/>
-      <c r="G83" s="351"/>
-      <c r="H83" s="351"/>
-      <c r="I83" s="351"/>
-      <c r="J83" s="351"/>
-      <c r="K83" s="351"/>
-      <c r="L83" s="457"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="459"/>
-      <c r="C84" s="458"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="457"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="459"/>
-      <c r="C85" s="458"/>
-      <c r="D85" s="351"/>
-      <c r="E85" s="351"/>
-      <c r="F85" s="351"/>
-      <c r="G85" s="351"/>
-      <c r="H85" s="351"/>
-      <c r="I85" s="351"/>
-      <c r="J85" s="351"/>
-      <c r="K85" s="351"/>
-      <c r="L85" s="457"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="459"/>
-      <c r="C86" s="458"/>
-      <c r="D86" s="351"/>
-      <c r="E86" s="351"/>
-      <c r="F86" s="351"/>
-      <c r="G86" s="351"/>
-      <c r="H86" s="351"/>
-      <c r="I86" s="351"/>
-      <c r="J86" s="351"/>
-      <c r="K86" s="351"/>
-      <c r="L86" s="457"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="459"/>
-      <c r="C87" s="458"/>
-      <c r="D87" s="351"/>
-      <c r="E87" s="351"/>
-      <c r="F87" s="351"/>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="351"/>
-      <c r="K87" s="351"/>
-      <c r="L87" s="457"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B88" s="459"/>
-      <c r="C88" s="458"/>
-      <c r="D88" s="351"/>
-      <c r="E88" s="351"/>
-      <c r="F88" s="351"/>
-      <c r="G88" s="351"/>
-      <c r="H88" s="351"/>
-      <c r="I88" s="351"/>
-      <c r="J88" s="351"/>
-      <c r="K88" s="351"/>
-      <c r="L88" s="457"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="459"/>
-      <c r="C89" s="458"/>
-      <c r="D89" s="351"/>
-      <c r="E89" s="351"/>
-      <c r="F89" s="351"/>
-      <c r="G89" s="351"/>
-      <c r="H89" s="351"/>
-      <c r="I89" s="351"/>
-      <c r="J89" s="351"/>
-      <c r="K89" s="351"/>
-      <c r="L89" s="457"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" s="459"/>
-      <c r="C90" s="458"/>
-      <c r="D90" s="351"/>
-      <c r="E90" s="351"/>
-      <c r="F90" s="351"/>
-      <c r="G90" s="351"/>
-      <c r="H90" s="351"/>
-      <c r="I90" s="351"/>
-      <c r="J90" s="351"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="457"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B91" s="459"/>
-      <c r="C91" s="458"/>
-      <c r="D91" s="351"/>
-      <c r="E91" s="351"/>
-      <c r="F91" s="351"/>
-      <c r="G91" s="351"/>
-      <c r="H91" s="351"/>
-      <c r="I91" s="351"/>
-      <c r="J91" s="351"/>
-      <c r="K91" s="351"/>
-      <c r="L91" s="457"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="459"/>
-      <c r="C92" s="458"/>
-      <c r="D92" s="351"/>
-      <c r="E92" s="351"/>
-      <c r="F92" s="351"/>
-      <c r="G92" s="351"/>
-      <c r="H92" s="351"/>
-      <c r="I92" s="351"/>
-      <c r="J92" s="351"/>
-      <c r="K92" s="351"/>
-      <c r="L92" s="457"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="459"/>
-      <c r="C93" s="458"/>
-      <c r="D93" s="351"/>
-      <c r="E93" s="351"/>
-      <c r="F93" s="351"/>
-      <c r="G93" s="351"/>
-      <c r="H93" s="351"/>
-      <c r="I93" s="351"/>
-      <c r="J93" s="351"/>
-      <c r="K93" s="351"/>
-      <c r="L93" s="457"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="459"/>
-      <c r="C94" s="458"/>
-      <c r="D94" s="351"/>
-      <c r="E94" s="351"/>
-      <c r="F94" s="351"/>
-      <c r="G94" s="351"/>
-      <c r="H94" s="351"/>
-      <c r="I94" s="351"/>
-      <c r="J94" s="351"/>
-      <c r="K94" s="351"/>
-      <c r="L94" s="457"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="459"/>
-      <c r="C95" s="458"/>
-      <c r="D95" s="351"/>
-      <c r="E95" s="351"/>
-      <c r="F95" s="351"/>
-      <c r="G95" s="351"/>
-      <c r="H95" s="351"/>
-      <c r="I95" s="351"/>
-      <c r="J95" s="351"/>
-      <c r="K95" s="351"/>
-      <c r="L95" s="457"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="459"/>
-      <c r="C96" s="458"/>
-      <c r="D96" s="351"/>
-      <c r="E96" s="351"/>
-      <c r="F96" s="351"/>
-      <c r="G96" s="351"/>
-      <c r="H96" s="351"/>
-      <c r="I96" s="351"/>
-      <c r="J96" s="351"/>
-      <c r="K96" s="351"/>
-      <c r="L96" s="457"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="459"/>
-      <c r="C97" s="458"/>
-      <c r="D97" s="351"/>
-      <c r="E97" s="351"/>
-      <c r="F97" s="351"/>
-      <c r="G97" s="351"/>
-      <c r="H97" s="351"/>
-      <c r="I97" s="351"/>
-      <c r="J97" s="351"/>
-      <c r="K97" s="351"/>
-      <c r="L97" s="457"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="459"/>
-      <c r="C98" s="458"/>
-      <c r="D98" s="351"/>
-      <c r="E98" s="351"/>
-      <c r="F98" s="351"/>
-      <c r="G98" s="351"/>
-      <c r="H98" s="351"/>
-      <c r="I98" s="351"/>
-      <c r="J98" s="351"/>
-      <c r="K98" s="351"/>
-      <c r="L98" s="457"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="459"/>
-      <c r="C99" s="458"/>
-      <c r="D99" s="351"/>
-      <c r="E99" s="351"/>
-      <c r="F99" s="351"/>
-      <c r="G99" s="351"/>
-      <c r="H99" s="351"/>
-      <c r="I99" s="351"/>
-      <c r="J99" s="351"/>
-      <c r="K99" s="351"/>
-      <c r="L99" s="457"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B100" s="459"/>
-      <c r="C100" s="458"/>
-      <c r="D100" s="351"/>
-      <c r="E100" s="351"/>
-      <c r="F100" s="351"/>
-      <c r="G100" s="351"/>
-      <c r="H100" s="351"/>
-      <c r="I100" s="351"/>
-      <c r="J100" s="351"/>
-      <c r="K100" s="351"/>
-      <c r="L100" s="457"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B101" s="340" t="s">
-        <v>395</v>
-      </c>
-      <c r="C101" s="341"/>
-      <c r="D101" s="341"/>
-      <c r="E101" s="341"/>
-      <c r="F101" s="341"/>
-      <c r="G101" s="341"/>
-      <c r="H101" s="341"/>
-      <c r="I101" s="341"/>
-      <c r="J101" s="341"/>
-      <c r="K101" s="341"/>
-      <c r="L101" s="342"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B102" s="279"/>
-      <c r="C102" s="458"/>
-      <c r="D102" s="351"/>
-      <c r="E102" s="351"/>
-      <c r="F102" s="351"/>
-      <c r="G102" s="351"/>
-      <c r="H102" s="351"/>
-      <c r="I102" s="351"/>
-      <c r="J102" s="351"/>
-      <c r="K102" s="351"/>
-      <c r="L102" s="457"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="279"/>
-      <c r="C103" s="458"/>
-      <c r="D103" s="351"/>
-      <c r="E103" s="351"/>
-      <c r="F103" s="351"/>
-      <c r="G103" s="351"/>
-      <c r="H103" s="351"/>
-      <c r="I103" s="351"/>
-      <c r="J103" s="351"/>
-      <c r="K103" s="351"/>
-      <c r="L103" s="457"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="279"/>
-      <c r="C104" s="458"/>
-      <c r="D104" s="351"/>
-      <c r="E104" s="351"/>
-      <c r="F104" s="351"/>
-      <c r="G104" s="351"/>
-      <c r="H104" s="351"/>
-      <c r="I104" s="351"/>
-      <c r="J104" s="351"/>
-      <c r="K104" s="351"/>
-      <c r="L104" s="457"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="340" t="s">
-        <v>396</v>
-      </c>
-      <c r="C105" s="341"/>
-      <c r="D105" s="341"/>
-      <c r="E105" s="341"/>
-      <c r="F105" s="341"/>
-      <c r="G105" s="341"/>
-      <c r="H105" s="341"/>
-      <c r="I105" s="341"/>
-      <c r="J105" s="341"/>
-      <c r="K105" s="341"/>
-      <c r="L105" s="342"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="279"/>
-      <c r="C106" s="458"/>
-      <c r="D106" s="351"/>
-      <c r="E106" s="351"/>
-      <c r="F106" s="351"/>
-      <c r="G106" s="351"/>
-      <c r="H106" s="351"/>
-      <c r="I106" s="351"/>
-      <c r="J106" s="351"/>
-      <c r="K106" s="351"/>
-      <c r="L106" s="457"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="279"/>
-      <c r="C107" s="458"/>
-      <c r="D107" s="351"/>
-      <c r="E107" s="351"/>
-      <c r="F107" s="351"/>
-      <c r="G107" s="351"/>
-      <c r="H107" s="351"/>
-      <c r="I107" s="351"/>
-      <c r="J107" s="351"/>
-      <c r="K107" s="351"/>
-      <c r="L107" s="457"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="279"/>
-      <c r="C108" s="458"/>
-      <c r="D108" s="351"/>
-      <c r="E108" s="351"/>
-      <c r="F108" s="351"/>
-      <c r="G108" s="351"/>
-      <c r="H108" s="351"/>
-      <c r="I108" s="351"/>
-      <c r="J108" s="351"/>
-      <c r="K108" s="351"/>
-      <c r="L108" s="457"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="428" t="s">
-        <v>392</v>
-      </c>
-      <c r="C109" s="429"/>
-      <c r="D109" s="429"/>
-      <c r="E109" s="429"/>
-      <c r="F109" s="429"/>
-      <c r="G109" s="429"/>
-      <c r="H109" s="429"/>
-      <c r="I109" s="429"/>
-      <c r="J109" s="429"/>
-      <c r="K109" s="429"/>
-      <c r="L109" s="430"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="350"/>
-      <c r="C110" s="351"/>
-      <c r="D110" s="351"/>
-      <c r="E110" s="351"/>
-      <c r="F110" s="351"/>
-      <c r="G110" s="351"/>
-      <c r="H110" s="351"/>
-      <c r="I110" s="351"/>
-      <c r="J110" s="351"/>
-      <c r="K110" s="351"/>
-      <c r="L110" s="457"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="350"/>
-      <c r="C111" s="351"/>
-      <c r="D111" s="351"/>
-      <c r="E111" s="351"/>
-      <c r="F111" s="351"/>
-      <c r="G111" s="351"/>
-      <c r="H111" s="351"/>
-      <c r="I111" s="351"/>
-      <c r="J111" s="351"/>
-      <c r="K111" s="351"/>
-      <c r="L111" s="457"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="350"/>
-      <c r="C112" s="351"/>
-      <c r="D112" s="351"/>
-      <c r="E112" s="351"/>
-      <c r="F112" s="351"/>
-      <c r="G112" s="351"/>
-      <c r="H112" s="351"/>
-      <c r="I112" s="351"/>
-      <c r="J112" s="351"/>
-      <c r="K112" s="351"/>
-      <c r="L112" s="457"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" s="350"/>
-      <c r="C113" s="351"/>
-      <c r="D113" s="351"/>
-      <c r="E113" s="351"/>
-      <c r="F113" s="351"/>
-      <c r="G113" s="351"/>
-      <c r="H113" s="351"/>
-      <c r="I113" s="351"/>
-      <c r="J113" s="351"/>
-      <c r="K113" s="351"/>
-      <c r="L113" s="457"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" s="416"/>
-      <c r="C114" s="417"/>
-      <c r="D114" s="417"/>
-      <c r="E114" s="417"/>
-      <c r="F114" s="417"/>
-      <c r="G114" s="255"/>
-      <c r="H114" s="417"/>
-      <c r="I114" s="417"/>
-      <c r="J114" s="417"/>
-      <c r="K114" s="417"/>
-      <c r="L114" s="425"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" s="418"/>
-      <c r="C115" s="419"/>
-      <c r="D115" s="419"/>
-      <c r="E115" s="419"/>
-      <c r="F115" s="419"/>
-      <c r="G115" s="256"/>
-      <c r="H115" s="419"/>
-      <c r="I115" s="419"/>
-      <c r="J115" s="419"/>
-      <c r="K115" s="419"/>
-      <c r="L115" s="426"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" s="418"/>
-      <c r="C116" s="419"/>
-      <c r="D116" s="419"/>
-      <c r="E116" s="419"/>
-      <c r="F116" s="419"/>
-      <c r="G116" s="256"/>
-      <c r="H116" s="419"/>
-      <c r="I116" s="419"/>
-      <c r="J116" s="419"/>
-      <c r="K116" s="419"/>
-      <c r="L116" s="426"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" s="420"/>
-      <c r="C117" s="421"/>
-      <c r="D117" s="421"/>
-      <c r="E117" s="421"/>
-      <c r="F117" s="421"/>
-      <c r="G117" s="267"/>
-      <c r="H117" s="421"/>
-      <c r="I117" s="421"/>
-      <c r="J117" s="421"/>
-      <c r="K117" s="421"/>
-      <c r="L117" s="427"/>
-    </row>
-    <row r="118" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="422" t="s">
-        <v>393</v>
-      </c>
-      <c r="C118" s="423"/>
-      <c r="D118" s="423"/>
-      <c r="E118" s="423"/>
-      <c r="F118" s="423"/>
-      <c r="G118" s="268"/>
-      <c r="H118" s="423" t="s">
-        <v>394</v>
-      </c>
-      <c r="I118" s="423"/>
-      <c r="J118" s="423"/>
-      <c r="K118" s="423"/>
-      <c r="L118" s="424"/>
+      <c r="I169" s="409"/>
+      <c r="J169" s="409"/>
+      <c r="K169" s="409"/>
+      <c r="L169" s="410"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C106:L106"/>
-    <mergeCell ref="C86:L86"/>
-    <mergeCell ref="C87:L87"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C89:L89"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C76:L76"/>
-    <mergeCell ref="C77:L77"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C94:L94"/>
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="C96:L96"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="C107:L107"/>
-    <mergeCell ref="C108:L108"/>
-    <mergeCell ref="B114:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H114:L117"/>
-    <mergeCell ref="C98:L98"/>
-    <mergeCell ref="C99:L99"/>
-    <mergeCell ref="C100:L100"/>
-    <mergeCell ref="C102:L102"/>
-    <mergeCell ref="C103:L103"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="B105:L105"/>
+  <mergeCells count="228">
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="H169:L169"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C158:L158"/>
+    <mergeCell ref="C159:L159"/>
+    <mergeCell ref="B160:L160"/>
+    <mergeCell ref="B161:L161"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B163:L163"/>
+    <mergeCell ref="B164:L164"/>
+    <mergeCell ref="B165:F168"/>
+    <mergeCell ref="H165:L168"/>
+    <mergeCell ref="B149:L149"/>
+    <mergeCell ref="C150:L150"/>
+    <mergeCell ref="C151:L151"/>
+    <mergeCell ref="B152:L152"/>
+    <mergeCell ref="C153:L153"/>
+    <mergeCell ref="C154:L154"/>
+    <mergeCell ref="C155:L155"/>
+    <mergeCell ref="B156:L156"/>
+    <mergeCell ref="C157:L157"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="B143:J146"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="B133:L133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:H128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:K119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:K120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:K121"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:K123"/>
+    <mergeCell ref="B124:L124"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:K114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:K115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:K118"/>
+    <mergeCell ref="E108:K108"/>
+    <mergeCell ref="E109:K109"/>
+    <mergeCell ref="B110:K110"/>
     <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B112:L112"/>
-    <mergeCell ref="B113:L113"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="B109:L109"/>
-    <mergeCell ref="B110:L110"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="C97:L97"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="C93:L93"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="C84:L84"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="C78:L78"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="B66:J69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E35:K36"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E21:K22"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:K113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="B104:L104"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:K107"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:L96"/>
+    <mergeCell ref="D97:L97"/>
+    <mergeCell ref="B98:L98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="F99:L99"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="D101:L101"/>
+    <mergeCell ref="D102:L102"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:L95"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B12:D12"/>
@@ -24589,13 +25770,100 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E21:K22"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="B57:J60"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="C72:L72"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="B79:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="H79:L82"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:L75"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D91" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -24640,14 +25908,14 @@
       <c r="A1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="328" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -24674,10 +25942,10 @@
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="165"/>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="331" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="309"/>
+      <c r="F4" s="332"/>
       <c r="G4" s="176">
         <f>G7+G14+G20+G25+G38+G40+G42+G46+G50+G54+G56+G58+G60+G62+G65+G72+G74</f>
         <v>2332276.7999999998</v>
@@ -24746,7 +26014,7 @@
       <c r="F8" s="180">
         <v>1000</v>
       </c>
-      <c r="G8" s="467">
+      <c r="G8" s="319">
         <f t="shared" ref="G8:G13" si="0">D8*F8</f>
         <v>1000</v>
       </c>
@@ -24768,7 +26036,7 @@
       <c r="F9" s="180">
         <v>4000</v>
       </c>
-      <c r="G9" s="467">
+      <c r="G9" s="319">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -24790,7 +26058,7 @@
       <c r="F10" s="180">
         <v>30000</v>
       </c>
-      <c r="G10" s="467">
+      <c r="G10" s="319">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -24812,7 +26080,7 @@
       <c r="F11" s="180">
         <v>30000</v>
       </c>
-      <c r="G11" s="467">
+      <c r="G11" s="319">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -24834,7 +26102,7 @@
       <c r="F12" s="180">
         <v>40000</v>
       </c>
-      <c r="G12" s="467">
+      <c r="G12" s="319">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -24856,7 +26124,7 @@
       <c r="F13" s="180">
         <v>40</v>
       </c>
-      <c r="G13" s="467">
+      <c r="G13" s="319">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -24896,7 +26164,7 @@
       <c r="F15" s="180">
         <v>15.59</v>
       </c>
-      <c r="G15" s="467">
+      <c r="G15" s="319">
         <f>D15*F15</f>
         <v>1948.75</v>
       </c>
@@ -24918,7 +26186,7 @@
       <c r="F16" s="180">
         <v>79.989999999999995</v>
       </c>
-      <c r="G16" s="467">
+      <c r="G16" s="319">
         <f>D16*F16</f>
         <v>3599.5499999999997</v>
       </c>
@@ -24940,7 +26208,7 @@
       <c r="F17" s="180">
         <v>318</v>
       </c>
-      <c r="G17" s="467">
+      <c r="G17" s="319">
         <f>D17*F17</f>
         <v>1431</v>
       </c>
@@ -24962,7 +26230,7 @@
       <c r="F18" s="180">
         <v>1900</v>
       </c>
-      <c r="G18" s="467">
+      <c r="G18" s="319">
         <f>D18*F18</f>
         <v>1900</v>
       </c>
@@ -24984,7 +26252,7 @@
       <c r="F19" s="180">
         <v>2.41</v>
       </c>
-      <c r="G19" s="467">
+      <c r="G19" s="319">
         <f>D19*F19</f>
         <v>723</v>
       </c>
@@ -25024,7 +26292,7 @@
       <c r="F21" s="180">
         <v>40</v>
       </c>
-      <c r="G21" s="467">
+      <c r="G21" s="319">
         <f>D21*F21</f>
         <v>1760</v>
       </c>
@@ -25048,7 +26316,7 @@
       <c r="F22" s="180">
         <v>40</v>
       </c>
-      <c r="G22" s="467">
+      <c r="G22" s="319">
         <f>D22*F22</f>
         <v>176</v>
       </c>
@@ -25070,7 +26338,7 @@
       <c r="F23" s="180">
         <v>1000</v>
       </c>
-      <c r="G23" s="467">
+      <c r="G23" s="319">
         <f>D23*F23</f>
         <v>1000</v>
       </c>
@@ -25092,7 +26360,7 @@
       <c r="F24" s="180">
         <v>10000</v>
       </c>
-      <c r="G24" s="467">
+      <c r="G24" s="319">
         <f>D24*F24</f>
         <v>10000</v>
       </c>
@@ -25132,7 +26400,7 @@
       <c r="F26" s="180">
         <v>7000</v>
       </c>
-      <c r="G26" s="467">
+      <c r="G26" s="319">
         <f>D26*F26</f>
         <v>84000</v>
       </c>
@@ -25154,7 +26422,7 @@
       <c r="F27" s="180">
         <v>5000</v>
       </c>
-      <c r="G27" s="467">
+      <c r="G27" s="319">
         <f t="shared" ref="G27:G49" si="1">D27*F27</f>
         <v>60000</v>
       </c>
@@ -25176,7 +26444,7 @@
       <c r="F28" s="180">
         <v>800</v>
       </c>
-      <c r="G28" s="467">
+      <c r="G28" s="319">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
@@ -25198,7 +26466,7 @@
       <c r="F29" s="180">
         <v>2200</v>
       </c>
-      <c r="G29" s="467">
+      <c r="G29" s="319">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -25220,7 +26488,7 @@
       <c r="F30" s="180">
         <v>400</v>
       </c>
-      <c r="G30" s="467">
+      <c r="G30" s="319">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
@@ -25242,7 +26510,7 @@
       <c r="F31" s="180">
         <v>200</v>
       </c>
-      <c r="G31" s="467">
+      <c r="G31" s="319">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
@@ -25264,7 +26532,7 @@
       <c r="F32" s="180">
         <v>40</v>
       </c>
-      <c r="G32" s="467">
+      <c r="G32" s="319">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
@@ -25286,7 +26554,7 @@
       <c r="F33" s="180">
         <v>1900</v>
       </c>
-      <c r="G33" s="467">
+      <c r="G33" s="319">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
@@ -25308,7 +26576,7 @@
       <c r="F34" s="180">
         <v>400</v>
       </c>
-      <c r="G34" s="467">
+      <c r="G34" s="319">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -25317,7 +26585,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D35" s="172"/>
       <c r="E35" s="78"/>
@@ -25326,21 +26594,21 @@
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="473"/>
-      <c r="C36" s="474"/>
-      <c r="D36" s="475"/>
-      <c r="E36" s="476"/>
-      <c r="F36" s="477"/>
-      <c r="G36" s="478"/>
+      <c r="B36" s="322"/>
+      <c r="C36" s="323"/>
+      <c r="D36" s="324"/>
+      <c r="E36" s="325"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="327"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="473"/>
-      <c r="C37" s="474"/>
-      <c r="D37" s="475"/>
-      <c r="E37" s="476"/>
-      <c r="F37" s="477"/>
-      <c r="G37" s="478"/>
+      <c r="B37" s="322"/>
+      <c r="C37" s="323"/>
+      <c r="D37" s="324"/>
+      <c r="E37" s="325"/>
+      <c r="F37" s="326"/>
+      <c r="G37" s="327"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -25377,7 +26645,7 @@
       <c r="F39" s="180">
         <v>40</v>
       </c>
-      <c r="G39" s="467">
+      <c r="G39" s="319">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
@@ -25417,7 +26685,7 @@
       <c r="F41" s="180">
         <v>160</v>
       </c>
-      <c r="G41" s="467">
+      <c r="G41" s="319">
         <f t="shared" si="1"/>
         <v>2560</v>
       </c>
@@ -25457,7 +26725,7 @@
       <c r="F43" s="180">
         <v>2.41</v>
       </c>
-      <c r="G43" s="467">
+      <c r="G43" s="319">
         <f t="shared" si="1"/>
         <v>843.5</v>
       </c>
@@ -25479,7 +26747,7 @@
       <c r="F44" s="180">
         <v>25</v>
       </c>
-      <c r="G44" s="467">
+      <c r="G44" s="319">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -25501,7 +26769,7 @@
       <c r="F45" s="180">
         <v>15</v>
       </c>
-      <c r="G45" s="467">
+      <c r="G45" s="319">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
@@ -25541,7 +26809,7 @@
       <c r="F47" s="180">
         <v>350</v>
       </c>
-      <c r="G47" s="467">
+      <c r="G47" s="319">
         <f t="shared" si="1"/>
         <v>8750</v>
       </c>
@@ -25563,7 +26831,7 @@
       <c r="F48" s="180">
         <v>40</v>
       </c>
-      <c r="G48" s="467">
+      <c r="G48" s="319">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -25585,7 +26853,7 @@
       <c r="F49" s="180">
         <v>6</v>
       </c>
-      <c r="G49" s="467">
+      <c r="G49" s="319">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
@@ -25625,7 +26893,7 @@
       <c r="F51" s="180">
         <v>350</v>
       </c>
-      <c r="G51" s="467">
+      <c r="G51" s="319">
         <f>D51*F51</f>
         <v>262500</v>
       </c>
@@ -25647,7 +26915,7 @@
       <c r="F52" s="180">
         <v>40</v>
       </c>
-      <c r="G52" s="467">
+      <c r="G52" s="319">
         <f>D52*F52</f>
         <v>80000</v>
       </c>
@@ -25669,7 +26937,7 @@
       <c r="F53" s="180">
         <v>6</v>
       </c>
-      <c r="G53" s="467">
+      <c r="G53" s="319">
         <f>D53*F53</f>
         <v>450000</v>
       </c>
@@ -25709,7 +26977,7 @@
       <c r="F55" s="180">
         <v>37</v>
       </c>
-      <c r="G55" s="467">
+      <c r="G55" s="319">
         <f>D55*F55</f>
         <v>92500</v>
       </c>
@@ -25749,7 +27017,7 @@
       <c r="F57" s="180">
         <v>310</v>
       </c>
-      <c r="G57" s="467">
+      <c r="G57" s="319">
         <f>D57*F57</f>
         <v>62000</v>
       </c>
@@ -25789,7 +27057,7 @@
       <c r="F59" s="180">
         <v>21.49</v>
       </c>
-      <c r="G59" s="467">
+      <c r="G59" s="319">
         <f>D59*F59</f>
         <v>17192</v>
       </c>
@@ -25829,7 +27097,7 @@
       <c r="F61" s="180">
         <v>15.69</v>
       </c>
-      <c r="G61" s="467">
+      <c r="G61" s="319">
         <f>D61*F61</f>
         <v>18828</v>
       </c>
@@ -25869,7 +27137,7 @@
       <c r="F63" s="180">
         <v>12</v>
       </c>
-      <c r="G63" s="467">
+      <c r="G63" s="319">
         <f>D63*F63</f>
         <v>37200</v>
       </c>
@@ -25891,7 +27159,7 @@
       <c r="F64" s="180">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G64" s="467">
+      <c r="G64" s="319">
         <f>D64*F64</f>
         <v>4310</v>
       </c>
@@ -25931,7 +27199,7 @@
       <c r="F66" s="180">
         <v>280000</v>
       </c>
-      <c r="G66" s="467">
+      <c r="G66" s="319">
         <f t="shared" ref="G66:G77" si="2">D66*F66</f>
         <v>280000</v>
       </c>
@@ -25953,7 +27221,7 @@
       <c r="F67" s="180">
         <v>35000</v>
       </c>
-      <c r="G67" s="467">
+      <c r="G67" s="319">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
@@ -25975,7 +27243,7 @@
       <c r="F68" s="180">
         <v>15000</v>
       </c>
-      <c r="G68" s="467">
+      <c r="G68" s="319">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
@@ -25997,7 +27265,7 @@
       <c r="F69" s="180">
         <v>350000</v>
       </c>
-      <c r="G69" s="467">
+      <c r="G69" s="319">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -26019,7 +27287,7 @@
       <c r="F70" s="180">
         <v>50000</v>
       </c>
-      <c r="G70" s="467">
+      <c r="G70" s="319">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -26041,7 +27309,7 @@
       <c r="F71" s="180">
         <v>150000</v>
       </c>
-      <c r="G71" s="467">
+      <c r="G71" s="319">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
@@ -26081,7 +27349,7 @@
       <c r="F73" s="180">
         <v>20000</v>
       </c>
-      <c r="G73" s="467">
+      <c r="G73" s="319">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
@@ -26121,7 +27389,7 @@
       <c r="F75" s="180">
         <v>1000</v>
       </c>
-      <c r="G75" s="467">
+      <c r="G75" s="319">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -26143,7 +27411,7 @@
       <c r="F76" s="180">
         <v>20000</v>
       </c>
-      <c r="G76" s="467">
+      <c r="G76" s="319">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -26165,7 +27433,7 @@
       <c r="F77" s="180">
         <v>4900</v>
       </c>
-      <c r="G77" s="467">
+      <c r="G77" s="319">
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
@@ -26294,33 +27562,33 @@
   <sheetData>
     <row r="1" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="338" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="313"/>
-      <c r="T1" s="313"/>
-      <c r="U1" s="313"/>
-      <c r="V1" s="313"/>
-      <c r="W1" s="313"/>
-      <c r="X1" s="313"/>
-      <c r="Y1" s="313"/>
-      <c r="Z1" s="313"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
+      <c r="T1" s="338"/>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="338"/>
+      <c r="X1" s="338"/>
+      <c r="Y1" s="338"/>
+      <c r="Z1" s="338"/>
     </row>
     <row r="2" spans="1:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -26543,56 +27811,56 @@
         <f>'FÍSICO SEMANAL'!B7</f>
         <v>44670</v>
       </c>
-      <c r="I6" s="310">
+      <c r="I6" s="335">
         <f>I7</f>
         <v>44670</v>
       </c>
-      <c r="J6" s="311"/>
-      <c r="K6" s="311"/>
-      <c r="L6" s="311"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="311"/>
-      <c r="O6" s="312"/>
-      <c r="P6" s="310">
+      <c r="J6" s="336"/>
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="336"/>
+      <c r="N6" s="336"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="335">
         <f ca="1">P7</f>
-        <v>44670</v>
-      </c>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="311"/>
-      <c r="T6" s="311"/>
-      <c r="U6" s="311"/>
-      <c r="V6" s="312"/>
-      <c r="W6" s="310">
+        <v>44671</v>
+      </c>
+      <c r="Q6" s="336"/>
+      <c r="R6" s="336"/>
+      <c r="S6" s="336"/>
+      <c r="T6" s="336"/>
+      <c r="U6" s="336"/>
+      <c r="V6" s="337"/>
+      <c r="W6" s="335">
         <f ca="1">W7</f>
-        <v>44670</v>
-      </c>
-      <c r="X6" s="311"/>
-      <c r="Y6" s="311"/>
-      <c r="Z6" s="311"/>
-      <c r="AA6" s="311"/>
-      <c r="AB6" s="311"/>
-      <c r="AC6" s="312"/>
-      <c r="AD6" s="310">
+        <v>44671</v>
+      </c>
+      <c r="X6" s="336"/>
+      <c r="Y6" s="336"/>
+      <c r="Z6" s="336"/>
+      <c r="AA6" s="336"/>
+      <c r="AB6" s="336"/>
+      <c r="AC6" s="337"/>
+      <c r="AD6" s="335">
         <f ca="1">AD7</f>
-        <v>44670</v>
-      </c>
-      <c r="AE6" s="311"/>
-      <c r="AF6" s="311"/>
-      <c r="AG6" s="311"/>
-      <c r="AH6" s="311"/>
-      <c r="AI6" s="311"/>
-      <c r="AJ6" s="312"/>
-      <c r="AK6" s="310">
+        <v>44671</v>
+      </c>
+      <c r="AE6" s="336"/>
+      <c r="AF6" s="336"/>
+      <c r="AG6" s="336"/>
+      <c r="AH6" s="336"/>
+      <c r="AI6" s="336"/>
+      <c r="AJ6" s="337"/>
+      <c r="AK6" s="335">
         <f ca="1">AK7</f>
-        <v>44670</v>
-      </c>
-      <c r="AL6" s="311"/>
-      <c r="AM6" s="311"/>
-      <c r="AN6" s="311"/>
-      <c r="AO6" s="311"/>
-      <c r="AP6" s="311"/>
-      <c r="AQ6" s="312"/>
+        <v>44671</v>
+      </c>
+      <c r="AL6" s="336"/>
+      <c r="AM6" s="336"/>
+      <c r="AN6" s="336"/>
+      <c r="AO6" s="336"/>
+      <c r="AP6" s="336"/>
+      <c r="AQ6" s="337"/>
     </row>
     <row r="7" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
@@ -26644,115 +27912,115 @@
       </c>
       <c r="P7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q7" s="209">
         <f ca="1">P7+1</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="R7" s="209">
         <f t="shared" ref="R7:V7" ca="1" si="1">Q7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="S7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="T7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="U7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="V7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="W7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="X7" s="209">
         <f ca="1">W7+1</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="Y7" s="209">
         <f t="shared" ref="Y7:AC7" ca="1" si="2">X7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="Z7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="AA7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AB7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AC7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="AD7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="AE7" s="209">
         <f ca="1">AD7+1</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="AF7" s="209">
         <f t="shared" ref="AF7:AJ7" ca="1" si="3">AE7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="AG7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="AH7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AI7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AJ7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="AK7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="AL7" s="209">
         <f ca="1">AK7+1</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="AM7" s="209">
         <f t="shared" ref="AM7:AQ7" ca="1" si="4">AL7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="AN7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="AO7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AP7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AQ7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26794,7 +28062,7 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="108"/>
-      <c r="E9" s="314"/>
+      <c r="E9" s="333"/>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
@@ -26952,7 +28220,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="315"/>
+      <c r="E10" s="334"/>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="143"/>
@@ -27010,7 +28278,7 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="314" t="s">
+      <c r="E11" s="333" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="143"/>
@@ -27170,7 +28438,7 @@
         <v>285</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="315"/>
+      <c r="E12" s="334"/>
       <c r="F12" s="143"/>
       <c r="G12" s="143"/>
       <c r="H12" s="143"/>
@@ -27228,7 +28496,7 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="314" t="s">
+      <c r="E13" s="333" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="143"/>
@@ -27390,7 +28658,7 @@
       <c r="D14" s="79">
         <v>2</v>
       </c>
-      <c r="E14" s="315"/>
+      <c r="E14" s="334"/>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
       <c r="H14" s="143"/>
@@ -27452,7 +28720,7 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="314" t="s">
+      <c r="E15" s="333" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="143"/>
@@ -27612,7 +28880,7 @@
         <v>289</v>
       </c>
       <c r="D16" s="133"/>
-      <c r="E16" s="315"/>
+      <c r="E16" s="334"/>
       <c r="F16" s="143"/>
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
@@ -27704,7 +28972,7 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="314" t="s">
+      <c r="E17" s="333" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="143"/>
@@ -27864,7 +29132,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="133"/>
-      <c r="E18" s="315"/>
+      <c r="E18" s="334"/>
       <c r="F18" s="143"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
@@ -27953,7 +29221,7 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="314"/>
+      <c r="E19" s="333"/>
       <c r="F19" s="143"/>
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
@@ -28111,7 +29379,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="133"/>
-      <c r="E20" s="315"/>
+      <c r="E20" s="334"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
@@ -28200,7 +29468,7 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="108"/>
-      <c r="E21" s="314"/>
+      <c r="E21" s="333"/>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
       <c r="H21" s="143"/>
@@ -28358,7 +29626,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="133"/>
-      <c r="E22" s="315"/>
+      <c r="E22" s="334"/>
       <c r="F22" s="143"/>
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
@@ -28440,7 +29708,7 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="E23" s="314"/>
+      <c r="E23" s="333"/>
       <c r="F23" s="143"/>
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
@@ -28499,7 +29767,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="133"/>
-      <c r="E24" s="315"/>
+      <c r="E24" s="334"/>
       <c r="F24" s="143"/>
       <c r="G24" s="143"/>
       <c r="H24" s="143"/>
@@ -28561,7 +29829,7 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="108"/>
-      <c r="E25" s="314"/>
+      <c r="E25" s="333"/>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143"/>
@@ -28641,7 +29909,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="133"/>
-      <c r="E26" s="315"/>
+      <c r="E26" s="334"/>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
       <c r="H26" s="143"/>
@@ -28724,7 +29992,7 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="314"/>
+      <c r="E27" s="333"/>
       <c r="F27" s="143"/>
       <c r="G27" s="143"/>
       <c r="H27" s="143"/>
@@ -28801,7 +30069,7 @@
         <v>292</v>
       </c>
       <c r="D28" s="79"/>
-      <c r="E28" s="315"/>
+      <c r="E28" s="334"/>
       <c r="F28" s="143"/>
       <c r="G28" s="143"/>
       <c r="H28" s="143"/>
@@ -28880,7 +30148,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="108"/>
-      <c r="E29" s="314"/>
+      <c r="E29" s="333"/>
       <c r="F29" s="143"/>
       <c r="G29" s="143"/>
       <c r="H29" s="143"/>
@@ -28936,7 +30204,7 @@
         <v>294</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="315"/>
+      <c r="E30" s="334"/>
       <c r="F30" s="143"/>
       <c r="G30" s="143"/>
       <c r="H30" s="143"/>
@@ -28995,7 +30263,7 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="108"/>
-      <c r="E31" s="314"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
       <c r="H31" s="143"/>
@@ -29060,7 +30328,7 @@
         <v>295</v>
       </c>
       <c r="D32" s="79"/>
-      <c r="E32" s="315"/>
+      <c r="E32" s="334"/>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
       <c r="H32" s="143"/>
@@ -29128,7 +30396,7 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="115"/>
-      <c r="E33" s="314"/>
+      <c r="E33" s="333"/>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
       <c r="H33" s="143"/>
@@ -29190,7 +30458,7 @@
         <v>287</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="315"/>
+      <c r="E34" s="334"/>
       <c r="F34" s="143"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
@@ -29255,7 +30523,7 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="108"/>
-      <c r="E35" s="314"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="143"/>
       <c r="G35" s="143"/>
       <c r="H35" s="143"/>
@@ -29335,7 +30603,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="315"/>
+      <c r="E36" s="334"/>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
       <c r="H36" s="143"/>
@@ -29418,7 +30686,7 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="108"/>
-      <c r="E37" s="314"/>
+      <c r="E37" s="333"/>
       <c r="F37" s="143"/>
       <c r="G37" s="143"/>
       <c r="H37" s="143"/>
@@ -29483,7 +30751,7 @@
         <v>295</v>
       </c>
       <c r="D38" s="79"/>
-      <c r="E38" s="315"/>
+      <c r="E38" s="334"/>
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="143"/>
@@ -29551,7 +30819,7 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="115"/>
-      <c r="E39" s="314"/>
+      <c r="E39" s="333"/>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
       <c r="H39" s="143"/>
@@ -29607,7 +30875,7 @@
         <v>300</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="315"/>
+      <c r="E40" s="334"/>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
       <c r="H40" s="143"/>
@@ -29666,7 +30934,7 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="108"/>
-      <c r="E41" s="314"/>
+      <c r="E41" s="333"/>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
@@ -29725,7 +30993,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="315"/>
+      <c r="E42" s="334"/>
       <c r="F42" s="143"/>
       <c r="G42" s="143"/>
       <c r="H42" s="143"/>
@@ -30696,6 +31964,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -30704,21 +31987,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I10:AQ10">
@@ -31030,39 +32298,39 @@
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="R2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="T2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="U2" s="124"/>
       <c r="V2" s="124"/>
@@ -31843,39 +33111,39 @@
       </c>
       <c r="K2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="R2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="T2" s="124"/>
       <c r="U2" s="124"/>
@@ -32495,15 +33763,15 @@
       <c r="C6" s="163" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="469" t="str">
+      <c r="D6" s="339" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E6" s="470"/>
-      <c r="F6" s="470"/>
-      <c r="G6" s="470"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="471"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="341"/>
       <c r="J6" s="192">
         <v>0</v>
       </c>
@@ -32549,89 +33817,89 @@
       <c r="C7" s="162" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="465" t="str">
+      <c r="D7" s="342" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="319">
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="343"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="345">
         <f>J8</f>
         <v>44670</v>
       </c>
-      <c r="K7" s="319"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="319"/>
-      <c r="N7" s="319"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="320"/>
-      <c r="Q7" s="318">
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="345"/>
+      <c r="N7" s="345"/>
+      <c r="O7" s="345"/>
+      <c r="P7" s="346"/>
+      <c r="Q7" s="347">
         <f>Q8</f>
         <v>44677</v>
       </c>
-      <c r="R7" s="319"/>
-      <c r="S7" s="319"/>
-      <c r="T7" s="319"/>
-      <c r="U7" s="319"/>
-      <c r="V7" s="319"/>
-      <c r="W7" s="320"/>
-      <c r="X7" s="318">
+      <c r="R7" s="345"/>
+      <c r="S7" s="345"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="345"/>
+      <c r="V7" s="345"/>
+      <c r="W7" s="346"/>
+      <c r="X7" s="347">
         <f t="shared" ref="X7" si="0">X8</f>
         <v>44684</v>
       </c>
-      <c r="Y7" s="319"/>
-      <c r="Z7" s="319"/>
-      <c r="AA7" s="319"/>
-      <c r="AB7" s="319"/>
-      <c r="AC7" s="319"/>
-      <c r="AD7" s="320"/>
-      <c r="AE7" s="318">
+      <c r="Y7" s="345"/>
+      <c r="Z7" s="345"/>
+      <c r="AA7" s="345"/>
+      <c r="AB7" s="345"/>
+      <c r="AC7" s="345"/>
+      <c r="AD7" s="346"/>
+      <c r="AE7" s="347">
         <f t="shared" ref="AE7" si="1">AE8</f>
         <v>44691</v>
       </c>
-      <c r="AF7" s="319"/>
-      <c r="AG7" s="319"/>
-      <c r="AH7" s="319"/>
-      <c r="AI7" s="319"/>
-      <c r="AJ7" s="319"/>
-      <c r="AK7" s="320"/>
-      <c r="AL7" s="318">
+      <c r="AF7" s="345"/>
+      <c r="AG7" s="345"/>
+      <c r="AH7" s="345"/>
+      <c r="AI7" s="345"/>
+      <c r="AJ7" s="345"/>
+      <c r="AK7" s="346"/>
+      <c r="AL7" s="347">
         <f t="shared" ref="AL7" si="2">AL8</f>
         <v>44698</v>
       </c>
-      <c r="AM7" s="319"/>
-      <c r="AN7" s="319"/>
-      <c r="AO7" s="319"/>
-      <c r="AP7" s="319"/>
-      <c r="AQ7" s="319"/>
-      <c r="AR7" s="320"/>
+      <c r="AM7" s="345"/>
+      <c r="AN7" s="345"/>
+      <c r="AO7" s="345"/>
+      <c r="AP7" s="345"/>
+      <c r="AQ7" s="345"/>
+      <c r="AR7" s="346"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="316" t="s">
+      <c r="B8" s="350" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="317" t="s">
+      <c r="C8" s="351" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="317" t="s">
+      <c r="D8" s="351" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="317" t="s">
+      <c r="E8" s="351" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="321" t="s">
+      <c r="F8" s="348" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="321" t="s">
+      <c r="G8" s="348" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="321" t="s">
+      <c r="H8" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="322" t="s">
+      <c r="I8" s="349" t="s">
         <v>315</v>
       </c>
       <c r="J8" s="194">
@@ -32776,14 +34044,14 @@
       </c>
     </row>
     <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="316"/>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="317"/>
-      <c r="F9" s="321"/>
-      <c r="G9" s="321"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="322"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="348"/>
+      <c r="G9" s="348"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="349"/>
       <c r="J9" s="201" t="str">
         <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
         <v>T</v>
@@ -32926,8 +34194,8 @@
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B10" s="472" t="s">
-        <v>423</v>
+      <c r="B10" s="321" t="s">
+        <v>417</v>
       </c>
       <c r="C10" s="154">
         <v>44670</v>
@@ -33093,7 +34361,7 @@
       <c r="B13" s="147"/>
       <c r="C13" s="154"/>
       <c r="D13" s="186" t="str">
-        <f t="shared" ref="D11:D24" si="8">IF(C13="","",C13+E13)</f>
+        <f t="shared" ref="D13:D24" si="8">IF(C13="","",C13+E13)</f>
         <v/>
       </c>
       <c r="E13" s="146"/>
@@ -33595,21 +34863,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:W7"/>
     <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="X7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:AR21">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -39714,119 +40982,119 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="353" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="327"/>
-      <c r="J4" s="325" t="s">
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="355"/>
+      <c r="J4" s="353" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
-      <c r="O4" s="326"/>
-      <c r="P4" s="327"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="355"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="356" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="J5" s="329" t="s">
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="356"/>
+      <c r="J5" s="357" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="331"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="359"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="323"/>
-      <c r="M6" s="323"/>
-      <c r="N6" s="323"/>
-      <c r="O6" s="323"/>
-      <c r="P6" s="323"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
+      <c r="G6" s="362"/>
+      <c r="H6" s="362"/>
+      <c r="J6" s="362"/>
+      <c r="K6" s="362"/>
+      <c r="L6" s="362"/>
+      <c r="M6" s="362"/>
+      <c r="N6" s="362"/>
+      <c r="O6" s="362"/>
+      <c r="P6" s="362"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="332"/>
+      <c r="B7" s="363"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="464" t="str">
+      <c r="D7" s="361" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
-      <c r="G7" s="464"/>
-      <c r="H7" s="464"/>
-      <c r="J7" s="332"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="J7" s="363"/>
       <c r="K7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="465" t="str">
+      <c r="L7" s="342" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="M7" s="443"/>
-      <c r="N7" s="443"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="466"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="343"/>
+      <c r="O7" s="343"/>
+      <c r="P7" s="360"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="333"/>
+      <c r="B8" s="364"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="464" t="str">
+      <c r="D8" s="361" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E8" s="464"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="464"/>
-      <c r="J8" s="333"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
+      <c r="H8" s="361"/>
+      <c r="J8" s="364"/>
       <c r="K8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="L8" s="465" t="str">
+      <c r="L8" s="342" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="M8" s="443"/>
-      <c r="N8" s="443"/>
-      <c r="O8" s="443"/>
-      <c r="P8" s="466"/>
+      <c r="M8" s="343"/>
+      <c r="N8" s="343"/>
+      <c r="O8" s="343"/>
+      <c r="P8" s="360"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="333"/>
+      <c r="B9" s="364"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="277">
+      <c r="D9" s="273">
         <v>44670</v>
       </c>
       <c r="E9" s="158"/>
@@ -39835,11 +41103,11 @@
       <c r="H9" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="J9" s="333"/>
+      <c r="J9" s="364"/>
       <c r="K9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="277"/>
+      <c r="L9" s="273"/>
       <c r="M9" s="158"/>
       <c r="N9" s="158"/>
       <c r="O9" s="158"/>
@@ -39848,7 +41116,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="334"/>
+      <c r="B10" s="365"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -39867,7 +41135,7 @@
       <c r="H10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="J10" s="334"/>
+      <c r="J10" s="365"/>
       <c r="K10" s="158" t="s">
         <v>316</v>
       </c>
@@ -39888,7 +41156,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="324" t="s">
+      <c r="B11" s="352" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -39899,7 +41167,7 @@
       <c r="F11" s="161"/>
       <c r="G11" s="158"/>
       <c r="H11" s="158"/>
-      <c r="J11" s="324" t="s">
+      <c r="J11" s="352" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="160" t="s">
@@ -39912,7 +41180,7 @@
       <c r="P11" s="158"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="324"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
@@ -39921,7 +41189,7 @@
       <c r="F12" s="161"/>
       <c r="G12" s="158"/>
       <c r="H12" s="158"/>
-      <c r="J12" s="324"/>
+      <c r="J12" s="352"/>
       <c r="K12" s="160" t="s">
         <v>3</v>
       </c>
@@ -39932,7 +41200,7 @@
       <c r="P12" s="158"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="324"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
@@ -39941,7 +41209,7 @@
       <c r="F13" s="161"/>
       <c r="G13" s="158"/>
       <c r="H13" s="158"/>
-      <c r="J13" s="324"/>
+      <c r="J13" s="352"/>
       <c r="K13" s="160" t="s">
         <v>4</v>
       </c>
@@ -39952,7 +41220,7 @@
       <c r="P13" s="158"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="324"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
@@ -39961,7 +41229,7 @@
       <c r="F14" s="161"/>
       <c r="G14" s="158"/>
       <c r="H14" s="158"/>
-      <c r="J14" s="324"/>
+      <c r="J14" s="352"/>
       <c r="K14" s="160" t="s">
         <v>5</v>
       </c>
@@ -39972,7 +41240,7 @@
       <c r="P14" s="158"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="324"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
@@ -39981,7 +41249,7 @@
       <c r="F15" s="161"/>
       <c r="G15" s="158"/>
       <c r="H15" s="158"/>
-      <c r="J15" s="324"/>
+      <c r="J15" s="352"/>
       <c r="K15" s="160" t="s">
         <v>6</v>
       </c>
@@ -39992,7 +41260,7 @@
       <c r="P15" s="158"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="324"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
@@ -40001,7 +41269,7 @@
       <c r="F16" s="161"/>
       <c r="G16" s="158"/>
       <c r="H16" s="158"/>
-      <c r="J16" s="324"/>
+      <c r="J16" s="352"/>
       <c r="K16" s="160" t="s">
         <v>7</v>
       </c>
@@ -40012,7 +41280,7 @@
       <c r="P16" s="158"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="324"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
@@ -40021,7 +41289,7 @@
       <c r="F17" s="161"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
-      <c r="J17" s="324"/>
+      <c r="J17" s="352"/>
       <c r="K17" s="160" t="s">
         <v>8</v>
       </c>
@@ -40032,7 +41300,7 @@
       <c r="P17" s="158"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="324"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
@@ -40041,7 +41309,7 @@
       <c r="F18" s="161"/>
       <c r="G18" s="158"/>
       <c r="H18" s="158"/>
-      <c r="J18" s="324"/>
+      <c r="J18" s="352"/>
       <c r="K18" s="160" t="s">
         <v>323</v>
       </c>
@@ -40052,7 +41320,7 @@
       <c r="P18" s="158"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="324"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
@@ -40061,7 +41329,7 @@
       <c r="F19" s="161"/>
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
-      <c r="J19" s="324"/>
+      <c r="J19" s="352"/>
       <c r="K19" s="160" t="s">
         <v>324</v>
       </c>
@@ -40072,7 +41340,7 @@
       <c r="P19" s="158"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="324"/>
+      <c r="B20" s="352"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
@@ -40081,7 +41349,7 @@
       <c r="F20" s="161"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
-      <c r="J20" s="324"/>
+      <c r="J20" s="352"/>
       <c r="K20" s="160" t="s">
         <v>325</v>
       </c>
@@ -40130,75 +41398,75 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="353" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="327"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="355"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="356" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="356"/>
+      <c r="I5" s="356"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
+      <c r="G6" s="362"/>
+      <c r="H6" s="362"/>
+      <c r="I6" s="362"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="332"/>
+      <c r="B7" s="363"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="463" t="str">
+      <c r="D7" s="366" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
-      <c r="G7" s="464"/>
-      <c r="H7" s="464"/>
-      <c r="I7" s="464"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="I7" s="361"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="333"/>
+      <c r="B8" s="364"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="463" t="str">
+      <c r="D8" s="366" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E8" s="464"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="464"/>
-      <c r="I8" s="464"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="361"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="333"/>
+      <c r="B9" s="364"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="276">
+      <c r="D9" s="272">
         <v>44670</v>
       </c>
       <c r="E9" s="158"/>
@@ -40210,7 +41478,7 @@
       <c r="I9" s="159"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="334"/>
+      <c r="B10" s="365"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -40234,20 +41502,20 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="324" t="s">
+      <c r="B11" s="352" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="468" t="s">
-        <v>421</v>
+      <c r="D11" s="320" t="s">
+        <v>415</v>
       </c>
       <c r="E11" s="158">
         <v>2</v>
       </c>
       <c r="F11" s="161"/>
-      <c r="G11" s="275" t="str">
+      <c r="G11" s="271" t="str">
         <f>IF(F11="","",E11*F11)</f>
         <v/>
       </c>
@@ -40255,18 +41523,18 @@
       <c r="I11" s="158"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="324"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="468" t="s">
-        <v>422</v>
+      <c r="D12" s="320" t="s">
+        <v>416</v>
       </c>
       <c r="E12" s="158">
         <v>1</v>
       </c>
       <c r="F12" s="161"/>
-      <c r="G12" s="275" t="str">
+      <c r="G12" s="271" t="str">
         <f t="shared" ref="G12:G20" si="0">IF(F12="","",E12*F12)</f>
         <v/>
       </c>
@@ -40274,14 +41542,14 @@
       <c r="I12" s="158"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="324"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
       <c r="F13" s="161"/>
-      <c r="G13" s="275" t="str">
+      <c r="G13" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40289,14 +41557,14 @@
       <c r="I13" s="158"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="324"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
       <c r="F14" s="161"/>
-      <c r="G14" s="275" t="str">
+      <c r="G14" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40304,14 +41572,14 @@
       <c r="I14" s="158"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="324"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="158"/>
       <c r="E15" s="158"/>
       <c r="F15" s="161"/>
-      <c r="G15" s="275" t="str">
+      <c r="G15" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40319,14 +41587,14 @@
       <c r="I15" s="158"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="324"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
       <c r="F16" s="161"/>
-      <c r="G16" s="275" t="str">
+      <c r="G16" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40334,14 +41602,14 @@
       <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="324"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
       <c r="F17" s="161"/>
-      <c r="G17" s="275" t="str">
+      <c r="G17" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40349,14 +41617,14 @@
       <c r="I17" s="158"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="324"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
       <c r="F18" s="161"/>
-      <c r="G18" s="275" t="str">
+      <c r="G18" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40364,14 +41632,14 @@
       <c r="I18" s="158"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="324"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
       <c r="F19" s="161"/>
-      <c r="G19" s="275" t="str">
+      <c r="G19" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -40379,14 +41647,14 @@
       <c r="I19" s="158"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="324"/>
+      <c r="B20" s="352"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
       <c r="F20" s="161"/>
-      <c r="G20" s="275" t="str">
+      <c r="G20" s="271" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/Cronograma Fisíco Finan & Curva S V.xlsx
+++ b/Cronograma Fisíco Finan & Curva S V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7410" tabRatio="721" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7410" tabRatio="721" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LEVANTAMENTO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CUST_M_OBRA" sheetId="11" r:id="rId10"/>
     <sheet name="RDO" sheetId="12" r:id="rId11"/>
     <sheet name="Ordem de Serviço" sheetId="13" r:id="rId12"/>
+    <sheet name="Plan1" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'CURVA "S"'!$B$4:$N$41</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="448">
   <si>
     <t>Item</t>
   </si>
@@ -1309,6 +1310,72 @@
   </si>
   <si>
     <t>questões judiciais entre o denunciante e o proprietário do imóvel não relacionada diretamente a execução direta da obra.</t>
+  </si>
+  <si>
+    <t>Pedreiro</t>
+  </si>
+  <si>
+    <t>Execução de sereviços diversos</t>
+  </si>
+  <si>
+    <t>Aplicação de argamassa para correção de falhas no reboco das paredes do corredor externo, do quarto 3 (três) e do</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>lipesa e remoção de entulho do imóvel.</t>
+  </si>
+  <si>
+    <t>corredor interno do pavimeto 2 (dois).</t>
+  </si>
+  <si>
+    <t>Raspagem de teto e parede.</t>
+  </si>
+  <si>
+    <t>Fornecimento de água.</t>
+  </si>
+  <si>
+    <t>Fornecimento de água</t>
+  </si>
+  <si>
+    <t>Edgard</t>
+  </si>
+  <si>
+    <t>Téc. Edificações</t>
+  </si>
+  <si>
+    <t>Coordenar a equipe</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>V. à pagar</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>despesas diversas</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>combustível</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>lanche</t>
+  </si>
+  <si>
+    <t>vassoura</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1401,7 @@
     <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="179" formatCode="d"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="184" formatCode="h:mm;@"/>
+    <numFmt numFmtId="181" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -1684,7 +1751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -2655,6 +2722,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2664,7 +2770,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3510,6 +3616,51 @@
     <xf numFmtId="178" fontId="16" fillId="14" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3525,41 +3676,33 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3569,442 +3712,479 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
@@ -4476,11 +4656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="319549440"/>
-        <c:axId val="319550976"/>
+        <c:axId val="334098432"/>
+        <c:axId val="334099968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="319549440"/>
+        <c:axId val="334098432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4516,7 +4696,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319550976"/>
+        <c:crossAx val="334099968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4525,7 +4705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319550976"/>
+        <c:axId val="334099968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4562,7 +4742,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319549440"/>
+        <c:crossAx val="334098432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4738,8 +4918,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314144256"/>
-        <c:axId val="314145792"/>
+        <c:axId val="315123200"/>
+        <c:axId val="315124736"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5096,11 +5276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314172160"/>
-        <c:axId val="314173696"/>
+        <c:axId val="315147008"/>
+        <c:axId val="315148544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314144256"/>
+        <c:axId val="315123200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5144,7 +5324,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314145792"/>
+        <c:crossAx val="315124736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314145792"/>
+        <c:axId val="315124736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -5190,13 +5370,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314144256"/>
+        <c:crossAx val="315123200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="314172160"/>
+        <c:axId val="315147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5205,7 +5385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314173696"/>
+        <c:crossAx val="315148544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5213,7 +5393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314173696"/>
+        <c:axId val="315148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5223,7 +5403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314172160"/>
+        <c:crossAx val="315147008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5490,7 +5670,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5749,7 @@
         <xdr:cNvPr id="7" name="Imagem 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5828,7 @@
         <xdr:cNvPr id="8" name="Imagem 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5727,7 +5907,7 @@
         <xdr:cNvPr id="9" name="Imagem 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5801,7 +5981,7 @@
         <xdr:cNvPr id="10" name="Imagem 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5875,7 +6055,7 @@
         <xdr:cNvPr id="11" name="Imagem 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5949,7 +6129,7 @@
         <xdr:cNvPr id="12" name="Imagem 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6023,7 +6203,7 @@
         <xdr:cNvPr id="13" name="Imagem 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6052,6 +6232,302 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6372225" y="10315575"/>
+          <a:ext cx="372861" cy="319230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="354138" cy="327442"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D2B44-3974-4320-9CFA-332C5D891317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19044" t="18243" r="18424" b="16892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1981200" y="8877300"/>
+          <a:ext cx="354138" cy="327442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="285750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B23BD3-BCEC-4CD1-B133-9FCD1E5EB181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13418" t="6940" r="6279" b="29958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686174" y="8858250"/>
+          <a:ext cx="466725" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366064" cy="319230"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB2097-DE22-4D23-AF2A-3B1F16D27039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16749" t="25018" r="16328" b="6171"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="8867775"/>
+          <a:ext cx="366064" cy="319230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="372861" cy="319230"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B24F0F-1DAA-4DA3-AE0D-B315C85F447B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17400" t="25555" r="17191" b="12469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6372225" y="8858250"/>
           <a:ext cx="372861" cy="319230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6401,63 +6877,63 @@
   <sheetData>
     <row r="1" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="328" t="s">
+      <c r="B1" s="343" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
     </row>
     <row r="2" spans="1:12" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="344" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
     </row>
     <row r="4" spans="1:12" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
+      <c r="B4" s="345"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="345"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
@@ -22363,15 +22839,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L30"/>
+  <dimension ref="B4:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
@@ -22383,53 +22859,53 @@
   <sheetData>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="367" t="s">
+      <c r="B5" s="382" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="368"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="368"/>
-      <c r="K5" s="368"/>
-      <c r="L5" s="369"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="383"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="384"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="276" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="370" t="s">
+      <c r="C6" s="385" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="343"/>
-      <c r="H6" s="343"/>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
-      <c r="K6" s="343"/>
-      <c r="L6" s="344"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
+      <c r="G6" s="365"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="366"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="276" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="370" t="s">
+      <c r="C7" s="385" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="343"/>
-      <c r="I7" s="343"/>
-      <c r="J7" s="343"/>
-      <c r="K7" s="343"/>
-      <c r="L7" s="344"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="365"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="365"/>
+      <c r="J7" s="365"/>
+      <c r="K7" s="365"/>
+      <c r="L7" s="366"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="276" t="s">
@@ -22459,11 +22935,11 @@
       </c>
       <c r="D9" s="277">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="E9" s="315">
         <f ca="1">NETWORKDAYS.INTL(C9,D9,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="293"/>
       <c r="G9" s="293"/>
@@ -22561,18 +23037,18 @@
         <v>90</v>
       </c>
       <c r="I12" s="283">
-        <f t="shared" ref="I12:I30" si="0">IF(H12="","",H12/9)</f>
+        <f t="shared" ref="I12:I29" si="0">IF(H12="","",H12/9)</f>
         <v>10</v>
       </c>
       <c r="J12" s="283">
-        <f t="shared" ref="J12:J30" si="1">IF(I12="","",H12*G12)</f>
+        <f t="shared" ref="J12:J29" si="1">IF(I12="","",H12*G12)</f>
         <v>90</v>
       </c>
       <c r="K12" s="295">
         <v>90</v>
       </c>
       <c r="L12" s="284">
-        <f t="shared" ref="L12:L30" si="2">IF(K12="","",J12-K12)</f>
+        <f t="shared" ref="L12:L32" si="2">IF(K12="","",J12-K12)</f>
         <v>0</v>
       </c>
     </row>
@@ -22580,19 +23056,29 @@
       <c r="B13" s="278">
         <v>3</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
+      <c r="C13" s="285" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" s="285" t="s">
+        <v>436</v>
+      </c>
       <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="283" t="str">
+      <c r="F13" s="285" t="s">
+        <v>437</v>
+      </c>
+      <c r="G13" s="281">
+        <v>3</v>
+      </c>
+      <c r="H13" s="282">
+        <v>135</v>
+      </c>
+      <c r="I13" s="283">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="283" t="str">
+        <v>15</v>
+      </c>
+      <c r="J13" s="283">
         <f t="shared" si="1"/>
-        <v/>
+        <v>405</v>
       </c>
       <c r="K13" s="295"/>
       <c r="L13" s="284" t="str">
@@ -22604,19 +23090,27 @@
       <c r="B14" s="278">
         <v>4</v>
       </c>
-      <c r="C14" s="285"/>
-      <c r="D14" s="285"/>
+      <c r="C14" s="285" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="285" t="s">
+        <v>405</v>
+      </c>
       <c r="E14" s="285"/>
       <c r="F14" s="285"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="283" t="str">
+      <c r="G14" s="281">
+        <v>1</v>
+      </c>
+      <c r="H14" s="282">
+        <v>90</v>
+      </c>
+      <c r="I14" s="283">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="283" t="str">
+        <v>10</v>
+      </c>
+      <c r="J14" s="283">
         <f t="shared" si="1"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="K14" s="295"/>
       <c r="L14" s="284" t="str">
@@ -22632,15 +23126,19 @@
       <c r="D15" s="285"/>
       <c r="E15" s="285"/>
       <c r="F15" s="285"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283" t="str">
+      <c r="G15" s="281">
+        <v>1</v>
+      </c>
+      <c r="H15" s="282">
+        <v>90</v>
+      </c>
+      <c r="I15" s="283">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="283" t="str">
+        <v>10</v>
+      </c>
+      <c r="J15" s="283">
         <f t="shared" si="1"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="K15" s="295"/>
       <c r="L15" s="284" t="str">
@@ -22652,19 +23150,27 @@
       <c r="B16" s="278">
         <v>6</v>
       </c>
-      <c r="C16" s="285"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="285" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="285" t="s">
+        <v>426</v>
+      </c>
       <c r="E16" s="285"/>
       <c r="F16" s="285"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="283" t="str">
+      <c r="G16" s="281">
+        <v>1</v>
+      </c>
+      <c r="H16" s="282">
+        <v>165</v>
+      </c>
+      <c r="I16" s="283">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="283" t="str">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J16" s="283">
         <f t="shared" si="1"/>
-        <v/>
+        <v>165</v>
       </c>
       <c r="K16" s="295"/>
       <c r="L16" s="284" t="str">
@@ -22984,35 +23490,68 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="185">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="509">
         <v>20</v>
       </c>
-      <c r="C30" s="286"/>
-      <c r="D30" s="286"/>
-      <c r="E30" s="286"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="288"/>
-      <c r="I30" s="289" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J30" s="289" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="296"/>
-      <c r="L30" s="291" t="str">
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
+      <c r="E30" s="510"/>
+      <c r="F30" s="510"/>
+      <c r="G30" s="511"/>
+      <c r="H30" s="512"/>
+      <c r="I30" s="513"/>
+      <c r="J30" s="513"/>
+      <c r="K30" s="514"/>
+      <c r="L30" s="515"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="509"/>
+      <c r="C31" s="510"/>
+      <c r="D31" s="510"/>
+      <c r="E31" s="510"/>
+      <c r="F31" s="510"/>
+      <c r="G31" s="511"/>
+      <c r="H31" s="512"/>
+      <c r="I31" s="513"/>
+      <c r="J31" s="513"/>
+      <c r="K31" s="514"/>
+      <c r="L31" s="516" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="286"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="286"/>
+      <c r="G32" s="287">
+        <f>IFERROR(SUM(G11:G30),"")</f>
+        <v>8</v>
+      </c>
+      <c r="H32" s="288"/>
+      <c r="I32" s="289"/>
+      <c r="J32" s="289">
+        <f>IFERROR(SUM(J11:J30),"")</f>
+        <v>930</v>
+      </c>
+      <c r="K32" s="296">
+        <f>IFERROR(SUM(K11:K30),"")</f>
+        <v>180</v>
+      </c>
+      <c r="L32" s="291">
         <f t="shared" si="2"/>
-        <v/>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C6:L6"/>
     <mergeCell ref="B5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23021,10 +23560,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L169"/>
+  <dimension ref="B1:L255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158:L158"/>
+    <sheetView showGridLines="0" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239:L239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23044,19 +23583,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="481" t="s">
+      <c r="B2" s="500" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="482"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="482"/>
-      <c r="F2" s="482"/>
-      <c r="G2" s="482"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="482"/>
-      <c r="J2" s="482"/>
-      <c r="K2" s="482"/>
-      <c r="L2" s="483"/>
+      <c r="C2" s="501"/>
+      <c r="D2" s="501"/>
+      <c r="E2" s="501"/>
+      <c r="F2" s="501"/>
+      <c r="G2" s="501"/>
+      <c r="H2" s="501"/>
+      <c r="I2" s="501"/>
+      <c r="J2" s="501"/>
+      <c r="K2" s="501"/>
+      <c r="L2" s="502"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
@@ -23096,14 +23635,14 @@
     <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="487" t="s">
+      <c r="D5" s="503" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="487"/>
-      <c r="F5" s="487"/>
-      <c r="G5" s="487"/>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="503"/>
       <c r="J5" s="213"/>
       <c r="K5" s="212" t="s">
         <v>344</v>
@@ -23116,14 +23655,14 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="486" t="s">
+      <c r="D6" s="504" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="486"/>
-      <c r="F6" s="486"/>
-      <c r="G6" s="486"/>
-      <c r="H6" s="486"/>
-      <c r="I6" s="486"/>
+      <c r="E6" s="504"/>
+      <c r="F6" s="504"/>
+      <c r="G6" s="504"/>
+      <c r="H6" s="504"/>
+      <c r="I6" s="504"/>
       <c r="J6" s="214"/>
       <c r="K6" s="212" t="s">
         <v>346</v>
@@ -23136,14 +23675,14 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="488" t="s">
+      <c r="D7" s="505" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="488"/>
-      <c r="F7" s="488"/>
-      <c r="G7" s="488"/>
-      <c r="H7" s="488"/>
-      <c r="I7" s="488"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="505"/>
+      <c r="G7" s="505"/>
+      <c r="H7" s="505"/>
+      <c r="I7" s="505"/>
       <c r="J7" s="215"/>
       <c r="K7" s="212" t="s">
         <v>348</v>
@@ -23154,34 +23693,34 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="414" t="s">
+      <c r="B8" s="412" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="415"/>
-      <c r="D8" s="415"/>
-      <c r="E8" s="415"/>
-      <c r="F8" s="415"/>
-      <c r="G8" s="415"/>
-      <c r="H8" s="415"/>
-      <c r="I8" s="415"/>
-      <c r="J8" s="415"/>
-      <c r="K8" s="415"/>
-      <c r="L8" s="416"/>
+      <c r="C8" s="413"/>
+      <c r="D8" s="413"/>
+      <c r="E8" s="413"/>
+      <c r="F8" s="413"/>
+      <c r="G8" s="413"/>
+      <c r="H8" s="413"/>
+      <c r="I8" s="413"/>
+      <c r="J8" s="413"/>
+      <c r="K8" s="413"/>
+      <c r="L8" s="414"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="478" t="s">
+      <c r="B9" s="495" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="484"/>
-      <c r="D9" s="484" t="s">
+      <c r="C9" s="389"/>
+      <c r="D9" s="389" t="s">
         <v>410</v>
       </c>
-      <c r="E9" s="484"/>
-      <c r="F9" s="484"/>
-      <c r="G9" s="484"/>
-      <c r="H9" s="484"/>
-      <c r="I9" s="484"/>
-      <c r="J9" s="484"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="389"/>
+      <c r="I9" s="389"/>
+      <c r="J9" s="389"/>
       <c r="K9" s="217" t="s">
         <v>351</v>
       </c>
@@ -23193,14 +23732,14 @@
       <c r="B10" s="219" t="s">
         <v>352</v>
       </c>
-      <c r="C10" s="484"/>
-      <c r="D10" s="484"/>
-      <c r="E10" s="484"/>
-      <c r="F10" s="484"/>
-      <c r="G10" s="484"/>
-      <c r="H10" s="484"/>
-      <c r="I10" s="484"/>
-      <c r="J10" s="484"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="389"/>
+      <c r="I10" s="389"/>
+      <c r="J10" s="389"/>
       <c r="K10" s="217" t="s">
         <v>353</v>
       </c>
@@ -23209,225 +23748,225 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="478" t="s">
+      <c r="B11" s="495" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="484"/>
-      <c r="D11" s="484" t="s">
+      <c r="C11" s="389"/>
+      <c r="D11" s="389" t="s">
         <v>411</v>
       </c>
-      <c r="E11" s="484"/>
-      <c r="F11" s="484"/>
-      <c r="G11" s="484"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="484"/>
-      <c r="J11" s="484"/>
-      <c r="K11" s="484"/>
-      <c r="L11" s="485"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="390"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="478" t="s">
+      <c r="B12" s="495" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="479"/>
-      <c r="D12" s="479"/>
-      <c r="E12" s="484" t="s">
+      <c r="C12" s="496"/>
+      <c r="D12" s="496"/>
+      <c r="E12" s="389" t="s">
         <v>407</v>
       </c>
-      <c r="F12" s="484"/>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="484"/>
-      <c r="K12" s="484"/>
-      <c r="L12" s="485"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="390"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="219" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="253"/>
-      <c r="D13" s="472"/>
-      <c r="E13" s="472"/>
-      <c r="F13" s="472"/>
-      <c r="G13" s="472"/>
-      <c r="H13" s="472"/>
-      <c r="I13" s="472"/>
-      <c r="J13" s="472"/>
-      <c r="K13" s="472"/>
-      <c r="L13" s="473"/>
+      <c r="D13" s="497"/>
+      <c r="E13" s="497"/>
+      <c r="F13" s="497"/>
+      <c r="G13" s="497"/>
+      <c r="H13" s="497"/>
+      <c r="I13" s="497"/>
+      <c r="J13" s="497"/>
+      <c r="K13" s="497"/>
+      <c r="L13" s="498"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="414" t="s">
+      <c r="B14" s="412" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="415"/>
-      <c r="D14" s="415"/>
-      <c r="E14" s="415"/>
-      <c r="F14" s="415"/>
-      <c r="G14" s="415"/>
-      <c r="H14" s="415"/>
-      <c r="I14" s="415"/>
-      <c r="J14" s="415"/>
-      <c r="K14" s="415"/>
-      <c r="L14" s="416"/>
+      <c r="C14" s="413"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="413"/>
+      <c r="F14" s="413"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="413"/>
+      <c r="I14" s="413"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="414"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="478" t="s">
+      <c r="B15" s="495" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="479"/>
-      <c r="D15" s="479"/>
-      <c r="E15" s="484"/>
-      <c r="F15" s="484"/>
-      <c r="G15" s="484"/>
-      <c r="H15" s="484"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="484"/>
-      <c r="K15" s="484"/>
-      <c r="L15" s="485"/>
+      <c r="C15" s="496"/>
+      <c r="D15" s="496"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="390"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="220" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="484"/>
-      <c r="D16" s="484"/>
-      <c r="E16" s="484"/>
-      <c r="F16" s="484"/>
-      <c r="G16" s="484"/>
-      <c r="H16" s="484"/>
-      <c r="I16" s="484"/>
-      <c r="J16" s="484"/>
-      <c r="K16" s="484"/>
-      <c r="L16" s="485"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="389"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="389"/>
+      <c r="I16" s="389"/>
+      <c r="J16" s="389"/>
+      <c r="K16" s="389"/>
+      <c r="L16" s="390"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="220" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="484"/>
-      <c r="D17" s="484"/>
-      <c r="E17" s="484"/>
-      <c r="F17" s="484"/>
-      <c r="G17" s="484"/>
-      <c r="H17" s="484"/>
-      <c r="I17" s="484"/>
-      <c r="J17" s="484"/>
-      <c r="K17" s="484"/>
-      <c r="L17" s="485"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="390"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="220" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="484"/>
-      <c r="D18" s="484"/>
-      <c r="E18" s="484"/>
-      <c r="F18" s="484"/>
-      <c r="G18" s="484"/>
-      <c r="H18" s="484"/>
-      <c r="I18" s="484"/>
-      <c r="J18" s="484"/>
-      <c r="K18" s="484"/>
-      <c r="L18" s="485"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="389"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="389"/>
+      <c r="G18" s="389"/>
+      <c r="H18" s="389"/>
+      <c r="I18" s="389"/>
+      <c r="J18" s="389"/>
+      <c r="K18" s="389"/>
+      <c r="L18" s="390"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="414" t="s">
+      <c r="B19" s="412" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="415"/>
-      <c r="D19" s="415"/>
-      <c r="E19" s="415"/>
-      <c r="F19" s="415"/>
-      <c r="G19" s="415"/>
-      <c r="H19" s="415"/>
-      <c r="I19" s="415"/>
-      <c r="J19" s="415"/>
-      <c r="K19" s="415"/>
-      <c r="L19" s="416"/>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="F19" s="413"/>
+      <c r="G19" s="413"/>
+      <c r="H19" s="413"/>
+      <c r="I19" s="413"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="413"/>
+      <c r="L19" s="414"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="380" t="s">
+      <c r="B20" s="435" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="381"/>
-      <c r="D20" s="381"/>
-      <c r="E20" s="381"/>
-      <c r="F20" s="381"/>
-      <c r="G20" s="381"/>
-      <c r="H20" s="381"/>
-      <c r="I20" s="381"/>
-      <c r="J20" s="381"/>
-      <c r="K20" s="381"/>
-      <c r="L20" s="382"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="436"/>
+      <c r="L20" s="437"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="474" t="s">
+      <c r="B21" s="491" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="463"/>
-      <c r="D21" s="464"/>
-      <c r="E21" s="452" t="s">
+      <c r="C21" s="476"/>
+      <c r="D21" s="477"/>
+      <c r="E21" s="461" t="s">
         <v>363</v>
       </c>
-      <c r="F21" s="453"/>
-      <c r="G21" s="453"/>
-      <c r="H21" s="453"/>
-      <c r="I21" s="453"/>
-      <c r="J21" s="453"/>
-      <c r="K21" s="454"/>
-      <c r="L21" s="475" t="s">
+      <c r="F21" s="462"/>
+      <c r="G21" s="462"/>
+      <c r="H21" s="462"/>
+      <c r="I21" s="462"/>
+      <c r="J21" s="462"/>
+      <c r="K21" s="463"/>
+      <c r="L21" s="492" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="474"/>
-      <c r="C22" s="463"/>
-      <c r="D22" s="464"/>
-      <c r="E22" s="455"/>
-      <c r="F22" s="456"/>
-      <c r="G22" s="456"/>
-      <c r="H22" s="456"/>
-      <c r="I22" s="456"/>
-      <c r="J22" s="456"/>
-      <c r="K22" s="457"/>
-      <c r="L22" s="476"/>
+      <c r="B22" s="491"/>
+      <c r="C22" s="476"/>
+      <c r="D22" s="477"/>
+      <c r="E22" s="464"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="465"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="465"/>
+      <c r="J22" s="465"/>
+      <c r="K22" s="466"/>
+      <c r="L22" s="493"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="471" t="s">
+      <c r="B23" s="391" t="s">
         <v>405</v>
       </c>
-      <c r="C23" s="384"/>
-      <c r="D23" s="467"/>
-      <c r="E23" s="477" t="s">
+      <c r="C23" s="392"/>
+      <c r="D23" s="393"/>
+      <c r="E23" s="494" t="s">
         <v>420</v>
       </c>
-      <c r="F23" s="469"/>
-      <c r="G23" s="469"/>
-      <c r="H23" s="469"/>
-      <c r="I23" s="469"/>
-      <c r="J23" s="469"/>
-      <c r="K23" s="467"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="487"/>
+      <c r="H23" s="487"/>
+      <c r="I23" s="487"/>
+      <c r="J23" s="487"/>
+      <c r="K23" s="393"/>
       <c r="L23" s="221">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="417" t="s">
+      <c r="B24" s="402" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="384"/>
-      <c r="D24" s="467"/>
-      <c r="E24" s="468" t="s">
+      <c r="C24" s="392"/>
+      <c r="D24" s="393"/>
+      <c r="E24" s="486" t="s">
         <v>421</v>
       </c>
-      <c r="F24" s="469"/>
-      <c r="G24" s="469"/>
-      <c r="H24" s="469"/>
-      <c r="I24" s="469"/>
-      <c r="J24" s="469"/>
-      <c r="K24" s="467"/>
+      <c r="F24" s="487"/>
+      <c r="G24" s="487"/>
+      <c r="H24" s="487"/>
+      <c r="I24" s="487"/>
+      <c r="J24" s="487"/>
+      <c r="K24" s="393"/>
       <c r="L24" s="221">
         <v>1</v>
       </c>
@@ -23436,276 +23975,276 @@
       <c r="B25" s="223"/>
       <c r="C25" s="264"/>
       <c r="D25" s="224"/>
-      <c r="E25" s="468"/>
-      <c r="F25" s="469"/>
-      <c r="G25" s="469"/>
-      <c r="H25" s="469"/>
-      <c r="I25" s="469"/>
-      <c r="J25" s="469"/>
-      <c r="K25" s="467"/>
+      <c r="E25" s="486"/>
+      <c r="F25" s="487"/>
+      <c r="G25" s="487"/>
+      <c r="H25" s="487"/>
+      <c r="I25" s="487"/>
+      <c r="J25" s="487"/>
+      <c r="K25" s="393"/>
       <c r="L25" s="222"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="223"/>
       <c r="C26" s="264"/>
       <c r="D26" s="224"/>
-      <c r="E26" s="468"/>
-      <c r="F26" s="469"/>
-      <c r="G26" s="469"/>
-      <c r="H26" s="469"/>
-      <c r="I26" s="469"/>
-      <c r="J26" s="469"/>
-      <c r="K26" s="467"/>
+      <c r="E26" s="486"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="487"/>
+      <c r="H26" s="487"/>
+      <c r="I26" s="487"/>
+      <c r="J26" s="487"/>
+      <c r="K26" s="393"/>
       <c r="L26" s="222"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="434" t="s">
+      <c r="B27" s="450" t="s">
         <v>365</v>
       </c>
-      <c r="C27" s="470"/>
-      <c r="D27" s="470"/>
-      <c r="E27" s="470"/>
-      <c r="F27" s="470"/>
-      <c r="G27" s="470"/>
-      <c r="H27" s="470"/>
-      <c r="I27" s="470"/>
-      <c r="J27" s="470"/>
-      <c r="K27" s="436"/>
+      <c r="C27" s="488"/>
+      <c r="D27" s="488"/>
+      <c r="E27" s="488"/>
+      <c r="F27" s="488"/>
+      <c r="G27" s="488"/>
+      <c r="H27" s="488"/>
+      <c r="I27" s="488"/>
+      <c r="J27" s="488"/>
+      <c r="K27" s="452"/>
       <c r="L27" s="225">
         <f>SUM(L23:L26)</f>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="380" t="s">
+      <c r="B28" s="435" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="381"/>
-      <c r="D28" s="381"/>
-      <c r="E28" s="381"/>
-      <c r="F28" s="381"/>
-      <c r="G28" s="381"/>
-      <c r="H28" s="381"/>
-      <c r="I28" s="381"/>
-      <c r="J28" s="381"/>
-      <c r="K28" s="381"/>
-      <c r="L28" s="382"/>
+      <c r="C28" s="436"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="436"/>
+      <c r="F28" s="436"/>
+      <c r="G28" s="436"/>
+      <c r="H28" s="436"/>
+      <c r="I28" s="436"/>
+      <c r="J28" s="436"/>
+      <c r="K28" s="436"/>
+      <c r="L28" s="437"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="442" t="s">
+      <c r="B29" s="455" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="452" t="s">
+      <c r="C29" s="461" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="454"/>
-      <c r="E29" s="452" t="s">
+      <c r="D29" s="463"/>
+      <c r="E29" s="461" t="s">
         <v>363</v>
       </c>
-      <c r="F29" s="453"/>
-      <c r="G29" s="453"/>
-      <c r="H29" s="453"/>
-      <c r="I29" s="453"/>
-      <c r="J29" s="453"/>
-      <c r="K29" s="454"/>
-      <c r="L29" s="465" t="s">
+      <c r="F29" s="462"/>
+      <c r="G29" s="462"/>
+      <c r="H29" s="462"/>
+      <c r="I29" s="462"/>
+      <c r="J29" s="462"/>
+      <c r="K29" s="463"/>
+      <c r="L29" s="489" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="443"/>
-      <c r="C30" s="455"/>
-      <c r="D30" s="457"/>
-      <c r="E30" s="455"/>
-      <c r="F30" s="456"/>
-      <c r="G30" s="456"/>
-      <c r="H30" s="456"/>
-      <c r="I30" s="456"/>
-      <c r="J30" s="456"/>
-      <c r="K30" s="457"/>
-      <c r="L30" s="466"/>
+      <c r="B30" s="456"/>
+      <c r="C30" s="464"/>
+      <c r="D30" s="466"/>
+      <c r="E30" s="464"/>
+      <c r="F30" s="465"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="465"/>
+      <c r="I30" s="465"/>
+      <c r="J30" s="465"/>
+      <c r="K30" s="466"/>
+      <c r="L30" s="490"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="226"/>
-      <c r="C31" s="458"/>
-      <c r="D31" s="459"/>
-      <c r="E31" s="460"/>
-      <c r="F31" s="461"/>
-      <c r="G31" s="461"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="461"/>
-      <c r="J31" s="461"/>
-      <c r="K31" s="392"/>
+      <c r="C31" s="473"/>
+      <c r="D31" s="474"/>
+      <c r="E31" s="484"/>
+      <c r="F31" s="485"/>
+      <c r="G31" s="485"/>
+      <c r="H31" s="485"/>
+      <c r="I31" s="485"/>
+      <c r="J31" s="485"/>
+      <c r="K31" s="448"/>
       <c r="L31" s="227"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="226"/>
-      <c r="C32" s="458"/>
-      <c r="D32" s="459"/>
-      <c r="E32" s="460"/>
-      <c r="F32" s="461"/>
-      <c r="G32" s="461"/>
-      <c r="H32" s="461"/>
-      <c r="I32" s="461"/>
-      <c r="J32" s="461"/>
-      <c r="K32" s="392"/>
+      <c r="C32" s="473"/>
+      <c r="D32" s="474"/>
+      <c r="E32" s="484"/>
+      <c r="F32" s="485"/>
+      <c r="G32" s="485"/>
+      <c r="H32" s="485"/>
+      <c r="I32" s="485"/>
+      <c r="J32" s="485"/>
+      <c r="K32" s="448"/>
       <c r="L32" s="227"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="226"/>
-      <c r="C33" s="458"/>
-      <c r="D33" s="459"/>
-      <c r="E33" s="462"/>
-      <c r="F33" s="463"/>
-      <c r="G33" s="463"/>
-      <c r="H33" s="463"/>
-      <c r="I33" s="463"/>
-      <c r="J33" s="463"/>
-      <c r="K33" s="464"/>
+      <c r="C33" s="473"/>
+      <c r="D33" s="474"/>
+      <c r="E33" s="475"/>
+      <c r="F33" s="476"/>
+      <c r="G33" s="476"/>
+      <c r="H33" s="476"/>
+      <c r="I33" s="476"/>
+      <c r="J33" s="476"/>
+      <c r="K33" s="477"/>
       <c r="L33" s="227"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="226"/>
-      <c r="C34" s="458"/>
-      <c r="D34" s="459"/>
-      <c r="E34" s="462"/>
-      <c r="F34" s="463"/>
-      <c r="G34" s="463"/>
-      <c r="H34" s="463"/>
-      <c r="I34" s="463"/>
-      <c r="J34" s="463"/>
-      <c r="K34" s="464"/>
+      <c r="C34" s="473"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="475"/>
+      <c r="F34" s="476"/>
+      <c r="G34" s="476"/>
+      <c r="H34" s="476"/>
+      <c r="I34" s="476"/>
+      <c r="J34" s="476"/>
+      <c r="K34" s="477"/>
       <c r="L34" s="227"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="226"/>
-      <c r="C35" s="458"/>
-      <c r="D35" s="459"/>
-      <c r="E35" s="462"/>
-      <c r="F35" s="463"/>
-      <c r="G35" s="463"/>
-      <c r="H35" s="463"/>
-      <c r="I35" s="463"/>
-      <c r="J35" s="463"/>
-      <c r="K35" s="464"/>
+      <c r="C35" s="473"/>
+      <c r="D35" s="474"/>
+      <c r="E35" s="475"/>
+      <c r="F35" s="476"/>
+      <c r="G35" s="476"/>
+      <c r="H35" s="476"/>
+      <c r="I35" s="476"/>
+      <c r="J35" s="476"/>
+      <c r="K35" s="477"/>
       <c r="L35" s="227"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="396" t="s">
+      <c r="B36" s="478" t="s">
         <v>365</v>
       </c>
-      <c r="C36" s="397"/>
-      <c r="D36" s="397"/>
-      <c r="E36" s="397"/>
-      <c r="F36" s="397"/>
-      <c r="G36" s="397"/>
-      <c r="H36" s="397"/>
-      <c r="I36" s="397"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="398"/>
+      <c r="C36" s="479"/>
+      <c r="D36" s="479"/>
+      <c r="E36" s="479"/>
+      <c r="F36" s="479"/>
+      <c r="G36" s="479"/>
+      <c r="H36" s="479"/>
+      <c r="I36" s="479"/>
+      <c r="J36" s="479"/>
+      <c r="K36" s="480"/>
       <c r="L36" s="228">
         <f>SUM(L31:L35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="399" t="s">
+      <c r="B37" s="481" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="400"/>
-      <c r="D37" s="400"/>
-      <c r="E37" s="400"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="400"/>
-      <c r="H37" s="400"/>
-      <c r="I37" s="400"/>
-      <c r="J37" s="400"/>
-      <c r="K37" s="401"/>
+      <c r="C37" s="482"/>
+      <c r="D37" s="482"/>
+      <c r="E37" s="482"/>
+      <c r="F37" s="482"/>
+      <c r="G37" s="482"/>
+      <c r="H37" s="482"/>
+      <c r="I37" s="482"/>
+      <c r="J37" s="482"/>
+      <c r="K37" s="483"/>
       <c r="L37" s="229">
         <f>L36+L27</f>
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="414" t="s">
+      <c r="B38" s="412" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="415"/>
-      <c r="D38" s="415"/>
-      <c r="E38" s="415"/>
-      <c r="F38" s="415"/>
-      <c r="G38" s="415"/>
-      <c r="H38" s="415"/>
-      <c r="I38" s="415"/>
-      <c r="J38" s="415"/>
-      <c r="K38" s="415"/>
-      <c r="L38" s="416"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="413"/>
+      <c r="E38" s="413"/>
+      <c r="F38" s="413"/>
+      <c r="G38" s="413"/>
+      <c r="H38" s="413"/>
+      <c r="I38" s="413"/>
+      <c r="J38" s="413"/>
+      <c r="K38" s="413"/>
+      <c r="L38" s="414"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="435" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="381"/>
-      <c r="D39" s="381"/>
-      <c r="E39" s="381"/>
-      <c r="F39" s="381"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="381"/>
-      <c r="I39" s="381"/>
-      <c r="J39" s="380" t="s">
+      <c r="C39" s="436"/>
+      <c r="D39" s="436"/>
+      <c r="E39" s="436"/>
+      <c r="F39" s="436"/>
+      <c r="G39" s="436"/>
+      <c r="H39" s="436"/>
+      <c r="I39" s="436"/>
+      <c r="J39" s="435" t="s">
         <v>369</v>
       </c>
-      <c r="K39" s="381"/>
-      <c r="L39" s="382"/>
+      <c r="K39" s="436"/>
+      <c r="L39" s="437"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="442" t="s">
+      <c r="B40" s="455" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="448" t="s">
+      <c r="C40" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="449"/>
-      <c r="E40" s="452" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="453"/>
-      <c r="G40" s="453"/>
-      <c r="H40" s="454"/>
-      <c r="I40" s="432" t="s">
+      <c r="D40" s="458"/>
+      <c r="E40" s="461" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="462"/>
+      <c r="G40" s="462"/>
+      <c r="H40" s="463"/>
+      <c r="I40" s="467" t="s">
         <v>364</v>
       </c>
-      <c r="J40" s="444" t="s">
+      <c r="J40" s="469" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="446" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="432" t="s">
+      <c r="K40" s="471" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="467" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="443"/>
-      <c r="C41" s="450"/>
-      <c r="D41" s="451"/>
-      <c r="E41" s="455"/>
-      <c r="F41" s="456"/>
-      <c r="G41" s="456"/>
-      <c r="H41" s="457"/>
-      <c r="I41" s="433"/>
-      <c r="J41" s="445"/>
-      <c r="K41" s="447"/>
-      <c r="L41" s="433"/>
+      <c r="B41" s="456"/>
+      <c r="C41" s="459"/>
+      <c r="D41" s="460"/>
+      <c r="E41" s="464"/>
+      <c r="F41" s="465"/>
+      <c r="G41" s="465"/>
+      <c r="H41" s="466"/>
+      <c r="I41" s="468"/>
+      <c r="J41" s="470"/>
+      <c r="K41" s="472"/>
+      <c r="L41" s="468"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="230"/>
-      <c r="C42" s="390"/>
-      <c r="D42" s="392"/>
-      <c r="E42" s="390"/>
-      <c r="F42" s="391"/>
-      <c r="G42" s="391"/>
-      <c r="H42" s="392"/>
+      <c r="C42" s="447"/>
+      <c r="D42" s="448"/>
+      <c r="E42" s="447"/>
+      <c r="F42" s="449"/>
+      <c r="G42" s="449"/>
+      <c r="H42" s="448"/>
       <c r="I42" s="232"/>
       <c r="J42" s="233"/>
       <c r="K42" s="234"/>
@@ -23713,12 +24252,12 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="230"/>
-      <c r="C43" s="390"/>
-      <c r="D43" s="392"/>
-      <c r="E43" s="390"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="391"/>
-      <c r="H43" s="392"/>
+      <c r="C43" s="447"/>
+      <c r="D43" s="448"/>
+      <c r="E43" s="447"/>
+      <c r="F43" s="449"/>
+      <c r="G43" s="449"/>
+      <c r="H43" s="448"/>
       <c r="I43" s="235"/>
       <c r="J43" s="236"/>
       <c r="K43" s="237"/>
@@ -23726,97 +24265,97 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="230"/>
-      <c r="C44" s="390"/>
-      <c r="D44" s="392"/>
-      <c r="E44" s="390"/>
-      <c r="F44" s="391"/>
-      <c r="G44" s="391"/>
-      <c r="H44" s="392"/>
+      <c r="C44" s="447"/>
+      <c r="D44" s="448"/>
+      <c r="E44" s="447"/>
+      <c r="F44" s="449"/>
+      <c r="G44" s="449"/>
+      <c r="H44" s="448"/>
       <c r="I44" s="240"/>
       <c r="J44" s="231"/>
       <c r="K44" s="239"/>
       <c r="L44" s="221"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="434" t="s">
+      <c r="B45" s="450" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="435"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="435"/>
-      <c r="F45" s="435"/>
-      <c r="G45" s="435"/>
-      <c r="H45" s="436"/>
+      <c r="C45" s="451"/>
+      <c r="D45" s="451"/>
+      <c r="E45" s="451"/>
+      <c r="F45" s="451"/>
+      <c r="G45" s="451"/>
+      <c r="H45" s="452"/>
       <c r="I45" s="256">
         <f>SUM(I42:I44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="437" t="s">
+      <c r="J45" s="453" t="s">
         <v>371</v>
       </c>
-      <c r="K45" s="438"/>
+      <c r="K45" s="454"/>
       <c r="L45" s="241">
         <f>SUM(L42:L44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="434" t="s">
+      <c r="B46" s="450" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="435"/>
-      <c r="D46" s="435"/>
-      <c r="E46" s="435"/>
-      <c r="F46" s="435"/>
-      <c r="G46" s="435"/>
-      <c r="H46" s="435"/>
-      <c r="I46" s="435"/>
-      <c r="J46" s="435"/>
-      <c r="K46" s="436"/>
+      <c r="C46" s="451"/>
+      <c r="D46" s="451"/>
+      <c r="E46" s="451"/>
+      <c r="F46" s="451"/>
+      <c r="G46" s="451"/>
+      <c r="H46" s="451"/>
+      <c r="I46" s="451"/>
+      <c r="J46" s="451"/>
+      <c r="K46" s="452"/>
       <c r="L46" s="241">
         <f>L45+I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="414" t="s">
+      <c r="B47" s="412" t="s">
         <v>393</v>
       </c>
-      <c r="C47" s="415"/>
-      <c r="D47" s="415"/>
-      <c r="E47" s="415"/>
-      <c r="F47" s="415"/>
-      <c r="G47" s="415"/>
-      <c r="H47" s="415"/>
-      <c r="I47" s="415"/>
-      <c r="J47" s="415"/>
-      <c r="K47" s="415"/>
-      <c r="L47" s="416"/>
+      <c r="C47" s="413"/>
+      <c r="D47" s="413"/>
+      <c r="E47" s="413"/>
+      <c r="F47" s="413"/>
+      <c r="G47" s="413"/>
+      <c r="H47" s="413"/>
+      <c r="I47" s="413"/>
+      <c r="J47" s="413"/>
+      <c r="K47" s="413"/>
+      <c r="L47" s="414"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="380" t="s">
+      <c r="B48" s="435" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="381"/>
-      <c r="D48" s="382"/>
-      <c r="E48" s="381" t="s">
+      <c r="C48" s="436"/>
+      <c r="D48" s="437"/>
+      <c r="E48" s="436" t="s">
         <v>399</v>
       </c>
-      <c r="F48" s="381"/>
-      <c r="G48" s="371" t="s">
+      <c r="F48" s="436"/>
+      <c r="G48" s="438" t="s">
         <v>394</v>
       </c>
-      <c r="H48" s="372"/>
-      <c r="I48" s="372"/>
-      <c r="J48" s="372"/>
-      <c r="K48" s="372"/>
-      <c r="L48" s="373"/>
+      <c r="H48" s="439"/>
+      <c r="I48" s="439"/>
+      <c r="J48" s="439"/>
+      <c r="K48" s="439"/>
+      <c r="L48" s="440"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="378" t="s">
+      <c r="B49" s="441" t="s">
         <v>398</v>
       </c>
-      <c r="C49" s="379"/>
+      <c r="C49" s="442"/>
       <c r="D49" s="269" t="s">
         <v>395</v>
       </c>
@@ -23834,64 +24373,64 @@
       <c r="L49" s="261"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="491"/>
-      <c r="C50" s="491"/>
-      <c r="D50" s="374"/>
+      <c r="B50" s="342"/>
+      <c r="C50" s="342"/>
+      <c r="D50" s="443"/>
       <c r="E50" s="274"/>
-      <c r="F50" s="376"/>
-      <c r="G50" s="371"/>
-      <c r="H50" s="372"/>
-      <c r="I50" s="372"/>
-      <c r="J50" s="372"/>
-      <c r="K50" s="372"/>
-      <c r="L50" s="373"/>
+      <c r="F50" s="445"/>
+      <c r="G50" s="438"/>
+      <c r="H50" s="439"/>
+      <c r="I50" s="439"/>
+      <c r="J50" s="439"/>
+      <c r="K50" s="439"/>
+      <c r="L50" s="440"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="491"/>
-      <c r="C51" s="491"/>
-      <c r="D51" s="375"/>
+      <c r="B51" s="342"/>
+      <c r="C51" s="342"/>
+      <c r="D51" s="444"/>
       <c r="E51" s="274"/>
-      <c r="F51" s="377"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="372"/>
-      <c r="I51" s="372"/>
-      <c r="J51" s="372"/>
-      <c r="K51" s="372"/>
-      <c r="L51" s="373"/>
+      <c r="F51" s="446"/>
+      <c r="G51" s="438"/>
+      <c r="H51" s="439"/>
+      <c r="I51" s="439"/>
+      <c r="J51" s="439"/>
+      <c r="K51" s="439"/>
+      <c r="L51" s="440"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="393" t="s">
+      <c r="B52" s="415" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="394"/>
-      <c r="D52" s="394"/>
-      <c r="E52" s="394"/>
-      <c r="F52" s="394"/>
-      <c r="G52" s="394"/>
-      <c r="H52" s="394"/>
-      <c r="I52" s="394"/>
-      <c r="J52" s="394"/>
-      <c r="K52" s="394"/>
-      <c r="L52" s="395"/>
+      <c r="C52" s="416"/>
+      <c r="D52" s="416"/>
+      <c r="E52" s="416"/>
+      <c r="F52" s="416"/>
+      <c r="G52" s="416"/>
+      <c r="H52" s="416"/>
+      <c r="I52" s="416"/>
+      <c r="J52" s="416"/>
+      <c r="K52" s="416"/>
+      <c r="L52" s="417"/>
     </row>
     <row r="53" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B53" s="267" t="s">
         <v>373</v>
       </c>
-      <c r="C53" s="439" t="s">
+      <c r="C53" s="418" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="440"/>
-      <c r="E53" s="441"/>
-      <c r="F53" s="439" t="s">
+      <c r="D53" s="419"/>
+      <c r="E53" s="420"/>
+      <c r="F53" s="418" t="s">
         <v>375</v>
       </c>
-      <c r="G53" s="440"/>
-      <c r="H53" s="441"/>
-      <c r="I53" s="439" t="s">
+      <c r="G53" s="419"/>
+      <c r="H53" s="420"/>
+      <c r="I53" s="418" t="s">
         <v>376</v>
       </c>
-      <c r="J53" s="441"/>
+      <c r="J53" s="420"/>
       <c r="K53" s="242" t="s">
         <v>377</v>
       </c>
@@ -23903,16 +24442,16 @@
       <c r="B54" s="244" t="s">
         <v>379</v>
       </c>
-      <c r="C54" s="387" t="s">
+      <c r="C54" s="421" t="s">
         <v>413</v>
       </c>
-      <c r="D54" s="388"/>
-      <c r="E54" s="389"/>
-      <c r="F54" s="489"/>
-      <c r="G54" s="490"/>
+      <c r="D54" s="422"/>
+      <c r="E54" s="423"/>
+      <c r="F54" s="394"/>
+      <c r="G54" s="395"/>
       <c r="H54" s="245"/>
-      <c r="I54" s="489"/>
-      <c r="J54" s="490"/>
+      <c r="I54" s="394"/>
+      <c r="J54" s="395"/>
       <c r="K54" s="270"/>
       <c r="L54" s="246"/>
     </row>
@@ -23920,16 +24459,16 @@
       <c r="B55" s="244" t="s">
         <v>380</v>
       </c>
-      <c r="C55" s="387" t="s">
+      <c r="C55" s="421" t="s">
         <v>413</v>
       </c>
-      <c r="D55" s="388"/>
-      <c r="E55" s="389"/>
-      <c r="F55" s="489"/>
-      <c r="G55" s="490"/>
+      <c r="D55" s="422"/>
+      <c r="E55" s="423"/>
+      <c r="F55" s="394"/>
+      <c r="G55" s="395"/>
       <c r="H55" s="245"/>
-      <c r="I55" s="489"/>
-      <c r="J55" s="490"/>
+      <c r="I55" s="394"/>
+      <c r="J55" s="395"/>
       <c r="K55" s="270"/>
       <c r="L55" s="246"/>
     </row>
@@ -23937,76 +24476,76 @@
       <c r="B56" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="387" t="s">
+      <c r="C56" s="421" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="388"/>
-      <c r="E56" s="389"/>
-      <c r="F56" s="489"/>
-      <c r="G56" s="490"/>
+      <c r="D56" s="422"/>
+      <c r="E56" s="423"/>
+      <c r="F56" s="394"/>
+      <c r="G56" s="395"/>
       <c r="H56" s="245"/>
-      <c r="I56" s="489"/>
-      <c r="J56" s="490"/>
+      <c r="I56" s="394"/>
+      <c r="J56" s="395"/>
       <c r="K56" s="270"/>
       <c r="L56" s="246"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="421" t="s">
+      <c r="B57" s="424" t="s">
         <v>382</v>
       </c>
-      <c r="C57" s="422"/>
-      <c r="D57" s="422"/>
-      <c r="E57" s="422"/>
-      <c r="F57" s="422"/>
-      <c r="G57" s="422"/>
-      <c r="H57" s="422"/>
-      <c r="I57" s="422"/>
-      <c r="J57" s="423"/>
-      <c r="K57" s="430" t="s">
+      <c r="C57" s="425"/>
+      <c r="D57" s="425"/>
+      <c r="E57" s="425"/>
+      <c r="F57" s="425"/>
+      <c r="G57" s="425"/>
+      <c r="H57" s="425"/>
+      <c r="I57" s="425"/>
+      <c r="J57" s="426"/>
+      <c r="K57" s="433" t="s">
         <v>383</v>
       </c>
-      <c r="L57" s="431"/>
+      <c r="L57" s="434"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="424"/>
-      <c r="C58" s="425"/>
-      <c r="D58" s="425"/>
-      <c r="E58" s="425"/>
-      <c r="F58" s="425"/>
-      <c r="G58" s="425"/>
-      <c r="H58" s="425"/>
-      <c r="I58" s="425"/>
-      <c r="J58" s="426"/>
+      <c r="B58" s="427"/>
+      <c r="C58" s="428"/>
+      <c r="D58" s="428"/>
+      <c r="E58" s="428"/>
+      <c r="F58" s="428"/>
+      <c r="G58" s="428"/>
+      <c r="H58" s="428"/>
+      <c r="I58" s="428"/>
+      <c r="J58" s="429"/>
       <c r="K58" s="247" t="s">
         <v>384</v>
       </c>
       <c r="L58" s="246"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="424"/>
-      <c r="C59" s="425"/>
-      <c r="D59" s="425"/>
-      <c r="E59" s="425"/>
-      <c r="F59" s="425"/>
-      <c r="G59" s="425"/>
-      <c r="H59" s="425"/>
-      <c r="I59" s="425"/>
-      <c r="J59" s="426"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="428"/>
+      <c r="D59" s="428"/>
+      <c r="E59" s="428"/>
+      <c r="F59" s="428"/>
+      <c r="G59" s="428"/>
+      <c r="H59" s="428"/>
+      <c r="I59" s="428"/>
+      <c r="J59" s="429"/>
       <c r="K59" s="247" t="s">
         <v>385</v>
       </c>
       <c r="L59" s="246"/>
     </row>
     <row r="60" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="427"/>
-      <c r="C60" s="428"/>
-      <c r="D60" s="428"/>
-      <c r="E60" s="428"/>
-      <c r="F60" s="428"/>
-      <c r="G60" s="428"/>
-      <c r="H60" s="428"/>
-      <c r="I60" s="428"/>
-      <c r="J60" s="429"/>
+      <c r="B60" s="430"/>
+      <c r="C60" s="431"/>
+      <c r="D60" s="431"/>
+      <c r="E60" s="431"/>
+      <c r="F60" s="431"/>
+      <c r="G60" s="431"/>
+      <c r="H60" s="431"/>
+      <c r="I60" s="431"/>
+      <c r="J60" s="432"/>
       <c r="K60" s="248" t="s">
         <v>386</v>
       </c>
@@ -24026,313 +24565,317 @@
       <c r="L61" s="252"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="414" t="s">
+      <c r="B63" s="412" t="s">
         <v>387</v>
       </c>
-      <c r="C63" s="415"/>
-      <c r="D63" s="415"/>
-      <c r="E63" s="415"/>
-      <c r="F63" s="415"/>
-      <c r="G63" s="415"/>
-      <c r="H63" s="415"/>
-      <c r="I63" s="415"/>
-      <c r="J63" s="415"/>
-      <c r="K63" s="415"/>
-      <c r="L63" s="416"/>
+      <c r="C63" s="413"/>
+      <c r="D63" s="413"/>
+      <c r="E63" s="413"/>
+      <c r="F63" s="413"/>
+      <c r="G63" s="413"/>
+      <c r="H63" s="413"/>
+      <c r="I63" s="413"/>
+      <c r="J63" s="413"/>
+      <c r="K63" s="413"/>
+      <c r="L63" s="414"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="318">
         <v>1</v>
       </c>
-      <c r="C64" s="386" t="s">
+      <c r="C64" s="396" t="s">
         <v>408</v>
       </c>
-      <c r="D64" s="384"/>
-      <c r="E64" s="384"/>
-      <c r="F64" s="384"/>
-      <c r="G64" s="384"/>
-      <c r="H64" s="384"/>
-      <c r="I64" s="384"/>
-      <c r="J64" s="384"/>
-      <c r="K64" s="384"/>
-      <c r="L64" s="385"/>
+      <c r="D64" s="392"/>
+      <c r="E64" s="392"/>
+      <c r="F64" s="392"/>
+      <c r="G64" s="392"/>
+      <c r="H64" s="392"/>
+      <c r="I64" s="392"/>
+      <c r="J64" s="392"/>
+      <c r="K64" s="392"/>
+      <c r="L64" s="397"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="318">
         <v>2</v>
       </c>
-      <c r="C65" s="386" t="s">
+      <c r="C65" s="396" t="s">
         <v>423</v>
       </c>
-      <c r="D65" s="384"/>
-      <c r="E65" s="384"/>
-      <c r="F65" s="384"/>
-      <c r="G65" s="384"/>
-      <c r="H65" s="384"/>
-      <c r="I65" s="384"/>
-      <c r="J65" s="384"/>
-      <c r="K65" s="384"/>
-      <c r="L65" s="385"/>
+      <c r="D65" s="392"/>
+      <c r="E65" s="392"/>
+      <c r="F65" s="392"/>
+      <c r="G65" s="392"/>
+      <c r="H65" s="392"/>
+      <c r="I65" s="392"/>
+      <c r="J65" s="392"/>
+      <c r="K65" s="392"/>
+      <c r="L65" s="397"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="414" t="s">
+      <c r="B66" s="412" t="s">
         <v>391</v>
       </c>
-      <c r="C66" s="415"/>
-      <c r="D66" s="415"/>
-      <c r="E66" s="415"/>
-      <c r="F66" s="415"/>
-      <c r="G66" s="415"/>
-      <c r="H66" s="415"/>
-      <c r="I66" s="415"/>
-      <c r="J66" s="415"/>
-      <c r="K66" s="415"/>
-      <c r="L66" s="416"/>
+      <c r="C66" s="413"/>
+      <c r="D66" s="413"/>
+      <c r="E66" s="413"/>
+      <c r="F66" s="413"/>
+      <c r="G66" s="413"/>
+      <c r="H66" s="413"/>
+      <c r="I66" s="413"/>
+      <c r="J66" s="413"/>
+      <c r="K66" s="413"/>
+      <c r="L66" s="414"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="275"/>
-      <c r="C67" s="383"/>
-      <c r="D67" s="384"/>
-      <c r="E67" s="384"/>
-      <c r="F67" s="384"/>
-      <c r="G67" s="384"/>
-      <c r="H67" s="384"/>
-      <c r="I67" s="384"/>
-      <c r="J67" s="384"/>
-      <c r="K67" s="384"/>
-      <c r="L67" s="385"/>
+      <c r="B67" s="275">
+        <v>1</v>
+      </c>
+      <c r="C67" s="398" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" s="392"/>
+      <c r="E67" s="392"/>
+      <c r="F67" s="392"/>
+      <c r="G67" s="392"/>
+      <c r="H67" s="392"/>
+      <c r="I67" s="392"/>
+      <c r="J67" s="392"/>
+      <c r="K67" s="392"/>
+      <c r="L67" s="397"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="275"/>
-      <c r="C68" s="383"/>
-      <c r="D68" s="384"/>
-      <c r="E68" s="384"/>
-      <c r="F68" s="384"/>
-      <c r="G68" s="384"/>
-      <c r="H68" s="384"/>
-      <c r="I68" s="384"/>
-      <c r="J68" s="384"/>
-      <c r="K68" s="384"/>
-      <c r="L68" s="385"/>
+      <c r="C68" s="398"/>
+      <c r="D68" s="392"/>
+      <c r="E68" s="392"/>
+      <c r="F68" s="392"/>
+      <c r="G68" s="392"/>
+      <c r="H68" s="392"/>
+      <c r="I68" s="392"/>
+      <c r="J68" s="392"/>
+      <c r="K68" s="392"/>
+      <c r="L68" s="397"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="275"/>
-      <c r="C69" s="383"/>
-      <c r="D69" s="384"/>
-      <c r="E69" s="384"/>
-      <c r="F69" s="384"/>
-      <c r="G69" s="384"/>
-      <c r="H69" s="384"/>
-      <c r="I69" s="384"/>
-      <c r="J69" s="384"/>
-      <c r="K69" s="384"/>
-      <c r="L69" s="385"/>
+      <c r="C69" s="398"/>
+      <c r="D69" s="392"/>
+      <c r="E69" s="392"/>
+      <c r="F69" s="392"/>
+      <c r="G69" s="392"/>
+      <c r="H69" s="392"/>
+      <c r="I69" s="392"/>
+      <c r="J69" s="392"/>
+      <c r="K69" s="392"/>
+      <c r="L69" s="397"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="414" t="s">
+      <c r="B70" s="412" t="s">
         <v>392</v>
       </c>
-      <c r="C70" s="415"/>
-      <c r="D70" s="415"/>
-      <c r="E70" s="415"/>
-      <c r="F70" s="415"/>
-      <c r="G70" s="415"/>
-      <c r="H70" s="415"/>
-      <c r="I70" s="415"/>
-      <c r="J70" s="415"/>
-      <c r="K70" s="415"/>
-      <c r="L70" s="416"/>
+      <c r="C70" s="413"/>
+      <c r="D70" s="413"/>
+      <c r="E70" s="413"/>
+      <c r="F70" s="413"/>
+      <c r="G70" s="413"/>
+      <c r="H70" s="413"/>
+      <c r="I70" s="413"/>
+      <c r="J70" s="413"/>
+      <c r="K70" s="413"/>
+      <c r="L70" s="414"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="275"/>
-      <c r="C71" s="383"/>
-      <c r="D71" s="384"/>
-      <c r="E71" s="384"/>
-      <c r="F71" s="384"/>
-      <c r="G71" s="384"/>
-      <c r="H71" s="384"/>
-      <c r="I71" s="384"/>
-      <c r="J71" s="384"/>
-      <c r="K71" s="384"/>
-      <c r="L71" s="385"/>
+      <c r="C71" s="398"/>
+      <c r="D71" s="392"/>
+      <c r="E71" s="392"/>
+      <c r="F71" s="392"/>
+      <c r="G71" s="392"/>
+      <c r="H71" s="392"/>
+      <c r="I71" s="392"/>
+      <c r="J71" s="392"/>
+      <c r="K71" s="392"/>
+      <c r="L71" s="397"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="275"/>
-      <c r="C72" s="383"/>
-      <c r="D72" s="384"/>
-      <c r="E72" s="384"/>
-      <c r="F72" s="384"/>
-      <c r="G72" s="384"/>
-      <c r="H72" s="384"/>
-      <c r="I72" s="384"/>
-      <c r="J72" s="384"/>
-      <c r="K72" s="384"/>
-      <c r="L72" s="385"/>
+      <c r="C72" s="398"/>
+      <c r="D72" s="392"/>
+      <c r="E72" s="392"/>
+      <c r="F72" s="392"/>
+      <c r="G72" s="392"/>
+      <c r="H72" s="392"/>
+      <c r="I72" s="392"/>
+      <c r="J72" s="392"/>
+      <c r="K72" s="392"/>
+      <c r="L72" s="397"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="275"/>
-      <c r="C73" s="383"/>
-      <c r="D73" s="384"/>
-      <c r="E73" s="384"/>
-      <c r="F73" s="384"/>
-      <c r="G73" s="384"/>
-      <c r="H73" s="384"/>
-      <c r="I73" s="384"/>
-      <c r="J73" s="384"/>
-      <c r="K73" s="384"/>
-      <c r="L73" s="385"/>
+      <c r="C73" s="398"/>
+      <c r="D73" s="392"/>
+      <c r="E73" s="392"/>
+      <c r="F73" s="392"/>
+      <c r="G73" s="392"/>
+      <c r="H73" s="392"/>
+      <c r="I73" s="392"/>
+      <c r="J73" s="392"/>
+      <c r="K73" s="392"/>
+      <c r="L73" s="397"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="418" t="s">
+      <c r="B74" s="399" t="s">
         <v>388</v>
       </c>
-      <c r="C74" s="419"/>
-      <c r="D74" s="419"/>
-      <c r="E74" s="419"/>
-      <c r="F74" s="419"/>
-      <c r="G74" s="419"/>
-      <c r="H74" s="419"/>
-      <c r="I74" s="419"/>
-      <c r="J74" s="419"/>
-      <c r="K74" s="419"/>
-      <c r="L74" s="420"/>
+      <c r="C74" s="400"/>
+      <c r="D74" s="400"/>
+      <c r="E74" s="400"/>
+      <c r="F74" s="400"/>
+      <c r="G74" s="400"/>
+      <c r="H74" s="400"/>
+      <c r="I74" s="400"/>
+      <c r="J74" s="400"/>
+      <c r="K74" s="400"/>
+      <c r="L74" s="401"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="417"/>
-      <c r="C75" s="384"/>
-      <c r="D75" s="384"/>
-      <c r="E75" s="384"/>
-      <c r="F75" s="384"/>
-      <c r="G75" s="384"/>
-      <c r="H75" s="384"/>
-      <c r="I75" s="384"/>
-      <c r="J75" s="384"/>
-      <c r="K75" s="384"/>
-      <c r="L75" s="385"/>
+      <c r="B75" s="402"/>
+      <c r="C75" s="392"/>
+      <c r="D75" s="392"/>
+      <c r="E75" s="392"/>
+      <c r="F75" s="392"/>
+      <c r="G75" s="392"/>
+      <c r="H75" s="392"/>
+      <c r="I75" s="392"/>
+      <c r="J75" s="392"/>
+      <c r="K75" s="392"/>
+      <c r="L75" s="397"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="417"/>
-      <c r="C76" s="384"/>
-      <c r="D76" s="384"/>
-      <c r="E76" s="384"/>
-      <c r="F76" s="384"/>
-      <c r="G76" s="384"/>
-      <c r="H76" s="384"/>
-      <c r="I76" s="384"/>
-      <c r="J76" s="384"/>
-      <c r="K76" s="384"/>
-      <c r="L76" s="385"/>
+      <c r="B76" s="402"/>
+      <c r="C76" s="392"/>
+      <c r="D76" s="392"/>
+      <c r="E76" s="392"/>
+      <c r="F76" s="392"/>
+      <c r="G76" s="392"/>
+      <c r="H76" s="392"/>
+      <c r="I76" s="392"/>
+      <c r="J76" s="392"/>
+      <c r="K76" s="392"/>
+      <c r="L76" s="397"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="417"/>
-      <c r="C77" s="384"/>
-      <c r="D77" s="384"/>
-      <c r="E77" s="384"/>
-      <c r="F77" s="384"/>
-      <c r="G77" s="384"/>
-      <c r="H77" s="384"/>
-      <c r="I77" s="384"/>
-      <c r="J77" s="384"/>
-      <c r="K77" s="384"/>
-      <c r="L77" s="385"/>
+      <c r="B77" s="402"/>
+      <c r="C77" s="392"/>
+      <c r="D77" s="392"/>
+      <c r="E77" s="392"/>
+      <c r="F77" s="392"/>
+      <c r="G77" s="392"/>
+      <c r="H77" s="392"/>
+      <c r="I77" s="392"/>
+      <c r="J77" s="392"/>
+      <c r="K77" s="392"/>
+      <c r="L77" s="397"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="417"/>
-      <c r="C78" s="384"/>
-      <c r="D78" s="384"/>
-      <c r="E78" s="384"/>
-      <c r="F78" s="384"/>
-      <c r="G78" s="384"/>
-      <c r="H78" s="384"/>
-      <c r="I78" s="384"/>
-      <c r="J78" s="384"/>
-      <c r="K78" s="384"/>
-      <c r="L78" s="385"/>
+      <c r="B78" s="402"/>
+      <c r="C78" s="392"/>
+      <c r="D78" s="392"/>
+      <c r="E78" s="392"/>
+      <c r="F78" s="392"/>
+      <c r="G78" s="392"/>
+      <c r="H78" s="392"/>
+      <c r="I78" s="392"/>
+      <c r="J78" s="392"/>
+      <c r="K78" s="392"/>
+      <c r="L78" s="397"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="402"/>
-      <c r="C79" s="403"/>
-      <c r="D79" s="403"/>
-      <c r="E79" s="403"/>
-      <c r="F79" s="403"/>
+      <c r="B79" s="403"/>
+      <c r="C79" s="404"/>
+      <c r="D79" s="404"/>
+      <c r="E79" s="404"/>
+      <c r="F79" s="404"/>
       <c r="G79" s="254"/>
-      <c r="H79" s="403"/>
-      <c r="I79" s="403"/>
-      <c r="J79" s="403"/>
-      <c r="K79" s="403"/>
-      <c r="L79" s="411"/>
+      <c r="H79" s="404"/>
+      <c r="I79" s="404"/>
+      <c r="J79" s="404"/>
+      <c r="K79" s="404"/>
+      <c r="L79" s="409"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="404"/>
-      <c r="C80" s="405"/>
-      <c r="D80" s="405"/>
-      <c r="E80" s="405"/>
-      <c r="F80" s="405"/>
+      <c r="B80" s="405"/>
+      <c r="C80" s="406"/>
+      <c r="D80" s="406"/>
+      <c r="E80" s="406"/>
+      <c r="F80" s="406"/>
       <c r="G80" s="255"/>
-      <c r="H80" s="405"/>
-      <c r="I80" s="405"/>
-      <c r="J80" s="405"/>
-      <c r="K80" s="405"/>
-      <c r="L80" s="412"/>
+      <c r="H80" s="406"/>
+      <c r="I80" s="406"/>
+      <c r="J80" s="406"/>
+      <c r="K80" s="406"/>
+      <c r="L80" s="410"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="404"/>
-      <c r="C81" s="405"/>
-      <c r="D81" s="405"/>
-      <c r="E81" s="405"/>
-      <c r="F81" s="405"/>
+      <c r="B81" s="405"/>
+      <c r="C81" s="406"/>
+      <c r="D81" s="406"/>
+      <c r="E81" s="406"/>
+      <c r="F81" s="406"/>
       <c r="G81" s="255"/>
-      <c r="H81" s="405"/>
-      <c r="I81" s="405"/>
-      <c r="J81" s="405"/>
-      <c r="K81" s="405"/>
-      <c r="L81" s="412"/>
+      <c r="H81" s="406"/>
+      <c r="I81" s="406"/>
+      <c r="J81" s="406"/>
+      <c r="K81" s="406"/>
+      <c r="L81" s="410"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="406"/>
-      <c r="C82" s="407"/>
-      <c r="D82" s="407"/>
-      <c r="E82" s="407"/>
-      <c r="F82" s="407"/>
+      <c r="B82" s="407"/>
+      <c r="C82" s="408"/>
+      <c r="D82" s="408"/>
+      <c r="E82" s="408"/>
+      <c r="F82" s="408"/>
       <c r="G82" s="265"/>
-      <c r="H82" s="407"/>
-      <c r="I82" s="407"/>
-      <c r="J82" s="407"/>
-      <c r="K82" s="407"/>
-      <c r="L82" s="413"/>
+      <c r="H82" s="408"/>
+      <c r="I82" s="408"/>
+      <c r="J82" s="408"/>
+      <c r="K82" s="408"/>
+      <c r="L82" s="411"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="408" t="s">
+      <c r="B83" s="386" t="s">
         <v>389</v>
       </c>
-      <c r="C83" s="409"/>
-      <c r="D83" s="409"/>
-      <c r="E83" s="409"/>
-      <c r="F83" s="409"/>
+      <c r="C83" s="387"/>
+      <c r="D83" s="387"/>
+      <c r="E83" s="387"/>
+      <c r="F83" s="387"/>
       <c r="G83" s="266"/>
-      <c r="H83" s="409" t="s">
+      <c r="H83" s="387" t="s">
         <v>390</v>
       </c>
-      <c r="I83" s="409"/>
-      <c r="J83" s="409"/>
-      <c r="K83" s="409"/>
-      <c r="L83" s="410"/>
+      <c r="I83" s="387"/>
+      <c r="J83" s="387"/>
+      <c r="K83" s="387"/>
+      <c r="L83" s="388"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="481" t="s">
+      <c r="B86" s="500" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="482"/>
-      <c r="D86" s="482"/>
-      <c r="E86" s="482"/>
-      <c r="F86" s="482"/>
-      <c r="G86" s="482"/>
-      <c r="H86" s="482"/>
-      <c r="I86" s="482"/>
-      <c r="J86" s="482"/>
-      <c r="K86" s="482"/>
-      <c r="L86" s="483"/>
+      <c r="C86" s="501"/>
+      <c r="D86" s="501"/>
+      <c r="E86" s="501"/>
+      <c r="F86" s="501"/>
+      <c r="G86" s="501"/>
+      <c r="H86" s="501"/>
+      <c r="I86" s="501"/>
+      <c r="J86" s="501"/>
+      <c r="K86" s="501"/>
+      <c r="L86" s="502"/>
     </row>
     <row r="87" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B87" s="20"/>
@@ -24372,14 +24915,14 @@
     <row r="89" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="487" t="s">
+      <c r="D89" s="503" t="s">
         <v>343</v>
       </c>
-      <c r="E89" s="487"/>
-      <c r="F89" s="487"/>
-      <c r="G89" s="487"/>
-      <c r="H89" s="487"/>
-      <c r="I89" s="487"/>
+      <c r="E89" s="503"/>
+      <c r="F89" s="503"/>
+      <c r="G89" s="503"/>
+      <c r="H89" s="503"/>
+      <c r="I89" s="503"/>
       <c r="J89" s="213"/>
       <c r="K89" s="212" t="s">
         <v>344</v>
@@ -24392,14 +24935,14 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="486" t="s">
+      <c r="D90" s="504" t="s">
         <v>345</v>
       </c>
-      <c r="E90" s="486"/>
-      <c r="F90" s="486"/>
-      <c r="G90" s="486"/>
-      <c r="H90" s="486"/>
-      <c r="I90" s="486"/>
+      <c r="E90" s="504"/>
+      <c r="F90" s="504"/>
+      <c r="G90" s="504"/>
+      <c r="H90" s="504"/>
+      <c r="I90" s="504"/>
       <c r="J90" s="214"/>
       <c r="K90" s="212" t="s">
         <v>346</v>
@@ -24412,14 +24955,14 @@
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="488" t="s">
+      <c r="D91" s="505" t="s">
         <v>347</v>
       </c>
-      <c r="E91" s="488"/>
-      <c r="F91" s="488"/>
-      <c r="G91" s="488"/>
-      <c r="H91" s="488"/>
-      <c r="I91" s="488"/>
+      <c r="E91" s="505"/>
+      <c r="F91" s="505"/>
+      <c r="G91" s="505"/>
+      <c r="H91" s="505"/>
+      <c r="I91" s="505"/>
       <c r="J91" s="215"/>
       <c r="K91" s="212" t="s">
         <v>348</v>
@@ -24430,34 +24973,34 @@
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="414" t="s">
+      <c r="B92" s="412" t="s">
         <v>349</v>
       </c>
-      <c r="C92" s="415"/>
-      <c r="D92" s="415"/>
-      <c r="E92" s="415"/>
-      <c r="F92" s="415"/>
-      <c r="G92" s="415"/>
-      <c r="H92" s="415"/>
-      <c r="I92" s="415"/>
-      <c r="J92" s="415"/>
-      <c r="K92" s="415"/>
-      <c r="L92" s="416"/>
+      <c r="C92" s="413"/>
+      <c r="D92" s="413"/>
+      <c r="E92" s="413"/>
+      <c r="F92" s="413"/>
+      <c r="G92" s="413"/>
+      <c r="H92" s="413"/>
+      <c r="I92" s="413"/>
+      <c r="J92" s="413"/>
+      <c r="K92" s="413"/>
+      <c r="L92" s="414"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="478" t="s">
+      <c r="B93" s="495" t="s">
         <v>350</v>
       </c>
-      <c r="C93" s="484"/>
-      <c r="D93" s="484" t="s">
+      <c r="C93" s="389"/>
+      <c r="D93" s="389" t="s">
         <v>410</v>
       </c>
-      <c r="E93" s="484"/>
-      <c r="F93" s="484"/>
-      <c r="G93" s="484"/>
-      <c r="H93" s="484"/>
-      <c r="I93" s="484"/>
-      <c r="J93" s="484"/>
+      <c r="E93" s="389"/>
+      <c r="F93" s="389"/>
+      <c r="G93" s="389"/>
+      <c r="H93" s="389"/>
+      <c r="I93" s="389"/>
+      <c r="J93" s="389"/>
       <c r="K93" s="217" t="s">
         <v>351</v>
       </c>
@@ -24469,14 +25012,14 @@
       <c r="B94" s="301" t="s">
         <v>352</v>
       </c>
-      <c r="C94" s="484"/>
-      <c r="D94" s="484"/>
-      <c r="E94" s="484"/>
-      <c r="F94" s="484"/>
-      <c r="G94" s="484"/>
-      <c r="H94" s="484"/>
-      <c r="I94" s="484"/>
-      <c r="J94" s="484"/>
+      <c r="C94" s="389"/>
+      <c r="D94" s="389"/>
+      <c r="E94" s="389"/>
+      <c r="F94" s="389"/>
+      <c r="G94" s="389"/>
+      <c r="H94" s="389"/>
+      <c r="I94" s="389"/>
+      <c r="J94" s="389"/>
       <c r="K94" s="217" t="s">
         <v>353</v>
       </c>
@@ -24485,529 +25028,529 @@
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="478" t="s">
+      <c r="B95" s="495" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="484"/>
-      <c r="D95" s="484" t="s">
+      <c r="C95" s="389"/>
+      <c r="D95" s="389" t="s">
         <v>411</v>
       </c>
-      <c r="E95" s="484"/>
-      <c r="F95" s="484"/>
-      <c r="G95" s="484"/>
-      <c r="H95" s="484"/>
-      <c r="I95" s="484"/>
-      <c r="J95" s="484"/>
-      <c r="K95" s="484"/>
-      <c r="L95" s="485"/>
+      <c r="E95" s="389"/>
+      <c r="F95" s="389"/>
+      <c r="G95" s="389"/>
+      <c r="H95" s="389"/>
+      <c r="I95" s="389"/>
+      <c r="J95" s="389"/>
+      <c r="K95" s="389"/>
+      <c r="L95" s="390"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="478" t="s">
+      <c r="B96" s="495" t="s">
         <v>355</v>
       </c>
-      <c r="C96" s="479"/>
-      <c r="D96" s="479"/>
-      <c r="E96" s="484" t="s">
+      <c r="C96" s="496"/>
+      <c r="D96" s="496"/>
+      <c r="E96" s="389" t="s">
         <v>407</v>
       </c>
-      <c r="F96" s="484"/>
-      <c r="G96" s="484"/>
-      <c r="H96" s="484"/>
-      <c r="I96" s="484"/>
-      <c r="J96" s="484"/>
-      <c r="K96" s="484"/>
-      <c r="L96" s="485"/>
+      <c r="F96" s="389"/>
+      <c r="G96" s="389"/>
+      <c r="H96" s="389"/>
+      <c r="I96" s="389"/>
+      <c r="J96" s="389"/>
+      <c r="K96" s="389"/>
+      <c r="L96" s="390"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="301" t="s">
         <v>356</v>
       </c>
       <c r="C97" s="302"/>
-      <c r="D97" s="472"/>
-      <c r="E97" s="472"/>
-      <c r="F97" s="472"/>
-      <c r="G97" s="472"/>
-      <c r="H97" s="472"/>
-      <c r="I97" s="472"/>
-      <c r="J97" s="472"/>
-      <c r="K97" s="472"/>
-      <c r="L97" s="473"/>
+      <c r="D97" s="497"/>
+      <c r="E97" s="497"/>
+      <c r="F97" s="497"/>
+      <c r="G97" s="497"/>
+      <c r="H97" s="497"/>
+      <c r="I97" s="497"/>
+      <c r="J97" s="497"/>
+      <c r="K97" s="497"/>
+      <c r="L97" s="498"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="414" t="s">
+      <c r="B98" s="412" t="s">
         <v>357</v>
       </c>
-      <c r="C98" s="415"/>
-      <c r="D98" s="415"/>
-      <c r="E98" s="415"/>
-      <c r="F98" s="415"/>
-      <c r="G98" s="415"/>
-      <c r="H98" s="415"/>
-      <c r="I98" s="415"/>
-      <c r="J98" s="415"/>
-      <c r="K98" s="415"/>
-      <c r="L98" s="416"/>
+      <c r="C98" s="413"/>
+      <c r="D98" s="413"/>
+      <c r="E98" s="413"/>
+      <c r="F98" s="413"/>
+      <c r="G98" s="413"/>
+      <c r="H98" s="413"/>
+      <c r="I98" s="413"/>
+      <c r="J98" s="413"/>
+      <c r="K98" s="413"/>
+      <c r="L98" s="414"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="478" t="s">
+      <c r="B99" s="495" t="s">
         <v>358</v>
       </c>
-      <c r="C99" s="479"/>
-      <c r="D99" s="479"/>
+      <c r="C99" s="496"/>
+      <c r="D99" s="496"/>
       <c r="E99" s="302"/>
-      <c r="F99" s="480"/>
-      <c r="G99" s="480"/>
-      <c r="H99" s="480"/>
-      <c r="I99" s="480"/>
-      <c r="J99" s="480"/>
-      <c r="K99" s="480"/>
-      <c r="L99" s="431"/>
+      <c r="F99" s="499"/>
+      <c r="G99" s="499"/>
+      <c r="H99" s="499"/>
+      <c r="I99" s="499"/>
+      <c r="J99" s="499"/>
+      <c r="K99" s="499"/>
+      <c r="L99" s="434"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="220" t="s">
         <v>321</v>
       </c>
       <c r="C100" s="216"/>
-      <c r="D100" s="472"/>
-      <c r="E100" s="472"/>
-      <c r="F100" s="472"/>
-      <c r="G100" s="472"/>
-      <c r="H100" s="472"/>
-      <c r="I100" s="472"/>
-      <c r="J100" s="472"/>
-      <c r="K100" s="472"/>
-      <c r="L100" s="473"/>
+      <c r="D100" s="497"/>
+      <c r="E100" s="497"/>
+      <c r="F100" s="497"/>
+      <c r="G100" s="497"/>
+      <c r="H100" s="497"/>
+      <c r="I100" s="497"/>
+      <c r="J100" s="497"/>
+      <c r="K100" s="497"/>
+      <c r="L100" s="498"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="220" t="s">
         <v>356</v>
       </c>
       <c r="C101" s="216"/>
-      <c r="D101" s="472"/>
-      <c r="E101" s="472"/>
-      <c r="F101" s="472"/>
-      <c r="G101" s="472"/>
-      <c r="H101" s="472"/>
-      <c r="I101" s="472"/>
-      <c r="J101" s="472"/>
-      <c r="K101" s="472"/>
-      <c r="L101" s="473"/>
+      <c r="D101" s="497"/>
+      <c r="E101" s="497"/>
+      <c r="F101" s="497"/>
+      <c r="G101" s="497"/>
+      <c r="H101" s="497"/>
+      <c r="I101" s="497"/>
+      <c r="J101" s="497"/>
+      <c r="K101" s="497"/>
+      <c r="L101" s="498"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="220" t="s">
         <v>359</v>
       </c>
       <c r="C102" s="216"/>
-      <c r="D102" s="472"/>
-      <c r="E102" s="472"/>
-      <c r="F102" s="472"/>
-      <c r="G102" s="472"/>
-      <c r="H102" s="472"/>
-      <c r="I102" s="472"/>
-      <c r="J102" s="472"/>
-      <c r="K102" s="472"/>
-      <c r="L102" s="473"/>
+      <c r="D102" s="497"/>
+      <c r="E102" s="497"/>
+      <c r="F102" s="497"/>
+      <c r="G102" s="497"/>
+      <c r="H102" s="497"/>
+      <c r="I102" s="497"/>
+      <c r="J102" s="497"/>
+      <c r="K102" s="497"/>
+      <c r="L102" s="498"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="414" t="s">
+      <c r="B103" s="412" t="s">
         <v>360</v>
       </c>
-      <c r="C103" s="415"/>
-      <c r="D103" s="415"/>
-      <c r="E103" s="415"/>
-      <c r="F103" s="415"/>
-      <c r="G103" s="415"/>
-      <c r="H103" s="415"/>
-      <c r="I103" s="415"/>
-      <c r="J103" s="415"/>
-      <c r="K103" s="415"/>
-      <c r="L103" s="416"/>
+      <c r="C103" s="413"/>
+      <c r="D103" s="413"/>
+      <c r="E103" s="413"/>
+      <c r="F103" s="413"/>
+      <c r="G103" s="413"/>
+      <c r="H103" s="413"/>
+      <c r="I103" s="413"/>
+      <c r="J103" s="413"/>
+      <c r="K103" s="413"/>
+      <c r="L103" s="414"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="380" t="s">
+      <c r="B104" s="435" t="s">
         <v>361</v>
       </c>
-      <c r="C104" s="381"/>
-      <c r="D104" s="381"/>
-      <c r="E104" s="381"/>
-      <c r="F104" s="381"/>
-      <c r="G104" s="381"/>
-      <c r="H104" s="381"/>
-      <c r="I104" s="381"/>
-      <c r="J104" s="381"/>
-      <c r="K104" s="381"/>
-      <c r="L104" s="382"/>
+      <c r="C104" s="436"/>
+      <c r="D104" s="436"/>
+      <c r="E104" s="436"/>
+      <c r="F104" s="436"/>
+      <c r="G104" s="436"/>
+      <c r="H104" s="436"/>
+      <c r="I104" s="436"/>
+      <c r="J104" s="436"/>
+      <c r="K104" s="436"/>
+      <c r="L104" s="437"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="474" t="s">
+      <c r="B105" s="491" t="s">
         <v>362</v>
       </c>
-      <c r="C105" s="463"/>
-      <c r="D105" s="464"/>
-      <c r="E105" s="452" t="s">
+      <c r="C105" s="476"/>
+      <c r="D105" s="477"/>
+      <c r="E105" s="461" t="s">
         <v>363</v>
       </c>
-      <c r="F105" s="453"/>
-      <c r="G105" s="453"/>
-      <c r="H105" s="453"/>
-      <c r="I105" s="453"/>
-      <c r="J105" s="453"/>
-      <c r="K105" s="454"/>
-      <c r="L105" s="475" t="s">
+      <c r="F105" s="462"/>
+      <c r="G105" s="462"/>
+      <c r="H105" s="462"/>
+      <c r="I105" s="462"/>
+      <c r="J105" s="462"/>
+      <c r="K105" s="463"/>
+      <c r="L105" s="492" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="474"/>
-      <c r="C106" s="463"/>
-      <c r="D106" s="464"/>
-      <c r="E106" s="455"/>
-      <c r="F106" s="456"/>
-      <c r="G106" s="456"/>
-      <c r="H106" s="456"/>
-      <c r="I106" s="456"/>
-      <c r="J106" s="456"/>
-      <c r="K106" s="457"/>
-      <c r="L106" s="476"/>
+      <c r="B106" s="491"/>
+      <c r="C106" s="476"/>
+      <c r="D106" s="477"/>
+      <c r="E106" s="464"/>
+      <c r="F106" s="465"/>
+      <c r="G106" s="465"/>
+      <c r="H106" s="465"/>
+      <c r="I106" s="465"/>
+      <c r="J106" s="465"/>
+      <c r="K106" s="466"/>
+      <c r="L106" s="493"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="471" t="s">
+      <c r="B107" s="391" t="s">
         <v>405</v>
       </c>
-      <c r="C107" s="384"/>
-      <c r="D107" s="467"/>
-      <c r="E107" s="477" t="s">
+      <c r="C107" s="392"/>
+      <c r="D107" s="393"/>
+      <c r="E107" s="494" t="s">
         <v>409</v>
       </c>
-      <c r="F107" s="469"/>
-      <c r="G107" s="469"/>
-      <c r="H107" s="469"/>
-      <c r="I107" s="469"/>
-      <c r="J107" s="469"/>
-      <c r="K107" s="467"/>
+      <c r="F107" s="487"/>
+      <c r="G107" s="487"/>
+      <c r="H107" s="487"/>
+      <c r="I107" s="487"/>
+      <c r="J107" s="487"/>
+      <c r="K107" s="393"/>
       <c r="L107" s="221">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="471" t="s">
+      <c r="B108" s="391" t="s">
         <v>419</v>
       </c>
-      <c r="C108" s="384"/>
-      <c r="D108" s="467"/>
-      <c r="E108" s="468" t="s">
+      <c r="C108" s="392"/>
+      <c r="D108" s="393"/>
+      <c r="E108" s="486" t="s">
         <v>421</v>
       </c>
-      <c r="F108" s="469"/>
-      <c r="G108" s="469"/>
-      <c r="H108" s="469"/>
-      <c r="I108" s="469"/>
-      <c r="J108" s="469"/>
-      <c r="K108" s="467"/>
+      <c r="F108" s="487"/>
+      <c r="G108" s="487"/>
+      <c r="H108" s="487"/>
+      <c r="I108" s="487"/>
+      <c r="J108" s="487"/>
+      <c r="K108" s="393"/>
       <c r="L108" s="222">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="471"/>
-      <c r="C109" s="384"/>
-      <c r="D109" s="467"/>
-      <c r="E109" s="468"/>
-      <c r="F109" s="469"/>
-      <c r="G109" s="469"/>
-      <c r="H109" s="469"/>
-      <c r="I109" s="469"/>
-      <c r="J109" s="469"/>
-      <c r="K109" s="467"/>
+      <c r="B109" s="391"/>
+      <c r="C109" s="392"/>
+      <c r="D109" s="393"/>
+      <c r="E109" s="486"/>
+      <c r="F109" s="487"/>
+      <c r="G109" s="487"/>
+      <c r="H109" s="487"/>
+      <c r="I109" s="487"/>
+      <c r="J109" s="487"/>
+      <c r="K109" s="393"/>
       <c r="L109" s="222"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="434" t="s">
+      <c r="B110" s="450" t="s">
         <v>365</v>
       </c>
-      <c r="C110" s="470"/>
-      <c r="D110" s="470"/>
-      <c r="E110" s="470"/>
-      <c r="F110" s="470"/>
-      <c r="G110" s="470"/>
-      <c r="H110" s="470"/>
-      <c r="I110" s="470"/>
-      <c r="J110" s="470"/>
-      <c r="K110" s="436"/>
+      <c r="C110" s="488"/>
+      <c r="D110" s="488"/>
+      <c r="E110" s="488"/>
+      <c r="F110" s="488"/>
+      <c r="G110" s="488"/>
+      <c r="H110" s="488"/>
+      <c r="I110" s="488"/>
+      <c r="J110" s="488"/>
+      <c r="K110" s="452"/>
       <c r="L110" s="225">
         <f>SUM(L107:L109)</f>
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="380" t="s">
+      <c r="B111" s="435" t="s">
         <v>366</v>
       </c>
-      <c r="C111" s="381"/>
-      <c r="D111" s="381"/>
-      <c r="E111" s="381"/>
-      <c r="F111" s="381"/>
-      <c r="G111" s="381"/>
-      <c r="H111" s="381"/>
-      <c r="I111" s="381"/>
-      <c r="J111" s="381"/>
-      <c r="K111" s="381"/>
-      <c r="L111" s="382"/>
+      <c r="C111" s="436"/>
+      <c r="D111" s="436"/>
+      <c r="E111" s="436"/>
+      <c r="F111" s="436"/>
+      <c r="G111" s="436"/>
+      <c r="H111" s="436"/>
+      <c r="I111" s="436"/>
+      <c r="J111" s="436"/>
+      <c r="K111" s="436"/>
+      <c r="L111" s="437"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="442" t="s">
+      <c r="B112" s="455" t="s">
         <v>367</v>
       </c>
-      <c r="C112" s="452" t="s">
+      <c r="C112" s="461" t="s">
         <v>362</v>
       </c>
-      <c r="D112" s="454"/>
-      <c r="E112" s="452" t="s">
+      <c r="D112" s="463"/>
+      <c r="E112" s="461" t="s">
         <v>363</v>
       </c>
-      <c r="F112" s="453"/>
-      <c r="G112" s="453"/>
-      <c r="H112" s="453"/>
-      <c r="I112" s="453"/>
-      <c r="J112" s="453"/>
-      <c r="K112" s="454"/>
-      <c r="L112" s="465" t="s">
+      <c r="F112" s="462"/>
+      <c r="G112" s="462"/>
+      <c r="H112" s="462"/>
+      <c r="I112" s="462"/>
+      <c r="J112" s="462"/>
+      <c r="K112" s="463"/>
+      <c r="L112" s="489" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" s="443"/>
-      <c r="C113" s="455"/>
-      <c r="D113" s="457"/>
-      <c r="E113" s="455"/>
-      <c r="F113" s="456"/>
-      <c r="G113" s="456"/>
-      <c r="H113" s="456"/>
-      <c r="I113" s="456"/>
-      <c r="J113" s="456"/>
-      <c r="K113" s="457"/>
-      <c r="L113" s="466"/>
+      <c r="B113" s="456"/>
+      <c r="C113" s="464"/>
+      <c r="D113" s="466"/>
+      <c r="E113" s="464"/>
+      <c r="F113" s="465"/>
+      <c r="G113" s="465"/>
+      <c r="H113" s="465"/>
+      <c r="I113" s="465"/>
+      <c r="J113" s="465"/>
+      <c r="K113" s="466"/>
+      <c r="L113" s="490"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="304"/>
-      <c r="C114" s="458"/>
-      <c r="D114" s="459"/>
-      <c r="E114" s="460"/>
-      <c r="F114" s="461"/>
-      <c r="G114" s="461"/>
-      <c r="H114" s="461"/>
-      <c r="I114" s="461"/>
-      <c r="J114" s="461"/>
-      <c r="K114" s="392"/>
+      <c r="C114" s="473"/>
+      <c r="D114" s="474"/>
+      <c r="E114" s="484"/>
+      <c r="F114" s="485"/>
+      <c r="G114" s="485"/>
+      <c r="H114" s="485"/>
+      <c r="I114" s="485"/>
+      <c r="J114" s="485"/>
+      <c r="K114" s="448"/>
       <c r="L114" s="305"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" s="304"/>
-      <c r="C115" s="458"/>
-      <c r="D115" s="459"/>
-      <c r="E115" s="460"/>
-      <c r="F115" s="461"/>
-      <c r="G115" s="461"/>
-      <c r="H115" s="461"/>
-      <c r="I115" s="461"/>
-      <c r="J115" s="461"/>
-      <c r="K115" s="392"/>
+      <c r="C115" s="473"/>
+      <c r="D115" s="474"/>
+      <c r="E115" s="484"/>
+      <c r="F115" s="485"/>
+      <c r="G115" s="485"/>
+      <c r="H115" s="485"/>
+      <c r="I115" s="485"/>
+      <c r="J115" s="485"/>
+      <c r="K115" s="448"/>
       <c r="L115" s="305"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" s="304"/>
-      <c r="C116" s="458"/>
-      <c r="D116" s="459"/>
-      <c r="E116" s="462"/>
-      <c r="F116" s="463"/>
-      <c r="G116" s="463"/>
-      <c r="H116" s="463"/>
-      <c r="I116" s="463"/>
-      <c r="J116" s="463"/>
-      <c r="K116" s="464"/>
+      <c r="C116" s="473"/>
+      <c r="D116" s="474"/>
+      <c r="E116" s="475"/>
+      <c r="F116" s="476"/>
+      <c r="G116" s="476"/>
+      <c r="H116" s="476"/>
+      <c r="I116" s="476"/>
+      <c r="J116" s="476"/>
+      <c r="K116" s="477"/>
       <c r="L116" s="305"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="304"/>
-      <c r="C117" s="458"/>
-      <c r="D117" s="459"/>
-      <c r="E117" s="462"/>
-      <c r="F117" s="463"/>
-      <c r="G117" s="463"/>
-      <c r="H117" s="463"/>
-      <c r="I117" s="463"/>
-      <c r="J117" s="463"/>
-      <c r="K117" s="464"/>
+      <c r="C117" s="473"/>
+      <c r="D117" s="474"/>
+      <c r="E117" s="475"/>
+      <c r="F117" s="476"/>
+      <c r="G117" s="476"/>
+      <c r="H117" s="476"/>
+      <c r="I117" s="476"/>
+      <c r="J117" s="476"/>
+      <c r="K117" s="477"/>
       <c r="L117" s="305"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" s="304"/>
-      <c r="C118" s="458"/>
-      <c r="D118" s="459"/>
-      <c r="E118" s="462"/>
-      <c r="F118" s="463"/>
-      <c r="G118" s="463"/>
-      <c r="H118" s="463"/>
-      <c r="I118" s="463"/>
-      <c r="J118" s="463"/>
-      <c r="K118" s="464"/>
+      <c r="C118" s="473"/>
+      <c r="D118" s="474"/>
+      <c r="E118" s="475"/>
+      <c r="F118" s="476"/>
+      <c r="G118" s="476"/>
+      <c r="H118" s="476"/>
+      <c r="I118" s="476"/>
+      <c r="J118" s="476"/>
+      <c r="K118" s="477"/>
       <c r="L118" s="305"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" s="304"/>
-      <c r="C119" s="458"/>
-      <c r="D119" s="459"/>
-      <c r="E119" s="462"/>
-      <c r="F119" s="463"/>
-      <c r="G119" s="463"/>
-      <c r="H119" s="463"/>
-      <c r="I119" s="463"/>
-      <c r="J119" s="463"/>
-      <c r="K119" s="464"/>
+      <c r="C119" s="473"/>
+      <c r="D119" s="474"/>
+      <c r="E119" s="475"/>
+      <c r="F119" s="476"/>
+      <c r="G119" s="476"/>
+      <c r="H119" s="476"/>
+      <c r="I119" s="476"/>
+      <c r="J119" s="476"/>
+      <c r="K119" s="477"/>
       <c r="L119" s="305"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" s="304"/>
-      <c r="C120" s="458"/>
-      <c r="D120" s="459"/>
-      <c r="E120" s="462"/>
-      <c r="F120" s="463"/>
-      <c r="G120" s="463"/>
-      <c r="H120" s="463"/>
-      <c r="I120" s="463"/>
-      <c r="J120" s="463"/>
-      <c r="K120" s="464"/>
+      <c r="C120" s="473"/>
+      <c r="D120" s="474"/>
+      <c r="E120" s="475"/>
+      <c r="F120" s="476"/>
+      <c r="G120" s="476"/>
+      <c r="H120" s="476"/>
+      <c r="I120" s="476"/>
+      <c r="J120" s="476"/>
+      <c r="K120" s="477"/>
       <c r="L120" s="305"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" s="304"/>
-      <c r="C121" s="458"/>
-      <c r="D121" s="459"/>
-      <c r="E121" s="462"/>
-      <c r="F121" s="463"/>
-      <c r="G121" s="463"/>
-      <c r="H121" s="463"/>
-      <c r="I121" s="463"/>
-      <c r="J121" s="463"/>
-      <c r="K121" s="464"/>
+      <c r="C121" s="473"/>
+      <c r="D121" s="474"/>
+      <c r="E121" s="475"/>
+      <c r="F121" s="476"/>
+      <c r="G121" s="476"/>
+      <c r="H121" s="476"/>
+      <c r="I121" s="476"/>
+      <c r="J121" s="476"/>
+      <c r="K121" s="477"/>
       <c r="L121" s="305"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" s="396" t="s">
+      <c r="B122" s="478" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="397"/>
-      <c r="D122" s="397"/>
-      <c r="E122" s="397"/>
-      <c r="F122" s="397"/>
-      <c r="G122" s="397"/>
-      <c r="H122" s="397"/>
-      <c r="I122" s="397"/>
-      <c r="J122" s="397"/>
-      <c r="K122" s="398"/>
+      <c r="C122" s="479"/>
+      <c r="D122" s="479"/>
+      <c r="E122" s="479"/>
+      <c r="F122" s="479"/>
+      <c r="G122" s="479"/>
+      <c r="H122" s="479"/>
+      <c r="I122" s="479"/>
+      <c r="J122" s="479"/>
+      <c r="K122" s="480"/>
       <c r="L122" s="228">
         <f>SUM(L114:L121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B123" s="399" t="s">
+      <c r="B123" s="481" t="s">
         <v>412</v>
       </c>
-      <c r="C123" s="400"/>
-      <c r="D123" s="400"/>
-      <c r="E123" s="400"/>
-      <c r="F123" s="400"/>
-      <c r="G123" s="400"/>
-      <c r="H123" s="400"/>
-      <c r="I123" s="400"/>
-      <c r="J123" s="400"/>
-      <c r="K123" s="401"/>
+      <c r="C123" s="482"/>
+      <c r="D123" s="482"/>
+      <c r="E123" s="482"/>
+      <c r="F123" s="482"/>
+      <c r="G123" s="482"/>
+      <c r="H123" s="482"/>
+      <c r="I123" s="482"/>
+      <c r="J123" s="482"/>
+      <c r="K123" s="483"/>
       <c r="L123" s="229">
         <f>L122+L110</f>
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B124" s="414" t="s">
+      <c r="B124" s="412" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="415"/>
-      <c r="D124" s="415"/>
-      <c r="E124" s="415"/>
-      <c r="F124" s="415"/>
-      <c r="G124" s="415"/>
-      <c r="H124" s="415"/>
-      <c r="I124" s="415"/>
-      <c r="J124" s="415"/>
-      <c r="K124" s="415"/>
-      <c r="L124" s="416"/>
+      <c r="C124" s="413"/>
+      <c r="D124" s="413"/>
+      <c r="E124" s="413"/>
+      <c r="F124" s="413"/>
+      <c r="G124" s="413"/>
+      <c r="H124" s="413"/>
+      <c r="I124" s="413"/>
+      <c r="J124" s="413"/>
+      <c r="K124" s="413"/>
+      <c r="L124" s="414"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B125" s="380" t="s">
+      <c r="B125" s="435" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="381"/>
-      <c r="D125" s="381"/>
-      <c r="E125" s="381"/>
-      <c r="F125" s="381"/>
-      <c r="G125" s="381"/>
-      <c r="H125" s="381"/>
-      <c r="I125" s="381"/>
-      <c r="J125" s="380" t="s">
+      <c r="C125" s="436"/>
+      <c r="D125" s="436"/>
+      <c r="E125" s="436"/>
+      <c r="F125" s="436"/>
+      <c r="G125" s="436"/>
+      <c r="H125" s="436"/>
+      <c r="I125" s="436"/>
+      <c r="J125" s="435" t="s">
         <v>369</v>
       </c>
-      <c r="K125" s="381"/>
-      <c r="L125" s="382"/>
+      <c r="K125" s="436"/>
+      <c r="L125" s="437"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B126" s="442" t="s">
+      <c r="B126" s="455" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="448" t="s">
+      <c r="C126" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="449"/>
-      <c r="E126" s="452" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="453"/>
-      <c r="G126" s="453"/>
-      <c r="H126" s="454"/>
-      <c r="I126" s="432" t="s">
+      <c r="D126" s="458"/>
+      <c r="E126" s="461" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="462"/>
+      <c r="G126" s="462"/>
+      <c r="H126" s="463"/>
+      <c r="I126" s="467" t="s">
         <v>364</v>
       </c>
-      <c r="J126" s="444" t="s">
+      <c r="J126" s="469" t="s">
         <v>29</v>
       </c>
-      <c r="K126" s="446" t="s">
-        <v>1</v>
-      </c>
-      <c r="L126" s="432" t="s">
+      <c r="K126" s="471" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" s="467" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B127" s="443"/>
-      <c r="C127" s="450"/>
-      <c r="D127" s="451"/>
-      <c r="E127" s="455"/>
-      <c r="F127" s="456"/>
-      <c r="G127" s="456"/>
-      <c r="H127" s="457"/>
-      <c r="I127" s="433"/>
-      <c r="J127" s="445"/>
-      <c r="K127" s="447"/>
-      <c r="L127" s="433"/>
+      <c r="B127" s="456"/>
+      <c r="C127" s="459"/>
+      <c r="D127" s="460"/>
+      <c r="E127" s="464"/>
+      <c r="F127" s="465"/>
+      <c r="G127" s="465"/>
+      <c r="H127" s="466"/>
+      <c r="I127" s="468"/>
+      <c r="J127" s="470"/>
+      <c r="K127" s="472"/>
+      <c r="L127" s="468"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128" s="230"/>
-      <c r="C128" s="390"/>
-      <c r="D128" s="392"/>
-      <c r="E128" s="390"/>
-      <c r="F128" s="391"/>
-      <c r="G128" s="391"/>
-      <c r="H128" s="392"/>
+      <c r="C128" s="447"/>
+      <c r="D128" s="448"/>
+      <c r="E128" s="447"/>
+      <c r="F128" s="449"/>
+      <c r="G128" s="449"/>
+      <c r="H128" s="448"/>
       <c r="I128" s="232"/>
       <c r="J128" s="303"/>
       <c r="K128" s="317"/>
@@ -25015,12 +25558,12 @@
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" s="230"/>
-      <c r="C129" s="390"/>
-      <c r="D129" s="392"/>
-      <c r="E129" s="390"/>
-      <c r="F129" s="391"/>
-      <c r="G129" s="391"/>
-      <c r="H129" s="392"/>
+      <c r="C129" s="447"/>
+      <c r="D129" s="448"/>
+      <c r="E129" s="447"/>
+      <c r="F129" s="449"/>
+      <c r="G129" s="449"/>
+      <c r="H129" s="448"/>
       <c r="I129" s="235"/>
       <c r="J129" s="236"/>
       <c r="K129" s="237"/>
@@ -25028,97 +25571,97 @@
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="230"/>
-      <c r="C130" s="390"/>
-      <c r="D130" s="392"/>
-      <c r="E130" s="390"/>
-      <c r="F130" s="391"/>
-      <c r="G130" s="391"/>
-      <c r="H130" s="392"/>
+      <c r="C130" s="447"/>
+      <c r="D130" s="448"/>
+      <c r="E130" s="447"/>
+      <c r="F130" s="449"/>
+      <c r="G130" s="449"/>
+      <c r="H130" s="448"/>
       <c r="I130" s="240"/>
       <c r="J130" s="231"/>
       <c r="K130" s="239"/>
       <c r="L130" s="221"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B131" s="434" t="s">
+      <c r="B131" s="450" t="s">
         <v>371</v>
       </c>
-      <c r="C131" s="435"/>
-      <c r="D131" s="435"/>
-      <c r="E131" s="435"/>
-      <c r="F131" s="435"/>
-      <c r="G131" s="435"/>
-      <c r="H131" s="436"/>
+      <c r="C131" s="451"/>
+      <c r="D131" s="451"/>
+      <c r="E131" s="451"/>
+      <c r="F131" s="451"/>
+      <c r="G131" s="451"/>
+      <c r="H131" s="452"/>
       <c r="I131" s="256">
         <f>SUM(I128:I130)</f>
         <v>0</v>
       </c>
-      <c r="J131" s="437" t="s">
+      <c r="J131" s="453" t="s">
         <v>371</v>
       </c>
-      <c r="K131" s="438"/>
+      <c r="K131" s="454"/>
       <c r="L131" s="241">
         <f>SUM(L128:L130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B132" s="434" t="s">
+      <c r="B132" s="450" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="435"/>
-      <c r="D132" s="435"/>
-      <c r="E132" s="435"/>
-      <c r="F132" s="435"/>
-      <c r="G132" s="435"/>
-      <c r="H132" s="435"/>
-      <c r="I132" s="435"/>
-      <c r="J132" s="435"/>
-      <c r="K132" s="436"/>
+      <c r="C132" s="451"/>
+      <c r="D132" s="451"/>
+      <c r="E132" s="451"/>
+      <c r="F132" s="451"/>
+      <c r="G132" s="451"/>
+      <c r="H132" s="451"/>
+      <c r="I132" s="451"/>
+      <c r="J132" s="451"/>
+      <c r="K132" s="452"/>
       <c r="L132" s="241">
         <f>L131+I131</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B133" s="414" t="s">
+      <c r="B133" s="412" t="s">
         <v>393</v>
       </c>
-      <c r="C133" s="415"/>
-      <c r="D133" s="415"/>
-      <c r="E133" s="415"/>
-      <c r="F133" s="415"/>
-      <c r="G133" s="415"/>
-      <c r="H133" s="415"/>
-      <c r="I133" s="415"/>
-      <c r="J133" s="415"/>
-      <c r="K133" s="415"/>
-      <c r="L133" s="416"/>
+      <c r="C133" s="413"/>
+      <c r="D133" s="413"/>
+      <c r="E133" s="413"/>
+      <c r="F133" s="413"/>
+      <c r="G133" s="413"/>
+      <c r="H133" s="413"/>
+      <c r="I133" s="413"/>
+      <c r="J133" s="413"/>
+      <c r="K133" s="413"/>
+      <c r="L133" s="414"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B134" s="380" t="s">
+      <c r="B134" s="435" t="s">
         <v>373</v>
       </c>
-      <c r="C134" s="381"/>
-      <c r="D134" s="382"/>
-      <c r="E134" s="381" t="s">
+      <c r="C134" s="436"/>
+      <c r="D134" s="437"/>
+      <c r="E134" s="436" t="s">
         <v>399</v>
       </c>
-      <c r="F134" s="381"/>
-      <c r="G134" s="371" t="s">
+      <c r="F134" s="436"/>
+      <c r="G134" s="438" t="s">
         <v>394</v>
       </c>
-      <c r="H134" s="372"/>
-      <c r="I134" s="372"/>
-      <c r="J134" s="372"/>
-      <c r="K134" s="372"/>
-      <c r="L134" s="373"/>
+      <c r="H134" s="439"/>
+      <c r="I134" s="439"/>
+      <c r="J134" s="439"/>
+      <c r="K134" s="439"/>
+      <c r="L134" s="440"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B135" s="378" t="s">
+      <c r="B135" s="441" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="379"/>
+      <c r="C135" s="442"/>
       <c r="D135" s="269" t="s">
         <v>395</v>
       </c>
@@ -25136,68 +25679,68 @@
       <c r="L135" s="313"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B136" s="491">
+      <c r="B136" s="342">
         <v>0.67361111111111116</v>
       </c>
-      <c r="C136" s="491">
+      <c r="C136" s="342">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D136" s="374"/>
+      <c r="D136" s="443"/>
       <c r="E136" s="274"/>
-      <c r="F136" s="376"/>
-      <c r="G136" s="371"/>
-      <c r="H136" s="372"/>
-      <c r="I136" s="372"/>
-      <c r="J136" s="372"/>
-      <c r="K136" s="372"/>
-      <c r="L136" s="373"/>
+      <c r="F136" s="445"/>
+      <c r="G136" s="438"/>
+      <c r="H136" s="439"/>
+      <c r="I136" s="439"/>
+      <c r="J136" s="439"/>
+      <c r="K136" s="439"/>
+      <c r="L136" s="440"/>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B137" s="491"/>
-      <c r="C137" s="491"/>
-      <c r="D137" s="375"/>
+      <c r="B137" s="342"/>
+      <c r="C137" s="342"/>
+      <c r="D137" s="444"/>
       <c r="E137" s="274"/>
-      <c r="F137" s="377"/>
-      <c r="G137" s="371"/>
-      <c r="H137" s="372"/>
-      <c r="I137" s="372"/>
-      <c r="J137" s="372"/>
-      <c r="K137" s="372"/>
-      <c r="L137" s="373"/>
+      <c r="F137" s="446"/>
+      <c r="G137" s="438"/>
+      <c r="H137" s="439"/>
+      <c r="I137" s="439"/>
+      <c r="J137" s="439"/>
+      <c r="K137" s="439"/>
+      <c r="L137" s="440"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B138" s="393" t="s">
+      <c r="B138" s="415" t="s">
         <v>372</v>
       </c>
-      <c r="C138" s="394"/>
-      <c r="D138" s="394"/>
-      <c r="E138" s="394"/>
-      <c r="F138" s="394"/>
-      <c r="G138" s="394"/>
-      <c r="H138" s="394"/>
-      <c r="I138" s="394"/>
-      <c r="J138" s="394"/>
-      <c r="K138" s="394"/>
-      <c r="L138" s="395"/>
+      <c r="C138" s="416"/>
+      <c r="D138" s="416"/>
+      <c r="E138" s="416"/>
+      <c r="F138" s="416"/>
+      <c r="G138" s="416"/>
+      <c r="H138" s="416"/>
+      <c r="I138" s="416"/>
+      <c r="J138" s="416"/>
+      <c r="K138" s="416"/>
+      <c r="L138" s="417"/>
     </row>
     <row r="139" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B139" s="267" t="s">
         <v>373</v>
       </c>
-      <c r="C139" s="439" t="s">
+      <c r="C139" s="418" t="s">
         <v>374</v>
       </c>
-      <c r="D139" s="440"/>
-      <c r="E139" s="441"/>
-      <c r="F139" s="439" t="s">
+      <c r="D139" s="419"/>
+      <c r="E139" s="420"/>
+      <c r="F139" s="418" t="s">
         <v>375</v>
       </c>
-      <c r="G139" s="440"/>
-      <c r="H139" s="441"/>
-      <c r="I139" s="439" t="s">
+      <c r="G139" s="419"/>
+      <c r="H139" s="420"/>
+      <c r="I139" s="418" t="s">
         <v>376</v>
       </c>
-      <c r="J139" s="441"/>
+      <c r="J139" s="420"/>
       <c r="K139" s="242" t="s">
         <v>377</v>
       </c>
@@ -25209,14 +25752,14 @@
       <c r="B140" s="244" t="s">
         <v>379</v>
       </c>
-      <c r="C140" s="387"/>
-      <c r="D140" s="388"/>
-      <c r="E140" s="389"/>
-      <c r="F140" s="489"/>
-      <c r="G140" s="490"/>
+      <c r="C140" s="421"/>
+      <c r="D140" s="422"/>
+      <c r="E140" s="423"/>
+      <c r="F140" s="394"/>
+      <c r="G140" s="395"/>
       <c r="H140" s="306"/>
-      <c r="I140" s="489"/>
-      <c r="J140" s="490"/>
+      <c r="I140" s="394"/>
+      <c r="J140" s="395"/>
       <c r="K140" s="270"/>
       <c r="L140" s="246"/>
     </row>
@@ -25224,16 +25767,16 @@
       <c r="B141" s="244" t="s">
         <v>380</v>
       </c>
-      <c r="C141" s="387"/>
-      <c r="D141" s="388"/>
-      <c r="E141" s="389"/>
-      <c r="F141" s="489" t="s">
+      <c r="C141" s="421"/>
+      <c r="D141" s="422"/>
+      <c r="E141" s="423"/>
+      <c r="F141" s="394" t="s">
         <v>413</v>
       </c>
-      <c r="G141" s="490"/>
+      <c r="G141" s="395"/>
       <c r="H141" s="263"/>
-      <c r="I141" s="489"/>
-      <c r="J141" s="490"/>
+      <c r="I141" s="394"/>
+      <c r="J141" s="395"/>
       <c r="K141" s="270"/>
       <c r="L141" s="246"/>
     </row>
@@ -25241,76 +25784,76 @@
       <c r="B142" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="C142" s="387"/>
-      <c r="D142" s="388"/>
-      <c r="E142" s="389"/>
-      <c r="F142" s="489" t="s">
+      <c r="C142" s="421"/>
+      <c r="D142" s="422"/>
+      <c r="E142" s="423"/>
+      <c r="F142" s="394" t="s">
         <v>413</v>
       </c>
-      <c r="G142" s="490"/>
+      <c r="G142" s="395"/>
       <c r="H142" s="306"/>
-      <c r="I142" s="489"/>
-      <c r="J142" s="490"/>
+      <c r="I142" s="394"/>
+      <c r="J142" s="395"/>
       <c r="K142" s="270"/>
       <c r="L142" s="246"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B143" s="421" t="s">
+      <c r="B143" s="424" t="s">
         <v>382</v>
       </c>
-      <c r="C143" s="422"/>
-      <c r="D143" s="422"/>
-      <c r="E143" s="422"/>
-      <c r="F143" s="422"/>
-      <c r="G143" s="422"/>
-      <c r="H143" s="422"/>
-      <c r="I143" s="422"/>
-      <c r="J143" s="423"/>
-      <c r="K143" s="430" t="s">
+      <c r="C143" s="425"/>
+      <c r="D143" s="425"/>
+      <c r="E143" s="425"/>
+      <c r="F143" s="425"/>
+      <c r="G143" s="425"/>
+      <c r="H143" s="425"/>
+      <c r="I143" s="425"/>
+      <c r="J143" s="426"/>
+      <c r="K143" s="433" t="s">
         <v>383</v>
       </c>
-      <c r="L143" s="431"/>
+      <c r="L143" s="434"/>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B144" s="424"/>
-      <c r="C144" s="425"/>
-      <c r="D144" s="425"/>
-      <c r="E144" s="425"/>
-      <c r="F144" s="425"/>
-      <c r="G144" s="425"/>
-      <c r="H144" s="425"/>
-      <c r="I144" s="425"/>
-      <c r="J144" s="426"/>
+      <c r="B144" s="427"/>
+      <c r="C144" s="428"/>
+      <c r="D144" s="428"/>
+      <c r="E144" s="428"/>
+      <c r="F144" s="428"/>
+      <c r="G144" s="428"/>
+      <c r="H144" s="428"/>
+      <c r="I144" s="428"/>
+      <c r="J144" s="429"/>
       <c r="K144" s="247" t="s">
         <v>384</v>
       </c>
       <c r="L144" s="246"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B145" s="424"/>
-      <c r="C145" s="425"/>
-      <c r="D145" s="425"/>
-      <c r="E145" s="425"/>
-      <c r="F145" s="425"/>
-      <c r="G145" s="425"/>
-      <c r="H145" s="425"/>
-      <c r="I145" s="425"/>
-      <c r="J145" s="426"/>
+      <c r="B145" s="427"/>
+      <c r="C145" s="428"/>
+      <c r="D145" s="428"/>
+      <c r="E145" s="428"/>
+      <c r="F145" s="428"/>
+      <c r="G145" s="428"/>
+      <c r="H145" s="428"/>
+      <c r="I145" s="428"/>
+      <c r="J145" s="429"/>
       <c r="K145" s="247" t="s">
         <v>385</v>
       </c>
       <c r="L145" s="246"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="427"/>
-      <c r="C146" s="428"/>
-      <c r="D146" s="428"/>
-      <c r="E146" s="428"/>
-      <c r="F146" s="428"/>
-      <c r="G146" s="428"/>
-      <c r="H146" s="428"/>
-      <c r="I146" s="428"/>
-      <c r="J146" s="429"/>
+      <c r="B146" s="430"/>
+      <c r="C146" s="431"/>
+      <c r="D146" s="431"/>
+      <c r="E146" s="431"/>
+      <c r="F146" s="431"/>
+      <c r="G146" s="431"/>
+      <c r="H146" s="431"/>
+      <c r="I146" s="431"/>
+      <c r="J146" s="432"/>
       <c r="K146" s="248" t="s">
         <v>386</v>
       </c>
@@ -25330,304 +25873,1947 @@
       <c r="L147" s="252"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B149" s="414" t="s">
+      <c r="B149" s="412" t="s">
         <v>387</v>
       </c>
-      <c r="C149" s="415"/>
-      <c r="D149" s="415"/>
-      <c r="E149" s="415"/>
-      <c r="F149" s="415"/>
-      <c r="G149" s="415"/>
-      <c r="H149" s="415"/>
-      <c r="I149" s="415"/>
-      <c r="J149" s="415"/>
-      <c r="K149" s="415"/>
-      <c r="L149" s="416"/>
+      <c r="C149" s="413"/>
+      <c r="D149" s="413"/>
+      <c r="E149" s="413"/>
+      <c r="F149" s="413"/>
+      <c r="G149" s="413"/>
+      <c r="H149" s="413"/>
+      <c r="I149" s="413"/>
+      <c r="J149" s="413"/>
+      <c r="K149" s="413"/>
+      <c r="L149" s="414"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B150" s="318">
         <v>1</v>
       </c>
-      <c r="C150" s="386" t="s">
+      <c r="C150" s="396" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="384"/>
-      <c r="E150" s="384"/>
-      <c r="F150" s="384"/>
-      <c r="G150" s="384"/>
-      <c r="H150" s="384"/>
-      <c r="I150" s="384"/>
-      <c r="J150" s="384"/>
-      <c r="K150" s="384"/>
-      <c r="L150" s="385"/>
+      <c r="D150" s="392"/>
+      <c r="E150" s="392"/>
+      <c r="F150" s="392"/>
+      <c r="G150" s="392"/>
+      <c r="H150" s="392"/>
+      <c r="I150" s="392"/>
+      <c r="J150" s="392"/>
+      <c r="K150" s="392"/>
+      <c r="L150" s="397"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B151" s="318">
         <v>2</v>
       </c>
-      <c r="C151" s="386" t="s">
+      <c r="C151" s="396" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="384"/>
-      <c r="E151" s="384"/>
-      <c r="F151" s="384"/>
-      <c r="G151" s="384"/>
-      <c r="H151" s="384"/>
-      <c r="I151" s="384"/>
-      <c r="J151" s="384"/>
-      <c r="K151" s="384"/>
-      <c r="L151" s="385"/>
+      <c r="D151" s="392"/>
+      <c r="E151" s="392"/>
+      <c r="F151" s="392"/>
+      <c r="G151" s="392"/>
+      <c r="H151" s="392"/>
+      <c r="I151" s="392"/>
+      <c r="J151" s="392"/>
+      <c r="K151" s="392"/>
+      <c r="L151" s="397"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B152" s="414" t="s">
+      <c r="B152" s="412" t="s">
         <v>391</v>
       </c>
-      <c r="C152" s="415"/>
-      <c r="D152" s="415"/>
-      <c r="E152" s="415"/>
-      <c r="F152" s="415"/>
-      <c r="G152" s="415"/>
-      <c r="H152" s="415"/>
-      <c r="I152" s="415"/>
-      <c r="J152" s="415"/>
-      <c r="K152" s="415"/>
-      <c r="L152" s="416"/>
+      <c r="C152" s="413"/>
+      <c r="D152" s="413"/>
+      <c r="E152" s="413"/>
+      <c r="F152" s="413"/>
+      <c r="G152" s="413"/>
+      <c r="H152" s="413"/>
+      <c r="I152" s="413"/>
+      <c r="J152" s="413"/>
+      <c r="K152" s="413"/>
+      <c r="L152" s="414"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B153" s="275"/>
-      <c r="C153" s="383"/>
-      <c r="D153" s="384"/>
-      <c r="E153" s="384"/>
-      <c r="F153" s="384"/>
-      <c r="G153" s="384"/>
-      <c r="H153" s="384"/>
-      <c r="I153" s="384"/>
-      <c r="J153" s="384"/>
-      <c r="K153" s="384"/>
-      <c r="L153" s="385"/>
+      <c r="B153" s="275">
+        <v>1</v>
+      </c>
+      <c r="C153" s="398" t="s">
+        <v>434</v>
+      </c>
+      <c r="D153" s="392"/>
+      <c r="E153" s="392"/>
+      <c r="F153" s="392"/>
+      <c r="G153" s="392"/>
+      <c r="H153" s="392"/>
+      <c r="I153" s="392"/>
+      <c r="J153" s="392"/>
+      <c r="K153" s="392"/>
+      <c r="L153" s="397"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B154" s="275"/>
-      <c r="C154" s="383"/>
-      <c r="D154" s="384"/>
-      <c r="E154" s="384"/>
-      <c r="F154" s="384"/>
-      <c r="G154" s="384"/>
-      <c r="H154" s="384"/>
-      <c r="I154" s="384"/>
-      <c r="J154" s="384"/>
-      <c r="K154" s="384"/>
-      <c r="L154" s="385"/>
+      <c r="C154" s="398"/>
+      <c r="D154" s="392"/>
+      <c r="E154" s="392"/>
+      <c r="F154" s="392"/>
+      <c r="G154" s="392"/>
+      <c r="H154" s="392"/>
+      <c r="I154" s="392"/>
+      <c r="J154" s="392"/>
+      <c r="K154" s="392"/>
+      <c r="L154" s="397"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B155" s="275"/>
-      <c r="C155" s="383"/>
-      <c r="D155" s="384"/>
-      <c r="E155" s="384"/>
-      <c r="F155" s="384"/>
-      <c r="G155" s="384"/>
-      <c r="H155" s="384"/>
-      <c r="I155" s="384"/>
-      <c r="J155" s="384"/>
-      <c r="K155" s="384"/>
-      <c r="L155" s="385"/>
+      <c r="C155" s="398"/>
+      <c r="D155" s="392"/>
+      <c r="E155" s="392"/>
+      <c r="F155" s="392"/>
+      <c r="G155" s="392"/>
+      <c r="H155" s="392"/>
+      <c r="I155" s="392"/>
+      <c r="J155" s="392"/>
+      <c r="K155" s="392"/>
+      <c r="L155" s="397"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B156" s="414" t="s">
+      <c r="B156" s="412" t="s">
         <v>392</v>
       </c>
-      <c r="C156" s="415"/>
-      <c r="D156" s="415"/>
-      <c r="E156" s="415"/>
-      <c r="F156" s="415"/>
-      <c r="G156" s="415"/>
-      <c r="H156" s="415"/>
-      <c r="I156" s="415"/>
-      <c r="J156" s="415"/>
-      <c r="K156" s="415"/>
-      <c r="L156" s="416"/>
+      <c r="C156" s="413"/>
+      <c r="D156" s="413"/>
+      <c r="E156" s="413"/>
+      <c r="F156" s="413"/>
+      <c r="G156" s="413"/>
+      <c r="H156" s="413"/>
+      <c r="I156" s="413"/>
+      <c r="J156" s="413"/>
+      <c r="K156" s="413"/>
+      <c r="L156" s="414"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B157" s="275"/>
-      <c r="C157" s="386" t="s">
+      <c r="C157" s="396" t="s">
         <v>424</v>
       </c>
-      <c r="D157" s="384"/>
-      <c r="E157" s="384"/>
-      <c r="F157" s="384"/>
-      <c r="G157" s="384"/>
-      <c r="H157" s="384"/>
-      <c r="I157" s="384"/>
-      <c r="J157" s="384"/>
-      <c r="K157" s="384"/>
-      <c r="L157" s="385"/>
+      <c r="D157" s="392"/>
+      <c r="E157" s="392"/>
+      <c r="F157" s="392"/>
+      <c r="G157" s="392"/>
+      <c r="H157" s="392"/>
+      <c r="I157" s="392"/>
+      <c r="J157" s="392"/>
+      <c r="K157" s="392"/>
+      <c r="L157" s="397"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B158" s="275"/>
-      <c r="C158" s="386" t="s">
+      <c r="C158" s="396" t="s">
         <v>425</v>
       </c>
-      <c r="D158" s="384"/>
-      <c r="E158" s="384"/>
-      <c r="F158" s="384"/>
-      <c r="G158" s="384"/>
-      <c r="H158" s="384"/>
-      <c r="I158" s="384"/>
-      <c r="J158" s="384"/>
-      <c r="K158" s="384"/>
-      <c r="L158" s="385"/>
+      <c r="D158" s="392"/>
+      <c r="E158" s="392"/>
+      <c r="F158" s="392"/>
+      <c r="G158" s="392"/>
+      <c r="H158" s="392"/>
+      <c r="I158" s="392"/>
+      <c r="J158" s="392"/>
+      <c r="K158" s="392"/>
+      <c r="L158" s="397"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B159" s="275"/>
-      <c r="C159" s="383"/>
-      <c r="D159" s="384"/>
-      <c r="E159" s="384"/>
-      <c r="F159" s="384"/>
-      <c r="G159" s="384"/>
-      <c r="H159" s="384"/>
-      <c r="I159" s="384"/>
-      <c r="J159" s="384"/>
-      <c r="K159" s="384"/>
-      <c r="L159" s="385"/>
+      <c r="C159" s="398"/>
+      <c r="D159" s="392"/>
+      <c r="E159" s="392"/>
+      <c r="F159" s="392"/>
+      <c r="G159" s="392"/>
+      <c r="H159" s="392"/>
+      <c r="I159" s="392"/>
+      <c r="J159" s="392"/>
+      <c r="K159" s="392"/>
+      <c r="L159" s="397"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B160" s="418" t="s">
+      <c r="B160" s="399" t="s">
         <v>388</v>
       </c>
-      <c r="C160" s="419"/>
-      <c r="D160" s="419"/>
-      <c r="E160" s="419"/>
-      <c r="F160" s="419"/>
-      <c r="G160" s="419"/>
-      <c r="H160" s="419"/>
-      <c r="I160" s="419"/>
-      <c r="J160" s="419"/>
-      <c r="K160" s="419"/>
-      <c r="L160" s="420"/>
+      <c r="C160" s="400"/>
+      <c r="D160" s="400"/>
+      <c r="E160" s="400"/>
+      <c r="F160" s="400"/>
+      <c r="G160" s="400"/>
+      <c r="H160" s="400"/>
+      <c r="I160" s="400"/>
+      <c r="J160" s="400"/>
+      <c r="K160" s="400"/>
+      <c r="L160" s="401"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B161" s="417"/>
-      <c r="C161" s="384"/>
-      <c r="D161" s="384"/>
-      <c r="E161" s="384"/>
-      <c r="F161" s="384"/>
-      <c r="G161" s="384"/>
-      <c r="H161" s="384"/>
-      <c r="I161" s="384"/>
-      <c r="J161" s="384"/>
-      <c r="K161" s="384"/>
-      <c r="L161" s="385"/>
+      <c r="B161" s="402"/>
+      <c r="C161" s="392"/>
+      <c r="D161" s="392"/>
+      <c r="E161" s="392"/>
+      <c r="F161" s="392"/>
+      <c r="G161" s="392"/>
+      <c r="H161" s="392"/>
+      <c r="I161" s="392"/>
+      <c r="J161" s="392"/>
+      <c r="K161" s="392"/>
+      <c r="L161" s="397"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B162" s="417"/>
-      <c r="C162" s="384"/>
-      <c r="D162" s="384"/>
-      <c r="E162" s="384"/>
-      <c r="F162" s="384"/>
-      <c r="G162" s="384"/>
-      <c r="H162" s="384"/>
-      <c r="I162" s="384"/>
-      <c r="J162" s="384"/>
-      <c r="K162" s="384"/>
-      <c r="L162" s="385"/>
+      <c r="B162" s="402"/>
+      <c r="C162" s="392"/>
+      <c r="D162" s="392"/>
+      <c r="E162" s="392"/>
+      <c r="F162" s="392"/>
+      <c r="G162" s="392"/>
+      <c r="H162" s="392"/>
+      <c r="I162" s="392"/>
+      <c r="J162" s="392"/>
+      <c r="K162" s="392"/>
+      <c r="L162" s="397"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B163" s="417"/>
-      <c r="C163" s="384"/>
-      <c r="D163" s="384"/>
-      <c r="E163" s="384"/>
-      <c r="F163" s="384"/>
-      <c r="G163" s="384"/>
-      <c r="H163" s="384"/>
-      <c r="I163" s="384"/>
-      <c r="J163" s="384"/>
-      <c r="K163" s="384"/>
-      <c r="L163" s="385"/>
+      <c r="B163" s="402"/>
+      <c r="C163" s="392"/>
+      <c r="D163" s="392"/>
+      <c r="E163" s="392"/>
+      <c r="F163" s="392"/>
+      <c r="G163" s="392"/>
+      <c r="H163" s="392"/>
+      <c r="I163" s="392"/>
+      <c r="J163" s="392"/>
+      <c r="K163" s="392"/>
+      <c r="L163" s="397"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B164" s="417"/>
-      <c r="C164" s="384"/>
-      <c r="D164" s="384"/>
-      <c r="E164" s="384"/>
-      <c r="F164" s="384"/>
-      <c r="G164" s="384"/>
-      <c r="H164" s="384"/>
-      <c r="I164" s="384"/>
-      <c r="J164" s="384"/>
-      <c r="K164" s="384"/>
-      <c r="L164" s="385"/>
+      <c r="B164" s="402"/>
+      <c r="C164" s="392"/>
+      <c r="D164" s="392"/>
+      <c r="E164" s="392"/>
+      <c r="F164" s="392"/>
+      <c r="G164" s="392"/>
+      <c r="H164" s="392"/>
+      <c r="I164" s="392"/>
+      <c r="J164" s="392"/>
+      <c r="K164" s="392"/>
+      <c r="L164" s="397"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B165" s="402"/>
-      <c r="C165" s="403"/>
-      <c r="D165" s="403"/>
-      <c r="E165" s="403"/>
-      <c r="F165" s="403"/>
+      <c r="B165" s="403"/>
+      <c r="C165" s="404"/>
+      <c r="D165" s="404"/>
+      <c r="E165" s="404"/>
+      <c r="F165" s="404"/>
       <c r="G165" s="307"/>
-      <c r="H165" s="403"/>
-      <c r="I165" s="403"/>
-      <c r="J165" s="403"/>
-      <c r="K165" s="403"/>
-      <c r="L165" s="411"/>
+      <c r="H165" s="404"/>
+      <c r="I165" s="404"/>
+      <c r="J165" s="404"/>
+      <c r="K165" s="404"/>
+      <c r="L165" s="409"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B166" s="404"/>
-      <c r="C166" s="405"/>
-      <c r="D166" s="405"/>
-      <c r="E166" s="405"/>
-      <c r="F166" s="405"/>
+      <c r="B166" s="405"/>
+      <c r="C166" s="406"/>
+      <c r="D166" s="406"/>
+      <c r="E166" s="406"/>
+      <c r="F166" s="406"/>
       <c r="G166" s="308"/>
-      <c r="H166" s="405"/>
-      <c r="I166" s="405"/>
-      <c r="J166" s="405"/>
-      <c r="K166" s="405"/>
-      <c r="L166" s="412"/>
+      <c r="H166" s="406"/>
+      <c r="I166" s="406"/>
+      <c r="J166" s="406"/>
+      <c r="K166" s="406"/>
+      <c r="L166" s="410"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B167" s="404"/>
-      <c r="C167" s="405"/>
-      <c r="D167" s="405"/>
-      <c r="E167" s="405"/>
-      <c r="F167" s="405"/>
+      <c r="B167" s="405"/>
+      <c r="C167" s="406"/>
+      <c r="D167" s="406"/>
+      <c r="E167" s="406"/>
+      <c r="F167" s="406"/>
       <c r="G167" s="308"/>
-      <c r="H167" s="405"/>
-      <c r="I167" s="405"/>
-      <c r="J167" s="405"/>
-      <c r="K167" s="405"/>
-      <c r="L167" s="412"/>
+      <c r="H167" s="406"/>
+      <c r="I167" s="406"/>
+      <c r="J167" s="406"/>
+      <c r="K167" s="406"/>
+      <c r="L167" s="410"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B168" s="406"/>
-      <c r="C168" s="407"/>
-      <c r="D168" s="407"/>
-      <c r="E168" s="407"/>
-      <c r="F168" s="407"/>
+      <c r="B168" s="407"/>
+      <c r="C168" s="408"/>
+      <c r="D168" s="408"/>
+      <c r="E168" s="408"/>
+      <c r="F168" s="408"/>
       <c r="G168" s="309"/>
-      <c r="H168" s="407"/>
-      <c r="I168" s="407"/>
-      <c r="J168" s="407"/>
-      <c r="K168" s="407"/>
-      <c r="L168" s="413"/>
+      <c r="H168" s="408"/>
+      <c r="I168" s="408"/>
+      <c r="J168" s="408"/>
+      <c r="K168" s="408"/>
+      <c r="L168" s="411"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="408" t="s">
+      <c r="B169" s="386" t="s">
         <v>389</v>
       </c>
-      <c r="C169" s="409"/>
-      <c r="D169" s="409"/>
-      <c r="E169" s="409"/>
-      <c r="F169" s="409"/>
+      <c r="C169" s="387"/>
+      <c r="D169" s="387"/>
+      <c r="E169" s="387"/>
+      <c r="F169" s="387"/>
       <c r="G169" s="310"/>
-      <c r="H169" s="409" t="s">
+      <c r="H169" s="387" t="s">
         <v>390</v>
       </c>
-      <c r="I169" s="409"/>
-      <c r="J169" s="409"/>
-      <c r="K169" s="409"/>
-      <c r="L169" s="410"/>
+      <c r="I169" s="387"/>
+      <c r="J169" s="387"/>
+      <c r="K169" s="387"/>
+      <c r="L169" s="388"/>
+    </row>
+    <row r="171" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B172" s="500" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="501"/>
+      <c r="D172" s="501"/>
+      <c r="E172" s="501"/>
+      <c r="F172" s="501"/>
+      <c r="G172" s="501"/>
+      <c r="H172" s="501"/>
+      <c r="I172" s="501"/>
+      <c r="J172" s="501"/>
+      <c r="K172" s="501"/>
+      <c r="L172" s="502"/>
+    </row>
+    <row r="173" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="211"/>
+      <c r="E173" s="211"/>
+      <c r="F173" s="211"/>
+      <c r="G173" s="211"/>
+      <c r="H173" s="211"/>
+      <c r="I173" s="211"/>
+      <c r="J173" s="211"/>
+      <c r="K173" s="212" t="str">
+        <f>("DATA ATUAL:"&amp;"    "&amp;UPPER(LEFT(TEXT(L173,"DDDD"),7)))</f>
+        <v>DATA ATUAL:    QUINTA-</v>
+      </c>
+      <c r="L173" s="257">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="213"/>
+      <c r="E174" s="213"/>
+      <c r="F174" s="213"/>
+      <c r="G174" s="213"/>
+      <c r="H174" s="213"/>
+      <c r="I174" s="213"/>
+      <c r="J174" s="213"/>
+      <c r="K174" s="212" t="s">
+        <v>342</v>
+      </c>
+      <c r="L174" s="258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B175" s="20"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="503" t="s">
+        <v>343</v>
+      </c>
+      <c r="E175" s="503"/>
+      <c r="F175" s="503"/>
+      <c r="G175" s="503"/>
+      <c r="H175" s="503"/>
+      <c r="I175" s="503"/>
+      <c r="J175" s="213"/>
+      <c r="K175" s="212" t="s">
+        <v>344</v>
+      </c>
+      <c r="L175" s="259">
+        <f>IFERROR(IF(AND(L180&gt;0,L179&gt;0),L180-L179,0),"")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="504" t="s">
+        <v>345</v>
+      </c>
+      <c r="E176" s="504"/>
+      <c r="F176" s="504"/>
+      <c r="G176" s="504"/>
+      <c r="H176" s="504"/>
+      <c r="I176" s="504"/>
+      <c r="J176" s="214"/>
+      <c r="K176" s="212" t="s">
+        <v>346</v>
+      </c>
+      <c r="L176" s="259">
+        <f>IF(OR(AND(K224&lt;&gt;"",K225&lt;&gt;"",K226&lt;&gt;""),AND(D220&lt;&gt;"",F220&lt;&gt;"")),IF(L179&gt;0,(L173-L179)-1,0),IF(L179&gt;0,L173-L179+1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B177" s="20"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="505" t="s">
+        <v>347</v>
+      </c>
+      <c r="E177" s="505"/>
+      <c r="F177" s="505"/>
+      <c r="G177" s="505"/>
+      <c r="H177" s="505"/>
+      <c r="I177" s="505"/>
+      <c r="J177" s="215"/>
+      <c r="K177" s="212" t="s">
+        <v>348</v>
+      </c>
+      <c r="L177" s="259">
+        <f>IFERROR(L175-L176,"")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B178" s="412" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="413"/>
+      <c r="D178" s="413"/>
+      <c r="E178" s="413"/>
+      <c r="F178" s="413"/>
+      <c r="G178" s="413"/>
+      <c r="H178" s="413"/>
+      <c r="I178" s="413"/>
+      <c r="J178" s="413"/>
+      <c r="K178" s="413"/>
+      <c r="L178" s="414"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B179" s="495" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="389"/>
+      <c r="D179" s="389" t="s">
+        <v>410</v>
+      </c>
+      <c r="E179" s="389"/>
+      <c r="F179" s="389"/>
+      <c r="G179" s="389"/>
+      <c r="H179" s="389"/>
+      <c r="I179" s="389"/>
+      <c r="J179" s="389"/>
+      <c r="K179" s="217" t="s">
+        <v>351</v>
+      </c>
+      <c r="L179" s="218">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B180" s="340" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" s="389"/>
+      <c r="D180" s="389"/>
+      <c r="E180" s="389"/>
+      <c r="F180" s="389"/>
+      <c r="G180" s="389"/>
+      <c r="H180" s="389"/>
+      <c r="I180" s="389"/>
+      <c r="J180" s="389"/>
+      <c r="K180" s="217" t="s">
+        <v>353</v>
+      </c>
+      <c r="L180" s="218">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B181" s="495" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="389"/>
+      <c r="D181" s="389" t="s">
+        <v>411</v>
+      </c>
+      <c r="E181" s="389"/>
+      <c r="F181" s="389"/>
+      <c r="G181" s="389"/>
+      <c r="H181" s="389"/>
+      <c r="I181" s="389"/>
+      <c r="J181" s="389"/>
+      <c r="K181" s="389"/>
+      <c r="L181" s="390"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B182" s="495" t="s">
+        <v>355</v>
+      </c>
+      <c r="C182" s="496"/>
+      <c r="D182" s="496"/>
+      <c r="E182" s="389" t="s">
+        <v>407</v>
+      </c>
+      <c r="F182" s="389"/>
+      <c r="G182" s="389"/>
+      <c r="H182" s="389"/>
+      <c r="I182" s="389"/>
+      <c r="J182" s="389"/>
+      <c r="K182" s="389"/>
+      <c r="L182" s="390"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B183" s="340" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" s="341"/>
+      <c r="D183" s="497"/>
+      <c r="E183" s="497"/>
+      <c r="F183" s="497"/>
+      <c r="G183" s="497"/>
+      <c r="H183" s="497"/>
+      <c r="I183" s="497"/>
+      <c r="J183" s="497"/>
+      <c r="K183" s="497"/>
+      <c r="L183" s="498"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B184" s="412" t="s">
+        <v>357</v>
+      </c>
+      <c r="C184" s="413"/>
+      <c r="D184" s="413"/>
+      <c r="E184" s="413"/>
+      <c r="F184" s="413"/>
+      <c r="G184" s="413"/>
+      <c r="H184" s="413"/>
+      <c r="I184" s="413"/>
+      <c r="J184" s="413"/>
+      <c r="K184" s="413"/>
+      <c r="L184" s="414"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B185" s="495" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="496"/>
+      <c r="D185" s="496"/>
+      <c r="E185" s="389"/>
+      <c r="F185" s="389"/>
+      <c r="G185" s="389"/>
+      <c r="H185" s="389"/>
+      <c r="I185" s="389"/>
+      <c r="J185" s="389"/>
+      <c r="K185" s="389"/>
+      <c r="L185" s="390"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B186" s="220" t="s">
+        <v>321</v>
+      </c>
+      <c r="C186" s="389"/>
+      <c r="D186" s="389"/>
+      <c r="E186" s="389"/>
+      <c r="F186" s="389"/>
+      <c r="G186" s="389"/>
+      <c r="H186" s="389"/>
+      <c r="I186" s="389"/>
+      <c r="J186" s="389"/>
+      <c r="K186" s="389"/>
+      <c r="L186" s="390"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B187" s="220" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" s="389"/>
+      <c r="D187" s="389"/>
+      <c r="E187" s="389"/>
+      <c r="F187" s="389"/>
+      <c r="G187" s="389"/>
+      <c r="H187" s="389"/>
+      <c r="I187" s="389"/>
+      <c r="J187" s="389"/>
+      <c r="K187" s="389"/>
+      <c r="L187" s="390"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B188" s="220" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" s="389"/>
+      <c r="D188" s="389"/>
+      <c r="E188" s="389"/>
+      <c r="F188" s="389"/>
+      <c r="G188" s="389"/>
+      <c r="H188" s="389"/>
+      <c r="I188" s="389"/>
+      <c r="J188" s="389"/>
+      <c r="K188" s="389"/>
+      <c r="L188" s="390"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B189" s="412" t="s">
+        <v>360</v>
+      </c>
+      <c r="C189" s="413"/>
+      <c r="D189" s="413"/>
+      <c r="E189" s="413"/>
+      <c r="F189" s="413"/>
+      <c r="G189" s="413"/>
+      <c r="H189" s="413"/>
+      <c r="I189" s="413"/>
+      <c r="J189" s="413"/>
+      <c r="K189" s="413"/>
+      <c r="L189" s="414"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B190" s="435" t="s">
+        <v>361</v>
+      </c>
+      <c r="C190" s="436"/>
+      <c r="D190" s="436"/>
+      <c r="E190" s="436"/>
+      <c r="F190" s="436"/>
+      <c r="G190" s="436"/>
+      <c r="H190" s="436"/>
+      <c r="I190" s="436"/>
+      <c r="J190" s="436"/>
+      <c r="K190" s="436"/>
+      <c r="L190" s="437"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B191" s="491" t="s">
+        <v>362</v>
+      </c>
+      <c r="C191" s="476"/>
+      <c r="D191" s="477"/>
+      <c r="E191" s="461" t="s">
+        <v>363</v>
+      </c>
+      <c r="F191" s="462"/>
+      <c r="G191" s="462"/>
+      <c r="H191" s="462"/>
+      <c r="I191" s="462"/>
+      <c r="J191" s="462"/>
+      <c r="K191" s="463"/>
+      <c r="L191" s="492" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B192" s="491"/>
+      <c r="C192" s="476"/>
+      <c r="D192" s="477"/>
+      <c r="E192" s="464"/>
+      <c r="F192" s="465"/>
+      <c r="G192" s="465"/>
+      <c r="H192" s="465"/>
+      <c r="I192" s="465"/>
+      <c r="J192" s="465"/>
+      <c r="K192" s="466"/>
+      <c r="L192" s="493"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B193" s="391" t="s">
+        <v>405</v>
+      </c>
+      <c r="C193" s="392"/>
+      <c r="D193" s="393"/>
+      <c r="E193" s="494" t="s">
+        <v>420</v>
+      </c>
+      <c r="F193" s="487"/>
+      <c r="G193" s="487"/>
+      <c r="H193" s="487"/>
+      <c r="I193" s="487"/>
+      <c r="J193" s="487"/>
+      <c r="K193" s="393"/>
+      <c r="L193" s="221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B194" s="402" t="s">
+        <v>426</v>
+      </c>
+      <c r="C194" s="392"/>
+      <c r="D194" s="393"/>
+      <c r="E194" s="486" t="s">
+        <v>427</v>
+      </c>
+      <c r="F194" s="487"/>
+      <c r="G194" s="487"/>
+      <c r="H194" s="487"/>
+      <c r="I194" s="487"/>
+      <c r="J194" s="487"/>
+      <c r="K194" s="393"/>
+      <c r="L194" s="221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B195" s="402" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" s="487"/>
+      <c r="D195" s="393"/>
+      <c r="E195" s="486" t="s">
+        <v>421</v>
+      </c>
+      <c r="F195" s="487"/>
+      <c r="G195" s="487"/>
+      <c r="H195" s="487"/>
+      <c r="I195" s="487"/>
+      <c r="J195" s="487"/>
+      <c r="K195" s="393"/>
+      <c r="L195" s="222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B196" s="402"/>
+      <c r="C196" s="487"/>
+      <c r="D196" s="393"/>
+      <c r="E196" s="486"/>
+      <c r="F196" s="487"/>
+      <c r="G196" s="487"/>
+      <c r="H196" s="487"/>
+      <c r="I196" s="487"/>
+      <c r="J196" s="487"/>
+      <c r="K196" s="393"/>
+      <c r="L196" s="222"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B197" s="450" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="488"/>
+      <c r="D197" s="488"/>
+      <c r="E197" s="488"/>
+      <c r="F197" s="488"/>
+      <c r="G197" s="488"/>
+      <c r="H197" s="488"/>
+      <c r="I197" s="488"/>
+      <c r="J197" s="488"/>
+      <c r="K197" s="452"/>
+      <c r="L197" s="225">
+        <f>SUM(L193:L196)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B198" s="435" t="s">
+        <v>366</v>
+      </c>
+      <c r="C198" s="436"/>
+      <c r="D198" s="436"/>
+      <c r="E198" s="436"/>
+      <c r="F198" s="436"/>
+      <c r="G198" s="436"/>
+      <c r="H198" s="436"/>
+      <c r="I198" s="436"/>
+      <c r="J198" s="436"/>
+      <c r="K198" s="436"/>
+      <c r="L198" s="437"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B199" s="455" t="s">
+        <v>367</v>
+      </c>
+      <c r="C199" s="461" t="s">
+        <v>362</v>
+      </c>
+      <c r="D199" s="463"/>
+      <c r="E199" s="461" t="s">
+        <v>363</v>
+      </c>
+      <c r="F199" s="462"/>
+      <c r="G199" s="462"/>
+      <c r="H199" s="462"/>
+      <c r="I199" s="462"/>
+      <c r="J199" s="462"/>
+      <c r="K199" s="463"/>
+      <c r="L199" s="489" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B200" s="456"/>
+      <c r="C200" s="464"/>
+      <c r="D200" s="466"/>
+      <c r="E200" s="464"/>
+      <c r="F200" s="465"/>
+      <c r="G200" s="465"/>
+      <c r="H200" s="465"/>
+      <c r="I200" s="465"/>
+      <c r="J200" s="465"/>
+      <c r="K200" s="466"/>
+      <c r="L200" s="490"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B201" s="338"/>
+      <c r="C201" s="473"/>
+      <c r="D201" s="474"/>
+      <c r="E201" s="484"/>
+      <c r="F201" s="485"/>
+      <c r="G201" s="485"/>
+      <c r="H201" s="485"/>
+      <c r="I201" s="485"/>
+      <c r="J201" s="485"/>
+      <c r="K201" s="448"/>
+      <c r="L201" s="339"/>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B202" s="338"/>
+      <c r="C202" s="473"/>
+      <c r="D202" s="474"/>
+      <c r="E202" s="484"/>
+      <c r="F202" s="485"/>
+      <c r="G202" s="485"/>
+      <c r="H202" s="485"/>
+      <c r="I202" s="485"/>
+      <c r="J202" s="485"/>
+      <c r="K202" s="448"/>
+      <c r="L202" s="339"/>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B203" s="338"/>
+      <c r="C203" s="473"/>
+      <c r="D203" s="474"/>
+      <c r="E203" s="475"/>
+      <c r="F203" s="476"/>
+      <c r="G203" s="476"/>
+      <c r="H203" s="476"/>
+      <c r="I203" s="476"/>
+      <c r="J203" s="476"/>
+      <c r="K203" s="477"/>
+      <c r="L203" s="339"/>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B204" s="338"/>
+      <c r="C204" s="473"/>
+      <c r="D204" s="474"/>
+      <c r="E204" s="475"/>
+      <c r="F204" s="476"/>
+      <c r="G204" s="476"/>
+      <c r="H204" s="476"/>
+      <c r="I204" s="476"/>
+      <c r="J204" s="476"/>
+      <c r="K204" s="477"/>
+      <c r="L204" s="339"/>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B205" s="338"/>
+      <c r="C205" s="473"/>
+      <c r="D205" s="474"/>
+      <c r="E205" s="475"/>
+      <c r="F205" s="476"/>
+      <c r="G205" s="476"/>
+      <c r="H205" s="476"/>
+      <c r="I205" s="476"/>
+      <c r="J205" s="476"/>
+      <c r="K205" s="477"/>
+      <c r="L205" s="339"/>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B206" s="478" t="s">
+        <v>365</v>
+      </c>
+      <c r="C206" s="479"/>
+      <c r="D206" s="479"/>
+      <c r="E206" s="479"/>
+      <c r="F206" s="479"/>
+      <c r="G206" s="479"/>
+      <c r="H206" s="479"/>
+      <c r="I206" s="479"/>
+      <c r="J206" s="479"/>
+      <c r="K206" s="480"/>
+      <c r="L206" s="228">
+        <f>SUM(L201:L205)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B207" s="481" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207" s="482"/>
+      <c r="D207" s="482"/>
+      <c r="E207" s="482"/>
+      <c r="F207" s="482"/>
+      <c r="G207" s="482"/>
+      <c r="H207" s="482"/>
+      <c r="I207" s="482"/>
+      <c r="J207" s="482"/>
+      <c r="K207" s="483"/>
+      <c r="L207" s="229">
+        <f>L206+L197</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B208" s="412" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" s="413"/>
+      <c r="D208" s="413"/>
+      <c r="E208" s="413"/>
+      <c r="F208" s="413"/>
+      <c r="G208" s="413"/>
+      <c r="H208" s="413"/>
+      <c r="I208" s="413"/>
+      <c r="J208" s="413"/>
+      <c r="K208" s="413"/>
+      <c r="L208" s="414"/>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B209" s="435" t="s">
+        <v>368</v>
+      </c>
+      <c r="C209" s="436"/>
+      <c r="D209" s="436"/>
+      <c r="E209" s="436"/>
+      <c r="F209" s="436"/>
+      <c r="G209" s="436"/>
+      <c r="H209" s="436"/>
+      <c r="I209" s="436"/>
+      <c r="J209" s="435" t="s">
+        <v>369</v>
+      </c>
+      <c r="K209" s="436"/>
+      <c r="L209" s="437"/>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B210" s="455" t="s">
+        <v>367</v>
+      </c>
+      <c r="C210" s="457" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="458"/>
+      <c r="E210" s="461" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210" s="462"/>
+      <c r="G210" s="462"/>
+      <c r="H210" s="463"/>
+      <c r="I210" s="467" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="469" t="s">
+        <v>29</v>
+      </c>
+      <c r="K210" s="471" t="s">
+        <v>1</v>
+      </c>
+      <c r="L210" s="467" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B211" s="456"/>
+      <c r="C211" s="459"/>
+      <c r="D211" s="460"/>
+      <c r="E211" s="464"/>
+      <c r="F211" s="465"/>
+      <c r="G211" s="465"/>
+      <c r="H211" s="466"/>
+      <c r="I211" s="468"/>
+      <c r="J211" s="470"/>
+      <c r="K211" s="472"/>
+      <c r="L211" s="468"/>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B212" s="230"/>
+      <c r="C212" s="447"/>
+      <c r="D212" s="448"/>
+      <c r="E212" s="447"/>
+      <c r="F212" s="449"/>
+      <c r="G212" s="449"/>
+      <c r="H212" s="448"/>
+      <c r="I212" s="232"/>
+      <c r="J212" s="333"/>
+      <c r="K212" s="331"/>
+      <c r="L212" s="222"/>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B213" s="230"/>
+      <c r="C213" s="447"/>
+      <c r="D213" s="448"/>
+      <c r="E213" s="447"/>
+      <c r="F213" s="449"/>
+      <c r="G213" s="449"/>
+      <c r="H213" s="448"/>
+      <c r="I213" s="235"/>
+      <c r="J213" s="236"/>
+      <c r="K213" s="237"/>
+      <c r="L213" s="238"/>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B214" s="230"/>
+      <c r="C214" s="447"/>
+      <c r="D214" s="448"/>
+      <c r="E214" s="447"/>
+      <c r="F214" s="449"/>
+      <c r="G214" s="449"/>
+      <c r="H214" s="448"/>
+      <c r="I214" s="240"/>
+      <c r="J214" s="231"/>
+      <c r="K214" s="239"/>
+      <c r="L214" s="221"/>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B215" s="450" t="s">
+        <v>371</v>
+      </c>
+      <c r="C215" s="451"/>
+      <c r="D215" s="451"/>
+      <c r="E215" s="451"/>
+      <c r="F215" s="451"/>
+      <c r="G215" s="451"/>
+      <c r="H215" s="452"/>
+      <c r="I215" s="256">
+        <f>SUM(I212:I214)</f>
+        <v>0</v>
+      </c>
+      <c r="J215" s="453" t="s">
+        <v>371</v>
+      </c>
+      <c r="K215" s="454"/>
+      <c r="L215" s="241">
+        <f>SUM(L212:L214)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B216" s="450" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" s="451"/>
+      <c r="D216" s="451"/>
+      <c r="E216" s="451"/>
+      <c r="F216" s="451"/>
+      <c r="G216" s="451"/>
+      <c r="H216" s="451"/>
+      <c r="I216" s="451"/>
+      <c r="J216" s="451"/>
+      <c r="K216" s="452"/>
+      <c r="L216" s="241">
+        <f>L215+I215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B217" s="412" t="s">
+        <v>393</v>
+      </c>
+      <c r="C217" s="413"/>
+      <c r="D217" s="413"/>
+      <c r="E217" s="413"/>
+      <c r="F217" s="413"/>
+      <c r="G217" s="413"/>
+      <c r="H217" s="413"/>
+      <c r="I217" s="413"/>
+      <c r="J217" s="413"/>
+      <c r="K217" s="413"/>
+      <c r="L217" s="414"/>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B218" s="435" t="s">
+        <v>373</v>
+      </c>
+      <c r="C218" s="436"/>
+      <c r="D218" s="437"/>
+      <c r="E218" s="436" t="s">
+        <v>399</v>
+      </c>
+      <c r="F218" s="436"/>
+      <c r="G218" s="438" t="s">
+        <v>394</v>
+      </c>
+      <c r="H218" s="439"/>
+      <c r="I218" s="439"/>
+      <c r="J218" s="439"/>
+      <c r="K218" s="439"/>
+      <c r="L218" s="440"/>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B219" s="441" t="s">
+        <v>398</v>
+      </c>
+      <c r="C219" s="442"/>
+      <c r="D219" s="269" t="s">
+        <v>395</v>
+      </c>
+      <c r="E219" s="329" t="s">
+        <v>396</v>
+      </c>
+      <c r="F219" s="268" t="s">
+        <v>397</v>
+      </c>
+      <c r="G219" s="328"/>
+      <c r="H219" s="329"/>
+      <c r="I219" s="329"/>
+      <c r="J219" s="329"/>
+      <c r="K219" s="329"/>
+      <c r="L219" s="330"/>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B220" s="342"/>
+      <c r="C220" s="342"/>
+      <c r="D220" s="443"/>
+      <c r="E220" s="274"/>
+      <c r="F220" s="445"/>
+      <c r="G220" s="438"/>
+      <c r="H220" s="439"/>
+      <c r="I220" s="439"/>
+      <c r="J220" s="439"/>
+      <c r="K220" s="439"/>
+      <c r="L220" s="440"/>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B221" s="342"/>
+      <c r="C221" s="342"/>
+      <c r="D221" s="444"/>
+      <c r="E221" s="274"/>
+      <c r="F221" s="446"/>
+      <c r="G221" s="438"/>
+      <c r="H221" s="439"/>
+      <c r="I221" s="439"/>
+      <c r="J221" s="439"/>
+      <c r="K221" s="439"/>
+      <c r="L221" s="440"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B222" s="415" t="s">
+        <v>372</v>
+      </c>
+      <c r="C222" s="416"/>
+      <c r="D222" s="416"/>
+      <c r="E222" s="416"/>
+      <c r="F222" s="416"/>
+      <c r="G222" s="416"/>
+      <c r="H222" s="416"/>
+      <c r="I222" s="416"/>
+      <c r="J222" s="416"/>
+      <c r="K222" s="416"/>
+      <c r="L222" s="417"/>
+    </row>
+    <row r="223" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B223" s="267" t="s">
+        <v>373</v>
+      </c>
+      <c r="C223" s="418" t="s">
+        <v>374</v>
+      </c>
+      <c r="D223" s="419"/>
+      <c r="E223" s="420"/>
+      <c r="F223" s="418" t="s">
+        <v>375</v>
+      </c>
+      <c r="G223" s="419"/>
+      <c r="H223" s="420"/>
+      <c r="I223" s="418" t="s">
+        <v>376</v>
+      </c>
+      <c r="J223" s="420"/>
+      <c r="K223" s="242" t="s">
+        <v>377</v>
+      </c>
+      <c r="L223" s="243" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B224" s="244" t="s">
+        <v>379</v>
+      </c>
+      <c r="C224" s="421" t="s">
+        <v>413</v>
+      </c>
+      <c r="D224" s="422"/>
+      <c r="E224" s="423"/>
+      <c r="F224" s="394"/>
+      <c r="G224" s="395"/>
+      <c r="H224" s="332"/>
+      <c r="I224" s="394"/>
+      <c r="J224" s="395"/>
+      <c r="K224" s="270"/>
+      <c r="L224" s="246"/>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B225" s="244" t="s">
+        <v>380</v>
+      </c>
+      <c r="C225" s="421" t="s">
+        <v>413</v>
+      </c>
+      <c r="D225" s="422"/>
+      <c r="E225" s="423"/>
+      <c r="F225" s="394"/>
+      <c r="G225" s="395"/>
+      <c r="H225" s="332"/>
+      <c r="I225" s="394"/>
+      <c r="J225" s="395"/>
+      <c r="K225" s="270"/>
+      <c r="L225" s="246"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B226" s="244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C226" s="421" t="s">
+        <v>413</v>
+      </c>
+      <c r="D226" s="422"/>
+      <c r="E226" s="423"/>
+      <c r="F226" s="394"/>
+      <c r="G226" s="395"/>
+      <c r="H226" s="332"/>
+      <c r="I226" s="394"/>
+      <c r="J226" s="395"/>
+      <c r="K226" s="270"/>
+      <c r="L226" s="246"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B227" s="424" t="s">
+        <v>382</v>
+      </c>
+      <c r="C227" s="425"/>
+      <c r="D227" s="425"/>
+      <c r="E227" s="425"/>
+      <c r="F227" s="425"/>
+      <c r="G227" s="425"/>
+      <c r="H227" s="425"/>
+      <c r="I227" s="425"/>
+      <c r="J227" s="426"/>
+      <c r="K227" s="433" t="s">
+        <v>383</v>
+      </c>
+      <c r="L227" s="434"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B228" s="427"/>
+      <c r="C228" s="428"/>
+      <c r="D228" s="428"/>
+      <c r="E228" s="428"/>
+      <c r="F228" s="428"/>
+      <c r="G228" s="428"/>
+      <c r="H228" s="428"/>
+      <c r="I228" s="428"/>
+      <c r="J228" s="429"/>
+      <c r="K228" s="247" t="s">
+        <v>384</v>
+      </c>
+      <c r="L228" s="246"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B229" s="427"/>
+      <c r="C229" s="428"/>
+      <c r="D229" s="428"/>
+      <c r="E229" s="428"/>
+      <c r="F229" s="428"/>
+      <c r="G229" s="428"/>
+      <c r="H229" s="428"/>
+      <c r="I229" s="428"/>
+      <c r="J229" s="429"/>
+      <c r="K229" s="247" t="s">
+        <v>385</v>
+      </c>
+      <c r="L229" s="246"/>
+    </row>
+    <row r="230" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="430"/>
+      <c r="C230" s="431"/>
+      <c r="D230" s="431"/>
+      <c r="E230" s="431"/>
+      <c r="F230" s="431"/>
+      <c r="G230" s="431"/>
+      <c r="H230" s="431"/>
+      <c r="I230" s="431"/>
+      <c r="J230" s="432"/>
+      <c r="K230" s="248" t="s">
+        <v>386</v>
+      </c>
+      <c r="L230" s="249"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B231" s="250"/>
+      <c r="C231" s="250"/>
+      <c r="D231" s="250"/>
+      <c r="E231" s="250"/>
+      <c r="F231" s="250"/>
+      <c r="G231" s="250"/>
+      <c r="H231" s="250"/>
+      <c r="I231" s="250"/>
+      <c r="J231" s="250"/>
+      <c r="K231" s="251"/>
+      <c r="L231" s="252"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B233" s="412" t="s">
+        <v>387</v>
+      </c>
+      <c r="C233" s="413"/>
+      <c r="D233" s="413"/>
+      <c r="E233" s="413"/>
+      <c r="F233" s="413"/>
+      <c r="G233" s="413"/>
+      <c r="H233" s="413"/>
+      <c r="I233" s="413"/>
+      <c r="J233" s="413"/>
+      <c r="K233" s="413"/>
+      <c r="L233" s="414"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B234" s="318">
+        <v>1</v>
+      </c>
+      <c r="C234" s="396" t="s">
+        <v>430</v>
+      </c>
+      <c r="D234" s="392"/>
+      <c r="E234" s="392"/>
+      <c r="F234" s="392"/>
+      <c r="G234" s="392"/>
+      <c r="H234" s="392"/>
+      <c r="I234" s="392"/>
+      <c r="J234" s="392"/>
+      <c r="K234" s="392"/>
+      <c r="L234" s="397"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B235" s="506">
+        <v>2</v>
+      </c>
+      <c r="C235" s="396" t="s">
+        <v>432</v>
+      </c>
+      <c r="D235" s="392"/>
+      <c r="E235" s="392"/>
+      <c r="F235" s="392"/>
+      <c r="G235" s="392"/>
+      <c r="H235" s="392"/>
+      <c r="I235" s="392"/>
+      <c r="J235" s="392"/>
+      <c r="K235" s="392"/>
+      <c r="L235" s="397"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B236" s="506">
+        <v>3</v>
+      </c>
+      <c r="C236" s="494" t="s">
+        <v>428</v>
+      </c>
+      <c r="D236" s="507"/>
+      <c r="E236" s="507"/>
+      <c r="F236" s="507"/>
+      <c r="G236" s="507"/>
+      <c r="H236" s="507"/>
+      <c r="I236" s="507"/>
+      <c r="J236" s="507"/>
+      <c r="K236" s="507"/>
+      <c r="L236" s="508"/>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B237" s="318" t="s">
+        <v>429</v>
+      </c>
+      <c r="C237" s="494" t="s">
+        <v>431</v>
+      </c>
+      <c r="D237" s="507"/>
+      <c r="E237" s="507"/>
+      <c r="F237" s="507"/>
+      <c r="G237" s="507"/>
+      <c r="H237" s="507"/>
+      <c r="I237" s="507"/>
+      <c r="J237" s="507"/>
+      <c r="K237" s="507"/>
+      <c r="L237" s="508"/>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B238" s="412" t="s">
+        <v>391</v>
+      </c>
+      <c r="C238" s="413"/>
+      <c r="D238" s="413"/>
+      <c r="E238" s="413"/>
+      <c r="F238" s="413"/>
+      <c r="G238" s="413"/>
+      <c r="H238" s="413"/>
+      <c r="I238" s="413"/>
+      <c r="J238" s="413"/>
+      <c r="K238" s="413"/>
+      <c r="L238" s="414"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B239" s="275">
+        <v>1</v>
+      </c>
+      <c r="C239" s="398" t="s">
+        <v>433</v>
+      </c>
+      <c r="D239" s="392"/>
+      <c r="E239" s="392"/>
+      <c r="F239" s="392"/>
+      <c r="G239" s="392"/>
+      <c r="H239" s="392"/>
+      <c r="I239" s="392"/>
+      <c r="J239" s="392"/>
+      <c r="K239" s="392"/>
+      <c r="L239" s="397"/>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B240" s="275"/>
+      <c r="C240" s="398"/>
+      <c r="D240" s="392"/>
+      <c r="E240" s="392"/>
+      <c r="F240" s="392"/>
+      <c r="G240" s="392"/>
+      <c r="H240" s="392"/>
+      <c r="I240" s="392"/>
+      <c r="J240" s="392"/>
+      <c r="K240" s="392"/>
+      <c r="L240" s="397"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B241" s="275"/>
+      <c r="C241" s="398"/>
+      <c r="D241" s="392"/>
+      <c r="E241" s="392"/>
+      <c r="F241" s="392"/>
+      <c r="G241" s="392"/>
+      <c r="H241" s="392"/>
+      <c r="I241" s="392"/>
+      <c r="J241" s="392"/>
+      <c r="K241" s="392"/>
+      <c r="L241" s="397"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B242" s="412" t="s">
+        <v>392</v>
+      </c>
+      <c r="C242" s="413"/>
+      <c r="D242" s="413"/>
+      <c r="E242" s="413"/>
+      <c r="F242" s="413"/>
+      <c r="G242" s="413"/>
+      <c r="H242" s="413"/>
+      <c r="I242" s="413"/>
+      <c r="J242" s="413"/>
+      <c r="K242" s="413"/>
+      <c r="L242" s="414"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B243" s="275"/>
+      <c r="C243" s="398"/>
+      <c r="D243" s="392"/>
+      <c r="E243" s="392"/>
+      <c r="F243" s="392"/>
+      <c r="G243" s="392"/>
+      <c r="H243" s="392"/>
+      <c r="I243" s="392"/>
+      <c r="J243" s="392"/>
+      <c r="K243" s="392"/>
+      <c r="L243" s="397"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B244" s="275"/>
+      <c r="C244" s="398"/>
+      <c r="D244" s="392"/>
+      <c r="E244" s="392"/>
+      <c r="F244" s="392"/>
+      <c r="G244" s="392"/>
+      <c r="H244" s="392"/>
+      <c r="I244" s="392"/>
+      <c r="J244" s="392"/>
+      <c r="K244" s="392"/>
+      <c r="L244" s="397"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B245" s="275"/>
+      <c r="C245" s="398"/>
+      <c r="D245" s="392"/>
+      <c r="E245" s="392"/>
+      <c r="F245" s="392"/>
+      <c r="G245" s="392"/>
+      <c r="H245" s="392"/>
+      <c r="I245" s="392"/>
+      <c r="J245" s="392"/>
+      <c r="K245" s="392"/>
+      <c r="L245" s="397"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B246" s="399" t="s">
+        <v>388</v>
+      </c>
+      <c r="C246" s="400"/>
+      <c r="D246" s="400"/>
+      <c r="E246" s="400"/>
+      <c r="F246" s="400"/>
+      <c r="G246" s="400"/>
+      <c r="H246" s="400"/>
+      <c r="I246" s="400"/>
+      <c r="J246" s="400"/>
+      <c r="K246" s="400"/>
+      <c r="L246" s="401"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B247" s="402"/>
+      <c r="C247" s="392"/>
+      <c r="D247" s="392"/>
+      <c r="E247" s="392"/>
+      <c r="F247" s="392"/>
+      <c r="G247" s="392"/>
+      <c r="H247" s="392"/>
+      <c r="I247" s="392"/>
+      <c r="J247" s="392"/>
+      <c r="K247" s="392"/>
+      <c r="L247" s="397"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B248" s="402"/>
+      <c r="C248" s="392"/>
+      <c r="D248" s="392"/>
+      <c r="E248" s="392"/>
+      <c r="F248" s="392"/>
+      <c r="G248" s="392"/>
+      <c r="H248" s="392"/>
+      <c r="I248" s="392"/>
+      <c r="J248" s="392"/>
+      <c r="K248" s="392"/>
+      <c r="L248" s="397"/>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B249" s="402"/>
+      <c r="C249" s="392"/>
+      <c r="D249" s="392"/>
+      <c r="E249" s="392"/>
+      <c r="F249" s="392"/>
+      <c r="G249" s="392"/>
+      <c r="H249" s="392"/>
+      <c r="I249" s="392"/>
+      <c r="J249" s="392"/>
+      <c r="K249" s="392"/>
+      <c r="L249" s="397"/>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B250" s="402"/>
+      <c r="C250" s="392"/>
+      <c r="D250" s="392"/>
+      <c r="E250" s="392"/>
+      <c r="F250" s="392"/>
+      <c r="G250" s="392"/>
+      <c r="H250" s="392"/>
+      <c r="I250" s="392"/>
+      <c r="J250" s="392"/>
+      <c r="K250" s="392"/>
+      <c r="L250" s="397"/>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B251" s="403"/>
+      <c r="C251" s="404"/>
+      <c r="D251" s="404"/>
+      <c r="E251" s="404"/>
+      <c r="F251" s="404"/>
+      <c r="G251" s="334"/>
+      <c r="H251" s="404"/>
+      <c r="I251" s="404"/>
+      <c r="J251" s="404"/>
+      <c r="K251" s="404"/>
+      <c r="L251" s="409"/>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B252" s="405"/>
+      <c r="C252" s="406"/>
+      <c r="D252" s="406"/>
+      <c r="E252" s="406"/>
+      <c r="F252" s="406"/>
+      <c r="G252" s="335"/>
+      <c r="H252" s="406"/>
+      <c r="I252" s="406"/>
+      <c r="J252" s="406"/>
+      <c r="K252" s="406"/>
+      <c r="L252" s="410"/>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B253" s="405"/>
+      <c r="C253" s="406"/>
+      <c r="D253" s="406"/>
+      <c r="E253" s="406"/>
+      <c r="F253" s="406"/>
+      <c r="G253" s="335"/>
+      <c r="H253" s="406"/>
+      <c r="I253" s="406"/>
+      <c r="J253" s="406"/>
+      <c r="K253" s="406"/>
+      <c r="L253" s="410"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B254" s="407"/>
+      <c r="C254" s="408"/>
+      <c r="D254" s="408"/>
+      <c r="E254" s="408"/>
+      <c r="F254" s="408"/>
+      <c r="G254" s="336"/>
+      <c r="H254" s="408"/>
+      <c r="I254" s="408"/>
+      <c r="J254" s="408"/>
+      <c r="K254" s="408"/>
+      <c r="L254" s="411"/>
+    </row>
+    <row r="255" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="386" t="s">
+        <v>389</v>
+      </c>
+      <c r="C255" s="387"/>
+      <c r="D255" s="387"/>
+      <c r="E255" s="387"/>
+      <c r="F255" s="387"/>
+      <c r="G255" s="337"/>
+      <c r="H255" s="387" t="s">
+        <v>390</v>
+      </c>
+      <c r="I255" s="387"/>
+      <c r="J255" s="387"/>
+      <c r="K255" s="387"/>
+      <c r="L255" s="388"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
+  <mergeCells count="343">
+    <mergeCell ref="B248:L248"/>
+    <mergeCell ref="B249:L249"/>
+    <mergeCell ref="B250:L250"/>
+    <mergeCell ref="B251:F254"/>
+    <mergeCell ref="H251:L254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="H255:L255"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="C235:L235"/>
+    <mergeCell ref="C236:L236"/>
+    <mergeCell ref="C239:L239"/>
+    <mergeCell ref="C240:L240"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="B242:L242"/>
+    <mergeCell ref="C243:L243"/>
+    <mergeCell ref="C244:L244"/>
+    <mergeCell ref="C245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B247:L247"/>
+    <mergeCell ref="C226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="I226:J226"/>
+    <mergeCell ref="B227:J230"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="B233:L233"/>
+    <mergeCell ref="C234:L234"/>
+    <mergeCell ref="C237:L237"/>
+    <mergeCell ref="B238:L238"/>
+    <mergeCell ref="B222:L222"/>
+    <mergeCell ref="C223:E223"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="I224:J224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="I225:J225"/>
+    <mergeCell ref="B217:L217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="F220:F221"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:H212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:H213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:H214"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="B216:K216"/>
+    <mergeCell ref="B207:K207"/>
+    <mergeCell ref="B208:L208"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="J209:L209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:D211"/>
+    <mergeCell ref="E210:H211"/>
+    <mergeCell ref="I210:I211"/>
+    <mergeCell ref="J210:J211"/>
+    <mergeCell ref="K210:K211"/>
+    <mergeCell ref="L210:L211"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:K202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:K203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:K204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:K205"/>
+    <mergeCell ref="B206:K206"/>
+    <mergeCell ref="E195:K195"/>
+    <mergeCell ref="E196:K196"/>
+    <mergeCell ref="B197:K197"/>
+    <mergeCell ref="B198:L198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="E199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:K201"/>
+    <mergeCell ref="B189:L189"/>
+    <mergeCell ref="B190:L190"/>
+    <mergeCell ref="B191:D192"/>
+    <mergeCell ref="E191:K192"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="E193:K193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="E194:K194"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="E182:L182"/>
+    <mergeCell ref="D183:L183"/>
+    <mergeCell ref="B184:L184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="E185:L185"/>
+    <mergeCell ref="C186:L186"/>
+    <mergeCell ref="C187:L187"/>
+    <mergeCell ref="C188:L188"/>
+    <mergeCell ref="D175:I175"/>
+    <mergeCell ref="D176:I176"/>
+    <mergeCell ref="D177:I177"/>
+    <mergeCell ref="B178:L178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:L181"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B172:L172"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="C72:L72"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="B79:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="H79:L82"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:L75"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B57:J60"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="E29:K30"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E21:K22"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:L95"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="B104:L104"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:K107"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:L96"/>
+    <mergeCell ref="D97:L97"/>
+    <mergeCell ref="B98:L98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="F99:L99"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="D101:L101"/>
+    <mergeCell ref="D102:L102"/>
+    <mergeCell ref="E108:K108"/>
+    <mergeCell ref="E109:K109"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:K113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:K114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:K115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:K118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:K119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:K120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:K121"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:K123"/>
+    <mergeCell ref="B124:L124"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:H128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="B133:L133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="B143:J146"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="B163:L163"/>
+    <mergeCell ref="B164:L164"/>
+    <mergeCell ref="B165:F168"/>
+    <mergeCell ref="H165:L168"/>
+    <mergeCell ref="B149:L149"/>
+    <mergeCell ref="C150:L150"/>
+    <mergeCell ref="C151:L151"/>
+    <mergeCell ref="B152:L152"/>
+    <mergeCell ref="C153:L153"/>
+    <mergeCell ref="C154:L154"/>
+    <mergeCell ref="C155:L155"/>
+    <mergeCell ref="B156:L156"/>
+    <mergeCell ref="C157:L157"/>
     <mergeCell ref="B169:F169"/>
     <mergeCell ref="H169:L169"/>
     <mergeCell ref="E15:L15"/>
@@ -25652,218 +27838,15 @@
     <mergeCell ref="B160:L160"/>
     <mergeCell ref="B161:L161"/>
     <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B163:L163"/>
-    <mergeCell ref="B164:L164"/>
-    <mergeCell ref="B165:F168"/>
-    <mergeCell ref="H165:L168"/>
-    <mergeCell ref="B149:L149"/>
-    <mergeCell ref="C150:L150"/>
-    <mergeCell ref="C151:L151"/>
-    <mergeCell ref="B152:L152"/>
-    <mergeCell ref="C153:L153"/>
-    <mergeCell ref="C154:L154"/>
-    <mergeCell ref="C155:L155"/>
-    <mergeCell ref="B156:L156"/>
-    <mergeCell ref="C157:L157"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="B143:J146"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="B133:L133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:L134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:H128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:H130"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="B132:K132"/>
-    <mergeCell ref="B125:I125"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:H127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="E119:K119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E120:K120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:K121"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="B124:L124"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:K114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:K115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="E118:K118"/>
-    <mergeCell ref="E108:K108"/>
-    <mergeCell ref="E109:K109"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:K113"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B103:L103"/>
-    <mergeCell ref="B104:L104"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="E107:K107"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="E96:L96"/>
-    <mergeCell ref="D97:L97"/>
-    <mergeCell ref="B98:L98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="F99:L99"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="D101:L101"/>
-    <mergeCell ref="D102:L102"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:L95"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E21:K22"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="B57:J60"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="C72:L72"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="B79:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="H79:L82"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="C69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:L75"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D91" r:id="rId2"/>
+    <hyperlink ref="D177" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -25881,6 +27864,169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="517" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="517" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="517" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="517" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="144">
+        <v>44670</v>
+      </c>
+      <c r="C5" s="517" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="518">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="144">
+        <v>44670</v>
+      </c>
+      <c r="C6" s="517" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="518">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="144">
+        <v>44670</v>
+      </c>
+      <c r="C7" s="517" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="518">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="144">
+        <v>44671</v>
+      </c>
+      <c r="C8" s="517" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="518">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="144">
+        <v>44671</v>
+      </c>
+      <c r="C9" s="517" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="518">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="144">
+        <v>44672</v>
+      </c>
+      <c r="C10" s="517" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="518">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="144">
+        <v>44672</v>
+      </c>
+      <c r="C11" s="517" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="518">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="144">
+        <v>44672</v>
+      </c>
+      <c r="C12" s="517" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="518">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="518"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="518"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="518"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="518"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="518"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="518"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="518"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="518"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="518"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="518">
+        <f>SUM(D5:D21)</f>
+        <v>533.1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="518"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="518"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2">
@@ -25889,8 +28035,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25908,14 +28054,14 @@
       <c r="A1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="328" t="s">
+      <c r="B1" s="343" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -25942,10 +28088,10 @@
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="165"/>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="346" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="332"/>
+      <c r="F4" s="347"/>
       <c r="G4" s="176">
         <f>G7+G14+G20+G25+G38+G40+G42+G46+G50+G54+G56+G58+G60+G62+G65+G72+G74</f>
         <v>2332276.7999999998</v>
@@ -27562,33 +29708,33 @@
   <sheetData>
     <row r="1" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="338" t="s">
+      <c r="B1" s="351" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
-      <c r="T1" s="338"/>
-      <c r="U1" s="338"/>
-      <c r="V1" s="338"/>
-      <c r="W1" s="338"/>
-      <c r="X1" s="338"/>
-      <c r="Y1" s="338"/>
-      <c r="Z1" s="338"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+      <c r="N1" s="351"/>
+      <c r="O1" s="351"/>
+      <c r="P1" s="351"/>
+      <c r="Q1" s="351"/>
+      <c r="R1" s="351"/>
+      <c r="S1" s="351"/>
+      <c r="T1" s="351"/>
+      <c r="U1" s="351"/>
+      <c r="V1" s="351"/>
+      <c r="W1" s="351"/>
+      <c r="X1" s="351"/>
+      <c r="Y1" s="351"/>
+      <c r="Z1" s="351"/>
     </row>
     <row r="2" spans="1:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
@@ -27811,56 +29957,56 @@
         <f>'FÍSICO SEMANAL'!B7</f>
         <v>44670</v>
       </c>
-      <c r="I6" s="335">
+      <c r="I6" s="348">
         <f>I7</f>
         <v>44670</v>
       </c>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="335">
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="349"/>
+      <c r="N6" s="349"/>
+      <c r="O6" s="350"/>
+      <c r="P6" s="348">
         <f ca="1">P7</f>
-        <v>44671</v>
-      </c>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="336"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="337"/>
-      <c r="W6" s="335">
+        <v>44672</v>
+      </c>
+      <c r="Q6" s="349"/>
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="349"/>
+      <c r="V6" s="350"/>
+      <c r="W6" s="348">
         <f ca="1">W7</f>
-        <v>44671</v>
-      </c>
-      <c r="X6" s="336"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="336"/>
-      <c r="AC6" s="337"/>
-      <c r="AD6" s="335">
+        <v>44672</v>
+      </c>
+      <c r="X6" s="349"/>
+      <c r="Y6" s="349"/>
+      <c r="Z6" s="349"/>
+      <c r="AA6" s="349"/>
+      <c r="AB6" s="349"/>
+      <c r="AC6" s="350"/>
+      <c r="AD6" s="348">
         <f ca="1">AD7</f>
-        <v>44671</v>
-      </c>
-      <c r="AE6" s="336"/>
-      <c r="AF6" s="336"/>
-      <c r="AG6" s="336"/>
-      <c r="AH6" s="336"/>
-      <c r="AI6" s="336"/>
-      <c r="AJ6" s="337"/>
-      <c r="AK6" s="335">
+        <v>44672</v>
+      </c>
+      <c r="AE6" s="349"/>
+      <c r="AF6" s="349"/>
+      <c r="AG6" s="349"/>
+      <c r="AH6" s="349"/>
+      <c r="AI6" s="349"/>
+      <c r="AJ6" s="350"/>
+      <c r="AK6" s="348">
         <f ca="1">AK7</f>
-        <v>44671</v>
-      </c>
-      <c r="AL6" s="336"/>
-      <c r="AM6" s="336"/>
-      <c r="AN6" s="336"/>
-      <c r="AO6" s="336"/>
-      <c r="AP6" s="336"/>
-      <c r="AQ6" s="337"/>
+        <v>44672</v>
+      </c>
+      <c r="AL6" s="349"/>
+      <c r="AM6" s="349"/>
+      <c r="AN6" s="349"/>
+      <c r="AO6" s="349"/>
+      <c r="AP6" s="349"/>
+      <c r="AQ6" s="350"/>
     </row>
     <row r="7" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
@@ -27912,115 +30058,115 @@
       </c>
       <c r="P7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="Q7" s="209">
         <f ca="1">P7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="R7" s="209">
         <f t="shared" ref="R7:V7" ca="1" si="1">Q7+1</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="S7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="T7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="U7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="V7" s="209">
         <f t="shared" ca="1" si="1"/>
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="W7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="X7" s="209">
         <f ca="1">W7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="Y7" s="209">
         <f t="shared" ref="Y7:AC7" ca="1" si="2">X7+1</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="Z7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AA7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AB7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="AC7" s="209">
         <f t="shared" ca="1" si="2"/>
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="AD7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="AE7" s="209">
         <f ca="1">AD7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="AF7" s="209">
         <f t="shared" ref="AF7:AJ7" ca="1" si="3">AE7+1</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="AG7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AH7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AI7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="AJ7" s="209">
         <f t="shared" ca="1" si="3"/>
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="AK7" s="209">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="AL7" s="209">
         <f ca="1">AK7+1</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="AM7" s="209">
         <f t="shared" ref="AM7:AQ7" ca="1" si="4">AL7+1</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="AN7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="AO7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="AP7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="AQ7" s="209">
         <f t="shared" ca="1" si="4"/>
-        <v>44677</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28062,7 +30208,7 @@
         <v>SERVIÇOS TÉCNICOS</v>
       </c>
       <c r="D9" s="108"/>
-      <c r="E9" s="333"/>
+      <c r="E9" s="352"/>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
@@ -28220,7 +30366,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="334"/>
+      <c r="E10" s="353"/>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="143"/>
@@ -28278,7 +30424,7 @@
         <v>INSTALAÇÕES PROVISÓRIAS</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="333" t="s">
+      <c r="E11" s="352" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="143"/>
@@ -28438,7 +30584,7 @@
         <v>285</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="334"/>
+      <c r="E12" s="353"/>
       <c r="F12" s="143"/>
       <c r="G12" s="143"/>
       <c r="H12" s="143"/>
@@ -28496,7 +30642,7 @@
         <v>EQUIPAMENTOS</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="333" t="s">
+      <c r="E13" s="352" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="143"/>
@@ -28658,7 +30804,7 @@
       <c r="D14" s="79">
         <v>2</v>
       </c>
-      <c r="E14" s="334"/>
+      <c r="E14" s="353"/>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
       <c r="H14" s="143"/>
@@ -28720,7 +30866,7 @@
         <v>DESPESAS INDIRETAS</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="333" t="s">
+      <c r="E15" s="352" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="143"/>
@@ -28880,7 +31026,7 @@
         <v>289</v>
       </c>
       <c r="D16" s="133"/>
-      <c r="E16" s="334"/>
+      <c r="E16" s="353"/>
       <c r="F16" s="143"/>
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
@@ -28972,7 +31118,7 @@
         <v>LIMPEZA DA OBRA</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="333" t="s">
+      <c r="E17" s="352" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="143"/>
@@ -29132,7 +31278,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="133"/>
-      <c r="E18" s="334"/>
+      <c r="E18" s="353"/>
       <c r="F18" s="143"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
@@ -29221,7 +31367,7 @@
         <v xml:space="preserve">TRANSPORTE </v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="333"/>
+      <c r="E19" s="352"/>
       <c r="F19" s="143"/>
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
@@ -29379,7 +31525,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="133"/>
-      <c r="E20" s="334"/>
+      <c r="E20" s="353"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
@@ -29468,7 +31614,7 @@
         <v>MOVIMENTO DE TERRA</v>
       </c>
       <c r="D21" s="108"/>
-      <c r="E21" s="333"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
       <c r="H21" s="143"/>
@@ -29626,7 +31772,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="133"/>
-      <c r="E22" s="334"/>
+      <c r="E22" s="353"/>
       <c r="F22" s="143"/>
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
@@ -29708,7 +31854,7 @@
         <v>FUNDAÇÃO</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="E23" s="333"/>
+      <c r="E23" s="352"/>
       <c r="F23" s="143"/>
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
@@ -29767,7 +31913,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="133"/>
-      <c r="E24" s="334"/>
+      <c r="E24" s="353"/>
       <c r="F24" s="143"/>
       <c r="G24" s="143"/>
       <c r="H24" s="143"/>
@@ -29829,7 +31975,7 @@
         <v>ESTRUTURA</v>
       </c>
       <c r="D25" s="108"/>
-      <c r="E25" s="333"/>
+      <c r="E25" s="352"/>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143"/>
@@ -29909,7 +32055,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="133"/>
-      <c r="E26" s="334"/>
+      <c r="E26" s="353"/>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
       <c r="H26" s="143"/>
@@ -29992,7 +32138,7 @@
         <v>ALVENARIA</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="333"/>
+      <c r="E27" s="352"/>
       <c r="F27" s="143"/>
       <c r="G27" s="143"/>
       <c r="H27" s="143"/>
@@ -30069,7 +32215,7 @@
         <v>292</v>
       </c>
       <c r="D28" s="79"/>
-      <c r="E28" s="334"/>
+      <c r="E28" s="353"/>
       <c r="F28" s="143"/>
       <c r="G28" s="143"/>
       <c r="H28" s="143"/>
@@ -30148,7 +32294,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="108"/>
-      <c r="E29" s="333"/>
+      <c r="E29" s="352"/>
       <c r="F29" s="143"/>
       <c r="G29" s="143"/>
       <c r="H29" s="143"/>
@@ -30204,7 +32350,7 @@
         <v>294</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="334"/>
+      <c r="E30" s="353"/>
       <c r="F30" s="143"/>
       <c r="G30" s="143"/>
       <c r="H30" s="143"/>
@@ -30263,7 +32409,7 @@
         <v>IMPERMEABILIZAÇÃO</v>
       </c>
       <c r="D31" s="108"/>
-      <c r="E31" s="333"/>
+      <c r="E31" s="352"/>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
       <c r="H31" s="143"/>
@@ -30328,7 +32474,7 @@
         <v>295</v>
       </c>
       <c r="D32" s="79"/>
-      <c r="E32" s="334"/>
+      <c r="E32" s="353"/>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
       <c r="H32" s="143"/>
@@ -30396,7 +32542,7 @@
         <v>FORRO E SANCA EM GESSO</v>
       </c>
       <c r="D33" s="115"/>
-      <c r="E33" s="333"/>
+      <c r="E33" s="352"/>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
       <c r="H33" s="143"/>
@@ -30458,7 +32604,7 @@
         <v>287</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="334"/>
+      <c r="E34" s="353"/>
       <c r="F34" s="143"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
@@ -30523,7 +32669,7 @@
         <v>PINTURA</v>
       </c>
       <c r="D35" s="108"/>
-      <c r="E35" s="333"/>
+      <c r="E35" s="352"/>
       <c r="F35" s="143"/>
       <c r="G35" s="143"/>
       <c r="H35" s="143"/>
@@ -30603,7 +32749,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="334"/>
+      <c r="E36" s="353"/>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
       <c r="H36" s="143"/>
@@ -30686,7 +32832,7 @@
         <v>INSTALAÇÕES PREDIAIS</v>
       </c>
       <c r="D37" s="108"/>
-      <c r="E37" s="333"/>
+      <c r="E37" s="352"/>
       <c r="F37" s="143"/>
       <c r="G37" s="143"/>
       <c r="H37" s="143"/>
@@ -30751,7 +32897,7 @@
         <v>295</v>
       </c>
       <c r="D38" s="79"/>
-      <c r="E38" s="334"/>
+      <c r="E38" s="353"/>
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="143"/>
@@ -30819,7 +32965,7 @@
         <v>ELEVADORES PROVISÓRIOS</v>
       </c>
       <c r="D39" s="115"/>
-      <c r="E39" s="333"/>
+      <c r="E39" s="352"/>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
       <c r="H39" s="143"/>
@@ -30875,7 +33021,7 @@
         <v>300</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="334"/>
+      <c r="E40" s="353"/>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
       <c r="H40" s="143"/>
@@ -30934,7 +33080,7 @@
         <v>SERVIÇOS COMPLEMENTARES</v>
       </c>
       <c r="D41" s="108"/>
-      <c r="E41" s="333"/>
+      <c r="E41" s="352"/>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
@@ -30993,7 +33139,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="334"/>
+      <c r="E42" s="353"/>
       <c r="F42" s="143"/>
       <c r="G42" s="143"/>
       <c r="H42" s="143"/>
@@ -31964,21 +34110,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -31987,6 +34118,21 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I10:AQ10">
@@ -32298,39 +34444,39 @@
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="R2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="T2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="U2" s="124"/>
       <c r="V2" s="124"/>
@@ -33111,39 +35257,39 @@
       </c>
       <c r="K2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!P7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="L2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!Q7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="M2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!R7</f>
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="N2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!S7</f>
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="O2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!T7</f>
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="P2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!U7</f>
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="Q2" s="127">
         <f ca="1">'FÍSICO x FINANCEIRO'!V7</f>
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="R2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!W7</f>
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="S2" s="131">
         <f ca="1">'FÍSICO x FINANCEIRO'!X7</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="T2" s="124"/>
       <c r="U2" s="124"/>
@@ -33738,7 +35884,7 @@
   <dimension ref="B5:AR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33763,15 +35909,15 @@
       <c r="C6" s="163" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="339" t="str">
+      <c r="D6" s="361" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E6" s="340"/>
-      <c r="F6" s="340"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="340"/>
-      <c r="I6" s="341"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
+      <c r="G6" s="362"/>
+      <c r="H6" s="362"/>
+      <c r="I6" s="363"/>
       <c r="J6" s="192">
         <v>0</v>
       </c>
@@ -33817,89 +35963,89 @@
       <c r="C7" s="162" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="342" t="str">
+      <c r="D7" s="364" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E7" s="343"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="343"/>
-      <c r="I7" s="344"/>
-      <c r="J7" s="345">
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="365"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="357">
         <f>J8</f>
         <v>44670</v>
       </c>
-      <c r="K7" s="345"/>
-      <c r="L7" s="345"/>
-      <c r="M7" s="345"/>
-      <c r="N7" s="345"/>
-      <c r="O7" s="345"/>
-      <c r="P7" s="346"/>
-      <c r="Q7" s="347">
+      <c r="K7" s="357"/>
+      <c r="L7" s="357"/>
+      <c r="M7" s="357"/>
+      <c r="N7" s="357"/>
+      <c r="O7" s="357"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="356">
         <f>Q8</f>
         <v>44677</v>
       </c>
-      <c r="R7" s="345"/>
-      <c r="S7" s="345"/>
-      <c r="T7" s="345"/>
-      <c r="U7" s="345"/>
-      <c r="V7" s="345"/>
-      <c r="W7" s="346"/>
-      <c r="X7" s="347">
+      <c r="R7" s="357"/>
+      <c r="S7" s="357"/>
+      <c r="T7" s="357"/>
+      <c r="U7" s="357"/>
+      <c r="V7" s="357"/>
+      <c r="W7" s="358"/>
+      <c r="X7" s="356">
         <f t="shared" ref="X7" si="0">X8</f>
         <v>44684</v>
       </c>
-      <c r="Y7" s="345"/>
-      <c r="Z7" s="345"/>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="345"/>
-      <c r="AC7" s="345"/>
-      <c r="AD7" s="346"/>
-      <c r="AE7" s="347">
+      <c r="Y7" s="357"/>
+      <c r="Z7" s="357"/>
+      <c r="AA7" s="357"/>
+      <c r="AB7" s="357"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="358"/>
+      <c r="AE7" s="356">
         <f t="shared" ref="AE7" si="1">AE8</f>
         <v>44691</v>
       </c>
-      <c r="AF7" s="345"/>
-      <c r="AG7" s="345"/>
-      <c r="AH7" s="345"/>
-      <c r="AI7" s="345"/>
-      <c r="AJ7" s="345"/>
-      <c r="AK7" s="346"/>
-      <c r="AL7" s="347">
+      <c r="AF7" s="357"/>
+      <c r="AG7" s="357"/>
+      <c r="AH7" s="357"/>
+      <c r="AI7" s="357"/>
+      <c r="AJ7" s="357"/>
+      <c r="AK7" s="358"/>
+      <c r="AL7" s="356">
         <f t="shared" ref="AL7" si="2">AL8</f>
         <v>44698</v>
       </c>
-      <c r="AM7" s="345"/>
-      <c r="AN7" s="345"/>
-      <c r="AO7" s="345"/>
-      <c r="AP7" s="345"/>
-      <c r="AQ7" s="345"/>
-      <c r="AR7" s="346"/>
+      <c r="AM7" s="357"/>
+      <c r="AN7" s="357"/>
+      <c r="AO7" s="357"/>
+      <c r="AP7" s="357"/>
+      <c r="AQ7" s="357"/>
+      <c r="AR7" s="358"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="350" t="s">
+      <c r="B8" s="354" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="351" t="s">
+      <c r="C8" s="355" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="351" t="s">
+      <c r="D8" s="355" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="351" t="s">
+      <c r="E8" s="355" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="348" t="s">
+      <c r="F8" s="359" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="348" t="s">
+      <c r="G8" s="359" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="348" t="s">
+      <c r="H8" s="359" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="360" t="s">
         <v>315</v>
       </c>
       <c r="J8" s="194">
@@ -34044,14 +36190,14 @@
       </c>
     </row>
     <row r="9" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="350"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="349"/>
+      <c r="B9" s="354"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="360"/>
       <c r="J9" s="201" t="str">
         <f>UPPER(LEFT(TEXT(J8,"DDD"),1))</f>
         <v>T</v>
@@ -34202,15 +36348,17 @@
       </c>
       <c r="D10" s="186">
         <f>IF(C10="","",C10+E10)</f>
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="E10" s="146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="156">
         <v>44670</v>
       </c>
-      <c r="G10" s="156"/>
+      <c r="G10" s="156">
+        <v>44673</v>
+      </c>
       <c r="H10" s="188" t="str">
         <f t="shared" ref="H10:H21" si="6">IF(G10&gt;D10,G10-D10,"")</f>
         <v/>
@@ -34863,21 +37011,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="AE7:AK7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:AR21">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -40982,115 +43130,115 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="368" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="355"/>
-      <c r="J4" s="353" t="s">
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="370"/>
+      <c r="J4" s="368" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="354"/>
-      <c r="L4" s="354"/>
-      <c r="M4" s="354"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="354"/>
-      <c r="P4" s="355"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="369"/>
+      <c r="P4" s="370"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="371" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="J5" s="357" t="s">
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="J5" s="372" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="359"/>
+      <c r="K5" s="373"/>
+      <c r="L5" s="373"/>
+      <c r="M5" s="373"/>
+      <c r="N5" s="373"/>
+      <c r="O5" s="373"/>
+      <c r="P5" s="374"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="362"/>
-      <c r="C6" s="362"/>
-      <c r="D6" s="362"/>
-      <c r="E6" s="362"/>
-      <c r="F6" s="362"/>
-      <c r="G6" s="362"/>
-      <c r="H6" s="362"/>
-      <c r="J6" s="362"/>
-      <c r="K6" s="362"/>
-      <c r="L6" s="362"/>
-      <c r="M6" s="362"/>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362"/>
-      <c r="P6" s="362"/>
+      <c r="B6" s="377"/>
+      <c r="C6" s="377"/>
+      <c r="D6" s="377"/>
+      <c r="E6" s="377"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
+      <c r="P6" s="377"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="363"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="361" t="str">
+      <c r="D7" s="376" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="J7" s="363"/>
+      <c r="E7" s="376"/>
+      <c r="F7" s="376"/>
+      <c r="G7" s="376"/>
+      <c r="H7" s="376"/>
+      <c r="J7" s="378"/>
       <c r="K7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="342" t="str">
+      <c r="L7" s="364" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="M7" s="343"/>
-      <c r="N7" s="343"/>
-      <c r="O7" s="343"/>
-      <c r="P7" s="360"/>
+      <c r="M7" s="365"/>
+      <c r="N7" s="365"/>
+      <c r="O7" s="365"/>
+      <c r="P7" s="375"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="364"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="361" t="str">
+      <c r="D8" s="376" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E8" s="361"/>
-      <c r="F8" s="361"/>
-      <c r="G8" s="361"/>
-      <c r="H8" s="361"/>
-      <c r="J8" s="364"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="376"/>
+      <c r="H8" s="376"/>
+      <c r="J8" s="379"/>
       <c r="K8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="L8" s="342" t="str">
+      <c r="L8" s="364" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="M8" s="343"/>
-      <c r="N8" s="343"/>
-      <c r="O8" s="343"/>
-      <c r="P8" s="360"/>
+      <c r="M8" s="365"/>
+      <c r="N8" s="365"/>
+      <c r="O8" s="365"/>
+      <c r="P8" s="375"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="364"/>
+      <c r="B9" s="379"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
@@ -41103,7 +43251,7 @@
       <c r="H9" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="J9" s="364"/>
+      <c r="J9" s="379"/>
       <c r="K9" s="159" t="s">
         <v>319</v>
       </c>
@@ -41116,7 +43264,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="365"/>
+      <c r="B10" s="380"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -41135,7 +43283,7 @@
       <c r="H10" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="J10" s="365"/>
+      <c r="J10" s="380"/>
       <c r="K10" s="158" t="s">
         <v>316</v>
       </c>
@@ -41156,7 +43304,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="352" t="s">
+      <c r="B11" s="367" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -41167,7 +43315,7 @@
       <c r="F11" s="161"/>
       <c r="G11" s="158"/>
       <c r="H11" s="158"/>
-      <c r="J11" s="352" t="s">
+      <c r="J11" s="367" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="160" t="s">
@@ -41180,7 +43328,7 @@
       <c r="P11" s="158"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="352"/>
+      <c r="B12" s="367"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
@@ -41189,7 +43337,7 @@
       <c r="F12" s="161"/>
       <c r="G12" s="158"/>
       <c r="H12" s="158"/>
-      <c r="J12" s="352"/>
+      <c r="J12" s="367"/>
       <c r="K12" s="160" t="s">
         <v>3</v>
       </c>
@@ -41200,7 +43348,7 @@
       <c r="P12" s="158"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="352"/>
+      <c r="B13" s="367"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
@@ -41209,7 +43357,7 @@
       <c r="F13" s="161"/>
       <c r="G13" s="158"/>
       <c r="H13" s="158"/>
-      <c r="J13" s="352"/>
+      <c r="J13" s="367"/>
       <c r="K13" s="160" t="s">
         <v>4</v>
       </c>
@@ -41220,7 +43368,7 @@
       <c r="P13" s="158"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="352"/>
+      <c r="B14" s="367"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
@@ -41229,7 +43377,7 @@
       <c r="F14" s="161"/>
       <c r="G14" s="158"/>
       <c r="H14" s="158"/>
-      <c r="J14" s="352"/>
+      <c r="J14" s="367"/>
       <c r="K14" s="160" t="s">
         <v>5</v>
       </c>
@@ -41240,7 +43388,7 @@
       <c r="P14" s="158"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="352"/>
+      <c r="B15" s="367"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
@@ -41249,7 +43397,7 @@
       <c r="F15" s="161"/>
       <c r="G15" s="158"/>
       <c r="H15" s="158"/>
-      <c r="J15" s="352"/>
+      <c r="J15" s="367"/>
       <c r="K15" s="160" t="s">
         <v>6</v>
       </c>
@@ -41260,7 +43408,7 @@
       <c r="P15" s="158"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="352"/>
+      <c r="B16" s="367"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
@@ -41269,7 +43417,7 @@
       <c r="F16" s="161"/>
       <c r="G16" s="158"/>
       <c r="H16" s="158"/>
-      <c r="J16" s="352"/>
+      <c r="J16" s="367"/>
       <c r="K16" s="160" t="s">
         <v>7</v>
       </c>
@@ -41280,7 +43428,7 @@
       <c r="P16" s="158"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="352"/>
+      <c r="B17" s="367"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
@@ -41289,7 +43437,7 @@
       <c r="F17" s="161"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
-      <c r="J17" s="352"/>
+      <c r="J17" s="367"/>
       <c r="K17" s="160" t="s">
         <v>8</v>
       </c>
@@ -41300,7 +43448,7 @@
       <c r="P17" s="158"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="352"/>
+      <c r="B18" s="367"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
@@ -41309,7 +43457,7 @@
       <c r="F18" s="161"/>
       <c r="G18" s="158"/>
       <c r="H18" s="158"/>
-      <c r="J18" s="352"/>
+      <c r="J18" s="367"/>
       <c r="K18" s="160" t="s">
         <v>323</v>
       </c>
@@ -41320,7 +43468,7 @@
       <c r="P18" s="158"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="352"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
@@ -41329,7 +43477,7 @@
       <c r="F19" s="161"/>
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
-      <c r="J19" s="352"/>
+      <c r="J19" s="367"/>
       <c r="K19" s="160" t="s">
         <v>324</v>
       </c>
@@ -41340,7 +43488,7 @@
       <c r="P19" s="158"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="352"/>
+      <c r="B20" s="367"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
@@ -41349,7 +43497,7 @@
       <c r="F20" s="161"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
-      <c r="J20" s="352"/>
+      <c r="J20" s="367"/>
       <c r="K20" s="160" t="s">
         <v>325</v>
       </c>
@@ -41398,71 +43546,71 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="368" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="355"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="370"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="371" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="362"/>
-      <c r="C6" s="362"/>
-      <c r="D6" s="362"/>
-      <c r="E6" s="362"/>
-      <c r="F6" s="362"/>
-      <c r="G6" s="362"/>
-      <c r="H6" s="362"/>
-      <c r="I6" s="362"/>
+      <c r="B6" s="377"/>
+      <c r="C6" s="377"/>
+      <c r="D6" s="377"/>
+      <c r="E6" s="377"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="363"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="366" t="str">
+      <c r="D7" s="381" t="str">
         <f>CUST_M_OBRA!C6</f>
         <v>Reforma de imóvel em Jacarepaguá</v>
       </c>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
+      <c r="E7" s="376"/>
+      <c r="F7" s="376"/>
+      <c r="G7" s="376"/>
+      <c r="H7" s="376"/>
+      <c r="I7" s="376"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="364"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="159" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="366" t="str">
+      <c r="D8" s="381" t="str">
         <f>CUST_M_OBRA!C7</f>
         <v>Rua Cassiopeia, n° 86, Taquara - RJ</v>
       </c>
-      <c r="E8" s="361"/>
-      <c r="F8" s="361"/>
-      <c r="G8" s="361"/>
-      <c r="H8" s="361"/>
-      <c r="I8" s="361"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="376"/>
+      <c r="H8" s="376"/>
+      <c r="I8" s="376"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="364"/>
+      <c r="B9" s="379"/>
       <c r="C9" s="159" t="s">
         <v>319</v>
       </c>
@@ -41478,7 +43626,7 @@
       <c r="I9" s="159"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="365"/>
+      <c r="B10" s="380"/>
       <c r="C10" s="158" t="s">
         <v>316</v>
       </c>
@@ -41502,7 +43650,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="352" t="s">
+      <c r="B11" s="367" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -41523,7 +43671,7 @@
       <c r="I11" s="158"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="352"/>
+      <c r="B12" s="367"/>
       <c r="C12" s="160" t="s">
         <v>3</v>
       </c>
@@ -41542,7 +43690,7 @@
       <c r="I12" s="158"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="352"/>
+      <c r="B13" s="367"/>
       <c r="C13" s="160" t="s">
         <v>4</v>
       </c>
@@ -41557,7 +43705,7 @@
       <c r="I13" s="158"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="352"/>
+      <c r="B14" s="367"/>
       <c r="C14" s="160" t="s">
         <v>5</v>
       </c>
@@ -41572,7 +43720,7 @@
       <c r="I14" s="158"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="352"/>
+      <c r="B15" s="367"/>
       <c r="C15" s="160" t="s">
         <v>6</v>
       </c>
@@ -41587,7 +43735,7 @@
       <c r="I15" s="158"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="352"/>
+      <c r="B16" s="367"/>
       <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
@@ -41602,7 +43750,7 @@
       <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="352"/>
+      <c r="B17" s="367"/>
       <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
@@ -41617,7 +43765,7 @@
       <c r="I17" s="158"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="352"/>
+      <c r="B18" s="367"/>
       <c r="C18" s="160" t="s">
         <v>323</v>
       </c>
@@ -41632,7 +43780,7 @@
       <c r="I18" s="158"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="352"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="160" t="s">
         <v>324</v>
       </c>
@@ -41647,7 +43795,7 @@
       <c r="I19" s="158"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="352"/>
+      <c r="B20" s="367"/>
       <c r="C20" s="160" t="s">
         <v>325</v>
       </c>
